--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D3BC35-7468-44D8-92B2-84108FC4D9E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4640F5-E61B-4F3E-8795-80A90863E52D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nExp, nGold, nHeart, nEquip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>,,,10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +85,14 @@
   </si>
   <si>
     <t>15,20,1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp, Gold, Heart, Gacha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,39 +494,56 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>5001</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4640F5-E61B-4F3E-8795-80A90863E52D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1300F8A7-7ADE-4CEA-8504-4B436E7FE1A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -29,14 +29,1829 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5463C47B-E857-432D-AA3B-A2A4CA04D2EF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Enum </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>형식에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> min, max </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>랜덤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>굴림이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정해진다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+int </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> [ , ) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때문에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뒷</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>더하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> n~m </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>까지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일양분포로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결정되도록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">float </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> [ , ] </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그대로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+1 Exp: int
+2 Gold: int
+3 LevelPack: int -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨팩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>굴리는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기회</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">획득
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 Heart: int
+5 Gacha: int -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가챠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>테이블에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>접근한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여기서는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>랜덤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드랍하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가챠를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새롭게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>돌리는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>횟수로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>작동한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+6 Ultimate: float -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>궁게이지인데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>감소하지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그대로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드랍되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제공
+특정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단위로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>랜덤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞추고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>싶으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개발한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) 20~50 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드랍</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단위로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드랍</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(20, 30, 40, 50)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후보</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능하지만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>논의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">제외
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Gem: int -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유료재화는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드랍에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우선</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">제외
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Cash: float -&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현금</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보유량</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> DB</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제어해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3C794FDD-580A-4481-9AAA-6B31FCE02AC6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>성공인지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실패인지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>먼저</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결정한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실패면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드랍이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>dropId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropEnum|String!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,12 +1910,48 @@
     <t>Exp, Gold, Heart, Gacha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>dropEnum|String!</t>
+  </si>
+  <si>
+    <t>dropEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropEnum_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>dropEnum_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>LevelPack</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Gacha</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +1966,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,9 +2003,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,98 +2323,276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="6" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
+    <col min="4" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="7" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="13" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="str">
+        <f ca="1">IF(OR(OFFSET(M1,1,0)&lt;OFFSET(M1,2,0),OFFSET(M1,2,0)&lt;OFFSET(M1,3,0),
+OFFSET(M1,3,0)&lt;OFFSET(M1,4,0),OFFSET(M1,4,0)&lt;OFFSET(M1,5,0),
+OFFSET(M1,5,0)&lt;OFFSET(M1,6,0),OFFSET(M1,6,0)&lt;OFFSET(M1,7,0),
+OFFSET(M1,7,0)&lt;OFFSET(M1,8,0),OFFSET(M1,8,0)&lt;OFFSET(M1,9,0),
+OFFSET(M1,9,0)&lt;OFFSET(M1,10,0),OFFSET(M1,10,0)&lt;OFFSET(M1,11,0),
+OFFSET(M1,11,0)&lt;OFFSET(M1,12,0),OFFSET(M1,12,0)&lt;OFFSET(M1,13,0),
+OFFSET(M1,13,0)&lt;OFFSET(M1,14,0),OFFSET(M1,14,0)&lt;OFFSET(M1,15,0),
+OFFSET(M1,15,0)&lt;OFFSET(M1,16,0),OFFSET(M1,16,0)&lt;OFFSET(M1,17,0),
+OFFSET(M1,17,0)&lt;OFFSET(M1,18,0),OFFSET(M1,18,0)&lt;OFFSET(M1,19,0),
+OFFSET(M1,19,0)&lt;OFFSET(M1,20,0),OFFSET(M1,20,0)&lt;OFFSET(M1,21,0),
+OFFSET(M1,21,0)&lt;OFFSET(M1,22,0),OFFSET(M1,22,0)&lt;OFFSET(M1,23,0),
+OFFSET(M1,23,0)&lt;OFFSET(M1,24,0),OFFSET(M1,24,0)&lt;OFFSET(M1,25,0),
+OFFSET(M1,25,0)&lt;OFFSET(M1,26,0),OFFSET(M1,26,0)&lt;OFFSET(M1,27,0),
+OFFSET(M1,27,0)&lt;OFFSET(M1,28,0),OFFSET(M1,28,0)&lt;OFFSET(M1,29,0),
+OFFSET(M1,29,0)&lt;OFFSET(M1,30,0),OFFSET(M1,30,0)&lt;OFFSET(M1,31,0),
+OFFSET(M1,31,0)&lt;OFFSET(M1,32,0),OFFSET(M1,32,0)&lt;OFFSET(M1,33,0),
+OFFSET(M1,33,0)&lt;OFFSET(M1,34,0),OFFSET(M1,34,0)&lt;OFFSET(M1,35,0),
+OFFSET(M1,35,0)&lt;OFFSET(M1,36,0),OFFSET(M1,36,0)&lt;OFFSET(M1,37,0),
+OFFSET(M1,37,0)&lt;OFFSET(M1,38,0),OFFSET(M1,38,0)&lt;OFFSET(M1,39,0),
+OFFSET(M1,39,0)&lt;OFFSET(M1,40,0),OFFSET(M1,40,0)&lt;OFFSET(M1,41,0),
+OFFSET(M1,41,0)&lt;OFFSET(M1,42,0),OFFSET(M1,42,0)&lt;OFFSET(M1,43,0),
+OFFSET(M1,43,0)&lt;OFFSET(M1,44,0),OFFSET(M1,44,0)&lt;OFFSET(M1,45,0),
+OFFSET(M1,45,0)&lt;OFFSET(M1,46,0),OFFSET(M1,46,0)&lt;OFFSET(M1,47,0),
+OFFSET(M1,47,0)&lt;OFFSET(M1,48,0),OFFSET(M1,48,0)&lt;OFFSET(M1,49,0),
+OFFSET(M1,49,0)&lt;OFFSET(M1,50,0)),"내림차순 정렬할 것","len")</f>
+        <v>len</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" ref="C2:C4" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,
+OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
+        <v>1, 2, 4, 5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <f>LEN(K2)</f>
         <v>9</v>
       </c>
+      <c r="O2" t="str">
+        <f ca="1">IFERROR(HLOOKUP("내림차순 정렬할 것",$1:$1,1,0),"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E3">
         <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <f>LEN(K3)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1, 2, 4, 5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <f>LEN(K4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <f>LEN(K5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>LEN(K6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>LEN(K7)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="K2:M7">
+    <sortCondition descending="1" ref="M2:M7"/>
+    <sortCondition ref="L2:L7"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1300F8A7-7ADE-4CEA-8504-4B436E7FE1A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEC4C74-618A-4CD4-B5C8-BA4C4A8C7405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5463C47B-E857-432D-AA3B-A2A4CA04D2EF}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5463C47B-E857-432D-AA3B-A2A4CA04D2EF}">
       <text>
         <r>
           <rPr>
@@ -1683,11 +1686,231 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>.</t>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>행에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Enum </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여러</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최종적으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합산하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뽑힐</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3C794FDD-580A-4481-9AAA-6B31FCE02AC6}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3C794FDD-580A-4481-9AAA-6B31FCE02AC6}">
       <text>
         <r>
           <rPr>
@@ -1849,7 +2072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1871,49 +2094,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>,,,10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,0.1,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,12,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,,,11001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,16,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,20,1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp, Gold, Heart, Gacha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropEnum|String!</t>
-  </si>
-  <si>
     <t>dropEnum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1945,6 +2125,170 @@
   </si>
   <si>
     <t>Ultimate</t>
+  </si>
+  <si>
+    <t>dropEnum_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subValue_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probability_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minValue_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxValue_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropEnum_2</t>
+  </si>
+  <si>
+    <t>subValue_2</t>
+  </si>
+  <si>
+    <t>probability_2</t>
+  </si>
+  <si>
+    <t>minValue_2</t>
+  </si>
+  <si>
+    <t>maxValue_2</t>
+  </si>
+  <si>
+    <t>dropEnum_3</t>
+  </si>
+  <si>
+    <t>subValue_3</t>
+  </si>
+  <si>
+    <t>probability_3</t>
+  </si>
+  <si>
+    <t>minValue_3</t>
+  </si>
+  <si>
+    <t>maxValue_3</t>
+  </si>
+  <si>
+    <t>dropEnum_4</t>
+  </si>
+  <si>
+    <t>subValue_4</t>
+  </si>
+  <si>
+    <t>probability_4</t>
+  </si>
+  <si>
+    <t>minValue_4</t>
+  </si>
+  <si>
+    <t>maxValue_4</t>
+  </si>
+  <si>
+    <t>드랍설명참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하트 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10 노멀드랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10 보스드랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropEnum_5</t>
+  </si>
+  <si>
+    <t>subValue_5</t>
+  </si>
+  <si>
+    <t>probability_5</t>
+  </si>
+  <si>
+    <t>minValue_5</t>
+  </si>
+  <si>
+    <t>maxValue_5</t>
+  </si>
+  <si>
+    <t>dropEnum_6</t>
+  </si>
+  <si>
+    <t>subValue_6</t>
+  </si>
+  <si>
+    <t>probability_6</t>
+  </si>
+  <si>
+    <t>minValue_6</t>
+  </si>
+  <si>
+    <t>maxValue_6</t>
+  </si>
+  <si>
+    <t>dropEnum_7</t>
+  </si>
+  <si>
+    <t>subValue_7</t>
+  </si>
+  <si>
+    <t>probability_7</t>
+  </si>
+  <si>
+    <t>minValue_7</t>
+  </si>
+  <si>
+    <t>maxValue_7</t>
+  </si>
+  <si>
+    <t>dropEnum_8</t>
+  </si>
+  <si>
+    <t>subValue_8</t>
+  </si>
+  <si>
+    <t>probability_8</t>
+  </si>
+  <si>
+    <t>minValue_8</t>
+  </si>
+  <si>
+    <t>maxValue_8</t>
+  </si>
+  <si>
+    <t>dropEnum_9</t>
+  </si>
+  <si>
+    <t>subValue_9</t>
+  </si>
+  <si>
+    <t>probability_9</t>
+  </si>
+  <si>
+    <t>minValue_9</t>
+  </si>
+  <si>
+    <t>maxValue_9</t>
+  </si>
+  <si>
+    <t>subValue검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropEnum|Int!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1981,12 +2325,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2003,11 +2353,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2025,6 +2381,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="GachaTable"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>gachaId|String</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>10001</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>50001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>30001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>70001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>90001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2324,273 +2724,917 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:BS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="28.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="7" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="13" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="28.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9" collapsed="1"/>
+    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="9" collapsed="1"/>
+    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="9" collapsed="1"/>
+    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="str">
-        <f ca="1">IF(OR(OFFSET(M1,1,0)&lt;OFFSET(M1,2,0),OFFSET(M1,2,0)&lt;OFFSET(M1,3,0),
-OFFSET(M1,3,0)&lt;OFFSET(M1,4,0),OFFSET(M1,4,0)&lt;OFFSET(M1,5,0),
-OFFSET(M1,5,0)&lt;OFFSET(M1,6,0),OFFSET(M1,6,0)&lt;OFFSET(M1,7,0),
-OFFSET(M1,7,0)&lt;OFFSET(M1,8,0),OFFSET(M1,8,0)&lt;OFFSET(M1,9,0),
-OFFSET(M1,9,0)&lt;OFFSET(M1,10,0),OFFSET(M1,10,0)&lt;OFFSET(M1,11,0),
-OFFSET(M1,11,0)&lt;OFFSET(M1,12,0),OFFSET(M1,12,0)&lt;OFFSET(M1,13,0),
-OFFSET(M1,13,0)&lt;OFFSET(M1,14,0),OFFSET(M1,14,0)&lt;OFFSET(M1,15,0),
-OFFSET(M1,15,0)&lt;OFFSET(M1,16,0),OFFSET(M1,16,0)&lt;OFFSET(M1,17,0),
-OFFSET(M1,17,0)&lt;OFFSET(M1,18,0),OFFSET(M1,18,0)&lt;OFFSET(M1,19,0),
-OFFSET(M1,19,0)&lt;OFFSET(M1,20,0),OFFSET(M1,20,0)&lt;OFFSET(M1,21,0),
-OFFSET(M1,21,0)&lt;OFFSET(M1,22,0),OFFSET(M1,22,0)&lt;OFFSET(M1,23,0),
-OFFSET(M1,23,0)&lt;OFFSET(M1,24,0),OFFSET(M1,24,0)&lt;OFFSET(M1,25,0),
-OFFSET(M1,25,0)&lt;OFFSET(M1,26,0),OFFSET(M1,26,0)&lt;OFFSET(M1,27,0),
-OFFSET(M1,27,0)&lt;OFFSET(M1,28,0),OFFSET(M1,28,0)&lt;OFFSET(M1,29,0),
-OFFSET(M1,29,0)&lt;OFFSET(M1,30,0),OFFSET(M1,30,0)&lt;OFFSET(M1,31,0),
-OFFSET(M1,31,0)&lt;OFFSET(M1,32,0),OFFSET(M1,32,0)&lt;OFFSET(M1,33,0),
-OFFSET(M1,33,0)&lt;OFFSET(M1,34,0),OFFSET(M1,34,0)&lt;OFFSET(M1,35,0),
-OFFSET(M1,35,0)&lt;OFFSET(M1,36,0),OFFSET(M1,36,0)&lt;OFFSET(M1,37,0),
-OFFSET(M1,37,0)&lt;OFFSET(M1,38,0),OFFSET(M1,38,0)&lt;OFFSET(M1,39,0),
-OFFSET(M1,39,0)&lt;OFFSET(M1,40,0),OFFSET(M1,40,0)&lt;OFFSET(M1,41,0),
-OFFSET(M1,41,0)&lt;OFFSET(M1,42,0),OFFSET(M1,42,0)&lt;OFFSET(M1,43,0),
-OFFSET(M1,43,0)&lt;OFFSET(M1,44,0),OFFSET(M1,44,0)&lt;OFFSET(M1,45,0),
-OFFSET(M1,45,0)&lt;OFFSET(M1,46,0),OFFSET(M1,46,0)&lt;OFFSET(M1,47,0),
-OFFSET(M1,47,0)&lt;OFFSET(M1,48,0),OFFSET(M1,48,0)&lt;OFFSET(M1,49,0),
-OFFSET(M1,49,0)&lt;OFFSET(M1,50,0)),"내림차순 정렬할 것","len")</f>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP1" t="str">
+        <f ca="1">IF(OR(OFFSET(BP1,1,0)&lt;OFFSET(BP1,2,0),OFFSET(BP1,2,0)&lt;OFFSET(BP1,3,0),
+OFFSET(BP1,3,0)&lt;OFFSET(BP1,4,0),OFFSET(BP1,4,0)&lt;OFFSET(BP1,5,0),
+OFFSET(BP1,5,0)&lt;OFFSET(BP1,6,0),OFFSET(BP1,6,0)&lt;OFFSET(BP1,7,0),
+OFFSET(BP1,7,0)&lt;OFFSET(BP1,8,0),OFFSET(BP1,8,0)&lt;OFFSET(BP1,9,0),
+OFFSET(BP1,9,0)&lt;OFFSET(BP1,10,0),OFFSET(BP1,10,0)&lt;OFFSET(BP1,11,0),
+OFFSET(BP1,11,0)&lt;OFFSET(BP1,12,0),OFFSET(BP1,12,0)&lt;OFFSET(BP1,13,0),
+OFFSET(BP1,13,0)&lt;OFFSET(BP1,14,0),OFFSET(BP1,14,0)&lt;OFFSET(BP1,15,0),
+OFFSET(BP1,15,0)&lt;OFFSET(BP1,16,0),OFFSET(BP1,16,0)&lt;OFFSET(BP1,17,0),
+OFFSET(BP1,17,0)&lt;OFFSET(BP1,18,0),OFFSET(BP1,18,0)&lt;OFFSET(BP1,19,0),
+OFFSET(BP1,19,0)&lt;OFFSET(BP1,20,0),OFFSET(BP1,20,0)&lt;OFFSET(BP1,21,0),
+OFFSET(BP1,21,0)&lt;OFFSET(BP1,22,0),OFFSET(BP1,22,0)&lt;OFFSET(BP1,23,0),
+OFFSET(BP1,23,0)&lt;OFFSET(BP1,24,0),OFFSET(BP1,24,0)&lt;OFFSET(BP1,25,0),
+OFFSET(BP1,25,0)&lt;OFFSET(BP1,26,0),OFFSET(BP1,26,0)&lt;OFFSET(BP1,27,0),
+OFFSET(BP1,27,0)&lt;OFFSET(BP1,28,0),OFFSET(BP1,28,0)&lt;OFFSET(BP1,29,0),
+OFFSET(BP1,29,0)&lt;OFFSET(BP1,30,0),OFFSET(BP1,30,0)&lt;OFFSET(BP1,31,0),
+OFFSET(BP1,31,0)&lt;OFFSET(BP1,32,0),OFFSET(BP1,32,0)&lt;OFFSET(BP1,33,0),
+OFFSET(BP1,33,0)&lt;OFFSET(BP1,34,0),OFFSET(BP1,34,0)&lt;OFFSET(BP1,35,0),
+OFFSET(BP1,35,0)&lt;OFFSET(BP1,36,0),OFFSET(BP1,36,0)&lt;OFFSET(BP1,37,0),
+OFFSET(BP1,37,0)&lt;OFFSET(BP1,38,0),OFFSET(BP1,38,0)&lt;OFFSET(BP1,39,0),
+OFFSET(BP1,39,0)&lt;OFFSET(BP1,40,0),OFFSET(BP1,40,0)&lt;OFFSET(BP1,41,0),
+OFFSET(BP1,41,0)&lt;OFFSET(BP1,42,0),OFFSET(BP1,42,0)&lt;OFFSET(BP1,43,0),
+OFFSET(BP1,43,0)&lt;OFFSET(BP1,44,0),OFFSET(BP1,44,0)&lt;OFFSET(BP1,45,0),
+OFFSET(BP1,45,0)&lt;OFFSET(BP1,46,0),OFFSET(BP1,46,0)&lt;OFFSET(BP1,47,0),
+OFFSET(BP1,47,0)&lt;OFFSET(BP1,48,0),OFFSET(BP1,48,0)&lt;OFFSET(BP1,49,0),
+OFFSET(BP1,49,0)&lt;OFFSET(BP1,50,0)),"내림차순 정렬할 것","len")</f>
         <v>len</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C4" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <v>37</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C4" si="0">IF(ISBLANK(I2),"",I2)
+&amp;IF(ISBLANK(O2),"",", "&amp;O2)
+&amp;IF(ISBLANK(U2),"",", "&amp;U2)
+&amp;IF(ISBLANK(AA2),"",", "&amp;AA2)
+&amp;IF(ISBLANK(AG2),"",", "&amp;AG2)
+&amp;IF(ISBLANK(AM2),"",", "&amp;AM2)
+&amp;IF(ISBLANK(AS2),"",", "&amp;AS2)
+&amp;IF(ISBLANK(AY2),"",", "&amp;AY2)
+&amp;IF(ISBLANK(BE2),"",", "&amp;BE2)</f>
+        <v>Exp, Gold, Heart, Gacha</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,
-OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>1, 2, 4, 5</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
+      <c r="E2" s="1" t="str">
+        <f t="shared" ref="E2:E4" si="1">IF(ISBLANK(J2),"",J2)
+&amp;IF(ISBLANK(O2),"",", "&amp;P2)
+&amp;IF(ISBLANK(U2),"",", "&amp;V2)
+&amp;IF(ISBLANK(AA2),"",", "&amp;AB2)
+&amp;IF(ISBLANK(AG2),"",", "&amp;AH2)
+&amp;IF(ISBLANK(AM2),"",", "&amp;AN2)
+&amp;IF(ISBLANK(AS2),"",", "&amp;AT2)
+&amp;IF(ISBLANK(AY2),"",", "&amp;AZ2)
+&amp;IF(ISBLANK(BE2),"",", "&amp;BF2)</f>
+        <v>, , , 10001</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f t="shared" ref="F2:F4" si="2">IF(ISBLANK(L2),"",L2)
+&amp;IF(ISBLANK(R2),"",", "&amp;R2)
+&amp;IF(ISBLANK(X2),"",", "&amp;X2)
+&amp;IF(ISBLANK(AD2),"",", "&amp;AD2)
+&amp;IF(ISBLANK(AJ2),"",", "&amp;AJ2)
+&amp;IF(ISBLANK(AP2),"",", "&amp;AP2)
+&amp;IF(ISBLANK(AV2),"",", "&amp;AV2)
+&amp;IF(ISBLANK(BB2),"",", "&amp;BB2)
+&amp;IF(ISBLANK(BH2),"",", "&amp;BH2)</f>
+        <v>1, 1, 0.1, 0.05</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2:G4" si="3">IF(ISBLANK(M2),"",M2)
+&amp;IF(ISBLANK(S2),"",", "&amp;S2)
+&amp;IF(ISBLANK(Y2),"",", "&amp;Y2)
+&amp;IF(ISBLANK(AE2),"",", "&amp;AE2)
+&amp;IF(ISBLANK(AK2),"",", "&amp;AK2)
+&amp;IF(ISBLANK(AQ2),"",", "&amp;AQ2)
+&amp;IF(ISBLANK(AW2),"",", "&amp;AW2)
+&amp;IF(ISBLANK(BC2),"",", "&amp;BC2)
+&amp;IF(ISBLANK(BI2),"",", "&amp;BI2)</f>
+        <v>10, 12, 1, 1</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" ref="H2:H4" si="4">IF(ISBLANK(N2),"",N2)
+&amp;IF(ISBLANK(T2),"",", "&amp;T2)
+&amp;IF(ISBLANK(Z2),"",", "&amp;Z2)
+&amp;IF(ISBLANK(AF2),"",", "&amp;AF2)
+&amp;IF(ISBLANK(AL2),"",", "&amp;AL2)
+&amp;IF(ISBLANK(AR2),"",", "&amp;AR2)
+&amp;IF(ISBLANK(AX2),"",", "&amp;AX2)
+&amp;IF(ISBLANK(BD2),"",", "&amp;BD2)
+&amp;IF(ISBLANK(BJ2),"",", "&amp;BJ2)</f>
+        <v>10, 14, 1, 1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(I2="Gacha",
+IF(ISBLANK(J2),"비어있음",
+IF(ISERROR(VLOOKUP(J2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(O2="Gacha",
+IF(ISBLANK(P2),"비어있음",
+IF(ISERROR(VLOOKUP(P2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>14</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" t="str">
+        <f>IF(U2="Gacha",
+IF(ISBLANK(V2),"비어있음",
+IF(ISERROR(VLOOKUP(V2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <v>0.1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2">
+        <v>10001</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>IF(AA2="Gacha",
+IF(ISBLANK(AB2),"비어있음",
+IF(ISERROR(VLOOKUP(AB2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD2">
+        <v>0.05</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3"/>
+      <c r="AI2" t="str">
+        <f>IF(AG2="Gacha",
+IF(ISBLANK(AH2),"비어있음",
+IF(ISERROR(VLOOKUP(AH2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM2" s="3"/>
+      <c r="AO2" t="str">
+        <f>IF(AM2="Gacha",
+IF(ISBLANK(AN2),"비어있음",
+IF(ISERROR(VLOOKUP(AN2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS2" s="3"/>
+      <c r="AU2" t="str">
+        <f>IF(AS2="Gacha",
+IF(ISBLANK(AT2),"비어있음",
+IF(ISERROR(VLOOKUP(AT2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY2" s="3"/>
+      <c r="BA2" t="str">
+        <f>IF(AY2="Gacha",
+IF(ISBLANK(AZ2),"비어있음",
+IF(ISERROR(VLOOKUP(AZ2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE2" s="3"/>
+      <c r="BG2" t="str">
+        <f>IF(BE2="Gacha",
+IF(ISBLANK(BF2),"비어있음",
+IF(ISERROR(VLOOKUP(BF2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BL2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO2">
         <v>3</v>
       </c>
-      <c r="M2">
-        <f>LEN(K2)</f>
+      <c r="BP2">
+        <f t="shared" ref="BP2:BP7" si="5">LEN(BN2)</f>
         <v>9</v>
       </c>
-      <c r="O2" t="str">
+      <c r="BR2" t="str">
         <f ca="1">IFERROR(HLOOKUP("내림차순 정렬할 것",$1:$1,1,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>Heart</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(I3="Gacha",
+IF(ISBLANK(J3),"비어있음",
+IF(ISERROR(VLOOKUP(J3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="Q3" t="str">
+        <f>IF(O3="Gacha",
+IF(ISBLANK(P3),"비어있음",
+IF(ISERROR(VLOOKUP(P3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="W3" t="str">
+        <f>IF(U3="Gacha",
+IF(ISBLANK(V3),"비어있음",
+IF(ISERROR(VLOOKUP(V3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AC3" t="str">
+        <f>IF(AA3="Gacha",
+IF(ISBLANK(AB3),"비어있음",
+IF(ISERROR(VLOOKUP(AB3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AI3" t="str">
+        <f>IF(AG3="Gacha",
+IF(ISBLANK(AH3),"비어있음",
+IF(ISERROR(VLOOKUP(AH3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM3" s="3"/>
+      <c r="AO3" t="str">
+        <f>IF(AM3="Gacha",
+IF(ISBLANK(AN3),"비어있음",
+IF(ISERROR(VLOOKUP(AN3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS3" s="3"/>
+      <c r="AU3" t="str">
+        <f>IF(AS3="Gacha",
+IF(ISBLANK(AT3),"비어있음",
+IF(ISERROR(VLOOKUP(AT3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY3" s="3"/>
+      <c r="BA3" t="str">
+        <f>IF(AY3="Gacha",
+IF(ISBLANK(AZ3),"비어있음",
+IF(ISERROR(VLOOKUP(AZ3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE3" s="3"/>
+      <c r="BG3" t="str">
+        <f>IF(BE3="Gacha",
+IF(ISBLANK(BF3),"비어있음",
+IF(ISERROR(VLOOKUP(BF3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO3">
         <v>6</v>
       </c>
-      <c r="M3">
-        <f>LEN(K3)</f>
+      <c r="BP3">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5001</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Exp, Gold, Heart, Gacha</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>1, 2, 4, 5</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>, , , 50001</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1, 1, 1, 1</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>15, 16, 1, 2</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>15, 20, 1, 4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(I4="Gacha",
+IF(ISBLANK(J4),"비어있음",
+IF(ISERROR(VLOOKUP(J4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF(O4="Gacha",
+IF(ISBLANK(P4),"비어있음",
+IF(ISERROR(VLOOKUP(P4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" t="str">
+        <f>IF(U4="Gacha",
+IF(ISBLANK(V4),"비어있음",
+IF(ISERROR(VLOOKUP(V4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4">
+        <v>50001</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>IF(AA4="Gacha",
+IF(ISBLANK(AB4),"비어있음",
+IF(ISERROR(VLOOKUP(AB4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="3"/>
+      <c r="AI4" t="str">
+        <f>IF(AG4="Gacha",
+IF(ISBLANK(AH4),"비어있음",
+IF(ISERROR(VLOOKUP(AH4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM4" s="3"/>
+      <c r="AO4" t="str">
+        <f>IF(AM4="Gacha",
+IF(ISBLANK(AN4),"비어있음",
+IF(ISERROR(VLOOKUP(AN4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS4" s="3"/>
+      <c r="AU4" t="str">
+        <f>IF(AS4="Gacha",
+IF(ISBLANK(AT4),"비어있음",
+IF(ISERROR(VLOOKUP(AT4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY4" s="3"/>
+      <c r="BA4" t="str">
+        <f>IF(AY4="Gacha",
+IF(ISBLANK(AZ4),"비어있음",
+IF(ISERROR(VLOOKUP(AZ4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE4" s="3"/>
+      <c r="BG4" t="str">
+        <f>IF(BE4="Gacha",
+IF(ISBLANK(BF4),"비어있음",
+IF(ISERROR(VLOOKUP(BF4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BL4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO4">
+        <v>4</v>
+      </c>
+      <c r="BP4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BL5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO5">
+        <v>5</v>
+      </c>
+      <c r="BP5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BL6" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO6">
+        <v>2</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BL7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1, 2, 4, 5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="BN7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <f>LEN(K4)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <f>LEN(K5)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <f>LEN(K6)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7">
+      <c r="BO7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <f>LEN(K7)</f>
+      <c r="BP7">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="K2:M7">
-    <sortCondition descending="1" ref="M2:M7"/>
-    <sortCondition ref="L2:L7"/>
+  <sortState ref="BN2:BP3">
+    <sortCondition descending="1" ref="BP2:BP3"/>
+    <sortCondition ref="BO2:BO3"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4 AA2:AA4 U2:U4 O2:O4 AM2:AM4 AS2:AS4 AY2:AY4 AG2:AG4 BE2:BE4" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEC4C74-618A-4CD4-B5C8-BA4C4A8C7405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4508622C-2237-452C-8E1E-3D53F40919F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2072,7 +2073,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2288,6 +2289,10 @@
   </si>
   <si>
     <t>dropEnum|Int!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 1개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2730,7 +2735,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3000,7 +3005,7 @@
         <v>37</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C4" si="0">IF(ISBLANK(I2),"",I2)
+        <f t="shared" ref="C2:C5" si="0">IF(ISBLANK(I2),"",I2)
 &amp;IF(ISBLANK(O2),"",", "&amp;O2)
 &amp;IF(ISBLANK(U2),"",", "&amp;U2)
 &amp;IF(ISBLANK(AA2),"",", "&amp;AA2)
@@ -3045,7 +3050,7 @@
         <v>1, 2, 4, 5</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E4" si="1">IF(ISBLANK(J2),"",J2)
+        <f t="shared" ref="E2:E5" si="1">IF(ISBLANK(J2),"",J2)
 &amp;IF(ISBLANK(O2),"",", "&amp;P2)
 &amp;IF(ISBLANK(U2),"",", "&amp;V2)
 &amp;IF(ISBLANK(AA2),"",", "&amp;AB2)
@@ -3057,7 +3062,7 @@
         <v>, , , 10001</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F4" si="2">IF(ISBLANK(L2),"",L2)
+        <f t="shared" ref="F2:F5" si="2">IF(ISBLANK(L2),"",L2)
 &amp;IF(ISBLANK(R2),"",", "&amp;R2)
 &amp;IF(ISBLANK(X2),"",", "&amp;X2)
 &amp;IF(ISBLANK(AD2),"",", "&amp;AD2)
@@ -3069,7 +3074,7 @@
         <v>1, 1, 0.1, 0.05</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G4" si="3">IF(ISBLANK(M2),"",M2)
+        <f t="shared" ref="G2:G5" si="3">IF(ISBLANK(M2),"",M2)
 &amp;IF(ISBLANK(S2),"",", "&amp;S2)
 &amp;IF(ISBLANK(Y2),"",", "&amp;Y2)
 &amp;IF(ISBLANK(AE2),"",", "&amp;AE2)
@@ -3081,7 +3086,7 @@
         <v>10, 12, 1, 1</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:H4" si="4">IF(ISBLANK(N2),"",N2)
+        <f t="shared" ref="H2:H5" si="4">IF(ISBLANK(N2),"",N2)
 &amp;IF(ISBLANK(T2),"",", "&amp;T2)
 &amp;IF(ISBLANK(Z2),"",", "&amp;Z2)
 &amp;IF(ISBLANK(AF2),"",", "&amp;AF2)
@@ -3388,14 +3393,22 @@
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5001</v>
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>Exp, Gold, Heart, Gacha</v>
+        <f t="shared" ref="C4" si="6">IF(ISBLANK(I4),"",I4)
+&amp;IF(ISBLANK(O4),"",", "&amp;O4)
+&amp;IF(ISBLANK(U4),"",", "&amp;U4)
+&amp;IF(ISBLANK(AA4),"",", "&amp;AA4)
+&amp;IF(ISBLANK(AG4),"",", "&amp;AG4)
+&amp;IF(ISBLANK(AM4),"",", "&amp;AM4)
+&amp;IF(ISBLANK(AS4),"",", "&amp;AS4)
+&amp;IF(ISBLANK(AY4),"",", "&amp;AY4)
+&amp;IF(ISBLANK(BE4),"",", "&amp;BE4)</f>
+        <v>Gacha</v>
       </c>
       <c r="D4" s="1" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3428,26 +3441,61 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>1, 2, 4, 5</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>, , , 50001</v>
+        <f t="shared" ref="E4" si="7">IF(ISBLANK(J4),"",J4)
+&amp;IF(ISBLANK(O4),"",", "&amp;P4)
+&amp;IF(ISBLANK(U4),"",", "&amp;V4)
+&amp;IF(ISBLANK(AA4),"",", "&amp;AB4)
+&amp;IF(ISBLANK(AG4),"",", "&amp;AH4)
+&amp;IF(ISBLANK(AM4),"",", "&amp;AN4)
+&amp;IF(ISBLANK(AS4),"",", "&amp;AT4)
+&amp;IF(ISBLANK(AY4),"",", "&amp;AZ4)
+&amp;IF(ISBLANK(BE4),"",", "&amp;BF4)</f>
+        <v>10001</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>1, 1, 1, 1</v>
+        <f t="shared" ref="F4" si="8">IF(ISBLANK(L4),"",L4)
+&amp;IF(ISBLANK(R4),"",", "&amp;R4)
+&amp;IF(ISBLANK(X4),"",", "&amp;X4)
+&amp;IF(ISBLANK(AD4),"",", "&amp;AD4)
+&amp;IF(ISBLANK(AJ4),"",", "&amp;AJ4)
+&amp;IF(ISBLANK(AP4),"",", "&amp;AP4)
+&amp;IF(ISBLANK(AV4),"",", "&amp;AV4)
+&amp;IF(ISBLANK(BB4),"",", "&amp;BB4)
+&amp;IF(ISBLANK(BH4),"",", "&amp;BH4)</f>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>15, 16, 1, 2</v>
+        <f t="shared" ref="G4" si="9">IF(ISBLANK(M4),"",M4)
+&amp;IF(ISBLANK(S4),"",", "&amp;S4)
+&amp;IF(ISBLANK(Y4),"",", "&amp;Y4)
+&amp;IF(ISBLANK(AE4),"",", "&amp;AE4)
+&amp;IF(ISBLANK(AK4),"",", "&amp;AK4)
+&amp;IF(ISBLANK(AQ4),"",", "&amp;AQ4)
+&amp;IF(ISBLANK(AW4),"",", "&amp;AW4)
+&amp;IF(ISBLANK(BC4),"",", "&amp;BC4)
+&amp;IF(ISBLANK(BI4),"",", "&amp;BI4)</f>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>15, 20, 1, 4</v>
+        <f t="shared" ref="H4" si="10">IF(ISBLANK(N4),"",N4)
+&amp;IF(ISBLANK(T4),"",", "&amp;T4)
+&amp;IF(ISBLANK(Z4),"",", "&amp;Z4)
+&amp;IF(ISBLANK(AF4),"",", "&amp;AF4)
+&amp;IF(ISBLANK(AL4),"",", "&amp;AL4)
+&amp;IF(ISBLANK(AR4),"",", "&amp;AR4)
+&amp;IF(ISBLANK(AX4),"",", "&amp;AX4)
+&amp;IF(ISBLANK(BD4),"",", "&amp;BD4)
+&amp;IF(ISBLANK(BJ4),"",", "&amp;BJ4)</f>
+        <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
       </c>
       <c r="K4" t="str">
         <f>IF(I4="Gacha",
@@ -3460,14 +3508,12 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>15</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O4" s="3"/>
       <c r="Q4" t="str">
         <f>IF(O4="Gacha",
 IF(ISBLANK(P4),"비어있음",
@@ -3475,18 +3521,7 @@
 "")</f>
         <v/>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>16</v>
-      </c>
-      <c r="T4">
-        <v>20</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="U4" s="3"/>
       <c r="W4" t="str">
         <f>IF(U4="Gacha",
 IF(ISBLANK(V4),"비어있음",
@@ -3494,36 +3529,13 @@
 "")</f>
         <v/>
       </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB4">
-        <v>50001</v>
-      </c>
+      <c r="AA4" s="3"/>
       <c r="AC4" t="str">
         <f>IF(AA4="Gacha",
 IF(ISBLANK(AB4),"비어있음",
 IF(ISERROR(VLOOKUP(AB4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>2</v>
-      </c>
-      <c r="AF4">
-        <v>4</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AI4" t="str">
@@ -3580,6 +3592,184 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Exp, Gold, Heart, Gacha</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>1, 2, 4, 5</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>, , , 50001</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1, 1, 1, 1</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>15, 16, 1, 2</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>15, 20, 1, 4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(I5="Gacha",
+IF(ISBLANK(J5),"비어있음",
+IF(ISERROR(VLOOKUP(J5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>IF(O5="Gacha",
+IF(ISBLANK(P5),"비어있음",
+IF(ISERROR(VLOOKUP(P5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" t="str">
+        <f>IF(U5="Gacha",
+IF(ISBLANK(V5),"비어있음",
+IF(ISERROR(VLOOKUP(V5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5">
+        <v>50001</v>
+      </c>
+      <c r="AC5" t="str">
+        <f>IF(AA5="Gacha",
+IF(ISBLANK(AB5),"비어있음",
+IF(ISERROR(VLOOKUP(AB5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="3"/>
+      <c r="AI5" t="str">
+        <f>IF(AG5="Gacha",
+IF(ISBLANK(AH5),"비어있음",
+IF(ISERROR(VLOOKUP(AH5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM5" s="3"/>
+      <c r="AO5" t="str">
+        <f>IF(AM5="Gacha",
+IF(ISBLANK(AN5),"비어있음",
+IF(ISERROR(VLOOKUP(AN5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS5" s="3"/>
+      <c r="AU5" t="str">
+        <f>IF(AS5="Gacha",
+IF(ISBLANK(AT5),"비어있음",
+IF(ISERROR(VLOOKUP(AT5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY5" s="3"/>
+      <c r="BA5" t="str">
+        <f>IF(AY5="Gacha",
+IF(ISBLANK(AZ5),"비어있음",
+IF(ISERROR(VLOOKUP(AZ5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE5" s="3"/>
+      <c r="BG5" t="str">
+        <f>IF(BE5="Gacha",
+IF(ISBLANK(BF5),"비어있음",
+IF(ISERROR(VLOOKUP(BF5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
       <c r="BL5" t="s">
         <v>12</v>
       </c>
@@ -3625,13 +3815,13 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="BN2:BP3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BP3">
     <sortCondition descending="1" ref="BP2:BP3"/>
     <sortCondition ref="BO2:BO3"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4 AA2:AA4 U2:U4 O2:O4 AM2:AM4 AS2:AS4 AY2:AY4 AG2:AG4 BE2:BE4" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I5 AA2:AA5 U2:U5 O2:O5 AM2:AM5 AS2:AS5 AY2:AY5 AG2:AG5 BE2:BE5" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4508622C-2237-452C-8E1E-3D53F40919F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EA4061-9220-482A-9C88-37C41A597C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
+    <sheet name="DropAdjustTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2072,8 +2072,146 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B185C483-0729-4D69-8275-F8572A7C29E7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전설</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드랍</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내부조정으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>골든키의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스치는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영툴에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적는다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2293,6 +2431,14 @@
   </si>
   <si>
     <t>장비 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remainCount|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2729,47 +2875,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS7"/>
+  <dimension ref="A1:BR7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="28.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="9" collapsed="1"/>
-    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="9" collapsed="1"/>
-    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="9" collapsed="1"/>
-    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="71" max="71" width="9" collapsed="1"/>
+    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3815,7 +3957,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BP3">
+  <sortState ref="BN2:BP3">
     <sortCondition descending="1" ref="BP2:BP3"/>
     <sortCondition ref="BO2:BO3"/>
   </sortState>
@@ -3829,4 +3971,100 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F446BF-3A16-4AF8-83EB-58CC9CFE4AFE}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="0">B2/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EA4061-9220-482A-9C88-37C41A597C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A00C8A-BD41-47DF-A9EB-0057827404C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2211,7 +2212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2875,43 +2876,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BR7"/>
+  <dimension ref="A1:BS7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="28.125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="28.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9" collapsed="1"/>
+    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="9" collapsed="1"/>
+    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="9" collapsed="1"/>
+    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3742,7 +3747,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>Exp, Gold, Heart, Gacha</v>
+        <v>Exp, Gold, Heart, Gacha, LevelPack</v>
       </c>
       <c r="D5" s="1" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3775,23 +3780,23 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>1, 2, 4, 5</v>
+        <v>1, 2, 4, 5, 3</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>, , , 50001</v>
+        <v xml:space="preserve">, , , 50001, </v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1, 1, 1, 1</v>
+        <v>1, 1, 1, 1, 1</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>15, 16, 1, 2</v>
+        <v>15, 16, 1, 2, 1</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>15, 20, 1, 4</v>
+        <v>15, 20, 1, 4, 1</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
@@ -3872,13 +3877,24 @@
       <c r="AF5">
         <v>4</v>
       </c>
-      <c r="AG5" s="3"/>
+      <c r="AG5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="AI5" t="str">
         <f>IF(AG5="Gacha",
 IF(ISBLANK(AH5),"비어있음",
 IF(ISERROR(VLOOKUP(AH5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
       </c>
       <c r="AM5" s="3"/>
       <c r="AO5" t="str">
@@ -3977,7 +3993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F446BF-3A16-4AF8-83EB-58CC9CFE4AFE}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A00C8A-BD41-47DF-A9EB-0057827404C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93797FA3-602F-4FD4-B313-D8EFD21FD3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -3161,7 +3161,7 @@
 &amp;IF(ISBLANK(AS2),"",", "&amp;AS2)
 &amp;IF(ISBLANK(AY2),"",", "&amp;AY2)
 &amp;IF(ISBLANK(BE2),"",", "&amp;BE2)</f>
-        <v>Exp, Gold, Heart, Gacha</v>
+        <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D2" s="1" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3194,7 +3194,7 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>1, 2, 4, 5</v>
+        <v>2, 1, 4, 5</v>
       </c>
       <c r="E2" s="1" t="str">
         <f t="shared" ref="E2:E5" si="1">IF(ISBLANK(J2),"",J2)
@@ -3230,7 +3230,7 @@
 &amp;IF(ISBLANK(AW2),"",", "&amp;AW2)
 &amp;IF(ISBLANK(BC2),"",", "&amp;BC2)
 &amp;IF(ISBLANK(BI2),"",", "&amp;BI2)</f>
-        <v>10, 12, 1, 1</v>
+        <v>12, 5, 1, 1</v>
       </c>
       <c r="H2" s="1" t="str">
         <f t="shared" ref="H2:H5" si="4">IF(ISBLANK(N2),"",N2)
@@ -3242,10 +3242,10 @@
 &amp;IF(ISBLANK(AX2),"",", "&amp;AX2)
 &amp;IF(ISBLANK(BD2),"",", "&amp;BD2)
 &amp;IF(ISBLANK(BJ2),"",", "&amp;BJ2)</f>
-        <v>10, 14, 1, 1</v>
+        <v>14, 5, 1, 1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" t="str">
         <f>IF(I2="Gacha",
@@ -3258,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="str">
         <f>IF(O2="Gacha",
@@ -3277,10 +3277,10 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>12</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>Exp, Gold, Heart, Gacha, LevelPack</v>
+        <v>Gold, Exp, Heart, Gacha, LevelPack</v>
       </c>
       <c r="D5" s="1" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3780,7 +3780,7 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>1, 2, 4, 5, 3</v>
+        <v>2, 1, 4, 5, 3</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3792,14 +3792,14 @@
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>15, 16, 1, 2, 1</v>
+        <v>16, 96, 1, 2, 1</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>15, 20, 1, 4, 1</v>
+        <v>20, 96, 1, 4, 1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" t="str">
         <f>IF(I5="Gacha",
@@ -3812,13 +3812,13 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(O5="Gacha",
@@ -3831,10 +3831,10 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="T5">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>12</v>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93797FA3-602F-4FD4-B313-D8EFD21FD3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0315CB-A791-4862-B3D4-7061871AEBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2344,10 +2344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-10 보스드랍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dropEnum_5</t>
   </si>
   <si>
@@ -2440,6 +2436,22 @@
   </si>
   <si>
     <t>remainCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 중간보스드랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 최종보스드랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gacha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2889,7 +2901,7 @@
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="28.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="40.875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2930,7 +2942,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2951,7 +2963,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
         <v>17</v>
@@ -2969,7 +2981,7 @@
         <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R1" t="s">
         <v>22</v>
@@ -2987,7 +2999,7 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X1" t="s">
         <v>27</v>
@@ -3005,7 +3017,7 @@
         <v>31</v>
       </c>
       <c r="AC1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s">
         <v>32</v>
@@ -3017,94 +3029,94 @@
         <v>34</v>
       </c>
       <c r="AG1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP1" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV1" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>51</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>52</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" t="s">
         <v>54</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB1" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" t="s">
         <v>59</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH1" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>61</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>62</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>63</v>
       </c>
       <c r="BL1" t="s">
         <v>6</v>
@@ -3218,7 +3230,7 @@
 &amp;IF(ISBLANK(AV2),"",", "&amp;AV2)
 &amp;IF(ISBLANK(BB2),"",", "&amp;BB2)
 &amp;IF(ISBLANK(BH2),"",", "&amp;BH2)</f>
-        <v>1, 1, 0.1, 0.05</v>
+        <v>1, 1, 0.1, 0.001</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" ref="G2:G5" si="3">IF(ISBLANK(M2),"",M2)
@@ -3315,7 +3327,7 @@
         <v/>
       </c>
       <c r="AD2">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -3543,7 +3555,7 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4" si="6">IF(ISBLANK(I4),"",I4)
@@ -3743,11 +3755,11 @@
         <v>5001</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>Gold, Exp, Heart, Gacha, LevelPack</v>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
       </c>
       <c r="D5" s="1" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3780,23 +3792,23 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2, 1, 4, 5, 3</v>
+        <v>2, 1, 4, 3, 5, 5</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">, , , 50001, </v>
+        <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1, 1, 1, 1, 1</v>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>16, 96, 1, 2, 1</v>
+        <v>16, 75, 2, 1, 1, 1</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>20, 96, 1, 4, 1</v>
+        <v>20, 75, 2, 1, 1, 1</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>10</v>
@@ -3831,10 +3843,10 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="T5">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>12</v>
@@ -3850,13 +3862,13 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="AB5">
         <v>50001</v>
@@ -3872,13 +3884,16 @@
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="AH5">
+        <v>50001</v>
       </c>
       <c r="AI5" t="str">
         <f>IF(AG5="Gacha",
@@ -3888,7 +3903,7 @@
         <v/>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -3896,13 +3911,27 @@
       <c r="AL5">
         <v>1</v>
       </c>
-      <c r="AM5" s="3"/>
+      <c r="AM5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN5">
+        <v>50001</v>
+      </c>
       <c r="AO5" t="str">
         <f>IF(AM5="Gacha",
 IF(ISBLANK(AN5),"비어있음",
 IF(ISERROR(VLOOKUP(AN5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AP5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
       </c>
       <c r="AS5" s="3"/>
       <c r="AU5" t="str">
@@ -3943,6 +3972,229 @@
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="11">IF(ISBLANK(I6),"",I6)
+&amp;IF(ISBLANK(O6),"",", "&amp;O6)
+&amp;IF(ISBLANK(U6),"",", "&amp;U6)
+&amp;IF(ISBLANK(AA6),"",", "&amp;AA6)
+&amp;IF(ISBLANK(AG6),"",", "&amp;AG6)
+&amp;IF(ISBLANK(AM6),"",", "&amp;AM6)
+&amp;IF(ISBLANK(AS6),"",", "&amp;AS6)
+&amp;IF(ISBLANK(AY6),"",", "&amp;AY6)
+&amp;IF(ISBLANK(BE6),"",", "&amp;BE6)</f>
+        <v>Gold, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 5, 5, 5</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" ref="E6" si="12">IF(ISBLANK(J6),"",J6)
+&amp;IF(ISBLANK(O6),"",", "&amp;P6)
+&amp;IF(ISBLANK(U6),"",", "&amp;V6)
+&amp;IF(ISBLANK(AA6),"",", "&amp;AB6)
+&amp;IF(ISBLANK(AG6),"",", "&amp;AH6)
+&amp;IF(ISBLANK(AM6),"",", "&amp;AN6)
+&amp;IF(ISBLANK(AS6),"",", "&amp;AT6)
+&amp;IF(ISBLANK(AY6),"",", "&amp;AZ6)
+&amp;IF(ISBLANK(BE6),"",", "&amp;BF6)</f>
+        <v>, 50001, 50001, 50001</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" ref="F6" si="13">IF(ISBLANK(L6),"",L6)
+&amp;IF(ISBLANK(R6),"",", "&amp;R6)
+&amp;IF(ISBLANK(X6),"",", "&amp;X6)
+&amp;IF(ISBLANK(AD6),"",", "&amp;AD6)
+&amp;IF(ISBLANK(AJ6),"",", "&amp;AJ6)
+&amp;IF(ISBLANK(AP6),"",", "&amp;AP6)
+&amp;IF(ISBLANK(AV6),"",", "&amp;AV6)
+&amp;IF(ISBLANK(BB6),"",", "&amp;BB6)
+&amp;IF(ISBLANK(BH6),"",", "&amp;BH6)</f>
+        <v>1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ref="G6" si="14">IF(ISBLANK(M6),"",M6)
+&amp;IF(ISBLANK(S6),"",", "&amp;S6)
+&amp;IF(ISBLANK(Y6),"",", "&amp;Y6)
+&amp;IF(ISBLANK(AE6),"",", "&amp;AE6)
+&amp;IF(ISBLANK(AK6),"",", "&amp;AK6)
+&amp;IF(ISBLANK(AQ6),"",", "&amp;AQ6)
+&amp;IF(ISBLANK(AW6),"",", "&amp;AW6)
+&amp;IF(ISBLANK(BC6),"",", "&amp;BC6)
+&amp;IF(ISBLANK(BI6),"",", "&amp;BI6)</f>
+        <v>16, 1, 1, 1</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6" si="15">IF(ISBLANK(N6),"",N6)
+&amp;IF(ISBLANK(T6),"",", "&amp;T6)
+&amp;IF(ISBLANK(Z6),"",", "&amp;Z6)
+&amp;IF(ISBLANK(AF6),"",", "&amp;AF6)
+&amp;IF(ISBLANK(AL6),"",", "&amp;AL6)
+&amp;IF(ISBLANK(AR6),"",", "&amp;AR6)
+&amp;IF(ISBLANK(AX6),"",", "&amp;AX6)
+&amp;IF(ISBLANK(BD6),"",", "&amp;BD6)
+&amp;IF(ISBLANK(BJ6),"",", "&amp;BJ6)</f>
+        <v>20, 1, 1, 1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(I6="Gacha",
+IF(ISBLANK(J6),"비어있음",
+IF(ISERROR(VLOOKUP(J6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>50001</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>IF(O6="Gacha",
+IF(ISBLANK(P6),"비어있음",
+IF(ISERROR(VLOOKUP(P6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6">
+        <v>50001</v>
+      </c>
+      <c r="W6" t="str">
+        <f>IF(U6="Gacha",
+IF(ISBLANK(V6),"비어있음",
+IF(ISERROR(VLOOKUP(V6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <v>0.1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6">
+        <v>50001</v>
+      </c>
+      <c r="AC6" t="str">
+        <f>IF(AA6="Gacha",
+IF(ISBLANK(AB6),"비어있음",
+IF(ISERROR(VLOOKUP(AB6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD6">
+        <v>0.05</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AI6" t="str">
+        <f>IF(AG6="Gacha",
+IF(ISBLANK(AH6),"비어있음",
+IF(ISERROR(VLOOKUP(AH6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM6" s="3"/>
+      <c r="AO6" t="str">
+        <f>IF(AM6="Gacha",
+IF(ISBLANK(AN6),"비어있음",
+IF(ISERROR(VLOOKUP(AN6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS6" s="3"/>
+      <c r="AU6" t="str">
+        <f>IF(AS6="Gacha",
+IF(ISBLANK(AT6),"비어있음",
+IF(ISERROR(VLOOKUP(AT6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BA6" t="str">
+        <f>IF(AY6="Gacha",
+IF(ISBLANK(AZ6),"비어있음",
+IF(ISERROR(VLOOKUP(AZ6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE6" s="3"/>
+      <c r="BG6" t="str">
+        <f>IF(BE6="Gacha",
+IF(ISBLANK(BF6),"비어있음",
+IF(ISERROR(VLOOKUP(BF6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
       <c r="BL6" t="s">
         <v>13</v>
       </c>
@@ -3979,7 +4231,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I5 AA2:AA5 U2:U5 O2:O5 AM2:AM5 AS2:AS5 AY2:AY5 AG2:AG5 BE2:BE5" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM6 BE2:BE6 I2:I6 AY2:AY5 AS2:AS6 O2:O6 U2:U6 AG2:AG6 AA2:AA6" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3993,7 +4245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F446BF-3A16-4AF8-83EB-58CC9CFE4AFE}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4002,10 +4256,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0315CB-A791-4862-B3D4-7061871AEBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244E2B4-FC66-4CC3-8AE6-F24EEB681486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -2891,7 +2891,7 @@
   <dimension ref="A1:BS7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
@@ -3230,7 +3230,7 @@
 &amp;IF(ISBLANK(AV2),"",", "&amp;AV2)
 &amp;IF(ISBLANK(BB2),"",", "&amp;BB2)
 &amp;IF(ISBLANK(BH2),"",", "&amp;BH2)</f>
-        <v>1, 1, 0.1, 0.001</v>
+        <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" ref="G2:G5" si="3">IF(ISBLANK(M2),"",M2)
@@ -3305,7 +3305,7 @@
         <v/>
       </c>
       <c r="X2">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Y2">
         <v>1</v>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244E2B4-FC66-4CC3-8AE6-F24EEB681486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCD48B3-C8C2-4733-9E8B-3DBF131E05A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -2212,7 +2212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2888,10 +2888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS7"/>
+  <dimension ref="A1:BS9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
@@ -3804,11 +3804,11 @@
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>16, 75, 2, 1, 1, 1</v>
+        <v>16, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>20, 75, 2, 1, 1, 1</v>
+        <v>20, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>10</v>
@@ -3843,10 +3843,10 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>12</v>
@@ -3976,10 +3976,10 @@
         <v>5002</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6" si="11">IF(ISBLANK(I6),"",I6)
+        <f t="shared" ref="C6:C8" si="11">IF(ISBLANK(I6),"",I6)
 &amp;IF(ISBLANK(O6),"",", "&amp;O6)
 &amp;IF(ISBLANK(U6),"",", "&amp;U6)
 &amp;IF(ISBLANK(AA6),"",", "&amp;AA6)
@@ -3988,10 +3988,10 @@
 &amp;IF(ISBLANK(AS6),"",", "&amp;AS6)
 &amp;IF(ISBLANK(AY6),"",", "&amp;AY6)
 &amp;IF(ISBLANK(BE6),"",", "&amp;BE6)</f>
-        <v>Gold, Gacha, Gacha, Gacha</v>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D6:D8" ca="1" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -4021,10 +4021,10 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2, 5, 5, 5</v>
+        <v>2, 1, 4, 3, 5, 5</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6" si="12">IF(ISBLANK(J6),"",J6)
+        <f t="shared" ref="E6:E8" si="13">IF(ISBLANK(J6),"",J6)
 &amp;IF(ISBLANK(O6),"",", "&amp;P6)
 &amp;IF(ISBLANK(U6),"",", "&amp;V6)
 &amp;IF(ISBLANK(AA6),"",", "&amp;AB6)
@@ -4033,10 +4033,10 @@
 &amp;IF(ISBLANK(AS6),"",", "&amp;AT6)
 &amp;IF(ISBLANK(AY6),"",", "&amp;AZ6)
 &amp;IF(ISBLANK(BE6),"",", "&amp;BF6)</f>
-        <v>, 50001, 50001, 50001</v>
+        <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" ref="F6" si="13">IF(ISBLANK(L6),"",L6)
+        <f t="shared" ref="F6:F8" si="14">IF(ISBLANK(L6),"",L6)
 &amp;IF(ISBLANK(R6),"",", "&amp;R6)
 &amp;IF(ISBLANK(X6),"",", "&amp;X6)
 &amp;IF(ISBLANK(AD6),"",", "&amp;AD6)
@@ -4045,10 +4045,10 @@
 &amp;IF(ISBLANK(AV6),"",", "&amp;AV6)
 &amp;IF(ISBLANK(BB6),"",", "&amp;BB6)
 &amp;IF(ISBLANK(BH6),"",", "&amp;BH6)</f>
-        <v>1, 0.5, 0.1, 0.05</v>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" ref="G6" si="14">IF(ISBLANK(M6),"",M6)
+        <f t="shared" ref="G6:G8" si="15">IF(ISBLANK(M6),"",M6)
 &amp;IF(ISBLANK(S6),"",", "&amp;S6)
 &amp;IF(ISBLANK(Y6),"",", "&amp;Y6)
 &amp;IF(ISBLANK(AE6),"",", "&amp;AE6)
@@ -4057,10 +4057,10 @@
 &amp;IF(ISBLANK(AW6),"",", "&amp;AW6)
 &amp;IF(ISBLANK(BC6),"",", "&amp;BC6)
 &amp;IF(ISBLANK(BI6),"",", "&amp;BI6)</f>
-        <v>16, 1, 1, 1</v>
+        <v>16, 200, 2, 1, 1, 1</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6" si="15">IF(ISBLANK(N6),"",N6)
+        <f t="shared" ref="H6:H8" si="16">IF(ISBLANK(N6),"",N6)
 &amp;IF(ISBLANK(T6),"",", "&amp;T6)
 &amp;IF(ISBLANK(Z6),"",", "&amp;Z6)
 &amp;IF(ISBLANK(AF6),"",", "&amp;AF6)
@@ -4069,7 +4069,7 @@
 &amp;IF(ISBLANK(AX6),"",", "&amp;AX6)
 &amp;IF(ISBLANK(BD6),"",", "&amp;BD6)
 &amp;IF(ISBLANK(BJ6),"",", "&amp;BJ6)</f>
-        <v>20, 1, 1, 1</v>
+        <v>20, 200, 2, 1, 1, 1</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>10</v>
@@ -4091,10 +4091,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6">
-        <v>50001</v>
+        <v>9</v>
       </c>
       <c r="Q6" t="str">
         <f>IF(O6="Gacha",
@@ -4104,19 +4101,16 @@
         <v/>
       </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6">
-        <v>50001</v>
+        <v>12</v>
       </c>
       <c r="W6" t="str">
         <f>IF(U6="Gacha",
@@ -4126,16 +4120,16 @@
         <v/>
       </c>
       <c r="X6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="AB6">
         <v>50001</v>
@@ -4148,7 +4142,7 @@
         <v/>
       </c>
       <c r="AD6">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -4156,7 +4150,12 @@
       <c r="AF6">
         <v>1</v>
       </c>
-      <c r="AG6" s="3"/>
+      <c r="AG6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH6">
+        <v>50001</v>
+      </c>
       <c r="AI6" t="str">
         <f>IF(AG6="Gacha",
 IF(ISBLANK(AH6),"비어있음",
@@ -4164,13 +4163,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AM6" s="3"/>
+      <c r="AJ6">
+        <v>0.25</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN6">
+        <v>50001</v>
+      </c>
       <c r="AO6" t="str">
         <f>IF(AM6="Gacha",
 IF(ISBLANK(AN6),"비어있음",
 IF(ISERROR(VLOOKUP(AN6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AP6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
       </c>
       <c r="AS6" s="3"/>
       <c r="AU6" t="str">
@@ -4180,6 +4202,7 @@
 "")</f>
         <v/>
       </c>
+      <c r="AY6" s="3"/>
       <c r="BA6" t="str">
         <f>IF(AY6="Gacha",
 IF(ISBLANK(AZ6),"비어있음",
@@ -4210,6 +4233,183 @@
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="11"/>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2, 1, 4, 3, 5, 5</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>16, 300, 2, 1, 1, 1</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>20, 300, 2, 1, 1, 1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(I7="Gacha",
+IF(ISBLANK(J7),"비어있음",
+IF(ISERROR(VLOOKUP(J7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>IF(O7="Gacha",
+IF(ISBLANK(P7),"비어있음",
+IF(ISERROR(VLOOKUP(P7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>300</v>
+      </c>
+      <c r="T7">
+        <v>300</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" t="str">
+        <f>IF(U7="Gacha",
+IF(ISBLANK(V7),"비어있음",
+IF(ISERROR(VLOOKUP(V7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB7">
+        <v>50001</v>
+      </c>
+      <c r="AC7" t="str">
+        <f>IF(AA7="Gacha",
+IF(ISBLANK(AB7),"비어있음",
+IF(ISERROR(VLOOKUP(AB7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH7">
+        <v>50001</v>
+      </c>
+      <c r="AI7" t="str">
+        <f>IF(AG7="Gacha",
+IF(ISBLANK(AH7),"비어있음",
+IF(ISERROR(VLOOKUP(AH7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AJ7">
+        <v>0.25</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN7">
+        <v>50001</v>
+      </c>
+      <c r="AO7" t="str">
+        <f>IF(AM7="Gacha",
+IF(ISBLANK(AN7),"비어있음",
+IF(ISERROR(VLOOKUP(AN7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AP7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="3"/>
+      <c r="AU7" t="str">
+        <f>IF(AS7="Gacha",
+IF(ISBLANK(AT7),"비어있음",
+IF(ISERROR(VLOOKUP(AT7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY7" s="3"/>
+      <c r="BA7" t="str">
+        <f>IF(AY7="Gacha",
+IF(ISBLANK(AZ7),"비어있음",
+IF(ISERROR(VLOOKUP(AZ7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE7" s="3"/>
+      <c r="BG7" t="str">
+        <f>IF(BE7="Gacha",
+IF(ISBLANK(BF7),"비어있음",
+IF(ISERROR(VLOOKUP(BF7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
       <c r="BL7" t="s">
         <v>14</v>
       </c>
@@ -4222,6 +4422,410 @@
       <c r="BP7">
         <f t="shared" si="5"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="11"/>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2, 1, 4, 3, 5, 5</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>16, 400, 2, 1, 1, 1</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>20, 400, 2, 1, 1, 1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="str">
+        <f>IF(I8="Gacha",
+IF(ISBLANK(J8),"비어있음",
+IF(ISERROR(VLOOKUP(J8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>IF(O8="Gacha",
+IF(ISBLANK(P8),"비어있음",
+IF(ISERROR(VLOOKUP(P8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>400</v>
+      </c>
+      <c r="T8">
+        <v>400</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" t="str">
+        <f>IF(U8="Gacha",
+IF(ISBLANK(V8),"비어있음",
+IF(ISERROR(VLOOKUP(V8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB8">
+        <v>50001</v>
+      </c>
+      <c r="AC8" t="str">
+        <f>IF(AA8="Gacha",
+IF(ISBLANK(AB8),"비어있음",
+IF(ISERROR(VLOOKUP(AB8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH8">
+        <v>50001</v>
+      </c>
+      <c r="AI8" t="str">
+        <f>IF(AG8="Gacha",
+IF(ISBLANK(AH8),"비어있음",
+IF(ISERROR(VLOOKUP(AH8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AJ8">
+        <v>0.25</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN8">
+        <v>50001</v>
+      </c>
+      <c r="AO8" t="str">
+        <f>IF(AM8="Gacha",
+IF(ISBLANK(AN8),"비어있음",
+IF(ISERROR(VLOOKUP(AN8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AP8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="3"/>
+      <c r="AU8" t="str">
+        <f>IF(AS8="Gacha",
+IF(ISBLANK(AT8),"비어있음",
+IF(ISERROR(VLOOKUP(AT8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY8" s="3"/>
+      <c r="BA8" t="str">
+        <f>IF(AY8="Gacha",
+IF(ISBLANK(AZ8),"비어있음",
+IF(ISERROR(VLOOKUP(AZ8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE8" s="3"/>
+      <c r="BG8" t="str">
+        <f>IF(BE8="Gacha",
+IF(ISBLANK(BF8),"비어있음",
+IF(ISERROR(VLOOKUP(BF8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9" si="17">IF(ISBLANK(I9),"",I9)
+&amp;IF(ISBLANK(O9),"",", "&amp;O9)
+&amp;IF(ISBLANK(U9),"",", "&amp;U9)
+&amp;IF(ISBLANK(AA9),"",", "&amp;AA9)
+&amp;IF(ISBLANK(AG9),"",", "&amp;AG9)
+&amp;IF(ISBLANK(AM9),"",", "&amp;AM9)
+&amp;IF(ISBLANK(AS9),"",", "&amp;AS9)
+&amp;IF(ISBLANK(AY9),"",", "&amp;AY9)
+&amp;IF(ISBLANK(BE9),"",", "&amp;BE9)</f>
+        <v>Gold, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 5, 5, 5</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" ref="E9" si="18">IF(ISBLANK(J9),"",J9)
+&amp;IF(ISBLANK(O9),"",", "&amp;P9)
+&amp;IF(ISBLANK(U9),"",", "&amp;V9)
+&amp;IF(ISBLANK(AA9),"",", "&amp;AB9)
+&amp;IF(ISBLANK(AG9),"",", "&amp;AH9)
+&amp;IF(ISBLANK(AM9),"",", "&amp;AN9)
+&amp;IF(ISBLANK(AS9),"",", "&amp;AT9)
+&amp;IF(ISBLANK(AY9),"",", "&amp;AZ9)
+&amp;IF(ISBLANK(BE9),"",", "&amp;BF9)</f>
+        <v>, 50001, 50001, 50001</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" ref="F9" si="19">IF(ISBLANK(L9),"",L9)
+&amp;IF(ISBLANK(R9),"",", "&amp;R9)
+&amp;IF(ISBLANK(X9),"",", "&amp;X9)
+&amp;IF(ISBLANK(AD9),"",", "&amp;AD9)
+&amp;IF(ISBLANK(AJ9),"",", "&amp;AJ9)
+&amp;IF(ISBLANK(AP9),"",", "&amp;AP9)
+&amp;IF(ISBLANK(AV9),"",", "&amp;AV9)
+&amp;IF(ISBLANK(BB9),"",", "&amp;BB9)
+&amp;IF(ISBLANK(BH9),"",", "&amp;BH9)</f>
+        <v>1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" ref="G9" si="20">IF(ISBLANK(M9),"",M9)
+&amp;IF(ISBLANK(S9),"",", "&amp;S9)
+&amp;IF(ISBLANK(Y9),"",", "&amp;Y9)
+&amp;IF(ISBLANK(AE9),"",", "&amp;AE9)
+&amp;IF(ISBLANK(AK9),"",", "&amp;AK9)
+&amp;IF(ISBLANK(AQ9),"",", "&amp;AQ9)
+&amp;IF(ISBLANK(AW9),"",", "&amp;AW9)
+&amp;IF(ISBLANK(BC9),"",", "&amp;BC9)
+&amp;IF(ISBLANK(BI9),"",", "&amp;BI9)</f>
+        <v>16, 1, 1, 1</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" ref="H9" si="21">IF(ISBLANK(N9),"",N9)
+&amp;IF(ISBLANK(T9),"",", "&amp;T9)
+&amp;IF(ISBLANK(Z9),"",", "&amp;Z9)
+&amp;IF(ISBLANK(AF9),"",", "&amp;AF9)
+&amp;IF(ISBLANK(AL9),"",", "&amp;AL9)
+&amp;IF(ISBLANK(AR9),"",", "&amp;AR9)
+&amp;IF(ISBLANK(AX9),"",", "&amp;AX9)
+&amp;IF(ISBLANK(BD9),"",", "&amp;BD9)
+&amp;IF(ISBLANK(BJ9),"",", "&amp;BJ9)</f>
+        <v>20, 1, 1, 1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="str">
+        <f>IF(I9="Gacha",
+IF(ISBLANK(J9),"비어있음",
+IF(ISERROR(VLOOKUP(J9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>50001</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>IF(O9="Gacha",
+IF(ISBLANK(P9),"비어있음",
+IF(ISERROR(VLOOKUP(P9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9">
+        <v>50001</v>
+      </c>
+      <c r="W9" t="str">
+        <f>IF(U9="Gacha",
+IF(ISBLANK(V9),"비어있음",
+IF(ISERROR(VLOOKUP(V9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <v>0.1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB9">
+        <v>50001</v>
+      </c>
+      <c r="AC9" t="str">
+        <f>IF(AA9="Gacha",
+IF(ISBLANK(AB9),"비어있음",
+IF(ISERROR(VLOOKUP(AB9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD9">
+        <v>0.05</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AI9" t="str">
+        <f>IF(AG9="Gacha",
+IF(ISBLANK(AH9),"비어있음",
+IF(ISERROR(VLOOKUP(AH9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM9" s="3"/>
+      <c r="AO9" t="str">
+        <f>IF(AM9="Gacha",
+IF(ISBLANK(AN9),"비어있음",
+IF(ISERROR(VLOOKUP(AN9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS9" s="3"/>
+      <c r="AU9" t="str">
+        <f>IF(AS9="Gacha",
+IF(ISBLANK(AT9),"비어있음",
+IF(ISERROR(VLOOKUP(AT9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BA9" t="str">
+        <f>IF(AY9="Gacha",
+IF(ISBLANK(AZ9),"비어있음",
+IF(ISERROR(VLOOKUP(AZ9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE9" s="3"/>
+      <c r="BG9" t="str">
+        <f>IF(BE9="Gacha",
+IF(ISBLANK(BF9),"비어있음",
+IF(ISERROR(VLOOKUP(BF9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -4231,7 +4835,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM6 BE2:BE6 I2:I6 AY2:AY5 AS2:AS6 O2:O6 U2:U6 AG2:AG6 AA2:AA6" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM9 BE2:BE9 I2:I9 AS2:AS9 O2:O9 U2:U9 AG2:AG9 AA2:AA9 AY2:AY8" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCD48B3-C8C2-4733-9E8B-3DBF131E05A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5040474-4D5B-4336-AA56-0F0C1DAA7A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2212,7 +2212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2452,6 +2452,22 @@
   </si>
   <si>
     <t>Gacha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-20 노멀드랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-30 노멀드랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31-40 노멀드랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41-50 노멀드랍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2888,7 +2904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS9"/>
+  <dimension ref="A1:BS13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3164,7 +3180,7 @@
         <v>37</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C5" si="0">IF(ISBLANK(I2),"",I2)
+        <f t="shared" ref="C2:C9" si="0">IF(ISBLANK(I2),"",I2)
 &amp;IF(ISBLANK(O2),"",", "&amp;O2)
 &amp;IF(ISBLANK(U2),"",", "&amp;U2)
 &amp;IF(ISBLANK(AA2),"",", "&amp;AA2)
@@ -3209,7 +3225,7 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E5" si="1">IF(ISBLANK(J2),"",J2)
+        <f t="shared" ref="E2:E9" si="1">IF(ISBLANK(J2),"",J2)
 &amp;IF(ISBLANK(O2),"",", "&amp;P2)
 &amp;IF(ISBLANK(U2),"",", "&amp;V2)
 &amp;IF(ISBLANK(AA2),"",", "&amp;AB2)
@@ -3221,7 +3237,7 @@
         <v>, , , 10001</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F5" si="2">IF(ISBLANK(L2),"",L2)
+        <f t="shared" ref="F2:F9" si="2">IF(ISBLANK(L2),"",L2)
 &amp;IF(ISBLANK(R2),"",", "&amp;R2)
 &amp;IF(ISBLANK(X2),"",", "&amp;X2)
 &amp;IF(ISBLANK(AD2),"",", "&amp;AD2)
@@ -3233,7 +3249,7 @@
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G5" si="3">IF(ISBLANK(M2),"",M2)
+        <f t="shared" ref="G2:G9" si="3">IF(ISBLANK(M2),"",M2)
 &amp;IF(ISBLANK(S2),"",", "&amp;S2)
 &amp;IF(ISBLANK(Y2),"",", "&amp;Y2)
 &amp;IF(ISBLANK(AE2),"",", "&amp;AE2)
@@ -3245,7 +3261,7 @@
         <v>12, 5, 1, 1</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:H5" si="4">IF(ISBLANK(N2),"",N2)
+        <f t="shared" ref="H2:H9" si="4">IF(ISBLANK(N2),"",N2)
 &amp;IF(ISBLANK(T2),"",", "&amp;T2)
 &amp;IF(ISBLANK(Z2),"",", "&amp;Z2)
 &amp;IF(ISBLANK(AF2),"",", "&amp;AF2)
@@ -3398,11 +3414,19 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>Heart</v>
+        <f t="shared" ref="C3:C6" si="6">IF(ISBLANK(I3),"",I3)
+&amp;IF(ISBLANK(O3),"",", "&amp;O3)
+&amp;IF(ISBLANK(U3),"",", "&amp;U3)
+&amp;IF(ISBLANK(AA3),"",", "&amp;AA3)
+&amp;IF(ISBLANK(AG3),"",", "&amp;AG3)
+&amp;IF(ISBLANK(AM3),"",", "&amp;AM3)
+&amp;IF(ISBLANK(AS3),"",", "&amp;AS3)
+&amp;IF(ISBLANK(AY3),"",", "&amp;AY3)
+&amp;IF(ISBLANK(BE3),"",", "&amp;BE3)</f>
+        <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D3" s="1" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3435,26 +3459,58 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>4</v>
+        <v>2, 1, 4, 5</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" ref="E3:E6" si="7">IF(ISBLANK(J3),"",J3)
+&amp;IF(ISBLANK(O3),"",", "&amp;P3)
+&amp;IF(ISBLANK(U3),"",", "&amp;V3)
+&amp;IF(ISBLANK(AA3),"",", "&amp;AB3)
+&amp;IF(ISBLANK(AG3),"",", "&amp;AH3)
+&amp;IF(ISBLANK(AM3),"",", "&amp;AN3)
+&amp;IF(ISBLANK(AS3),"",", "&amp;AT3)
+&amp;IF(ISBLANK(AY3),"",", "&amp;AZ3)
+&amp;IF(ISBLANK(BE3),"",", "&amp;BF3)</f>
+        <v>, , , 10001</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="F3:F6" si="8">IF(ISBLANK(L3),"",L3)
+&amp;IF(ISBLANK(R3),"",", "&amp;R3)
+&amp;IF(ISBLANK(X3),"",", "&amp;X3)
+&amp;IF(ISBLANK(AD3),"",", "&amp;AD3)
+&amp;IF(ISBLANK(AJ3),"",", "&amp;AJ3)
+&amp;IF(ISBLANK(AP3),"",", "&amp;AP3)
+&amp;IF(ISBLANK(AV3),"",", "&amp;AV3)
+&amp;IF(ISBLANK(BB3),"",", "&amp;BB3)
+&amp;IF(ISBLANK(BH3),"",", "&amp;BH3)</f>
+        <v>1, 1, 0.05625, 0.001</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" ref="G3:G6" si="9">IF(ISBLANK(M3),"",M3)
+&amp;IF(ISBLANK(S3),"",", "&amp;S3)
+&amp;IF(ISBLANK(Y3),"",", "&amp;Y3)
+&amp;IF(ISBLANK(AE3),"",", "&amp;AE3)
+&amp;IF(ISBLANK(AK3),"",", "&amp;AK3)
+&amp;IF(ISBLANK(AQ3),"",", "&amp;AQ3)
+&amp;IF(ISBLANK(AW3),"",", "&amp;AW3)
+&amp;IF(ISBLANK(BC3),"",", "&amp;BC3)
+&amp;IF(ISBLANK(BI3),"",", "&amp;BI3)</f>
+        <v>12, 5, 1, 1</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" ref="H3:H6" si="10">IF(ISBLANK(N3),"",N3)
+&amp;IF(ISBLANK(T3),"",", "&amp;T3)
+&amp;IF(ISBLANK(Z3),"",", "&amp;Z3)
+&amp;IF(ISBLANK(AF3),"",", "&amp;AF3)
+&amp;IF(ISBLANK(AL3),"",", "&amp;AL3)
+&amp;IF(ISBLANK(AR3),"",", "&amp;AR3)
+&amp;IF(ISBLANK(AX3),"",", "&amp;AX3)
+&amp;IF(ISBLANK(BD3),"",", "&amp;BD3)
+&amp;IF(ISBLANK(BJ3),"",", "&amp;BJ3)</f>
+        <v>14, 5, 1, 1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K3" t="str">
         <f>IF(I3="Gacha",
@@ -3467,12 +3523,14 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Q3" t="str">
         <f>IF(O3="Gacha",
 IF(ISBLANK(P3),"비어있음",
@@ -3480,7 +3538,18 @@
 "")</f>
         <v/>
       </c>
-      <c r="U3" s="3"/>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="W3" t="str">
         <f>IF(U3="Gacha",
 IF(ISBLANK(V3),"비어있음",
@@ -3488,13 +3557,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AA3" s="3"/>
+      <c r="X3">
+        <v>5.6249999999999994E-2</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3">
+        <v>10001</v>
+      </c>
       <c r="AC3" t="str">
         <f>IF(AA3="Gacha",
 IF(ISBLANK(AB3),"비어있음",
 IF(ISERROR(VLOOKUP(AB3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AD3">
+        <v>1E-3</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AI3" t="str">
@@ -3555,22 +3647,14 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4" si="6">IF(ISBLANK(I4),"",I4)
-&amp;IF(ISBLANK(O4),"",", "&amp;O4)
-&amp;IF(ISBLANK(U4),"",", "&amp;U4)
-&amp;IF(ISBLANK(AA4),"",", "&amp;AA4)
-&amp;IF(ISBLANK(AG4),"",", "&amp;AG4)
-&amp;IF(ISBLANK(AM4),"",", "&amp;AM4)
-&amp;IF(ISBLANK(AS4),"",", "&amp;AS4)
-&amp;IF(ISBLANK(AY4),"",", "&amp;AY4)
-&amp;IF(ISBLANK(BE4),"",", "&amp;BE4)</f>
-        <v>Gacha</v>
+        <f t="shared" si="6"/>
+        <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D4:D6" ca="1" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3600,61 +3684,26 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>5</v>
+        <v>2, 1, 4, 5</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4" si="7">IF(ISBLANK(J4),"",J4)
-&amp;IF(ISBLANK(O4),"",", "&amp;P4)
-&amp;IF(ISBLANK(U4),"",", "&amp;V4)
-&amp;IF(ISBLANK(AA4),"",", "&amp;AB4)
-&amp;IF(ISBLANK(AG4),"",", "&amp;AH4)
-&amp;IF(ISBLANK(AM4),"",", "&amp;AN4)
-&amp;IF(ISBLANK(AS4),"",", "&amp;AT4)
-&amp;IF(ISBLANK(AY4),"",", "&amp;AZ4)
-&amp;IF(ISBLANK(BE4),"",", "&amp;BF4)</f>
-        <v>10001</v>
+        <f t="shared" si="7"/>
+        <v>, , , 10001</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4" si="8">IF(ISBLANK(L4),"",L4)
-&amp;IF(ISBLANK(R4),"",", "&amp;R4)
-&amp;IF(ISBLANK(X4),"",", "&amp;X4)
-&amp;IF(ISBLANK(AD4),"",", "&amp;AD4)
-&amp;IF(ISBLANK(AJ4),"",", "&amp;AJ4)
-&amp;IF(ISBLANK(AP4),"",", "&amp;AP4)
-&amp;IF(ISBLANK(AV4),"",", "&amp;AV4)
-&amp;IF(ISBLANK(BB4),"",", "&amp;BB4)
-&amp;IF(ISBLANK(BH4),"",", "&amp;BH4)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1, 1, 0.05, 0.001</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4" si="9">IF(ISBLANK(M4),"",M4)
-&amp;IF(ISBLANK(S4),"",", "&amp;S4)
-&amp;IF(ISBLANK(Y4),"",", "&amp;Y4)
-&amp;IF(ISBLANK(AE4),"",", "&amp;AE4)
-&amp;IF(ISBLANK(AK4),"",", "&amp;AK4)
-&amp;IF(ISBLANK(AQ4),"",", "&amp;AQ4)
-&amp;IF(ISBLANK(AW4),"",", "&amp;AW4)
-&amp;IF(ISBLANK(BC4),"",", "&amp;BC4)
-&amp;IF(ISBLANK(BI4),"",", "&amp;BI4)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>12, 5, 1, 1</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4" si="10">IF(ISBLANK(N4),"",N4)
-&amp;IF(ISBLANK(T4),"",", "&amp;T4)
-&amp;IF(ISBLANK(Z4),"",", "&amp;Z4)
-&amp;IF(ISBLANK(AF4),"",", "&amp;AF4)
-&amp;IF(ISBLANK(AL4),"",", "&amp;AL4)
-&amp;IF(ISBLANK(AR4),"",", "&amp;AR4)
-&amp;IF(ISBLANK(AX4),"",", "&amp;AX4)
-&amp;IF(ISBLANK(BD4),"",", "&amp;BD4)
-&amp;IF(ISBLANK(BJ4),"",", "&amp;BJ4)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>14, 5, 1, 1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>10001</v>
+        <v>10</v>
       </c>
       <c r="K4" t="str">
         <f>IF(I4="Gacha",
@@ -3667,12 +3716,14 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Q4" t="str">
         <f>IF(O4="Gacha",
 IF(ISBLANK(P4),"비어있음",
@@ -3680,7 +3731,18 @@
 "")</f>
         <v/>
       </c>
-      <c r="U4" s="3"/>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="W4" t="str">
         <f>IF(U4="Gacha",
 IF(ISBLANK(V4),"비어있음",
@@ -3688,13 +3750,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AA4" s="3"/>
+      <c r="X4">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4">
+        <v>10001</v>
+      </c>
       <c r="AC4" t="str">
         <f>IF(AA4="Gacha",
 IF(ISBLANK(AB4),"비어있음",
 IF(ISERROR(VLOOKUP(AB4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AD4">
+        <v>1E-3</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AI4" t="str">
@@ -3752,21 +3837,349 @@
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5001</v>
+        <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" t="str">
+        <f t="shared" si="6"/>
+        <v>Gold, Exp, Heart, Gacha</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2, 1, 4, 5</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>, , , 10001</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1, 1, 0.046875, 0.001</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>12, 5, 1, 1</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>14, 5, 1, 1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(I5="Gacha",
+IF(ISBLANK(J5),"비어있음",
+IF(ISERROR(VLOOKUP(J5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>14</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>IF(O5="Gacha",
+IF(ISBLANK(P5),"비어있음",
+IF(ISERROR(VLOOKUP(P5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" t="str">
+        <f>IF(U5="Gacha",
+IF(ISBLANK(V5),"비어있음",
+IF(ISERROR(VLOOKUP(V5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5">
+        <v>10001</v>
+      </c>
+      <c r="AC5" t="str">
+        <f>IF(AA5="Gacha",
+IF(ISBLANK(AB5),"비어있음",
+IF(ISERROR(VLOOKUP(AB5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD5">
+        <v>1E-3</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3"/>
+      <c r="AI5" t="str">
+        <f>IF(AG5="Gacha",
+IF(ISBLANK(AH5),"비어있음",
+IF(ISERROR(VLOOKUP(AH5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM5" s="3"/>
+      <c r="AO5" t="str">
+        <f>IF(AM5="Gacha",
+IF(ISBLANK(AN5),"비어있음",
+IF(ISERROR(VLOOKUP(AN5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS5" s="3"/>
+      <c r="AU5" t="str">
+        <f>IF(AS5="Gacha",
+IF(ISBLANK(AT5),"비어있음",
+IF(ISERROR(VLOOKUP(AT5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY5" s="3"/>
+      <c r="BA5" t="str">
+        <f>IF(AY5="Gacha",
+IF(ISBLANK(AZ5),"비어있음",
+IF(ISERROR(VLOOKUP(AZ5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE5" s="3"/>
+      <c r="BG5" t="str">
+        <f>IF(BE5="Gacha",
+IF(ISBLANK(BF5),"비어있음",
+IF(ISERROR(VLOOKUP(BF5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BL5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO5">
+        <v>5</v>
+      </c>
+      <c r="BP5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="6"/>
+        <v>Gold, Exp, Heart, Gacha</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2, 1, 4, 5</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>, , , 10001</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1, 1, 0.045, 0.001</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>12, 5, 1, 1</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>14, 5, 1, 1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(I6="Gacha",
+IF(ISBLANK(J6),"비어있음",
+IF(ISERROR(VLOOKUP(J6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>IF(O6="Gacha",
+IF(ISBLANK(P6),"비어있음",
+IF(ISERROR(VLOOKUP(P6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" t="str">
+        <f>IF(U6="Gacha",
+IF(ISBLANK(V6),"비어있음",
+IF(ISERROR(VLOOKUP(V6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6">
+        <v>10001</v>
+      </c>
+      <c r="AC6" t="str">
+        <f>IF(AA6="Gacha",
+IF(ISBLANK(AB6),"비어있음",
+IF(ISERROR(VLOOKUP(AB6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD6">
+        <v>1E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AI6" t="str">
+        <f>IF(AG6="Gacha",
+IF(ISBLANK(AH6),"비어있음",
+IF(ISERROR(VLOOKUP(AH6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM6" s="3"/>
+      <c r="AO6" t="str">
+        <f>IF(AM6="Gacha",
+IF(ISBLANK(AN6),"비어있음",
+IF(ISERROR(VLOOKUP(AN6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS6" s="3"/>
+      <c r="AU6" t="str">
+        <f>IF(AS6="Gacha",
+IF(ISBLANK(AT6),"비어있음",
+IF(ISERROR(VLOOKUP(AT6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY6" s="3"/>
+      <c r="BA6" t="str">
+        <f>IF(AY6="Gacha",
+IF(ISBLANK(AZ6),"비어있음",
+IF(ISERROR(VLOOKUP(AZ6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE6" s="3"/>
+      <c r="BG6" t="str">
+        <f>IF(BE6="Gacha",
+IF(ISBLANK(BF6),"비어있음",
+IF(ISERROR(VLOOKUP(BF6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BL6" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO6">
+        <v>2</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
-      </c>
-      <c r="D5" s="1" t="str">
+        <v>Heart</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -3792,210 +4205,146 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2, 1, 4, 3, 5, 5</v>
-      </c>
-      <c r="E5" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>, , , 50001, 50001, 50001</v>
-      </c>
-      <c r="F5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
-      </c>
-      <c r="G5" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>16, 100, 2, 1, 1, 1</v>
-      </c>
-      <c r="H5" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>20, 100, 2, 1, 1, 1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="str">
-        <f>IF(I5="Gacha",
-IF(ISBLANK(J5),"비어있음",
-IF(ISERROR(VLOOKUP(J5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>16</v>
-      </c>
-      <c r="N5">
-        <v>20</v>
-      </c>
-      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(I7="Gacha",
+IF(ISBLANK(J7),"비어있음",
+IF(ISERROR(VLOOKUP(J7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="Q7" t="str">
+        <f>IF(O7="Gacha",
+IF(ISBLANK(P7),"비어있음",
+IF(ISERROR(VLOOKUP(P7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="U7" s="3"/>
+      <c r="W7" t="str">
+        <f>IF(U7="Gacha",
+IF(ISBLANK(V7),"비어있음",
+IF(ISERROR(VLOOKUP(V7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AA7" s="3"/>
+      <c r="AC7" t="str">
+        <f>IF(AA7="Gacha",
+IF(ISBLANK(AB7),"비어있음",
+IF(ISERROR(VLOOKUP(AB7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AG7" s="3"/>
+      <c r="AI7" t="str">
+        <f>IF(AG7="Gacha",
+IF(ISBLANK(AH7),"비어있음",
+IF(ISERROR(VLOOKUP(AH7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM7" s="3"/>
+      <c r="AO7" t="str">
+        <f>IF(AM7="Gacha",
+IF(ISBLANK(AN7),"비어있음",
+IF(ISERROR(VLOOKUP(AN7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS7" s="3"/>
+      <c r="AU7" t="str">
+        <f>IF(AS7="Gacha",
+IF(ISBLANK(AT7),"비어있음",
+IF(ISERROR(VLOOKUP(AT7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY7" s="3"/>
+      <c r="BA7" t="str">
+        <f>IF(AY7="Gacha",
+IF(ISBLANK(AZ7),"비어있음",
+IF(ISERROR(VLOOKUP(AZ7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE7" s="3"/>
+      <c r="BG7" t="str">
+        <f>IF(BE7="Gacha",
+IF(ISBLANK(BF7),"비어있음",
+IF(ISERROR(VLOOKUP(BF7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BL7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN7" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" t="str">
-        <f>IF(O5="Gacha",
-IF(ISBLANK(P5),"비어있음",
-IF(ISERROR(VLOOKUP(P5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>100</v>
-      </c>
-      <c r="T5">
-        <v>100</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" t="str">
-        <f>IF(U5="Gacha",
-IF(ISBLANK(V5),"비어있음",
-IF(ISERROR(VLOOKUP(V5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>2</v>
-      </c>
-      <c r="Z5">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5">
-        <v>50001</v>
-      </c>
-      <c r="AC5" t="str">
-        <f>IF(AA5="Gacha",
-IF(ISBLANK(AB5),"비어있음",
-IF(ISERROR(VLOOKUP(AB5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH5">
-        <v>50001</v>
-      </c>
-      <c r="AI5" t="str">
-        <f>IF(AG5="Gacha",
-IF(ISBLANK(AH5),"비어있음",
-IF(ISERROR(VLOOKUP(AH5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AJ5">
-        <v>0.25</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN5">
-        <v>50001</v>
-      </c>
-      <c r="AO5" t="str">
-        <f>IF(AM5="Gacha",
-IF(ISBLANK(AN5),"비어있음",
-IF(ISERROR(VLOOKUP(AN5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AP5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="3"/>
-      <c r="AU5" t="str">
-        <f>IF(AS5="Gacha",
-IF(ISBLANK(AT5),"비어있음",
-IF(ISERROR(VLOOKUP(AT5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AY5" s="3"/>
-      <c r="BA5" t="str">
-        <f>IF(AY5="Gacha",
-IF(ISBLANK(AZ5),"비어있음",
-IF(ISERROR(VLOOKUP(AZ5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BE5" s="3"/>
-      <c r="BG5" t="str">
-        <f>IF(BE5="Gacha",
-IF(ISBLANK(BF5),"비어있음",
-IF(ISERROR(VLOOKUP(BF5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BL5" t="s">
-        <v>12</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>13</v>
-      </c>
-      <c r="BO5">
-        <v>5</v>
-      </c>
-      <c r="BP5">
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6:C8" si="11">IF(ISBLANK(I6),"",I6)
-&amp;IF(ISBLANK(O6),"",", "&amp;O6)
-&amp;IF(ISBLANK(U6),"",", "&amp;U6)
-&amp;IF(ISBLANK(AA6),"",", "&amp;AA6)
-&amp;IF(ISBLANK(AG6),"",", "&amp;AG6)
-&amp;IF(ISBLANK(AM6),"",", "&amp;AM6)
-&amp;IF(ISBLANK(AS6),"",", "&amp;AS6)
-&amp;IF(ISBLANK(AY6),"",", "&amp;AY6)
-&amp;IF(ISBLANK(BE6),"",", "&amp;BE6)</f>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" ref="D6:D8" ca="1" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ref="C8" si="12">IF(ISBLANK(I8),"",I8)
+&amp;IF(ISBLANK(O8),"",", "&amp;O8)
+&amp;IF(ISBLANK(U8),"",", "&amp;U8)
+&amp;IF(ISBLANK(AA8),"",", "&amp;AA8)
+&amp;IF(ISBLANK(AG8),"",", "&amp;AG8)
+&amp;IF(ISBLANK(AM8),"",", "&amp;AM8)
+&amp;IF(ISBLANK(AS8),"",", "&amp;AS8)
+&amp;IF(ISBLANK(AY8),"",", "&amp;AY8)
+&amp;IF(ISBLANK(BE8),"",", "&amp;BE8)</f>
+        <v>Gacha</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -4021,442 +4370,61 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2, 1, 4, 3, 5, 5</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E8" si="13">IF(ISBLANK(J6),"",J6)
-&amp;IF(ISBLANK(O6),"",", "&amp;P6)
-&amp;IF(ISBLANK(U6),"",", "&amp;V6)
-&amp;IF(ISBLANK(AA6),"",", "&amp;AB6)
-&amp;IF(ISBLANK(AG6),"",", "&amp;AH6)
-&amp;IF(ISBLANK(AM6),"",", "&amp;AN6)
-&amp;IF(ISBLANK(AS6),"",", "&amp;AT6)
-&amp;IF(ISBLANK(AY6),"",", "&amp;AZ6)
-&amp;IF(ISBLANK(BE6),"",", "&amp;BF6)</f>
-        <v>, , , 50001, 50001, 50001</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" ref="F6:F8" si="14">IF(ISBLANK(L6),"",L6)
-&amp;IF(ISBLANK(R6),"",", "&amp;R6)
-&amp;IF(ISBLANK(X6),"",", "&amp;X6)
-&amp;IF(ISBLANK(AD6),"",", "&amp;AD6)
-&amp;IF(ISBLANK(AJ6),"",", "&amp;AJ6)
-&amp;IF(ISBLANK(AP6),"",", "&amp;AP6)
-&amp;IF(ISBLANK(AV6),"",", "&amp;AV6)
-&amp;IF(ISBLANK(BB6),"",", "&amp;BB6)
-&amp;IF(ISBLANK(BH6),"",", "&amp;BH6)</f>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" ref="G6:G8" si="15">IF(ISBLANK(M6),"",M6)
-&amp;IF(ISBLANK(S6),"",", "&amp;S6)
-&amp;IF(ISBLANK(Y6),"",", "&amp;Y6)
-&amp;IF(ISBLANK(AE6),"",", "&amp;AE6)
-&amp;IF(ISBLANK(AK6),"",", "&amp;AK6)
-&amp;IF(ISBLANK(AQ6),"",", "&amp;AQ6)
-&amp;IF(ISBLANK(AW6),"",", "&amp;AW6)
-&amp;IF(ISBLANK(BC6),"",", "&amp;BC6)
-&amp;IF(ISBLANK(BI6),"",", "&amp;BI6)</f>
-        <v>16, 200, 2, 1, 1, 1</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H8" si="16">IF(ISBLANK(N6),"",N6)
-&amp;IF(ISBLANK(T6),"",", "&amp;T6)
-&amp;IF(ISBLANK(Z6),"",", "&amp;Z6)
-&amp;IF(ISBLANK(AF6),"",", "&amp;AF6)
-&amp;IF(ISBLANK(AL6),"",", "&amp;AL6)
-&amp;IF(ISBLANK(AR6),"",", "&amp;AR6)
-&amp;IF(ISBLANK(AX6),"",", "&amp;AX6)
-&amp;IF(ISBLANK(BD6),"",", "&amp;BD6)
-&amp;IF(ISBLANK(BJ6),"",", "&amp;BJ6)</f>
-        <v>20, 200, 2, 1, 1, 1</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="str">
-        <f>IF(I6="Gacha",
-IF(ISBLANK(J6),"비어있음",
-IF(ISERROR(VLOOKUP(J6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>16</v>
-      </c>
-      <c r="N6">
-        <v>20</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" t="str">
-        <f>IF(O6="Gacha",
-IF(ISBLANK(P6),"비어있음",
-IF(ISERROR(VLOOKUP(P6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>200</v>
-      </c>
-      <c r="T6">
-        <v>200</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" t="str">
-        <f>IF(U6="Gacha",
-IF(ISBLANK(V6),"비어있음",
-IF(ISERROR(VLOOKUP(V6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB6">
-        <v>50001</v>
-      </c>
-      <c r="AC6" t="str">
-        <f>IF(AA6="Gacha",
-IF(ISBLANK(AB6),"비어있음",
-IF(ISERROR(VLOOKUP(AB6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH6">
-        <v>50001</v>
-      </c>
-      <c r="AI6" t="str">
-        <f>IF(AG6="Gacha",
-IF(ISBLANK(AH6),"비어있음",
-IF(ISERROR(VLOOKUP(AH6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AJ6">
-        <v>0.25</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" ref="E8" si="13">IF(ISBLANK(J8),"",J8)
+&amp;IF(ISBLANK(O8),"",", "&amp;P8)
+&amp;IF(ISBLANK(U8),"",", "&amp;V8)
+&amp;IF(ISBLANK(AA8),"",", "&amp;AB8)
+&amp;IF(ISBLANK(AG8),"",", "&amp;AH8)
+&amp;IF(ISBLANK(AM8),"",", "&amp;AN8)
+&amp;IF(ISBLANK(AS8),"",", "&amp;AT8)
+&amp;IF(ISBLANK(AY8),"",", "&amp;AZ8)
+&amp;IF(ISBLANK(BE8),"",", "&amp;BF8)</f>
+        <v>10001</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" ref="F8" si="14">IF(ISBLANK(L8),"",L8)
+&amp;IF(ISBLANK(R8),"",", "&amp;R8)
+&amp;IF(ISBLANK(X8),"",", "&amp;X8)
+&amp;IF(ISBLANK(AD8),"",", "&amp;AD8)
+&amp;IF(ISBLANK(AJ8),"",", "&amp;AJ8)
+&amp;IF(ISBLANK(AP8),"",", "&amp;AP8)
+&amp;IF(ISBLANK(AV8),"",", "&amp;AV8)
+&amp;IF(ISBLANK(BB8),"",", "&amp;BB8)
+&amp;IF(ISBLANK(BH8),"",", "&amp;BH8)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" ref="G8" si="15">IF(ISBLANK(M8),"",M8)
+&amp;IF(ISBLANK(S8),"",", "&amp;S8)
+&amp;IF(ISBLANK(Y8),"",", "&amp;Y8)
+&amp;IF(ISBLANK(AE8),"",", "&amp;AE8)
+&amp;IF(ISBLANK(AK8),"",", "&amp;AK8)
+&amp;IF(ISBLANK(AQ8),"",", "&amp;AQ8)
+&amp;IF(ISBLANK(AW8),"",", "&amp;AW8)
+&amp;IF(ISBLANK(BC8),"",", "&amp;BC8)
+&amp;IF(ISBLANK(BI8),"",", "&amp;BI8)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" ref="H8" si="16">IF(ISBLANK(N8),"",N8)
+&amp;IF(ISBLANK(T8),"",", "&amp;T8)
+&amp;IF(ISBLANK(Z8),"",", "&amp;Z8)
+&amp;IF(ISBLANK(AF8),"",", "&amp;AF8)
+&amp;IF(ISBLANK(AL8),"",", "&amp;AL8)
+&amp;IF(ISBLANK(AR8),"",", "&amp;AR8)
+&amp;IF(ISBLANK(AX8),"",", "&amp;AX8)
+&amp;IF(ISBLANK(BD8),"",", "&amp;BD8)
+&amp;IF(ISBLANK(BJ8),"",", "&amp;BJ8)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AN6">
-        <v>50001</v>
-      </c>
-      <c r="AO6" t="str">
-        <f>IF(AM6="Gacha",
-IF(ISBLANK(AN6),"비어있음",
-IF(ISERROR(VLOOKUP(AN6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AP6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="3"/>
-      <c r="AU6" t="str">
-        <f>IF(AS6="Gacha",
-IF(ISBLANK(AT6),"비어있음",
-IF(ISERROR(VLOOKUP(AT6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AY6" s="3"/>
-      <c r="BA6" t="str">
-        <f>IF(AY6="Gacha",
-IF(ISBLANK(AZ6),"비어있음",
-IF(ISERROR(VLOOKUP(AZ6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BE6" s="3"/>
-      <c r="BG6" t="str">
-        <f>IF(BE6="Gacha",
-IF(ISBLANK(BF6),"비어있음",
-IF(ISERROR(VLOOKUP(BF6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BL6" t="s">
-        <v>13</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>10</v>
-      </c>
-      <c r="BO6">
-        <v>2</v>
-      </c>
-      <c r="BP6">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="11"/>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2, 1, 4, 3, 5, 5</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>, , , 50001, 50001, 50001</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>16, 300, 2, 1, 1, 1</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>20, 300, 2, 1, 1, 1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="str">
-        <f>IF(I7="Gacha",
-IF(ISBLANK(J7),"비어있음",
-IF(ISERROR(VLOOKUP(J7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>16</v>
-      </c>
-      <c r="N7">
-        <v>20</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" t="str">
-        <f>IF(O7="Gacha",
-IF(ISBLANK(P7),"비어있음",
-IF(ISERROR(VLOOKUP(P7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>300</v>
-      </c>
-      <c r="T7">
-        <v>300</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" t="str">
-        <f>IF(U7="Gacha",
-IF(ISBLANK(V7),"비어있음",
-IF(ISERROR(VLOOKUP(V7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB7">
-        <v>50001</v>
-      </c>
-      <c r="AC7" t="str">
-        <f>IF(AA7="Gacha",
-IF(ISBLANK(AB7),"비어있음",
-IF(ISERROR(VLOOKUP(AB7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH7">
-        <v>50001</v>
-      </c>
-      <c r="AI7" t="str">
-        <f>IF(AG7="Gacha",
-IF(ISBLANK(AH7),"비어있음",
-IF(ISERROR(VLOOKUP(AH7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AJ7">
-        <v>0.25</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN7">
-        <v>50001</v>
-      </c>
-      <c r="AO7" t="str">
-        <f>IF(AM7="Gacha",
-IF(ISBLANK(AN7),"비어있음",
-IF(ISERROR(VLOOKUP(AN7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AP7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AR7">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="3"/>
-      <c r="AU7" t="str">
-        <f>IF(AS7="Gacha",
-IF(ISBLANK(AT7),"비어있음",
-IF(ISERROR(VLOOKUP(AT7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="AY7" s="3"/>
-      <c r="BA7" t="str">
-        <f>IF(AY7="Gacha",
-IF(ISBLANK(AZ7),"비어있음",
-IF(ISERROR(VLOOKUP(AZ7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BE7" s="3"/>
-      <c r="BG7" t="str">
-        <f>IF(BE7="Gacha",
-IF(ISBLANK(BF7),"비어있음",
-IF(ISERROR(VLOOKUP(BF7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BL7" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO7">
-        <v>1</v>
-      </c>
-      <c r="BP7">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="11"/>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2, 1, 4, 3, 5, 5</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>, , , 50001, 50001, 50001</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>16, 400, 2, 1, 1, 1</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>20, 400, 2, 1, 1, 1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
+      <c r="J8">
+        <v>10001</v>
       </c>
       <c r="K8" t="str">
         <f>IF(I8="Gacha",
@@ -4469,14 +4437,12 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>20</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O8" s="3"/>
       <c r="Q8" t="str">
         <f>IF(O8="Gacha",
 IF(ISBLANK(P8),"비어있음",
@@ -4484,18 +4450,7 @@
 "")</f>
         <v/>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>400</v>
-      </c>
-      <c r="T8">
-        <v>400</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="U8" s="3"/>
       <c r="W8" t="str">
         <f>IF(U8="Gacha",
 IF(ISBLANK(V8),"비어있음",
@@ -4503,21 +4458,7 @@
 "")</f>
         <v/>
       </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB8">
-        <v>50001</v>
-      </c>
+      <c r="AA8" s="3"/>
       <c r="AC8" t="str">
         <f>IF(AA8="Gacha",
 IF(ISBLANK(AB8),"비어있음",
@@ -4525,21 +4466,7 @@
 "")</f>
         <v/>
       </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH8">
-        <v>50001</v>
-      </c>
+      <c r="AG8" s="3"/>
       <c r="AI8" t="str">
         <f>IF(AG8="Gacha",
 IF(ISBLANK(AH8),"비어있음",
@@ -4547,36 +4474,13 @@
 "")</f>
         <v/>
       </c>
-      <c r="AJ8">
-        <v>0.25</v>
-      </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN8">
-        <v>50001</v>
-      </c>
+      <c r="AM8" s="3"/>
       <c r="AO8" t="str">
         <f>IF(AM8="Gacha",
 IF(ISBLANK(AN8),"비어있음",
 IF(ISERROR(VLOOKUP(AN8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
-      </c>
-      <c r="AP8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AR8">
-        <v>1</v>
       </c>
       <c r="AS8" s="3"/>
       <c r="AU8" t="str">
@@ -4605,22 +4509,14 @@
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6001</v>
+        <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9" si="17">IF(ISBLANK(I9),"",I9)
-&amp;IF(ISBLANK(O9),"",", "&amp;O9)
-&amp;IF(ISBLANK(U9),"",", "&amp;U9)
-&amp;IF(ISBLANK(AA9),"",", "&amp;AA9)
-&amp;IF(ISBLANK(AG9),"",", "&amp;AG9)
-&amp;IF(ISBLANK(AM9),"",", "&amp;AM9)
-&amp;IF(ISBLANK(AS9),"",", "&amp;AS9)
-&amp;IF(ISBLANK(AY9),"",", "&amp;AY9)
-&amp;IF(ISBLANK(BE9),"",", "&amp;BE9)</f>
-        <v>Gold, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="0"/>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
       </c>
       <c r="D9" s="1" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -4653,55 +4549,23 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2, 5, 5, 5</v>
+        <v>2, 1, 4, 3, 5, 5</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" ref="E9" si="18">IF(ISBLANK(J9),"",J9)
-&amp;IF(ISBLANK(O9),"",", "&amp;P9)
-&amp;IF(ISBLANK(U9),"",", "&amp;V9)
-&amp;IF(ISBLANK(AA9),"",", "&amp;AB9)
-&amp;IF(ISBLANK(AG9),"",", "&amp;AH9)
-&amp;IF(ISBLANK(AM9),"",", "&amp;AN9)
-&amp;IF(ISBLANK(AS9),"",", "&amp;AT9)
-&amp;IF(ISBLANK(AY9),"",", "&amp;AZ9)
-&amp;IF(ISBLANK(BE9),"",", "&amp;BF9)</f>
-        <v>, 50001, 50001, 50001</v>
+        <f t="shared" si="1"/>
+        <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" ref="F9" si="19">IF(ISBLANK(L9),"",L9)
-&amp;IF(ISBLANK(R9),"",", "&amp;R9)
-&amp;IF(ISBLANK(X9),"",", "&amp;X9)
-&amp;IF(ISBLANK(AD9),"",", "&amp;AD9)
-&amp;IF(ISBLANK(AJ9),"",", "&amp;AJ9)
-&amp;IF(ISBLANK(AP9),"",", "&amp;AP9)
-&amp;IF(ISBLANK(AV9),"",", "&amp;AV9)
-&amp;IF(ISBLANK(BB9),"",", "&amp;BB9)
-&amp;IF(ISBLANK(BH9),"",", "&amp;BH9)</f>
-        <v>1, 0.5, 0.1, 0.05</v>
+        <f t="shared" si="2"/>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" ref="G9" si="20">IF(ISBLANK(M9),"",M9)
-&amp;IF(ISBLANK(S9),"",", "&amp;S9)
-&amp;IF(ISBLANK(Y9),"",", "&amp;Y9)
-&amp;IF(ISBLANK(AE9),"",", "&amp;AE9)
-&amp;IF(ISBLANK(AK9),"",", "&amp;AK9)
-&amp;IF(ISBLANK(AQ9),"",", "&amp;AQ9)
-&amp;IF(ISBLANK(AW9),"",", "&amp;AW9)
-&amp;IF(ISBLANK(BC9),"",", "&amp;BC9)
-&amp;IF(ISBLANK(BI9),"",", "&amp;BI9)</f>
-        <v>16, 1, 1, 1</v>
+        <f t="shared" si="3"/>
+        <v>16, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" ref="H9" si="21">IF(ISBLANK(N9),"",N9)
-&amp;IF(ISBLANK(T9),"",", "&amp;T9)
-&amp;IF(ISBLANK(Z9),"",", "&amp;Z9)
-&amp;IF(ISBLANK(AF9),"",", "&amp;AF9)
-&amp;IF(ISBLANK(AL9),"",", "&amp;AL9)
-&amp;IF(ISBLANK(AR9),"",", "&amp;AR9)
-&amp;IF(ISBLANK(AX9),"",", "&amp;AX9)
-&amp;IF(ISBLANK(BD9),"",", "&amp;BD9)
-&amp;IF(ISBLANK(BJ9),"",", "&amp;BJ9)</f>
-        <v>20, 1, 1, 1</v>
+        <f t="shared" si="4"/>
+        <v>20, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>10</v>
@@ -4723,10 +4587,7 @@
         <v>20</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9">
-        <v>50001</v>
+        <v>9</v>
       </c>
       <c r="Q9" t="str">
         <f>IF(O9="Gacha",
@@ -4736,19 +4597,16 @@
         <v/>
       </c>
       <c r="R9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V9">
-        <v>50001</v>
+        <v>12</v>
       </c>
       <c r="W9" t="str">
         <f>IF(U9="Gacha",
@@ -4758,16 +4616,16 @@
         <v/>
       </c>
       <c r="X9">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="AB9">
         <v>50001</v>
@@ -4780,7 +4638,7 @@
         <v/>
       </c>
       <c r="AD9">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -4788,7 +4646,12 @@
       <c r="AF9">
         <v>1</v>
       </c>
-      <c r="AG9" s="3"/>
+      <c r="AG9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH9">
+        <v>50001</v>
+      </c>
       <c r="AI9" t="str">
         <f>IF(AG9="Gacha",
 IF(ISBLANK(AH9),"비어있음",
@@ -4796,13 +4659,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AM9" s="3"/>
+      <c r="AJ9">
+        <v>0.25</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN9">
+        <v>50001</v>
+      </c>
       <c r="AO9" t="str">
         <f>IF(AM9="Gacha",
 IF(ISBLANK(AN9),"비어있음",
 IF(ISERROR(VLOOKUP(AN9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AP9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
       </c>
       <c r="AS9" s="3"/>
       <c r="AU9" t="str">
@@ -4812,6 +4698,7 @@
 "")</f>
         <v/>
       </c>
+      <c r="AY9" s="3"/>
       <c r="BA9" t="str">
         <f>IF(AY9="Gacha",
 IF(ISBLANK(AZ9),"비어있음",
@@ -4828,14 +4715,845 @@
         <v/>
       </c>
     </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C12" si="17">IF(ISBLANK(I10),"",I10)
+&amp;IF(ISBLANK(O10),"",", "&amp;O10)
+&amp;IF(ISBLANK(U10),"",", "&amp;U10)
+&amp;IF(ISBLANK(AA10),"",", "&amp;AA10)
+&amp;IF(ISBLANK(AG10),"",", "&amp;AG10)
+&amp;IF(ISBLANK(AM10),"",", "&amp;AM10)
+&amp;IF(ISBLANK(AS10),"",", "&amp;AS10)
+&amp;IF(ISBLANK(AY10),"",", "&amp;AY10)
+&amp;IF(ISBLANK(BE10),"",", "&amp;BE10)</f>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" ref="D10:D12" ca="1" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C10,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 1, 4, 3, 5, 5</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" ref="E10:E12" si="19">IF(ISBLANK(J10),"",J10)
+&amp;IF(ISBLANK(O10),"",", "&amp;P10)
+&amp;IF(ISBLANK(U10),"",", "&amp;V10)
+&amp;IF(ISBLANK(AA10),"",", "&amp;AB10)
+&amp;IF(ISBLANK(AG10),"",", "&amp;AH10)
+&amp;IF(ISBLANK(AM10),"",", "&amp;AN10)
+&amp;IF(ISBLANK(AS10),"",", "&amp;AT10)
+&amp;IF(ISBLANK(AY10),"",", "&amp;AZ10)
+&amp;IF(ISBLANK(BE10),"",", "&amp;BF10)</f>
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" ref="F10:F12" si="20">IF(ISBLANK(L10),"",L10)
+&amp;IF(ISBLANK(R10),"",", "&amp;R10)
+&amp;IF(ISBLANK(X10),"",", "&amp;X10)
+&amp;IF(ISBLANK(AD10),"",", "&amp;AD10)
+&amp;IF(ISBLANK(AJ10),"",", "&amp;AJ10)
+&amp;IF(ISBLANK(AP10),"",", "&amp;AP10)
+&amp;IF(ISBLANK(AV10),"",", "&amp;AV10)
+&amp;IF(ISBLANK(BB10),"",", "&amp;BB10)
+&amp;IF(ISBLANK(BH10),"",", "&amp;BH10)</f>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" ref="G10:G12" si="21">IF(ISBLANK(M10),"",M10)
+&amp;IF(ISBLANK(S10),"",", "&amp;S10)
+&amp;IF(ISBLANK(Y10),"",", "&amp;Y10)
+&amp;IF(ISBLANK(AE10),"",", "&amp;AE10)
+&amp;IF(ISBLANK(AK10),"",", "&amp;AK10)
+&amp;IF(ISBLANK(AQ10),"",", "&amp;AQ10)
+&amp;IF(ISBLANK(AW10),"",", "&amp;AW10)
+&amp;IF(ISBLANK(BC10),"",", "&amp;BC10)
+&amp;IF(ISBLANK(BI10),"",", "&amp;BI10)</f>
+        <v>16, 200, 2, 1, 1, 1</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" ref="H10:H12" si="22">IF(ISBLANK(N10),"",N10)
+&amp;IF(ISBLANK(T10),"",", "&amp;T10)
+&amp;IF(ISBLANK(Z10),"",", "&amp;Z10)
+&amp;IF(ISBLANK(AF10),"",", "&amp;AF10)
+&amp;IF(ISBLANK(AL10),"",", "&amp;AL10)
+&amp;IF(ISBLANK(AR10),"",", "&amp;AR10)
+&amp;IF(ISBLANK(AX10),"",", "&amp;AX10)
+&amp;IF(ISBLANK(BD10),"",", "&amp;BD10)
+&amp;IF(ISBLANK(BJ10),"",", "&amp;BJ10)</f>
+        <v>20, 200, 2, 1, 1, 1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(I10="Gacha",
+IF(ISBLANK(J10),"비어있음",
+IF(ISERROR(VLOOKUP(J10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>IF(O10="Gacha",
+IF(ISBLANK(P10),"비어있음",
+IF(ISERROR(VLOOKUP(P10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>200</v>
+      </c>
+      <c r="T10">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" t="str">
+        <f>IF(U10="Gacha",
+IF(ISBLANK(V10),"비어있음",
+IF(ISERROR(VLOOKUP(V10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB10">
+        <v>50001</v>
+      </c>
+      <c r="AC10" t="str">
+        <f>IF(AA10="Gacha",
+IF(ISBLANK(AB10),"비어있음",
+IF(ISERROR(VLOOKUP(AB10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH10">
+        <v>50001</v>
+      </c>
+      <c r="AI10" t="str">
+        <f>IF(AG10="Gacha",
+IF(ISBLANK(AH10),"비어있음",
+IF(ISERROR(VLOOKUP(AH10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AJ10">
+        <v>0.25</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN10">
+        <v>50001</v>
+      </c>
+      <c r="AO10" t="str">
+        <f>IF(AM10="Gacha",
+IF(ISBLANK(AN10),"비어있음",
+IF(ISERROR(VLOOKUP(AN10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AP10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="3"/>
+      <c r="AU10" t="str">
+        <f>IF(AS10="Gacha",
+IF(ISBLANK(AT10),"비어있음",
+IF(ISERROR(VLOOKUP(AT10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY10" s="3"/>
+      <c r="BA10" t="str">
+        <f>IF(AY10="Gacha",
+IF(ISBLANK(AZ10),"비어있음",
+IF(ISERROR(VLOOKUP(AZ10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE10" s="3"/>
+      <c r="BG10" t="str">
+        <f>IF(BE10="Gacha",
+IF(ISBLANK(BF10),"비어있음",
+IF(ISERROR(VLOOKUP(BF10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="17"/>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>2, 1, 4, 3, 5, 5</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>16, 300, 2, 1, 1, 1</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>20, 300, 2, 1, 1, 1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(I11="Gacha",
+IF(ISBLANK(J11),"비어있음",
+IF(ISERROR(VLOOKUP(J11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>IF(O11="Gacha",
+IF(ISBLANK(P11),"비어있음",
+IF(ISERROR(VLOOKUP(P11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>300</v>
+      </c>
+      <c r="T11">
+        <v>300</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" t="str">
+        <f>IF(U11="Gacha",
+IF(ISBLANK(V11),"비어있음",
+IF(ISERROR(VLOOKUP(V11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB11">
+        <v>50001</v>
+      </c>
+      <c r="AC11" t="str">
+        <f>IF(AA11="Gacha",
+IF(ISBLANK(AB11),"비어있음",
+IF(ISERROR(VLOOKUP(AB11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH11">
+        <v>50001</v>
+      </c>
+      <c r="AI11" t="str">
+        <f>IF(AG11="Gacha",
+IF(ISBLANK(AH11),"비어있음",
+IF(ISERROR(VLOOKUP(AH11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AJ11">
+        <v>0.25</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN11">
+        <v>50001</v>
+      </c>
+      <c r="AO11" t="str">
+        <f>IF(AM11="Gacha",
+IF(ISBLANK(AN11),"비어있음",
+IF(ISERROR(VLOOKUP(AN11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AP11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="3"/>
+      <c r="AU11" t="str">
+        <f>IF(AS11="Gacha",
+IF(ISBLANK(AT11),"비어있음",
+IF(ISERROR(VLOOKUP(AT11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY11" s="3"/>
+      <c r="BA11" t="str">
+        <f>IF(AY11="Gacha",
+IF(ISBLANK(AZ11),"비어있음",
+IF(ISERROR(VLOOKUP(AZ11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE11" s="3"/>
+      <c r="BG11" t="str">
+        <f>IF(BE11="Gacha",
+IF(ISBLANK(BF11),"비어있음",
+IF(ISERROR(VLOOKUP(BF11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="17"/>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>2, 1, 4, 3, 5, 5</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>16, 400, 2, 1, 1, 1</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>20, 400, 2, 1, 1, 1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(I12="Gacha",
+IF(ISBLANK(J12),"비어있음",
+IF(ISERROR(VLOOKUP(J12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>IF(O12="Gacha",
+IF(ISBLANK(P12),"비어있음",
+IF(ISERROR(VLOOKUP(P12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>400</v>
+      </c>
+      <c r="T12">
+        <v>400</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" t="str">
+        <f>IF(U12="Gacha",
+IF(ISBLANK(V12),"비어있음",
+IF(ISERROR(VLOOKUP(V12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB12">
+        <v>50001</v>
+      </c>
+      <c r="AC12" t="str">
+        <f>IF(AA12="Gacha",
+IF(ISBLANK(AB12),"비어있음",
+IF(ISERROR(VLOOKUP(AB12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH12">
+        <v>50001</v>
+      </c>
+      <c r="AI12" t="str">
+        <f>IF(AG12="Gacha",
+IF(ISBLANK(AH12),"비어있음",
+IF(ISERROR(VLOOKUP(AH12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AJ12">
+        <v>0.25</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN12">
+        <v>50001</v>
+      </c>
+      <c r="AO12" t="str">
+        <f>IF(AM12="Gacha",
+IF(ISBLANK(AN12),"비어있음",
+IF(ISERROR(VLOOKUP(AN12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AP12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="3"/>
+      <c r="AU12" t="str">
+        <f>IF(AS12="Gacha",
+IF(ISBLANK(AT12),"비어있음",
+IF(ISERROR(VLOOKUP(AT12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AY12" s="3"/>
+      <c r="BA12" t="str">
+        <f>IF(AY12="Gacha",
+IF(ISBLANK(AZ12),"비어있음",
+IF(ISERROR(VLOOKUP(AZ12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE12" s="3"/>
+      <c r="BG12" t="str">
+        <f>IF(BE12="Gacha",
+IF(ISBLANK(BF12),"비어있음",
+IF(ISERROR(VLOOKUP(BF12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13" si="23">IF(ISBLANK(I13),"",I13)
+&amp;IF(ISBLANK(O13),"",", "&amp;O13)
+&amp;IF(ISBLANK(U13),"",", "&amp;U13)
+&amp;IF(ISBLANK(AA13),"",", "&amp;AA13)
+&amp;IF(ISBLANK(AG13),"",", "&amp;AG13)
+&amp;IF(ISBLANK(AM13),"",", "&amp;AM13)
+&amp;IF(ISBLANK(AS13),"",", "&amp;AS13)
+&amp;IF(ISBLANK(AY13),"",", "&amp;AY13)
+&amp;IF(ISBLANK(BE13),"",", "&amp;BE13)</f>
+        <v>Gold, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C13,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 5, 5, 5</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" ref="E13" si="24">IF(ISBLANK(J13),"",J13)
+&amp;IF(ISBLANK(O13),"",", "&amp;P13)
+&amp;IF(ISBLANK(U13),"",", "&amp;V13)
+&amp;IF(ISBLANK(AA13),"",", "&amp;AB13)
+&amp;IF(ISBLANK(AG13),"",", "&amp;AH13)
+&amp;IF(ISBLANK(AM13),"",", "&amp;AN13)
+&amp;IF(ISBLANK(AS13),"",", "&amp;AT13)
+&amp;IF(ISBLANK(AY13),"",", "&amp;AZ13)
+&amp;IF(ISBLANK(BE13),"",", "&amp;BF13)</f>
+        <v>, 50001, 50001, 50001</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" ref="F13" si="25">IF(ISBLANK(L13),"",L13)
+&amp;IF(ISBLANK(R13),"",", "&amp;R13)
+&amp;IF(ISBLANK(X13),"",", "&amp;X13)
+&amp;IF(ISBLANK(AD13),"",", "&amp;AD13)
+&amp;IF(ISBLANK(AJ13),"",", "&amp;AJ13)
+&amp;IF(ISBLANK(AP13),"",", "&amp;AP13)
+&amp;IF(ISBLANK(AV13),"",", "&amp;AV13)
+&amp;IF(ISBLANK(BB13),"",", "&amp;BB13)
+&amp;IF(ISBLANK(BH13),"",", "&amp;BH13)</f>
+        <v>1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" ref="G13" si="26">IF(ISBLANK(M13),"",M13)
+&amp;IF(ISBLANK(S13),"",", "&amp;S13)
+&amp;IF(ISBLANK(Y13),"",", "&amp;Y13)
+&amp;IF(ISBLANK(AE13),"",", "&amp;AE13)
+&amp;IF(ISBLANK(AK13),"",", "&amp;AK13)
+&amp;IF(ISBLANK(AQ13),"",", "&amp;AQ13)
+&amp;IF(ISBLANK(AW13),"",", "&amp;AW13)
+&amp;IF(ISBLANK(BC13),"",", "&amp;BC13)
+&amp;IF(ISBLANK(BI13),"",", "&amp;BI13)</f>
+        <v>16, 1, 1, 1</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" ref="H13" si="27">IF(ISBLANK(N13),"",N13)
+&amp;IF(ISBLANK(T13),"",", "&amp;T13)
+&amp;IF(ISBLANK(Z13),"",", "&amp;Z13)
+&amp;IF(ISBLANK(AF13),"",", "&amp;AF13)
+&amp;IF(ISBLANK(AL13),"",", "&amp;AL13)
+&amp;IF(ISBLANK(AR13),"",", "&amp;AR13)
+&amp;IF(ISBLANK(AX13),"",", "&amp;AX13)
+&amp;IF(ISBLANK(BD13),"",", "&amp;BD13)
+&amp;IF(ISBLANK(BJ13),"",", "&amp;BJ13)</f>
+        <v>20, 1, 1, 1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(I13="Gacha",
+IF(ISBLANK(J13),"비어있음",
+IF(ISERROR(VLOOKUP(J13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <v>50001</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>IF(O13="Gacha",
+IF(ISBLANK(P13),"비어있음",
+IF(ISERROR(VLOOKUP(P13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13">
+        <v>50001</v>
+      </c>
+      <c r="W13" t="str">
+        <f>IF(U13="Gacha",
+IF(ISBLANK(V13),"비어있음",
+IF(ISERROR(VLOOKUP(V13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <v>0.1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13">
+        <v>50001</v>
+      </c>
+      <c r="AC13" t="str">
+        <f>IF(AA13="Gacha",
+IF(ISBLANK(AB13),"비어있음",
+IF(ISERROR(VLOOKUP(AB13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD13">
+        <v>0.05</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="3"/>
+      <c r="AI13" t="str">
+        <f>IF(AG13="Gacha",
+IF(ISBLANK(AH13),"비어있음",
+IF(ISERROR(VLOOKUP(AH13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM13" s="3"/>
+      <c r="AO13" t="str">
+        <f>IF(AM13="Gacha",
+IF(ISBLANK(AN13),"비어있음",
+IF(ISERROR(VLOOKUP(AN13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS13" s="3"/>
+      <c r="AU13" t="str">
+        <f>IF(AS13="Gacha",
+IF(ISBLANK(AT13),"비어있음",
+IF(ISERROR(VLOOKUP(AT13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BA13" t="str">
+        <f>IF(AY13="Gacha",
+IF(ISBLANK(AZ13),"비어있음",
+IF(ISERROR(VLOOKUP(AZ13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE13" s="3"/>
+      <c r="BG13" t="str">
+        <f>IF(BE13="Gacha",
+IF(ISBLANK(BF13),"비어있음",
+IF(ISERROR(VLOOKUP(BF13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="BN2:BP3">
-    <sortCondition descending="1" ref="BP2:BP3"/>
-    <sortCondition ref="BO2:BO3"/>
+  <sortState ref="BN2:BP7">
+    <sortCondition descending="1" ref="BP2:BP7"/>
+    <sortCondition ref="BO2:BO7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM9 BE2:BE9 I2:I9 AS2:AS9 O2:O9 U2:U9 AG2:AG9 AA2:AA9 AY2:AY8" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM13 BE2:BE13 I2:I13 AS2:AS13 O2:O13 U2:U13 AG2:AG13 AA2:AA13 AY2:AY12" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5040474-4D5B-4336-AA56-0F0C1DAA7A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE6C5D-0359-4944-998E-37DE10016CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -3483,7 +3483,7 @@
 &amp;IF(ISBLANK(AV3),"",", "&amp;AV3)
 &amp;IF(ISBLANK(BB3),"",", "&amp;BB3)
 &amp;IF(ISBLANK(BH3),"",", "&amp;BH3)</f>
-        <v>1, 1, 0.05625, 0.001</v>
+        <v>1, 1, 0.0375, 0.001</v>
       </c>
       <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G6" si="9">IF(ISBLANK(M3),"",M3)
@@ -3558,7 +3558,7 @@
         <v/>
       </c>
       <c r="X3">
-        <v>5.6249999999999994E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1, 1, 0.05, 0.001</v>
+        <v>1, 1, 0.025, 0.001</v>
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3751,7 +3751,7 @@
         <v/>
       </c>
       <c r="X4">
-        <v>4.9999999999999996E-2</v>
+        <v>2.4999999999999998E-2</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1, 1, 0.046875, 0.001</v>
+        <v>1, 1, 0.01875, 0.001</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3915,7 +3915,7 @@
         <v/>
       </c>
       <c r="X5">
-        <v>4.6875E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1, 1, 0.045, 0.001</v>
+        <v>1, 1, 0.015, 0.001</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4079,7 +4079,7 @@
         <v/>
       </c>
       <c r="X6">
-        <v>4.4999999999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y6">
         <v>1</v>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE6C5D-0359-4944-998E-37DE10016CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB3ED76-F8C0-4E22-9F85-B8D799177425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -2907,7 +2907,7 @@
   <dimension ref="A1:BS13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
@@ -3246,7 +3246,7 @@
 &amp;IF(ISBLANK(AV2),"",", "&amp;AV2)
 &amp;IF(ISBLANK(BB2),"",", "&amp;BB2)
 &amp;IF(ISBLANK(BH2),"",", "&amp;BH2)</f>
-        <v>1, 1, 0.075, 0.001</v>
+        <v>1, 1, 0.09, 0.001</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" ref="G2:G9" si="3">IF(ISBLANK(M2),"",M2)
@@ -3321,7 +3321,7 @@
         <v/>
       </c>
       <c r="X2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -3483,7 +3483,7 @@
 &amp;IF(ISBLANK(AV3),"",", "&amp;AV3)
 &amp;IF(ISBLANK(BB3),"",", "&amp;BB3)
 &amp;IF(ISBLANK(BH3),"",", "&amp;BH3)</f>
-        <v>1, 1, 0.0375, 0.001</v>
+        <v>1, 1, 0.045, 0.001</v>
       </c>
       <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G6" si="9">IF(ISBLANK(M3),"",M3)
@@ -3558,7 +3558,7 @@
         <v/>
       </c>
       <c r="X3">
-        <v>3.7499999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1, 1, 0.025, 0.001</v>
+        <v>1, 1, 0.03, 0.001</v>
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3751,7 +3751,7 @@
         <v/>
       </c>
       <c r="X4">
-        <v>2.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1, 1, 0.01875, 0.001</v>
+        <v>1, 1, 0.0225, 0.001</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3915,7 +3915,7 @@
         <v/>
       </c>
       <c r="X5">
-        <v>1.8749999999999999E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1, 1, 0.015, 0.001</v>
+        <v>1, 1, 0.018, 0.001</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4079,7 +4079,7 @@
         <v/>
       </c>
       <c r="X6">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -5552,7 +5552,7 @@
     <sortCondition ref="BO2:BO7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM13 BE2:BE13 I2:I13 AS2:AS13 O2:O13 U2:U13 AG2:AG13 AA2:AA13 AY2:AY12" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB3ED76-F8C0-4E22-9F85-B8D799177425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108ADB8E-5200-47D8-91AC-A64096D56B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -3246,7 +3246,7 @@
 &amp;IF(ISBLANK(AV2),"",", "&amp;AV2)
 &amp;IF(ISBLANK(BB2),"",", "&amp;BB2)
 &amp;IF(ISBLANK(BH2),"",", "&amp;BH2)</f>
-        <v>1, 1, 0.09, 0.001</v>
+        <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" ref="G2:G9" si="3">IF(ISBLANK(M2),"",M2)
@@ -3321,7 +3321,7 @@
         <v/>
       </c>
       <c r="X2">
-        <v>0.09</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -3483,7 +3483,7 @@
 &amp;IF(ISBLANK(AV3),"",", "&amp;AV3)
 &amp;IF(ISBLANK(BB3),"",", "&amp;BB3)
 &amp;IF(ISBLANK(BH3),"",", "&amp;BH3)</f>
-        <v>1, 1, 0.045, 0.001</v>
+        <v>1, 1, 0.041, 0.001</v>
       </c>
       <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G6" si="9">IF(ISBLANK(M3),"",M3)
@@ -3558,7 +3558,7 @@
         <v/>
       </c>
       <c r="X3">
-        <v>4.4999999999999998E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -3654,7 +3654,7 @@
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D6" ca="1" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3692,7 +3692,7 @@
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1, 1, 0.03, 0.001</v>
+        <v>1, 1, 0.0296666666666667, 0.001</v>
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3751,7 +3751,7 @@
         <v/>
       </c>
       <c r="X4">
-        <v>0.03</v>
+        <v>2.9666666666666671E-2</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -3847,7 +3847,36 @@
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E5" s="1" t="str">
@@ -3856,7 +3885,7 @@
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1, 1, 0.0225, 0.001</v>
+        <v>1, 1, 0.024, 0.001</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="9"/>
@@ -3915,7 +3944,7 @@
         <v/>
       </c>
       <c r="X5">
-        <v>2.2499999999999999E-2</v>
+        <v>2.4000000000000004E-2</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -4011,7 +4040,36 @@
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E6" s="1" t="str">
@@ -4020,7 +4078,7 @@
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1, 1, 0.018, 0.001</v>
+        <v>1, 1, 0.0206, 0.001</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4079,7 +4137,7 @@
         <v/>
       </c>
       <c r="X6">
-        <v>1.7999999999999999E-2</v>
+        <v>2.0600000000000004E-2</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -4328,7 +4386,7 @@
         <v>65</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ref="C8" si="12">IF(ISBLANK(I8),"",I8)
+        <f t="shared" ref="C8" si="11">IF(ISBLANK(I8),"",I8)
 &amp;IF(ISBLANK(O8),"",", "&amp;O8)
 &amp;IF(ISBLANK(U8),"",", "&amp;U8)
 &amp;IF(ISBLANK(AA8),"",", "&amp;AA8)
@@ -4373,7 +4431,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" ref="E8" si="13">IF(ISBLANK(J8),"",J8)
+        <f t="shared" ref="E8" si="12">IF(ISBLANK(J8),"",J8)
 &amp;IF(ISBLANK(O8),"",", "&amp;P8)
 &amp;IF(ISBLANK(U8),"",", "&amp;V8)
 &amp;IF(ISBLANK(AA8),"",", "&amp;AB8)
@@ -4385,7 +4443,7 @@
         <v>10001</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" ref="F8" si="14">IF(ISBLANK(L8),"",L8)
+        <f t="shared" ref="F8" si="13">IF(ISBLANK(L8),"",L8)
 &amp;IF(ISBLANK(R8),"",", "&amp;R8)
 &amp;IF(ISBLANK(X8),"",", "&amp;X8)
 &amp;IF(ISBLANK(AD8),"",", "&amp;AD8)
@@ -4397,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" ref="G8" si="15">IF(ISBLANK(M8),"",M8)
+        <f t="shared" ref="G8" si="14">IF(ISBLANK(M8),"",M8)
 &amp;IF(ISBLANK(S8),"",", "&amp;S8)
 &amp;IF(ISBLANK(Y8),"",", "&amp;Y8)
 &amp;IF(ISBLANK(AE8),"",", "&amp;AE8)
@@ -4409,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" ref="H8" si="16">IF(ISBLANK(N8),"",N8)
+        <f t="shared" ref="H8" si="15">IF(ISBLANK(N8),"",N8)
 &amp;IF(ISBLANK(T8),"",", "&amp;T8)
 &amp;IF(ISBLANK(Z8),"",", "&amp;Z8)
 &amp;IF(ISBLANK(AF8),"",", "&amp;AF8)
@@ -4723,7 +4781,7 @@
         <v>68</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C12" si="17">IF(ISBLANK(I10),"",I10)
+        <f t="shared" ref="C10:C12" si="16">IF(ISBLANK(I10),"",I10)
 &amp;IF(ISBLANK(O10),"",", "&amp;O10)
 &amp;IF(ISBLANK(U10),"",", "&amp;U10)
 &amp;IF(ISBLANK(AA10),"",", "&amp;AA10)
@@ -4735,7 +4793,7 @@
         <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" ref="D10:D12" ca="1" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -4768,7 +4826,7 @@
         <v>2, 1, 4, 3, 5, 5</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" ref="E10:E12" si="19">IF(ISBLANK(J10),"",J10)
+        <f t="shared" ref="E10:E12" si="17">IF(ISBLANK(J10),"",J10)
 &amp;IF(ISBLANK(O10),"",", "&amp;P10)
 &amp;IF(ISBLANK(U10),"",", "&amp;V10)
 &amp;IF(ISBLANK(AA10),"",", "&amp;AB10)
@@ -4780,7 +4838,7 @@
         <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10:F12" si="20">IF(ISBLANK(L10),"",L10)
+        <f t="shared" ref="F10:F12" si="18">IF(ISBLANK(L10),"",L10)
 &amp;IF(ISBLANK(R10),"",", "&amp;R10)
 &amp;IF(ISBLANK(X10),"",", "&amp;X10)
 &amp;IF(ISBLANK(AD10),"",", "&amp;AD10)
@@ -4792,7 +4850,7 @@
         <v>1, 1, 1, 1, 0.25, 0.025</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G12" si="21">IF(ISBLANK(M10),"",M10)
+        <f t="shared" ref="G10:G12" si="19">IF(ISBLANK(M10),"",M10)
 &amp;IF(ISBLANK(S10),"",", "&amp;S10)
 &amp;IF(ISBLANK(Y10),"",", "&amp;Y10)
 &amp;IF(ISBLANK(AE10),"",", "&amp;AE10)
@@ -4804,7 +4862,7 @@
         <v>16, 200, 2, 1, 1, 1</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" ref="H10:H12" si="22">IF(ISBLANK(N10),"",N10)
+        <f t="shared" ref="H10:H12" si="20">IF(ISBLANK(N10),"",N10)
 &amp;IF(ISBLANK(T10),"",", "&amp;T10)
 &amp;IF(ISBLANK(Z10),"",", "&amp;Z10)
 &amp;IF(ISBLANK(AF10),"",", "&amp;AF10)
@@ -4971,27 +5029,56 @@
         <v>68</v>
       </c>
       <c r="C11" t="str">
+        <f t="shared" si="16"/>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C11,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 1, 4, 3, 5, 5</v>
+      </c>
+      <c r="E11" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>2, 1, 4, 3, 5, 5</v>
-      </c>
-      <c r="E11" s="1" t="str">
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>, , , 50001, 50001, 50001</v>
-      </c>
-      <c r="F11" s="1" t="str">
+        <v>16, 300, 2, 1, 1, 1</v>
+      </c>
+      <c r="H11" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>16, 300, 2, 1, 1, 1</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="22"/>
         <v>20, 300, 2, 1, 1, 1</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -5150,27 +5237,56 @@
         <v>68</v>
       </c>
       <c r="C12" t="str">
+        <f t="shared" si="16"/>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 1, 4, 3, 5, 5</v>
+      </c>
+      <c r="E12" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>2, 1, 4, 3, 5, 5</v>
-      </c>
-      <c r="E12" s="1" t="str">
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>, , , 50001, 50001, 50001</v>
-      </c>
-      <c r="F12" s="1" t="str">
+        <v>16, 400, 2, 1, 1, 1</v>
+      </c>
+      <c r="H12" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>16, 400, 2, 1, 1, 1</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="22"/>
         <v>20, 400, 2, 1, 1, 1</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -5329,7 +5445,7 @@
         <v>69</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13" si="23">IF(ISBLANK(I13),"",I13)
+        <f t="shared" ref="C13" si="21">IF(ISBLANK(I13),"",I13)
 &amp;IF(ISBLANK(O13),"",", "&amp;O13)
 &amp;IF(ISBLANK(U13),"",", "&amp;U13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AA13)
@@ -5374,7 +5490,7 @@
         <v>2, 5, 5, 5</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13" si="24">IF(ISBLANK(J13),"",J13)
+        <f t="shared" ref="E13" si="22">IF(ISBLANK(J13),"",J13)
 &amp;IF(ISBLANK(O13),"",", "&amp;P13)
 &amp;IF(ISBLANK(U13),"",", "&amp;V13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AB13)
@@ -5386,7 +5502,7 @@
         <v>, 50001, 50001, 50001</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13" si="25">IF(ISBLANK(L13),"",L13)
+        <f t="shared" ref="F13" si="23">IF(ISBLANK(L13),"",L13)
 &amp;IF(ISBLANK(R13),"",", "&amp;R13)
 &amp;IF(ISBLANK(X13),"",", "&amp;X13)
 &amp;IF(ISBLANK(AD13),"",", "&amp;AD13)
@@ -5398,7 +5514,7 @@
         <v>1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13" si="26">IF(ISBLANK(M13),"",M13)
+        <f t="shared" ref="G13" si="24">IF(ISBLANK(M13),"",M13)
 &amp;IF(ISBLANK(S13),"",", "&amp;S13)
 &amp;IF(ISBLANK(Y13),"",", "&amp;Y13)
 &amp;IF(ISBLANK(AE13),"",", "&amp;AE13)
@@ -5410,7 +5526,7 @@
         <v>16, 1, 1, 1</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13" si="27">IF(ISBLANK(N13),"",N13)
+        <f t="shared" ref="H13" si="25">IF(ISBLANK(N13),"",N13)
 &amp;IF(ISBLANK(T13),"",", "&amp;T13)
 &amp;IF(ISBLANK(Z13),"",", "&amp;Z13)
 &amp;IF(ISBLANK(AF13),"",", "&amp;AF13)
@@ -5552,8 +5668,8 @@
     <sortCondition ref="BO2:BO7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM13 BE2:BE13 I2:I13 AS2:AS13 O2:O13 U2:U13 AG2:AG13 AA2:AA13 AY2:AY12" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM13 AY2:AY12 AA2:AA13 AG2:AG13 U2:U13 O2:O13 AS2:AS13 I2:I13 BE2:BE13" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5567,9 +5683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F446BF-3A16-4AF8-83EB-58CC9CFE4AFE}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108ADB8E-5200-47D8-91AC-A64096D56B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3B067-5AEC-4BE8-BDED-9542ECE103B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2212,7 +2212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2336,14 +2336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하트 2개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-10 노멀드랍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dropEnum_5</t>
   </si>
   <si>
@@ -2427,10 +2419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장비 1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adjust|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2439,14 +2427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 중간보스드랍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 최종보스드랍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelPack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2455,19 +2435,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11-20 노멀드랍</t>
+    <t>잔몹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21-30 노멀드랍</t>
+    <t>중보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>31-40 노멀드랍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41-50 노멀드랍</t>
+    <t>최종보스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2568,6 +2544,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="GachaTable"/>
+      <sheetName val="ShopTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2602,6 +2579,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2904,47 +2882,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS13"/>
+  <dimension ref="A1:BR16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="40.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="9" collapsed="1"/>
-    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="9" collapsed="1"/>
-    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="9" collapsed="1"/>
-    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="71" max="71" width="9" collapsed="1"/>
+    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2958,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2979,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
         <v>17</v>
@@ -2997,7 +2971,7 @@
         <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R1" t="s">
         <v>22</v>
@@ -3015,7 +2989,7 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X1" t="s">
         <v>27</v>
@@ -3033,7 +3007,7 @@
         <v>31</v>
       </c>
       <c r="AC1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AD1" t="s">
         <v>32</v>
@@ -3045,94 +3019,94 @@
         <v>34</v>
       </c>
       <c r="AG1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP1" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>47</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV1" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>49</v>
       </c>
-      <c r="AU1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BG1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>62</v>
       </c>
       <c r="BL1" t="s">
         <v>6</v>
@@ -3174,13 +3148,13 @@
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C9" si="0">IF(ISBLANK(I2),"",I2)
+        <f t="shared" ref="C2" si="0">IF(ISBLANK(I2),"",I2)
 &amp;IF(ISBLANK(O2),"",", "&amp;O2)
 &amp;IF(ISBLANK(U2),"",", "&amp;U2)
 &amp;IF(ISBLANK(AA2),"",", "&amp;AA2)
@@ -3192,7 +3166,7 @@
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D2:D16" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3225,7 +3199,7 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E9" si="1">IF(ISBLANK(J2),"",J2)
+        <f t="shared" ref="E2" si="2">IF(ISBLANK(J2),"",J2)
 &amp;IF(ISBLANK(O2),"",", "&amp;P2)
 &amp;IF(ISBLANK(U2),"",", "&amp;V2)
 &amp;IF(ISBLANK(AA2),"",", "&amp;AB2)
@@ -3237,7 +3211,7 @@
         <v>, , , 10001</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F9" si="2">IF(ISBLANK(L2),"",L2)
+        <f t="shared" ref="F2" si="3">IF(ISBLANK(L2),"",L2)
 &amp;IF(ISBLANK(R2),"",", "&amp;R2)
 &amp;IF(ISBLANK(X2),"",", "&amp;X2)
 &amp;IF(ISBLANK(AD2),"",", "&amp;AD2)
@@ -3249,7 +3223,7 @@
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G9" si="3">IF(ISBLANK(M2),"",M2)
+        <f t="shared" ref="G2" si="4">IF(ISBLANK(M2),"",M2)
 &amp;IF(ISBLANK(S2),"",", "&amp;S2)
 &amp;IF(ISBLANK(Y2),"",", "&amp;Y2)
 &amp;IF(ISBLANK(AE2),"",", "&amp;AE2)
@@ -3258,10 +3232,10 @@
 &amp;IF(ISBLANK(AW2),"",", "&amp;AW2)
 &amp;IF(ISBLANK(BC2),"",", "&amp;BC2)
 &amp;IF(ISBLANK(BI2),"",", "&amp;BI2)</f>
-        <v>12, 5, 1, 1</v>
+        <v>0.015, 5, 1, 1</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:H9" si="4">IF(ISBLANK(N2),"",N2)
+        <f t="shared" ref="H2" si="5">IF(ISBLANK(N2),"",N2)
 &amp;IF(ISBLANK(T2),"",", "&amp;T2)
 &amp;IF(ISBLANK(Z2),"",", "&amp;Z2)
 &amp;IF(ISBLANK(AF2),"",", "&amp;AF2)
@@ -3270,7 +3244,7 @@
 &amp;IF(ISBLANK(AX2),"",", "&amp;AX2)
 &amp;IF(ISBLANK(BD2),"",", "&amp;BD2)
 &amp;IF(ISBLANK(BJ2),"",", "&amp;BJ2)</f>
-        <v>14, 5, 1, 1</v>
+        <v>0.145, 5, 1, 1</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
@@ -3286,10 +3260,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>9</v>
@@ -3401,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="BP2">
-        <f t="shared" ref="BP2:BP7" si="5">LEN(BN2)</f>
+        <f t="shared" ref="BP2:BP7" si="6">LEN(BN2)</f>
         <v>9</v>
       </c>
       <c r="BR2" t="str">
@@ -3411,13 +3385,10 @@
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
+        <v>1001</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C6" si="6">IF(ISBLANK(I3),"",I3)
+        <f t="shared" ref="C3:C8" si="7">IF(ISBLANK(I3),"",I3)
 &amp;IF(ISBLANK(O3),"",", "&amp;O3)
 &amp;IF(ISBLANK(U3),"",", "&amp;U3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AA3)
@@ -3429,40 +3400,11 @@
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E6" si="7">IF(ISBLANK(J3),"",J3)
+        <f t="shared" ref="E3:E8" si="8">IF(ISBLANK(J3),"",J3)
 &amp;IF(ISBLANK(O3),"",", "&amp;P3)
 &amp;IF(ISBLANK(U3),"",", "&amp;V3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AB3)
@@ -3474,7 +3416,7 @@
         <v>, , , 10001</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F6" si="8">IF(ISBLANK(L3),"",L3)
+        <f t="shared" ref="F3:F8" si="9">IF(ISBLANK(L3),"",L3)
 &amp;IF(ISBLANK(R3),"",", "&amp;R3)
 &amp;IF(ISBLANK(X3),"",", "&amp;X3)
 &amp;IF(ISBLANK(AD3),"",", "&amp;AD3)
@@ -3483,10 +3425,10 @@
 &amp;IF(ISBLANK(AV3),"",", "&amp;AV3)
 &amp;IF(ISBLANK(BB3),"",", "&amp;BB3)
 &amp;IF(ISBLANK(BH3),"",", "&amp;BH3)</f>
-        <v>1, 1, 0.041, 0.001</v>
+        <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G6" si="9">IF(ISBLANK(M3),"",M3)
+        <f t="shared" ref="G3:G8" si="10">IF(ISBLANK(M3),"",M3)
 &amp;IF(ISBLANK(S3),"",", "&amp;S3)
 &amp;IF(ISBLANK(Y3),"",", "&amp;Y3)
 &amp;IF(ISBLANK(AE3),"",", "&amp;AE3)
@@ -3495,10 +3437,10 @@
 &amp;IF(ISBLANK(AW3),"",", "&amp;AW3)
 &amp;IF(ISBLANK(BC3),"",", "&amp;BC3)
 &amp;IF(ISBLANK(BI3),"",", "&amp;BI3)</f>
-        <v>12, 5, 1, 1</v>
+        <v>0.05, 5, 1, 1</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H6" si="10">IF(ISBLANK(N3),"",N3)
+        <f t="shared" ref="H3:H8" si="11">IF(ISBLANK(N3),"",N3)
 &amp;IF(ISBLANK(T3),"",", "&amp;T3)
 &amp;IF(ISBLANK(Z3),"",", "&amp;Z3)
 &amp;IF(ISBLANK(AF3),"",", "&amp;AF3)
@@ -3507,7 +3449,7 @@
 &amp;IF(ISBLANK(AX3),"",", "&amp;AX3)
 &amp;IF(ISBLANK(BD3),"",", "&amp;BD3)
 &amp;IF(ISBLANK(BJ3),"",", "&amp;BJ3)</f>
-        <v>14, 5, 1, 1</v>
+        <v>0.65, 5, 1, 1</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
@@ -3523,10 +3465,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>9</v>
@@ -3558,7 +3500,7 @@
         <v/>
       </c>
       <c r="X3">
-        <v>4.1000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -3638,69 +3580,77 @@
         <v>6</v>
       </c>
       <c r="BP3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
+        <v>1002</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C4:C7" si="12">IF(ISBLANK(I4),"",I4)
+&amp;IF(ISBLANK(O4),"",", "&amp;O4)
+&amp;IF(ISBLANK(U4),"",", "&amp;U4)
+&amp;IF(ISBLANK(AA4),"",", "&amp;AA4)
+&amp;IF(ISBLANK(AG4),"",", "&amp;AG4)
+&amp;IF(ISBLANK(AM4),"",", "&amp;AM4)
+&amp;IF(ISBLANK(AS4),"",", "&amp;AS4)
+&amp;IF(ISBLANK(AY4),"",", "&amp;AY4)
+&amp;IF(ISBLANK(BE4),"",", "&amp;BE4)</f>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E4:E7" si="13">IF(ISBLANK(J4),"",J4)
+&amp;IF(ISBLANK(O4),"",", "&amp;P4)
+&amp;IF(ISBLANK(U4),"",", "&amp;V4)
+&amp;IF(ISBLANK(AA4),"",", "&amp;AB4)
+&amp;IF(ISBLANK(AG4),"",", "&amp;AH4)
+&amp;IF(ISBLANK(AM4),"",", "&amp;AN4)
+&amp;IF(ISBLANK(AS4),"",", "&amp;AT4)
+&amp;IF(ISBLANK(AY4),"",", "&amp;AZ4)
+&amp;IF(ISBLANK(BE4),"",", "&amp;BF4)</f>
         <v>, , , 10001</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>1, 1, 0.0296666666666667, 0.001</v>
+        <f t="shared" ref="F4:F7" si="14">IF(ISBLANK(L4),"",L4)
+&amp;IF(ISBLANK(R4),"",", "&amp;R4)
+&amp;IF(ISBLANK(X4),"",", "&amp;X4)
+&amp;IF(ISBLANK(AD4),"",", "&amp;AD4)
+&amp;IF(ISBLANK(AJ4),"",", "&amp;AJ4)
+&amp;IF(ISBLANK(AP4),"",", "&amp;AP4)
+&amp;IF(ISBLANK(AV4),"",", "&amp;AV4)
+&amp;IF(ISBLANK(BB4),"",", "&amp;BB4)
+&amp;IF(ISBLANK(BH4),"",", "&amp;BH4)</f>
+        <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>12, 5, 1, 1</v>
+        <f t="shared" ref="G4:G7" si="15">IF(ISBLANK(M4),"",M4)
+&amp;IF(ISBLANK(S4),"",", "&amp;S4)
+&amp;IF(ISBLANK(Y4),"",", "&amp;Y4)
+&amp;IF(ISBLANK(AE4),"",", "&amp;AE4)
+&amp;IF(ISBLANK(AK4),"",", "&amp;AK4)
+&amp;IF(ISBLANK(AQ4),"",", "&amp;AQ4)
+&amp;IF(ISBLANK(AW4),"",", "&amp;AW4)
+&amp;IF(ISBLANK(BC4),"",", "&amp;BC4)
+&amp;IF(ISBLANK(BI4),"",", "&amp;BI4)</f>
+        <v>0.085, 5, 1, 1</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>14, 5, 1, 1</v>
+        <f t="shared" ref="H4:H7" si="16">IF(ISBLANK(N4),"",N4)
+&amp;IF(ISBLANK(T4),"",", "&amp;T4)
+&amp;IF(ISBLANK(Z4),"",", "&amp;Z4)
+&amp;IF(ISBLANK(AF4),"",", "&amp;AF4)
+&amp;IF(ISBLANK(AL4),"",", "&amp;AL4)
+&amp;IF(ISBLANK(AR4),"",", "&amp;AR4)
+&amp;IF(ISBLANK(AX4),"",", "&amp;AX4)
+&amp;IF(ISBLANK(BD4),"",", "&amp;BD4)
+&amp;IF(ISBLANK(BJ4),"",", "&amp;BJ4)</f>
+        <v>0.685, 5, 1, 1</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>10</v>
@@ -3716,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>8.500000000000002E-2</v>
       </c>
       <c r="N4">
-        <v>14</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>9</v>
@@ -3751,7 +3701,7 @@
         <v/>
       </c>
       <c r="X4">
-        <v>2.9666666666666671E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -3831,69 +3781,37 @@
         <v>4</v>
       </c>
       <c r="BP4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
+        <v>1003</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>, , , 10001</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>1, 1, 0.024, 0.001</v>
+        <f t="shared" si="14"/>
+        <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>12, 5, 1, 1</v>
+        <f t="shared" si="15"/>
+        <v>0.12, 5, 1, 1</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>14, 5, 1, 1</v>
+        <f t="shared" si="16"/>
+        <v>0.72, 5, 1, 1</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>10</v>
@@ -3909,10 +3827,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="N5">
-        <v>14</v>
+        <v>0.72</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>9</v>
@@ -3944,7 +3862,7 @@
         <v/>
       </c>
       <c r="X5">
-        <v>2.4000000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -4024,69 +3942,37 @@
         <v>5</v>
       </c>
       <c r="BP5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
+        <v>1004</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>, , , 10001</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>1, 1, 0.0206, 0.001</v>
+        <f t="shared" si="14"/>
+        <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>12, 5, 1, 1</v>
+        <f t="shared" si="15"/>
+        <v>0.155, 5, 1, 1</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>14, 5, 1, 1</v>
+        <f t="shared" si="16"/>
+        <v>0.755, 5, 1, 1</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>10</v>
@@ -4102,10 +3988,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>0.15500000000000003</v>
       </c>
       <c r="N6">
-        <v>14</v>
+        <v>0.755</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>9</v>
@@ -4137,7 +4023,7 @@
         <v/>
       </c>
       <c r="X6">
-        <v>2.0600000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -4217,72 +4103,43 @@
         <v>2</v>
       </c>
       <c r="BP6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2001</v>
+        <v>5000</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Heart</v>
+        <f t="shared" si="12"/>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 1, 4, 3, 5, 5</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>0.015, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>0.145, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K7" t="str">
         <f>IF(I7="Gacha",
@@ -4295,12 +4152,14 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7" s="3"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Q7" t="str">
         <f>IF(O7="Gacha",
 IF(ISBLANK(P7),"비어있음",
@@ -4308,7 +4167,18 @@
 "")</f>
         <v/>
       </c>
-      <c r="U7" s="3"/>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="W7" t="str">
         <f>IF(U7="Gacha",
 IF(ISBLANK(V7),"비어있음",
@@ -4316,7 +4186,21 @@
 "")</f>
         <v/>
       </c>
-      <c r="AA7" s="3"/>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7">
+        <v>50001</v>
+      </c>
       <c r="AC7" t="str">
         <f>IF(AA7="Gacha",
 IF(ISBLANK(AB7),"비어있음",
@@ -4324,7 +4208,21 @@
 "")</f>
         <v/>
       </c>
-      <c r="AG7" s="3"/>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH7">
+        <v>50001</v>
+      </c>
       <c r="AI7" t="str">
         <f>IF(AG7="Gacha",
 IF(ISBLANK(AH7),"비어있음",
@@ -4332,13 +4230,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AM7" s="3"/>
+      <c r="AJ7">
+        <v>0.25</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN7">
+        <v>50001</v>
+      </c>
       <c r="AO7" t="str">
         <f>IF(AM7="Gacha",
 IF(ISBLANK(AN7),"비어있음",
 IF(ISERROR(VLOOKUP(AN7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AP7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
       </c>
       <c r="AS7" s="3"/>
       <c r="AU7" t="str">
@@ -4374,115 +4295,40 @@
         <v>1</v>
       </c>
       <c r="BP7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
+        <v>5001</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ref="C8" si="11">IF(ISBLANK(I8),"",I8)
-&amp;IF(ISBLANK(O8),"",", "&amp;O8)
-&amp;IF(ISBLANK(U8),"",", "&amp;U8)
-&amp;IF(ISBLANK(AA8),"",", "&amp;AA8)
-&amp;IF(ISBLANK(AG8),"",", "&amp;AG8)
-&amp;IF(ISBLANK(AM8),"",", "&amp;AM8)
-&amp;IF(ISBLANK(AS8),"",", "&amp;AS8)
-&amp;IF(ISBLANK(AY8),"",", "&amp;AY8)
-&amp;IF(ISBLANK(BE8),"",", "&amp;BE8)</f>
-        <v>Gacha</v>
+        <f t="shared" si="7"/>
+        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 1, 4, 3, 5, 5</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" ref="E8" si="12">IF(ISBLANK(J8),"",J8)
-&amp;IF(ISBLANK(O8),"",", "&amp;P8)
-&amp;IF(ISBLANK(U8),"",", "&amp;V8)
-&amp;IF(ISBLANK(AA8),"",", "&amp;AB8)
-&amp;IF(ISBLANK(AG8),"",", "&amp;AH8)
-&amp;IF(ISBLANK(AM8),"",", "&amp;AN8)
-&amp;IF(ISBLANK(AS8),"",", "&amp;AT8)
-&amp;IF(ISBLANK(AY8),"",", "&amp;AZ8)
-&amp;IF(ISBLANK(BE8),"",", "&amp;BF8)</f>
-        <v>10001</v>
+        <f t="shared" si="8"/>
+        <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" ref="F8" si="13">IF(ISBLANK(L8),"",L8)
-&amp;IF(ISBLANK(R8),"",", "&amp;R8)
-&amp;IF(ISBLANK(X8),"",", "&amp;X8)
-&amp;IF(ISBLANK(AD8),"",", "&amp;AD8)
-&amp;IF(ISBLANK(AJ8),"",", "&amp;AJ8)
-&amp;IF(ISBLANK(AP8),"",", "&amp;AP8)
-&amp;IF(ISBLANK(AV8),"",", "&amp;AV8)
-&amp;IF(ISBLANK(BB8),"",", "&amp;BB8)
-&amp;IF(ISBLANK(BH8),"",", "&amp;BH8)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1, 1, 1, 1, 0.25, 0.025</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" ref="G8" si="14">IF(ISBLANK(M8),"",M8)
-&amp;IF(ISBLANK(S8),"",", "&amp;S8)
-&amp;IF(ISBLANK(Y8),"",", "&amp;Y8)
-&amp;IF(ISBLANK(AE8),"",", "&amp;AE8)
-&amp;IF(ISBLANK(AK8),"",", "&amp;AK8)
-&amp;IF(ISBLANK(AQ8),"",", "&amp;AQ8)
-&amp;IF(ISBLANK(AW8),"",", "&amp;AW8)
-&amp;IF(ISBLANK(BC8),"",", "&amp;BC8)
-&amp;IF(ISBLANK(BI8),"",", "&amp;BI8)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0.05, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" ref="H8" si="15">IF(ISBLANK(N8),"",N8)
-&amp;IF(ISBLANK(T8),"",", "&amp;T8)
-&amp;IF(ISBLANK(Z8),"",", "&amp;Z8)
-&amp;IF(ISBLANK(AF8),"",", "&amp;AF8)
-&amp;IF(ISBLANK(AL8),"",", "&amp;AL8)
-&amp;IF(ISBLANK(AR8),"",", "&amp;AR8)
-&amp;IF(ISBLANK(AX8),"",", "&amp;AX8)
-&amp;IF(ISBLANK(BD8),"",", "&amp;BD8)
-&amp;IF(ISBLANK(BJ8),"",", "&amp;BJ8)</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0.65, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <v>10001</v>
+        <v>10</v>
       </c>
       <c r="K8" t="str">
         <f>IF(I8="Gacha",
@@ -4495,12 +4341,14 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Q8" t="str">
         <f>IF(O8="Gacha",
 IF(ISBLANK(P8),"비어있음",
@@ -4508,7 +4356,18 @@
 "")</f>
         <v/>
       </c>
-      <c r="U8" s="3"/>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="W8" t="str">
         <f>IF(U8="Gacha",
 IF(ISBLANK(V8),"비어있음",
@@ -4516,7 +4375,21 @@
 "")</f>
         <v/>
       </c>
-      <c r="AA8" s="3"/>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB8">
+        <v>50001</v>
+      </c>
       <c r="AC8" t="str">
         <f>IF(AA8="Gacha",
 IF(ISBLANK(AB8),"비어있음",
@@ -4524,7 +4397,21 @@
 "")</f>
         <v/>
       </c>
-      <c r="AG8" s="3"/>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH8">
+        <v>50001</v>
+      </c>
       <c r="AI8" t="str">
         <f>IF(AG8="Gacha",
 IF(ISBLANK(AH8),"비어있음",
@@ -4532,13 +4419,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AM8" s="3"/>
+      <c r="AJ8">
+        <v>0.25</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN8">
+        <v>50001</v>
+      </c>
       <c r="AO8" t="str">
         <f>IF(AM8="Gacha",
 IF(ISBLANK(AN8),"비어있음",
 IF(ISERROR(VLOOKUP(AN8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AP8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
       </c>
       <c r="AS8" s="3"/>
       <c r="AU8" t="str">
@@ -4567,63 +4477,71 @@
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
+        <v>5002</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C9:C11" si="17">IF(ISBLANK(I9),"",I9)
+&amp;IF(ISBLANK(O9),"",", "&amp;O9)
+&amp;IF(ISBLANK(U9),"",", "&amp;U9)
+&amp;IF(ISBLANK(AA9),"",", "&amp;AA9)
+&amp;IF(ISBLANK(AG9),"",", "&amp;AG9)
+&amp;IF(ISBLANK(AM9),"",", "&amp;AM9)
+&amp;IF(ISBLANK(AS9),"",", "&amp;AS9)
+&amp;IF(ISBLANK(AY9),"",", "&amp;AY9)
+&amp;IF(ISBLANK(BE9),"",", "&amp;BE9)</f>
         <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 3, 5, 5</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E9:E11" si="18">IF(ISBLANK(J9),"",J9)
+&amp;IF(ISBLANK(O9),"",", "&amp;P9)
+&amp;IF(ISBLANK(U9),"",", "&amp;V9)
+&amp;IF(ISBLANK(AA9),"",", "&amp;AB9)
+&amp;IF(ISBLANK(AG9),"",", "&amp;AH9)
+&amp;IF(ISBLANK(AM9),"",", "&amp;AN9)
+&amp;IF(ISBLANK(AS9),"",", "&amp;AT9)
+&amp;IF(ISBLANK(AY9),"",", "&amp;AZ9)
+&amp;IF(ISBLANK(BE9),"",", "&amp;BF9)</f>
         <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F9:F11" si="19">IF(ISBLANK(L9),"",L9)
+&amp;IF(ISBLANK(R9),"",", "&amp;R9)
+&amp;IF(ISBLANK(X9),"",", "&amp;X9)
+&amp;IF(ISBLANK(AD9),"",", "&amp;AD9)
+&amp;IF(ISBLANK(AJ9),"",", "&amp;AJ9)
+&amp;IF(ISBLANK(AP9),"",", "&amp;AP9)
+&amp;IF(ISBLANK(AV9),"",", "&amp;AV9)
+&amp;IF(ISBLANK(BB9),"",", "&amp;BB9)
+&amp;IF(ISBLANK(BH9),"",", "&amp;BH9)</f>
         <v>1, 1, 1, 1, 0.25, 0.025</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>16, 100, 2, 1, 1, 1</v>
+        <f t="shared" ref="G9:G11" si="20">IF(ISBLANK(M9),"",M9)
+&amp;IF(ISBLANK(S9),"",", "&amp;S9)
+&amp;IF(ISBLANK(Y9),"",", "&amp;Y9)
+&amp;IF(ISBLANK(AE9),"",", "&amp;AE9)
+&amp;IF(ISBLANK(AK9),"",", "&amp;AK9)
+&amp;IF(ISBLANK(AQ9),"",", "&amp;AQ9)
+&amp;IF(ISBLANK(AW9),"",", "&amp;AW9)
+&amp;IF(ISBLANK(BC9),"",", "&amp;BC9)
+&amp;IF(ISBLANK(BI9),"",", "&amp;BI9)</f>
+        <v>0.085, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>20, 100, 2, 1, 1, 1</v>
+        <f t="shared" ref="H9:H11" si="21">IF(ISBLANK(N9),"",N9)
+&amp;IF(ISBLANK(T9),"",", "&amp;T9)
+&amp;IF(ISBLANK(Z9),"",", "&amp;Z9)
+&amp;IF(ISBLANK(AF9),"",", "&amp;AF9)
+&amp;IF(ISBLANK(AL9),"",", "&amp;AL9)
+&amp;IF(ISBLANK(AR9),"",", "&amp;AR9)
+&amp;IF(ISBLANK(AX9),"",", "&amp;AX9)
+&amp;IF(ISBLANK(BD9),"",", "&amp;BD9)
+&amp;IF(ISBLANK(BJ9),"",", "&amp;BJ9)</f>
+        <v>0.685, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>10</v>
@@ -4639,10 +4557,10 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>8.500000000000002E-2</v>
       </c>
       <c r="N9">
-        <v>20</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>9</v>
@@ -4683,7 +4601,7 @@
         <v>2</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB9">
         <v>50001</v>
@@ -4705,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AH9">
         <v>50001</v>
@@ -4775,103 +4693,31 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
+        <v>5003</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C12" si="16">IF(ISBLANK(I10),"",I10)
-&amp;IF(ISBLANK(O10),"",", "&amp;O10)
-&amp;IF(ISBLANK(U10),"",", "&amp;U10)
-&amp;IF(ISBLANK(AA10),"",", "&amp;AA10)
-&amp;IF(ISBLANK(AG10),"",", "&amp;AG10)
-&amp;IF(ISBLANK(AM10),"",", "&amp;AM10)
-&amp;IF(ISBLANK(AS10),"",", "&amp;AS10)
-&amp;IF(ISBLANK(AY10),"",", "&amp;AY10)
-&amp;IF(ISBLANK(BE10),"",", "&amp;BE10)</f>
+        <f t="shared" si="17"/>
         <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C10,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 3, 5, 5</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" ref="E10:E12" si="17">IF(ISBLANK(J10),"",J10)
-&amp;IF(ISBLANK(O10),"",", "&amp;P10)
-&amp;IF(ISBLANK(U10),"",", "&amp;V10)
-&amp;IF(ISBLANK(AA10),"",", "&amp;AB10)
-&amp;IF(ISBLANK(AG10),"",", "&amp;AH10)
-&amp;IF(ISBLANK(AM10),"",", "&amp;AN10)
-&amp;IF(ISBLANK(AS10),"",", "&amp;AT10)
-&amp;IF(ISBLANK(AY10),"",", "&amp;AZ10)
-&amp;IF(ISBLANK(BE10),"",", "&amp;BF10)</f>
+        <f t="shared" si="18"/>
         <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10:F12" si="18">IF(ISBLANK(L10),"",L10)
-&amp;IF(ISBLANK(R10),"",", "&amp;R10)
-&amp;IF(ISBLANK(X10),"",", "&amp;X10)
-&amp;IF(ISBLANK(AD10),"",", "&amp;AD10)
-&amp;IF(ISBLANK(AJ10),"",", "&amp;AJ10)
-&amp;IF(ISBLANK(AP10),"",", "&amp;AP10)
-&amp;IF(ISBLANK(AV10),"",", "&amp;AV10)
-&amp;IF(ISBLANK(BB10),"",", "&amp;BB10)
-&amp;IF(ISBLANK(BH10),"",", "&amp;BH10)</f>
+        <f t="shared" si="19"/>
         <v>1, 1, 1, 1, 0.25, 0.025</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G12" si="19">IF(ISBLANK(M10),"",M10)
-&amp;IF(ISBLANK(S10),"",", "&amp;S10)
-&amp;IF(ISBLANK(Y10),"",", "&amp;Y10)
-&amp;IF(ISBLANK(AE10),"",", "&amp;AE10)
-&amp;IF(ISBLANK(AK10),"",", "&amp;AK10)
-&amp;IF(ISBLANK(AQ10),"",", "&amp;AQ10)
-&amp;IF(ISBLANK(AW10),"",", "&amp;AW10)
-&amp;IF(ISBLANK(BC10),"",", "&amp;BC10)
-&amp;IF(ISBLANK(BI10),"",", "&amp;BI10)</f>
-        <v>16, 200, 2, 1, 1, 1</v>
+        <f t="shared" si="20"/>
+        <v>0.12, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" ref="H10:H12" si="20">IF(ISBLANK(N10),"",N10)
-&amp;IF(ISBLANK(T10),"",", "&amp;T10)
-&amp;IF(ISBLANK(Z10),"",", "&amp;Z10)
-&amp;IF(ISBLANK(AF10),"",", "&amp;AF10)
-&amp;IF(ISBLANK(AL10),"",", "&amp;AL10)
-&amp;IF(ISBLANK(AR10),"",", "&amp;AR10)
-&amp;IF(ISBLANK(AX10),"",", "&amp;AX10)
-&amp;IF(ISBLANK(BD10),"",", "&amp;BD10)
-&amp;IF(ISBLANK(BJ10),"",", "&amp;BJ10)</f>
-        <v>20, 200, 2, 1, 1, 1</v>
+        <f t="shared" si="21"/>
+        <v>0.72, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>10</v>
@@ -4887,10 +4733,10 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>0.12</v>
       </c>
       <c r="N10">
-        <v>20</v>
+        <v>0.72</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>9</v>
@@ -4906,10 +4752,10 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>12</v>
@@ -4931,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB10">
         <v>50001</v>
@@ -4953,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AH10">
         <v>50001</v>
@@ -5023,63 +4869,31 @@
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5003</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
+        <v>5004</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C11,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 3, 5, 5</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1, 1, 1, 1, 0.25, 0.025</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>16, 300, 2, 1, 1, 1</v>
+        <f t="shared" si="20"/>
+        <v>0.155, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>20, 300, 2, 1, 1, 1</v>
+        <f t="shared" si="21"/>
+        <v>0.755, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>10</v>
@@ -5095,10 +4909,10 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>0.15500000000000003</v>
       </c>
       <c r="N11">
-        <v>20</v>
+        <v>0.755</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>9</v>
@@ -5114,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T11">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>12</v>
@@ -5139,7 +4953,7 @@
         <v>2</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB11">
         <v>50001</v>
@@ -5161,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AH11">
         <v>50001</v>
@@ -5231,63 +5045,74 @@
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5004</v>
+        <v>6000</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="16"/>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+        <f t="shared" ref="C12" si="22">IF(ISBLANK(I12),"",I12)
+&amp;IF(ISBLANK(O12),"",", "&amp;O12)
+&amp;IF(ISBLANK(U12),"",", "&amp;U12)
+&amp;IF(ISBLANK(AA12),"",", "&amp;AA12)
+&amp;IF(ISBLANK(AG12),"",", "&amp;AG12)
+&amp;IF(ISBLANK(AM12),"",", "&amp;AM12)
+&amp;IF(ISBLANK(AS12),"",", "&amp;AS12)
+&amp;IF(ISBLANK(AY12),"",", "&amp;AY12)
+&amp;IF(ISBLANK(BE12),"",", "&amp;BE12)</f>
+        <v>Gold, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2, 1, 4, 3, 5, 5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 5, 5, 5</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>, , , 50001, 50001, 50001</v>
+        <f t="shared" ref="E12" si="23">IF(ISBLANK(J12),"",J12)
+&amp;IF(ISBLANK(O12),"",", "&amp;P12)
+&amp;IF(ISBLANK(U12),"",", "&amp;V12)
+&amp;IF(ISBLANK(AA12),"",", "&amp;AB12)
+&amp;IF(ISBLANK(AG12),"",", "&amp;AH12)
+&amp;IF(ISBLANK(AM12),"",", "&amp;AN12)
+&amp;IF(ISBLANK(AS12),"",", "&amp;AT12)
+&amp;IF(ISBLANK(AY12),"",", "&amp;AZ12)
+&amp;IF(ISBLANK(BE12),"",", "&amp;BF12)</f>
+        <v>, 50001, 50001, 50001</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
+        <f t="shared" ref="F12" si="24">IF(ISBLANK(L12),"",L12)
+&amp;IF(ISBLANK(R12),"",", "&amp;R12)
+&amp;IF(ISBLANK(X12),"",", "&amp;X12)
+&amp;IF(ISBLANK(AD12),"",", "&amp;AD12)
+&amp;IF(ISBLANK(AJ12),"",", "&amp;AJ12)
+&amp;IF(ISBLANK(AP12),"",", "&amp;AP12)
+&amp;IF(ISBLANK(AV12),"",", "&amp;AV12)
+&amp;IF(ISBLANK(BB12),"",", "&amp;BB12)
+&amp;IF(ISBLANK(BH12),"",", "&amp;BH12)</f>
+        <v>1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>16, 400, 2, 1, 1, 1</v>
+        <f t="shared" ref="G12" si="25">IF(ISBLANK(M12),"",M12)
+&amp;IF(ISBLANK(S12),"",", "&amp;S12)
+&amp;IF(ISBLANK(Y12),"",", "&amp;Y12)
+&amp;IF(ISBLANK(AE12),"",", "&amp;AE12)
+&amp;IF(ISBLANK(AK12),"",", "&amp;AK12)
+&amp;IF(ISBLANK(AQ12),"",", "&amp;AQ12)
+&amp;IF(ISBLANK(AW12),"",", "&amp;AW12)
+&amp;IF(ISBLANK(BC12),"",", "&amp;BC12)
+&amp;IF(ISBLANK(BI12),"",", "&amp;BI12)</f>
+        <v>0.015, 1, 1, 1</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>20, 400, 2, 1, 1, 1</v>
+        <f t="shared" ref="H12" si="26">IF(ISBLANK(N12),"",N12)
+&amp;IF(ISBLANK(T12),"",", "&amp;T12)
+&amp;IF(ISBLANK(Z12),"",", "&amp;Z12)
+&amp;IF(ISBLANK(AF12),"",", "&amp;AF12)
+&amp;IF(ISBLANK(AL12),"",", "&amp;AL12)
+&amp;IF(ISBLANK(AR12),"",", "&amp;AR12)
+&amp;IF(ISBLANK(AX12),"",", "&amp;AX12)
+&amp;IF(ISBLANK(BD12),"",", "&amp;BD12)
+&amp;IF(ISBLANK(BJ12),"",", "&amp;BJ12)</f>
+        <v>0.145, 1, 1, 1</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
@@ -5303,13 +5128,16 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N12">
-        <v>20</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <v>50001</v>
       </c>
       <c r="Q12" t="str">
         <f>IF(O12="Gacha",
@@ -5319,16 +5147,19 @@
         <v/>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S12">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="V12">
+        <v>50001</v>
       </c>
       <c r="W12" t="str">
         <f>IF(U12="Gacha",
@@ -5338,16 +5169,16 @@
         <v/>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AB12">
         <v>50001</v>
@@ -5360,7 +5191,7 @@
         <v/>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -5368,12 +5199,7 @@
       <c r="AF12">
         <v>1</v>
       </c>
-      <c r="AG12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH12">
-        <v>50001</v>
-      </c>
+      <c r="AG12" s="3"/>
       <c r="AI12" t="str">
         <f>IF(AG12="Gacha",
 IF(ISBLANK(AH12),"비어있음",
@@ -5381,36 +5207,13 @@
 "")</f>
         <v/>
       </c>
-      <c r="AJ12">
-        <v>0.25</v>
-      </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
-      <c r="AL12">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN12">
-        <v>50001</v>
-      </c>
+      <c r="AM12" s="3"/>
       <c r="AO12" t="str">
         <f>IF(AM12="Gacha",
 IF(ISBLANK(AN12),"비어있음",
 IF(ISERROR(VLOOKUP(AN12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
-      </c>
-      <c r="AP12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ12">
-        <v>1</v>
-      </c>
-      <c r="AR12">
-        <v>1</v>
       </c>
       <c r="AS12" s="3"/>
       <c r="AU12" t="str">
@@ -5420,7 +5223,6 @@
 "")</f>
         <v/>
       </c>
-      <c r="AY12" s="3"/>
       <c r="BA12" t="str">
         <f>IF(AY12="Gacha",
 IF(ISBLANK(AZ12),"비어있음",
@@ -5441,11 +5243,8 @@
       <c r="A13">
         <v>6001</v>
       </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13" si="21">IF(ISBLANK(I13),"",I13)
+        <f t="shared" ref="C13:C16" si="27">IF(ISBLANK(I13),"",I13)
 &amp;IF(ISBLANK(O13),"",", "&amp;O13)
 &amp;IF(ISBLANK(U13),"",", "&amp;U13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AA13)
@@ -5457,40 +5256,11 @@
         <v>Gold, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C13,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 5, 5, 5</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13" si="22">IF(ISBLANK(J13),"",J13)
+        <f t="shared" ref="E13:E16" si="28">IF(ISBLANK(J13),"",J13)
 &amp;IF(ISBLANK(O13),"",", "&amp;P13)
 &amp;IF(ISBLANK(U13),"",", "&amp;V13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AB13)
@@ -5502,7 +5272,7 @@
         <v>, 50001, 50001, 50001</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13" si="23">IF(ISBLANK(L13),"",L13)
+        <f t="shared" ref="F13:F16" si="29">IF(ISBLANK(L13),"",L13)
 &amp;IF(ISBLANK(R13),"",", "&amp;R13)
 &amp;IF(ISBLANK(X13),"",", "&amp;X13)
 &amp;IF(ISBLANK(AD13),"",", "&amp;AD13)
@@ -5514,7 +5284,7 @@
         <v>1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13" si="24">IF(ISBLANK(M13),"",M13)
+        <f t="shared" ref="G13:G16" si="30">IF(ISBLANK(M13),"",M13)
 &amp;IF(ISBLANK(S13),"",", "&amp;S13)
 &amp;IF(ISBLANK(Y13),"",", "&amp;Y13)
 &amp;IF(ISBLANK(AE13),"",", "&amp;AE13)
@@ -5523,10 +5293,10 @@
 &amp;IF(ISBLANK(AW13),"",", "&amp;AW13)
 &amp;IF(ISBLANK(BC13),"",", "&amp;BC13)
 &amp;IF(ISBLANK(BI13),"",", "&amp;BI13)</f>
-        <v>16, 1, 1, 1</v>
+        <v>0.05, 1, 1, 1</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13" si="25">IF(ISBLANK(N13),"",N13)
+        <f t="shared" ref="H13:H16" si="31">IF(ISBLANK(N13),"",N13)
 &amp;IF(ISBLANK(T13),"",", "&amp;T13)
 &amp;IF(ISBLANK(Z13),"",", "&amp;Z13)
 &amp;IF(ISBLANK(AF13),"",", "&amp;AF13)
@@ -5535,7 +5305,7 @@
 &amp;IF(ISBLANK(AX13),"",", "&amp;AX13)
 &amp;IF(ISBLANK(BD13),"",", "&amp;BD13)
 &amp;IF(ISBLANK(BJ13),"",", "&amp;BJ13)</f>
-        <v>20, 1, 1, 1</v>
+        <v>0.65, 1, 1, 1</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>10</v>
@@ -5551,10 +5321,10 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>13</v>
@@ -5662,14 +5432,473 @@
         <v/>
       </c>
     </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6002</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="27"/>
+        <v>Gold, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 5, 5, 5</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>, 50001, 50001, 50001</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>0.085, 1, 1, 1</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>0.685, 1, 1, 1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(I14="Gacha",
+IF(ISBLANK(J14),"비어있음",
+IF(ISERROR(VLOOKUP(J14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.500000000000002E-2</v>
+      </c>
+      <c r="N14">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>50001</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>IF(O14="Gacha",
+IF(ISBLANK(P14),"비어있음",
+IF(ISERROR(VLOOKUP(P14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <v>50001</v>
+      </c>
+      <c r="W14" t="str">
+        <f>IF(U14="Gacha",
+IF(ISBLANK(V14),"비어있음",
+IF(ISERROR(VLOOKUP(V14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <v>0.1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14">
+        <v>50001</v>
+      </c>
+      <c r="AC14" t="str">
+        <f>IF(AA14="Gacha",
+IF(ISBLANK(AB14),"비어있음",
+IF(ISERROR(VLOOKUP(AB14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD14">
+        <v>0.05</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="3"/>
+      <c r="AI14" t="str">
+        <f>IF(AG14="Gacha",
+IF(ISBLANK(AH14),"비어있음",
+IF(ISERROR(VLOOKUP(AH14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM14" s="3"/>
+      <c r="AO14" t="str">
+        <f>IF(AM14="Gacha",
+IF(ISBLANK(AN14),"비어있음",
+IF(ISERROR(VLOOKUP(AN14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS14" s="3"/>
+      <c r="AU14" t="str">
+        <f>IF(AS14="Gacha",
+IF(ISBLANK(AT14),"비어있음",
+IF(ISERROR(VLOOKUP(AT14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BA14" t="str">
+        <f>IF(AY14="Gacha",
+IF(ISBLANK(AZ14),"비어있음",
+IF(ISERROR(VLOOKUP(AZ14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE14" s="3"/>
+      <c r="BG14" t="str">
+        <f>IF(BE14="Gacha",
+IF(ISBLANK(BF14),"비어있음",
+IF(ISERROR(VLOOKUP(BF14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6003</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="27"/>
+        <v>Gold, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 5, 5, 5</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>, 50001, 50001, 50001</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>0.12, 1, 1, 1</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>0.72, 1, 1, 1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="str">
+        <f>IF(I15="Gacha",
+IF(ISBLANK(J15),"비어있음",
+IF(ISERROR(VLOOKUP(J15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.12</v>
+      </c>
+      <c r="N15">
+        <v>0.72</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>50001</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>IF(O15="Gacha",
+IF(ISBLANK(P15),"비어있음",
+IF(ISERROR(VLOOKUP(P15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R15">
+        <v>0.5</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V15">
+        <v>50001</v>
+      </c>
+      <c r="W15" t="str">
+        <f>IF(U15="Gacha",
+IF(ISBLANK(V15),"비어있음",
+IF(ISERROR(VLOOKUP(V15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <v>0.1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15">
+        <v>50001</v>
+      </c>
+      <c r="AC15" t="str">
+        <f>IF(AA15="Gacha",
+IF(ISBLANK(AB15),"비어있음",
+IF(ISERROR(VLOOKUP(AB15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD15">
+        <v>0.05</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="3"/>
+      <c r="AI15" t="str">
+        <f>IF(AG15="Gacha",
+IF(ISBLANK(AH15),"비어있음",
+IF(ISERROR(VLOOKUP(AH15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM15" s="3"/>
+      <c r="AO15" t="str">
+        <f>IF(AM15="Gacha",
+IF(ISBLANK(AN15),"비어있음",
+IF(ISERROR(VLOOKUP(AN15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS15" s="3"/>
+      <c r="AU15" t="str">
+        <f>IF(AS15="Gacha",
+IF(ISBLANK(AT15),"비어있음",
+IF(ISERROR(VLOOKUP(AT15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BA15" t="str">
+        <f>IF(AY15="Gacha",
+IF(ISBLANK(AZ15),"비어있음",
+IF(ISERROR(VLOOKUP(AZ15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE15" s="3"/>
+      <c r="BG15" t="str">
+        <f>IF(BE15="Gacha",
+IF(ISBLANK(BF15),"비어있음",
+IF(ISERROR(VLOOKUP(BF15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6004</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="27"/>
+        <v>Gold, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 5, 5, 5</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>, 50001, 50001, 50001</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>0.155, 1, 1, 1</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>0.755, 1, 1, 1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(I16="Gacha",
+IF(ISBLANK(J16),"비어있음",
+IF(ISERROR(VLOOKUP(J16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="N16">
+        <v>0.755</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>50001</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>IF(O16="Gacha",
+IF(ISBLANK(P16),"비어있음",
+IF(ISERROR(VLOOKUP(P16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R16">
+        <v>0.5</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16">
+        <v>50001</v>
+      </c>
+      <c r="W16" t="str">
+        <f>IF(U16="Gacha",
+IF(ISBLANK(V16),"비어있음",
+IF(ISERROR(VLOOKUP(V16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <v>0.1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16">
+        <v>50001</v>
+      </c>
+      <c r="AC16" t="str">
+        <f>IF(AA16="Gacha",
+IF(ISBLANK(AB16),"비어있음",
+IF(ISERROR(VLOOKUP(AB16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD16">
+        <v>0.05</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="3"/>
+      <c r="AI16" t="str">
+        <f>IF(AG16="Gacha",
+IF(ISBLANK(AH16),"비어있음",
+IF(ISERROR(VLOOKUP(AH16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AM16" s="3"/>
+      <c r="AO16" t="str">
+        <f>IF(AM16="Gacha",
+IF(ISBLANK(AN16),"비어있음",
+IF(ISERROR(VLOOKUP(AN16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AS16" s="3"/>
+      <c r="AU16" t="str">
+        <f>IF(AS16="Gacha",
+IF(ISBLANK(AT16),"비어있음",
+IF(ISERROR(VLOOKUP(AT16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BA16" t="str">
+        <f>IF(AY16="Gacha",
+IF(ISBLANK(AZ16),"비어있음",
+IF(ISERROR(VLOOKUP(AZ16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE16" s="3"/>
+      <c r="BG16" t="str">
+        <f>IF(BE16="Gacha",
+IF(ISBLANK(BF16),"비어있음",
+IF(ISERROR(VLOOKUP(BF16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="BN2:BP7">
-    <sortCondition descending="1" ref="BP2:BP7"/>
-    <sortCondition ref="BO2:BO7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN3:BP6">
+    <sortCondition descending="1" ref="BP3:BP6"/>
+    <sortCondition ref="BO3:BO6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM13 AY2:AY12 AA2:AA13 AG2:AG13 U2:U13 O2:O13 AS2:AS13 I2:I13 BE2:BE13" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM16 AY2:AY11 AA2:AA16 AG2:AG16 U2:U16 O2:O16 AS2:AS16 I2:I16 BE2:BE16" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5692,10 +5921,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3B067-5AEC-4BE8-BDED-9542ECE103B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E079C59-9295-4E4D-AA03-D04365BCA7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -2069,6 +2069,77 @@
         </r>
       </text>
     </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{44C2CE70-A00B-4298-AEAB-892817BE2FBE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소값은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>커야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2212,7 +2283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2431,10 +2502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gacha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>잔몹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2444,6 +2511,10 @@
   </si>
   <si>
     <t>최종보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2882,43 +2953,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BR16"/>
+  <dimension ref="A1:BS16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="40.875" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="40.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9" collapsed="1"/>
+    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="9" collapsed="1"/>
+    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="9" collapsed="1"/>
+    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3151,7 +3226,7 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2" si="0">IF(ISBLANK(I2),"",I2)
@@ -3375,7 +3450,7 @@
         <v>3</v>
       </c>
       <c r="BP2">
-        <f t="shared" ref="BP2:BP7" si="6">LEN(BN2)</f>
+        <f>LEN(BN2)</f>
         <v>9</v>
       </c>
       <c r="BR2" t="str">
@@ -3388,7 +3463,7 @@
         <v>1001</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="7">IF(ISBLANK(I3),"",I3)
+        <f t="shared" ref="C3:C8" si="6">IF(ISBLANK(I3),"",I3)
 &amp;IF(ISBLANK(O3),"",", "&amp;O3)
 &amp;IF(ISBLANK(U3),"",", "&amp;U3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AA3)
@@ -3404,7 +3479,7 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E8" si="8">IF(ISBLANK(J3),"",J3)
+        <f t="shared" ref="E3:E8" si="7">IF(ISBLANK(J3),"",J3)
 &amp;IF(ISBLANK(O3),"",", "&amp;P3)
 &amp;IF(ISBLANK(U3),"",", "&amp;V3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AB3)
@@ -3416,7 +3491,7 @@
         <v>, , , 10001</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F8" si="9">IF(ISBLANK(L3),"",L3)
+        <f t="shared" ref="F3:F8" si="8">IF(ISBLANK(L3),"",L3)
 &amp;IF(ISBLANK(R3),"",", "&amp;R3)
 &amp;IF(ISBLANK(X3),"",", "&amp;X3)
 &amp;IF(ISBLANK(AD3),"",", "&amp;AD3)
@@ -3428,7 +3503,7 @@
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G8" si="10">IF(ISBLANK(M3),"",M3)
+        <f t="shared" ref="G3:G8" si="9">IF(ISBLANK(M3),"",M3)
 &amp;IF(ISBLANK(S3),"",", "&amp;S3)
 &amp;IF(ISBLANK(Y3),"",", "&amp;Y3)
 &amp;IF(ISBLANK(AE3),"",", "&amp;AE3)
@@ -3440,7 +3515,7 @@
         <v>0.05, 5, 1, 1</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H8" si="11">IF(ISBLANK(N3),"",N3)
+        <f t="shared" ref="H3:H8" si="10">IF(ISBLANK(N3),"",N3)
 &amp;IF(ISBLANK(T3),"",", "&amp;T3)
 &amp;IF(ISBLANK(Z3),"",", "&amp;Z3)
 &amp;IF(ISBLANK(AF3),"",", "&amp;AF3)
@@ -3580,7 +3655,7 @@
         <v>6</v>
       </c>
       <c r="BP3">
-        <f t="shared" si="6"/>
+        <f>LEN(BN3)</f>
         <v>8</v>
       </c>
     </row>
@@ -3589,7 +3664,7 @@
         <v>1002</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C7" si="12">IF(ISBLANK(I4),"",I4)
+        <f t="shared" ref="C4:C7" si="11">IF(ISBLANK(I4),"",I4)
 &amp;IF(ISBLANK(O4),"",", "&amp;O4)
 &amp;IF(ISBLANK(U4),"",", "&amp;U4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AA4)
@@ -3605,7 +3680,7 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E7" si="13">IF(ISBLANK(J4),"",J4)
+        <f t="shared" ref="E4:E7" si="12">IF(ISBLANK(J4),"",J4)
 &amp;IF(ISBLANK(O4),"",", "&amp;P4)
 &amp;IF(ISBLANK(U4),"",", "&amp;V4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AB4)
@@ -3617,7 +3692,7 @@
         <v>, , , 10001</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F7" si="14">IF(ISBLANK(L4),"",L4)
+        <f t="shared" ref="F4:F7" si="13">IF(ISBLANK(L4),"",L4)
 &amp;IF(ISBLANK(R4),"",", "&amp;R4)
 &amp;IF(ISBLANK(X4),"",", "&amp;X4)
 &amp;IF(ISBLANK(AD4),"",", "&amp;AD4)
@@ -3629,7 +3704,7 @@
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G7" si="15">IF(ISBLANK(M4),"",M4)
+        <f t="shared" ref="G4:G7" si="14">IF(ISBLANK(M4),"",M4)
 &amp;IF(ISBLANK(S4),"",", "&amp;S4)
 &amp;IF(ISBLANK(Y4),"",", "&amp;Y4)
 &amp;IF(ISBLANK(AE4),"",", "&amp;AE4)
@@ -3641,7 +3716,7 @@
         <v>0.085, 5, 1, 1</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H7" si="16">IF(ISBLANK(N4),"",N4)
+        <f t="shared" ref="H4:H7" si="15">IF(ISBLANK(N4),"",N4)
 &amp;IF(ISBLANK(T4),"",", "&amp;T4)
 &amp;IF(ISBLANK(Z4),"",", "&amp;Z4)
 &amp;IF(ISBLANK(AF4),"",", "&amp;AF4)
@@ -3781,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="BP4">
-        <f t="shared" si="6"/>
+        <f>LEN(BN4)</f>
         <v>5</v>
       </c>
     </row>
@@ -3790,7 +3865,7 @@
         <v>1003</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D5" s="1" t="str">
@@ -3798,19 +3873,19 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E5" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>, , , 10001</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>, , , 10001</v>
-      </c>
-      <c r="F5" s="1" t="str">
+        <v>1, 1, 0.075, 0.001</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>1, 1, 0.075, 0.001</v>
-      </c>
-      <c r="G5" s="1" t="str">
+        <v>0.12, 5, 1, 1</v>
+      </c>
+      <c r="H5" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>0.12, 5, 1, 1</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="16"/>
         <v>0.72, 5, 1, 1</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -3942,7 +4017,7 @@
         <v>5</v>
       </c>
       <c r="BP5">
-        <f t="shared" si="6"/>
+        <f>LEN(BN5)</f>
         <v>5</v>
       </c>
     </row>
@@ -3951,7 +4026,7 @@
         <v>1004</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D6" s="1" t="str">
@@ -3959,19 +4034,19 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E6" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>, , , 10001</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>, , , 10001</v>
-      </c>
-      <c r="F6" s="1" t="str">
+        <v>1, 1, 0.075, 0.001</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>1, 1, 0.075, 0.001</v>
-      </c>
-      <c r="G6" s="1" t="str">
+        <v>0.155, 5, 1, 1</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>0.155, 5, 1, 1</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="16"/>
         <v>0.755, 5, 1, 1</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -4103,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="BP6">
-        <f t="shared" si="6"/>
+        <f>LEN(BN6)</f>
         <v>4</v>
       </c>
     </row>
@@ -4112,31 +4187,31 @@
         <v>5000</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="12"/>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+        <f t="shared" si="11"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 5, 5</v>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E7" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>, , , 50001, , , 50001, 50001</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>, , , 50001, 50001, 50001</v>
-      </c>
-      <c r="F7" s="1" t="str">
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
-      </c>
-      <c r="G7" s="1" t="str">
+        <v>0.015, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>0.015, 100, 2, 1, 1, 1</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>0.145, 100, 2, 1, 1, 1</v>
+        <v>0.145, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>10</v>
@@ -4218,10 +4293,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH7">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="AI7" t="str">
         <f>IF(AG7="Gacha",
@@ -4231,7 +4303,7 @@
         <v/>
       </c>
       <c r="AJ7">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="AK7">
         <v>1</v>
@@ -4240,10 +4312,7 @@
         <v>1</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN7">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="AO7" t="str">
         <f>IF(AM7="Gacha",
@@ -4253,7 +4322,7 @@
         <v/>
       </c>
       <c r="AP7">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -4261,7 +4330,12 @@
       <c r="AR7">
         <v>1</v>
       </c>
-      <c r="AS7" s="3"/>
+      <c r="AS7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT7">
+        <v>50001</v>
+      </c>
       <c r="AU7" t="str">
         <f>IF(AS7="Gacha",
 IF(ISBLANK(AT7),"비어있음",
@@ -4269,13 +4343,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AY7" s="3"/>
+      <c r="AV7">
+        <v>0.25</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ7">
+        <v>50001</v>
+      </c>
       <c r="BA7" t="str">
         <f>IF(AY7="Gacha",
 IF(ISBLANK(AZ7),"비어있음",
 IF(ISERROR(VLOOKUP(AZ7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="BB7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
       </c>
       <c r="BE7" s="3"/>
       <c r="BG7" t="str">
@@ -4289,14 +4386,14 @@
         <v>14</v>
       </c>
       <c r="BN7" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BP7">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>LEN(BN7)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.3">
@@ -4304,28 +4401,28 @@
         <v>5001</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="7"/>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+        <f t="shared" si="6"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 5, 5</v>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>, , , 50001, , , 50001, 50001</v>
+      </c>
+      <c r="F8" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>, , , 50001, 50001, 50001</v>
-      </c>
-      <c r="F8" s="1" t="str">
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
-      </c>
-      <c r="G8" s="1" t="str">
+        <v>0.05, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H8" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0.05, 100, 2, 1, 1, 1</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>0.65, 100, 2, 1, 1, 1</v>
+        <v>0.65, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>10</v>
@@ -4407,10 +4504,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH8">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="AI8" t="str">
         <f>IF(AG8="Gacha",
@@ -4420,7 +4514,7 @@
         <v/>
       </c>
       <c r="AJ8">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="AK8">
         <v>1</v>
@@ -4429,10 +4523,7 @@
         <v>1</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN8">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="AO8" t="str">
         <f>IF(AM8="Gacha",
@@ -4442,7 +4533,7 @@
         <v/>
       </c>
       <c r="AP8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -4450,7 +4541,12 @@
       <c r="AR8">
         <v>1</v>
       </c>
-      <c r="AS8" s="3"/>
+      <c r="AS8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT8">
+        <v>50001</v>
+      </c>
       <c r="AU8" t="str">
         <f>IF(AS8="Gacha",
 IF(ISBLANK(AT8),"비어있음",
@@ -4458,13 +4554,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AY8" s="3"/>
+      <c r="AV8">
+        <v>0.25</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ8">
+        <v>50001</v>
+      </c>
       <c r="BA8" t="str">
         <f>IF(AY8="Gacha",
 IF(ISBLANK(AZ8),"비어있음",
 IF(ISERROR(VLOOKUP(AZ8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="BB8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
       </c>
       <c r="BE8" s="3"/>
       <c r="BG8" t="str">
@@ -4474,13 +4593,26 @@
 "")</f>
         <v/>
       </c>
+      <c r="BL8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO8">
+        <v>1</v>
+      </c>
+      <c r="BP8">
+        <f>LEN(BN8)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5002</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9:C11" si="17">IF(ISBLANK(I9),"",I9)
+        <f t="shared" ref="C9:C11" si="16">IF(ISBLANK(I9),"",I9)
 &amp;IF(ISBLANK(O9),"",", "&amp;O9)
 &amp;IF(ISBLANK(U9),"",", "&amp;U9)
 &amp;IF(ISBLANK(AA9),"",", "&amp;AA9)
@@ -4489,14 +4621,14 @@
 &amp;IF(ISBLANK(AS9),"",", "&amp;AS9)
 &amp;IF(ISBLANK(AY9),"",", "&amp;AY9)
 &amp;IF(ISBLANK(BE9),"",", "&amp;BE9)</f>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 5, 5</v>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" ref="E9:E11" si="18">IF(ISBLANK(J9),"",J9)
+        <f t="shared" ref="E9:E11" si="17">IF(ISBLANK(J9),"",J9)
 &amp;IF(ISBLANK(O9),"",", "&amp;P9)
 &amp;IF(ISBLANK(U9),"",", "&amp;V9)
 &amp;IF(ISBLANK(AA9),"",", "&amp;AB9)
@@ -4505,10 +4637,10 @@
 &amp;IF(ISBLANK(AS9),"",", "&amp;AT9)
 &amp;IF(ISBLANK(AY9),"",", "&amp;AZ9)
 &amp;IF(ISBLANK(BE9),"",", "&amp;BF9)</f>
-        <v>, , , 50001, 50001, 50001</v>
+        <v>, , , 50001, , , 50001, 50001</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" ref="F9:F11" si="19">IF(ISBLANK(L9),"",L9)
+        <f t="shared" ref="F9:F11" si="18">IF(ISBLANK(L9),"",L9)
 &amp;IF(ISBLANK(R9),"",", "&amp;R9)
 &amp;IF(ISBLANK(X9),"",", "&amp;X9)
 &amp;IF(ISBLANK(AD9),"",", "&amp;AD9)
@@ -4517,10 +4649,10 @@
 &amp;IF(ISBLANK(AV9),"",", "&amp;AV9)
 &amp;IF(ISBLANK(BB9),"",", "&amp;BB9)
 &amp;IF(ISBLANK(BH9),"",", "&amp;BH9)</f>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" ref="G9:G11" si="20">IF(ISBLANK(M9),"",M9)
+        <f t="shared" ref="G9:G11" si="19">IF(ISBLANK(M9),"",M9)
 &amp;IF(ISBLANK(S9),"",", "&amp;S9)
 &amp;IF(ISBLANK(Y9),"",", "&amp;Y9)
 &amp;IF(ISBLANK(AE9),"",", "&amp;AE9)
@@ -4529,10 +4661,10 @@
 &amp;IF(ISBLANK(AW9),"",", "&amp;AW9)
 &amp;IF(ISBLANK(BC9),"",", "&amp;BC9)
 &amp;IF(ISBLANK(BI9),"",", "&amp;BI9)</f>
-        <v>0.085, 100, 2, 1, 1, 1</v>
+        <v>0.085, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" ref="H9:H11" si="21">IF(ISBLANK(N9),"",N9)
+        <f t="shared" ref="H9:H11" si="20">IF(ISBLANK(N9),"",N9)
 &amp;IF(ISBLANK(T9),"",", "&amp;T9)
 &amp;IF(ISBLANK(Z9),"",", "&amp;Z9)
 &amp;IF(ISBLANK(AF9),"",", "&amp;AF9)
@@ -4541,7 +4673,7 @@
 &amp;IF(ISBLANK(AX9),"",", "&amp;AX9)
 &amp;IF(ISBLANK(BD9),"",", "&amp;BD9)
 &amp;IF(ISBLANK(BJ9),"",", "&amp;BJ9)</f>
-        <v>0.685, 100, 2, 1, 1, 1</v>
+        <v>0.685, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>10</v>
@@ -4623,10 +4755,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH9">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="AI9" t="str">
         <f>IF(AG9="Gacha",
@@ -4636,7 +4765,7 @@
         <v/>
       </c>
       <c r="AJ9">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="AK9">
         <v>1</v>
@@ -4645,10 +4774,7 @@
         <v>1</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN9">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="AO9" t="str">
         <f>IF(AM9="Gacha",
@@ -4658,7 +4784,7 @@
         <v/>
       </c>
       <c r="AP9">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -4666,7 +4792,12 @@
       <c r="AR9">
         <v>1</v>
       </c>
-      <c r="AS9" s="3"/>
+      <c r="AS9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT9">
+        <v>50001</v>
+      </c>
       <c r="AU9" t="str">
         <f>IF(AS9="Gacha",
 IF(ISBLANK(AT9),"비어있음",
@@ -4674,13 +4805,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AY9" s="3"/>
+      <c r="AV9">
+        <v>0.25</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ9">
+        <v>50001</v>
+      </c>
       <c r="BA9" t="str">
         <f>IF(AY9="Gacha",
 IF(ISBLANK(AZ9),"비어있음",
 IF(ISERROR(VLOOKUP(AZ9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="BB9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC9">
+        <v>1</v>
+      </c>
+      <c r="BD9">
+        <v>1</v>
       </c>
       <c r="BE9" s="3"/>
       <c r="BG9" t="str">
@@ -4696,28 +4850,28 @@
         <v>5003</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="17"/>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+        <f t="shared" si="16"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 5, 5</v>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E10" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>, , , 50001, , , 50001, 50001</v>
+      </c>
+      <c r="F10" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>, , , 50001, 50001, 50001</v>
-      </c>
-      <c r="F10" s="1" t="str">
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
-      </c>
-      <c r="G10" s="1" t="str">
+        <v>0.12, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H10" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>0.12, 100, 2, 1, 1, 1</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>0.72, 100, 2, 1, 1, 1</v>
+        <v>0.72, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>10</v>
@@ -4799,10 +4953,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH10">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="AI10" t="str">
         <f>IF(AG10="Gacha",
@@ -4812,7 +4963,7 @@
         <v/>
       </c>
       <c r="AJ10">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="AK10">
         <v>1</v>
@@ -4821,10 +4972,7 @@
         <v>1</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN10">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="AO10" t="str">
         <f>IF(AM10="Gacha",
@@ -4834,7 +4982,7 @@
         <v/>
       </c>
       <c r="AP10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -4842,7 +4990,12 @@
       <c r="AR10">
         <v>1</v>
       </c>
-      <c r="AS10" s="3"/>
+      <c r="AS10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT10">
+        <v>50001</v>
+      </c>
       <c r="AU10" t="str">
         <f>IF(AS10="Gacha",
 IF(ISBLANK(AT10),"비어있음",
@@ -4850,13 +5003,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AY10" s="3"/>
+      <c r="AV10">
+        <v>0.25</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ10">
+        <v>50001</v>
+      </c>
       <c r="BA10" t="str">
         <f>IF(AY10="Gacha",
 IF(ISBLANK(AZ10),"비어있음",
 IF(ISERROR(VLOOKUP(AZ10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="BB10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
       </c>
       <c r="BE10" s="3"/>
       <c r="BG10" t="str">
@@ -4872,28 +5048,28 @@
         <v>5004</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="17"/>
-        <v>Gold, Exp, Heart, LevelPack, Gacha, Gacha</v>
+        <f t="shared" si="16"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 5, 5</v>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E11" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>, , , 50001, , , 50001, 50001</v>
+      </c>
+      <c r="F11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>, , , 50001, 50001, 50001</v>
-      </c>
-      <c r="F11" s="1" t="str">
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>1, 1, 1, 1, 0.25, 0.025</v>
-      </c>
-      <c r="G11" s="1" t="str">
+        <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H11" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>0.155, 100, 2, 1, 1, 1</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>0.755, 100, 2, 1, 1, 1</v>
+        <v>0.755, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>10</v>
@@ -4975,10 +5151,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH11">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="AI11" t="str">
         <f>IF(AG11="Gacha",
@@ -4988,7 +5161,7 @@
         <v/>
       </c>
       <c r="AJ11">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="AK11">
         <v>1</v>
@@ -4997,10 +5170,7 @@
         <v>1</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN11">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="AO11" t="str">
         <f>IF(AM11="Gacha",
@@ -5010,7 +5180,7 @@
         <v/>
       </c>
       <c r="AP11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -5018,7 +5188,12 @@
       <c r="AR11">
         <v>1</v>
       </c>
-      <c r="AS11" s="3"/>
+      <c r="AS11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT11">
+        <v>50001</v>
+      </c>
       <c r="AU11" t="str">
         <f>IF(AS11="Gacha",
 IF(ISBLANK(AT11),"비어있음",
@@ -5026,13 +5201,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AY11" s="3"/>
+      <c r="AV11">
+        <v>0.25</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ11">
+        <v>50001</v>
+      </c>
       <c r="BA11" t="str">
         <f>IF(AY11="Gacha",
 IF(ISBLANK(AZ11),"비어있음",
 IF(ISERROR(VLOOKUP(AZ11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="BB11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
       </c>
       <c r="BE11" s="3"/>
       <c r="BG11" t="str">
@@ -5048,10 +5246,10 @@
         <v>6000</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C12" si="22">IF(ISBLANK(I12),"",I12)
+        <f t="shared" ref="C12" si="21">IF(ISBLANK(I12),"",I12)
 &amp;IF(ISBLANK(O12),"",", "&amp;O12)
 &amp;IF(ISBLANK(U12),"",", "&amp;U12)
 &amp;IF(ISBLANK(AA12),"",", "&amp;AA12)
@@ -5060,14 +5258,14 @@
 &amp;IF(ISBLANK(AS12),"",", "&amp;AS12)
 &amp;IF(ISBLANK(AY12),"",", "&amp;AY12)
 &amp;IF(ISBLANK(BE12),"",", "&amp;BE12)</f>
-        <v>Gold, Gacha, Gacha, Gacha</v>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 5, 5, 5</v>
+        <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" ref="E12" si="23">IF(ISBLANK(J12),"",J12)
+        <f t="shared" ref="E12" si="22">IF(ISBLANK(J12),"",J12)
 &amp;IF(ISBLANK(O12),"",", "&amp;P12)
 &amp;IF(ISBLANK(U12),"",", "&amp;V12)
 &amp;IF(ISBLANK(AA12),"",", "&amp;AB12)
@@ -5076,10 +5274,10 @@
 &amp;IF(ISBLANK(AS12),"",", "&amp;AT12)
 &amp;IF(ISBLANK(AY12),"",", "&amp;AZ12)
 &amp;IF(ISBLANK(BE12),"",", "&amp;BF12)</f>
-        <v>, 50001, 50001, 50001</v>
+        <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" ref="F12" si="24">IF(ISBLANK(L12),"",L12)
+        <f t="shared" ref="F12" si="23">IF(ISBLANK(L12),"",L12)
 &amp;IF(ISBLANK(R12),"",", "&amp;R12)
 &amp;IF(ISBLANK(X12),"",", "&amp;X12)
 &amp;IF(ISBLANK(AD12),"",", "&amp;AD12)
@@ -5088,10 +5286,10 @@
 &amp;IF(ISBLANK(AV12),"",", "&amp;AV12)
 &amp;IF(ISBLANK(BB12),"",", "&amp;BB12)
 &amp;IF(ISBLANK(BH12),"",", "&amp;BH12)</f>
-        <v>1, 0.5, 0.1, 0.05</v>
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" ref="G12" si="25">IF(ISBLANK(M12),"",M12)
+        <f t="shared" ref="G12" si="24">IF(ISBLANK(M12),"",M12)
 &amp;IF(ISBLANK(S12),"",", "&amp;S12)
 &amp;IF(ISBLANK(Y12),"",", "&amp;Y12)
 &amp;IF(ISBLANK(AE12),"",", "&amp;AE12)
@@ -5100,10 +5298,10 @@
 &amp;IF(ISBLANK(AW12),"",", "&amp;AW12)
 &amp;IF(ISBLANK(BC12),"",", "&amp;BC12)
 &amp;IF(ISBLANK(BI12),"",", "&amp;BI12)</f>
-        <v>0.015, 1, 1, 1</v>
+        <v>0.015, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" ref="H12" si="26">IF(ISBLANK(N12),"",N12)
+        <f t="shared" ref="H12" si="25">IF(ISBLANK(N12),"",N12)
 &amp;IF(ISBLANK(T12),"",", "&amp;T12)
 &amp;IF(ISBLANK(Z12),"",", "&amp;Z12)
 &amp;IF(ISBLANK(AF12),"",", "&amp;AF12)
@@ -5112,7 +5310,7 @@
 &amp;IF(ISBLANK(AX12),"",", "&amp;AX12)
 &amp;IF(ISBLANK(BD12),"",", "&amp;BD12)
 &amp;IF(ISBLANK(BJ12),"",", "&amp;BJ12)</f>
-        <v>0.145, 1, 1, 1</v>
+        <v>0.145, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
@@ -5134,10 +5332,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="str">
         <f>IF(O12="Gacha",
@@ -5147,7 +5342,7 @@
         <v/>
       </c>
       <c r="R12">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -5156,10 +5351,7 @@
         <v>1</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="W12" t="str">
         <f>IF(U12="Gacha",
@@ -5191,7 +5383,7 @@
         <v/>
       </c>
       <c r="AD12">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -5199,7 +5391,12 @@
       <c r="AF12">
         <v>1</v>
       </c>
-      <c r="AG12" s="3"/>
+      <c r="AG12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH12">
+        <v>50001</v>
+      </c>
       <c r="AI12" t="str">
         <f>IF(AG12="Gacha",
 IF(ISBLANK(AH12),"비어있음",
@@ -5207,13 +5404,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AM12" s="3"/>
+      <c r="AJ12">
+        <v>0.1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN12">
+        <v>50001</v>
+      </c>
       <c r="AO12" t="str">
         <f>IF(AM12="Gacha",
 IF(ISBLANK(AN12),"비어있음",
 IF(ISERROR(VLOOKUP(AN12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AP12">
+        <v>0.05</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
       </c>
       <c r="AS12" s="3"/>
       <c r="AU12" t="str">
@@ -5244,7 +5464,7 @@
         <v>6001</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13:C16" si="27">IF(ISBLANK(I13),"",I13)
+        <f t="shared" ref="C13:C16" si="26">IF(ISBLANK(I13),"",I13)
 &amp;IF(ISBLANK(O13),"",", "&amp;O13)
 &amp;IF(ISBLANK(U13),"",", "&amp;U13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AA13)
@@ -5253,14 +5473,14 @@
 &amp;IF(ISBLANK(AS13),"",", "&amp;AS13)
 &amp;IF(ISBLANK(AY13),"",", "&amp;AY13)
 &amp;IF(ISBLANK(BE13),"",", "&amp;BE13)</f>
-        <v>Gold, Gacha, Gacha, Gacha</v>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 5, 5, 5</v>
+        <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13:E16" si="28">IF(ISBLANK(J13),"",J13)
+        <f t="shared" ref="E13:E16" si="27">IF(ISBLANK(J13),"",J13)
 &amp;IF(ISBLANK(O13),"",", "&amp;P13)
 &amp;IF(ISBLANK(U13),"",", "&amp;V13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AB13)
@@ -5269,10 +5489,10 @@
 &amp;IF(ISBLANK(AS13),"",", "&amp;AT13)
 &amp;IF(ISBLANK(AY13),"",", "&amp;AZ13)
 &amp;IF(ISBLANK(BE13),"",", "&amp;BF13)</f>
-        <v>, 50001, 50001, 50001</v>
+        <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13:F16" si="29">IF(ISBLANK(L13),"",L13)
+        <f t="shared" ref="F13:F16" si="28">IF(ISBLANK(L13),"",L13)
 &amp;IF(ISBLANK(R13),"",", "&amp;R13)
 &amp;IF(ISBLANK(X13),"",", "&amp;X13)
 &amp;IF(ISBLANK(AD13),"",", "&amp;AD13)
@@ -5281,10 +5501,10 @@
 &amp;IF(ISBLANK(AV13),"",", "&amp;AV13)
 &amp;IF(ISBLANK(BB13),"",", "&amp;BB13)
 &amp;IF(ISBLANK(BH13),"",", "&amp;BH13)</f>
-        <v>1, 0.5, 0.1, 0.05</v>
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13:G16" si="30">IF(ISBLANK(M13),"",M13)
+        <f t="shared" ref="G13:G16" si="29">IF(ISBLANK(M13),"",M13)
 &amp;IF(ISBLANK(S13),"",", "&amp;S13)
 &amp;IF(ISBLANK(Y13),"",", "&amp;Y13)
 &amp;IF(ISBLANK(AE13),"",", "&amp;AE13)
@@ -5293,10 +5513,10 @@
 &amp;IF(ISBLANK(AW13),"",", "&amp;AW13)
 &amp;IF(ISBLANK(BC13),"",", "&amp;BC13)
 &amp;IF(ISBLANK(BI13),"",", "&amp;BI13)</f>
-        <v>0.05, 1, 1, 1</v>
+        <v>0.05, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13:H16" si="31">IF(ISBLANK(N13),"",N13)
+        <f t="shared" ref="H13:H16" si="30">IF(ISBLANK(N13),"",N13)
 &amp;IF(ISBLANK(T13),"",", "&amp;T13)
 &amp;IF(ISBLANK(Z13),"",", "&amp;Z13)
 &amp;IF(ISBLANK(AF13),"",", "&amp;AF13)
@@ -5305,7 +5525,7 @@
 &amp;IF(ISBLANK(AX13),"",", "&amp;AX13)
 &amp;IF(ISBLANK(BD13),"",", "&amp;BD13)
 &amp;IF(ISBLANK(BJ13),"",", "&amp;BJ13)</f>
-        <v>0.65, 1, 1, 1</v>
+        <v>0.65, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>10</v>
@@ -5327,10 +5547,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="Q13" t="str">
         <f>IF(O13="Gacha",
@@ -5340,7 +5557,7 @@
         <v/>
       </c>
       <c r="R13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -5349,10 +5566,7 @@
         <v>1</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="W13" t="str">
         <f>IF(U13="Gacha",
@@ -5384,7 +5598,7 @@
         <v/>
       </c>
       <c r="AD13">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AE13">
         <v>1</v>
@@ -5392,7 +5606,12 @@
       <c r="AF13">
         <v>1</v>
       </c>
-      <c r="AG13" s="3"/>
+      <c r="AG13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH13">
+        <v>50001</v>
+      </c>
       <c r="AI13" t="str">
         <f>IF(AG13="Gacha",
 IF(ISBLANK(AH13),"비어있음",
@@ -5400,13 +5619,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AM13" s="3"/>
+      <c r="AJ13">
+        <v>0.1</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN13">
+        <v>50001</v>
+      </c>
       <c r="AO13" t="str">
         <f>IF(AM13="Gacha",
 IF(ISBLANK(AN13),"비어있음",
 IF(ISERROR(VLOOKUP(AN13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AP13">
+        <v>0.05</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
       </c>
       <c r="AS13" s="3"/>
       <c r="AU13" t="str">
@@ -5437,28 +5679,28 @@
         <v>6002</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="27"/>
-        <v>Gold, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="26"/>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 5, 5, 5</v>
+        <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E14" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F14" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>, 50001, 50001, 50001</v>
-      </c>
-      <c r="F14" s="1" t="str">
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G14" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>1, 0.5, 0.1, 0.05</v>
-      </c>
-      <c r="G14" s="1" t="str">
+        <v>0.085, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H14" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>0.085, 1, 1, 1</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>0.685, 1, 1, 1</v>
+        <v>0.685, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -5480,10 +5722,7 @@
         <v>0.68500000000000005</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="Q14" t="str">
         <f>IF(O14="Gacha",
@@ -5493,7 +5732,7 @@
         <v/>
       </c>
       <c r="R14">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -5502,10 +5741,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V14">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="W14" t="str">
         <f>IF(U14="Gacha",
@@ -5537,7 +5773,7 @@
         <v/>
       </c>
       <c r="AD14">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AE14">
         <v>1</v>
@@ -5545,7 +5781,12 @@
       <c r="AF14">
         <v>1</v>
       </c>
-      <c r="AG14" s="3"/>
+      <c r="AG14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH14">
+        <v>50001</v>
+      </c>
       <c r="AI14" t="str">
         <f>IF(AG14="Gacha",
 IF(ISBLANK(AH14),"비어있음",
@@ -5553,13 +5794,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AM14" s="3"/>
+      <c r="AJ14">
+        <v>0.1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN14">
+        <v>50001</v>
+      </c>
       <c r="AO14" t="str">
         <f>IF(AM14="Gacha",
 IF(ISBLANK(AN14),"비어있음",
 IF(ISERROR(VLOOKUP(AN14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AP14">
+        <v>0.05</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
       </c>
       <c r="AS14" s="3"/>
       <c r="AU14" t="str">
@@ -5590,28 +5854,28 @@
         <v>6003</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="27"/>
-        <v>Gold, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="26"/>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 5, 5, 5</v>
+        <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E15" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F15" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>, 50001, 50001, 50001</v>
-      </c>
-      <c r="F15" s="1" t="str">
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>1, 0.5, 0.1, 0.05</v>
-      </c>
-      <c r="G15" s="1" t="str">
+        <v>0.12, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H15" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>0.12, 1, 1, 1</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>0.72, 1, 1, 1</v>
+        <v>0.72, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -5633,10 +5897,7 @@
         <v>0.72</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="Q15" t="str">
         <f>IF(O15="Gacha",
@@ -5646,7 +5907,7 @@
         <v/>
       </c>
       <c r="R15">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -5655,10 +5916,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V15">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="W15" t="str">
         <f>IF(U15="Gacha",
@@ -5690,7 +5948,7 @@
         <v/>
       </c>
       <c r="AD15">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AE15">
         <v>1</v>
@@ -5698,7 +5956,12 @@
       <c r="AF15">
         <v>1</v>
       </c>
-      <c r="AG15" s="3"/>
+      <c r="AG15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH15">
+        <v>50001</v>
+      </c>
       <c r="AI15" t="str">
         <f>IF(AG15="Gacha",
 IF(ISBLANK(AH15),"비어있음",
@@ -5706,13 +5969,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AM15" s="3"/>
+      <c r="AJ15">
+        <v>0.1</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN15">
+        <v>50001</v>
+      </c>
       <c r="AO15" t="str">
         <f>IF(AM15="Gacha",
 IF(ISBLANK(AN15),"비어있음",
 IF(ISERROR(VLOOKUP(AN15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AP15">
+        <v>0.05</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
       </c>
       <c r="AS15" s="3"/>
       <c r="AU15" t="str">
@@ -5743,28 +6029,28 @@
         <v>6004</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="27"/>
-        <v>Gold, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="26"/>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 5, 5, 5</v>
+        <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E16" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F16" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>, 50001, 50001, 50001</v>
-      </c>
-      <c r="F16" s="1" t="str">
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>1, 0.5, 0.1, 0.05</v>
-      </c>
-      <c r="G16" s="1" t="str">
+        <v>0.155, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H16" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>0.155, 1, 1, 1</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>0.755, 1, 1, 1</v>
+        <v>0.755, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>10</v>
@@ -5786,10 +6072,7 @@
         <v>0.755</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P16">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="Q16" t="str">
         <f>IF(O16="Gacha",
@@ -5799,7 +6082,7 @@
         <v/>
       </c>
       <c r="R16">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -5808,10 +6091,7 @@
         <v>1</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16">
-        <v>50001</v>
+        <v>69</v>
       </c>
       <c r="W16" t="str">
         <f>IF(U16="Gacha",
@@ -5843,7 +6123,7 @@
         <v/>
       </c>
       <c r="AD16">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AE16">
         <v>1</v>
@@ -5851,7 +6131,12 @@
       <c r="AF16">
         <v>1</v>
       </c>
-      <c r="AG16" s="3"/>
+      <c r="AG16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH16">
+        <v>50001</v>
+      </c>
       <c r="AI16" t="str">
         <f>IF(AG16="Gacha",
 IF(ISBLANK(AH16),"비어있음",
@@ -5859,13 +6144,36 @@
 "")</f>
         <v/>
       </c>
-      <c r="AM16" s="3"/>
+      <c r="AJ16">
+        <v>0.1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN16">
+        <v>50001</v>
+      </c>
       <c r="AO16" t="str">
         <f>IF(AM16="Gacha",
 IF(ISBLANK(AN16),"비어있음",
 IF(ISERROR(VLOOKUP(AN16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="AP16">
+        <v>0.05</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
       </c>
       <c r="AS16" s="3"/>
       <c r="AU16" t="str">
@@ -5892,13 +6200,13 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN3:BP6">
-    <sortCondition descending="1" ref="BP3:BP6"/>
-    <sortCondition ref="BO3:BO6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BP8">
+    <sortCondition descending="1" ref="BP2:BP8"/>
+    <sortCondition ref="BO2:BO8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM16 AY2:AY11 AA2:AA16 AG2:AG16 U2:U16 O2:O16 AS2:AS16 I2:I16 BE2:BE16" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA16 AG2:AG16 AY2:AY11 U2:U16 O2:O16 BE2:BE16 I2:I16 AS2:AS16 AM2:AM16" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E079C59-9295-4E4D-AA03-D04365BCA7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509212E1-B735-4347-94CC-6267A4E6E0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
     <sheet name="DropAdjustTable" sheetId="2" r:id="rId2"/>
+    <sheet name="드랍규칙" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2283,7 +2284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2515,6 +2516,30 @@
   </si>
   <si>
     <t>Seal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~1챕터에서는 무기/방어구가 드랍되지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2챕터에서는 무기만 드랍된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3챕터에서는 전부 드랍된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0챕터에서는 인장이 드랍되지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7챕터 보스 전투들에서는 인장이 보스당 1개 드랍된다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2552,7 +2577,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2562,6 +2587,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2580,7 +2611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2592,6 +2623,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2959,34 +2993,52 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="40.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="51.625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="63" max="63" width="9" collapsed="1"/>
     <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="65" max="65" width="9" collapsed="1"/>
@@ -3027,7 +3079,7 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="L1" t="s">
@@ -3045,7 +3097,7 @@
       <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="R1" t="s">
@@ -3063,7 +3115,7 @@
       <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="X1" t="s">
@@ -3081,7 +3133,7 @@
       <c r="AB1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AD1" t="s">
@@ -3099,7 +3151,7 @@
       <c r="AH1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AJ1" t="s">
@@ -3117,7 +3169,7 @@
       <c r="AN1" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AP1" t="s">
@@ -3135,7 +3187,7 @@
       <c r="AT1" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AV1" t="s">
@@ -3153,7 +3205,7 @@
       <c r="AZ1" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="BB1" t="s">
@@ -3171,7 +3223,7 @@
       <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="BH1" t="s">
@@ -3238,7 +3290,7 @@
 &amp;IF(ISBLANK(AS2),"",", "&amp;AS2)
 &amp;IF(ISBLANK(AY2),"",", "&amp;AY2)
 &amp;IF(ISBLANK(BE2),"",", "&amp;BE2)</f>
-        <v>Gold, Exp, Heart, Gacha</v>
+        <v>Gold, Exp, Heart</v>
       </c>
       <c r="D2" s="1" t="str">
         <f t="shared" ref="D2:D16" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3271,7 +3323,7 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2, 1, 4, 5</v>
+        <v>2, 1, 4</v>
       </c>
       <c r="E2" s="1" t="str">
         <f t="shared" ref="E2" si="2">IF(ISBLANK(J2),"",J2)
@@ -3283,7 +3335,7 @@
 &amp;IF(ISBLANK(AS2),"",", "&amp;AT2)
 &amp;IF(ISBLANK(AY2),"",", "&amp;AZ2)
 &amp;IF(ISBLANK(BE2),"",", "&amp;BF2)</f>
-        <v>, , , 10001</v>
+        <v xml:space="preserve">, , </v>
       </c>
       <c r="F2" s="1" t="str">
         <f t="shared" ref="F2" si="3">IF(ISBLANK(L2),"",L2)
@@ -3295,7 +3347,7 @@
 &amp;IF(ISBLANK(AV2),"",", "&amp;AV2)
 &amp;IF(ISBLANK(BB2),"",", "&amp;BB2)
 &amp;IF(ISBLANK(BH2),"",", "&amp;BH2)</f>
-        <v>1, 1, 0.075, 0.001</v>
+        <v>1, 1, 0.075</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" ref="G2" si="4">IF(ISBLANK(M2),"",M2)
@@ -3307,7 +3359,7 @@
 &amp;IF(ISBLANK(AW2),"",", "&amp;AW2)
 &amp;IF(ISBLANK(BC2),"",", "&amp;BC2)
 &amp;IF(ISBLANK(BI2),"",", "&amp;BI2)</f>
-        <v>0.015, 5, 1, 1</v>
+        <v>0.015, 5, 1</v>
       </c>
       <c r="H2" s="1" t="str">
         <f t="shared" ref="H2" si="5">IF(ISBLANK(N2),"",N2)
@@ -3319,12 +3371,12 @@
 &amp;IF(ISBLANK(AX2),"",", "&amp;AX2)
 &amp;IF(ISBLANK(BD2),"",", "&amp;BD2)
 &amp;IF(ISBLANK(BJ2),"",", "&amp;BJ2)</f>
-        <v>0.145, 5, 1, 1</v>
+        <v>0.145, 5, 1</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>IF(I2="Gacha",
 IF(ISBLANK(J2),"비어있음",
 IF(ISERROR(VLOOKUP(J2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3343,7 +3395,7 @@
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="4" t="str">
         <f>IF(O2="Gacha",
 IF(ISBLANK(P2),"비어있음",
 IF(ISERROR(VLOOKUP(P2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3362,7 +3414,7 @@
       <c r="U2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="4" t="str">
         <f>IF(U2="Gacha",
 IF(ISBLANK(V2),"비어있음",
 IF(ISERROR(VLOOKUP(V2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3378,30 +3430,16 @@
       <c r="Z2">
         <v>1</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2">
-        <v>10001</v>
-      </c>
-      <c r="AC2" t="str">
+      <c r="AA2" s="3"/>
+      <c r="AC2" s="4" t="str">
         <f>IF(AA2="Gacha",
 IF(ISBLANK(AB2),"비어있음",
 IF(ISERROR(VLOOKUP(AB2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AD2">
-        <v>1E-3</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
       <c r="AG2" s="3"/>
-      <c r="AI2" t="str">
+      <c r="AI2" s="4" t="str">
         <f>IF(AG2="Gacha",
 IF(ISBLANK(AH2),"비어있음",
 IF(ISERROR(VLOOKUP(AH2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3409,7 +3447,7 @@
         <v/>
       </c>
       <c r="AM2" s="3"/>
-      <c r="AO2" t="str">
+      <c r="AO2" s="4" t="str">
         <f>IF(AM2="Gacha",
 IF(ISBLANK(AN2),"비어있음",
 IF(ISERROR(VLOOKUP(AN2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3417,7 +3455,7 @@
         <v/>
       </c>
       <c r="AS2" s="3"/>
-      <c r="AU2" t="str">
+      <c r="AU2" s="4" t="str">
         <f>IF(AS2="Gacha",
 IF(ISBLANK(AT2),"비어있음",
 IF(ISERROR(VLOOKUP(AT2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3425,7 +3463,7 @@
         <v/>
       </c>
       <c r="AY2" s="3"/>
-      <c r="BA2" t="str">
+      <c r="BA2" s="4" t="str">
         <f>IF(AY2="Gacha",
 IF(ISBLANK(AZ2),"비어있음",
 IF(ISERROR(VLOOKUP(AZ2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3433,7 +3471,7 @@
         <v/>
       </c>
       <c r="BE2" s="3"/>
-      <c r="BG2" t="str">
+      <c r="BG2" s="4" t="str">
         <f>IF(BE2="Gacha",
 IF(ISBLANK(BF2),"비어있음",
 IF(ISERROR(VLOOKUP(BF2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3450,7 +3488,7 @@
         <v>3</v>
       </c>
       <c r="BP2">
-        <f>LEN(BN2)</f>
+        <f t="shared" ref="BP2:BP8" si="6">LEN(BN2)</f>
         <v>9</v>
       </c>
       <c r="BR2" t="str">
@@ -3463,7 +3501,7 @@
         <v>1001</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="6">IF(ISBLANK(I3),"",I3)
+        <f t="shared" ref="C3:C8" si="7">IF(ISBLANK(I3),"",I3)
 &amp;IF(ISBLANK(O3),"",", "&amp;O3)
 &amp;IF(ISBLANK(U3),"",", "&amp;U3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AA3)
@@ -3472,14 +3510,14 @@
 &amp;IF(ISBLANK(AS3),"",", "&amp;AS3)
 &amp;IF(ISBLANK(AY3),"",", "&amp;AY3)
 &amp;IF(ISBLANK(BE3),"",", "&amp;BE3)</f>
-        <v>Gold, Exp, Heart, Gacha</v>
+        <v>Gold, Exp, Heart</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 5</v>
+        <v>2, 1, 4</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E8" si="7">IF(ISBLANK(J3),"",J3)
+        <f t="shared" ref="E3:E8" si="8">IF(ISBLANK(J3),"",J3)
 &amp;IF(ISBLANK(O3),"",", "&amp;P3)
 &amp;IF(ISBLANK(U3),"",", "&amp;V3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AB3)
@@ -3488,10 +3526,10 @@
 &amp;IF(ISBLANK(AS3),"",", "&amp;AT3)
 &amp;IF(ISBLANK(AY3),"",", "&amp;AZ3)
 &amp;IF(ISBLANK(BE3),"",", "&amp;BF3)</f>
-        <v>, , , 10001</v>
+        <v xml:space="preserve">, , </v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F8" si="8">IF(ISBLANK(L3),"",L3)
+        <f t="shared" ref="F3:F8" si="9">IF(ISBLANK(L3),"",L3)
 &amp;IF(ISBLANK(R3),"",", "&amp;R3)
 &amp;IF(ISBLANK(X3),"",", "&amp;X3)
 &amp;IF(ISBLANK(AD3),"",", "&amp;AD3)
@@ -3500,10 +3538,10 @@
 &amp;IF(ISBLANK(AV3),"",", "&amp;AV3)
 &amp;IF(ISBLANK(BB3),"",", "&amp;BB3)
 &amp;IF(ISBLANK(BH3),"",", "&amp;BH3)</f>
-        <v>1, 1, 0.075, 0.001</v>
+        <v>1, 1, 0.075</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G8" si="9">IF(ISBLANK(M3),"",M3)
+        <f t="shared" ref="G3:G8" si="10">IF(ISBLANK(M3),"",M3)
 &amp;IF(ISBLANK(S3),"",", "&amp;S3)
 &amp;IF(ISBLANK(Y3),"",", "&amp;Y3)
 &amp;IF(ISBLANK(AE3),"",", "&amp;AE3)
@@ -3512,10 +3550,10 @@
 &amp;IF(ISBLANK(AW3),"",", "&amp;AW3)
 &amp;IF(ISBLANK(BC3),"",", "&amp;BC3)
 &amp;IF(ISBLANK(BI3),"",", "&amp;BI3)</f>
-        <v>0.05, 5, 1, 1</v>
+        <v>0.05, 5, 1</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H8" si="10">IF(ISBLANK(N3),"",N3)
+        <f t="shared" ref="H3:H8" si="11">IF(ISBLANK(N3),"",N3)
 &amp;IF(ISBLANK(T3),"",", "&amp;T3)
 &amp;IF(ISBLANK(Z3),"",", "&amp;Z3)
 &amp;IF(ISBLANK(AF3),"",", "&amp;AF3)
@@ -3524,12 +3562,12 @@
 &amp;IF(ISBLANK(AX3),"",", "&amp;AX3)
 &amp;IF(ISBLANK(BD3),"",", "&amp;BD3)
 &amp;IF(ISBLANK(BJ3),"",", "&amp;BJ3)</f>
-        <v>0.65, 5, 1, 1</v>
+        <v>0.65, 5, 1</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3" s="4" t="str">
         <f>IF(I3="Gacha",
 IF(ISBLANK(J3),"비어있음",
 IF(ISERROR(VLOOKUP(J3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3548,7 +3586,7 @@
       <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="Q3" s="4" t="str">
         <f>IF(O3="Gacha",
 IF(ISBLANK(P3),"비어있음",
 IF(ISERROR(VLOOKUP(P3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3567,7 +3605,7 @@
       <c r="U3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W3" t="str">
+      <c r="W3" s="4" t="str">
         <f>IF(U3="Gacha",
 IF(ISBLANK(V3),"비어있음",
 IF(ISERROR(VLOOKUP(V3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3583,30 +3621,16 @@
       <c r="Z3">
         <v>1</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3">
-        <v>10001</v>
-      </c>
-      <c r="AC3" t="str">
+      <c r="AA3" s="3"/>
+      <c r="AC3" s="4" t="str">
         <f>IF(AA3="Gacha",
 IF(ISBLANK(AB3),"비어있음",
 IF(ISERROR(VLOOKUP(AB3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AD3">
-        <v>1E-3</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
       <c r="AG3" s="3"/>
-      <c r="AI3" t="str">
+      <c r="AI3" s="4" t="str">
         <f>IF(AG3="Gacha",
 IF(ISBLANK(AH3),"비어있음",
 IF(ISERROR(VLOOKUP(AH3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3614,7 +3638,7 @@
         <v/>
       </c>
       <c r="AM3" s="3"/>
-      <c r="AO3" t="str">
+      <c r="AO3" s="4" t="str">
         <f>IF(AM3="Gacha",
 IF(ISBLANK(AN3),"비어있음",
 IF(ISERROR(VLOOKUP(AN3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3622,7 +3646,7 @@
         <v/>
       </c>
       <c r="AS3" s="3"/>
-      <c r="AU3" t="str">
+      <c r="AU3" s="4" t="str">
         <f>IF(AS3="Gacha",
 IF(ISBLANK(AT3),"비어있음",
 IF(ISERROR(VLOOKUP(AT3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3630,7 +3654,7 @@
         <v/>
       </c>
       <c r="AY3" s="3"/>
-      <c r="BA3" t="str">
+      <c r="BA3" s="4" t="str">
         <f>IF(AY3="Gacha",
 IF(ISBLANK(AZ3),"비어있음",
 IF(ISERROR(VLOOKUP(AZ3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3638,7 +3662,7 @@
         <v/>
       </c>
       <c r="BE3" s="3"/>
-      <c r="BG3" t="str">
+      <c r="BG3" s="4" t="str">
         <f>IF(BE3="Gacha",
 IF(ISBLANK(BF3),"비어있음",
 IF(ISERROR(VLOOKUP(BF3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3655,7 +3679,7 @@
         <v>6</v>
       </c>
       <c r="BP3">
-        <f>LEN(BN3)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -3664,7 +3688,7 @@
         <v>1002</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C7" si="11">IF(ISBLANK(I4),"",I4)
+        <f t="shared" ref="C4:C7" si="12">IF(ISBLANK(I4),"",I4)
 &amp;IF(ISBLANK(O4),"",", "&amp;O4)
 &amp;IF(ISBLANK(U4),"",", "&amp;U4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AA4)
@@ -3680,7 +3704,7 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E7" si="12">IF(ISBLANK(J4),"",J4)
+        <f t="shared" ref="E4:E7" si="13">IF(ISBLANK(J4),"",J4)
 &amp;IF(ISBLANK(O4),"",", "&amp;P4)
 &amp;IF(ISBLANK(U4),"",", "&amp;V4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AB4)
@@ -3692,7 +3716,7 @@
         <v>, , , 10001</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F7" si="13">IF(ISBLANK(L4),"",L4)
+        <f t="shared" ref="F4:F7" si="14">IF(ISBLANK(L4),"",L4)
 &amp;IF(ISBLANK(R4),"",", "&amp;R4)
 &amp;IF(ISBLANK(X4),"",", "&amp;X4)
 &amp;IF(ISBLANK(AD4),"",", "&amp;AD4)
@@ -3704,7 +3728,7 @@
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G7" si="14">IF(ISBLANK(M4),"",M4)
+        <f t="shared" ref="G4:G7" si="15">IF(ISBLANK(M4),"",M4)
 &amp;IF(ISBLANK(S4),"",", "&amp;S4)
 &amp;IF(ISBLANK(Y4),"",", "&amp;Y4)
 &amp;IF(ISBLANK(AE4),"",", "&amp;AE4)
@@ -3716,7 +3740,7 @@
         <v>0.085, 5, 1, 1</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H7" si="15">IF(ISBLANK(N4),"",N4)
+        <f t="shared" ref="H4:H7" si="16">IF(ISBLANK(N4),"",N4)
 &amp;IF(ISBLANK(T4),"",", "&amp;T4)
 &amp;IF(ISBLANK(Z4),"",", "&amp;Z4)
 &amp;IF(ISBLANK(AF4),"",", "&amp;AF4)
@@ -3730,7 +3754,7 @@
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4" s="4" t="str">
         <f>IF(I4="Gacha",
 IF(ISBLANK(J4),"비어있음",
 IF(ISERROR(VLOOKUP(J4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3749,7 +3773,7 @@
       <c r="O4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="Q4" s="4" t="str">
         <f>IF(O4="Gacha",
 IF(ISBLANK(P4),"비어있음",
 IF(ISERROR(VLOOKUP(P4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3768,7 +3792,7 @@
       <c r="U4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W4" t="str">
+      <c r="W4" s="4" t="str">
         <f>IF(U4="Gacha",
 IF(ISBLANK(V4),"비어있음",
 IF(ISERROR(VLOOKUP(V4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3790,7 +3814,7 @@
       <c r="AB4">
         <v>10001</v>
       </c>
-      <c r="AC4" t="str">
+      <c r="AC4" s="4" t="str">
         <f>IF(AA4="Gacha",
 IF(ISBLANK(AB4),"비어있음",
 IF(ISERROR(VLOOKUP(AB4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3807,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="3"/>
-      <c r="AI4" t="str">
+      <c r="AI4" s="4" t="str">
         <f>IF(AG4="Gacha",
 IF(ISBLANK(AH4),"비어있음",
 IF(ISERROR(VLOOKUP(AH4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3815,7 +3839,7 @@
         <v/>
       </c>
       <c r="AM4" s="3"/>
-      <c r="AO4" t="str">
+      <c r="AO4" s="4" t="str">
         <f>IF(AM4="Gacha",
 IF(ISBLANK(AN4),"비어있음",
 IF(ISERROR(VLOOKUP(AN4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3823,7 +3847,7 @@
         <v/>
       </c>
       <c r="AS4" s="3"/>
-      <c r="AU4" t="str">
+      <c r="AU4" s="4" t="str">
         <f>IF(AS4="Gacha",
 IF(ISBLANK(AT4),"비어있음",
 IF(ISERROR(VLOOKUP(AT4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3831,7 +3855,7 @@
         <v/>
       </c>
       <c r="AY4" s="3"/>
-      <c r="BA4" t="str">
+      <c r="BA4" s="4" t="str">
         <f>IF(AY4="Gacha",
 IF(ISBLANK(AZ4),"비어있음",
 IF(ISERROR(VLOOKUP(AZ4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3839,7 +3863,7 @@
         <v/>
       </c>
       <c r="BE4" s="3"/>
-      <c r="BG4" t="str">
+      <c r="BG4" s="4" t="str">
         <f>IF(BE4="Gacha",
 IF(ISBLANK(BF4),"비어있음",
 IF(ISERROR(VLOOKUP(BF4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3856,7 +3880,7 @@
         <v>4</v>
       </c>
       <c r="BP4">
-        <f>LEN(BN4)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -3865,7 +3889,7 @@
         <v>1003</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D5" s="1" t="str">
@@ -3873,25 +3897,25 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>, , , 10001</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12, 5, 1, 1</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.72, 5, 1, 1</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5" s="4" t="str">
         <f>IF(I5="Gacha",
 IF(ISBLANK(J5),"비어있음",
 IF(ISERROR(VLOOKUP(J5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3910,7 +3934,7 @@
       <c r="O5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5" s="4" t="str">
         <f>IF(O5="Gacha",
 IF(ISBLANK(P5),"비어있음",
 IF(ISERROR(VLOOKUP(P5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3929,7 +3953,7 @@
       <c r="U5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W5" t="str">
+      <c r="W5" s="4" t="str">
         <f>IF(U5="Gacha",
 IF(ISBLANK(V5),"비어있음",
 IF(ISERROR(VLOOKUP(V5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3951,7 +3975,7 @@
       <c r="AB5">
         <v>10001</v>
       </c>
-      <c r="AC5" t="str">
+      <c r="AC5" s="4" t="str">
         <f>IF(AA5="Gacha",
 IF(ISBLANK(AB5),"비어있음",
 IF(ISERROR(VLOOKUP(AB5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3968,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="3"/>
-      <c r="AI5" t="str">
+      <c r="AI5" s="4" t="str">
         <f>IF(AG5="Gacha",
 IF(ISBLANK(AH5),"비어있음",
 IF(ISERROR(VLOOKUP(AH5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3976,7 +4000,7 @@
         <v/>
       </c>
       <c r="AM5" s="3"/>
-      <c r="AO5" t="str">
+      <c r="AO5" s="4" t="str">
         <f>IF(AM5="Gacha",
 IF(ISBLANK(AN5),"비어있음",
 IF(ISERROR(VLOOKUP(AN5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3984,7 +4008,7 @@
         <v/>
       </c>
       <c r="AS5" s="3"/>
-      <c r="AU5" t="str">
+      <c r="AU5" s="4" t="str">
         <f>IF(AS5="Gacha",
 IF(ISBLANK(AT5),"비어있음",
 IF(ISERROR(VLOOKUP(AT5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -3992,7 +4016,7 @@
         <v/>
       </c>
       <c r="AY5" s="3"/>
-      <c r="BA5" t="str">
+      <c r="BA5" s="4" t="str">
         <f>IF(AY5="Gacha",
 IF(ISBLANK(AZ5),"비어있음",
 IF(ISERROR(VLOOKUP(AZ5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4000,7 +4024,7 @@
         <v/>
       </c>
       <c r="BE5" s="3"/>
-      <c r="BG5" t="str">
+      <c r="BG5" s="4" t="str">
         <f>IF(BE5="Gacha",
 IF(ISBLANK(BF5),"비어있음",
 IF(ISERROR(VLOOKUP(BF5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4017,7 +4041,7 @@
         <v>5</v>
       </c>
       <c r="BP5">
-        <f>LEN(BN5)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -4026,7 +4050,7 @@
         <v>1004</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D6" s="1" t="str">
@@ -4034,25 +4058,25 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>, , , 10001</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.155, 5, 1, 1</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.755, 5, 1, 1</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="4" t="str">
         <f>IF(I6="Gacha",
 IF(ISBLANK(J6),"비어있음",
 IF(ISERROR(VLOOKUP(J6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4071,7 +4095,7 @@
       <c r="O6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="Q6" s="4" t="str">
         <f>IF(O6="Gacha",
 IF(ISBLANK(P6),"비어있음",
 IF(ISERROR(VLOOKUP(P6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4090,7 +4114,7 @@
       <c r="U6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W6" t="str">
+      <c r="W6" s="4" t="str">
         <f>IF(U6="Gacha",
 IF(ISBLANK(V6),"비어있음",
 IF(ISERROR(VLOOKUP(V6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4112,7 +4136,7 @@
       <c r="AB6">
         <v>10001</v>
       </c>
-      <c r="AC6" t="str">
+      <c r="AC6" s="4" t="str">
         <f>IF(AA6="Gacha",
 IF(ISBLANK(AB6),"비어있음",
 IF(ISERROR(VLOOKUP(AB6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4129,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="3"/>
-      <c r="AI6" t="str">
+      <c r="AI6" s="4" t="str">
         <f>IF(AG6="Gacha",
 IF(ISBLANK(AH6),"비어있음",
 IF(ISERROR(VLOOKUP(AH6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4137,7 +4161,7 @@
         <v/>
       </c>
       <c r="AM6" s="3"/>
-      <c r="AO6" t="str">
+      <c r="AO6" s="4" t="str">
         <f>IF(AM6="Gacha",
 IF(ISBLANK(AN6),"비어있음",
 IF(ISERROR(VLOOKUP(AN6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4145,7 +4169,7 @@
         <v/>
       </c>
       <c r="AS6" s="3"/>
-      <c r="AU6" t="str">
+      <c r="AU6" s="4" t="str">
         <f>IF(AS6="Gacha",
 IF(ISBLANK(AT6),"비어있음",
 IF(ISERROR(VLOOKUP(AT6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4153,7 +4177,7 @@
         <v/>
       </c>
       <c r="AY6" s="3"/>
-      <c r="BA6" t="str">
+      <c r="BA6" s="4" t="str">
         <f>IF(AY6="Gacha",
 IF(ISBLANK(AZ6),"비어있음",
 IF(ISERROR(VLOOKUP(AZ6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4161,7 +4185,7 @@
         <v/>
       </c>
       <c r="BE6" s="3"/>
-      <c r="BG6" t="str">
+      <c r="BG6" s="4" t="str">
         <f>IF(BE6="Gacha",
 IF(ISBLANK(BF6),"비어있음",
 IF(ISERROR(VLOOKUP(BF6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4178,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="BP6">
-        <f>LEN(BN6)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4190,33 +4214,33 @@
         <v>67</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="11"/>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
+        <f t="shared" si="12"/>
+        <v>Gold, Exp, Heart, LevelPack</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
+        <v>2, 1, 4, 3</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>, , , 50001, , , 50001, 50001</v>
+        <f t="shared" si="13"/>
+        <v>, , , 50001</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+        <f t="shared" si="14"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>0.015, 100, 2, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="15"/>
+        <v>0.015, 100, 2, 1</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>0.145, 100, 2, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="16"/>
+        <v>0.145, 100, 2, 1</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="4" t="str">
         <f>IF(I7="Gacha",
 IF(ISBLANK(J7),"비어있음",
 IF(ISERROR(VLOOKUP(J7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4235,7 +4259,7 @@
       <c r="O7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="Q7" s="4" t="str">
         <f>IF(O7="Gacha",
 IF(ISBLANK(P7),"비어있음",
 IF(ISERROR(VLOOKUP(P7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4254,7 +4278,7 @@
       <c r="U7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W7" t="str">
+      <c r="W7" s="4" t="str">
         <f>IF(U7="Gacha",
 IF(ISBLANK(V7),"비어있음",
 IF(ISERROR(VLOOKUP(V7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4276,7 +4300,7 @@
       <c r="AB7">
         <v>50001</v>
       </c>
-      <c r="AC7" t="str">
+      <c r="AC7" s="4" t="str">
         <f>IF(AA7="Gacha",
 IF(ISBLANK(AB7),"비어있음",
 IF(ISERROR(VLOOKUP(AB7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4292,90 +4316,40 @@
       <c r="AF7">
         <v>1</v>
       </c>
-      <c r="AG7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI7" t="str">
+      <c r="AG7" s="3"/>
+      <c r="AI7" s="4" t="str">
         <f>IF(AG7="Gacha",
 IF(ISBLANK(AH7),"비어있음",
 IF(ISERROR(VLOOKUP(AH7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AJ7">
-        <v>0.7</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO7" t="str">
+      <c r="AM7" s="3"/>
+      <c r="AO7" s="4" t="str">
         <f>IF(AM7="Gacha",
 IF(ISBLANK(AN7),"비어있음",
 IF(ISERROR(VLOOKUP(AN7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AP7">
-        <v>0.1</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AR7">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT7">
-        <v>50001</v>
-      </c>
-      <c r="AU7" t="str">
+      <c r="AS7" s="3"/>
+      <c r="AU7" s="4" t="str">
         <f>IF(AS7="Gacha",
 IF(ISBLANK(AT7),"비어있음",
 IF(ISERROR(VLOOKUP(AT7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AV7">
-        <v>0.25</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ7">
-        <v>50001</v>
-      </c>
-      <c r="BA7" t="str">
+      <c r="AY7" s="3"/>
+      <c r="BA7" s="4" t="str">
         <f>IF(AY7="Gacha",
 IF(ISBLANK(AZ7),"비어있음",
 IF(ISERROR(VLOOKUP(AZ7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="BB7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="BC7">
-        <v>1</v>
-      </c>
-      <c r="BD7">
-        <v>1</v>
-      </c>
       <c r="BE7" s="3"/>
-      <c r="BG7" t="str">
+      <c r="BG7" s="4" t="str">
         <f>IF(BE7="Gacha",
 IF(ISBLANK(BF7),"비어있음",
 IF(ISERROR(VLOOKUP(BF7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4392,7 +4366,7 @@
         <v>7</v>
       </c>
       <c r="BP7">
-        <f>LEN(BN7)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4401,33 +4375,33 @@
         <v>5001</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
+        <f t="shared" si="7"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
+        <v>2, 1, 4, 3, 7, 7</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>, , , 50001, , , 50001, 50001</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">, , , 50001, , </v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+        <f t="shared" si="9"/>
+        <v>1, 1, 1, 1, 0.7, 0.1</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.05, 100, 2, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="10"/>
+        <v>0.05, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>0.65, 100, 2, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="11"/>
+        <v>0.65, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8" s="4" t="str">
         <f>IF(I8="Gacha",
 IF(ISBLANK(J8),"비어있음",
 IF(ISERROR(VLOOKUP(J8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4446,7 +4420,7 @@
       <c r="O8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="Q8" s="4" t="str">
         <f>IF(O8="Gacha",
 IF(ISBLANK(P8),"비어있음",
 IF(ISERROR(VLOOKUP(P8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4465,7 +4439,7 @@
       <c r="U8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W8" t="str">
+      <c r="W8" s="4" t="str">
         <f>IF(U8="Gacha",
 IF(ISBLANK(V8),"비어있음",
 IF(ISERROR(VLOOKUP(V8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4487,7 +4461,7 @@
       <c r="AB8">
         <v>50001</v>
       </c>
-      <c r="AC8" t="str">
+      <c r="AC8" s="4" t="str">
         <f>IF(AA8="Gacha",
 IF(ISBLANK(AB8),"비어있음",
 IF(ISERROR(VLOOKUP(AB8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4506,7 +4480,7 @@
       <c r="AG8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AI8" t="str">
+      <c r="AI8" s="4" t="str">
         <f>IF(AG8="Gacha",
 IF(ISBLANK(AH8),"비어있음",
 IF(ISERROR(VLOOKUP(AH8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4525,7 +4499,7 @@
       <c r="AM8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AO8" t="str">
+      <c r="AO8" s="4" t="str">
         <f>IF(AM8="Gacha",
 IF(ISBLANK(AN8),"비어있음",
 IF(ISERROR(VLOOKUP(AN8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4541,52 +4515,24 @@
       <c r="AR8">
         <v>1</v>
       </c>
-      <c r="AS8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT8">
-        <v>50001</v>
-      </c>
-      <c r="AU8" t="str">
+      <c r="AS8" s="3"/>
+      <c r="AU8" s="4" t="str">
         <f>IF(AS8="Gacha",
 IF(ISBLANK(AT8),"비어있음",
 IF(ISERROR(VLOOKUP(AT8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AV8">
-        <v>0.25</v>
-      </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ8">
-        <v>50001</v>
-      </c>
-      <c r="BA8" t="str">
+      <c r="AY8" s="3"/>
+      <c r="BA8" s="4" t="str">
         <f>IF(AY8="Gacha",
 IF(ISBLANK(AZ8),"비어있음",
 IF(ISERROR(VLOOKUP(AZ8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="BB8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="BC8">
-        <v>1</v>
-      </c>
-      <c r="BD8">
-        <v>1</v>
-      </c>
       <c r="BE8" s="3"/>
-      <c r="BG8" t="str">
+      <c r="BG8" s="4" t="str">
         <f>IF(BE8="Gacha",
 IF(ISBLANK(BF8),"비어있음",
 IF(ISERROR(VLOOKUP(BF8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4603,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="BP8">
-        <f>LEN(BN8)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -4612,7 +4558,7 @@
         <v>5002</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9:C11" si="16">IF(ISBLANK(I9),"",I9)
+        <f t="shared" ref="C9:C11" si="17">IF(ISBLANK(I9),"",I9)
 &amp;IF(ISBLANK(O9),"",", "&amp;O9)
 &amp;IF(ISBLANK(U9),"",", "&amp;U9)
 &amp;IF(ISBLANK(AA9),"",", "&amp;AA9)
@@ -4628,7 +4574,7 @@
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" ref="E9:E11" si="17">IF(ISBLANK(J9),"",J9)
+        <f t="shared" ref="E9:E11" si="18">IF(ISBLANK(J9),"",J9)
 &amp;IF(ISBLANK(O9),"",", "&amp;P9)
 &amp;IF(ISBLANK(U9),"",", "&amp;V9)
 &amp;IF(ISBLANK(AA9),"",", "&amp;AB9)
@@ -4640,7 +4586,7 @@
         <v>, , , 50001, , , 50001, 50001</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" ref="F9:F11" si="18">IF(ISBLANK(L9),"",L9)
+        <f t="shared" ref="F9:F11" si="19">IF(ISBLANK(L9),"",L9)
 &amp;IF(ISBLANK(R9),"",", "&amp;R9)
 &amp;IF(ISBLANK(X9),"",", "&amp;X9)
 &amp;IF(ISBLANK(AD9),"",", "&amp;AD9)
@@ -4652,7 +4598,7 @@
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" ref="G9:G11" si="19">IF(ISBLANK(M9),"",M9)
+        <f t="shared" ref="G9:G11" si="20">IF(ISBLANK(M9),"",M9)
 &amp;IF(ISBLANK(S9),"",", "&amp;S9)
 &amp;IF(ISBLANK(Y9),"",", "&amp;Y9)
 &amp;IF(ISBLANK(AE9),"",", "&amp;AE9)
@@ -4664,7 +4610,7 @@
         <v>0.085, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" ref="H9:H11" si="20">IF(ISBLANK(N9),"",N9)
+        <f t="shared" ref="H9:H11" si="21">IF(ISBLANK(N9),"",N9)
 &amp;IF(ISBLANK(T9),"",", "&amp;T9)
 &amp;IF(ISBLANK(Z9),"",", "&amp;Z9)
 &amp;IF(ISBLANK(AF9),"",", "&amp;AF9)
@@ -4678,7 +4624,7 @@
       <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9" s="4" t="str">
         <f>IF(I9="Gacha",
 IF(ISBLANK(J9),"비어있음",
 IF(ISERROR(VLOOKUP(J9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4697,7 +4643,7 @@
       <c r="O9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="Q9" s="4" t="str">
         <f>IF(O9="Gacha",
 IF(ISBLANK(P9),"비어있음",
 IF(ISERROR(VLOOKUP(P9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4716,7 +4662,7 @@
       <c r="U9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W9" t="str">
+      <c r="W9" s="4" t="str">
         <f>IF(U9="Gacha",
 IF(ISBLANK(V9),"비어있음",
 IF(ISERROR(VLOOKUP(V9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4738,7 +4684,7 @@
       <c r="AB9">
         <v>50001</v>
       </c>
-      <c r="AC9" t="str">
+      <c r="AC9" s="4" t="str">
         <f>IF(AA9="Gacha",
 IF(ISBLANK(AB9),"비어있음",
 IF(ISERROR(VLOOKUP(AB9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4757,7 +4703,7 @@
       <c r="AG9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AI9" t="str">
+      <c r="AI9" s="4" t="str">
         <f>IF(AG9="Gacha",
 IF(ISBLANK(AH9),"비어있음",
 IF(ISERROR(VLOOKUP(AH9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4776,7 +4722,7 @@
       <c r="AM9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AO9" t="str">
+      <c r="AO9" s="4" t="str">
         <f>IF(AM9="Gacha",
 IF(ISBLANK(AN9),"비어있음",
 IF(ISERROR(VLOOKUP(AN9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4798,7 +4744,7 @@
       <c r="AT9">
         <v>50001</v>
       </c>
-      <c r="AU9" t="str">
+      <c r="AU9" s="4" t="str">
         <f>IF(AS9="Gacha",
 IF(ISBLANK(AT9),"비어있음",
 IF(ISERROR(VLOOKUP(AT9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4820,7 +4766,7 @@
       <c r="AZ9">
         <v>50001</v>
       </c>
-      <c r="BA9" t="str">
+      <c r="BA9" s="4" t="str">
         <f>IF(AY9="Gacha",
 IF(ISBLANK(AZ9),"비어있음",
 IF(ISERROR(VLOOKUP(AZ9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4837,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="BE9" s="3"/>
-      <c r="BG9" t="str">
+      <c r="BG9" s="4" t="str">
         <f>IF(BE9="Gacha",
 IF(ISBLANK(BF9),"비어있음",
 IF(ISERROR(VLOOKUP(BF9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4850,7 +4796,7 @@
         <v>5003</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D10" s="1" t="str">
@@ -4858,25 +4804,25 @@
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>, , , 50001, , , 50001, 50001</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.12, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.72, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10" s="4" t="str">
         <f>IF(I10="Gacha",
 IF(ISBLANK(J10),"비어있음",
 IF(ISERROR(VLOOKUP(J10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4895,7 +4841,7 @@
       <c r="O10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="Q10" s="4" t="str">
         <f>IF(O10="Gacha",
 IF(ISBLANK(P10),"비어있음",
 IF(ISERROR(VLOOKUP(P10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4914,7 +4860,7 @@
       <c r="U10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W10" t="str">
+      <c r="W10" s="4" t="str">
         <f>IF(U10="Gacha",
 IF(ISBLANK(V10),"비어있음",
 IF(ISERROR(VLOOKUP(V10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4936,7 +4882,7 @@
       <c r="AB10">
         <v>50001</v>
       </c>
-      <c r="AC10" t="str">
+      <c r="AC10" s="4" t="str">
         <f>IF(AA10="Gacha",
 IF(ISBLANK(AB10),"비어있음",
 IF(ISERROR(VLOOKUP(AB10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4955,7 +4901,7 @@
       <c r="AG10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AI10" t="str">
+      <c r="AI10" s="4" t="str">
         <f>IF(AG10="Gacha",
 IF(ISBLANK(AH10),"비어있음",
 IF(ISERROR(VLOOKUP(AH10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4974,7 +4920,7 @@
       <c r="AM10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AO10" t="str">
+      <c r="AO10" s="4" t="str">
         <f>IF(AM10="Gacha",
 IF(ISBLANK(AN10),"비어있음",
 IF(ISERROR(VLOOKUP(AN10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -4996,7 +4942,7 @@
       <c r="AT10">
         <v>50001</v>
       </c>
-      <c r="AU10" t="str">
+      <c r="AU10" s="4" t="str">
         <f>IF(AS10="Gacha",
 IF(ISBLANK(AT10),"비어있음",
 IF(ISERROR(VLOOKUP(AT10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5018,7 +4964,7 @@
       <c r="AZ10">
         <v>50001</v>
       </c>
-      <c r="BA10" t="str">
+      <c r="BA10" s="4" t="str">
         <f>IF(AY10="Gacha",
 IF(ISBLANK(AZ10),"비어있음",
 IF(ISERROR(VLOOKUP(AZ10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5035,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="BE10" s="3"/>
-      <c r="BG10" t="str">
+      <c r="BG10" s="4" t="str">
         <f>IF(BE10="Gacha",
 IF(ISBLANK(BF10),"비어있음",
 IF(ISERROR(VLOOKUP(BF10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5048,7 +4994,7 @@
         <v>5004</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D11" s="1" t="str">
@@ -5056,25 +5002,25 @@
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>, , , 50001, , , 50001, 50001</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.755, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11" s="4" t="str">
         <f>IF(I11="Gacha",
 IF(ISBLANK(J11),"비어있음",
 IF(ISERROR(VLOOKUP(J11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5093,7 +5039,7 @@
       <c r="O11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="Q11" s="4" t="str">
         <f>IF(O11="Gacha",
 IF(ISBLANK(P11),"비어있음",
 IF(ISERROR(VLOOKUP(P11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5112,7 +5058,7 @@
       <c r="U11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W11" t="str">
+      <c r="W11" s="4" t="str">
         <f>IF(U11="Gacha",
 IF(ISBLANK(V11),"비어있음",
 IF(ISERROR(VLOOKUP(V11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5134,7 +5080,7 @@
       <c r="AB11">
         <v>50001</v>
       </c>
-      <c r="AC11" t="str">
+      <c r="AC11" s="4" t="str">
         <f>IF(AA11="Gacha",
 IF(ISBLANK(AB11),"비어있음",
 IF(ISERROR(VLOOKUP(AB11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5153,7 +5099,7 @@
       <c r="AG11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AI11" t="str">
+      <c r="AI11" s="4" t="str">
         <f>IF(AG11="Gacha",
 IF(ISBLANK(AH11),"비어있음",
 IF(ISERROR(VLOOKUP(AH11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5172,7 +5118,7 @@
       <c r="AM11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AO11" t="str">
+      <c r="AO11" s="4" t="str">
         <f>IF(AM11="Gacha",
 IF(ISBLANK(AN11),"비어있음",
 IF(ISERROR(VLOOKUP(AN11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5194,7 +5140,7 @@
       <c r="AT11">
         <v>50001</v>
       </c>
-      <c r="AU11" t="str">
+      <c r="AU11" s="4" t="str">
         <f>IF(AS11="Gacha",
 IF(ISBLANK(AT11),"비어있음",
 IF(ISERROR(VLOOKUP(AT11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5216,7 +5162,7 @@
       <c r="AZ11">
         <v>50001</v>
       </c>
-      <c r="BA11" t="str">
+      <c r="BA11" s="4" t="str">
         <f>IF(AY11="Gacha",
 IF(ISBLANK(AZ11),"비어있음",
 IF(ISERROR(VLOOKUP(AZ11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5233,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="BE11" s="3"/>
-      <c r="BG11" t="str">
+      <c r="BG11" s="4" t="str">
         <f>IF(BE11="Gacha",
 IF(ISBLANK(BF11),"비어있음",
 IF(ISERROR(VLOOKUP(BF11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5249,7 +5195,7 @@
         <v>68</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C12" si="21">IF(ISBLANK(I12),"",I12)
+        <f t="shared" ref="C12" si="22">IF(ISBLANK(I12),"",I12)
 &amp;IF(ISBLANK(O12),"",", "&amp;O12)
 &amp;IF(ISBLANK(U12),"",", "&amp;U12)
 &amp;IF(ISBLANK(AA12),"",", "&amp;AA12)
@@ -5258,14 +5204,14 @@
 &amp;IF(ISBLANK(AS12),"",", "&amp;AS12)
 &amp;IF(ISBLANK(AY12),"",", "&amp;AY12)
 &amp;IF(ISBLANK(BE12),"",", "&amp;BE12)</f>
-        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+        <v>Gold</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7, 5, 5, 5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" ref="E12" si="22">IF(ISBLANK(J12),"",J12)
+        <f t="shared" ref="E12" si="23">IF(ISBLANK(J12),"",J12)
 &amp;IF(ISBLANK(O12),"",", "&amp;P12)
 &amp;IF(ISBLANK(U12),"",", "&amp;V12)
 &amp;IF(ISBLANK(AA12),"",", "&amp;AB12)
@@ -5274,10 +5220,10 @@
 &amp;IF(ISBLANK(AS12),"",", "&amp;AT12)
 &amp;IF(ISBLANK(AY12),"",", "&amp;AZ12)
 &amp;IF(ISBLANK(BE12),"",", "&amp;BF12)</f>
-        <v>, , , 50001, 50001, 50001</v>
+        <v/>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" ref="F12" si="23">IF(ISBLANK(L12),"",L12)
+        <f t="shared" ref="F12" si="24">IF(ISBLANK(L12),"",L12)
 &amp;IF(ISBLANK(R12),"",", "&amp;R12)
 &amp;IF(ISBLANK(X12),"",", "&amp;X12)
 &amp;IF(ISBLANK(AD12),"",", "&amp;AD12)
@@ -5286,10 +5232,10 @@
 &amp;IF(ISBLANK(AV12),"",", "&amp;AV12)
 &amp;IF(ISBLANK(BB12),"",", "&amp;BB12)
 &amp;IF(ISBLANK(BH12),"",", "&amp;BH12)</f>
-        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" ref="G12" si="24">IF(ISBLANK(M12),"",M12)
+        <f t="shared" ref="G12" si="25">IF(ISBLANK(M12),"",M12)
 &amp;IF(ISBLANK(S12),"",", "&amp;S12)
 &amp;IF(ISBLANK(Y12),"",", "&amp;Y12)
 &amp;IF(ISBLANK(AE12),"",", "&amp;AE12)
@@ -5298,10 +5244,10 @@
 &amp;IF(ISBLANK(AW12),"",", "&amp;AW12)
 &amp;IF(ISBLANK(BC12),"",", "&amp;BC12)
 &amp;IF(ISBLANK(BI12),"",", "&amp;BI12)</f>
-        <v>0.015, 1, 1, 1, 1, 1</v>
+        <v>0.015</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" ref="H12" si="25">IF(ISBLANK(N12),"",N12)
+        <f t="shared" ref="H12" si="26">IF(ISBLANK(N12),"",N12)
 &amp;IF(ISBLANK(T12),"",", "&amp;T12)
 &amp;IF(ISBLANK(Z12),"",", "&amp;Z12)
 &amp;IF(ISBLANK(AF12),"",", "&amp;AF12)
@@ -5310,12 +5256,12 @@
 &amp;IF(ISBLANK(AX12),"",", "&amp;AX12)
 &amp;IF(ISBLANK(BD12),"",", "&amp;BD12)
 &amp;IF(ISBLANK(BJ12),"",", "&amp;BJ12)</f>
-        <v>0.145, 1, 1, 1, 1, 1</v>
+        <v>0.145</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12" s="4" t="str">
         <f>IF(I12="Gacha",
 IF(ISBLANK(J12),"비어있음",
 IF(ISERROR(VLOOKUP(J12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5331,119 +5277,41 @@
       <c r="N12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>IF(O12="Gacha",
-IF(ISBLANK(P12),"비어있음",
-IF(ISERROR(VLOOKUP(P12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="R12">
-        <v>0.7</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W12" t="str">
-        <f>IF(U12="Gacha",
-IF(ISBLANK(V12),"비어있음",
-IF(ISERROR(VLOOKUP(V12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <v>0.1</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12">
-        <v>50001</v>
-      </c>
-      <c r="AC12" t="str">
+      <c r="O12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AC12" s="4" t="str">
         <f>IF(AA12="Gacha",
 IF(ISBLANK(AB12),"비어있음",
 IF(ISERROR(VLOOKUP(AB12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AD12">
-        <v>0.5</v>
-      </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH12">
-        <v>50001</v>
-      </c>
-      <c r="AI12" t="str">
+      <c r="AG12" s="3"/>
+      <c r="AI12" s="4" t="str">
         <f>IF(AG12="Gacha",
 IF(ISBLANK(AH12),"비어있음",
 IF(ISERROR(VLOOKUP(AH12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AJ12">
-        <v>0.1</v>
-      </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
-      <c r="AL12">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN12">
-        <v>50001</v>
-      </c>
-      <c r="AO12" t="str">
+      <c r="AM12" s="3"/>
+      <c r="AO12" s="4" t="str">
         <f>IF(AM12="Gacha",
 IF(ISBLANK(AN12),"비어있음",
 IF(ISERROR(VLOOKUP(AN12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AP12">
-        <v>0.05</v>
-      </c>
-      <c r="AQ12">
-        <v>1</v>
-      </c>
-      <c r="AR12">
-        <v>1</v>
-      </c>
       <c r="AS12" s="3"/>
-      <c r="AU12" t="str">
+      <c r="AU12" s="4" t="str">
         <f>IF(AS12="Gacha",
 IF(ISBLANK(AT12),"비어있음",
 IF(ISERROR(VLOOKUP(AT12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="BA12" t="str">
+      <c r="BA12" s="4" t="str">
         <f>IF(AY12="Gacha",
 IF(ISBLANK(AZ12),"비어있음",
 IF(ISERROR(VLOOKUP(AZ12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5451,7 +5319,7 @@
         <v/>
       </c>
       <c r="BE12" s="3"/>
-      <c r="BG12" t="str">
+      <c r="BG12" s="4" t="str">
         <f>IF(BE12="Gacha",
 IF(ISBLANK(BF12),"비어있음",
 IF(ISERROR(VLOOKUP(BF12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5464,7 +5332,7 @@
         <v>6001</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13:C16" si="26">IF(ISBLANK(I13),"",I13)
+        <f t="shared" ref="C13:C16" si="27">IF(ISBLANK(I13),"",I13)
 &amp;IF(ISBLANK(O13),"",", "&amp;O13)
 &amp;IF(ISBLANK(U13),"",", "&amp;U13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AA13)
@@ -5473,14 +5341,14 @@
 &amp;IF(ISBLANK(AS13),"",", "&amp;AS13)
 &amp;IF(ISBLANK(AY13),"",", "&amp;AY13)
 &amp;IF(ISBLANK(BE13),"",", "&amp;BE13)</f>
-        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+        <v>Gold, Seal, Seal</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7, 5, 5, 5</v>
+        <v>2, 7, 7</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13:E16" si="27">IF(ISBLANK(J13),"",J13)
+        <f t="shared" ref="E13:E16" si="28">IF(ISBLANK(J13),"",J13)
 &amp;IF(ISBLANK(O13),"",", "&amp;P13)
 &amp;IF(ISBLANK(U13),"",", "&amp;V13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AB13)
@@ -5489,10 +5357,10 @@
 &amp;IF(ISBLANK(AS13),"",", "&amp;AT13)
 &amp;IF(ISBLANK(AY13),"",", "&amp;AZ13)
 &amp;IF(ISBLANK(BE13),"",", "&amp;BF13)</f>
-        <v>, , , 50001, 50001, 50001</v>
+        <v xml:space="preserve">, , </v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13:F16" si="28">IF(ISBLANK(L13),"",L13)
+        <f t="shared" ref="F13:F16" si="29">IF(ISBLANK(L13),"",L13)
 &amp;IF(ISBLANK(R13),"",", "&amp;R13)
 &amp;IF(ISBLANK(X13),"",", "&amp;X13)
 &amp;IF(ISBLANK(AD13),"",", "&amp;AD13)
@@ -5501,10 +5369,10 @@
 &amp;IF(ISBLANK(AV13),"",", "&amp;AV13)
 &amp;IF(ISBLANK(BB13),"",", "&amp;BB13)
 &amp;IF(ISBLANK(BH13),"",", "&amp;BH13)</f>
-        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+        <v>1, 0.7, 0.1</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13:G16" si="29">IF(ISBLANK(M13),"",M13)
+        <f t="shared" ref="G13:G16" si="30">IF(ISBLANK(M13),"",M13)
 &amp;IF(ISBLANK(S13),"",", "&amp;S13)
 &amp;IF(ISBLANK(Y13),"",", "&amp;Y13)
 &amp;IF(ISBLANK(AE13),"",", "&amp;AE13)
@@ -5513,10 +5381,10 @@
 &amp;IF(ISBLANK(AW13),"",", "&amp;AW13)
 &amp;IF(ISBLANK(BC13),"",", "&amp;BC13)
 &amp;IF(ISBLANK(BI13),"",", "&amp;BI13)</f>
-        <v>0.05, 1, 1, 1, 1, 1</v>
+        <v>0.05, 1, 1</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13:H16" si="30">IF(ISBLANK(N13),"",N13)
+        <f t="shared" ref="H13:H16" si="31">IF(ISBLANK(N13),"",N13)
 &amp;IF(ISBLANK(T13),"",", "&amp;T13)
 &amp;IF(ISBLANK(Z13),"",", "&amp;Z13)
 &amp;IF(ISBLANK(AF13),"",", "&amp;AF13)
@@ -5525,12 +5393,12 @@
 &amp;IF(ISBLANK(AX13),"",", "&amp;AX13)
 &amp;IF(ISBLANK(BD13),"",", "&amp;BD13)
 &amp;IF(ISBLANK(BJ13),"",", "&amp;BJ13)</f>
-        <v>0.65, 1, 1, 1, 1, 1</v>
+        <v>0.65, 1, 1</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13" s="4" t="str">
         <f>IF(I13="Gacha",
 IF(ISBLANK(J13),"비어있음",
 IF(ISERROR(VLOOKUP(J13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5549,7 +5417,7 @@
       <c r="O13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="Q13" s="4" t="str">
         <f>IF(O13="Gacha",
 IF(ISBLANK(P13),"비어있음",
 IF(ISERROR(VLOOKUP(P13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5568,7 +5436,7 @@
       <c r="U13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W13" t="str">
+      <c r="W13" s="4" t="str">
         <f>IF(U13="Gacha",
 IF(ISBLANK(V13),"비어있음",
 IF(ISERROR(VLOOKUP(V13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5584,81 +5452,39 @@
       <c r="Z13">
         <v>1</v>
       </c>
-      <c r="AA13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB13">
-        <v>50001</v>
-      </c>
-      <c r="AC13" t="str">
+      <c r="AA13" s="3"/>
+      <c r="AC13" s="4" t="str">
         <f>IF(AA13="Gacha",
 IF(ISBLANK(AB13),"비어있음",
 IF(ISERROR(VLOOKUP(AB13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AD13">
-        <v>0.5</v>
-      </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH13">
-        <v>50001</v>
-      </c>
-      <c r="AI13" t="str">
+      <c r="AG13" s="3"/>
+      <c r="AI13" s="4" t="str">
         <f>IF(AG13="Gacha",
 IF(ISBLANK(AH13),"비어있음",
 IF(ISERROR(VLOOKUP(AH13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AJ13">
-        <v>0.1</v>
-      </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
-      <c r="AL13">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN13">
-        <v>50001</v>
-      </c>
-      <c r="AO13" t="str">
+      <c r="AM13" s="3"/>
+      <c r="AO13" s="4" t="str">
         <f>IF(AM13="Gacha",
 IF(ISBLANK(AN13),"비어있음",
 IF(ISERROR(VLOOKUP(AN13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="AP13">
-        <v>0.05</v>
-      </c>
-      <c r="AQ13">
-        <v>1</v>
-      </c>
-      <c r="AR13">
-        <v>1</v>
-      </c>
       <c r="AS13" s="3"/>
-      <c r="AU13" t="str">
+      <c r="AU13" s="4" t="str">
         <f>IF(AS13="Gacha",
 IF(ISBLANK(AT13),"비어있음",
 IF(ISERROR(VLOOKUP(AT13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="BA13" t="str">
+      <c r="BA13" s="4" t="str">
         <f>IF(AY13="Gacha",
 IF(ISBLANK(AZ13),"비어있음",
 IF(ISERROR(VLOOKUP(AZ13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5666,7 +5492,7 @@
         <v/>
       </c>
       <c r="BE13" s="3"/>
-      <c r="BG13" t="str">
+      <c r="BG13" s="4" t="str">
         <f>IF(BE13="Gacha",
 IF(ISBLANK(BF13),"비어있음",
 IF(ISERROR(VLOOKUP(BF13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5679,7 +5505,7 @@
         <v>6002</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D14" s="1" t="str">
@@ -5687,25 +5513,25 @@
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.085, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.685, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14" s="4" t="str">
         <f>IF(I14="Gacha",
 IF(ISBLANK(J14),"비어있음",
 IF(ISERROR(VLOOKUP(J14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5724,7 +5550,7 @@
       <c r="O14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="Q14" s="4" t="str">
         <f>IF(O14="Gacha",
 IF(ISBLANK(P14),"비어있음",
 IF(ISERROR(VLOOKUP(P14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5743,7 +5569,7 @@
       <c r="U14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W14" t="str">
+      <c r="W14" s="4" t="str">
         <f>IF(U14="Gacha",
 IF(ISBLANK(V14),"비어있음",
 IF(ISERROR(VLOOKUP(V14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5765,7 +5591,7 @@
       <c r="AB14">
         <v>50001</v>
       </c>
-      <c r="AC14" t="str">
+      <c r="AC14" s="4" t="str">
         <f>IF(AA14="Gacha",
 IF(ISBLANK(AB14),"비어있음",
 IF(ISERROR(VLOOKUP(AB14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5787,7 +5613,7 @@
       <c r="AH14">
         <v>50001</v>
       </c>
-      <c r="AI14" t="str">
+      <c r="AI14" s="4" t="str">
         <f>IF(AG14="Gacha",
 IF(ISBLANK(AH14),"비어있음",
 IF(ISERROR(VLOOKUP(AH14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5809,7 +5635,7 @@
       <c r="AN14">
         <v>50001</v>
       </c>
-      <c r="AO14" t="str">
+      <c r="AO14" s="4" t="str">
         <f>IF(AM14="Gacha",
 IF(ISBLANK(AN14),"비어있음",
 IF(ISERROR(VLOOKUP(AN14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5826,14 +5652,14 @@
         <v>1</v>
       </c>
       <c r="AS14" s="3"/>
-      <c r="AU14" t="str">
+      <c r="AU14" s="4" t="str">
         <f>IF(AS14="Gacha",
 IF(ISBLANK(AT14),"비어있음",
 IF(ISERROR(VLOOKUP(AT14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="BA14" t="str">
+      <c r="BA14" s="4" t="str">
         <f>IF(AY14="Gacha",
 IF(ISBLANK(AZ14),"비어있음",
 IF(ISERROR(VLOOKUP(AZ14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5841,7 +5667,7 @@
         <v/>
       </c>
       <c r="BE14" s="3"/>
-      <c r="BG14" t="str">
+      <c r="BG14" s="4" t="str">
         <f>IF(BE14="Gacha",
 IF(ISBLANK(BF14),"비어있음",
 IF(ISERROR(VLOOKUP(BF14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5854,7 +5680,7 @@
         <v>6003</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D15" s="1" t="str">
@@ -5862,25 +5688,25 @@
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.12, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.72, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15" s="4" t="str">
         <f>IF(I15="Gacha",
 IF(ISBLANK(J15),"비어있음",
 IF(ISERROR(VLOOKUP(J15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5899,7 +5725,7 @@
       <c r="O15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="Q15" s="4" t="str">
         <f>IF(O15="Gacha",
 IF(ISBLANK(P15),"비어있음",
 IF(ISERROR(VLOOKUP(P15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5918,7 +5744,7 @@
       <c r="U15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W15" t="str">
+      <c r="W15" s="4" t="str">
         <f>IF(U15="Gacha",
 IF(ISBLANK(V15),"비어있음",
 IF(ISERROR(VLOOKUP(V15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5940,7 +5766,7 @@
       <c r="AB15">
         <v>50001</v>
       </c>
-      <c r="AC15" t="str">
+      <c r="AC15" s="4" t="str">
         <f>IF(AA15="Gacha",
 IF(ISBLANK(AB15),"비어있음",
 IF(ISERROR(VLOOKUP(AB15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5962,7 +5788,7 @@
       <c r="AH15">
         <v>50001</v>
       </c>
-      <c r="AI15" t="str">
+      <c r="AI15" s="4" t="str">
         <f>IF(AG15="Gacha",
 IF(ISBLANK(AH15),"비어있음",
 IF(ISERROR(VLOOKUP(AH15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -5984,7 +5810,7 @@
       <c r="AN15">
         <v>50001</v>
       </c>
-      <c r="AO15" t="str">
+      <c r="AO15" s="4" t="str">
         <f>IF(AM15="Gacha",
 IF(ISBLANK(AN15),"비어있음",
 IF(ISERROR(VLOOKUP(AN15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6001,14 +5827,14 @@
         <v>1</v>
       </c>
       <c r="AS15" s="3"/>
-      <c r="AU15" t="str">
+      <c r="AU15" s="4" t="str">
         <f>IF(AS15="Gacha",
 IF(ISBLANK(AT15),"비어있음",
 IF(ISERROR(VLOOKUP(AT15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="BA15" t="str">
+      <c r="BA15" s="4" t="str">
         <f>IF(AY15="Gacha",
 IF(ISBLANK(AZ15),"비어있음",
 IF(ISERROR(VLOOKUP(AZ15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6016,7 +5842,7 @@
         <v/>
       </c>
       <c r="BE15" s="3"/>
-      <c r="BG15" t="str">
+      <c r="BG15" s="4" t="str">
         <f>IF(BE15="Gacha",
 IF(ISBLANK(BF15),"비어있음",
 IF(ISERROR(VLOOKUP(BF15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6029,7 +5855,7 @@
         <v>6004</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D16" s="1" t="str">
@@ -6037,25 +5863,25 @@
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.155, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.755, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16" s="4" t="str">
         <f>IF(I16="Gacha",
 IF(ISBLANK(J16),"비어있음",
 IF(ISERROR(VLOOKUP(J16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6074,7 +5900,7 @@
       <c r="O16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="Q16" s="4" t="str">
         <f>IF(O16="Gacha",
 IF(ISBLANK(P16),"비어있음",
 IF(ISERROR(VLOOKUP(P16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6093,7 +5919,7 @@
       <c r="U16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W16" t="str">
+      <c r="W16" s="4" t="str">
         <f>IF(U16="Gacha",
 IF(ISBLANK(V16),"비어있음",
 IF(ISERROR(VLOOKUP(V16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6115,7 +5941,7 @@
       <c r="AB16">
         <v>50001</v>
       </c>
-      <c r="AC16" t="str">
+      <c r="AC16" s="4" t="str">
         <f>IF(AA16="Gacha",
 IF(ISBLANK(AB16),"비어있음",
 IF(ISERROR(VLOOKUP(AB16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6137,7 +5963,7 @@
       <c r="AH16">
         <v>50001</v>
       </c>
-      <c r="AI16" t="str">
+      <c r="AI16" s="4" t="str">
         <f>IF(AG16="Gacha",
 IF(ISBLANK(AH16),"비어있음",
 IF(ISERROR(VLOOKUP(AH16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6159,7 +5985,7 @@
       <c r="AN16">
         <v>50001</v>
       </c>
-      <c r="AO16" t="str">
+      <c r="AO16" s="4" t="str">
         <f>IF(AM16="Gacha",
 IF(ISBLANK(AN16),"비어있음",
 IF(ISERROR(VLOOKUP(AN16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6176,14 +6002,14 @@
         <v>1</v>
       </c>
       <c r="AS16" s="3"/>
-      <c r="AU16" t="str">
+      <c r="AU16" s="4" t="str">
         <f>IF(AS16="Gacha",
 IF(ISBLANK(AT16),"비어있음",
 IF(ISERROR(VLOOKUP(AT16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
       </c>
-      <c r="BA16" t="str">
+      <c r="BA16" s="4" t="str">
         <f>IF(AY16="Gacha",
 IF(ISBLANK(AZ16),"비어있음",
 IF(ISERROR(VLOOKUP(AZ16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6191,7 +6017,7 @@
         <v/>
       </c>
       <c r="BE16" s="3"/>
-      <c r="BG16" t="str">
+      <c r="BG16" s="4" t="str">
         <f>IF(BE16="Gacha",
 IF(ISBLANK(BF16),"비어있음",
 IF(ISERROR(VLOOKUP(BF16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
@@ -6206,7 +6032,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA16 AG2:AG16 AY2:AY11 U2:U16 O2:O16 BE2:BE16 I2:I16 AS2:AS16 AM2:AM16" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA16 AY2:AY11 U2:U16 O2:O16 BE2:BE16 I2:I16 AS2:AS16 AM2:AM16 AG2:AG16" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6310,4 +6136,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F0AB79-C825-4F18-BA6C-94FFE1CA0F6E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509212E1-B735-4347-94CC-6267A4E6E0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2D2A1-7AD8-471F-A70C-052D7DBC8CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2284,7 +2284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2540,6 +2540,10 @@
   </si>
   <si>
     <t>7챕터 보스 전투들에서는 인장이 보스당 1개 드랍된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체험용스위벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2987,13 +2991,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS16"/>
+  <dimension ref="A1:BS17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3275,10 +3279,10 @@
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1000</v>
+        <v>9752476</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2" si="0">IF(ISBLANK(I2),"",I2)
@@ -3290,10 +3294,10 @@
 &amp;IF(ISBLANK(AS2),"",", "&amp;AS2)
 &amp;IF(ISBLANK(AY2),"",", "&amp;AY2)
 &amp;IF(ISBLANK(BE2),"",", "&amp;BE2)</f>
-        <v>Gold, Exp, Heart</v>
+        <v>Ultimate</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D16" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D2:D17" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3323,7 +3327,7 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2, 1, 4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="str">
         <f t="shared" ref="E2" si="2">IF(ISBLANK(J2),"",J2)
@@ -3335,7 +3339,7 @@
 &amp;IF(ISBLANK(AS2),"",", "&amp;AT2)
 &amp;IF(ISBLANK(AY2),"",", "&amp;AZ2)
 &amp;IF(ISBLANK(BE2),"",", "&amp;BF2)</f>
-        <v xml:space="preserve">, , </v>
+        <v/>
       </c>
       <c r="F2" s="1" t="str">
         <f t="shared" ref="F2" si="3">IF(ISBLANK(L2),"",L2)
@@ -3347,7 +3351,7 @@
 &amp;IF(ISBLANK(AV2),"",", "&amp;AV2)
 &amp;IF(ISBLANK(BB2),"",", "&amp;BB2)
 &amp;IF(ISBLANK(BH2),"",", "&amp;BH2)</f>
-        <v>1, 1, 0.075</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" ref="G2" si="4">IF(ISBLANK(M2),"",M2)
@@ -3359,7 +3363,7 @@
 &amp;IF(ISBLANK(AW2),"",", "&amp;AW2)
 &amp;IF(ISBLANK(BC2),"",", "&amp;BC2)
 &amp;IF(ISBLANK(BI2),"",", "&amp;BI2)</f>
-        <v>0.015, 5, 1</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="str">
         <f t="shared" ref="H2" si="5">IF(ISBLANK(N2),"",N2)
@@ -3371,10 +3375,10 @@
 &amp;IF(ISBLANK(AX2),"",", "&amp;AX2)
 &amp;IF(ISBLANK(BD2),"",", "&amp;BD2)
 &amp;IF(ISBLANK(BJ2),"",", "&amp;BJ2)</f>
-        <v>0.145, 5, 1</v>
+        <v>42</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="str">
         <f>IF(I2="Gacha",
@@ -3387,14 +3391,12 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.4999999999999999E-2</v>
+        <v>42</v>
       </c>
       <c r="N2">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="O2" s="3"/>
       <c r="Q2" s="4" t="str">
         <f>IF(O2="Gacha",
 IF(ISBLANK(P2),"비어있음",
@@ -3402,33 +3404,13 @@
 "")</f>
         <v/>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>5</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="U2" s="3"/>
       <c r="W2" s="4" t="str">
         <f>IF(U2="Gacha",
 IF(ISBLANK(V2),"비어있음",
 IF(ISERROR(VLOOKUP(V2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
-      </c>
-      <c r="X2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AC2" s="4" t="str">
@@ -3498,10 +3480,13 @@
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1001</v>
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="7">IF(ISBLANK(I3),"",I3)
+        <f t="shared" ref="C3" si="7">IF(ISBLANK(I3),"",I3)
 &amp;IF(ISBLANK(O3),"",", "&amp;O3)
 &amp;IF(ISBLANK(U3),"",", "&amp;U3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AA3)
@@ -3513,11 +3498,40 @@
         <v>Gold, Exp, Heart</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="D3" ca="1" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>2, 1, 4</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E8" si="8">IF(ISBLANK(J3),"",J3)
+        <f t="shared" ref="E3" si="9">IF(ISBLANK(J3),"",J3)
 &amp;IF(ISBLANK(O3),"",", "&amp;P3)
 &amp;IF(ISBLANK(U3),"",", "&amp;V3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AB3)
@@ -3529,7 +3543,7 @@
         <v xml:space="preserve">, , </v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F8" si="9">IF(ISBLANK(L3),"",L3)
+        <f t="shared" ref="F3" si="10">IF(ISBLANK(L3),"",L3)
 &amp;IF(ISBLANK(R3),"",", "&amp;R3)
 &amp;IF(ISBLANK(X3),"",", "&amp;X3)
 &amp;IF(ISBLANK(AD3),"",", "&amp;AD3)
@@ -3541,7 +3555,7 @@
         <v>1, 1, 0.075</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G8" si="10">IF(ISBLANK(M3),"",M3)
+        <f t="shared" ref="G3" si="11">IF(ISBLANK(M3),"",M3)
 &amp;IF(ISBLANK(S3),"",", "&amp;S3)
 &amp;IF(ISBLANK(Y3),"",", "&amp;Y3)
 &amp;IF(ISBLANK(AE3),"",", "&amp;AE3)
@@ -3550,10 +3564,10 @@
 &amp;IF(ISBLANK(AW3),"",", "&amp;AW3)
 &amp;IF(ISBLANK(BC3),"",", "&amp;BC3)
 &amp;IF(ISBLANK(BI3),"",", "&amp;BI3)</f>
-        <v>0.05, 5, 1</v>
+        <v>0.015, 5, 1</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H8" si="11">IF(ISBLANK(N3),"",N3)
+        <f t="shared" ref="H3" si="12">IF(ISBLANK(N3),"",N3)
 &amp;IF(ISBLANK(T3),"",", "&amp;T3)
 &amp;IF(ISBLANK(Z3),"",", "&amp;Z3)
 &amp;IF(ISBLANK(AF3),"",", "&amp;AF3)
@@ -3562,7 +3576,7 @@
 &amp;IF(ISBLANK(AX3),"",", "&amp;AX3)
 &amp;IF(ISBLANK(BD3),"",", "&amp;BD3)
 &amp;IF(ISBLANK(BJ3),"",", "&amp;BJ3)</f>
-        <v>0.65, 5, 1</v>
+        <v>0.145, 5, 1</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
@@ -3578,10 +3592,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.9999999999999989E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N3">
-        <v>0.64999999999999991</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>9</v>
@@ -3685,10 +3699,10 @@
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C7" si="12">IF(ISBLANK(I4),"",I4)
+        <f t="shared" ref="C4:C9" si="13">IF(ISBLANK(I4),"",I4)
 &amp;IF(ISBLANK(O4),"",", "&amp;O4)
 &amp;IF(ISBLANK(U4),"",", "&amp;U4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AA4)
@@ -3697,14 +3711,14 @@
 &amp;IF(ISBLANK(AS4),"",", "&amp;AS4)
 &amp;IF(ISBLANK(AY4),"",", "&amp;AY4)
 &amp;IF(ISBLANK(BE4),"",", "&amp;BE4)</f>
-        <v>Gold, Exp, Heart, Gacha</v>
+        <v>Gold, Exp, Heart</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 5</v>
+        <v>2, 1, 4</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E7" si="13">IF(ISBLANK(J4),"",J4)
+        <f t="shared" ref="E4:E9" si="14">IF(ISBLANK(J4),"",J4)
 &amp;IF(ISBLANK(O4),"",", "&amp;P4)
 &amp;IF(ISBLANK(U4),"",", "&amp;V4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AB4)
@@ -3713,10 +3727,10 @@
 &amp;IF(ISBLANK(AS4),"",", "&amp;AT4)
 &amp;IF(ISBLANK(AY4),"",", "&amp;AZ4)
 &amp;IF(ISBLANK(BE4),"",", "&amp;BF4)</f>
-        <v>, , , 10001</v>
+        <v xml:space="preserve">, , </v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F7" si="14">IF(ISBLANK(L4),"",L4)
+        <f t="shared" ref="F4:F9" si="15">IF(ISBLANK(L4),"",L4)
 &amp;IF(ISBLANK(R4),"",", "&amp;R4)
 &amp;IF(ISBLANK(X4),"",", "&amp;X4)
 &amp;IF(ISBLANK(AD4),"",", "&amp;AD4)
@@ -3725,10 +3739,10 @@
 &amp;IF(ISBLANK(AV4),"",", "&amp;AV4)
 &amp;IF(ISBLANK(BB4),"",", "&amp;BB4)
 &amp;IF(ISBLANK(BH4),"",", "&amp;BH4)</f>
-        <v>1, 1, 0.075, 0.001</v>
+        <v>1, 1, 0.075</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G7" si="15">IF(ISBLANK(M4),"",M4)
+        <f t="shared" ref="G4:G9" si="16">IF(ISBLANK(M4),"",M4)
 &amp;IF(ISBLANK(S4),"",", "&amp;S4)
 &amp;IF(ISBLANK(Y4),"",", "&amp;Y4)
 &amp;IF(ISBLANK(AE4),"",", "&amp;AE4)
@@ -3737,10 +3751,10 @@
 &amp;IF(ISBLANK(AW4),"",", "&amp;AW4)
 &amp;IF(ISBLANK(BC4),"",", "&amp;BC4)
 &amp;IF(ISBLANK(BI4),"",", "&amp;BI4)</f>
-        <v>0.085, 5, 1, 1</v>
+        <v>0.05, 5, 1</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H7" si="16">IF(ISBLANK(N4),"",N4)
+        <f t="shared" ref="H4:H9" si="17">IF(ISBLANK(N4),"",N4)
 &amp;IF(ISBLANK(T4),"",", "&amp;T4)
 &amp;IF(ISBLANK(Z4),"",", "&amp;Z4)
 &amp;IF(ISBLANK(AF4),"",", "&amp;AF4)
@@ -3749,7 +3763,7 @@
 &amp;IF(ISBLANK(AX4),"",", "&amp;AX4)
 &amp;IF(ISBLANK(BD4),"",", "&amp;BD4)
 &amp;IF(ISBLANK(BJ4),"",", "&amp;BJ4)</f>
-        <v>0.685, 5, 1, 1</v>
+        <v>0.65, 5, 1</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>10</v>
@@ -3765,10 +3779,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.500000000000002E-2</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="N4">
-        <v>0.68500000000000005</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>9</v>
@@ -3808,27 +3822,13 @@
       <c r="Z4">
         <v>1</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB4">
-        <v>10001</v>
-      </c>
+      <c r="AA4" s="3"/>
       <c r="AC4" s="4" t="str">
         <f>IF(AA4="Gacha",
 IF(ISBLANK(AB4),"비어있음",
 IF(ISERROR(VLOOKUP(AB4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
-      </c>
-      <c r="AD4">
-        <v>1E-3</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AI4" s="4" t="str">
@@ -3886,10 +3886,18 @@
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="C5:C8" si="18">IF(ISBLANK(I5),"",I5)
+&amp;IF(ISBLANK(O5),"",", "&amp;O5)
+&amp;IF(ISBLANK(U5),"",", "&amp;U5)
+&amp;IF(ISBLANK(AA5),"",", "&amp;AA5)
+&amp;IF(ISBLANK(AG5),"",", "&amp;AG5)
+&amp;IF(ISBLANK(AM5),"",", "&amp;AM5)
+&amp;IF(ISBLANK(AS5),"",", "&amp;AS5)
+&amp;IF(ISBLANK(AY5),"",", "&amp;AY5)
+&amp;IF(ISBLANK(BE5),"",", "&amp;BE5)</f>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D5" s="1" t="str">
@@ -3897,20 +3905,52 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="E5:E8" si="19">IF(ISBLANK(J5),"",J5)
+&amp;IF(ISBLANK(O5),"",", "&amp;P5)
+&amp;IF(ISBLANK(U5),"",", "&amp;V5)
+&amp;IF(ISBLANK(AA5),"",", "&amp;AB5)
+&amp;IF(ISBLANK(AG5),"",", "&amp;AH5)
+&amp;IF(ISBLANK(AM5),"",", "&amp;AN5)
+&amp;IF(ISBLANK(AS5),"",", "&amp;AT5)
+&amp;IF(ISBLANK(AY5),"",", "&amp;AZ5)
+&amp;IF(ISBLANK(BE5),"",", "&amp;BF5)</f>
         <v>, , , 10001</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F5:F8" si="20">IF(ISBLANK(L5),"",L5)
+&amp;IF(ISBLANK(R5),"",", "&amp;R5)
+&amp;IF(ISBLANK(X5),"",", "&amp;X5)
+&amp;IF(ISBLANK(AD5),"",", "&amp;AD5)
+&amp;IF(ISBLANK(AJ5),"",", "&amp;AJ5)
+&amp;IF(ISBLANK(AP5),"",", "&amp;AP5)
+&amp;IF(ISBLANK(AV5),"",", "&amp;AV5)
+&amp;IF(ISBLANK(BB5),"",", "&amp;BB5)
+&amp;IF(ISBLANK(BH5),"",", "&amp;BH5)</f>
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>0.12, 5, 1, 1</v>
+        <f t="shared" ref="G5:G8" si="21">IF(ISBLANK(M5),"",M5)
+&amp;IF(ISBLANK(S5),"",", "&amp;S5)
+&amp;IF(ISBLANK(Y5),"",", "&amp;Y5)
+&amp;IF(ISBLANK(AE5),"",", "&amp;AE5)
+&amp;IF(ISBLANK(AK5),"",", "&amp;AK5)
+&amp;IF(ISBLANK(AQ5),"",", "&amp;AQ5)
+&amp;IF(ISBLANK(AW5),"",", "&amp;AW5)
+&amp;IF(ISBLANK(BC5),"",", "&amp;BC5)
+&amp;IF(ISBLANK(BI5),"",", "&amp;BI5)</f>
+        <v>0.085, 5, 1, 1</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>0.72, 5, 1, 1</v>
+        <f t="shared" ref="H5:H8" si="22">IF(ISBLANK(N5),"",N5)
+&amp;IF(ISBLANK(T5),"",", "&amp;T5)
+&amp;IF(ISBLANK(Z5),"",", "&amp;Z5)
+&amp;IF(ISBLANK(AF5),"",", "&amp;AF5)
+&amp;IF(ISBLANK(AL5),"",", "&amp;AL5)
+&amp;IF(ISBLANK(AR5),"",", "&amp;AR5)
+&amp;IF(ISBLANK(AX5),"",", "&amp;AX5)
+&amp;IF(ISBLANK(BD5),"",", "&amp;BD5)
+&amp;IF(ISBLANK(BJ5),"",", "&amp;BJ5)</f>
+        <v>0.685, 5, 1, 1</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>10</v>
@@ -3926,10 +3966,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.12</v>
+        <v>8.500000000000002E-2</v>
       </c>
       <c r="N5">
-        <v>0.72</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>9</v>
@@ -4047,10 +4087,10 @@
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D6" s="1" t="str">
@@ -4058,20 +4098,20 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>, , , 10001</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>0.155, 5, 1, 1</v>
+        <f t="shared" si="21"/>
+        <v>0.12, 5, 1, 1</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>0.755, 5, 1, 1</v>
+        <f t="shared" si="22"/>
+        <v>0.72, 5, 1, 1</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>10</v>
@@ -4087,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.15500000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="N6">
-        <v>0.755</v>
+        <v>0.72</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>9</v>
@@ -4208,34 +4248,31 @@
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
+        <v>1004</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="12"/>
-        <v>Gold, Exp, Heart, LevelPack</v>
+        <f t="shared" si="18"/>
+        <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3</v>
+        <v>2, 1, 4, 5</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>, , , 50001</v>
+        <f t="shared" si="19"/>
+        <v>, , , 10001</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>1, 1, 1, 1</v>
+        <f t="shared" si="20"/>
+        <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>0.015, 100, 2, 1</v>
+        <f t="shared" si="21"/>
+        <v>0.155, 5, 1, 1</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>0.145, 100, 2, 1</v>
+        <f t="shared" si="22"/>
+        <v>0.755, 5, 1, 1</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>10</v>
@@ -4251,10 +4288,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15500000000000003</v>
       </c>
       <c r="N7">
-        <v>0.14499999999999999</v>
+        <v>0.755</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>9</v>
@@ -4270,10 +4307,10 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>12</v>
@@ -4286,19 +4323,19 @@
         <v/>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="AB7">
-        <v>50001</v>
+        <v>10001</v>
       </c>
       <c r="AC7" s="4" t="str">
         <f>IF(AA7="Gacha",
@@ -4308,7 +4345,7 @@
         <v/>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -4372,31 +4409,34 @@
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5001</v>
+        <v>5000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="7"/>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal</v>
+        <f t="shared" si="18"/>
+        <v>Gold, Exp, Heart, LevelPack</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7</v>
+        <v>2, 1, 4, 3</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">, , , 50001, , </v>
+        <f t="shared" si="19"/>
+        <v>, , , 50001</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1, 1, 1, 1, 0.7, 0.1</v>
+        <f t="shared" si="20"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>0.05, 100, 2, 1, 1, 1</v>
+        <f t="shared" si="21"/>
+        <v>0.015, 100, 2, 1</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>0.65, 100, 2, 1, 1, 1</v>
+        <f t="shared" si="22"/>
+        <v>0.145, 100, 2, 1</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>10</v>
@@ -4412,10 +4452,10 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.9999999999999989E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N8">
-        <v>0.64999999999999991</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>9</v>
@@ -4477,9 +4517,7 @@
       <c r="AF8">
         <v>1</v>
       </c>
-      <c r="AG8" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="AG8" s="3"/>
       <c r="AI8" s="4" t="str">
         <f>IF(AG8="Gacha",
 IF(ISBLANK(AH8),"비어있음",
@@ -4487,33 +4525,13 @@
 "")</f>
         <v/>
       </c>
-      <c r="AJ8">
-        <v>0.7</v>
-      </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="AM8" s="3"/>
       <c r="AO8" s="4" t="str">
         <f>IF(AM8="Gacha",
 IF(ISBLANK(AN8),"비어있음",
 IF(ISERROR(VLOOKUP(AN8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
-      </c>
-      <c r="AP8">
-        <v>0.1</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AR8">
-        <v>1</v>
       </c>
       <c r="AS8" s="3"/>
       <c r="AU8" s="4" t="str">
@@ -4555,71 +4573,31 @@
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9:C11" si="17">IF(ISBLANK(I9),"",I9)
-&amp;IF(ISBLANK(O9),"",", "&amp;O9)
-&amp;IF(ISBLANK(U9),"",", "&amp;U9)
-&amp;IF(ISBLANK(AA9),"",", "&amp;AA9)
-&amp;IF(ISBLANK(AG9),"",", "&amp;AG9)
-&amp;IF(ISBLANK(AM9),"",", "&amp;AM9)
-&amp;IF(ISBLANK(AS9),"",", "&amp;AS9)
-&amp;IF(ISBLANK(AY9),"",", "&amp;AY9)
-&amp;IF(ISBLANK(BE9),"",", "&amp;BE9)</f>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
+        <f t="shared" si="13"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
+        <v>2, 1, 4, 3, 7, 7</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" ref="E9:E11" si="18">IF(ISBLANK(J9),"",J9)
-&amp;IF(ISBLANK(O9),"",", "&amp;P9)
-&amp;IF(ISBLANK(U9),"",", "&amp;V9)
-&amp;IF(ISBLANK(AA9),"",", "&amp;AB9)
-&amp;IF(ISBLANK(AG9),"",", "&amp;AH9)
-&amp;IF(ISBLANK(AM9),"",", "&amp;AN9)
-&amp;IF(ISBLANK(AS9),"",", "&amp;AT9)
-&amp;IF(ISBLANK(AY9),"",", "&amp;AZ9)
-&amp;IF(ISBLANK(BE9),"",", "&amp;BF9)</f>
-        <v>, , , 50001, , , 50001, 50001</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, , , 50001, , </v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" ref="F9:F11" si="19">IF(ISBLANK(L9),"",L9)
-&amp;IF(ISBLANK(R9),"",", "&amp;R9)
-&amp;IF(ISBLANK(X9),"",", "&amp;X9)
-&amp;IF(ISBLANK(AD9),"",", "&amp;AD9)
-&amp;IF(ISBLANK(AJ9),"",", "&amp;AJ9)
-&amp;IF(ISBLANK(AP9),"",", "&amp;AP9)
-&amp;IF(ISBLANK(AV9),"",", "&amp;AV9)
-&amp;IF(ISBLANK(BB9),"",", "&amp;BB9)
-&amp;IF(ISBLANK(BH9),"",", "&amp;BH9)</f>
-        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+        <f t="shared" si="15"/>
+        <v>1, 1, 1, 1, 0.7, 0.1</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" ref="G9:G11" si="20">IF(ISBLANK(M9),"",M9)
-&amp;IF(ISBLANK(S9),"",", "&amp;S9)
-&amp;IF(ISBLANK(Y9),"",", "&amp;Y9)
-&amp;IF(ISBLANK(AE9),"",", "&amp;AE9)
-&amp;IF(ISBLANK(AK9),"",", "&amp;AK9)
-&amp;IF(ISBLANK(AQ9),"",", "&amp;AQ9)
-&amp;IF(ISBLANK(AW9),"",", "&amp;AW9)
-&amp;IF(ISBLANK(BC9),"",", "&amp;BC9)
-&amp;IF(ISBLANK(BI9),"",", "&amp;BI9)</f>
-        <v>0.085, 100, 2, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="16"/>
+        <v>0.05, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" ref="H9:H11" si="21">IF(ISBLANK(N9),"",N9)
-&amp;IF(ISBLANK(T9),"",", "&amp;T9)
-&amp;IF(ISBLANK(Z9),"",", "&amp;Z9)
-&amp;IF(ISBLANK(AF9),"",", "&amp;AF9)
-&amp;IF(ISBLANK(AL9),"",", "&amp;AL9)
-&amp;IF(ISBLANK(AR9),"",", "&amp;AR9)
-&amp;IF(ISBLANK(AX9),"",", "&amp;AX9)
-&amp;IF(ISBLANK(BD9),"",", "&amp;BD9)
-&amp;IF(ISBLANK(BJ9),"",", "&amp;BJ9)</f>
-        <v>0.685, 100, 2, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="17"/>
+        <v>0.65, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>10</v>
@@ -4635,10 +4613,10 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.500000000000002E-2</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="N9">
-        <v>0.68500000000000005</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>9</v>
@@ -4738,12 +4716,7 @@
       <c r="AR9">
         <v>1</v>
       </c>
-      <c r="AS9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT9">
-        <v>50001</v>
-      </c>
+      <c r="AS9" s="3"/>
       <c r="AU9" s="4" t="str">
         <f>IF(AS9="Gacha",
 IF(ISBLANK(AT9),"비어있음",
@@ -4751,36 +4724,13 @@
 "")</f>
         <v/>
       </c>
-      <c r="AV9">
-        <v>0.25</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ9">
-        <v>50001</v>
-      </c>
+      <c r="AY9" s="3"/>
       <c r="BA9" s="4" t="str">
         <f>IF(AY9="Gacha",
 IF(ISBLANK(AZ9),"비어있음",
 IF(ISERROR(VLOOKUP(AZ9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
-      </c>
-      <c r="BB9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="BC9">
-        <v>1</v>
-      </c>
-      <c r="BD9">
-        <v>1</v>
       </c>
       <c r="BE9" s="3"/>
       <c r="BG9" s="4" t="str">
@@ -4793,10 +4743,18 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="C10:C12" si="23">IF(ISBLANK(I10),"",I10)
+&amp;IF(ISBLANK(O10),"",", "&amp;O10)
+&amp;IF(ISBLANK(U10),"",", "&amp;U10)
+&amp;IF(ISBLANK(AA10),"",", "&amp;AA10)
+&amp;IF(ISBLANK(AG10),"",", "&amp;AG10)
+&amp;IF(ISBLANK(AM10),"",", "&amp;AM10)
+&amp;IF(ISBLANK(AS10),"",", "&amp;AS10)
+&amp;IF(ISBLANK(AY10),"",", "&amp;AY10)
+&amp;IF(ISBLANK(BE10),"",", "&amp;BE10)</f>
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D10" s="1" t="str">
@@ -4804,20 +4762,52 @@
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="E10:E12" si="24">IF(ISBLANK(J10),"",J10)
+&amp;IF(ISBLANK(O10),"",", "&amp;P10)
+&amp;IF(ISBLANK(U10),"",", "&amp;V10)
+&amp;IF(ISBLANK(AA10),"",", "&amp;AB10)
+&amp;IF(ISBLANK(AG10),"",", "&amp;AH10)
+&amp;IF(ISBLANK(AM10),"",", "&amp;AN10)
+&amp;IF(ISBLANK(AS10),"",", "&amp;AT10)
+&amp;IF(ISBLANK(AY10),"",", "&amp;AZ10)
+&amp;IF(ISBLANK(BE10),"",", "&amp;BF10)</f>
         <v>, , , 50001, , , 50001, 50001</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F10:F12" si="25">IF(ISBLANK(L10),"",L10)
+&amp;IF(ISBLANK(R10),"",", "&amp;R10)
+&amp;IF(ISBLANK(X10),"",", "&amp;X10)
+&amp;IF(ISBLANK(AD10),"",", "&amp;AD10)
+&amp;IF(ISBLANK(AJ10),"",", "&amp;AJ10)
+&amp;IF(ISBLANK(AP10),"",", "&amp;AP10)
+&amp;IF(ISBLANK(AV10),"",", "&amp;AV10)
+&amp;IF(ISBLANK(BB10),"",", "&amp;BB10)
+&amp;IF(ISBLANK(BH10),"",", "&amp;BH10)</f>
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>0.12, 100, 2, 1, 1, 1, 1, 1</v>
+        <f t="shared" ref="G10:G12" si="26">IF(ISBLANK(M10),"",M10)
+&amp;IF(ISBLANK(S10),"",", "&amp;S10)
+&amp;IF(ISBLANK(Y10),"",", "&amp;Y10)
+&amp;IF(ISBLANK(AE10),"",", "&amp;AE10)
+&amp;IF(ISBLANK(AK10),"",", "&amp;AK10)
+&amp;IF(ISBLANK(AQ10),"",", "&amp;AQ10)
+&amp;IF(ISBLANK(AW10),"",", "&amp;AW10)
+&amp;IF(ISBLANK(BC10),"",", "&amp;BC10)
+&amp;IF(ISBLANK(BI10),"",", "&amp;BI10)</f>
+        <v>0.085, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>0.72, 100, 2, 1, 1, 1, 1, 1</v>
+        <f t="shared" ref="H10:H12" si="27">IF(ISBLANK(N10),"",N10)
+&amp;IF(ISBLANK(T10),"",", "&amp;T10)
+&amp;IF(ISBLANK(Z10),"",", "&amp;Z10)
+&amp;IF(ISBLANK(AF10),"",", "&amp;AF10)
+&amp;IF(ISBLANK(AL10),"",", "&amp;AL10)
+&amp;IF(ISBLANK(AR10),"",", "&amp;AR10)
+&amp;IF(ISBLANK(AX10),"",", "&amp;AX10)
+&amp;IF(ISBLANK(BD10),"",", "&amp;BD10)
+&amp;IF(ISBLANK(BJ10),"",", "&amp;BJ10)</f>
+        <v>0.685, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>10</v>
@@ -4833,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.12</v>
+        <v>8.500000000000002E-2</v>
       </c>
       <c r="N10">
-        <v>0.72</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>9</v>
@@ -4991,10 +4981,10 @@
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D11" s="1" t="str">
@@ -5002,20 +4992,20 @@
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>, , , 50001, , , 50001, 50001</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="26"/>
+        <v>0.12, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>0.755, 100, 2, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="27"/>
+        <v>0.72, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>10</v>
@@ -5031,10 +5021,10 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.15500000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="N11">
-        <v>0.755</v>
+        <v>0.72</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>9</v>
@@ -5189,74 +5179,31 @@
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
+        <v>5004</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C12" si="22">IF(ISBLANK(I12),"",I12)
-&amp;IF(ISBLANK(O12),"",", "&amp;O12)
-&amp;IF(ISBLANK(U12),"",", "&amp;U12)
-&amp;IF(ISBLANK(AA12),"",", "&amp;AA12)
-&amp;IF(ISBLANK(AG12),"",", "&amp;AG12)
-&amp;IF(ISBLANK(AM12),"",", "&amp;AM12)
-&amp;IF(ISBLANK(AS12),"",", "&amp;AS12)
-&amp;IF(ISBLANK(AY12),"",", "&amp;AY12)
-&amp;IF(ISBLANK(BE12),"",", "&amp;BE12)</f>
-        <v>Gold</v>
+        <f t="shared" si="23"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" ref="E12" si="23">IF(ISBLANK(J12),"",J12)
-&amp;IF(ISBLANK(O12),"",", "&amp;P12)
-&amp;IF(ISBLANK(U12),"",", "&amp;V12)
-&amp;IF(ISBLANK(AA12),"",", "&amp;AB12)
-&amp;IF(ISBLANK(AG12),"",", "&amp;AH12)
-&amp;IF(ISBLANK(AM12),"",", "&amp;AN12)
-&amp;IF(ISBLANK(AS12),"",", "&amp;AT12)
-&amp;IF(ISBLANK(AY12),"",", "&amp;AZ12)
-&amp;IF(ISBLANK(BE12),"",", "&amp;BF12)</f>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>, , , 50001, , , 50001, 50001</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" ref="F12" si="24">IF(ISBLANK(L12),"",L12)
-&amp;IF(ISBLANK(R12),"",", "&amp;R12)
-&amp;IF(ISBLANK(X12),"",", "&amp;X12)
-&amp;IF(ISBLANK(AD12),"",", "&amp;AD12)
-&amp;IF(ISBLANK(AJ12),"",", "&amp;AJ12)
-&amp;IF(ISBLANK(AP12),"",", "&amp;AP12)
-&amp;IF(ISBLANK(AV12),"",", "&amp;AV12)
-&amp;IF(ISBLANK(BB12),"",", "&amp;BB12)
-&amp;IF(ISBLANK(BH12),"",", "&amp;BH12)</f>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" ref="G12" si="25">IF(ISBLANK(M12),"",M12)
-&amp;IF(ISBLANK(S12),"",", "&amp;S12)
-&amp;IF(ISBLANK(Y12),"",", "&amp;Y12)
-&amp;IF(ISBLANK(AE12),"",", "&amp;AE12)
-&amp;IF(ISBLANK(AK12),"",", "&amp;AK12)
-&amp;IF(ISBLANK(AQ12),"",", "&amp;AQ12)
-&amp;IF(ISBLANK(AW12),"",", "&amp;AW12)
-&amp;IF(ISBLANK(BC12),"",", "&amp;BC12)
-&amp;IF(ISBLANK(BI12),"",", "&amp;BI12)</f>
-        <v>0.015</v>
+        <f t="shared" si="26"/>
+        <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" ref="H12" si="26">IF(ISBLANK(N12),"",N12)
-&amp;IF(ISBLANK(T12),"",", "&amp;T12)
-&amp;IF(ISBLANK(Z12),"",", "&amp;Z12)
-&amp;IF(ISBLANK(AF12),"",", "&amp;AF12)
-&amp;IF(ISBLANK(AL12),"",", "&amp;AL12)
-&amp;IF(ISBLANK(AR12),"",", "&amp;AR12)
-&amp;IF(ISBLANK(AX12),"",", "&amp;AX12)
-&amp;IF(ISBLANK(BD12),"",", "&amp;BD12)
-&amp;IF(ISBLANK(BJ12),"",", "&amp;BJ12)</f>
-        <v>0.145</v>
+        <f t="shared" si="27"/>
+        <v>0.755, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
@@ -5272,14 +5219,55 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15500000000000003</v>
       </c>
       <c r="N12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="AA12" s="3"/>
+        <v>0.755</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f>IF(O12="Gacha",
+IF(ISBLANK(P12),"비어있음",
+IF(ISERROR(VLOOKUP(P12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="4" t="str">
+        <f>IF(U12="Gacha",
+IF(ISBLANK(V12),"비어있음",
+IF(ISERROR(VLOOKUP(V12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12">
+        <v>50001</v>
+      </c>
       <c r="AC12" s="4" t="str">
         <f>IF(AA12="Gacha",
 IF(ISBLANK(AB12),"비어있음",
@@ -5287,7 +5275,18 @@
 "")</f>
         <v/>
       </c>
-      <c r="AG12" s="3"/>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="AI12" s="4" t="str">
         <f>IF(AG12="Gacha",
 IF(ISBLANK(AH12),"비어있음",
@@ -5295,7 +5294,18 @@
 "")</f>
         <v/>
       </c>
-      <c r="AM12" s="3"/>
+      <c r="AJ12">
+        <v>0.7</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="AO12" s="4" t="str">
         <f>IF(AM12="Gacha",
 IF(ISBLANK(AN12),"비어있음",
@@ -5303,7 +5313,21 @@
 "")</f>
         <v/>
       </c>
-      <c r="AS12" s="3"/>
+      <c r="AP12">
+        <v>0.1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT12">
+        <v>50001</v>
+      </c>
       <c r="AU12" s="4" t="str">
         <f>IF(AS12="Gacha",
 IF(ISBLANK(AT12),"비어있음",
@@ -5311,12 +5335,36 @@
 "")</f>
         <v/>
       </c>
+      <c r="AV12">
+        <v>0.25</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ12">
+        <v>50001</v>
+      </c>
       <c r="BA12" s="4" t="str">
         <f>IF(AY12="Gacha",
 IF(ISBLANK(AZ12),"비어있음",
 IF(ISERROR(VLOOKUP(AZ12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
+      </c>
+      <c r="BB12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
       </c>
       <c r="BE12" s="3"/>
       <c r="BG12" s="4" t="str">
@@ -5329,10 +5377,13 @@
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13:C16" si="27">IF(ISBLANK(I13),"",I13)
+        <f t="shared" ref="C13" si="28">IF(ISBLANK(I13),"",I13)
 &amp;IF(ISBLANK(O13),"",", "&amp;O13)
 &amp;IF(ISBLANK(U13),"",", "&amp;U13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AA13)
@@ -5341,14 +5392,14 @@
 &amp;IF(ISBLANK(AS13),"",", "&amp;AS13)
 &amp;IF(ISBLANK(AY13),"",", "&amp;AY13)
 &amp;IF(ISBLANK(BE13),"",", "&amp;BE13)</f>
-        <v>Gold, Seal, Seal</v>
+        <v>Gold</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13:E16" si="28">IF(ISBLANK(J13),"",J13)
+        <f t="shared" ref="E13" si="29">IF(ISBLANK(J13),"",J13)
 &amp;IF(ISBLANK(O13),"",", "&amp;P13)
 &amp;IF(ISBLANK(U13),"",", "&amp;V13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AB13)
@@ -5357,10 +5408,10 @@
 &amp;IF(ISBLANK(AS13),"",", "&amp;AT13)
 &amp;IF(ISBLANK(AY13),"",", "&amp;AZ13)
 &amp;IF(ISBLANK(BE13),"",", "&amp;BF13)</f>
-        <v xml:space="preserve">, , </v>
+        <v/>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13:F16" si="29">IF(ISBLANK(L13),"",L13)
+        <f t="shared" ref="F13" si="30">IF(ISBLANK(L13),"",L13)
 &amp;IF(ISBLANK(R13),"",", "&amp;R13)
 &amp;IF(ISBLANK(X13),"",", "&amp;X13)
 &amp;IF(ISBLANK(AD13),"",", "&amp;AD13)
@@ -5369,10 +5420,10 @@
 &amp;IF(ISBLANK(AV13),"",", "&amp;AV13)
 &amp;IF(ISBLANK(BB13),"",", "&amp;BB13)
 &amp;IF(ISBLANK(BH13),"",", "&amp;BH13)</f>
-        <v>1, 0.7, 0.1</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13:G16" si="30">IF(ISBLANK(M13),"",M13)
+        <f t="shared" ref="G13" si="31">IF(ISBLANK(M13),"",M13)
 &amp;IF(ISBLANK(S13),"",", "&amp;S13)
 &amp;IF(ISBLANK(Y13),"",", "&amp;Y13)
 &amp;IF(ISBLANK(AE13),"",", "&amp;AE13)
@@ -5381,10 +5432,10 @@
 &amp;IF(ISBLANK(AW13),"",", "&amp;AW13)
 &amp;IF(ISBLANK(BC13),"",", "&amp;BC13)
 &amp;IF(ISBLANK(BI13),"",", "&amp;BI13)</f>
-        <v>0.05, 1, 1</v>
+        <v>0.015</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13:H16" si="31">IF(ISBLANK(N13),"",N13)
+        <f t="shared" ref="H13" si="32">IF(ISBLANK(N13),"",N13)
 &amp;IF(ISBLANK(T13),"",", "&amp;T13)
 &amp;IF(ISBLANK(Z13),"",", "&amp;Z13)
 &amp;IF(ISBLANK(AF13),"",", "&amp;AF13)
@@ -5393,7 +5444,7 @@
 &amp;IF(ISBLANK(AX13),"",", "&amp;AX13)
 &amp;IF(ISBLANK(BD13),"",", "&amp;BD13)
 &amp;IF(ISBLANK(BJ13),"",", "&amp;BJ13)</f>
-        <v>0.65, 1, 1</v>
+        <v>0.145</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>10</v>
@@ -5409,49 +5460,13 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.9999999999999989E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N13">
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="4" t="str">
-        <f>IF(O13="Gacha",
-IF(ISBLANK(P13),"비어있음",
-IF(ISERROR(VLOOKUP(P13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="R13">
-        <v>0.7</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W13" s="4" t="str">
-        <f>IF(U13="Gacha",
-IF(ISBLANK(V13),"비어있음",
-IF(ISERROR(VLOOKUP(V13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <v>0.1</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="U13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AC13" s="4" t="str">
         <f>IF(AA13="Gacha",
@@ -5502,31 +5517,71 @@
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="27"/>
-        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+        <f t="shared" ref="C14:C17" si="33">IF(ISBLANK(I14),"",I14)
+&amp;IF(ISBLANK(O14),"",", "&amp;O14)
+&amp;IF(ISBLANK(U14),"",", "&amp;U14)
+&amp;IF(ISBLANK(AA14),"",", "&amp;AA14)
+&amp;IF(ISBLANK(AG14),"",", "&amp;AG14)
+&amp;IF(ISBLANK(AM14),"",", "&amp;AM14)
+&amp;IF(ISBLANK(AS14),"",", "&amp;AS14)
+&amp;IF(ISBLANK(AY14),"",", "&amp;AY14)
+&amp;IF(ISBLANK(BE14),"",", "&amp;BE14)</f>
+        <v>Gold, Seal, Seal</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7, 5, 5, 5</v>
+        <v>2, 7, 7</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>, , , 50001, 50001, 50001</v>
+        <f t="shared" ref="E14:E17" si="34">IF(ISBLANK(J14),"",J14)
+&amp;IF(ISBLANK(O14),"",", "&amp;P14)
+&amp;IF(ISBLANK(U14),"",", "&amp;V14)
+&amp;IF(ISBLANK(AA14),"",", "&amp;AB14)
+&amp;IF(ISBLANK(AG14),"",", "&amp;AH14)
+&amp;IF(ISBLANK(AM14),"",", "&amp;AN14)
+&amp;IF(ISBLANK(AS14),"",", "&amp;AT14)
+&amp;IF(ISBLANK(AY14),"",", "&amp;AZ14)
+&amp;IF(ISBLANK(BE14),"",", "&amp;BF14)</f>
+        <v xml:space="preserve">, , </v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+        <f t="shared" ref="F14:F17" si="35">IF(ISBLANK(L14),"",L14)
+&amp;IF(ISBLANK(R14),"",", "&amp;R14)
+&amp;IF(ISBLANK(X14),"",", "&amp;X14)
+&amp;IF(ISBLANK(AD14),"",", "&amp;AD14)
+&amp;IF(ISBLANK(AJ14),"",", "&amp;AJ14)
+&amp;IF(ISBLANK(AP14),"",", "&amp;AP14)
+&amp;IF(ISBLANK(AV14),"",", "&amp;AV14)
+&amp;IF(ISBLANK(BB14),"",", "&amp;BB14)
+&amp;IF(ISBLANK(BH14),"",", "&amp;BH14)</f>
+        <v>1, 0.7, 0.1</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>0.085, 1, 1, 1, 1, 1</v>
+        <f t="shared" ref="G14:G17" si="36">IF(ISBLANK(M14),"",M14)
+&amp;IF(ISBLANK(S14),"",", "&amp;S14)
+&amp;IF(ISBLANK(Y14),"",", "&amp;Y14)
+&amp;IF(ISBLANK(AE14),"",", "&amp;AE14)
+&amp;IF(ISBLANK(AK14),"",", "&amp;AK14)
+&amp;IF(ISBLANK(AQ14),"",", "&amp;AQ14)
+&amp;IF(ISBLANK(AW14),"",", "&amp;AW14)
+&amp;IF(ISBLANK(BC14),"",", "&amp;BC14)
+&amp;IF(ISBLANK(BI14),"",", "&amp;BI14)</f>
+        <v>0.05, 1, 1</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>0.685, 1, 1, 1, 1, 1</v>
+        <f t="shared" ref="H14:H17" si="37">IF(ISBLANK(N14),"",N14)
+&amp;IF(ISBLANK(T14),"",", "&amp;T14)
+&amp;IF(ISBLANK(Z14),"",", "&amp;Z14)
+&amp;IF(ISBLANK(AF14),"",", "&amp;AF14)
+&amp;IF(ISBLANK(AL14),"",", "&amp;AL14)
+&amp;IF(ISBLANK(AR14),"",", "&amp;AR14)
+&amp;IF(ISBLANK(AX14),"",", "&amp;AX14)
+&amp;IF(ISBLANK(BD14),"",", "&amp;BD14)
+&amp;IF(ISBLANK(BJ14),"",", "&amp;BJ14)</f>
+        <v>0.65, 1, 1</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -5542,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.500000000000002E-2</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="N14">
-        <v>0.68500000000000005</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>69</v>
@@ -5585,12 +5640,7 @@
       <c r="Z14">
         <v>1</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14">
-        <v>50001</v>
-      </c>
+      <c r="AA14" s="3"/>
       <c r="AC14" s="4" t="str">
         <f>IF(AA14="Gacha",
 IF(ISBLANK(AB14),"비어있음",
@@ -5598,21 +5648,7 @@
 "")</f>
         <v/>
       </c>
-      <c r="AD14">
-        <v>0.5</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH14">
-        <v>50001</v>
-      </c>
+      <c r="AG14" s="3"/>
       <c r="AI14" s="4" t="str">
         <f>IF(AG14="Gacha",
 IF(ISBLANK(AH14),"비어있음",
@@ -5620,36 +5656,13 @@
 "")</f>
         <v/>
       </c>
-      <c r="AJ14">
-        <v>0.1</v>
-      </c>
-      <c r="AK14">
-        <v>1</v>
-      </c>
-      <c r="AL14">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN14">
-        <v>50001</v>
-      </c>
+      <c r="AM14" s="3"/>
       <c r="AO14" s="4" t="str">
         <f>IF(AM14="Gacha",
 IF(ISBLANK(AN14),"비어있음",
 IF(ISERROR(VLOOKUP(AN14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
 "")</f>
         <v/>
-      </c>
-      <c r="AP14">
-        <v>0.05</v>
-      </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <v>1</v>
       </c>
       <c r="AS14" s="3"/>
       <c r="AU14" s="4" t="str">
@@ -5677,10 +5690,10 @@
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D15" s="1" t="str">
@@ -5688,20 +5701,20 @@
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>0.12, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="36"/>
+        <v>0.085, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>0.72, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="37"/>
+        <v>0.685, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -5717,10 +5730,10 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.12</v>
+        <v>8.500000000000002E-2</v>
       </c>
       <c r="N15">
-        <v>0.72</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>69</v>
@@ -5852,10 +5865,10 @@
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D16" s="1" t="str">
@@ -5863,20 +5876,20 @@
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>, , , 50001, 50001, 50001</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>0.155, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="36"/>
+        <v>0.12, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>0.755, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="37"/>
+        <v>0.72, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>10</v>
@@ -5892,10 +5905,10 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.15500000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="N16">
-        <v>0.755</v>
+        <v>0.72</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>69</v>
@@ -6025,14 +6038,189 @@
         <v/>
       </c>
     </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6004</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="33"/>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 7, 7, 5, 5, 5</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>, , , 50001, 50001, 50001</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="36"/>
+        <v>0.155, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>0.755, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f>IF(I17="Gacha",
+IF(ISBLANK(J17),"비어있음",
+IF(ISERROR(VLOOKUP(J17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="N17">
+        <v>0.755</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <f>IF(O17="Gacha",
+IF(ISBLANK(P17),"비어있음",
+IF(ISERROR(VLOOKUP(P17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="R17">
+        <v>0.7</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W17" s="4" t="str">
+        <f>IF(U17="Gacha",
+IF(ISBLANK(V17),"비어있음",
+IF(ISERROR(VLOOKUP(V17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <v>0.1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17">
+        <v>50001</v>
+      </c>
+      <c r="AC17" s="4" t="str">
+        <f>IF(AA17="Gacha",
+IF(ISBLANK(AB17),"비어있음",
+IF(ISERROR(VLOOKUP(AB17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AD17">
+        <v>0.5</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH17">
+        <v>50001</v>
+      </c>
+      <c r="AI17" s="4" t="str">
+        <f>IF(AG17="Gacha",
+IF(ISBLANK(AH17),"비어있음",
+IF(ISERROR(VLOOKUP(AH17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AJ17">
+        <v>0.1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN17">
+        <v>50001</v>
+      </c>
+      <c r="AO17" s="4" t="str">
+        <f>IF(AM17="Gacha",
+IF(ISBLANK(AN17),"비어있음",
+IF(ISERROR(VLOOKUP(AN17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="AP17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="3"/>
+      <c r="AU17" s="4" t="str">
+        <f>IF(AS17="Gacha",
+IF(ISBLANK(AT17),"비어있음",
+IF(ISERROR(VLOOKUP(AT17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BA17" s="4" t="str">
+        <f>IF(AY17="Gacha",
+IF(ISBLANK(AZ17),"비어있음",
+IF(ISERROR(VLOOKUP(AZ17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+      <c r="BE17" s="3"/>
+      <c r="BG17" s="4" t="str">
+        <f>IF(BE17="Gacha",
+IF(ISBLANK(BF17),"비어있음",
+IF(ISERROR(VLOOKUP(BF17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
+"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BP8">
-    <sortCondition descending="1" ref="BP2:BP8"/>
-    <sortCondition ref="BO2:BO8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BP9">
+    <sortCondition descending="1" ref="BP2:BP9"/>
+    <sortCondition ref="BO2:BO9"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA16 AY2:AY11 U2:U16 O2:O16 BE2:BE16 I2:I16 AS2:AS16 AM2:AM16 AG2:AG16" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA17 AY2:AY12 U2:U17 O2:O17 BE2:BE17 I2:I17 AS2:AS17 AM2:AM17 AG2:AG17" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2D2A1-7AD8-471F-A70C-052D7DBC8CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD2E8E-6E42-42D1-B61A-6E1606135845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2141,6 +2141,306 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{20BC8680-E248-470E-8DCE-039EBD70EB75}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>골드를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조정한다면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버사이드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대제한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내부검증</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변수도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함
+재화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엑셀로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>복사하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뽑아낼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2551,7 +2851,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2579,6 +2879,22 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2615,7 +2931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2629,6 +2945,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2997,7 +3319,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3089,10 +3411,10 @@
       <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="O1" s="2" t="s">

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD2E8E-6E42-42D1-B61A-6E1606135845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7321F-4123-42C3-BA09-DA138BF03831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2823,14 +2823,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0~1챕터에서는 무기/방어구가 드랍되지 않는다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2챕터에서는 무기만 드랍된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3챕터에서는 전부 드랍된다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2844,6 +2836,14 @@
   </si>
   <si>
     <t>체험용스위벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~1챕터에서는 무기가 드랍되지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10 첫 전투에서는 도끼 1단계가 드랍된다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2975,7 +2975,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="GachaTable"/>
-      <sheetName val="ShopTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -3010,7 +3009,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3315,7 +3313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:BS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3604,7 +3602,7 @@
         <v>9752476</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2" si="0">IF(ISBLANK(I2),"",I2)
@@ -6652,8 +6650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F0AB79-C825-4F18-BA6C-94FFE1CA0F6E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6671,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6679,7 +6677,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6687,7 +6685,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6695,7 +6693,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6703,7 +6701,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7321F-4123-42C3-BA09-DA138BF03831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE60CFA3-02BD-48CB-BB17-9C8B53C0B892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2584,7 +2584,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2844,6 +2844,30 @@
   </si>
   <si>
     <t>2-10 첫 전투에서는 도끼 1단계가 드랍된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 사이드에서 정수로만 쓸 수 있으니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번 소모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2975,6 +2999,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="GachaTable"/>
+      <sheetName val="가챠종류"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -3009,6 +3034,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6552,16 +6578,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F446BF-3A16-4AF8-83EB-58CC9CFE4AFE}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -6569,15 +6597,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>1.3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6585,8 +6622,11 @@
         <f t="shared" ref="B3:B8" si="0">B2/2</f>
         <v>0.5</v>
       </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -6594,8 +6634,14 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6604,7 +6650,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6612,8 +6658,17 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6621,8 +6676,17 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6630,8 +6694,17 @@
         <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -6650,7 +6723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F0AB79-C825-4F18-BA6C-94FFE1CA0F6E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE60CFA3-02BD-48CB-BB17-9C8B53C0B892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6DFCB6-D4E0-48BD-96EB-4D97C0B87865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
     <sheet name="DropAdjustTable" sheetId="2" r:id="rId2"/>
     <sheet name="드랍규칙" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2992,52 +2989,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="GachaTable"/>
-      <sheetName val="가챠종류"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>gachaId|String</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>10001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>50001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>30001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>70001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>90001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3337,65 +3288,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS17"/>
+  <dimension ref="A1:BR17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="51.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="51.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="9" collapsed="1"/>
-    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="9" collapsed="1"/>
-    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="9" collapsed="1"/>
-    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="71" max="71" width="9" collapsed="1"/>
+    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3726,13 +3673,6 @@
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="4" t="str">
-        <f>IF(I2="Gacha",
-IF(ISBLANK(J2),"비어있음",
-IF(ISERROR(VLOOKUP(J2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L2">
         <v>1</v>
       </c>
@@ -3743,69 +3683,13 @@
         <v>42</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="Q2" s="4" t="str">
-        <f>IF(O2="Gacha",
-IF(ISBLANK(P2),"비어있음",
-IF(ISERROR(VLOOKUP(P2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="U2" s="3"/>
-      <c r="W2" s="4" t="str">
-        <f>IF(U2="Gacha",
-IF(ISBLANK(V2),"비어있음",
-IF(ISERROR(VLOOKUP(V2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AA2" s="3"/>
-      <c r="AC2" s="4" t="str">
-        <f>IF(AA2="Gacha",
-IF(ISBLANK(AB2),"비어있음",
-IF(ISERROR(VLOOKUP(AB2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AG2" s="3"/>
-      <c r="AI2" s="4" t="str">
-        <f>IF(AG2="Gacha",
-IF(ISBLANK(AH2),"비어있음",
-IF(ISERROR(VLOOKUP(AH2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AM2" s="3"/>
-      <c r="AO2" s="4" t="str">
-        <f>IF(AM2="Gacha",
-IF(ISBLANK(AN2),"비어있음",
-IF(ISERROR(VLOOKUP(AN2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AS2" s="3"/>
-      <c r="AU2" s="4" t="str">
-        <f>IF(AS2="Gacha",
-IF(ISBLANK(AT2),"비어있음",
-IF(ISERROR(VLOOKUP(AT2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AY2" s="3"/>
-      <c r="BA2" s="4" t="str">
-        <f>IF(AY2="Gacha",
-IF(ISBLANK(AZ2),"비어있음",
-IF(ISERROR(VLOOKUP(AZ2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE2" s="3"/>
-      <c r="BG2" s="4" t="str">
-        <f>IF(BE2="Gacha",
-IF(ISBLANK(BF2),"비어있음",
-IF(ISERROR(VLOOKUP(BF2,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BL2" t="s">
         <v>9</v>
       </c>
@@ -3927,13 +3811,6 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="str">
-        <f>IF(I3="Gacha",
-IF(ISBLANK(J3),"비어있음",
-IF(ISERROR(VLOOKUP(J3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L3">
         <v>1</v>
       </c>
@@ -3946,13 +3823,6 @@
       <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="4" t="str">
-        <f>IF(O3="Gacha",
-IF(ISBLANK(P3),"비어있음",
-IF(ISERROR(VLOOKUP(P3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R3">
         <v>1</v>
       </c>
@@ -3965,13 +3835,6 @@
       <c r="U3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="4" t="str">
-        <f>IF(U3="Gacha",
-IF(ISBLANK(V3),"비어있음",
-IF(ISERROR(VLOOKUP(V3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -3982,53 +3845,11 @@
         <v>1</v>
       </c>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="4" t="str">
-        <f>IF(AA3="Gacha",
-IF(ISBLANK(AB3),"비어있음",
-IF(ISERROR(VLOOKUP(AB3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AG3" s="3"/>
-      <c r="AI3" s="4" t="str">
-        <f>IF(AG3="Gacha",
-IF(ISBLANK(AH3),"비어있음",
-IF(ISERROR(VLOOKUP(AH3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AM3" s="3"/>
-      <c r="AO3" s="4" t="str">
-        <f>IF(AM3="Gacha",
-IF(ISBLANK(AN3),"비어있음",
-IF(ISERROR(VLOOKUP(AN3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="4" t="str">
-        <f>IF(AS3="Gacha",
-IF(ISBLANK(AT3),"비어있음",
-IF(ISERROR(VLOOKUP(AT3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AY3" s="3"/>
-      <c r="BA3" s="4" t="str">
-        <f>IF(AY3="Gacha",
-IF(ISBLANK(AZ3),"비어있음",
-IF(ISERROR(VLOOKUP(AZ3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE3" s="3"/>
-      <c r="BG3" s="4" t="str">
-        <f>IF(BE3="Gacha",
-IF(ISBLANK(BF3),"비어있음",
-IF(ISERROR(VLOOKUP(BF3,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BL3" t="s">
         <v>10</v>
       </c>
@@ -4114,13 +3935,6 @@
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="4" t="str">
-        <f>IF(I4="Gacha",
-IF(ISBLANK(J4),"비어있음",
-IF(ISERROR(VLOOKUP(J4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L4">
         <v>1</v>
       </c>
@@ -4133,13 +3947,6 @@
       <c r="O4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="4" t="str">
-        <f>IF(O4="Gacha",
-IF(ISBLANK(P4),"비어있음",
-IF(ISERROR(VLOOKUP(P4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R4">
         <v>1</v>
       </c>
@@ -4152,13 +3959,6 @@
       <c r="U4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="4" t="str">
-        <f>IF(U4="Gacha",
-IF(ISBLANK(V4),"비어있음",
-IF(ISERROR(VLOOKUP(V4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X4">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -4169,53 +3969,11 @@
         <v>1</v>
       </c>
       <c r="AA4" s="3"/>
-      <c r="AC4" s="4" t="str">
-        <f>IF(AA4="Gacha",
-IF(ISBLANK(AB4),"비어있음",
-IF(ISERROR(VLOOKUP(AB4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AG4" s="3"/>
-      <c r="AI4" s="4" t="str">
-        <f>IF(AG4="Gacha",
-IF(ISBLANK(AH4),"비어있음",
-IF(ISERROR(VLOOKUP(AH4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AM4" s="3"/>
-      <c r="AO4" s="4" t="str">
-        <f>IF(AM4="Gacha",
-IF(ISBLANK(AN4),"비어있음",
-IF(ISERROR(VLOOKUP(AN4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AS4" s="3"/>
-      <c r="AU4" s="4" t="str">
-        <f>IF(AS4="Gacha",
-IF(ISBLANK(AT4),"비어있음",
-IF(ISERROR(VLOOKUP(AT4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AY4" s="3"/>
-      <c r="BA4" s="4" t="str">
-        <f>IF(AY4="Gacha",
-IF(ISBLANK(AZ4),"비어있음",
-IF(ISERROR(VLOOKUP(AZ4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE4" s="3"/>
-      <c r="BG4" s="4" t="str">
-        <f>IF(BE4="Gacha",
-IF(ISBLANK(BF4),"비어있음",
-IF(ISERROR(VLOOKUP(BF4,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BL4" t="s">
         <v>11</v>
       </c>
@@ -4301,13 +4059,6 @@
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="str">
-        <f>IF(I5="Gacha",
-IF(ISBLANK(J5),"비어있음",
-IF(ISERROR(VLOOKUP(J5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
@@ -4320,13 +4071,6 @@
       <c r="O5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="4" t="str">
-        <f>IF(O5="Gacha",
-IF(ISBLANK(P5),"비어있음",
-IF(ISERROR(VLOOKUP(P5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R5">
         <v>1</v>
       </c>
@@ -4339,13 +4083,6 @@
       <c r="U5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="4" t="str">
-        <f>IF(U5="Gacha",
-IF(ISBLANK(V5),"비어있음",
-IF(ISERROR(VLOOKUP(V5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X5">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -4361,13 +4098,6 @@
       <c r="AB5">
         <v>10001</v>
       </c>
-      <c r="AC5" s="4" t="str">
-        <f>IF(AA5="Gacha",
-IF(ISBLANK(AB5),"비어있음",
-IF(ISERROR(VLOOKUP(AB5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD5">
         <v>1E-3</v>
       </c>
@@ -4378,45 +4108,10 @@
         <v>1</v>
       </c>
       <c r="AG5" s="3"/>
-      <c r="AI5" s="4" t="str">
-        <f>IF(AG5="Gacha",
-IF(ISBLANK(AH5),"비어있음",
-IF(ISERROR(VLOOKUP(AH5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AM5" s="3"/>
-      <c r="AO5" s="4" t="str">
-        <f>IF(AM5="Gacha",
-IF(ISBLANK(AN5),"비어있음",
-IF(ISERROR(VLOOKUP(AN5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AS5" s="3"/>
-      <c r="AU5" s="4" t="str">
-        <f>IF(AS5="Gacha",
-IF(ISBLANK(AT5),"비어있음",
-IF(ISERROR(VLOOKUP(AT5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AY5" s="3"/>
-      <c r="BA5" s="4" t="str">
-        <f>IF(AY5="Gacha",
-IF(ISBLANK(AZ5),"비어있음",
-IF(ISERROR(VLOOKUP(AZ5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE5" s="3"/>
-      <c r="BG5" s="4" t="str">
-        <f>IF(BE5="Gacha",
-IF(ISBLANK(BF5),"비어있음",
-IF(ISERROR(VLOOKUP(BF5,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BL5" t="s">
         <v>12</v>
       </c>
@@ -4462,13 +4157,6 @@
       <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="4" t="str">
-        <f>IF(I6="Gacha",
-IF(ISBLANK(J6),"비어있음",
-IF(ISERROR(VLOOKUP(J6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
@@ -4481,13 +4169,6 @@
       <c r="O6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="4" t="str">
-        <f>IF(O6="Gacha",
-IF(ISBLANK(P6),"비어있음",
-IF(ISERROR(VLOOKUP(P6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R6">
         <v>1</v>
       </c>
@@ -4500,13 +4181,6 @@
       <c r="U6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="4" t="str">
-        <f>IF(U6="Gacha",
-IF(ISBLANK(V6),"비어있음",
-IF(ISERROR(VLOOKUP(V6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X6">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -4522,13 +4196,6 @@
       <c r="AB6">
         <v>10001</v>
       </c>
-      <c r="AC6" s="4" t="str">
-        <f>IF(AA6="Gacha",
-IF(ISBLANK(AB6),"비어있음",
-IF(ISERROR(VLOOKUP(AB6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD6">
         <v>1E-3</v>
       </c>
@@ -4539,45 +4206,10 @@
         <v>1</v>
       </c>
       <c r="AG6" s="3"/>
-      <c r="AI6" s="4" t="str">
-        <f>IF(AG6="Gacha",
-IF(ISBLANK(AH6),"비어있음",
-IF(ISERROR(VLOOKUP(AH6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AM6" s="3"/>
-      <c r="AO6" s="4" t="str">
-        <f>IF(AM6="Gacha",
-IF(ISBLANK(AN6),"비어있음",
-IF(ISERROR(VLOOKUP(AN6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AS6" s="3"/>
-      <c r="AU6" s="4" t="str">
-        <f>IF(AS6="Gacha",
-IF(ISBLANK(AT6),"비어있음",
-IF(ISERROR(VLOOKUP(AT6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AY6" s="3"/>
-      <c r="BA6" s="4" t="str">
-        <f>IF(AY6="Gacha",
-IF(ISBLANK(AZ6),"비어있음",
-IF(ISERROR(VLOOKUP(AZ6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE6" s="3"/>
-      <c r="BG6" s="4" t="str">
-        <f>IF(BE6="Gacha",
-IF(ISBLANK(BF6),"비어있음",
-IF(ISERROR(VLOOKUP(BF6,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BL6" t="s">
         <v>13</v>
       </c>
@@ -4623,13 +4255,6 @@
       <c r="I7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="4" t="str">
-        <f>IF(I7="Gacha",
-IF(ISBLANK(J7),"비어있음",
-IF(ISERROR(VLOOKUP(J7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
@@ -4642,13 +4267,6 @@
       <c r="O7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="4" t="str">
-        <f>IF(O7="Gacha",
-IF(ISBLANK(P7),"비어있음",
-IF(ISERROR(VLOOKUP(P7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R7">
         <v>1</v>
       </c>
@@ -4661,13 +4279,6 @@
       <c r="U7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="4" t="str">
-        <f>IF(U7="Gacha",
-IF(ISBLANK(V7),"비어있음",
-IF(ISERROR(VLOOKUP(V7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X7">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -4683,13 +4294,6 @@
       <c r="AB7">
         <v>10001</v>
       </c>
-      <c r="AC7" s="4" t="str">
-        <f>IF(AA7="Gacha",
-IF(ISBLANK(AB7),"비어있음",
-IF(ISERROR(VLOOKUP(AB7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD7">
         <v>1E-3</v>
       </c>
@@ -4700,45 +4304,10 @@
         <v>1</v>
       </c>
       <c r="AG7" s="3"/>
-      <c r="AI7" s="4" t="str">
-        <f>IF(AG7="Gacha",
-IF(ISBLANK(AH7),"비어있음",
-IF(ISERROR(VLOOKUP(AH7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AM7" s="3"/>
-      <c r="AO7" s="4" t="str">
-        <f>IF(AM7="Gacha",
-IF(ISBLANK(AN7),"비어있음",
-IF(ISERROR(VLOOKUP(AN7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AS7" s="3"/>
-      <c r="AU7" s="4" t="str">
-        <f>IF(AS7="Gacha",
-IF(ISBLANK(AT7),"비어있음",
-IF(ISERROR(VLOOKUP(AT7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AY7" s="3"/>
-      <c r="BA7" s="4" t="str">
-        <f>IF(AY7="Gacha",
-IF(ISBLANK(AZ7),"비어있음",
-IF(ISERROR(VLOOKUP(AZ7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE7" s="3"/>
-      <c r="BG7" s="4" t="str">
-        <f>IF(BE7="Gacha",
-IF(ISBLANK(BF7),"비어있음",
-IF(ISERROR(VLOOKUP(BF7,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BL7" t="s">
         <v>14</v>
       </c>
@@ -4787,13 +4356,6 @@
       <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="4" t="str">
-        <f>IF(I8="Gacha",
-IF(ISBLANK(J8),"비어있음",
-IF(ISERROR(VLOOKUP(J8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
@@ -4806,13 +4368,6 @@
       <c r="O8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="4" t="str">
-        <f>IF(O8="Gacha",
-IF(ISBLANK(P8),"비어있음",
-IF(ISERROR(VLOOKUP(P8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R8">
         <v>1</v>
       </c>
@@ -4825,13 +4380,6 @@
       <c r="U8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="4" t="str">
-        <f>IF(U8="Gacha",
-IF(ISBLANK(V8),"비어있음",
-IF(ISERROR(VLOOKUP(V8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X8">
         <v>1</v>
       </c>
@@ -4847,13 +4395,6 @@
       <c r="AB8">
         <v>50001</v>
       </c>
-      <c r="AC8" s="4" t="str">
-        <f>IF(AA8="Gacha",
-IF(ISBLANK(AB8),"비어있음",
-IF(ISERROR(VLOOKUP(AB8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD8">
         <v>1</v>
       </c>
@@ -4864,45 +4405,10 @@
         <v>1</v>
       </c>
       <c r="AG8" s="3"/>
-      <c r="AI8" s="4" t="str">
-        <f>IF(AG8="Gacha",
-IF(ISBLANK(AH8),"비어있음",
-IF(ISERROR(VLOOKUP(AH8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AM8" s="3"/>
-      <c r="AO8" s="4" t="str">
-        <f>IF(AM8="Gacha",
-IF(ISBLANK(AN8),"비어있음",
-IF(ISERROR(VLOOKUP(AN8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AS8" s="3"/>
-      <c r="AU8" s="4" t="str">
-        <f>IF(AS8="Gacha",
-IF(ISBLANK(AT8),"비어있음",
-IF(ISERROR(VLOOKUP(AT8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AY8" s="3"/>
-      <c r="BA8" s="4" t="str">
-        <f>IF(AY8="Gacha",
-IF(ISBLANK(AZ8),"비어있음",
-IF(ISERROR(VLOOKUP(AZ8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE8" s="3"/>
-      <c r="BG8" s="4" t="str">
-        <f>IF(BE8="Gacha",
-IF(ISBLANK(BF8),"비어있음",
-IF(ISERROR(VLOOKUP(BF8,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BL8" t="s">
         <v>69</v>
       </c>
@@ -4948,13 +4454,6 @@
       <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="4" t="str">
-        <f>IF(I9="Gacha",
-IF(ISBLANK(J9),"비어있음",
-IF(ISERROR(VLOOKUP(J9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L9">
         <v>1</v>
       </c>
@@ -4967,13 +4466,6 @@
       <c r="O9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="4" t="str">
-        <f>IF(O9="Gacha",
-IF(ISBLANK(P9),"비어있음",
-IF(ISERROR(VLOOKUP(P9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R9">
         <v>1</v>
       </c>
@@ -4986,13 +4478,6 @@
       <c r="U9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="4" t="str">
-        <f>IF(U9="Gacha",
-IF(ISBLANK(V9),"비어있음",
-IF(ISERROR(VLOOKUP(V9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X9">
         <v>1</v>
       </c>
@@ -5008,13 +4493,6 @@
       <c r="AB9">
         <v>50001</v>
       </c>
-      <c r="AC9" s="4" t="str">
-        <f>IF(AA9="Gacha",
-IF(ISBLANK(AB9),"비어있음",
-IF(ISERROR(VLOOKUP(AB9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD9">
         <v>1</v>
       </c>
@@ -5027,13 +4505,6 @@
       <c r="AG9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AI9" s="4" t="str">
-        <f>IF(AG9="Gacha",
-IF(ISBLANK(AH9),"비어있음",
-IF(ISERROR(VLOOKUP(AH9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AJ9">
         <v>0.7</v>
       </c>
@@ -5046,13 +4517,6 @@
       <c r="AM9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AO9" s="4" t="str">
-        <f>IF(AM9="Gacha",
-IF(ISBLANK(AN9),"비어있음",
-IF(ISERROR(VLOOKUP(AN9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AP9">
         <v>0.1</v>
       </c>
@@ -5063,29 +4527,8 @@
         <v>1</v>
       </c>
       <c r="AS9" s="3"/>
-      <c r="AU9" s="4" t="str">
-        <f>IF(AS9="Gacha",
-IF(ISBLANK(AT9),"비어있음",
-IF(ISERROR(VLOOKUP(AT9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AY9" s="3"/>
-      <c r="BA9" s="4" t="str">
-        <f>IF(AY9="Gacha",
-IF(ISBLANK(AZ9),"비어있음",
-IF(ISERROR(VLOOKUP(AZ9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE9" s="3"/>
-      <c r="BG9" s="4" t="str">
-        <f>IF(BE9="Gacha",
-IF(ISBLANK(BF9),"비어있음",
-IF(ISERROR(VLOOKUP(BF9,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -5158,13 +4601,6 @@
       <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="4" t="str">
-        <f>IF(I10="Gacha",
-IF(ISBLANK(J10),"비어있음",
-IF(ISERROR(VLOOKUP(J10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
@@ -5177,13 +4613,6 @@
       <c r="O10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="4" t="str">
-        <f>IF(O10="Gacha",
-IF(ISBLANK(P10),"비어있음",
-IF(ISERROR(VLOOKUP(P10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R10">
         <v>1</v>
       </c>
@@ -5196,13 +4625,6 @@
       <c r="U10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="4" t="str">
-        <f>IF(U10="Gacha",
-IF(ISBLANK(V10),"비어있음",
-IF(ISERROR(VLOOKUP(V10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X10">
         <v>1</v>
       </c>
@@ -5218,13 +4640,6 @@
       <c r="AB10">
         <v>50001</v>
       </c>
-      <c r="AC10" s="4" t="str">
-        <f>IF(AA10="Gacha",
-IF(ISBLANK(AB10),"비어있음",
-IF(ISERROR(VLOOKUP(AB10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD10">
         <v>1</v>
       </c>
@@ -5237,13 +4652,6 @@
       <c r="AG10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AI10" s="4" t="str">
-        <f>IF(AG10="Gacha",
-IF(ISBLANK(AH10),"비어있음",
-IF(ISERROR(VLOOKUP(AH10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AJ10">
         <v>0.7</v>
       </c>
@@ -5256,13 +4664,6 @@
       <c r="AM10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AO10" s="4" t="str">
-        <f>IF(AM10="Gacha",
-IF(ISBLANK(AN10),"비어있음",
-IF(ISERROR(VLOOKUP(AN10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AP10">
         <v>0.1</v>
       </c>
@@ -5278,13 +4679,6 @@
       <c r="AT10">
         <v>50001</v>
       </c>
-      <c r="AU10" s="4" t="str">
-        <f>IF(AS10="Gacha",
-IF(ISBLANK(AT10),"비어있음",
-IF(ISERROR(VLOOKUP(AT10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AV10">
         <v>0.25</v>
       </c>
@@ -5300,13 +4694,6 @@
       <c r="AZ10">
         <v>50001</v>
       </c>
-      <c r="BA10" s="4" t="str">
-        <f>IF(AY10="Gacha",
-IF(ISBLANK(AZ10),"비어있음",
-IF(ISERROR(VLOOKUP(AZ10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BB10">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5317,13 +4704,6 @@
         <v>1</v>
       </c>
       <c r="BE10" s="3"/>
-      <c r="BG10" s="4" t="str">
-        <f>IF(BE10="Gacha",
-IF(ISBLANK(BF10),"비어있음",
-IF(ISERROR(VLOOKUP(BF10,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -5356,13 +4736,6 @@
       <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="4" t="str">
-        <f>IF(I11="Gacha",
-IF(ISBLANK(J11),"비어있음",
-IF(ISERROR(VLOOKUP(J11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L11">
         <v>1</v>
       </c>
@@ -5375,13 +4748,6 @@
       <c r="O11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="4" t="str">
-        <f>IF(O11="Gacha",
-IF(ISBLANK(P11),"비어있음",
-IF(ISERROR(VLOOKUP(P11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R11">
         <v>1</v>
       </c>
@@ -5394,13 +4760,6 @@
       <c r="U11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="4" t="str">
-        <f>IF(U11="Gacha",
-IF(ISBLANK(V11),"비어있음",
-IF(ISERROR(VLOOKUP(V11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X11">
         <v>1</v>
       </c>
@@ -5416,13 +4775,6 @@
       <c r="AB11">
         <v>50001</v>
       </c>
-      <c r="AC11" s="4" t="str">
-        <f>IF(AA11="Gacha",
-IF(ISBLANK(AB11),"비어있음",
-IF(ISERROR(VLOOKUP(AB11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD11">
         <v>1</v>
       </c>
@@ -5435,13 +4787,6 @@
       <c r="AG11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AI11" s="4" t="str">
-        <f>IF(AG11="Gacha",
-IF(ISBLANK(AH11),"비어있음",
-IF(ISERROR(VLOOKUP(AH11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AJ11">
         <v>0.7</v>
       </c>
@@ -5454,13 +4799,6 @@
       <c r="AM11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AO11" s="4" t="str">
-        <f>IF(AM11="Gacha",
-IF(ISBLANK(AN11),"비어있음",
-IF(ISERROR(VLOOKUP(AN11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AP11">
         <v>0.1</v>
       </c>
@@ -5476,13 +4814,6 @@
       <c r="AT11">
         <v>50001</v>
       </c>
-      <c r="AU11" s="4" t="str">
-        <f>IF(AS11="Gacha",
-IF(ISBLANK(AT11),"비어있음",
-IF(ISERROR(VLOOKUP(AT11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AV11">
         <v>0.25</v>
       </c>
@@ -5498,13 +4829,6 @@
       <c r="AZ11">
         <v>50001</v>
       </c>
-      <c r="BA11" s="4" t="str">
-        <f>IF(AY11="Gacha",
-IF(ISBLANK(AZ11),"비어있음",
-IF(ISERROR(VLOOKUP(AZ11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BB11">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5515,13 +4839,6 @@
         <v>1</v>
       </c>
       <c r="BE11" s="3"/>
-      <c r="BG11" s="4" t="str">
-        <f>IF(BE11="Gacha",
-IF(ISBLANK(BF11),"비어있음",
-IF(ISERROR(VLOOKUP(BF11,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -5554,13 +4871,6 @@
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="4" t="str">
-        <f>IF(I12="Gacha",
-IF(ISBLANK(J12),"비어있음",
-IF(ISERROR(VLOOKUP(J12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L12">
         <v>1</v>
       </c>
@@ -5573,13 +4883,6 @@
       <c r="O12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q12" s="4" t="str">
-        <f>IF(O12="Gacha",
-IF(ISBLANK(P12),"비어있음",
-IF(ISERROR(VLOOKUP(P12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R12">
         <v>1</v>
       </c>
@@ -5592,13 +4895,6 @@
       <c r="U12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W12" s="4" t="str">
-        <f>IF(U12="Gacha",
-IF(ISBLANK(V12),"비어있음",
-IF(ISERROR(VLOOKUP(V12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X12">
         <v>1</v>
       </c>
@@ -5614,13 +4910,6 @@
       <c r="AB12">
         <v>50001</v>
       </c>
-      <c r="AC12" s="4" t="str">
-        <f>IF(AA12="Gacha",
-IF(ISBLANK(AB12),"비어있음",
-IF(ISERROR(VLOOKUP(AB12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD12">
         <v>1</v>
       </c>
@@ -5633,13 +4922,6 @@
       <c r="AG12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AI12" s="4" t="str">
-        <f>IF(AG12="Gacha",
-IF(ISBLANK(AH12),"비어있음",
-IF(ISERROR(VLOOKUP(AH12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AJ12">
         <v>0.7</v>
       </c>
@@ -5652,13 +4934,6 @@
       <c r="AM12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AO12" s="4" t="str">
-        <f>IF(AM12="Gacha",
-IF(ISBLANK(AN12),"비어있음",
-IF(ISERROR(VLOOKUP(AN12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AP12">
         <v>0.1</v>
       </c>
@@ -5674,13 +4949,6 @@
       <c r="AT12">
         <v>50001</v>
       </c>
-      <c r="AU12" s="4" t="str">
-        <f>IF(AS12="Gacha",
-IF(ISBLANK(AT12),"비어있음",
-IF(ISERROR(VLOOKUP(AT12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AV12">
         <v>0.25</v>
       </c>
@@ -5696,13 +4964,6 @@
       <c r="AZ12">
         <v>50001</v>
       </c>
-      <c r="BA12" s="4" t="str">
-        <f>IF(AY12="Gacha",
-IF(ISBLANK(AZ12),"비어있음",
-IF(ISERROR(VLOOKUP(AZ12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BB12">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5713,13 +4974,6 @@
         <v>1</v>
       </c>
       <c r="BE12" s="3"/>
-      <c r="BG12" s="4" t="str">
-        <f>IF(BE12="Gacha",
-IF(ISBLANK(BF12),"비어있음",
-IF(ISERROR(VLOOKUP(BF12,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -5795,13 +5049,6 @@
       <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="4" t="str">
-        <f>IF(I13="Gacha",
-IF(ISBLANK(J13),"비어있음",
-IF(ISERROR(VLOOKUP(J13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L13">
         <v>1</v>
       </c>
@@ -5814,52 +5061,10 @@
       <c r="O13" s="3"/>
       <c r="U13" s="3"/>
       <c r="AA13" s="3"/>
-      <c r="AC13" s="4" t="str">
-        <f>IF(AA13="Gacha",
-IF(ISBLANK(AB13),"비어있음",
-IF(ISERROR(VLOOKUP(AB13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AG13" s="3"/>
-      <c r="AI13" s="4" t="str">
-        <f>IF(AG13="Gacha",
-IF(ISBLANK(AH13),"비어있음",
-IF(ISERROR(VLOOKUP(AH13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AM13" s="3"/>
-      <c r="AO13" s="4" t="str">
-        <f>IF(AM13="Gacha",
-IF(ISBLANK(AN13),"비어있음",
-IF(ISERROR(VLOOKUP(AN13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AS13" s="3"/>
-      <c r="AU13" s="4" t="str">
-        <f>IF(AS13="Gacha",
-IF(ISBLANK(AT13),"비어있음",
-IF(ISERROR(VLOOKUP(AT13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BA13" s="4" t="str">
-        <f>IF(AY13="Gacha",
-IF(ISBLANK(AZ13),"비어있음",
-IF(ISERROR(VLOOKUP(AZ13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE13" s="3"/>
-      <c r="BG13" s="4" t="str">
-        <f>IF(BE13="Gacha",
-IF(ISBLANK(BF13),"비어있음",
-IF(ISERROR(VLOOKUP(BF13,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -5932,13 +5137,6 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="4" t="str">
-        <f>IF(I14="Gacha",
-IF(ISBLANK(J14),"비어있음",
-IF(ISERROR(VLOOKUP(J14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L14">
         <v>1</v>
       </c>
@@ -5951,13 +5149,6 @@
       <c r="O14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="4" t="str">
-        <f>IF(O14="Gacha",
-IF(ISBLANK(P14),"비어있음",
-IF(ISERROR(VLOOKUP(P14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R14">
         <v>0.7</v>
       </c>
@@ -5970,13 +5161,6 @@
       <c r="U14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="4" t="str">
-        <f>IF(U14="Gacha",
-IF(ISBLANK(V14),"비어있음",
-IF(ISERROR(VLOOKUP(V14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X14">
         <v>0.1</v>
       </c>
@@ -5987,52 +5171,10 @@
         <v>1</v>
       </c>
       <c r="AA14" s="3"/>
-      <c r="AC14" s="4" t="str">
-        <f>IF(AA14="Gacha",
-IF(ISBLANK(AB14),"비어있음",
-IF(ISERROR(VLOOKUP(AB14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AG14" s="3"/>
-      <c r="AI14" s="4" t="str">
-        <f>IF(AG14="Gacha",
-IF(ISBLANK(AH14),"비어있음",
-IF(ISERROR(VLOOKUP(AH14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AM14" s="3"/>
-      <c r="AO14" s="4" t="str">
-        <f>IF(AM14="Gacha",
-IF(ISBLANK(AN14),"비어있음",
-IF(ISERROR(VLOOKUP(AN14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AS14" s="3"/>
-      <c r="AU14" s="4" t="str">
-        <f>IF(AS14="Gacha",
-IF(ISBLANK(AT14),"비어있음",
-IF(ISERROR(VLOOKUP(AT14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BA14" s="4" t="str">
-        <f>IF(AY14="Gacha",
-IF(ISBLANK(AZ14),"비어있음",
-IF(ISERROR(VLOOKUP(AZ14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE14" s="3"/>
-      <c r="BG14" s="4" t="str">
-        <f>IF(BE14="Gacha",
-IF(ISBLANK(BF14),"비어있음",
-IF(ISERROR(VLOOKUP(BF14,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -6065,13 +5207,6 @@
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="4" t="str">
-        <f>IF(I15="Gacha",
-IF(ISBLANK(J15),"비어있음",
-IF(ISERROR(VLOOKUP(J15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L15">
         <v>1</v>
       </c>
@@ -6084,13 +5219,6 @@
       <c r="O15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="4" t="str">
-        <f>IF(O15="Gacha",
-IF(ISBLANK(P15),"비어있음",
-IF(ISERROR(VLOOKUP(P15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R15">
         <v>0.7</v>
       </c>
@@ -6103,13 +5231,6 @@
       <c r="U15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W15" s="4" t="str">
-        <f>IF(U15="Gacha",
-IF(ISBLANK(V15),"비어있음",
-IF(ISERROR(VLOOKUP(V15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X15">
         <v>0.1</v>
       </c>
@@ -6125,13 +5246,6 @@
       <c r="AB15">
         <v>50001</v>
       </c>
-      <c r="AC15" s="4" t="str">
-        <f>IF(AA15="Gacha",
-IF(ISBLANK(AB15),"비어있음",
-IF(ISERROR(VLOOKUP(AB15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD15">
         <v>0.5</v>
       </c>
@@ -6147,13 +5261,6 @@
       <c r="AH15">
         <v>50001</v>
       </c>
-      <c r="AI15" s="4" t="str">
-        <f>IF(AG15="Gacha",
-IF(ISBLANK(AH15),"비어있음",
-IF(ISERROR(VLOOKUP(AH15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AJ15">
         <v>0.1</v>
       </c>
@@ -6169,13 +5276,6 @@
       <c r="AN15">
         <v>50001</v>
       </c>
-      <c r="AO15" s="4" t="str">
-        <f>IF(AM15="Gacha",
-IF(ISBLANK(AN15),"비어있음",
-IF(ISERROR(VLOOKUP(AN15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AP15">
         <v>0.05</v>
       </c>
@@ -6186,28 +5286,7 @@
         <v>1</v>
       </c>
       <c r="AS15" s="3"/>
-      <c r="AU15" s="4" t="str">
-        <f>IF(AS15="Gacha",
-IF(ISBLANK(AT15),"비어있음",
-IF(ISERROR(VLOOKUP(AT15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BA15" s="4" t="str">
-        <f>IF(AY15="Gacha",
-IF(ISBLANK(AZ15),"비어있음",
-IF(ISERROR(VLOOKUP(AZ15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE15" s="3"/>
-      <c r="BG15" s="4" t="str">
-        <f>IF(BE15="Gacha",
-IF(ISBLANK(BF15),"비어있음",
-IF(ISERROR(VLOOKUP(BF15,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -6240,13 +5319,6 @@
       <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="4" t="str">
-        <f>IF(I16="Gacha",
-IF(ISBLANK(J16),"비어있음",
-IF(ISERROR(VLOOKUP(J16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L16">
         <v>1</v>
       </c>
@@ -6259,13 +5331,6 @@
       <c r="O16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="4" t="str">
-        <f>IF(O16="Gacha",
-IF(ISBLANK(P16),"비어있음",
-IF(ISERROR(VLOOKUP(P16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R16">
         <v>0.7</v>
       </c>
@@ -6278,13 +5343,6 @@
       <c r="U16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W16" s="4" t="str">
-        <f>IF(U16="Gacha",
-IF(ISBLANK(V16),"비어있음",
-IF(ISERROR(VLOOKUP(V16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X16">
         <v>0.1</v>
       </c>
@@ -6300,13 +5358,6 @@
       <c r="AB16">
         <v>50001</v>
       </c>
-      <c r="AC16" s="4" t="str">
-        <f>IF(AA16="Gacha",
-IF(ISBLANK(AB16),"비어있음",
-IF(ISERROR(VLOOKUP(AB16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD16">
         <v>0.5</v>
       </c>
@@ -6322,13 +5373,6 @@
       <c r="AH16">
         <v>50001</v>
       </c>
-      <c r="AI16" s="4" t="str">
-        <f>IF(AG16="Gacha",
-IF(ISBLANK(AH16),"비어있음",
-IF(ISERROR(VLOOKUP(AH16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AJ16">
         <v>0.1</v>
       </c>
@@ -6344,13 +5388,6 @@
       <c r="AN16">
         <v>50001</v>
       </c>
-      <c r="AO16" s="4" t="str">
-        <f>IF(AM16="Gacha",
-IF(ISBLANK(AN16),"비어있음",
-IF(ISERROR(VLOOKUP(AN16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AP16">
         <v>0.05</v>
       </c>
@@ -6361,30 +5398,9 @@
         <v>1</v>
       </c>
       <c r="AS16" s="3"/>
-      <c r="AU16" s="4" t="str">
-        <f>IF(AS16="Gacha",
-IF(ISBLANK(AT16),"비어있음",
-IF(ISERROR(VLOOKUP(AT16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BA16" s="4" t="str">
-        <f>IF(AY16="Gacha",
-IF(ISBLANK(AZ16),"비어있음",
-IF(ISERROR(VLOOKUP(AZ16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE16" s="3"/>
-      <c r="BG16" s="4" t="str">
-        <f>IF(BE16="Gacha",
-IF(ISBLANK(BF16),"비어있음",
-IF(ISERROR(VLOOKUP(BF16,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6004</v>
       </c>
@@ -6415,13 +5431,6 @@
       <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="4" t="str">
-        <f>IF(I17="Gacha",
-IF(ISBLANK(J17),"비어있음",
-IF(ISERROR(VLOOKUP(J17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
@@ -6434,13 +5443,6 @@
       <c r="O17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="4" t="str">
-        <f>IF(O17="Gacha",
-IF(ISBLANK(P17),"비어있음",
-IF(ISERROR(VLOOKUP(P17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="R17">
         <v>0.7</v>
       </c>
@@ -6453,13 +5455,6 @@
       <c r="U17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W17" s="4" t="str">
-        <f>IF(U17="Gacha",
-IF(ISBLANK(V17),"비어있음",
-IF(ISERROR(VLOOKUP(V17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="X17">
         <v>0.1</v>
       </c>
@@ -6475,13 +5470,6 @@
       <c r="AB17">
         <v>50001</v>
       </c>
-      <c r="AC17" s="4" t="str">
-        <f>IF(AA17="Gacha",
-IF(ISBLANK(AB17),"비어있음",
-IF(ISERROR(VLOOKUP(AB17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AD17">
         <v>0.5</v>
       </c>
@@ -6497,13 +5485,6 @@
       <c r="AH17">
         <v>50001</v>
       </c>
-      <c r="AI17" s="4" t="str">
-        <f>IF(AG17="Gacha",
-IF(ISBLANK(AH17),"비어있음",
-IF(ISERROR(VLOOKUP(AH17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AJ17">
         <v>0.1</v>
       </c>
@@ -6519,13 +5500,6 @@
       <c r="AN17">
         <v>50001</v>
       </c>
-      <c r="AO17" s="4" t="str">
-        <f>IF(AM17="Gacha",
-IF(ISBLANK(AN17),"비어있음",
-IF(ISERROR(VLOOKUP(AN17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="AP17">
         <v>0.05</v>
       </c>
@@ -6536,28 +5510,7 @@
         <v>1</v>
       </c>
       <c r="AS17" s="3"/>
-      <c r="AU17" s="4" t="str">
-        <f>IF(AS17="Gacha",
-IF(ISBLANK(AT17),"비어있음",
-IF(ISERROR(VLOOKUP(AT17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
-      <c r="BA17" s="4" t="str">
-        <f>IF(AY17="Gacha",
-IF(ISBLANK(AZ17),"비어있음",
-IF(ISERROR(VLOOKUP(AZ17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
       <c r="BE17" s="3"/>
-      <c r="BG17" s="4" t="str">
-        <f>IF(BE17="Gacha",
-IF(ISBLANK(BF17),"비어있음",
-IF(ISERROR(VLOOKUP(BF17,[1]GachaTable!$A:$A,1,0)),"가챠없음","")),
-"")</f>
-        <v/>
-      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BP9">
@@ -6580,7 +5533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F446BF-3A16-4AF8-83EB-58CC9CFE4AFE}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6DFCB6-D4E0-48BD-96EB-4D97C0B87865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4EE555-D9C6-4C92-982C-320EE5F13CFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
-    <sheet name="DropAdjustTable" sheetId="2" r:id="rId2"/>
-    <sheet name="드랍규칙" sheetId="3" r:id="rId3"/>
+    <sheet name="드랍규칙" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2442,146 +2441,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Hoohoo</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B185C483-0729-4D69-8275-F8572A7C29E7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>전설</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>드랍</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>내부조정으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>골든키의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맥스치는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>운영툴에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적는다</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2788,14 +2649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adjust|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remainCount|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelPack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2844,27 +2697,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하루 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 사이드에서 정수로만 쓸 수 있으니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초입금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한번 소모</t>
+    <t>e</t>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3288,61 +3124,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BR17"/>
+  <dimension ref="A1:BS17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="51.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="51.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9" collapsed="1"/>
+    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="9" collapsed="1"/>
+    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="9" collapsed="1"/>
+    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3575,7 +3415,7 @@
         <v>9752476</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2" si="0">IF(ISBLANK(I2),"",I2)
@@ -3713,7 +3553,7 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3" si="7">IF(ISBLANK(I3),"",I3)
@@ -4018,7 +3858,7 @@
 &amp;IF(ISBLANK(AS5),"",", "&amp;AT5)
 &amp;IF(ISBLANK(AY5),"",", "&amp;AZ5)
 &amp;IF(ISBLANK(BE5),"",", "&amp;BF5)</f>
-        <v>, , , 10001</v>
+        <v>, , , e</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" ref="F5:F8" si="20">IF(ISBLANK(L5),"",L5)
@@ -4095,8 +3935,8 @@
       <c r="AA5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AB5">
-        <v>10001</v>
+      <c r="AB5" t="s">
+        <v>75</v>
       </c>
       <c r="AD5">
         <v>1E-3</v>
@@ -4140,7 +3980,7 @@
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>, , , 10001</v>
+        <v>, , , e</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="20"/>
@@ -4193,8 +4033,8 @@
       <c r="AA6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AB6">
-        <v>10001</v>
+      <c r="AB6" t="s">
+        <v>75</v>
       </c>
       <c r="AD6">
         <v>1E-3</v>
@@ -4238,7 +4078,7 @@
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>, , , 10001</v>
+        <v>, , , e</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="20"/>
@@ -4291,8 +4131,8 @@
       <c r="AA7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AB7">
-        <v>10001</v>
+      <c r="AB7" t="s">
+        <v>75</v>
       </c>
       <c r="AD7">
         <v>1E-3</v>
@@ -4312,7 +4152,7 @@
         <v>14</v>
       </c>
       <c r="BN7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BO7">
         <v>7</v>
@@ -4327,7 +4167,7 @@
         <v>5000</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="18"/>
@@ -4339,7 +4179,7 @@
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>, , , 50001</v>
+        <v xml:space="preserve">, , , </v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="20"/>
@@ -4390,10 +4230,7 @@
         <v>2</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB8">
-        <v>50001</v>
+        <v>63</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -4410,7 +4247,7 @@
       <c r="AY8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="BL8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BN8" t="s">
         <v>9</v>
@@ -4437,7 +4274,7 @@
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">, , , 50001, , </v>
+        <v xml:space="preserve">, , , , , </v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4488,10 +4325,7 @@
         <v>2</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB9">
-        <v>50001</v>
+        <v>63</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -4503,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AJ9">
         <v>0.7</v>
@@ -4515,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AP9">
         <v>0.1</v>
@@ -4560,7 +4394,7 @@
 &amp;IF(ISBLANK(AS10),"",", "&amp;AT10)
 &amp;IF(ISBLANK(AY10),"",", "&amp;AZ10)
 &amp;IF(ISBLANK(BE10),"",", "&amp;BF10)</f>
-        <v>, , , 50001, , , 50001, 50001</v>
+        <v>, , , , , , e, e</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" ref="F10:F12" si="25">IF(ISBLANK(L10),"",L10)
@@ -4635,10 +4469,7 @@
         <v>2</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB10">
-        <v>50001</v>
+        <v>63</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -4650,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AJ10">
         <v>0.7</v>
@@ -4662,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AP10">
         <v>0.1</v>
@@ -4676,8 +4507,8 @@
       <c r="AS10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AT10">
-        <v>50001</v>
+      <c r="AT10" t="s">
+        <v>75</v>
       </c>
       <c r="AV10">
         <v>0.25</v>
@@ -4691,8 +4522,8 @@
       <c r="AY10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AZ10">
-        <v>50001</v>
+      <c r="AZ10" t="s">
+        <v>76</v>
       </c>
       <c r="BB10">
         <v>2.5000000000000001E-2</v>
@@ -4719,7 +4550,7 @@
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>, , , 50001, , , 50001, 50001</v>
+        <v>, , , , , , e, e</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="25"/>
@@ -4770,10 +4601,7 @@
         <v>2</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB11">
-        <v>50001</v>
+        <v>63</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -4785,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AJ11">
         <v>0.7</v>
@@ -4797,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AP11">
         <v>0.1</v>
@@ -4811,8 +4639,8 @@
       <c r="AS11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AT11">
-        <v>50001</v>
+      <c r="AT11" t="s">
+        <v>75</v>
       </c>
       <c r="AV11">
         <v>0.25</v>
@@ -4826,8 +4654,8 @@
       <c r="AY11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AZ11">
-        <v>50001</v>
+      <c r="AZ11" t="s">
+        <v>76</v>
       </c>
       <c r="BB11">
         <v>2.5000000000000001E-2</v>
@@ -4854,7 +4682,7 @@
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>, , , 50001, , , 50001, 50001</v>
+        <v>, , , , , , e, e</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="25"/>
@@ -4905,10 +4733,7 @@
         <v>2</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB12">
-        <v>50001</v>
+        <v>63</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -4920,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AJ12">
         <v>0.7</v>
@@ -4932,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AP12">
         <v>0.1</v>
@@ -4946,8 +4771,8 @@
       <c r="AS12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AT12">
-        <v>50001</v>
+      <c r="AT12" t="s">
+        <v>75</v>
       </c>
       <c r="AV12">
         <v>0.25</v>
@@ -4961,8 +4786,8 @@
       <c r="AY12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AZ12">
-        <v>50001</v>
+      <c r="AZ12" t="s">
+        <v>76</v>
       </c>
       <c r="BB12">
         <v>2.5000000000000001E-2</v>
@@ -4980,7 +4805,7 @@
         <v>6000</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ref="C13" si="28">IF(ISBLANK(I13),"",I13)
@@ -5147,7 +4972,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R14">
         <v>0.7</v>
@@ -5159,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X14">
         <v>0.1</v>
@@ -5190,7 +5015,7 @@
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>, , , 50001, 50001, 50001</v>
+        <v>, , , e, e, e</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="35"/>
@@ -5217,7 +5042,7 @@
         <v>0.68500000000000005</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R15">
         <v>0.7</v>
@@ -5229,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X15">
         <v>0.1</v>
@@ -5243,8 +5068,8 @@
       <c r="AA15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AB15">
-        <v>50001</v>
+      <c r="AB15" t="s">
+        <v>75</v>
       </c>
       <c r="AD15">
         <v>0.5</v>
@@ -5258,8 +5083,8 @@
       <c r="AG15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AH15">
-        <v>50001</v>
+      <c r="AH15" t="s">
+        <v>75</v>
       </c>
       <c r="AJ15">
         <v>0.1</v>
@@ -5273,8 +5098,8 @@
       <c r="AM15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AN15">
-        <v>50001</v>
+      <c r="AN15" t="s">
+        <v>75</v>
       </c>
       <c r="AP15">
         <v>0.05</v>
@@ -5302,7 +5127,7 @@
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>, , , 50001, 50001, 50001</v>
+        <v>, , , e, e, e</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="35"/>
@@ -5329,7 +5154,7 @@
         <v>0.72</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R16">
         <v>0.7</v>
@@ -5341,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X16">
         <v>0.1</v>
@@ -5355,8 +5180,8 @@
       <c r="AA16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AB16">
-        <v>50001</v>
+      <c r="AB16" t="s">
+        <v>75</v>
       </c>
       <c r="AD16">
         <v>0.5</v>
@@ -5370,8 +5195,8 @@
       <c r="AG16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AH16">
-        <v>50001</v>
+      <c r="AH16" t="s">
+        <v>75</v>
       </c>
       <c r="AJ16">
         <v>0.1</v>
@@ -5385,8 +5210,8 @@
       <c r="AM16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AN16">
-        <v>50001</v>
+      <c r="AN16" t="s">
+        <v>75</v>
       </c>
       <c r="AP16">
         <v>0.05</v>
@@ -5414,7 +5239,7 @@
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>, , , 50001, 50001, 50001</v>
+        <v>, , , e, e, e</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="35"/>
@@ -5441,7 +5266,7 @@
         <v>0.755</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R17">
         <v>0.7</v>
@@ -5453,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X17">
         <v>0.1</v>
@@ -5467,8 +5292,8 @@
       <c r="AA17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AB17">
-        <v>50001</v>
+      <c r="AB17" t="s">
+        <v>75</v>
       </c>
       <c r="AD17">
         <v>0.5</v>
@@ -5482,8 +5307,8 @@
       <c r="AG17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AH17">
-        <v>50001</v>
+      <c r="AH17" t="s">
+        <v>75</v>
       </c>
       <c r="AJ17">
         <v>0.1</v>
@@ -5497,8 +5322,8 @@
       <c r="AM17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AN17">
-        <v>50001</v>
+      <c r="AN17" t="s">
+        <v>75</v>
       </c>
       <c r="AP17">
         <v>0.05</v>
@@ -5530,149 +5355,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F446BF-3A16-4AF8-83EB-58CC9CFE4AFE}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2">
-        <v>1.3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B8" si="0">B2/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7">
-        <v>70</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F0AB79-C825-4F18-BA6C-94FFE1CA0F6E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -5687,7 +5369,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5695,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5703,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5711,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5719,7 +5401,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5727,7 +5409,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4EE555-D9C6-4C92-982C-320EE5F13CFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C8F7F-0A60-4A1D-B929-6AE5A9D64161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
-    <sheet name="드랍규칙" sheetId="3" r:id="rId2"/>
+    <sheet name="NotCharTable" sheetId="4" r:id="rId2"/>
+    <sheet name="드랍규칙" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2441,8 +2442,337 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C4DAB7BA-6536-46A6-A943-3FC420DA7127}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적어두고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넘기면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>치트로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>간주된다
+여기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경되면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코드를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고쳐야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="100">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2701,6 +3031,93 @@
   </si>
   <si>
     <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accumulateMin|Int</t>
+  </si>
+  <si>
+    <t>accumulateMax|Int</t>
+  </si>
+  <si>
+    <t>adjustProb|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비1상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gacha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wkdql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wkdwkdql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비8상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoflr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭1오리진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭3오리진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭10오리진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoflrflr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zozoflr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>PowerPoint</t>
+  </si>
+  <si>
+    <t>PowerPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2708,7 +3125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2753,6 +3170,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2788,7 +3213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2808,6 +3233,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3124,13 +3552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS17"/>
+  <dimension ref="A1:CD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3430,7 +3858,7 @@
         <v>Ultimate</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D17" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3463,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2" si="2">IF(ISBLANK(J2),"",J2)
+        <f t="shared" ref="E2" si="1">IF(ISBLANK(J2),"",J2)
 &amp;IF(ISBLANK(O2),"",", "&amp;P2)
 &amp;IF(ISBLANK(U2),"",", "&amp;V2)
 &amp;IF(ISBLANK(AA2),"",", "&amp;AB2)
@@ -3475,7 +3903,7 @@
         <v/>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2" si="3">IF(ISBLANK(L2),"",L2)
+        <f t="shared" ref="F2" si="2">IF(ISBLANK(L2),"",L2)
 &amp;IF(ISBLANK(R2),"",", "&amp;R2)
 &amp;IF(ISBLANK(X2),"",", "&amp;X2)
 &amp;IF(ISBLANK(AD2),"",", "&amp;AD2)
@@ -3487,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2" si="4">IF(ISBLANK(M2),"",M2)
+        <f t="shared" ref="G2" si="3">IF(ISBLANK(M2),"",M2)
 &amp;IF(ISBLANK(S2),"",", "&amp;S2)
 &amp;IF(ISBLANK(Y2),"",", "&amp;Y2)
 &amp;IF(ISBLANK(AE2),"",", "&amp;AE2)
@@ -3499,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2" si="5">IF(ISBLANK(N2),"",N2)
+        <f t="shared" ref="H2" si="4">IF(ISBLANK(N2),"",N2)
 &amp;IF(ISBLANK(T2),"",", "&amp;T2)
 &amp;IF(ISBLANK(Z2),"",", "&amp;Z2)
 &amp;IF(ISBLANK(AF2),"",", "&amp;AF2)
@@ -3534,14 +3962,14 @@
         <v>9</v>
       </c>
       <c r="BN2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="BO2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BP2">
-        <f t="shared" ref="BP2:BP8" si="6">LEN(BN2)</f>
-        <v>9</v>
+        <f>LEN(BN2)</f>
+        <v>10</v>
       </c>
       <c r="BR2" t="str">
         <f ca="1">IFERROR(HLOOKUP("내림차순 정렬할 것",$1:$1,1,0),"")</f>
@@ -3556,7 +3984,7 @@
         <v>64</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3" si="7">IF(ISBLANK(I3),"",I3)
+        <f t="shared" ref="C3" si="5">IF(ISBLANK(I3),"",I3)
 &amp;IF(ISBLANK(O3),"",", "&amp;O3)
 &amp;IF(ISBLANK(U3),"",", "&amp;U3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AA3)
@@ -3568,7 +3996,7 @@
         <v>Gold, Exp, Heart</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3" ca="1" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3601,7 +4029,7 @@
         <v>2, 1, 4</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3" si="9">IF(ISBLANK(J3),"",J3)
+        <f t="shared" ref="E3" si="6">IF(ISBLANK(J3),"",J3)
 &amp;IF(ISBLANK(O3),"",", "&amp;P3)
 &amp;IF(ISBLANK(U3),"",", "&amp;V3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AB3)
@@ -3613,7 +4041,7 @@
         <v xml:space="preserve">, , </v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3" si="10">IF(ISBLANK(L3),"",L3)
+        <f t="shared" ref="F3" si="7">IF(ISBLANK(L3),"",L3)
 &amp;IF(ISBLANK(R3),"",", "&amp;R3)
 &amp;IF(ISBLANK(X3),"",", "&amp;X3)
 &amp;IF(ISBLANK(AD3),"",", "&amp;AD3)
@@ -3625,7 +4053,7 @@
         <v>1, 1, 0.075</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3" si="11">IF(ISBLANK(M3),"",M3)
+        <f t="shared" ref="G3" si="8">IF(ISBLANK(M3),"",M3)
 &amp;IF(ISBLANK(S3),"",", "&amp;S3)
 &amp;IF(ISBLANK(Y3),"",", "&amp;Y3)
 &amp;IF(ISBLANK(AE3),"",", "&amp;AE3)
@@ -3637,7 +4065,7 @@
         <v>0.015, 5, 1</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3" si="12">IF(ISBLANK(N3),"",N3)
+        <f t="shared" ref="H3" si="9">IF(ISBLANK(N3),"",N3)
 &amp;IF(ISBLANK(T3),"",", "&amp;T3)
 &amp;IF(ISBLANK(Z3),"",", "&amp;Z3)
 &amp;IF(ISBLANK(AF3),"",", "&amp;AF3)
@@ -3694,14 +4122,14 @@
         <v>10</v>
       </c>
       <c r="BN3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BO3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BP3">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f>LEN(BN3)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.3">
@@ -3709,7 +4137,7 @@
         <v>1001</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C9" si="13">IF(ISBLANK(I4),"",I4)
+        <f t="shared" ref="C4:C9" si="10">IF(ISBLANK(I4),"",I4)
 &amp;IF(ISBLANK(O4),"",", "&amp;O4)
 &amp;IF(ISBLANK(U4),"",", "&amp;U4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AA4)
@@ -3721,11 +4149,40 @@
         <v>Gold, Exp, Heart</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>2, 1, 4</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E9" si="14">IF(ISBLANK(J4),"",J4)
+        <f t="shared" ref="E4:E9" si="11">IF(ISBLANK(J4),"",J4)
 &amp;IF(ISBLANK(O4),"",", "&amp;P4)
 &amp;IF(ISBLANK(U4),"",", "&amp;V4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AB4)
@@ -3737,7 +4194,7 @@
         <v xml:space="preserve">, , </v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F9" si="15">IF(ISBLANK(L4),"",L4)
+        <f t="shared" ref="F4:F9" si="12">IF(ISBLANK(L4),"",L4)
 &amp;IF(ISBLANK(R4),"",", "&amp;R4)
 &amp;IF(ISBLANK(X4),"",", "&amp;X4)
 &amp;IF(ISBLANK(AD4),"",", "&amp;AD4)
@@ -3749,7 +4206,7 @@
         <v>1, 1, 0.075</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G9" si="16">IF(ISBLANK(M4),"",M4)
+        <f t="shared" ref="G4:G9" si="13">IF(ISBLANK(M4),"",M4)
 &amp;IF(ISBLANK(S4),"",", "&amp;S4)
 &amp;IF(ISBLANK(Y4),"",", "&amp;Y4)
 &amp;IF(ISBLANK(AE4),"",", "&amp;AE4)
@@ -3761,7 +4218,7 @@
         <v>0.05, 5, 1</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H9" si="17">IF(ISBLANK(N4),"",N4)
+        <f t="shared" ref="H4:H9" si="14">IF(ISBLANK(N4),"",N4)
 &amp;IF(ISBLANK(T4),"",", "&amp;T4)
 &amp;IF(ISBLANK(Z4),"",", "&amp;Z4)
 &amp;IF(ISBLANK(AF4),"",", "&amp;AF4)
@@ -3818,14 +4275,14 @@
         <v>11</v>
       </c>
       <c r="BN4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BO4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BP4">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>LEN(BN4)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.3">
@@ -3833,7 +4290,7 @@
         <v>1002</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C8" si="18">IF(ISBLANK(I5),"",I5)
+        <f t="shared" ref="C5:C8" si="15">IF(ISBLANK(I5),"",I5)
 &amp;IF(ISBLANK(O5),"",", "&amp;O5)
 &amp;IF(ISBLANK(U5),"",", "&amp;U5)
 &amp;IF(ISBLANK(AA5),"",", "&amp;AA5)
@@ -3845,11 +4302,40 @@
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E8" si="19">IF(ISBLANK(J5),"",J5)
+        <f t="shared" ref="E5:E8" si="16">IF(ISBLANK(J5),"",J5)
 &amp;IF(ISBLANK(O5),"",", "&amp;P5)
 &amp;IF(ISBLANK(U5),"",", "&amp;V5)
 &amp;IF(ISBLANK(AA5),"",", "&amp;AB5)
@@ -3861,7 +4347,7 @@
         <v>, , , e</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" ref="F5:F8" si="20">IF(ISBLANK(L5),"",L5)
+        <f t="shared" ref="F5:F8" si="17">IF(ISBLANK(L5),"",L5)
 &amp;IF(ISBLANK(R5),"",", "&amp;R5)
 &amp;IF(ISBLANK(X5),"",", "&amp;X5)
 &amp;IF(ISBLANK(AD5),"",", "&amp;AD5)
@@ -3873,7 +4359,7 @@
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5:G8" si="21">IF(ISBLANK(M5),"",M5)
+        <f t="shared" ref="G5:G8" si="18">IF(ISBLANK(M5),"",M5)
 &amp;IF(ISBLANK(S5),"",", "&amp;S5)
 &amp;IF(ISBLANK(Y5),"",", "&amp;Y5)
 &amp;IF(ISBLANK(AE5),"",", "&amp;AE5)
@@ -3885,7 +4371,7 @@
         <v>0.085, 5, 1, 1</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H8" si="22">IF(ISBLANK(N5),"",N5)
+        <f t="shared" ref="H5:H8" si="19">IF(ISBLANK(N5),"",N5)
 &amp;IF(ISBLANK(T5),"",", "&amp;T5)
 &amp;IF(ISBLANK(Z5),"",", "&amp;Z5)
 &amp;IF(ISBLANK(AF5),"",", "&amp;AF5)
@@ -3956,14 +4442,14 @@
         <v>12</v>
       </c>
       <c r="BN5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="BO5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BP5">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>LEN(BN5)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.3">
@@ -3971,27 +4457,56 @@
         <v>1003</v>
       </c>
       <c r="C6" t="str">
+        <f t="shared" si="15"/>
+        <v>Gold, Exp, Heart, Gacha</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 1, 4, 5</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>, , , e</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1, 1, 0.075, 0.001</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Gold, Exp, Heart, Gacha</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 5</v>
-      </c>
-      <c r="E6" s="1" t="str">
+        <v>0.12, 5, 1, 1</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>, , , e</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>1, 1, 0.075, 0.001</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>0.12, 5, 1, 1</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="22"/>
         <v>0.72, 5, 1, 1</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -4054,14 +4569,14 @@
         <v>13</v>
       </c>
       <c r="BN6" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="BO6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BP6">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>LEN(BN6)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.3">
@@ -4069,27 +4584,56 @@
         <v>1004</v>
       </c>
       <c r="C7" t="str">
+        <f t="shared" si="15"/>
+        <v>Gold, Exp, Heart, Gacha</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 1, 4, 5</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>, , , e</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1, 1, 0.075, 0.001</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Gold, Exp, Heart, Gacha</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 5</v>
-      </c>
-      <c r="E7" s="1" t="str">
+        <v>0.155, 5, 1, 1</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>, , , e</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>1, 1, 0.075, 0.001</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>0.155, 5, 1, 1</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="22"/>
         <v>0.755, 5, 1, 1</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -4152,14 +4696,14 @@
         <v>14</v>
       </c>
       <c r="BN7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="BO7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BP7">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>LEN(BN7)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.3">
@@ -4170,27 +4714,56 @@
         <v>65</v>
       </c>
       <c r="C8" t="str">
+        <f t="shared" si="15"/>
+        <v>Gold, Exp, Heart, LevelPack</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 1, 4, 3</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">, , , </v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1, 1, 1, 1</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Gold, Exp, Heart, LevelPack</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3</v>
-      </c>
-      <c r="E8" s="1" t="str">
+        <v>0.015, 100, 2, 1</v>
+      </c>
+      <c r="H8" s="1" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">, , , </v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>1, 1, 1, 1</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>0.015, 100, 2, 1</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="22"/>
         <v>0.145, 100, 2, 1</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -4250,14 +4823,14 @@
         <v>67</v>
       </c>
       <c r="BN8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BP8">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>LEN(BN8)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.3">
@@ -4265,27 +4838,56 @@
         <v>5001</v>
       </c>
       <c r="C9" t="str">
+        <f t="shared" si="10"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 1, 4, 3, 7, 7</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">, , , , , </v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1, 1, 1, 1, 0.7, 0.1</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7</v>
-      </c>
-      <c r="E9" s="1" t="str">
+        <v>0.05, 100, 2, 1, 1, 1</v>
+      </c>
+      <c r="H9" s="1" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">, , , , , </v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>1, 1, 1, 1, 0.7, 0.1</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>0.05, 100, 2, 1, 1, 1</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="17"/>
         <v>0.65, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -4363,13 +4965,26 @@
       <c r="AS9" s="3"/>
       <c r="AY9" s="3"/>
       <c r="BE9" s="3"/>
+      <c r="BL9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO9">
+        <v>2</v>
+      </c>
+      <c r="BP9">
+        <f>LEN(BN9)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5002</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C12" si="23">IF(ISBLANK(I10),"",I10)
+        <f t="shared" ref="C10:C12" si="20">IF(ISBLANK(I10),"",I10)
 &amp;IF(ISBLANK(O10),"",", "&amp;O10)
 &amp;IF(ISBLANK(U10),"",", "&amp;U10)
 &amp;IF(ISBLANK(AA10),"",", "&amp;AA10)
@@ -4381,11 +4996,40 @@
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C10,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" ref="E10:E12" si="24">IF(ISBLANK(J10),"",J10)
+        <f t="shared" ref="E10:E12" si="21">IF(ISBLANK(J10),"",J10)
 &amp;IF(ISBLANK(O10),"",", "&amp;P10)
 &amp;IF(ISBLANK(U10),"",", "&amp;V10)
 &amp;IF(ISBLANK(AA10),"",", "&amp;AB10)
@@ -4397,7 +5041,7 @@
         <v>, , , , , , e, e</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10:F12" si="25">IF(ISBLANK(L10),"",L10)
+        <f t="shared" ref="F10:F12" si="22">IF(ISBLANK(L10),"",L10)
 &amp;IF(ISBLANK(R10),"",", "&amp;R10)
 &amp;IF(ISBLANK(X10),"",", "&amp;X10)
 &amp;IF(ISBLANK(AD10),"",", "&amp;AD10)
@@ -4409,7 +5053,7 @@
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G12" si="26">IF(ISBLANK(M10),"",M10)
+        <f t="shared" ref="G10:G12" si="23">IF(ISBLANK(M10),"",M10)
 &amp;IF(ISBLANK(S10),"",", "&amp;S10)
 &amp;IF(ISBLANK(Y10),"",", "&amp;Y10)
 &amp;IF(ISBLANK(AE10),"",", "&amp;AE10)
@@ -4421,7 +5065,7 @@
         <v>0.085, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" ref="H10:H12" si="27">IF(ISBLANK(N10),"",N10)
+        <f t="shared" ref="H10:H12" si="24">IF(ISBLANK(N10),"",N10)
 &amp;IF(ISBLANK(T10),"",", "&amp;T10)
 &amp;IF(ISBLANK(Z10),"",", "&amp;Z10)
 &amp;IF(ISBLANK(AF10),"",", "&amp;AF10)
@@ -4535,33 +5179,75 @@
         <v>1</v>
       </c>
       <c r="BE10" s="3"/>
+      <c r="BL10" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO10">
+        <v>7</v>
+      </c>
+      <c r="BP10">
+        <f>LEN(BN10)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5003</v>
       </c>
       <c r="C11" t="str">
+        <f t="shared" si="20"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C11,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>, , , , , , e, e</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f t="shared" si="23"/>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
-      </c>
-      <c r="E11" s="1" t="str">
+        <v>0.12, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H11" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>, , , , , , e, e</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>0.12, 100, 2, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="27"/>
         <v>0.72, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -4667,33 +5353,75 @@
         <v>1</v>
       </c>
       <c r="BE11" s="3"/>
+      <c r="BL11" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BP11">
+        <f>LEN(BN11)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5004</v>
       </c>
       <c r="C12" t="str">
+        <f t="shared" si="20"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>, , , , , , e, e</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <f t="shared" si="23"/>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
-      </c>
-      <c r="E12" s="1" t="str">
+        <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H12" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>, , , , , , e, e</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="27"/>
         <v>0.755, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -4808,7 +5536,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13" si="28">IF(ISBLANK(I13),"",I13)
+        <f t="shared" ref="C13" si="25">IF(ISBLANK(I13),"",I13)
 &amp;IF(ISBLANK(O13),"",", "&amp;O13)
 &amp;IF(ISBLANK(U13),"",", "&amp;U13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AA13)
@@ -4820,11 +5548,40 @@
         <v>Gold</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C13,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>2</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13" si="29">IF(ISBLANK(J13),"",J13)
+        <f t="shared" ref="E13" si="26">IF(ISBLANK(J13),"",J13)
 &amp;IF(ISBLANK(O13),"",", "&amp;P13)
 &amp;IF(ISBLANK(U13),"",", "&amp;V13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AB13)
@@ -4836,7 +5593,7 @@
         <v/>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13" si="30">IF(ISBLANK(L13),"",L13)
+        <f t="shared" ref="F13" si="27">IF(ISBLANK(L13),"",L13)
 &amp;IF(ISBLANK(R13),"",", "&amp;R13)
 &amp;IF(ISBLANK(X13),"",", "&amp;X13)
 &amp;IF(ISBLANK(AD13),"",", "&amp;AD13)
@@ -4848,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13" si="31">IF(ISBLANK(M13),"",M13)
+        <f t="shared" ref="G13" si="28">IF(ISBLANK(M13),"",M13)
 &amp;IF(ISBLANK(S13),"",", "&amp;S13)
 &amp;IF(ISBLANK(Y13),"",", "&amp;Y13)
 &amp;IF(ISBLANK(AE13),"",", "&amp;AE13)
@@ -4860,7 +5617,7 @@
         <v>0.015</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13" si="32">IF(ISBLANK(N13),"",N13)
+        <f t="shared" ref="H13" si="29">IF(ISBLANK(N13),"",N13)
 &amp;IF(ISBLANK(T13),"",", "&amp;T13)
 &amp;IF(ISBLANK(Z13),"",", "&amp;Z13)
 &amp;IF(ISBLANK(AF13),"",", "&amp;AF13)
@@ -4896,7 +5653,7 @@
         <v>6001</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ref="C14:C17" si="33">IF(ISBLANK(I14),"",I14)
+        <f t="shared" ref="C14:C17" si="30">IF(ISBLANK(I14),"",I14)
 &amp;IF(ISBLANK(O14),"",", "&amp;O14)
 &amp;IF(ISBLANK(U14),"",", "&amp;U14)
 &amp;IF(ISBLANK(AA14),"",", "&amp;AA14)
@@ -4908,11 +5665,40 @@
         <v>Gold, Seal, Seal</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C14,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>2, 7, 7</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" ref="E14:E17" si="34">IF(ISBLANK(J14),"",J14)
+        <f t="shared" ref="E14:E17" si="31">IF(ISBLANK(J14),"",J14)
 &amp;IF(ISBLANK(O14),"",", "&amp;P14)
 &amp;IF(ISBLANK(U14),"",", "&amp;V14)
 &amp;IF(ISBLANK(AA14),"",", "&amp;AB14)
@@ -4924,7 +5710,7 @@
         <v xml:space="preserve">, , </v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" ref="F14:F17" si="35">IF(ISBLANK(L14),"",L14)
+        <f t="shared" ref="F14:F17" si="32">IF(ISBLANK(L14),"",L14)
 &amp;IF(ISBLANK(R14),"",", "&amp;R14)
 &amp;IF(ISBLANK(X14),"",", "&amp;X14)
 &amp;IF(ISBLANK(AD14),"",", "&amp;AD14)
@@ -4936,7 +5722,7 @@
         <v>1, 0.7, 0.1</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" ref="G14:G17" si="36">IF(ISBLANK(M14),"",M14)
+        <f t="shared" ref="G14:G17" si="33">IF(ISBLANK(M14),"",M14)
 &amp;IF(ISBLANK(S14),"",", "&amp;S14)
 &amp;IF(ISBLANK(Y14),"",", "&amp;Y14)
 &amp;IF(ISBLANK(AE14),"",", "&amp;AE14)
@@ -4948,7 +5734,7 @@
         <v>0.05, 1, 1</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" ref="H14:H17" si="37">IF(ISBLANK(N14),"",N14)
+        <f t="shared" ref="H14:H17" si="34">IF(ISBLANK(N14),"",N14)
 &amp;IF(ISBLANK(T14),"",", "&amp;T14)
 &amp;IF(ISBLANK(Z14),"",", "&amp;Z14)
 &amp;IF(ISBLANK(AF14),"",", "&amp;AF14)
@@ -5006,27 +5792,56 @@
         <v>6002</v>
       </c>
       <c r="C15" t="str">
+        <f t="shared" si="30"/>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C15,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 7, 7, 5, 5, 5</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>, , , e, e, e</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f t="shared" si="33"/>
-        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7, 5, 5, 5</v>
-      </c>
-      <c r="E15" s="1" t="str">
+        <v>0.085, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H15" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>, , , e, e, e</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="36"/>
-        <v>0.085, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="37"/>
         <v>0.685, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -5118,27 +5933,56 @@
         <v>6003</v>
       </c>
       <c r="C16" t="str">
+        <f t="shared" si="30"/>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C16,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 7, 7, 5, 5, 5</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>, , , e, e, e</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f t="shared" si="33"/>
-        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7, 5, 5, 5</v>
-      </c>
-      <c r="E16" s="1" t="str">
+        <v>0.12, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H16" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>, , , e, e, e</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f t="shared" si="36"/>
-        <v>0.12, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="37"/>
         <v>0.72, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -5225,32 +6069,61 @@
       <c r="AS16" s="3"/>
       <c r="BE16" s="3"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6004</v>
       </c>
       <c r="C17" t="str">
+        <f t="shared" si="30"/>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 7, 7, 5, 5, 5</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>, , , e, e, e</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f t="shared" si="33"/>
-        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7, 5, 5, 5</v>
-      </c>
-      <c r="E17" s="1" t="str">
+        <v>0.155, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H17" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>, , , e, e, e</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f t="shared" si="36"/>
-        <v>0.155, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="37"/>
         <v>0.755, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -5337,14 +6210,818 @@
       <c r="AS17" s="3"/>
       <c r="BE17" s="3"/>
     </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ref="C18" si="35">IF(ISBLANK(I18),"",I18)
+&amp;IF(ISBLANK(O18),"",", "&amp;O18)
+&amp;IF(ISBLANK(U18),"",", "&amp;U18)
+&amp;IF(ISBLANK(AA18),"",", "&amp;AA18)
+&amp;IF(ISBLANK(AG18),"",", "&amp;AG18)
+&amp;IF(ISBLANK(AM18),"",", "&amp;AM18)
+&amp;IF(ISBLANK(AS18),"",", "&amp;AS18)
+&amp;IF(ISBLANK(AY18),"",", "&amp;AY18)
+&amp;IF(ISBLANK(BE18),"",", "&amp;BE18)</f>
+        <v>Gacha</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C18,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" ref="E18" si="36">IF(ISBLANK(J18),"",J18)
+&amp;IF(ISBLANK(O18),"",", "&amp;P18)
+&amp;IF(ISBLANK(U18),"",", "&amp;V18)
+&amp;IF(ISBLANK(AA18),"",", "&amp;AB18)
+&amp;IF(ISBLANK(AG18),"",", "&amp;AH18)
+&amp;IF(ISBLANK(AM18),"",", "&amp;AN18)
+&amp;IF(ISBLANK(AS18),"",", "&amp;AT18)
+&amp;IF(ISBLANK(AY18),"",", "&amp;AZ18)
+&amp;IF(ISBLANK(BE18),"",", "&amp;BF18)</f>
+        <v>g</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" ref="F18" si="37">IF(ISBLANK(L18),"",L18)
+&amp;IF(ISBLANK(R18),"",", "&amp;R18)
+&amp;IF(ISBLANK(X18),"",", "&amp;X18)
+&amp;IF(ISBLANK(AD18),"",", "&amp;AD18)
+&amp;IF(ISBLANK(AJ18),"",", "&amp;AJ18)
+&amp;IF(ISBLANK(AP18),"",", "&amp;AP18)
+&amp;IF(ISBLANK(AV18),"",", "&amp;AV18)
+&amp;IF(ISBLANK(BB18),"",", "&amp;BB18)
+&amp;IF(ISBLANK(BH18),"",", "&amp;BH18)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" ref="G18" si="38">IF(ISBLANK(M18),"",M18)
+&amp;IF(ISBLANK(S18),"",", "&amp;S18)
+&amp;IF(ISBLANK(Y18),"",", "&amp;Y18)
+&amp;IF(ISBLANK(AE18),"",", "&amp;AE18)
+&amp;IF(ISBLANK(AK18),"",", "&amp;AK18)
+&amp;IF(ISBLANK(AQ18),"",", "&amp;AQ18)
+&amp;IF(ISBLANK(AW18),"",", "&amp;AW18)
+&amp;IF(ISBLANK(BC18),"",", "&amp;BC18)
+&amp;IF(ISBLANK(BI18),"",", "&amp;BI18)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" ref="H18" si="39">IF(ISBLANK(N18),"",N18)
+&amp;IF(ISBLANK(T18),"",", "&amp;T18)
+&amp;IF(ISBLANK(Z18),"",", "&amp;Z18)
+&amp;IF(ISBLANK(AF18),"",", "&amp;AF18)
+&amp;IF(ISBLANK(AL18),"",", "&amp;AL18)
+&amp;IF(ISBLANK(AR18),"",", "&amp;AR18)
+&amp;IF(ISBLANK(AX18),"",", "&amp;AX18)
+&amp;IF(ISBLANK(BD18),"",", "&amp;BD18)
+&amp;IF(ISBLANK(BJ18),"",", "&amp;BJ18)</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="BE18" s="3"/>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:C22" si="40">IF(ISBLANK(I19),"",I19)
+&amp;IF(ISBLANK(O19),"",", "&amp;O19)
+&amp;IF(ISBLANK(U19),"",", "&amp;U19)
+&amp;IF(ISBLANK(AA19),"",", "&amp;AA19)
+&amp;IF(ISBLANK(AG19),"",", "&amp;AG19)
+&amp;IF(ISBLANK(AM19),"",", "&amp;AM19)
+&amp;IF(ISBLANK(AS19),"",", "&amp;AS19)
+&amp;IF(ISBLANK(AY19),"",", "&amp;AY19)
+&amp;IF(ISBLANK(BE19),"",", "&amp;BE19)</f>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C19,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>5, 5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" ref="E19:E22" si="41">IF(ISBLANK(J19),"",J19)
+&amp;IF(ISBLANK(O19),"",", "&amp;P19)
+&amp;IF(ISBLANK(U19),"",", "&amp;V19)
+&amp;IF(ISBLANK(AA19),"",", "&amp;AB19)
+&amp;IF(ISBLANK(AG19),"",", "&amp;AH19)
+&amp;IF(ISBLANK(AM19),"",", "&amp;AN19)
+&amp;IF(ISBLANK(AS19),"",", "&amp;AT19)
+&amp;IF(ISBLANK(AY19),"",", "&amp;AZ19)
+&amp;IF(ISBLANK(BE19),"",", "&amp;BF19)</f>
+        <v>g, g, g, g, g, g, g, g</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" ref="F19:F22" si="42">IF(ISBLANK(L19),"",L19)
+&amp;IF(ISBLANK(R19),"",", "&amp;R19)
+&amp;IF(ISBLANK(X19),"",", "&amp;X19)
+&amp;IF(ISBLANK(AD19),"",", "&amp;AD19)
+&amp;IF(ISBLANK(AJ19),"",", "&amp;AJ19)
+&amp;IF(ISBLANK(AP19),"",", "&amp;AP19)
+&amp;IF(ISBLANK(AV19),"",", "&amp;AV19)
+&amp;IF(ISBLANK(BB19),"",", "&amp;BB19)
+&amp;IF(ISBLANK(BH19),"",", "&amp;BH19)</f>
+        <v>1, 1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" ref="G19:G22" si="43">IF(ISBLANK(M19),"",M19)
+&amp;IF(ISBLANK(S19),"",", "&amp;S19)
+&amp;IF(ISBLANK(Y19),"",", "&amp;Y19)
+&amp;IF(ISBLANK(AE19),"",", "&amp;AE19)
+&amp;IF(ISBLANK(AK19),"",", "&amp;AK19)
+&amp;IF(ISBLANK(AQ19),"",", "&amp;AQ19)
+&amp;IF(ISBLANK(AW19),"",", "&amp;AW19)
+&amp;IF(ISBLANK(BC19),"",", "&amp;BC19)
+&amp;IF(ISBLANK(BI19),"",", "&amp;BI19)</f>
+        <v>1, 1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" ref="H19:H22" si="44">IF(ISBLANK(N19),"",N19)
+&amp;IF(ISBLANK(T19),"",", "&amp;T19)
+&amp;IF(ISBLANK(Z19),"",", "&amp;Z19)
+&amp;IF(ISBLANK(AF19),"",", "&amp;AF19)
+&amp;IF(ISBLANK(AL19),"",", "&amp;AL19)
+&amp;IF(ISBLANK(AR19),"",", "&amp;AR19)
+&amp;IF(ISBLANK(AX19),"",", "&amp;AX19)
+&amp;IF(ISBLANK(BD19),"",", "&amp;BD19)
+&amp;IF(ISBLANK(BJ19),"",", "&amp;BJ19)</f>
+        <v>1, 1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" t="s">
+        <v>83</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="3"/>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="40"/>
+        <v>Gold, PowerPoint, Diamond, Origin</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C20,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 10, 8, 9</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>, 2, , s</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>1, 1, 0.66, 0.05</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>2800, 15, 1, 1</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>3200, 25, 3, 1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2800</v>
+      </c>
+      <c r="N20">
+        <v>3200</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>15</v>
+      </c>
+      <c r="T20">
+        <v>25</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X20">
+        <v>0.66</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD20">
+        <v>0.05</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="BE20" s="3"/>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="40"/>
+        <v>Gold, PowerPoint, Diamond, Origin, Origin, Origin</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 10, 8, 9, 9, 9</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>, 3, , s, s, s</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>1, 1, 1, 0.05, 0.05, 0.05</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>8400, 35, 6, 1, 1, 1</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>9600, 45, 12, 1, 1, 1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8400</v>
+      </c>
+      <c r="N21">
+        <v>9600</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>35</v>
+      </c>
+      <c r="T21">
+        <v>45</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
+      <c r="Z21">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD21">
+        <v>0.05</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ21">
+        <v>0.05</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP21">
+        <v>0.05</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="BE21" s="3"/>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="40"/>
+        <v>Gold, PowerPoint, Diamond, Origin, Origin, Origin, Origin, Origin, Origin</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C22,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 10, 8, 9, 9, 9, 9, 9, 9</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>, 5, , s, s, s, s, s, s</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>1, 1, 1, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>1, 45, 10, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>1, 55, 20, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>45</v>
+      </c>
+      <c r="T22">
+        <v>55</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+      <c r="Z22">
+        <v>20</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD22">
+        <v>0.05</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ22">
+        <v>0.05</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP22">
+        <v>0.05</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV22">
+        <v>0.05</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB22">
+        <v>0.05</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH22">
+        <v>0.05</v>
+      </c>
+      <c r="BI22">
+        <v>1</v>
+      </c>
+      <c r="BJ22">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BP9">
-    <sortCondition descending="1" ref="BP2:BP9"/>
-    <sortCondition ref="BO2:BO9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BP11">
+    <sortCondition descending="1" ref="BP2:BP11"/>
+    <sortCondition ref="BO2:BO11"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA17 AY2:AY12 U2:U17 O2:O17 BE2:BE17 I2:I17 AS2:AS17 AM2:AM17 AG2:AG17" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 BE2:BE22 U2:U22 AS2:AS22 AM2:AM22 AG2:AG22 AA2:AA22 O2:O22 I2:I22 AY18:AY22" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5355,6 +7032,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A247D73A-09DF-49DB-AD2D-BF27D4BFBFE9}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F0AB79-C825-4F18-BA6C-94FFE1CA0F6E}">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C8F7F-0A60-4A1D-B929-6AE5A9D64161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE55B503-33F4-4ADC-BD55-F230C66BA7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2448,7 +2448,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C4DAB7BA-6536-46A6-A943-3FC420DA7127}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C4DAB7BA-6536-46A6-A943-3FC420DA7127}">
       <text>
         <r>
           <rPr>
@@ -2772,7 +2772,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="99">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3039,9 +3039,6 @@
   </si>
   <si>
     <t>accumulateMin|Int</t>
-  </si>
-  <si>
-    <t>accumulateMax|Int</t>
   </si>
   <si>
     <t>adjustProb|Float</t>
@@ -3552,7 +3549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:CD22"/>
+  <dimension ref="A1:BS22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3858,7 +3855,7 @@
         <v>Ultimate</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D2:D22" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3891,7 +3888,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2" si="1">IF(ISBLANK(J2),"",J2)
+        <f t="shared" ref="E2" si="2">IF(ISBLANK(J2),"",J2)
 &amp;IF(ISBLANK(O2),"",", "&amp;P2)
 &amp;IF(ISBLANK(U2),"",", "&amp;V2)
 &amp;IF(ISBLANK(AA2),"",", "&amp;AB2)
@@ -3903,7 +3900,7 @@
         <v/>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2" si="2">IF(ISBLANK(L2),"",L2)
+        <f t="shared" ref="F2" si="3">IF(ISBLANK(L2),"",L2)
 &amp;IF(ISBLANK(R2),"",", "&amp;R2)
 &amp;IF(ISBLANK(X2),"",", "&amp;X2)
 &amp;IF(ISBLANK(AD2),"",", "&amp;AD2)
@@ -3915,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2" si="3">IF(ISBLANK(M2),"",M2)
+        <f t="shared" ref="G2" si="4">IF(ISBLANK(M2),"",M2)
 &amp;IF(ISBLANK(S2),"",", "&amp;S2)
 &amp;IF(ISBLANK(Y2),"",", "&amp;Y2)
 &amp;IF(ISBLANK(AE2),"",", "&amp;AE2)
@@ -3927,7 +3924,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2" si="4">IF(ISBLANK(N2),"",N2)
+        <f t="shared" ref="H2" si="5">IF(ISBLANK(N2),"",N2)
 &amp;IF(ISBLANK(T2),"",", "&amp;T2)
 &amp;IF(ISBLANK(Z2),"",", "&amp;Z2)
 &amp;IF(ISBLANK(AF2),"",", "&amp;AF2)
@@ -3962,13 +3959,13 @@
         <v>9</v>
       </c>
       <c r="BN2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BO2">
         <v>10</v>
       </c>
       <c r="BP2">
-        <f>LEN(BN2)</f>
+        <f t="shared" ref="BP2:BP11" si="6">LEN(BN2)</f>
         <v>10</v>
       </c>
       <c r="BR2" t="str">
@@ -3984,7 +3981,7 @@
         <v>64</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3" si="5">IF(ISBLANK(I3),"",I3)
+        <f t="shared" ref="C3" si="7">IF(ISBLANK(I3),"",I3)
 &amp;IF(ISBLANK(O3),"",", "&amp;O3)
 &amp;IF(ISBLANK(U3),"",", "&amp;U3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AA3)
@@ -3996,40 +3993,11 @@
         <v>Gold, Exp, Heart</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3" si="6">IF(ISBLANK(J3),"",J3)
+        <f t="shared" ref="E3" si="8">IF(ISBLANK(J3),"",J3)
 &amp;IF(ISBLANK(O3),"",", "&amp;P3)
 &amp;IF(ISBLANK(U3),"",", "&amp;V3)
 &amp;IF(ISBLANK(AA3),"",", "&amp;AB3)
@@ -4041,7 +4009,7 @@
         <v xml:space="preserve">, , </v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3" si="7">IF(ISBLANK(L3),"",L3)
+        <f t="shared" ref="F3" si="9">IF(ISBLANK(L3),"",L3)
 &amp;IF(ISBLANK(R3),"",", "&amp;R3)
 &amp;IF(ISBLANK(X3),"",", "&amp;X3)
 &amp;IF(ISBLANK(AD3),"",", "&amp;AD3)
@@ -4053,7 +4021,7 @@
         <v>1, 1, 0.075</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3" si="8">IF(ISBLANK(M3),"",M3)
+        <f t="shared" ref="G3" si="10">IF(ISBLANK(M3),"",M3)
 &amp;IF(ISBLANK(S3),"",", "&amp;S3)
 &amp;IF(ISBLANK(Y3),"",", "&amp;Y3)
 &amp;IF(ISBLANK(AE3),"",", "&amp;AE3)
@@ -4065,7 +4033,7 @@
         <v>0.015, 5, 1</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3" si="9">IF(ISBLANK(N3),"",N3)
+        <f t="shared" ref="H3" si="11">IF(ISBLANK(N3),"",N3)
 &amp;IF(ISBLANK(T3),"",", "&amp;T3)
 &amp;IF(ISBLANK(Z3),"",", "&amp;Z3)
 &amp;IF(ISBLANK(AF3),"",", "&amp;AF3)
@@ -4128,7 +4096,7 @@
         <v>3</v>
       </c>
       <c r="BP3">
-        <f>LEN(BN3)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -4137,7 +4105,7 @@
         <v>1001</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C9" si="10">IF(ISBLANK(I4),"",I4)
+        <f t="shared" ref="C4:C9" si="12">IF(ISBLANK(I4),"",I4)
 &amp;IF(ISBLANK(O4),"",", "&amp;O4)
 &amp;IF(ISBLANK(U4),"",", "&amp;U4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AA4)
@@ -4149,40 +4117,11 @@
         <v>Gold, Exp, Heart</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E9" si="11">IF(ISBLANK(J4),"",J4)
+        <f t="shared" ref="E4:E9" si="13">IF(ISBLANK(J4),"",J4)
 &amp;IF(ISBLANK(O4),"",", "&amp;P4)
 &amp;IF(ISBLANK(U4),"",", "&amp;V4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AB4)
@@ -4194,7 +4133,7 @@
         <v xml:space="preserve">, , </v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F9" si="12">IF(ISBLANK(L4),"",L4)
+        <f t="shared" ref="F4:F9" si="14">IF(ISBLANK(L4),"",L4)
 &amp;IF(ISBLANK(R4),"",", "&amp;R4)
 &amp;IF(ISBLANK(X4),"",", "&amp;X4)
 &amp;IF(ISBLANK(AD4),"",", "&amp;AD4)
@@ -4206,7 +4145,7 @@
         <v>1, 1, 0.075</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G9" si="13">IF(ISBLANK(M4),"",M4)
+        <f t="shared" ref="G4:G9" si="15">IF(ISBLANK(M4),"",M4)
 &amp;IF(ISBLANK(S4),"",", "&amp;S4)
 &amp;IF(ISBLANK(Y4),"",", "&amp;Y4)
 &amp;IF(ISBLANK(AE4),"",", "&amp;AE4)
@@ -4218,7 +4157,7 @@
         <v>0.05, 5, 1</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H9" si="14">IF(ISBLANK(N4),"",N4)
+        <f t="shared" ref="H4:H9" si="16">IF(ISBLANK(N4),"",N4)
 &amp;IF(ISBLANK(T4),"",", "&amp;T4)
 &amp;IF(ISBLANK(Z4),"",", "&amp;Z4)
 &amp;IF(ISBLANK(AF4),"",", "&amp;AF4)
@@ -4281,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="BP4">
-        <f>LEN(BN4)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -4290,7 +4229,7 @@
         <v>1002</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C8" si="15">IF(ISBLANK(I5),"",I5)
+        <f t="shared" ref="C5:C8" si="17">IF(ISBLANK(I5),"",I5)
 &amp;IF(ISBLANK(O5),"",", "&amp;O5)
 &amp;IF(ISBLANK(U5),"",", "&amp;U5)
 &amp;IF(ISBLANK(AA5),"",", "&amp;AA5)
@@ -4302,40 +4241,11 @@
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E8" si="16">IF(ISBLANK(J5),"",J5)
+        <f t="shared" ref="E5:E8" si="18">IF(ISBLANK(J5),"",J5)
 &amp;IF(ISBLANK(O5),"",", "&amp;P5)
 &amp;IF(ISBLANK(U5),"",", "&amp;V5)
 &amp;IF(ISBLANK(AA5),"",", "&amp;AB5)
@@ -4347,7 +4257,7 @@
         <v>, , , e</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" ref="F5:F8" si="17">IF(ISBLANK(L5),"",L5)
+        <f t="shared" ref="F5:F8" si="19">IF(ISBLANK(L5),"",L5)
 &amp;IF(ISBLANK(R5),"",", "&amp;R5)
 &amp;IF(ISBLANK(X5),"",", "&amp;X5)
 &amp;IF(ISBLANK(AD5),"",", "&amp;AD5)
@@ -4359,7 +4269,7 @@
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5:G8" si="18">IF(ISBLANK(M5),"",M5)
+        <f t="shared" ref="G5:G8" si="20">IF(ISBLANK(M5),"",M5)
 &amp;IF(ISBLANK(S5),"",", "&amp;S5)
 &amp;IF(ISBLANK(Y5),"",", "&amp;Y5)
 &amp;IF(ISBLANK(AE5),"",", "&amp;AE5)
@@ -4371,7 +4281,7 @@
         <v>0.085, 5, 1, 1</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H8" si="19">IF(ISBLANK(N5),"",N5)
+        <f t="shared" ref="H5:H8" si="21">IF(ISBLANK(N5),"",N5)
 &amp;IF(ISBLANK(T5),"",", "&amp;T5)
 &amp;IF(ISBLANK(Z5),"",", "&amp;Z5)
 &amp;IF(ISBLANK(AF5),"",", "&amp;AF5)
@@ -4442,13 +4352,13 @@
         <v>12</v>
       </c>
       <c r="BN5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BO5">
         <v>8</v>
       </c>
       <c r="BP5">
-        <f>LEN(BN5)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
@@ -4457,56 +4367,27 @@
         <v>1003</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>, , , e</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.12, 5, 1, 1</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.72, 5, 1, 1</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -4569,13 +4450,13 @@
         <v>13</v>
       </c>
       <c r="BN6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BO6">
         <v>9</v>
       </c>
       <c r="BP6">
-        <f>LEN(BN6)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -4584,56 +4465,27 @@
         <v>1004</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>, , , e</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.155, 5, 1, 1</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.755, 5, 1, 1</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -4702,7 +4554,7 @@
         <v>4</v>
       </c>
       <c r="BP7">
-        <f>LEN(BN7)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -4714,56 +4566,27 @@
         <v>65</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Gold, Exp, Heart, LevelPack</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 3</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">, , , </v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1, 1, 1, 1</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.015, 100, 2, 1</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.145, 100, 2, 1</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -4829,7 +4652,7 @@
         <v>5</v>
       </c>
       <c r="BP8">
-        <f>LEN(BN8)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -4838,56 +4661,27 @@
         <v>5001</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 3, 7, 7</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">, , , , , </v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1, 1, 1, 1, 0.7, 0.1</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.05, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.65, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -4966,7 +4760,7 @@
       <c r="AY9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="BL9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BN9" t="s">
         <v>10</v>
@@ -4975,7 +4769,7 @@
         <v>2</v>
       </c>
       <c r="BP9">
-        <f>LEN(BN9)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4984,7 +4778,7 @@
         <v>5002</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C12" si="20">IF(ISBLANK(I10),"",I10)
+        <f t="shared" ref="C10:C12" si="22">IF(ISBLANK(I10),"",I10)
 &amp;IF(ISBLANK(O10),"",", "&amp;O10)
 &amp;IF(ISBLANK(U10),"",", "&amp;U10)
 &amp;IF(ISBLANK(AA10),"",", "&amp;AA10)
@@ -4996,40 +4790,11 @@
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C10,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" ref="E10:E12" si="21">IF(ISBLANK(J10),"",J10)
+        <f t="shared" ref="E10:E12" si="23">IF(ISBLANK(J10),"",J10)
 &amp;IF(ISBLANK(O10),"",", "&amp;P10)
 &amp;IF(ISBLANK(U10),"",", "&amp;V10)
 &amp;IF(ISBLANK(AA10),"",", "&amp;AB10)
@@ -5041,7 +4806,7 @@
         <v>, , , , , , e, e</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10:F12" si="22">IF(ISBLANK(L10),"",L10)
+        <f t="shared" ref="F10:F12" si="24">IF(ISBLANK(L10),"",L10)
 &amp;IF(ISBLANK(R10),"",", "&amp;R10)
 &amp;IF(ISBLANK(X10),"",", "&amp;X10)
 &amp;IF(ISBLANK(AD10),"",", "&amp;AD10)
@@ -5053,7 +4818,7 @@
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G12" si="23">IF(ISBLANK(M10),"",M10)
+        <f t="shared" ref="G10:G12" si="25">IF(ISBLANK(M10),"",M10)
 &amp;IF(ISBLANK(S10),"",", "&amp;S10)
 &amp;IF(ISBLANK(Y10),"",", "&amp;Y10)
 &amp;IF(ISBLANK(AE10),"",", "&amp;AE10)
@@ -5065,7 +4830,7 @@
         <v>0.085, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" ref="H10:H12" si="24">IF(ISBLANK(N10),"",N10)
+        <f t="shared" ref="H10:H12" si="26">IF(ISBLANK(N10),"",N10)
 &amp;IF(ISBLANK(T10),"",", "&amp;T10)
 &amp;IF(ISBLANK(Z10),"",", "&amp;Z10)
 &amp;IF(ISBLANK(AF10),"",", "&amp;AF10)
@@ -5189,7 +4954,7 @@
         <v>7</v>
       </c>
       <c r="BP10">
-        <f>LEN(BN10)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -5198,56 +4963,27 @@
         <v>5003</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C11,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>, , , , , , e, e</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.12, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.72, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -5354,7 +5090,7 @@
       </c>
       <c r="BE11" s="3"/>
       <c r="BL11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN11" t="s">
         <v>9</v>
@@ -5363,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="BP11">
-        <f>LEN(BN11)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5372,56 +5108,27 @@
         <v>5004</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>, , , , , , e, e</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.755, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -5536,7 +5243,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13" si="25">IF(ISBLANK(I13),"",I13)
+        <f t="shared" ref="C13" si="27">IF(ISBLANK(I13),"",I13)
 &amp;IF(ISBLANK(O13),"",", "&amp;O13)
 &amp;IF(ISBLANK(U13),"",", "&amp;U13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AA13)
@@ -5548,40 +5255,11 @@
         <v>Gold</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C13,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13" si="26">IF(ISBLANK(J13),"",J13)
+        <f t="shared" ref="E13" si="28">IF(ISBLANK(J13),"",J13)
 &amp;IF(ISBLANK(O13),"",", "&amp;P13)
 &amp;IF(ISBLANK(U13),"",", "&amp;V13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AB13)
@@ -5593,7 +5271,7 @@
         <v/>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13" si="27">IF(ISBLANK(L13),"",L13)
+        <f t="shared" ref="F13" si="29">IF(ISBLANK(L13),"",L13)
 &amp;IF(ISBLANK(R13),"",", "&amp;R13)
 &amp;IF(ISBLANK(X13),"",", "&amp;X13)
 &amp;IF(ISBLANK(AD13),"",", "&amp;AD13)
@@ -5605,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13" si="28">IF(ISBLANK(M13),"",M13)
+        <f t="shared" ref="G13" si="30">IF(ISBLANK(M13),"",M13)
 &amp;IF(ISBLANK(S13),"",", "&amp;S13)
 &amp;IF(ISBLANK(Y13),"",", "&amp;Y13)
 &amp;IF(ISBLANK(AE13),"",", "&amp;AE13)
@@ -5617,7 +5295,7 @@
         <v>0.015</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13" si="29">IF(ISBLANK(N13),"",N13)
+        <f t="shared" ref="H13" si="31">IF(ISBLANK(N13),"",N13)
 &amp;IF(ISBLANK(T13),"",", "&amp;T13)
 &amp;IF(ISBLANK(Z13),"",", "&amp;Z13)
 &amp;IF(ISBLANK(AF13),"",", "&amp;AF13)
@@ -5653,7 +5331,7 @@
         <v>6001</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ref="C14:C17" si="30">IF(ISBLANK(I14),"",I14)
+        <f t="shared" ref="C14:C17" si="32">IF(ISBLANK(I14),"",I14)
 &amp;IF(ISBLANK(O14),"",", "&amp;O14)
 &amp;IF(ISBLANK(U14),"",", "&amp;U14)
 &amp;IF(ISBLANK(AA14),"",", "&amp;AA14)
@@ -5665,40 +5343,11 @@
         <v>Gold, Seal, Seal</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C14,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 7, 7</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" ref="E14:E17" si="31">IF(ISBLANK(J14),"",J14)
+        <f t="shared" ref="E14:E17" si="33">IF(ISBLANK(J14),"",J14)
 &amp;IF(ISBLANK(O14),"",", "&amp;P14)
 &amp;IF(ISBLANK(U14),"",", "&amp;V14)
 &amp;IF(ISBLANK(AA14),"",", "&amp;AB14)
@@ -5710,7 +5359,7 @@
         <v xml:space="preserve">, , </v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" ref="F14:F17" si="32">IF(ISBLANK(L14),"",L14)
+        <f t="shared" ref="F14:F17" si="34">IF(ISBLANK(L14),"",L14)
 &amp;IF(ISBLANK(R14),"",", "&amp;R14)
 &amp;IF(ISBLANK(X14),"",", "&amp;X14)
 &amp;IF(ISBLANK(AD14),"",", "&amp;AD14)
@@ -5722,7 +5371,7 @@
         <v>1, 0.7, 0.1</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" ref="G14:G17" si="33">IF(ISBLANK(M14),"",M14)
+        <f t="shared" ref="G14:G17" si="35">IF(ISBLANK(M14),"",M14)
 &amp;IF(ISBLANK(S14),"",", "&amp;S14)
 &amp;IF(ISBLANK(Y14),"",", "&amp;Y14)
 &amp;IF(ISBLANK(AE14),"",", "&amp;AE14)
@@ -5734,7 +5383,7 @@
         <v>0.05, 1, 1</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" ref="H14:H17" si="34">IF(ISBLANK(N14),"",N14)
+        <f t="shared" ref="H14:H17" si="36">IF(ISBLANK(N14),"",N14)
 &amp;IF(ISBLANK(T14),"",", "&amp;T14)
 &amp;IF(ISBLANK(Z14),"",", "&amp;Z14)
 &amp;IF(ISBLANK(AF14),"",", "&amp;AF14)
@@ -5792,56 +5441,27 @@
         <v>6002</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C15,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>, , , e, e, e</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.085, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.685, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -5933,56 +5553,27 @@
         <v>6003</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C16,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>, , , e, e, e</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.12, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.72, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -6074,56 +5665,27 @@
         <v>6004</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>, , , e, e, e</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.155, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.755, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -6212,13 +5774,13 @@
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18" si="35">IF(ISBLANK(I18),"",I18)
+        <f t="shared" ref="C18" si="37">IF(ISBLANK(I18),"",I18)
 &amp;IF(ISBLANK(O18),"",", "&amp;O18)
 &amp;IF(ISBLANK(U18),"",", "&amp;U18)
 &amp;IF(ISBLANK(AA18),"",", "&amp;AA18)
@@ -6230,40 +5792,11 @@
         <v>Gacha</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C18,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" ref="E18" si="36">IF(ISBLANK(J18),"",J18)
+        <f t="shared" ref="E18" si="38">IF(ISBLANK(J18),"",J18)
 &amp;IF(ISBLANK(O18),"",", "&amp;P18)
 &amp;IF(ISBLANK(U18),"",", "&amp;V18)
 &amp;IF(ISBLANK(AA18),"",", "&amp;AB18)
@@ -6275,7 +5808,7 @@
         <v>g</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" ref="F18" si="37">IF(ISBLANK(L18),"",L18)
+        <f t="shared" ref="F18" si="39">IF(ISBLANK(L18),"",L18)
 &amp;IF(ISBLANK(R18),"",", "&amp;R18)
 &amp;IF(ISBLANK(X18),"",", "&amp;X18)
 &amp;IF(ISBLANK(AD18),"",", "&amp;AD18)
@@ -6287,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" ref="G18" si="38">IF(ISBLANK(M18),"",M18)
+        <f t="shared" ref="G18" si="40">IF(ISBLANK(M18),"",M18)
 &amp;IF(ISBLANK(S18),"",", "&amp;S18)
 &amp;IF(ISBLANK(Y18),"",", "&amp;Y18)
 &amp;IF(ISBLANK(AE18),"",", "&amp;AE18)
@@ -6299,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f t="shared" ref="H18" si="39">IF(ISBLANK(N18),"",N18)
+        <f t="shared" ref="H18" si="41">IF(ISBLANK(N18),"",N18)
 &amp;IF(ISBLANK(T18),"",", "&amp;T18)
 &amp;IF(ISBLANK(Z18),"",", "&amp;Z18)
 &amp;IF(ISBLANK(AF18),"",", "&amp;AF18)
@@ -6311,10 +5844,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
         <v>82</v>
-      </c>
-      <c r="J18" t="s">
-        <v>83</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -6336,13 +5869,13 @@
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:C22" si="40">IF(ISBLANK(I19),"",I19)
+        <f t="shared" ref="C19:C22" si="42">IF(ISBLANK(I19),"",I19)
 &amp;IF(ISBLANK(O19),"",", "&amp;O19)
 &amp;IF(ISBLANK(U19),"",", "&amp;U19)
 &amp;IF(ISBLANK(AA19),"",", "&amp;AA19)
@@ -6354,40 +5887,11 @@
         <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C19,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>5, 5, 5, 5, 5, 5, 5, 5</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" ref="E19:E22" si="41">IF(ISBLANK(J19),"",J19)
+        <f t="shared" ref="E19:E22" si="43">IF(ISBLANK(J19),"",J19)
 &amp;IF(ISBLANK(O19),"",", "&amp;P19)
 &amp;IF(ISBLANK(U19),"",", "&amp;V19)
 &amp;IF(ISBLANK(AA19),"",", "&amp;AB19)
@@ -6399,7 +5903,7 @@
         <v>g, g, g, g, g, g, g, g</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" ref="F19:F22" si="42">IF(ISBLANK(L19),"",L19)
+        <f t="shared" ref="F19:F22" si="44">IF(ISBLANK(L19),"",L19)
 &amp;IF(ISBLANK(R19),"",", "&amp;R19)
 &amp;IF(ISBLANK(X19),"",", "&amp;X19)
 &amp;IF(ISBLANK(AD19),"",", "&amp;AD19)
@@ -6411,7 +5915,7 @@
         <v>1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" ref="G19:G22" si="43">IF(ISBLANK(M19),"",M19)
+        <f t="shared" ref="G19:G22" si="45">IF(ISBLANK(M19),"",M19)
 &amp;IF(ISBLANK(S19),"",", "&amp;S19)
 &amp;IF(ISBLANK(Y19),"",", "&amp;Y19)
 &amp;IF(ISBLANK(AE19),"",", "&amp;AE19)
@@ -6423,7 +5927,7 @@
         <v>1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" ref="H19:H22" si="44">IF(ISBLANK(N19),"",N19)
+        <f t="shared" ref="H19:H22" si="46">IF(ISBLANK(N19),"",N19)
 &amp;IF(ISBLANK(T19),"",", "&amp;T19)
 &amp;IF(ISBLANK(Z19),"",", "&amp;Z19)
 &amp;IF(ISBLANK(AF19),"",", "&amp;AF19)
@@ -6438,7 +5942,7 @@
         <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -6453,7 +5957,7 @@
         <v>13</v>
       </c>
       <c r="P19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -6468,7 +5972,7 @@
         <v>13</v>
       </c>
       <c r="V19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X19">
         <v>1</v>
@@ -6483,7 +5987,7 @@
         <v>13</v>
       </c>
       <c r="AB19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -6498,7 +6002,7 @@
         <v>13</v>
       </c>
       <c r="AH19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ19">
         <v>1</v>
@@ -6513,7 +6017,7 @@
         <v>13</v>
       </c>
       <c r="AN19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP19">
         <v>1</v>
@@ -6528,7 +6032,7 @@
         <v>13</v>
       </c>
       <c r="AT19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -6543,7 +6047,7 @@
         <v>13</v>
       </c>
       <c r="AZ19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BB19">
         <v>1</v>
@@ -6558,66 +6062,37 @@
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
       <c r="C20" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>Gold, PowerPoint, Diamond, Origin</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C20,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 10, 8, 9</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>, 2, , s</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1, 1, 0.66, 0.05</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2800, 15, 1, 1</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3200, 25, 3, 1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -6629,7 +6104,7 @@
         <v>3200</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P20">
         <v>2</v>
@@ -6644,7 +6119,7 @@
         <v>25</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X20">
         <v>0.66</v>
@@ -6659,7 +6134,7 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD20">
         <v>0.05</v>
@@ -6678,66 +6153,37 @@
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>Gold, PowerPoint, Diamond, Origin, Origin, Origin</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2, 10, 8, 9, 9, 9</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>, 3, , s, s, s</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1, 1, 1, 0.05, 0.05, 0.05</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>8400, 35, 6, 1, 1, 1</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9600, 45, 12, 1, 1, 1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -6749,7 +6195,7 @@
         <v>9600</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P21">
         <v>3</v>
@@ -6764,7 +6210,7 @@
         <v>45</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -6779,7 +6225,7 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD21">
         <v>0.05</v>
@@ -6794,7 +6240,7 @@
         <v>77</v>
       </c>
       <c r="AH21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ21">
         <v>0.05</v>
@@ -6809,7 +6255,7 @@
         <v>77</v>
       </c>
       <c r="AN21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AP21">
         <v>0.05</v>
@@ -6826,67 +6272,38 @@
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="42"/>
+        <v>Gold, PowerPoint, Diamond, Origin, Origin, Origin, Origin, Origin, Origin</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 10, 8, 9, 9, 9, 9, 9, 9</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>, 5, , s, s, s, s, s, s</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>1, 1, 1, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1, 45, 10, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>1, 55, 20, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="40"/>
-        <v>Gold, PowerPoint, Diamond, Origin, Origin, Origin, Origin, Origin, Origin</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C22,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2, 10, 8, 9, 9, 9, 9, 9, 9</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>, 5, , s, s, s, s, s, s</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1, 1, 1, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>1, 45, 10, 1, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="44"/>
-        <v>1, 55, 20, 1, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L22">
         <v>1</v>
       </c>
@@ -6897,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P22">
         <v>5</v>
@@ -6912,7 +6329,7 @@
         <v>55</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -6927,7 +6344,7 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD22">
         <v>0.05</v>
@@ -6942,7 +6359,7 @@
         <v>77</v>
       </c>
       <c r="AH22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ22">
         <v>0.05</v>
@@ -6957,7 +6374,7 @@
         <v>77</v>
       </c>
       <c r="AN22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AP22">
         <v>0.05</v>
@@ -6972,7 +6389,7 @@
         <v>77</v>
       </c>
       <c r="AT22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AV22">
         <v>0.05</v>
@@ -6987,7 +6404,7 @@
         <v>77</v>
       </c>
       <c r="AZ22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BB22">
         <v>0.05</v>
@@ -7002,7 +6419,7 @@
         <v>77</v>
       </c>
       <c r="BF22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BH22">
         <v>0.05</v>
@@ -7033,113 +6450,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A247D73A-09DF-49DB-AD2D-BF27D4BFBFE9}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
       <c r="B5">
-        <v>39</v>
-      </c>
-      <c r="C5">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6">
-        <v>49</v>
-      </c>
-      <c r="C6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7">
-        <v>59</v>
-      </c>
-      <c r="C7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
       <c r="B8">
-        <v>69</v>
-      </c>
-      <c r="C8">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9">
-        <v>999999999</v>
-      </c>
-      <c r="C9">
         <v>1.7</v>
       </c>
     </row>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE55B503-33F4-4ADC-BD55-F230C66BA7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B116A37-D3AB-4952-933E-D91DAF52A432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2771,8 +2771,280 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5D225D19-E8F8-4E5C-A7CF-EE37AA6B284B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코드에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> PP </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수량에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드랍</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보정되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배율이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적혀있다
+가중치</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보유</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> PP </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> * </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보정배율</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="106">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3077,14 +3349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭3오리진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭10오리진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3116,13 +3380,48 @@
   <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PP 맥스에 곱할 가중치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭3피피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭10피피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3175,6 +3474,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3210,7 +3517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3233,6 +3540,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3551,11 +3861,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:BS22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3959,7 +4269,7 @@
         <v>9</v>
       </c>
       <c r="BN2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BO2">
         <v>10</v>
@@ -4352,7 +4662,7 @@
         <v>12</v>
       </c>
       <c r="BN5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BO5">
         <v>8</v>
@@ -4450,7 +4760,7 @@
         <v>13</v>
       </c>
       <c r="BN6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BO6">
         <v>9</v>
@@ -4760,7 +5070,7 @@
       <c r="AY9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="BL9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BN9" t="s">
         <v>10</v>
@@ -5090,7 +5400,7 @@
       </c>
       <c r="BE11" s="3"/>
       <c r="BL11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BN11" t="s">
         <v>9</v>
@@ -6069,94 +6379,113 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="42"/>
-        <v>Gold, PowerPoint, Diamond, Origin</v>
+        <v>Gold, Gold, PowerPoint, PowerPoint, Diamond, Origin</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 10, 8, 9</v>
+        <v>2, 2, 10, 10, 8, 9</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>, 2, , s</v>
+        <v>, , , , , s</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>1, 1, 0.66, 0.05</v>
+        <v>1, 1, 1, 1, 0.66, 0.5</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>2800, 15, 1, 1</v>
+        <v>1400, 1400, 15, 15, 1, 1</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="46"/>
-        <v>3200, 25, 3, 1</v>
+        <v>1600, 1600, 25, 25, 3, 1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="N20">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
       <c r="S20">
+        <v>1400</v>
+      </c>
+      <c r="T20">
+        <v>1600</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
         <v>15</v>
       </c>
-      <c r="T20">
+      <c r="Z20">
         <v>25</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>15</v>
+      </c>
+      <c r="AF20">
+        <v>25</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ20">
+        <v>0.66</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="X20">
-        <v>0.66</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>3</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD20">
-        <v>0.05</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="3"/>
-      <c r="AM20" s="3"/>
+      <c r="AN20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP20">
+        <v>0.5</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
       <c r="AS20" s="3"/>
       <c r="AY20" s="3"/>
       <c r="BE20" s="3"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="42"/>
@@ -6168,7 +6497,7 @@
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>, 3, , s, s, s</v>
+        <v>, , , s, s, s</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="44"/>
@@ -6183,7 +6512,7 @@
         <v>9600, 45, 12, 1, 1, 1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -6195,10 +6524,7 @@
         <v>9600</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="P21">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -6210,7 +6536,7 @@
         <v>45</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -6225,7 +6551,7 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AD21">
         <v>0.05</v>
@@ -6240,7 +6566,7 @@
         <v>77</v>
       </c>
       <c r="AH21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AJ21">
         <v>0.05</v>
@@ -6255,7 +6581,7 @@
         <v>77</v>
       </c>
       <c r="AN21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AP21">
         <v>0.05</v>
@@ -6272,10 +6598,10 @@
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="42"/>
@@ -6287,7 +6613,7 @@
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>, 5, , s, s, s, s, s, s</v>
+        <v>, , , s, s, s, s, s, s</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="44"/>
@@ -6302,7 +6628,7 @@
         <v>1, 55, 20, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -6314,10 +6640,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -6329,7 +6652,7 @@
         <v>55</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -6344,7 +6667,7 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AD22">
         <v>0.05</v>
@@ -6359,7 +6682,7 @@
         <v>77</v>
       </c>
       <c r="AH22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AJ22">
         <v>0.05</v>
@@ -6374,7 +6697,7 @@
         <v>77</v>
       </c>
       <c r="AN22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AP22">
         <v>0.05</v>
@@ -6389,7 +6712,7 @@
         <v>77</v>
       </c>
       <c r="AT22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AV22">
         <v>0.05</v>
@@ -6404,7 +6727,7 @@
         <v>77</v>
       </c>
       <c r="AZ22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BB22">
         <v>0.05</v>
@@ -6419,7 +6742,7 @@
         <v>77</v>
       </c>
       <c r="BF22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BH22">
         <v>0.05</v>
@@ -6438,7 +6761,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 BE2:BE22 U2:U22 AS2:AS22 AM2:AM22 AG2:AG22 AA2:AA22 O2:O22 I2:I22 AY18:AY22" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 BE2:BE22 AY18:AY22 AS2:AS22 AM2:AM22 AG2:AG22 AA2:AA22 U2:U22 I2:I22 O2:O22" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6452,8 +6775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A247D73A-09DF-49DB-AD2D-BF27D4BFBFE9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6541,11 +6864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F0AB79-C825-4F18-BA6C-94FFE1CA0F6E}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F0AB79-C825-4F18-BA6C-94FFE1CA0F6E}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6553,28 +6876,65 @@
     <col min="2" max="2" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>68</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
+      <c r="D2">
+        <v>1.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2">
+        <f>D2-1</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f>G2/SUM($G$2:$G$3)</f>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
       </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <f>D2</f>
+        <v>1.5</v>
+      </c>
+      <c r="H3">
+        <f>G3/SUM($G$2:$G$3)</f>
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6582,7 +6942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6590,7 +6950,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6601,5 +6961,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B116A37-D3AB-4952-933E-D91DAF52A432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734A06E-AECB-4AF4-94E7-6E3DA0D62965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -2435,6 +2435,472 @@
             <charset val="129"/>
           </rPr>
           <t>것</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{A8846D11-4196-4265-BF5B-76AAED744A76}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오리진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가챠의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>골드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다이아의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정하고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검증을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하드코딩으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S22" authorId="0" shapeId="0" xr:uid="{8A5B03B8-9BC6-4372-AFAF-61DBBE76B97A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기준</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사이드에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적어두고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>피피와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>피피</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상자가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구별되도록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것
+현재는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 150 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적혀있다</t>
         </r>
       </text>
     </comment>
@@ -3517,7 +3983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3544,6 +4010,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3859,65 +4328,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS22"/>
+  <dimension ref="A1:BR22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="51.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="51.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="9" collapsed="1"/>
-    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="9" collapsed="1"/>
-    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="9" collapsed="1"/>
-    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="71" max="71" width="9" collapsed="1"/>
+    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6410,7 +6875,7 @@
       <c r="M20">
         <v>1400</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="5">
         <v>1600</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -6449,7 +6914,7 @@
       <c r="AF20">
         <v>25</v>
       </c>
-      <c r="AG20" s="3" t="s">
+      <c r="AG20" s="9" t="s">
         <v>91</v>
       </c>
       <c r="AJ20">
@@ -6458,7 +6923,7 @@
       <c r="AK20">
         <v>1</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="5">
         <v>3</v>
       </c>
       <c r="AM20" s="3" t="s">
@@ -6645,7 +7110,7 @@
       <c r="R22">
         <v>1</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="5">
         <v>45</v>
       </c>
       <c r="T22">

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734A06E-AECB-4AF4-94E7-6E3DA0D62965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF76D6-68D4-4028-88A2-DACC05E7A986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2438,6 +2438,191 @@
         </r>
       </text>
     </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{CDB1BF4D-4480-498B-893A-78E5E6B05868}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서브밸류</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비어있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>패킷을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넘기므로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다이아만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소모되고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안됨</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N20" authorId="0" shapeId="0" xr:uid="{A8846D11-4196-4265-BF5B-76AAED744A76}">
       <text>
         <r>
@@ -2677,230 +2862,6 @@
             <charset val="129"/>
           </rPr>
           <t>한다</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S22" authorId="0" shapeId="0" xr:uid="{8A5B03B8-9BC6-4372-AFAF-61DBBE76B97A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기준</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수치를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>서버</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사이드에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적어두고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>피피와</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 10</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>피피</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>상자가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>구별되도록</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>것
-현재는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 150 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적혀있다</t>
         </r>
       </text>
     </comment>
@@ -3510,7 +3471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3823,10 +3784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zozoflr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Diamond</t>
   </si>
   <si>
@@ -3872,15 +3829,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭3피피</t>
+    <t>캐릭상자</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭10피피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -4328,61 +4278,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BR22"/>
+  <dimension ref="A1:BS21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="51.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="51.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9" collapsed="1"/>
+    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="9" collapsed="1"/>
+    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="9" collapsed="1"/>
+    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4630,7 +4584,7 @@
         <v>Ultimate</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D22" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D2:D21" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -4713,6 +4667,10 @@
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="K2" s="4" t="str">
+        <f>IF(AND(OR(I2="Gacha",I2="Origin"),ISBLANK(J2)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="L2">
         <v>1</v>
       </c>
@@ -4723,18 +4681,50 @@
         <v>42</v>
       </c>
       <c r="O2" s="3"/>
+      <c r="Q2" s="4" t="str">
+        <f>IF(AND(OR(O2="Gacha",O2="Origin"),ISBLANK(P2)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="U2" s="3"/>
+      <c r="W2" s="4" t="str">
+        <f>IF(AND(OR(U2="Gacha",U2="Origin"),ISBLANK(V2)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AA2" s="3"/>
+      <c r="AC2" s="4" t="str">
+        <f>IF(AND(OR(AA2="Gacha",AA2="Origin"),ISBLANK(AB2)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AG2" s="3"/>
+      <c r="AI2" s="4" t="str">
+        <f>IF(AND(OR(AG2="Gacha",AG2="Origin"),ISBLANK(AH2)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AM2" s="3"/>
+      <c r="AO2" s="4" t="str">
+        <f>IF(AND(OR(AM2="Gacha",AM2="Origin"),ISBLANK(AN2)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AS2" s="3"/>
+      <c r="AU2" s="4" t="str">
+        <f>IF(AND(OR(AS2="Gacha",AS2="Origin"),ISBLANK(AT2)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AY2" s="3"/>
+      <c r="BA2" s="4" t="str">
+        <f>IF(AND(OR(AY2="Gacha",AY2="Origin"),ISBLANK(AZ2)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="BE2" s="3"/>
+      <c r="BG2" s="4" t="str">
+        <f>IF(AND(OR(BE2="Gacha",BE2="Origin"),ISBLANK(BF2)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="BL2" t="s">
         <v>9</v>
       </c>
       <c r="BN2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BO2">
         <v>10</v>
@@ -4822,6 +4812,10 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K3" s="4" t="str">
+        <f t="shared" ref="K3:K21" si="12">IF(AND(OR(I3="Gacha",I3="Origin"),ISBLANK(J3)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="L3">
         <v>1</v>
       </c>
@@ -4834,6 +4828,10 @@
       <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="Q3" s="4" t="str">
+        <f t="shared" ref="Q3:Q21" si="13">IF(AND(OR(O3="Gacha",O3="Origin"),ISBLANK(P3)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="R3">
         <v>1</v>
       </c>
@@ -4846,6 +4844,10 @@
       <c r="U3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W3" s="4" t="str">
+        <f t="shared" ref="W3:W21" si="14">IF(AND(OR(U3="Gacha",U3="Origin"),ISBLANK(V3)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="X3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -4856,11 +4858,35 @@
         <v>1</v>
       </c>
       <c r="AA3" s="3"/>
+      <c r="AC3" s="4" t="str">
+        <f t="shared" ref="AC3:AC21" si="15">IF(AND(OR(AA3="Gacha",AA3="Origin"),ISBLANK(AB3)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AG3" s="3"/>
+      <c r="AI3" s="4" t="str">
+        <f t="shared" ref="AI3:AI21" si="16">IF(AND(OR(AG3="Gacha",AG3="Origin"),ISBLANK(AH3)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AM3" s="3"/>
+      <c r="AO3" s="4" t="str">
+        <f t="shared" ref="AO3:AO21" si="17">IF(AND(OR(AM3="Gacha",AM3="Origin"),ISBLANK(AN3)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AS3" s="3"/>
+      <c r="AU3" s="4" t="str">
+        <f t="shared" ref="AU3:AU21" si="18">IF(AND(OR(AS3="Gacha",AS3="Origin"),ISBLANK(AT3)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AY3" s="3"/>
+      <c r="BA3" s="4" t="str">
+        <f t="shared" ref="BA3:BA21" si="19">IF(AND(OR(AY3="Gacha",AY3="Origin"),ISBLANK(AZ3)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="BE3" s="3"/>
+      <c r="BG3" s="4" t="str">
+        <f t="shared" ref="BG3:BG21" si="20">IF(AND(OR(BE3="Gacha",BE3="Origin"),ISBLANK(BF3)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="BL3" t="s">
         <v>10</v>
       </c>
@@ -4880,7 +4906,7 @@
         <v>1001</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C9" si="12">IF(ISBLANK(I4),"",I4)
+        <f t="shared" ref="C4:C9" si="21">IF(ISBLANK(I4),"",I4)
 &amp;IF(ISBLANK(O4),"",", "&amp;O4)
 &amp;IF(ISBLANK(U4),"",", "&amp;U4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AA4)
@@ -4896,7 +4922,7 @@
         <v>2, 1, 4</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E9" si="13">IF(ISBLANK(J4),"",J4)
+        <f t="shared" ref="E4:E9" si="22">IF(ISBLANK(J4),"",J4)
 &amp;IF(ISBLANK(O4),"",", "&amp;P4)
 &amp;IF(ISBLANK(U4),"",", "&amp;V4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AB4)
@@ -4908,7 +4934,7 @@
         <v xml:space="preserve">, , </v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F9" si="14">IF(ISBLANK(L4),"",L4)
+        <f t="shared" ref="F4:F9" si="23">IF(ISBLANK(L4),"",L4)
 &amp;IF(ISBLANK(R4),"",", "&amp;R4)
 &amp;IF(ISBLANK(X4),"",", "&amp;X4)
 &amp;IF(ISBLANK(AD4),"",", "&amp;AD4)
@@ -4920,7 +4946,7 @@
         <v>1, 1, 0.075</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G9" si="15">IF(ISBLANK(M4),"",M4)
+        <f t="shared" ref="G4:G9" si="24">IF(ISBLANK(M4),"",M4)
 &amp;IF(ISBLANK(S4),"",", "&amp;S4)
 &amp;IF(ISBLANK(Y4),"",", "&amp;Y4)
 &amp;IF(ISBLANK(AE4),"",", "&amp;AE4)
@@ -4932,7 +4958,7 @@
         <v>0.05, 5, 1</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H9" si="16">IF(ISBLANK(N4),"",N4)
+        <f t="shared" ref="H4:H9" si="25">IF(ISBLANK(N4),"",N4)
 &amp;IF(ISBLANK(T4),"",", "&amp;T4)
 &amp;IF(ISBLANK(Z4),"",", "&amp;Z4)
 &amp;IF(ISBLANK(AF4),"",", "&amp;AF4)
@@ -4946,6 +4972,10 @@
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K4" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L4">
         <v>1</v>
       </c>
@@ -4958,6 +4988,10 @@
       <c r="O4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="Q4" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R4">
         <v>1</v>
       </c>
@@ -4970,6 +5004,10 @@
       <c r="U4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W4" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X4">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -4980,11 +5018,35 @@
         <v>1</v>
       </c>
       <c r="AA4" s="3"/>
+      <c r="AC4" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AG4" s="3"/>
+      <c r="AI4" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AM4" s="3"/>
+      <c r="AO4" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AS4" s="3"/>
+      <c r="AU4" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AY4" s="3"/>
+      <c r="BA4" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE4" s="3"/>
+      <c r="BG4" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="BL4" t="s">
         <v>11</v>
       </c>
@@ -5004,7 +5066,7 @@
         <v>1002</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C8" si="17">IF(ISBLANK(I5),"",I5)
+        <f t="shared" ref="C5:C8" si="26">IF(ISBLANK(I5),"",I5)
 &amp;IF(ISBLANK(O5),"",", "&amp;O5)
 &amp;IF(ISBLANK(U5),"",", "&amp;U5)
 &amp;IF(ISBLANK(AA5),"",", "&amp;AA5)
@@ -5020,7 +5082,7 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E8" si="18">IF(ISBLANK(J5),"",J5)
+        <f t="shared" ref="E5:E8" si="27">IF(ISBLANK(J5),"",J5)
 &amp;IF(ISBLANK(O5),"",", "&amp;P5)
 &amp;IF(ISBLANK(U5),"",", "&amp;V5)
 &amp;IF(ISBLANK(AA5),"",", "&amp;AB5)
@@ -5032,7 +5094,7 @@
         <v>, , , e</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" ref="F5:F8" si="19">IF(ISBLANK(L5),"",L5)
+        <f t="shared" ref="F5:F8" si="28">IF(ISBLANK(L5),"",L5)
 &amp;IF(ISBLANK(R5),"",", "&amp;R5)
 &amp;IF(ISBLANK(X5),"",", "&amp;X5)
 &amp;IF(ISBLANK(AD5),"",", "&amp;AD5)
@@ -5044,7 +5106,7 @@
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5:G8" si="20">IF(ISBLANK(M5),"",M5)
+        <f t="shared" ref="G5:G8" si="29">IF(ISBLANK(M5),"",M5)
 &amp;IF(ISBLANK(S5),"",", "&amp;S5)
 &amp;IF(ISBLANK(Y5),"",", "&amp;Y5)
 &amp;IF(ISBLANK(AE5),"",", "&amp;AE5)
@@ -5056,7 +5118,7 @@
         <v>0.085, 5, 1, 1</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H8" si="21">IF(ISBLANK(N5),"",N5)
+        <f t="shared" ref="H5:H8" si="30">IF(ISBLANK(N5),"",N5)
 &amp;IF(ISBLANK(T5),"",", "&amp;T5)
 &amp;IF(ISBLANK(Z5),"",", "&amp;Z5)
 &amp;IF(ISBLANK(AF5),"",", "&amp;AF5)
@@ -5070,6 +5132,10 @@
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K5" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L5">
         <v>1</v>
       </c>
@@ -5082,6 +5148,10 @@
       <c r="O5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="Q5" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R5">
         <v>1</v>
       </c>
@@ -5094,6 +5164,10 @@
       <c r="U5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W5" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X5">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -5109,6 +5183,10 @@
       <c r="AB5" t="s">
         <v>75</v>
       </c>
+      <c r="AC5" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD5">
         <v>1E-3</v>
       </c>
@@ -5119,15 +5197,35 @@
         <v>1</v>
       </c>
       <c r="AG5" s="3"/>
+      <c r="AI5" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AM5" s="3"/>
+      <c r="AO5" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AS5" s="3"/>
+      <c r="AU5" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AY5" s="3"/>
+      <c r="BA5" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE5" s="3"/>
+      <c r="BG5" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="BL5" t="s">
         <v>12</v>
       </c>
       <c r="BN5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BO5">
         <v>8</v>
@@ -5142,7 +5240,7 @@
         <v>1003</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D6" s="1" t="str">
@@ -5150,24 +5248,28 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>, , , e</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.12, 5, 1, 1</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.72, 5, 1, 1</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L6">
         <v>1</v>
       </c>
@@ -5180,6 +5282,10 @@
       <c r="O6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="Q6" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R6">
         <v>1</v>
       </c>
@@ -5192,6 +5298,10 @@
       <c r="U6" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W6" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X6">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -5207,6 +5317,10 @@
       <c r="AB6" t="s">
         <v>75</v>
       </c>
+      <c r="AC6" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD6">
         <v>1E-3</v>
       </c>
@@ -5217,15 +5331,35 @@
         <v>1</v>
       </c>
       <c r="AG6" s="3"/>
+      <c r="AI6" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AM6" s="3"/>
+      <c r="AO6" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AS6" s="3"/>
+      <c r="AU6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AY6" s="3"/>
+      <c r="BA6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE6" s="3"/>
+      <c r="BG6" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="BL6" t="s">
         <v>13</v>
       </c>
       <c r="BN6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO6">
         <v>9</v>
@@ -5240,7 +5374,7 @@
         <v>1004</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D7" s="1" t="str">
@@ -5248,24 +5382,28 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>, , , e</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.155, 5, 1, 1</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.755, 5, 1, 1</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K7" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L7">
         <v>1</v>
       </c>
@@ -5278,6 +5416,10 @@
       <c r="O7" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="Q7" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R7">
         <v>1</v>
       </c>
@@ -5290,6 +5432,10 @@
       <c r="U7" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W7" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X7">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -5305,6 +5451,10 @@
       <c r="AB7" t="s">
         <v>75</v>
       </c>
+      <c r="AC7" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD7">
         <v>1E-3</v>
       </c>
@@ -5315,10 +5465,30 @@
         <v>1</v>
       </c>
       <c r="AG7" s="3"/>
+      <c r="AI7" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AM7" s="3"/>
+      <c r="AO7" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AS7" s="3"/>
+      <c r="AU7" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AY7" s="3"/>
+      <c r="BA7" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE7" s="3"/>
+      <c r="BG7" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="BL7" t="s">
         <v>14</v>
       </c>
@@ -5341,7 +5511,7 @@
         <v>65</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Gold, Exp, Heart, LevelPack</v>
       </c>
       <c r="D8" s="1" t="str">
@@ -5349,24 +5519,28 @@
         <v>2, 1, 4, 3</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">, , , </v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>1, 1, 1, 1</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.015, 100, 2, 1</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.145, 100, 2, 1</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K8" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L8">
         <v>1</v>
       </c>
@@ -5379,6 +5553,10 @@
       <c r="O8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="Q8" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R8">
         <v>1</v>
       </c>
@@ -5391,6 +5569,10 @@
       <c r="U8" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W8" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X8">
         <v>1</v>
       </c>
@@ -5403,6 +5585,10 @@
       <c r="AA8" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="AC8" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD8">
         <v>1</v>
       </c>
@@ -5413,10 +5599,30 @@
         <v>1</v>
       </c>
       <c r="AG8" s="3"/>
+      <c r="AI8" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AM8" s="3"/>
+      <c r="AO8" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AS8" s="3"/>
+      <c r="AU8" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AY8" s="3"/>
+      <c r="BA8" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE8" s="3"/>
+      <c r="BG8" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="BL8" t="s">
         <v>67</v>
       </c>
@@ -5436,7 +5642,7 @@
         <v>5001</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal</v>
       </c>
       <c r="D9" s="1" t="str">
@@ -5444,24 +5650,28 @@
         <v>2, 1, 4, 3, 7, 7</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">, , , , , </v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1, 1, 1, 1, 0.7, 0.1</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0.05, 100, 2, 1, 1, 1</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.65, 100, 2, 1, 1, 1</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L9">
         <v>1</v>
       </c>
@@ -5474,6 +5684,10 @@
       <c r="O9" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="Q9" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R9">
         <v>1</v>
       </c>
@@ -5486,6 +5700,10 @@
       <c r="U9" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W9" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X9">
         <v>1</v>
       </c>
@@ -5498,6 +5716,10 @@
       <c r="AA9" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="AC9" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD9">
         <v>1</v>
       </c>
@@ -5510,6 +5732,10 @@
       <c r="AG9" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AI9" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AJ9">
         <v>0.7</v>
       </c>
@@ -5522,6 +5748,10 @@
       <c r="AM9" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AO9" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AP9">
         <v>0.1</v>
       </c>
@@ -5532,10 +5762,22 @@
         <v>1</v>
       </c>
       <c r="AS9" s="3"/>
+      <c r="AU9" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AY9" s="3"/>
+      <c r="BA9" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE9" s="3"/>
+      <c r="BG9" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="BL9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BN9" t="s">
         <v>10</v>
@@ -5553,7 +5795,7 @@
         <v>5002</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C12" si="22">IF(ISBLANK(I10),"",I10)
+        <f t="shared" ref="C10:C12" si="31">IF(ISBLANK(I10),"",I10)
 &amp;IF(ISBLANK(O10),"",", "&amp;O10)
 &amp;IF(ISBLANK(U10),"",", "&amp;U10)
 &amp;IF(ISBLANK(AA10),"",", "&amp;AA10)
@@ -5569,7 +5811,7 @@
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" ref="E10:E12" si="23">IF(ISBLANK(J10),"",J10)
+        <f t="shared" ref="E10:E12" si="32">IF(ISBLANK(J10),"",J10)
 &amp;IF(ISBLANK(O10),"",", "&amp;P10)
 &amp;IF(ISBLANK(U10),"",", "&amp;V10)
 &amp;IF(ISBLANK(AA10),"",", "&amp;AB10)
@@ -5581,7 +5823,7 @@
         <v>, , , , , , e, e</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10:F12" si="24">IF(ISBLANK(L10),"",L10)
+        <f t="shared" ref="F10:F12" si="33">IF(ISBLANK(L10),"",L10)
 &amp;IF(ISBLANK(R10),"",", "&amp;R10)
 &amp;IF(ISBLANK(X10),"",", "&amp;X10)
 &amp;IF(ISBLANK(AD10),"",", "&amp;AD10)
@@ -5593,7 +5835,7 @@
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G12" si="25">IF(ISBLANK(M10),"",M10)
+        <f t="shared" ref="G10:G12" si="34">IF(ISBLANK(M10),"",M10)
 &amp;IF(ISBLANK(S10),"",", "&amp;S10)
 &amp;IF(ISBLANK(Y10),"",", "&amp;Y10)
 &amp;IF(ISBLANK(AE10),"",", "&amp;AE10)
@@ -5605,7 +5847,7 @@
         <v>0.085, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" ref="H10:H12" si="26">IF(ISBLANK(N10),"",N10)
+        <f t="shared" ref="H10:H12" si="35">IF(ISBLANK(N10),"",N10)
 &amp;IF(ISBLANK(T10),"",", "&amp;T10)
 &amp;IF(ISBLANK(Z10),"",", "&amp;Z10)
 &amp;IF(ISBLANK(AF10),"",", "&amp;AF10)
@@ -5619,6 +5861,10 @@
       <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L10">
         <v>1</v>
       </c>
@@ -5631,6 +5877,10 @@
       <c r="O10" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="Q10" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R10">
         <v>1</v>
       </c>
@@ -5643,6 +5893,10 @@
       <c r="U10" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W10" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X10">
         <v>1</v>
       </c>
@@ -5655,6 +5909,10 @@
       <c r="AA10" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="AC10" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD10">
         <v>1</v>
       </c>
@@ -5667,6 +5925,10 @@
       <c r="AG10" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AI10" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AJ10">
         <v>0.7</v>
       </c>
@@ -5679,6 +5941,10 @@
       <c r="AM10" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AO10" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AP10">
         <v>0.1</v>
       </c>
@@ -5694,6 +5960,10 @@
       <c r="AT10" t="s">
         <v>75</v>
       </c>
+      <c r="AU10" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AV10">
         <v>0.25</v>
       </c>
@@ -5709,6 +5979,10 @@
       <c r="AZ10" t="s">
         <v>76</v>
       </c>
+      <c r="BA10" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BB10">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5719,6 +5993,10 @@
         <v>1</v>
       </c>
       <c r="BE10" s="3"/>
+      <c r="BG10" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="BL10" t="s">
         <v>77</v>
       </c>
@@ -5738,7 +6016,7 @@
         <v>5003</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D11" s="1" t="str">
@@ -5746,24 +6024,28 @@
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>, , , , , , e, e</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0.12, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0.72, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K11" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L11">
         <v>1</v>
       </c>
@@ -5776,6 +6058,10 @@
       <c r="O11" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="Q11" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R11">
         <v>1</v>
       </c>
@@ -5788,6 +6074,10 @@
       <c r="U11" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W11" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X11">
         <v>1</v>
       </c>
@@ -5800,6 +6090,10 @@
       <c r="AA11" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="AC11" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD11">
         <v>1</v>
       </c>
@@ -5812,6 +6106,10 @@
       <c r="AG11" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AI11" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AJ11">
         <v>0.7</v>
       </c>
@@ -5824,6 +6122,10 @@
       <c r="AM11" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AO11" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AP11">
         <v>0.1</v>
       </c>
@@ -5839,6 +6141,10 @@
       <c r="AT11" t="s">
         <v>75</v>
       </c>
+      <c r="AU11" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AV11">
         <v>0.25</v>
       </c>
@@ -5854,6 +6160,10 @@
       <c r="AZ11" t="s">
         <v>76</v>
       </c>
+      <c r="BA11" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BB11">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5864,8 +6174,12 @@
         <v>1</v>
       </c>
       <c r="BE11" s="3"/>
+      <c r="BG11" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="BL11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BN11" t="s">
         <v>9</v>
@@ -5883,7 +6197,7 @@
         <v>5004</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
       </c>
       <c r="D12" s="1" t="str">
@@ -5891,24 +6205,28 @@
         <v>2, 1, 4, 3, 7, 7, 5, 5</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>, , , , , , e, e</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0.755, 100, 2, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K12" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L12">
         <v>1</v>
       </c>
@@ -5921,6 +6239,10 @@
       <c r="O12" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="Q12" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R12">
         <v>1</v>
       </c>
@@ -5933,6 +6255,10 @@
       <c r="U12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="W12" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X12">
         <v>1</v>
       </c>
@@ -5945,6 +6271,10 @@
       <c r="AA12" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="AC12" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD12">
         <v>1</v>
       </c>
@@ -5957,6 +6287,10 @@
       <c r="AG12" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AI12" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AJ12">
         <v>0.7</v>
       </c>
@@ -5969,6 +6303,10 @@
       <c r="AM12" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AO12" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AP12">
         <v>0.1</v>
       </c>
@@ -5984,6 +6322,10 @@
       <c r="AT12" t="s">
         <v>75</v>
       </c>
+      <c r="AU12" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AV12">
         <v>0.25</v>
       </c>
@@ -5999,6 +6341,10 @@
       <c r="AZ12" t="s">
         <v>76</v>
       </c>
+      <c r="BA12" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BB12">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -6009,6 +6355,10 @@
         <v>1</v>
       </c>
       <c r="BE12" s="3"/>
+      <c r="BG12" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -6018,7 +6368,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13" si="27">IF(ISBLANK(I13),"",I13)
+        <f t="shared" ref="C13" si="36">IF(ISBLANK(I13),"",I13)
 &amp;IF(ISBLANK(O13),"",", "&amp;O13)
 &amp;IF(ISBLANK(U13),"",", "&amp;U13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AA13)
@@ -6034,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13" si="28">IF(ISBLANK(J13),"",J13)
+        <f t="shared" ref="E13" si="37">IF(ISBLANK(J13),"",J13)
 &amp;IF(ISBLANK(O13),"",", "&amp;P13)
 &amp;IF(ISBLANK(U13),"",", "&amp;V13)
 &amp;IF(ISBLANK(AA13),"",", "&amp;AB13)
@@ -6046,7 +6396,7 @@
         <v/>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13" si="29">IF(ISBLANK(L13),"",L13)
+        <f t="shared" ref="F13" si="38">IF(ISBLANK(L13),"",L13)
 &amp;IF(ISBLANK(R13),"",", "&amp;R13)
 &amp;IF(ISBLANK(X13),"",", "&amp;X13)
 &amp;IF(ISBLANK(AD13),"",", "&amp;AD13)
@@ -6058,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13" si="30">IF(ISBLANK(M13),"",M13)
+        <f t="shared" ref="G13" si="39">IF(ISBLANK(M13),"",M13)
 &amp;IF(ISBLANK(S13),"",", "&amp;S13)
 &amp;IF(ISBLANK(Y13),"",", "&amp;Y13)
 &amp;IF(ISBLANK(AE13),"",", "&amp;AE13)
@@ -6070,7 +6420,7 @@
         <v>0.015</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13" si="31">IF(ISBLANK(N13),"",N13)
+        <f t="shared" ref="H13" si="40">IF(ISBLANK(N13),"",N13)
 &amp;IF(ISBLANK(T13),"",", "&amp;T13)
 &amp;IF(ISBLANK(Z13),"",", "&amp;Z13)
 &amp;IF(ISBLANK(AF13),"",", "&amp;AF13)
@@ -6084,6 +6434,10 @@
       <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L13">
         <v>1</v>
       </c>
@@ -6094,19 +6448,51 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="O13" s="3"/>
+      <c r="Q13" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="U13" s="3"/>
+      <c r="W13" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="AA13" s="3"/>
+      <c r="AC13" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AG13" s="3"/>
+      <c r="AI13" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AM13" s="3"/>
+      <c r="AO13" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AS13" s="3"/>
+      <c r="AU13" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA13" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE13" s="3"/>
+      <c r="BG13" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6001</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ref="C14:C17" si="32">IF(ISBLANK(I14),"",I14)
+        <f t="shared" ref="C14:C17" si="41">IF(ISBLANK(I14),"",I14)
 &amp;IF(ISBLANK(O14),"",", "&amp;O14)
 &amp;IF(ISBLANK(U14),"",", "&amp;U14)
 &amp;IF(ISBLANK(AA14),"",", "&amp;AA14)
@@ -6122,7 +6508,7 @@
         <v>2, 7, 7</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" ref="E14:E17" si="33">IF(ISBLANK(J14),"",J14)
+        <f t="shared" ref="E14:E17" si="42">IF(ISBLANK(J14),"",J14)
 &amp;IF(ISBLANK(O14),"",", "&amp;P14)
 &amp;IF(ISBLANK(U14),"",", "&amp;V14)
 &amp;IF(ISBLANK(AA14),"",", "&amp;AB14)
@@ -6134,7 +6520,7 @@
         <v xml:space="preserve">, , </v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" ref="F14:F17" si="34">IF(ISBLANK(L14),"",L14)
+        <f t="shared" ref="F14:F17" si="43">IF(ISBLANK(L14),"",L14)
 &amp;IF(ISBLANK(R14),"",", "&amp;R14)
 &amp;IF(ISBLANK(X14),"",", "&amp;X14)
 &amp;IF(ISBLANK(AD14),"",", "&amp;AD14)
@@ -6146,7 +6532,7 @@
         <v>1, 0.7, 0.1</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" ref="G14:G17" si="35">IF(ISBLANK(M14),"",M14)
+        <f t="shared" ref="G14:G17" si="44">IF(ISBLANK(M14),"",M14)
 &amp;IF(ISBLANK(S14),"",", "&amp;S14)
 &amp;IF(ISBLANK(Y14),"",", "&amp;Y14)
 &amp;IF(ISBLANK(AE14),"",", "&amp;AE14)
@@ -6158,7 +6544,7 @@
         <v>0.05, 1, 1</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" ref="H14:H17" si="36">IF(ISBLANK(N14),"",N14)
+        <f t="shared" ref="H14:H17" si="45">IF(ISBLANK(N14),"",N14)
 &amp;IF(ISBLANK(T14),"",", "&amp;T14)
 &amp;IF(ISBLANK(Z14),"",", "&amp;Z14)
 &amp;IF(ISBLANK(AF14),"",", "&amp;AF14)
@@ -6172,6 +6558,10 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K14" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L14">
         <v>1</v>
       </c>
@@ -6184,6 +6574,10 @@
       <c r="O14" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="Q14" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R14">
         <v>0.7</v>
       </c>
@@ -6196,6 +6590,10 @@
       <c r="U14" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="W14" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X14">
         <v>0.1</v>
       </c>
@@ -6206,17 +6604,41 @@
         <v>1</v>
       </c>
       <c r="AA14" s="3"/>
+      <c r="AC14" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AG14" s="3"/>
+      <c r="AI14" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AM14" s="3"/>
+      <c r="AO14" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AS14" s="3"/>
+      <c r="AU14" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA14" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE14" s="3"/>
+      <c r="BG14" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6002</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D15" s="1" t="str">
@@ -6224,24 +6646,28 @@
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>, , , e, e, e</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.085, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0.685, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L15">
         <v>1</v>
       </c>
@@ -6254,6 +6680,10 @@
       <c r="O15" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="Q15" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R15">
         <v>0.7</v>
       </c>
@@ -6266,6 +6696,10 @@
       <c r="U15" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="W15" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X15">
         <v>0.1</v>
       </c>
@@ -6281,6 +6715,10 @@
       <c r="AB15" t="s">
         <v>75</v>
       </c>
+      <c r="AC15" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD15">
         <v>0.5</v>
       </c>
@@ -6296,6 +6734,10 @@
       <c r="AH15" t="s">
         <v>75</v>
       </c>
+      <c r="AI15" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AJ15">
         <v>0.1</v>
       </c>
@@ -6311,6 +6753,10 @@
       <c r="AN15" t="s">
         <v>75</v>
       </c>
+      <c r="AO15" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AP15">
         <v>0.05</v>
       </c>
@@ -6321,14 +6767,26 @@
         <v>1</v>
       </c>
       <c r="AS15" s="3"/>
+      <c r="AU15" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA15" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE15" s="3"/>
+      <c r="BG15" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6003</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D16" s="1" t="str">
@@ -6336,24 +6794,28 @@
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>, , , e, e, e</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.12, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0.72, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L16">
         <v>1</v>
       </c>
@@ -6366,6 +6828,10 @@
       <c r="O16" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="Q16" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R16">
         <v>0.7</v>
       </c>
@@ -6378,6 +6844,10 @@
       <c r="U16" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="W16" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X16">
         <v>0.1</v>
       </c>
@@ -6393,6 +6863,10 @@
       <c r="AB16" t="s">
         <v>75</v>
       </c>
+      <c r="AC16" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD16">
         <v>0.5</v>
       </c>
@@ -6408,6 +6882,10 @@
       <c r="AH16" t="s">
         <v>75</v>
       </c>
+      <c r="AI16" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AJ16">
         <v>0.1</v>
       </c>
@@ -6423,6 +6901,10 @@
       <c r="AN16" t="s">
         <v>75</v>
       </c>
+      <c r="AO16" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AP16">
         <v>0.05</v>
       </c>
@@ -6433,14 +6915,26 @@
         <v>1</v>
       </c>
       <c r="AS16" s="3"/>
+      <c r="AU16" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA16" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE16" s="3"/>
+      <c r="BG16" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6004</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D17" s="1" t="str">
@@ -6448,24 +6942,28 @@
         <v>2, 7, 7, 5, 5, 5</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>, , , e, e, e</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.155, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0.755, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L17">
         <v>1</v>
       </c>
@@ -6478,6 +6976,10 @@
       <c r="O17" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="Q17" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R17">
         <v>0.7</v>
       </c>
@@ -6490,6 +6992,10 @@
       <c r="U17" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="W17" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X17">
         <v>0.1</v>
       </c>
@@ -6505,6 +7011,10 @@
       <c r="AB17" t="s">
         <v>75</v>
       </c>
+      <c r="AC17" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD17">
         <v>0.5</v>
       </c>
@@ -6520,6 +7030,10 @@
       <c r="AH17" t="s">
         <v>75</v>
       </c>
+      <c r="AI17" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AJ17">
         <v>0.1</v>
       </c>
@@ -6535,6 +7049,10 @@
       <c r="AN17" t="s">
         <v>75</v>
       </c>
+      <c r="AO17" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AP17">
         <v>0.05</v>
       </c>
@@ -6545,7 +7063,19 @@
         <v>1</v>
       </c>
       <c r="AS17" s="3"/>
+      <c r="AU17" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA17" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE17" s="3"/>
+      <c r="BG17" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -6555,7 +7085,7 @@
         <v>80</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18" si="37">IF(ISBLANK(I18),"",I18)
+        <f t="shared" ref="C18" si="46">IF(ISBLANK(I18),"",I18)
 &amp;IF(ISBLANK(O18),"",", "&amp;O18)
 &amp;IF(ISBLANK(U18),"",", "&amp;U18)
 &amp;IF(ISBLANK(AA18),"",", "&amp;AA18)
@@ -6571,7 +7101,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" ref="E18" si="38">IF(ISBLANK(J18),"",J18)
+        <f t="shared" ref="E18" si="47">IF(ISBLANK(J18),"",J18)
 &amp;IF(ISBLANK(O18),"",", "&amp;P18)
 &amp;IF(ISBLANK(U18),"",", "&amp;V18)
 &amp;IF(ISBLANK(AA18),"",", "&amp;AB18)
@@ -6583,7 +7113,7 @@
         <v>g</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" ref="F18" si="39">IF(ISBLANK(L18),"",L18)
+        <f t="shared" ref="F18" si="48">IF(ISBLANK(L18),"",L18)
 &amp;IF(ISBLANK(R18),"",", "&amp;R18)
 &amp;IF(ISBLANK(X18),"",", "&amp;X18)
 &amp;IF(ISBLANK(AD18),"",", "&amp;AD18)
@@ -6595,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" ref="G18" si="40">IF(ISBLANK(M18),"",M18)
+        <f t="shared" ref="G18" si="49">IF(ISBLANK(M18),"",M18)
 &amp;IF(ISBLANK(S18),"",", "&amp;S18)
 &amp;IF(ISBLANK(Y18),"",", "&amp;Y18)
 &amp;IF(ISBLANK(AE18),"",", "&amp;AE18)
@@ -6607,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f t="shared" ref="H18" si="41">IF(ISBLANK(N18),"",N18)
+        <f t="shared" ref="H18" si="50">IF(ISBLANK(N18),"",N18)
 &amp;IF(ISBLANK(T18),"",", "&amp;T18)
 &amp;IF(ISBLANK(Z18),"",", "&amp;Z18)
 &amp;IF(ISBLANK(AF18),"",", "&amp;AF18)
@@ -6624,6 +7154,10 @@
       <c r="J18" t="s">
         <v>82</v>
       </c>
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L18">
         <v>1</v>
       </c>
@@ -6634,13 +7168,45 @@
         <v>1</v>
       </c>
       <c r="O18" s="3"/>
+      <c r="Q18" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="U18" s="3"/>
+      <c r="W18" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="AA18" s="3"/>
+      <c r="AC18" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AG18" s="3"/>
+      <c r="AI18" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AM18" s="3"/>
+      <c r="AO18" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AS18" s="3"/>
+      <c r="AU18" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AY18" s="3"/>
+      <c r="BA18" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE18" s="3"/>
+      <c r="BG18" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -6650,7 +7216,7 @@
         <v>85</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:C22" si="42">IF(ISBLANK(I19),"",I19)
+        <f t="shared" ref="C19:C21" si="51">IF(ISBLANK(I19),"",I19)
 &amp;IF(ISBLANK(O19),"",", "&amp;O19)
 &amp;IF(ISBLANK(U19),"",", "&amp;U19)
 &amp;IF(ISBLANK(AA19),"",", "&amp;AA19)
@@ -6666,7 +7232,7 @@
         <v>5, 5, 5, 5, 5, 5, 5, 5</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" ref="E19:E22" si="43">IF(ISBLANK(J19),"",J19)
+        <f t="shared" ref="E19:E21" si="52">IF(ISBLANK(J19),"",J19)
 &amp;IF(ISBLANK(O19),"",", "&amp;P19)
 &amp;IF(ISBLANK(U19),"",", "&amp;V19)
 &amp;IF(ISBLANK(AA19),"",", "&amp;AB19)
@@ -6678,7 +7244,7 @@
         <v>g, g, g, g, g, g, g, g</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" ref="F19:F22" si="44">IF(ISBLANK(L19),"",L19)
+        <f t="shared" ref="F19:F21" si="53">IF(ISBLANK(L19),"",L19)
 &amp;IF(ISBLANK(R19),"",", "&amp;R19)
 &amp;IF(ISBLANK(X19),"",", "&amp;X19)
 &amp;IF(ISBLANK(AD19),"",", "&amp;AD19)
@@ -6690,7 +7256,7 @@
         <v>1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" ref="G19:G22" si="45">IF(ISBLANK(M19),"",M19)
+        <f t="shared" ref="G19:G21" si="54">IF(ISBLANK(M19),"",M19)
 &amp;IF(ISBLANK(S19),"",", "&amp;S19)
 &amp;IF(ISBLANK(Y19),"",", "&amp;Y19)
 &amp;IF(ISBLANK(AE19),"",", "&amp;AE19)
@@ -6702,7 +7268,7 @@
         <v>1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" ref="H19:H22" si="46">IF(ISBLANK(N19),"",N19)
+        <f t="shared" ref="H19:H21" si="55">IF(ISBLANK(N19),"",N19)
 &amp;IF(ISBLANK(T19),"",", "&amp;T19)
 &amp;IF(ISBLANK(Z19),"",", "&amp;Z19)
 &amp;IF(ISBLANK(AF19),"",", "&amp;AF19)
@@ -6719,6 +7285,10 @@
       <c r="J19" t="s">
         <v>82</v>
       </c>
+      <c r="K19" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L19">
         <v>1</v>
       </c>
@@ -6734,6 +7304,10 @@
       <c r="P19" t="s">
         <v>82</v>
       </c>
+      <c r="Q19" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R19">
         <v>1</v>
       </c>
@@ -6749,6 +7323,10 @@
       <c r="V19" t="s">
         <v>82</v>
       </c>
+      <c r="W19" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="X19">
         <v>1</v>
       </c>
@@ -6764,6 +7342,10 @@
       <c r="AB19" t="s">
         <v>82</v>
       </c>
+      <c r="AC19" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="AD19">
         <v>1</v>
       </c>
@@ -6779,6 +7361,10 @@
       <c r="AH19" t="s">
         <v>82</v>
       </c>
+      <c r="AI19" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AJ19">
         <v>1</v>
       </c>
@@ -6794,6 +7380,10 @@
       <c r="AN19" t="s">
         <v>82</v>
       </c>
+      <c r="AO19" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AP19">
         <v>1</v>
       </c>
@@ -6809,6 +7399,10 @@
       <c r="AT19" t="s">
         <v>82</v>
       </c>
+      <c r="AU19" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AV19">
         <v>1</v>
       </c>
@@ -6824,6 +7418,10 @@
       <c r="AZ19" t="s">
         <v>82</v>
       </c>
+      <c r="BA19" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BB19">
         <v>1</v>
       </c>
@@ -6834,6 +7432,10 @@
         <v>1</v>
       </c>
       <c r="BE19" s="3"/>
+      <c r="BG19" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -6843,32 +7445,36 @@
         <v>87</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="42"/>
-        <v>Gold, Gold, PowerPoint, PowerPoint, Diamond, Origin</v>
+        <f t="shared" si="51"/>
+        <v>Gold, Gold, Diamond, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 2, 10, 10, 8, 9</v>
+        <v>2, 2, 8, 10, 10, 10, 10, 10, 9</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>, , , , , s</v>
+        <f t="shared" si="52"/>
+        <v>, , , , , , , , s</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="44"/>
-        <v>1, 1, 1, 1, 0.66, 0.5</v>
+        <f t="shared" si="53"/>
+        <v>1, 1, 0.66, 1, 1, 1, 1, 1, 0.05</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1400, 1400, 15, 15, 1, 1</v>
+        <f t="shared" si="54"/>
+        <v>1400, 1400, 1, 15, 15, 15, 15, 15, 1</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>1600, 1600, 25, 25, 3, 1</v>
+        <f t="shared" si="55"/>
+        <v>1600, 1600, 3, 25, 25, 25, 25, 25, 1</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="L20">
         <v>1</v>
       </c>
@@ -6881,6 +7487,10 @@
       <c r="O20" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="Q20" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="R20">
         <v>1</v>
       </c>
@@ -6890,20 +7500,28 @@
       <c r="T20">
         <v>1600</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>94</v>
+      <c r="U20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="W20" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="Y20">
-        <v>15</v>
-      </c>
-      <c r="Z20">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>3</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="AC20" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -6914,82 +7532,143 @@
       <c r="AF20">
         <v>25</v>
       </c>
-      <c r="AG20" s="9" t="s">
-        <v>91</v>
+      <c r="AG20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI20" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="AJ20">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="5">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="AL20">
+        <v>25</v>
       </c>
       <c r="AM20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AN20" t="s">
-        <v>105</v>
+      <c r="AO20" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AR20">
-        <v>1</v>
-      </c>
-      <c r="AS20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="BE20" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="AS20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU20" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
+        <v>15</v>
+      </c>
+      <c r="AX20">
+        <v>25</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA20" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>15</v>
+      </c>
+      <c r="BD20">
+        <v>25</v>
+      </c>
+      <c r="BE20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG20" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="BH20">
+        <v>0.05</v>
+      </c>
+      <c r="BI20">
+        <v>1</v>
+      </c>
+      <c r="BJ20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="42"/>
-        <v>Gold, PowerPoint, Diamond, Origin, Origin, Origin</v>
+        <f t="shared" si="51"/>
+        <v>PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin, Origin</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2, 10, 8, 9, 9, 9</v>
+        <v>10, 10, 10, 10, 10, 10, 9, 9</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>, , , s, s, s</v>
+        <f t="shared" si="52"/>
+        <v>, , , , , , s, s</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="44"/>
-        <v>1, 1, 1, 0.05, 0.05, 0.05</v>
+        <f t="shared" si="53"/>
+        <v>1, 1, 1, 1, 1, 1, 0.05, 0.05</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>8400, 35, 6, 1, 1, 1</v>
+        <f t="shared" si="54"/>
+        <v>35, 35, 35, 35, 35, 35, 1, 1</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>9600, 45, 12, 1, 1, 1</v>
+        <f t="shared" si="55"/>
+        <v>45, 45, 45, 45, 45, 45, 1, 1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8400</v>
+        <v>35</v>
       </c>
       <c r="N21">
-        <v>9600</v>
+        <v>45</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="R21">
         <v>1</v>
@@ -7001,222 +7680,111 @@
         <v>45</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="W21" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="Z21">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="AA21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC21" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>35</v>
+      </c>
+      <c r="AF21">
+        <v>45</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI21" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>35</v>
+      </c>
+      <c r="AL21">
+        <v>45</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO21" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>35</v>
+      </c>
+      <c r="AR21">
+        <v>45</v>
+      </c>
+      <c r="AS21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AB21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD21">
+      <c r="AT21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU21" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AV21">
         <v>0.05</v>
       </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="3" t="s">
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AH21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ21">
+      <c r="AZ21" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA21" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BB21">
         <v>0.05</v>
       </c>
-      <c r="AK21">
-        <v>1</v>
-      </c>
-      <c r="AL21">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP21">
-        <v>0.05</v>
-      </c>
-      <c r="AQ21">
-        <v>1</v>
-      </c>
-      <c r="AR21">
-        <v>1</v>
-      </c>
-      <c r="AS21" s="3"/>
-      <c r="AY21" s="3"/>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
+      </c>
       <c r="BE21" s="3"/>
-    </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="42"/>
-        <v>Gold, PowerPoint, Diamond, Origin, Origin, Origin, Origin, Origin, Origin</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 10, 8, 9, 9, 9, 9, 9, 9</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>, , , s, s, s, s, s, s</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="44"/>
-        <v>1, 1, 1, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1, 45, 10, 1, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>1, 55, 20, 1, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22" s="5">
-        <v>45</v>
-      </c>
-      <c r="T22">
-        <v>55</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>10</v>
-      </c>
-      <c r="Z22">
-        <v>20</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD22">
-        <v>0.05</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ22">
-        <v>0.05</v>
-      </c>
-      <c r="AK22">
-        <v>1</v>
-      </c>
-      <c r="AL22">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP22">
-        <v>0.05</v>
-      </c>
-      <c r="AQ22">
-        <v>1</v>
-      </c>
-      <c r="AR22">
-        <v>1</v>
-      </c>
-      <c r="AS22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV22">
-        <v>0.05</v>
-      </c>
-      <c r="AW22">
-        <v>1</v>
-      </c>
-      <c r="AX22">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>96</v>
-      </c>
-      <c r="BB22">
-        <v>0.05</v>
-      </c>
-      <c r="BC22">
-        <v>1</v>
-      </c>
-      <c r="BD22">
-        <v>1</v>
-      </c>
-      <c r="BE22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>96</v>
-      </c>
-      <c r="BH22">
-        <v>0.05</v>
-      </c>
-      <c r="BI22">
-        <v>1</v>
-      </c>
-      <c r="BJ22">
-        <v>1</v>
+      <c r="BG21" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -7226,7 +7794,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 BE2:BE22 AY18:AY22 AS2:AS22 AM2:AM22 AG2:AG22 AA2:AA22 U2:U22 I2:I22 O2:O22" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 I2:I21 O2:O21 BE2:BE21" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7241,7 +7809,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7346,16 +7914,16 @@
         <v>68</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
       <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
         <v>101</v>
-      </c>
-      <c r="H1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -7369,7 +7937,7 @@
         <v>1.5</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2">
         <f>D2-1</f>
@@ -7388,7 +7956,7 @@
         <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <f>D2</f>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF76D6-68D4-4028-88A2-DACC05E7A986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824577DB-A68D-4BB9-864F-1C4482420D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2875,7 +2875,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C4DAB7BA-6536-46A6-A943-3FC420DA7127}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{80D351C3-1ED5-49FB-A2D5-4A857BE34037}">
       <text>
         <r>
           <rPr>
@@ -3190,7 +3190,182 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>한다</t>
+          <t xml:space="preserve">한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DropProcess.cs 97 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+if (weight &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">수정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">FindNotCharAdjustProb </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>찾을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있음</t>
         </r>
       </text>
     </comment>
@@ -4278,65 +4453,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS21"/>
+  <dimension ref="A1:BR21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="51.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="51.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="9" collapsed="1"/>
-    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="9" collapsed="1"/>
-    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="9" collapsed="1"/>
-    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="71" max="71" width="9" collapsed="1"/>
+    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7808,7 +7979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A247D73A-09DF-49DB-AD2D-BF27D4BFBFE9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824577DB-A68D-4BB9-864F-1C4482420D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61417B3F-4B51-4370-9B1D-0DC9C20DECD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2623,6 +2623,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{E3D386D7-067C-4DC1-9CC9-FE54E26C8C95}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>골드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>덩이는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4~7 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참고</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N20" authorId="0" shapeId="0" xr:uid="{A8846D11-4196-4265-BF5B-76AAED744A76}">
       <text>
         <r>
@@ -2861,7 +2913,1532 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>한다</t>
+          <t xml:space="preserve">한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">args.Di &gt; 15 || args.Go &gt; 10000 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정하고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>업로드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기존</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버전을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">지운다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>총량을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>성장까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고려하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최종량이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되게끔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다
+현재는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다이아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 15, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>골드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10000 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검사한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA20" authorId="0" shapeId="0" xr:uid="{5C699424-C015-4AD4-88CD-BC36AB512BAC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> PP </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검증은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박스는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오리진은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능하다
+신규</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> + LBP </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검증은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박스는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오리진은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능
+서버</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카운트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고치지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예정
+수정된다면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF20" authorId="0" shapeId="0" xr:uid="{254EAB98-7E0F-4D23-89DC-54783BE17077}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오리진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상자를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뽑은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>횟수로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계정이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가질</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최고량을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검사한다
+여기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경되면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코드를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고쳐야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>25*5 = 125
+45*6 = 270</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+이건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>게임</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도중에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바꾸면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상향으로만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>올려야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PlayerData.cs 451 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">라인
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PPMaxPerOriginBox = 125;
+PPMaxPerCharacterBox = 270;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">수정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PlayerData eClientSuspectCode.InvalidTotalPp </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>찾을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있음</t>
         </r>
       </text>
     </comment>
@@ -3637,7 +5214,105 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>값</t>
+          <t xml:space="preserve">값
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DropManager.cs 542 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">라인
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">const float _maxPowerPointRate = 1.5f;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상수를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고쳐야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
         </r>
       </text>
     </comment>
@@ -4455,11 +6130,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:BR21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -7687,7 +9362,7 @@
       <c r="Z20" s="5">
         <v>3</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AA20" s="9" t="s">
         <v>93</v>
       </c>
       <c r="AC20" s="4" t="str">
@@ -7700,7 +9375,7 @@
       <c r="AE20">
         <v>15</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="8">
         <v>25</v>
       </c>
       <c r="AG20" s="3" t="s">
@@ -7879,7 +9554,7 @@
       <c r="AE21">
         <v>35</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="8">
         <v>45</v>
       </c>
       <c r="AG21" s="3" t="s">
@@ -7979,8 +9654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A247D73A-09DF-49DB-AD2D-BF27D4BFBFE9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8071,9 +9746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F0AB79-C825-4F18-BA6C-94FFE1CA0F6E}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61417B3F-4B51-4370-9B1D-0DC9C20DECD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF79CCFA-1638-4A72-B9A3-D17FFE54A9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -5321,7 +5321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="107">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5680,6 +5680,22 @@
   </si>
   <si>
     <t>캐릭상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출용 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopDiamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출용 다이아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6128,61 +6144,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BR21"/>
+  <dimension ref="A1:BS23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="51.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="51.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9" collapsed="1"/>
+    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="9" collapsed="1"/>
+    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="9" collapsed="1"/>
+    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6659,7 +6679,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K21" si="12">IF(AND(OR(I3="Gacha",I3="Origin"),ISBLANK(J3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K3:K22" si="12">IF(AND(OR(I3="Gacha",I3="Origin"),ISBLANK(J3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L3">
@@ -6675,7 +6695,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q21" si="13">IF(AND(OR(O3="Gacha",O3="Origin"),ISBLANK(P3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="Q3:Q22" si="13">IF(AND(OR(O3="Gacha",O3="Origin"),ISBLANK(P3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="R3">
@@ -6691,7 +6711,7 @@
         <v>12</v>
       </c>
       <c r="W3" s="4" t="str">
-        <f t="shared" ref="W3:W21" si="14">IF(AND(OR(U3="Gacha",U3="Origin"),ISBLANK(V3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="W3:W22" si="14">IF(AND(OR(U3="Gacha",U3="Origin"),ISBLANK(V3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="X3">
@@ -6705,32 +6725,32 @@
       </c>
       <c r="AA3" s="3"/>
       <c r="AC3" s="4" t="str">
-        <f t="shared" ref="AC3:AC21" si="15">IF(AND(OR(AA3="Gacha",AA3="Origin"),ISBLANK(AB3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AC3:AC22" si="15">IF(AND(OR(AA3="Gacha",AA3="Origin"),ISBLANK(AB3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AG3" s="3"/>
       <c r="AI3" s="4" t="str">
-        <f t="shared" ref="AI3:AI21" si="16">IF(AND(OR(AG3="Gacha",AG3="Origin"),ISBLANK(AH3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AI3:AI22" si="16">IF(AND(OR(AG3="Gacha",AG3="Origin"),ISBLANK(AH3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AM3" s="3"/>
       <c r="AO3" s="4" t="str">
-        <f t="shared" ref="AO3:AO21" si="17">IF(AND(OR(AM3="Gacha",AM3="Origin"),ISBLANK(AN3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AO3:AO22" si="17">IF(AND(OR(AM3="Gacha",AM3="Origin"),ISBLANK(AN3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AS3" s="3"/>
       <c r="AU3" s="4" t="str">
-        <f t="shared" ref="AU3:AU21" si="18">IF(AND(OR(AS3="Gacha",AS3="Origin"),ISBLANK(AT3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AU3:AU22" si="18">IF(AND(OR(AS3="Gacha",AS3="Origin"),ISBLANK(AT3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AY3" s="3"/>
       <c r="BA3" s="4" t="str">
-        <f t="shared" ref="BA3:BA21" si="19">IF(AND(OR(AY3="Gacha",AY3="Origin"),ISBLANK(AZ3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="BA3:BA22" si="19">IF(AND(OR(AY3="Gacha",AY3="Origin"),ISBLANK(AZ3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BE3" s="3"/>
       <c r="BG3" s="4" t="str">
-        <f t="shared" ref="BG3:BG21" si="20">IF(AND(OR(BE3="Gacha",BE3="Origin"),ISBLANK(BF3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="BG3:BG22" si="20">IF(AND(OR(BE3="Gacha",BE3="Origin"),ISBLANK(BF3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BL3" t="s">
@@ -9062,7 +9082,7 @@
         <v>85</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:C21" si="51">IF(ISBLANK(I19),"",I19)
+        <f t="shared" ref="C19:C22" si="51">IF(ISBLANK(I19),"",I19)
 &amp;IF(ISBLANK(O19),"",", "&amp;O19)
 &amp;IF(ISBLANK(U19),"",", "&amp;U19)
 &amp;IF(ISBLANK(AA19),"",", "&amp;AA19)
@@ -9078,7 +9098,7 @@
         <v>5, 5, 5, 5, 5, 5, 5, 5</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" ref="E19:E21" si="52">IF(ISBLANK(J19),"",J19)
+        <f t="shared" ref="E19:E22" si="52">IF(ISBLANK(J19),"",J19)
 &amp;IF(ISBLANK(O19),"",", "&amp;P19)
 &amp;IF(ISBLANK(U19),"",", "&amp;V19)
 &amp;IF(ISBLANK(AA19),"",", "&amp;AB19)
@@ -9090,7 +9110,7 @@
         <v>g, g, g, g, g, g, g, g</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" ref="F19:F21" si="53">IF(ISBLANK(L19),"",L19)
+        <f t="shared" ref="F19:F22" si="53">IF(ISBLANK(L19),"",L19)
 &amp;IF(ISBLANK(R19),"",", "&amp;R19)
 &amp;IF(ISBLANK(X19),"",", "&amp;X19)
 &amp;IF(ISBLANK(AD19),"",", "&amp;AD19)
@@ -9102,7 +9122,7 @@
         <v>1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" ref="G19:G21" si="54">IF(ISBLANK(M19),"",M19)
+        <f t="shared" ref="G19:G22" si="54">IF(ISBLANK(M19),"",M19)
 &amp;IF(ISBLANK(S19),"",", "&amp;S19)
 &amp;IF(ISBLANK(Y19),"",", "&amp;Y19)
 &amp;IF(ISBLANK(AE19),"",", "&amp;AE19)
@@ -9114,7 +9134,7 @@
         <v>1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" ref="H19:H21" si="55">IF(ISBLANK(N19),"",N19)
+        <f t="shared" ref="H19:H22" si="55">IF(ISBLANK(N19),"",N19)
 &amp;IF(ISBLANK(T19),"",", "&amp;T19)
 &amp;IF(ISBLANK(Z19),"",", "&amp;Z19)
 &amp;IF(ISBLANK(AF19),"",", "&amp;AF19)
@@ -9633,6 +9653,272 @@
         <v/>
       </c>
     </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="51"/>
+        <v>Gold</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" ref="D22" ca="1" si="56">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C22,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>9999</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="55"/>
+        <v>9999</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f t="shared" ref="K22" si="57">IF(AND(OR(I22="Gacha",I22="Origin"),ISBLANK(J22)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9999</v>
+      </c>
+      <c r="N22">
+        <v>9999</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="Q22" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W22" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AC22" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AI22" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO22" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AU22" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA22" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG22" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ref="C23" si="58">IF(ISBLANK(I23),"",I23)
+&amp;IF(ISBLANK(O23),"",", "&amp;O23)
+&amp;IF(ISBLANK(U23),"",", "&amp;U23)
+&amp;IF(ISBLANK(AA23),"",", "&amp;AA23)
+&amp;IF(ISBLANK(AG23),"",", "&amp;AG23)
+&amp;IF(ISBLANK(AM23),"",", "&amp;AM23)
+&amp;IF(ISBLANK(AS23),"",", "&amp;AS23)
+&amp;IF(ISBLANK(AY23),"",", "&amp;AY23)
+&amp;IF(ISBLANK(BE23),"",", "&amp;BE23)</f>
+        <v>Diamond</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" ref="D23" ca="1" si="59">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C23,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" ref="E23" si="60">IF(ISBLANK(J23),"",J23)
+&amp;IF(ISBLANK(O23),"",", "&amp;P23)
+&amp;IF(ISBLANK(U23),"",", "&amp;V23)
+&amp;IF(ISBLANK(AA23),"",", "&amp;AB23)
+&amp;IF(ISBLANK(AG23),"",", "&amp;AH23)
+&amp;IF(ISBLANK(AM23),"",", "&amp;AN23)
+&amp;IF(ISBLANK(AS23),"",", "&amp;AT23)
+&amp;IF(ISBLANK(AY23),"",", "&amp;AZ23)
+&amp;IF(ISBLANK(BE23),"",", "&amp;BF23)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" ref="F23" si="61">IF(ISBLANK(L23),"",L23)
+&amp;IF(ISBLANK(R23),"",", "&amp;R23)
+&amp;IF(ISBLANK(X23),"",", "&amp;X23)
+&amp;IF(ISBLANK(AD23),"",", "&amp;AD23)
+&amp;IF(ISBLANK(AJ23),"",", "&amp;AJ23)
+&amp;IF(ISBLANK(AP23),"",", "&amp;AP23)
+&amp;IF(ISBLANK(AV23),"",", "&amp;AV23)
+&amp;IF(ISBLANK(BB23),"",", "&amp;BB23)
+&amp;IF(ISBLANK(BH23),"",", "&amp;BH23)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" ref="G23" si="62">IF(ISBLANK(M23),"",M23)
+&amp;IF(ISBLANK(S23),"",", "&amp;S23)
+&amp;IF(ISBLANK(Y23),"",", "&amp;Y23)
+&amp;IF(ISBLANK(AE23),"",", "&amp;AE23)
+&amp;IF(ISBLANK(AK23),"",", "&amp;AK23)
+&amp;IF(ISBLANK(AQ23),"",", "&amp;AQ23)
+&amp;IF(ISBLANK(AW23),"",", "&amp;AW23)
+&amp;IF(ISBLANK(BC23),"",", "&amp;BC23)
+&amp;IF(ISBLANK(BI23),"",", "&amp;BI23)</f>
+        <v>9999</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" ref="H23" si="63">IF(ISBLANK(N23),"",N23)
+&amp;IF(ISBLANK(T23),"",", "&amp;T23)
+&amp;IF(ISBLANK(Z23),"",", "&amp;Z23)
+&amp;IF(ISBLANK(AF23),"",", "&amp;AF23)
+&amp;IF(ISBLANK(AL23),"",", "&amp;AL23)
+&amp;IF(ISBLANK(AR23),"",", "&amp;AR23)
+&amp;IF(ISBLANK(AX23),"",", "&amp;AX23)
+&amp;IF(ISBLANK(BD23),"",", "&amp;BD23)
+&amp;IF(ISBLANK(BJ23),"",", "&amp;BJ23)</f>
+        <v>9999</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f t="shared" ref="K23" si="64">IF(AND(OR(I23="Gacha",I23="Origin"),ISBLANK(J23)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9999</v>
+      </c>
+      <c r="N23">
+        <v>9999</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="Q23" s="4" t="str">
+        <f t="shared" ref="Q23" si="65">IF(AND(OR(O23="Gacha",O23="Origin"),ISBLANK(P23)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="W23" s="4" t="str">
+        <f t="shared" ref="W23" si="66">IF(AND(OR(U23="Gacha",U23="Origin"),ISBLANK(V23)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AC23" s="4" t="str">
+        <f t="shared" ref="AC23" si="67">IF(AND(OR(AA23="Gacha",AA23="Origin"),ISBLANK(AB23)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AI23" s="4" t="str">
+        <f t="shared" ref="AI23" si="68">IF(AND(OR(AG23="Gacha",AG23="Origin"),ISBLANK(AH23)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AO23" s="4" t="str">
+        <f t="shared" ref="AO23" si="69">IF(AND(OR(AM23="Gacha",AM23="Origin"),ISBLANK(AN23)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AU23" s="4" t="str">
+        <f t="shared" ref="AU23" si="70">IF(AND(OR(AS23="Gacha",AS23="Origin"),ISBLANK(AT23)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BA23" s="4" t="str">
+        <f t="shared" ref="BA23" si="71">IF(AND(OR(AY23="Gacha",AY23="Origin"),ISBLANK(AZ23)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BG23" s="4" t="str">
+        <f t="shared" ref="BG23" si="72">IF(AND(OR(BE23="Gacha",BE23="Origin"),ISBLANK(BF23)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BP11">
     <sortCondition descending="1" ref="BP2:BP11"/>
@@ -9640,7 +9926,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 I2:I21 O2:O21 BE2:BE21" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 I2:I23 O2:O23 BE2:BE21" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF79CCFA-1638-4A72-B9A3-D17FFE54A9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F516B1-0AB1-4BAC-908C-E58439E5526A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -5321,7 +5321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="122">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5697,6 +5697,61 @@
   <si>
     <t>연출용 다이아</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopGoldDia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출용 다이아&amp;골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설장비2상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wjstjfwkdqll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wjstjfwkdqln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설장비3상자</t>
+  </si>
+  <si>
+    <t>전설장비4상자</t>
+  </si>
+  <si>
+    <t>전설장비5상자</t>
+  </si>
+  <si>
+    <t>전설장비6상자</t>
+  </si>
+  <si>
+    <t>전설장비7상자</t>
   </si>
 </sst>
 </file>
@@ -6144,19 +6199,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS23"/>
+  <dimension ref="A1:BS30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="51.625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
@@ -6679,7 +6734,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K22" si="12">IF(AND(OR(I3="Gacha",I3="Origin"),ISBLANK(J3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K3:K21" si="12">IF(AND(OR(I3="Gacha",I3="Origin"),ISBLANK(J3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L3">
@@ -9395,7 +9450,7 @@
       <c r="AE20">
         <v>15</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AF20" s="7">
         <v>25</v>
       </c>
       <c r="AG20" s="3" t="s">
@@ -9574,7 +9629,7 @@
       <c r="AE21">
         <v>35</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="7">
         <v>45</v>
       </c>
       <c r="AG21" s="3" t="s">
@@ -9887,7 +9942,7 @@
       </c>
       <c r="O23" s="3"/>
       <c r="Q23" s="4" t="str">
-        <f t="shared" ref="Q23" si="65">IF(AND(OR(O23="Gacha",O23="Origin"),ISBLANK(P23)),"서브밸류 필요","")</f>
+        <f t="shared" ref="Q23:Q25" si="65">IF(AND(OR(O23="Gacha",O23="Origin"),ISBLANK(P23)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="W23" s="4" t="str">
@@ -9917,6 +9972,958 @@
       <c r="BG23" s="4" t="str">
         <f t="shared" ref="BG23" si="72">IF(AND(OR(BE23="Gacha",BE23="Origin"),ISBLANK(BF23)),"서브밸류 필요","")</f>
         <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:C25" si="73">IF(ISBLANK(I24),"",I24)
+&amp;IF(ISBLANK(O24),"",", "&amp;O24)
+&amp;IF(ISBLANK(U24),"",", "&amp;U24)
+&amp;IF(ISBLANK(AA24),"",", "&amp;AA24)
+&amp;IF(ISBLANK(AG24),"",", "&amp;AG24)
+&amp;IF(ISBLANK(AM24),"",", "&amp;AM24)
+&amp;IF(ISBLANK(AS24),"",", "&amp;AS24)
+&amp;IF(ISBLANK(AY24),"",", "&amp;AY24)
+&amp;IF(ISBLANK(BE24),"",", "&amp;BE24)</f>
+        <v>Diamond, Gold</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" ref="D24:D25" ca="1" si="74">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C24,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>8, 2</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" ref="E24:E25" si="75">IF(ISBLANK(J24),"",J24)
+&amp;IF(ISBLANK(O24),"",", "&amp;P24)
+&amp;IF(ISBLANK(U24),"",", "&amp;V24)
+&amp;IF(ISBLANK(AA24),"",", "&amp;AB24)
+&amp;IF(ISBLANK(AG24),"",", "&amp;AH24)
+&amp;IF(ISBLANK(AM24),"",", "&amp;AN24)
+&amp;IF(ISBLANK(AS24),"",", "&amp;AT24)
+&amp;IF(ISBLANK(AY24),"",", "&amp;AZ24)
+&amp;IF(ISBLANK(BE24),"",", "&amp;BF24)</f>
+        <v>1, 1</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" ref="F24:F25" si="76">IF(ISBLANK(L24),"",L24)
+&amp;IF(ISBLANK(R24),"",", "&amp;R24)
+&amp;IF(ISBLANK(X24),"",", "&amp;X24)
+&amp;IF(ISBLANK(AD24),"",", "&amp;AD24)
+&amp;IF(ISBLANK(AJ24),"",", "&amp;AJ24)
+&amp;IF(ISBLANK(AP24),"",", "&amp;AP24)
+&amp;IF(ISBLANK(AV24),"",", "&amp;AV24)
+&amp;IF(ISBLANK(BB24),"",", "&amp;BB24)
+&amp;IF(ISBLANK(BH24),"",", "&amp;BH24)</f>
+        <v>1, 1</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" ref="G24:G25" si="77">IF(ISBLANK(M24),"",M24)
+&amp;IF(ISBLANK(S24),"",", "&amp;S24)
+&amp;IF(ISBLANK(Y24),"",", "&amp;Y24)
+&amp;IF(ISBLANK(AE24),"",", "&amp;AE24)
+&amp;IF(ISBLANK(AK24),"",", "&amp;AK24)
+&amp;IF(ISBLANK(AQ24),"",", "&amp;AQ24)
+&amp;IF(ISBLANK(AW24),"",", "&amp;AW24)
+&amp;IF(ISBLANK(BC24),"",", "&amp;BC24)
+&amp;IF(ISBLANK(BI24),"",", "&amp;BI24)</f>
+        <v>9999, 9999</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" ref="H24:H25" si="78">IF(ISBLANK(N24),"",N24)
+&amp;IF(ISBLANK(T24),"",", "&amp;T24)
+&amp;IF(ISBLANK(Z24),"",", "&amp;Z24)
+&amp;IF(ISBLANK(AF24),"",", "&amp;AF24)
+&amp;IF(ISBLANK(AL24),"",", "&amp;AL24)
+&amp;IF(ISBLANK(AR24),"",", "&amp;AR24)
+&amp;IF(ISBLANK(AX24),"",", "&amp;AX24)
+&amp;IF(ISBLANK(BD24),"",", "&amp;BD24)
+&amp;IF(ISBLANK(BJ24),"",", "&amp;BJ24)</f>
+        <v>9999, 9999</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f t="shared" ref="K24:K25" si="79">IF(AND(OR(I24="Gacha",I24="Origin"),ISBLANK(J24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9999</v>
+      </c>
+      <c r="N24">
+        <v>9999</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>9999</v>
+      </c>
+      <c r="T24">
+        <v>9999</v>
+      </c>
+      <c r="W24" s="4" t="str">
+        <f t="shared" ref="W24:W25" si="80">IF(AND(OR(U24="Gacha",U24="Origin"),ISBLANK(V24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AC24" s="4" t="str">
+        <f t="shared" ref="AC24:AC25" si="81">IF(AND(OR(AA24="Gacha",AA24="Origin"),ISBLANK(AB24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AI24" s="4" t="str">
+        <f t="shared" ref="AI24:AI25" si="82">IF(AND(OR(AG24="Gacha",AG24="Origin"),ISBLANK(AH24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AO24" s="4" t="str">
+        <f t="shared" ref="AO24:AO25" si="83">IF(AND(OR(AM24="Gacha",AM24="Origin"),ISBLANK(AN24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AU24" s="4" t="str">
+        <f t="shared" ref="AU24:AU25" si="84">IF(AND(OR(AS24="Gacha",AS24="Origin"),ISBLANK(AT24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BA24" s="4" t="str">
+        <f t="shared" ref="BA24:BA25" si="85">IF(AND(OR(AY24="Gacha",AY24="Origin"),ISBLANK(AZ24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BG24" s="4" t="str">
+        <f t="shared" ref="BG24:BG25" si="86">IF(AND(OR(BE24="Gacha",BE24="Origin"),ISBLANK(BF24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="73"/>
+        <v>Gacha, Gacha</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" ca="1" si="74"/>
+        <v>5, 5</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="75"/>
+        <v>o, o</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="76"/>
+        <v>1, 1</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="77"/>
+        <v>1, 1</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="78"/>
+        <v>1, 1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25" s="4" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BG25" s="4" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ref="C26:C30" si="87">IF(ISBLANK(I26),"",I26)
+&amp;IF(ISBLANK(O26),"",", "&amp;O26)
+&amp;IF(ISBLANK(U26),"",", "&amp;U26)
+&amp;IF(ISBLANK(AA26),"",", "&amp;AA26)
+&amp;IF(ISBLANK(AG26),"",", "&amp;AG26)
+&amp;IF(ISBLANK(AM26),"",", "&amp;AM26)
+&amp;IF(ISBLANK(AS26),"",", "&amp;AS26)
+&amp;IF(ISBLANK(AY26),"",", "&amp;AY26)
+&amp;IF(ISBLANK(BE26),"",", "&amp;BE26)</f>
+        <v>Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" ref="D26:D30" ca="1" si="88">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C26,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>5, 5, 5</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" ref="E26:E30" si="89">IF(ISBLANK(J26),"",J26)
+&amp;IF(ISBLANK(O26),"",", "&amp;P26)
+&amp;IF(ISBLANK(U26),"",", "&amp;V26)
+&amp;IF(ISBLANK(AA26),"",", "&amp;AB26)
+&amp;IF(ISBLANK(AG26),"",", "&amp;AH26)
+&amp;IF(ISBLANK(AM26),"",", "&amp;AN26)
+&amp;IF(ISBLANK(AS26),"",", "&amp;AT26)
+&amp;IF(ISBLANK(AY26),"",", "&amp;AZ26)
+&amp;IF(ISBLANK(BE26),"",", "&amp;BF26)</f>
+        <v>o, o, o</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" ref="F26:F30" si="90">IF(ISBLANK(L26),"",L26)
+&amp;IF(ISBLANK(R26),"",", "&amp;R26)
+&amp;IF(ISBLANK(X26),"",", "&amp;X26)
+&amp;IF(ISBLANK(AD26),"",", "&amp;AD26)
+&amp;IF(ISBLANK(AJ26),"",", "&amp;AJ26)
+&amp;IF(ISBLANK(AP26),"",", "&amp;AP26)
+&amp;IF(ISBLANK(AV26),"",", "&amp;AV26)
+&amp;IF(ISBLANK(BB26),"",", "&amp;BB26)
+&amp;IF(ISBLANK(BH26),"",", "&amp;BH26)</f>
+        <v>1, 1, 1</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" ref="G26:G30" si="91">IF(ISBLANK(M26),"",M26)
+&amp;IF(ISBLANK(S26),"",", "&amp;S26)
+&amp;IF(ISBLANK(Y26),"",", "&amp;Y26)
+&amp;IF(ISBLANK(AE26),"",", "&amp;AE26)
+&amp;IF(ISBLANK(AK26),"",", "&amp;AK26)
+&amp;IF(ISBLANK(AQ26),"",", "&amp;AQ26)
+&amp;IF(ISBLANK(AW26),"",", "&amp;AW26)
+&amp;IF(ISBLANK(BC26),"",", "&amp;BC26)
+&amp;IF(ISBLANK(BI26),"",", "&amp;BI26)</f>
+        <v>1, 1, 1</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" ref="H26:H30" si="92">IF(ISBLANK(N26),"",N26)
+&amp;IF(ISBLANK(T26),"",", "&amp;T26)
+&amp;IF(ISBLANK(Z26),"",", "&amp;Z26)
+&amp;IF(ISBLANK(AF26),"",", "&amp;AF26)
+&amp;IF(ISBLANK(AL26),"",", "&amp;AL26)
+&amp;IF(ISBLANK(AR26),"",", "&amp;AR26)
+&amp;IF(ISBLANK(AX26),"",", "&amp;AX26)
+&amp;IF(ISBLANK(BD26),"",", "&amp;BD26)
+&amp;IF(ISBLANK(BJ26),"",", "&amp;BJ26)</f>
+        <v>1, 1, 1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <f t="shared" ref="K26:K30" si="93">IF(AND(OR(I26="Gacha",I26="Origin"),ISBLANK(J26)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="4" t="str">
+        <f t="shared" ref="Q26:Q30" si="94">IF(AND(OR(O26="Gacha",O26="Origin"),ISBLANK(P26)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V26" t="s">
+        <v>111</v>
+      </c>
+      <c r="W26" s="4" t="str">
+        <f t="shared" ref="W26:W30" si="95">IF(AND(OR(U26="Gacha",U26="Origin"),ISBLANK(V26)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="87"/>
+        <v>Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v>5, 5, 5, 5</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="89"/>
+        <v>o, o, o, o</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="90"/>
+        <v>1, 1, 1, 1</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="91"/>
+        <v>1, 1, 1, 1</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="92"/>
+        <v>1, 1, 1, 1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27" s="4" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V27" t="s">
+        <v>111</v>
+      </c>
+      <c r="W27" s="4" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC27" s="4" t="str">
+        <f t="shared" ref="AC27:AC30" si="96">IF(AND(OR(AA27="Gacha",AA27="Origin"),ISBLANK(AB27)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="87"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v>5, 5, 5, 5, 5</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="89"/>
+        <v>o, o, o, o, o</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="90"/>
+        <v>1, 1, 1, 1, 1</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="91"/>
+        <v>1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="92"/>
+        <v>1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="4" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="4" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" t="s">
+        <v>111</v>
+      </c>
+      <c r="W28" s="4" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC28" s="4" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI28" s="4" t="str">
+        <f t="shared" ref="AI28:AI30" si="97">IF(AND(OR(AG28="Gacha",AG28="Origin"),ISBLANK(AH28)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="87"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v>5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="89"/>
+        <v>o, o, o, o, o, o</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="90"/>
+        <v>1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="91"/>
+        <v>1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="92"/>
+        <v>1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="4" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q29" s="4" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29" t="s">
+        <v>111</v>
+      </c>
+      <c r="W29" s="4" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC29" s="4" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI29" s="4" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO29" s="4" t="str">
+        <f t="shared" ref="AO29:AO30" si="98">IF(AND(OR(AM29="Gacha",AM29="Origin"),ISBLANK(AN29)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="87"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v>5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="89"/>
+        <v>o, o, o, o, o, o, o</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="90"/>
+        <v>1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="91"/>
+        <v>1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="92"/>
+        <v>1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q30" s="4" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V30" t="s">
+        <v>111</v>
+      </c>
+      <c r="W30" s="4" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC30" s="4" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI30" s="4" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO30" s="4" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU30" s="4" t="str">
+        <f t="shared" ref="AU30" si="99">IF(AND(OR(AS30="Gacha",AS30="Origin"),ISBLANK(AT30)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9926,7 +10933,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 I2:I23 O2:O23 BE2:BE21" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 I2:I30 BE2:BE21 O2:O30 AY25 AM25 AG25 U25:U30 AA25 AS25 BE25 AA27:AA30 AG28:AG30 AM29:AM30 AS30" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F516B1-0AB1-4BAC-908C-E58439E5526A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCE4C67-EAF5-4AF5-90AF-26BA639A570C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -2438,6 +2438,77 @@
         </r>
       </text>
     </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{CD14A59F-BC4F-48CB-9B1F-63BA8647B405}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해킹방지용으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하드코딩으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정한다</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J18" authorId="0" shapeId="0" xr:uid="{CDB1BF4D-4480-498B-893A-78E5E6B05868}">
       <text>
         <r>
@@ -4439,6 +4510,116 @@
             <charset val="129"/>
           </rPr>
           <t>있음</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{DFA164F3-7942-4EF6-8BDA-C1C136DE5546}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">연출용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Shop </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>붙어서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대량으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나온다</t>
         </r>
       </text>
     </comment>
@@ -5321,7 +5502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="124">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5752,13 +5933,21 @@
   </si>
   <si>
     <t>전설장비7상자</t>
+  </si>
+  <si>
+    <t>DailyDiamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출용 매일 다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5819,6 +6008,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5854,7 +6051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5884,6 +6081,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6199,13 +6399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS30"/>
+  <dimension ref="A1:BS31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -8999,7 +9199,7 @@
       </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B18" t="s">
@@ -9130,7 +9330,7 @@
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B19" t="s">
@@ -9359,7 +9559,7 @@
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B20" t="s">
@@ -9538,7 +9738,7 @@
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B21" t="s">
@@ -9709,7 +9909,7 @@
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B22" t="s">
@@ -9822,7 +10022,7 @@
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B23" t="s">
@@ -9942,7 +10142,7 @@
       </c>
       <c r="O23" s="3"/>
       <c r="Q23" s="4" t="str">
-        <f t="shared" ref="Q23:Q25" si="65">IF(AND(OR(O23="Gacha",O23="Origin"),ISBLANK(P23)),"서브밸류 필요","")</f>
+        <f t="shared" ref="Q23:Q26" si="65">IF(AND(OR(O23="Gacha",O23="Origin"),ISBLANK(P23)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="W23" s="4" t="str">
@@ -9975,14 +10175,14 @@
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>108</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24:C25" si="73">IF(ISBLANK(I24),"",I24)
+        <f t="shared" ref="C24:C26" si="73">IF(ISBLANK(I24),"",I24)
 &amp;IF(ISBLANK(O24),"",", "&amp;O24)
 &amp;IF(ISBLANK(U24),"",", "&amp;U24)
 &amp;IF(ISBLANK(AA24),"",", "&amp;AA24)
@@ -9994,7 +10194,7 @@
         <v>Diamond, Gold</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" ref="D24:D25" ca="1" si="74">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D24:D26" ca="1" si="74">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -10027,7 +10227,7 @@
         <v>8, 2</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" ref="E24:E25" si="75">IF(ISBLANK(J24),"",J24)
+        <f t="shared" ref="E24:E26" si="75">IF(ISBLANK(J24),"",J24)
 &amp;IF(ISBLANK(O24),"",", "&amp;P24)
 &amp;IF(ISBLANK(U24),"",", "&amp;V24)
 &amp;IF(ISBLANK(AA24),"",", "&amp;AB24)
@@ -10039,7 +10239,7 @@
         <v>1, 1</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" ref="F24:F25" si="76">IF(ISBLANK(L24),"",L24)
+        <f t="shared" ref="F24:F26" si="76">IF(ISBLANK(L24),"",L24)
 &amp;IF(ISBLANK(R24),"",", "&amp;R24)
 &amp;IF(ISBLANK(X24),"",", "&amp;X24)
 &amp;IF(ISBLANK(AD24),"",", "&amp;AD24)
@@ -10051,7 +10251,7 @@
         <v>1, 1</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" ref="G24:G25" si="77">IF(ISBLANK(M24),"",M24)
+        <f t="shared" ref="G24:G26" si="77">IF(ISBLANK(M24),"",M24)
 &amp;IF(ISBLANK(S24),"",", "&amp;S24)
 &amp;IF(ISBLANK(Y24),"",", "&amp;Y24)
 &amp;IF(ISBLANK(AE24),"",", "&amp;AE24)
@@ -10063,7 +10263,7 @@
         <v>9999, 9999</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" ref="H24:H25" si="78">IF(ISBLANK(N24),"",N24)
+        <f t="shared" ref="H24:H26" si="78">IF(ISBLANK(N24),"",N24)
 &amp;IF(ISBLANK(T24),"",", "&amp;T24)
 &amp;IF(ISBLANK(Z24),"",", "&amp;Z24)
 &amp;IF(ISBLANK(AF24),"",", "&amp;AF24)
@@ -10081,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="4" t="str">
-        <f t="shared" ref="K24:K25" si="79">IF(AND(OR(I24="Gacha",I24="Origin"),ISBLANK(J24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K24:K26" si="79">IF(AND(OR(I24="Gacha",I24="Origin"),ISBLANK(J24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L24">
@@ -10113,140 +10313,293 @@
         <v>9999</v>
       </c>
       <c r="W24" s="4" t="str">
-        <f t="shared" ref="W24:W25" si="80">IF(AND(OR(U24="Gacha",U24="Origin"),ISBLANK(V24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="W24" si="80">IF(AND(OR(U24="Gacha",U24="Origin"),ISBLANK(V24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AC24" s="4" t="str">
-        <f t="shared" ref="AC24:AC25" si="81">IF(AND(OR(AA24="Gacha",AA24="Origin"),ISBLANK(AB24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AC24" si="81">IF(AND(OR(AA24="Gacha",AA24="Origin"),ISBLANK(AB24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AI24" s="4" t="str">
-        <f t="shared" ref="AI24:AI25" si="82">IF(AND(OR(AG24="Gacha",AG24="Origin"),ISBLANK(AH24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AI24" si="82">IF(AND(OR(AG24="Gacha",AG24="Origin"),ISBLANK(AH24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AO24" s="4" t="str">
-        <f t="shared" ref="AO24:AO25" si="83">IF(AND(OR(AM24="Gacha",AM24="Origin"),ISBLANK(AN24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AO24" si="83">IF(AND(OR(AM24="Gacha",AM24="Origin"),ISBLANK(AN24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AU24" s="4" t="str">
-        <f t="shared" ref="AU24:AU25" si="84">IF(AND(OR(AS24="Gacha",AS24="Origin"),ISBLANK(AT24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AU24" si="84">IF(AND(OR(AS24="Gacha",AS24="Origin"),ISBLANK(AT24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BA24" s="4" t="str">
-        <f t="shared" ref="BA24:BA25" si="85">IF(AND(OR(AY24="Gacha",AY24="Origin"),ISBLANK(AZ24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="BA24" si="85">IF(AND(OR(AY24="Gacha",AY24="Origin"),ISBLANK(AZ24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BG24" s="4" t="str">
-        <f t="shared" ref="BG24:BG25" si="86">IF(AND(OR(BE24="Gacha",BE24="Origin"),ISBLANK(BF24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="BG24:BG26" si="86">IF(AND(OR(BE24="Gacha",BE24="Origin"),ISBLANK(BF24)),"서브밸류 필요","")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>110</v>
+      <c r="A25" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="73"/>
-        <v>Gacha, Gacha</v>
+        <f t="shared" ref="C25" si="87">IF(ISBLANK(I25),"",I25)
+&amp;IF(ISBLANK(O25),"",", "&amp;O25)
+&amp;IF(ISBLANK(U25),"",", "&amp;U25)
+&amp;IF(ISBLANK(AA25),"",", "&amp;AA25)
+&amp;IF(ISBLANK(AG25),"",", "&amp;AG25)
+&amp;IF(ISBLANK(AM25),"",", "&amp;AM25)
+&amp;IF(ISBLANK(AS25),"",", "&amp;AS25)
+&amp;IF(ISBLANK(AY25),"",", "&amp;AY25)
+&amp;IF(ISBLANK(BE25),"",", "&amp;BE25)</f>
+        <v>Diamond</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" ca="1" si="74"/>
-        <v>5, 5</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="75"/>
-        <v>o, o</v>
-      </c>
-      <c r="F25" s="1" t="str">
-        <f t="shared" si="76"/>
-        <v>1, 1</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f t="shared" si="77"/>
-        <v>1, 1</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="78"/>
-        <v>1, 1</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="4" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P25" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q25" s="4" t="str">
-        <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="BE25" s="3"/>
-      <c r="BG25" s="4" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" ref="C26:C30" si="87">IF(ISBLANK(I26),"",I26)
-&amp;IF(ISBLANK(O26),"",", "&amp;O26)
-&amp;IF(ISBLANK(U26),"",", "&amp;U26)
-&amp;IF(ISBLANK(AA26),"",", "&amp;AA26)
-&amp;IF(ISBLANK(AG26),"",", "&amp;AG26)
-&amp;IF(ISBLANK(AM26),"",", "&amp;AM26)
-&amp;IF(ISBLANK(AS26),"",", "&amp;AS26)
-&amp;IF(ISBLANK(AY26),"",", "&amp;AY26)
-&amp;IF(ISBLANK(BE26),"",", "&amp;BE26)</f>
-        <v>Gacha, Gacha, Gacha</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" ref="D26:D30" ca="1" si="88">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C26,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C25,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" ref="E25" si="88">IF(ISBLANK(J25),"",J25)
+&amp;IF(ISBLANK(O25),"",", "&amp;P25)
+&amp;IF(ISBLANK(U25),"",", "&amp;V25)
+&amp;IF(ISBLANK(AA25),"",", "&amp;AB25)
+&amp;IF(ISBLANK(AG25),"",", "&amp;AH25)
+&amp;IF(ISBLANK(AM25),"",", "&amp;AN25)
+&amp;IF(ISBLANK(AS25),"",", "&amp;AT25)
+&amp;IF(ISBLANK(AY25),"",", "&amp;AZ25)
+&amp;IF(ISBLANK(BE25),"",", "&amp;BF25)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" ref="F25" si="89">IF(ISBLANK(L25),"",L25)
+&amp;IF(ISBLANK(R25),"",", "&amp;R25)
+&amp;IF(ISBLANK(X25),"",", "&amp;X25)
+&amp;IF(ISBLANK(AD25),"",", "&amp;AD25)
+&amp;IF(ISBLANK(AJ25),"",", "&amp;AJ25)
+&amp;IF(ISBLANK(AP25),"",", "&amp;AP25)
+&amp;IF(ISBLANK(AV25),"",", "&amp;AV25)
+&amp;IF(ISBLANK(BB25),"",", "&amp;BB25)
+&amp;IF(ISBLANK(BH25),"",", "&amp;BH25)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" ref="G25" si="90">IF(ISBLANK(M25),"",M25)
+&amp;IF(ISBLANK(S25),"",", "&amp;S25)
+&amp;IF(ISBLANK(Y25),"",", "&amp;Y25)
+&amp;IF(ISBLANK(AE25),"",", "&amp;AE25)
+&amp;IF(ISBLANK(AK25),"",", "&amp;AK25)
+&amp;IF(ISBLANK(AQ25),"",", "&amp;AQ25)
+&amp;IF(ISBLANK(AW25),"",", "&amp;AW25)
+&amp;IF(ISBLANK(BC25),"",", "&amp;BC25)
+&amp;IF(ISBLANK(BI25),"",", "&amp;BI25)</f>
+        <v>9999</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" ref="H25" si="91">IF(ISBLANK(N25),"",N25)
+&amp;IF(ISBLANK(T25),"",", "&amp;T25)
+&amp;IF(ISBLANK(Z25),"",", "&amp;Z25)
+&amp;IF(ISBLANK(AF25),"",", "&amp;AF25)
+&amp;IF(ISBLANK(AL25),"",", "&amp;AL25)
+&amp;IF(ISBLANK(AR25),"",", "&amp;AR25)
+&amp;IF(ISBLANK(AX25),"",", "&amp;AX25)
+&amp;IF(ISBLANK(BD25),"",", "&amp;BD25)
+&amp;IF(ISBLANK(BJ25),"",", "&amp;BJ25)</f>
+        <v>9999</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f t="shared" ref="K25" si="92">IF(AND(OR(I25="Gacha",I25="Origin"),ISBLANK(J25)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9999</v>
+      </c>
+      <c r="N25">
+        <v>9999</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="Q25" s="4" t="str">
+        <f t="shared" ref="Q25" si="93">IF(AND(OR(O25="Gacha",O25="Origin"),ISBLANK(P25)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="W25" s="4" t="str">
+        <f t="shared" ref="W25" si="94">IF(AND(OR(U25="Gacha",U25="Origin"),ISBLANK(V25)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AC25" s="4" t="str">
+        <f t="shared" ref="AC25" si="95">IF(AND(OR(AA25="Gacha",AA25="Origin"),ISBLANK(AB25)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AI25" s="4" t="str">
+        <f t="shared" ref="AI25" si="96">IF(AND(OR(AG25="Gacha",AG25="Origin"),ISBLANK(AH25)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AO25" s="4" t="str">
+        <f t="shared" ref="AO25" si="97">IF(AND(OR(AM25="Gacha",AM25="Origin"),ISBLANK(AN25)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AU25" s="4" t="str">
+        <f t="shared" ref="AU25" si="98">IF(AND(OR(AS25="Gacha",AS25="Origin"),ISBLANK(AT25)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BA25" s="4" t="str">
+        <f t="shared" ref="BA25" si="99">IF(AND(OR(AY25="Gacha",AY25="Origin"),ISBLANK(AZ25)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BG25" s="4" t="str">
+        <f t="shared" ref="BG25" si="100">IF(AND(OR(BE25="Gacha",BE25="Origin"),ISBLANK(BF25)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="73"/>
+        <v>Gacha, Gacha</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" ca="1" si="74"/>
+        <v>5, 5</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="75"/>
+        <v>o, o</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="76"/>
+        <v>1, 1</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="77"/>
+        <v>1, 1</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="78"/>
+        <v>1, 1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="4" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BG26" s="4" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:C31" si="101">IF(ISBLANK(I27),"",I27)
+&amp;IF(ISBLANK(O27),"",", "&amp;O27)
+&amp;IF(ISBLANK(U27),"",", "&amp;U27)
+&amp;IF(ISBLANK(AA27),"",", "&amp;AA27)
+&amp;IF(ISBLANK(AG27),"",", "&amp;AG27)
+&amp;IF(ISBLANK(AM27),"",", "&amp;AM27)
+&amp;IF(ISBLANK(AS27),"",", "&amp;AS27)
+&amp;IF(ISBLANK(AY27),"",", "&amp;AY27)
+&amp;IF(ISBLANK(BE27),"",", "&amp;BE27)</f>
+        <v>Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" ref="D27:D31" ca="1" si="102">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C27,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -10274,142 +10627,53 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>5, 5, 5</v>
       </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" ref="E26:E30" si="89">IF(ISBLANK(J26),"",J26)
-&amp;IF(ISBLANK(O26),"",", "&amp;P26)
-&amp;IF(ISBLANK(U26),"",", "&amp;V26)
-&amp;IF(ISBLANK(AA26),"",", "&amp;AB26)
-&amp;IF(ISBLANK(AG26),"",", "&amp;AH26)
-&amp;IF(ISBLANK(AM26),"",", "&amp;AN26)
-&amp;IF(ISBLANK(AS26),"",", "&amp;AT26)
-&amp;IF(ISBLANK(AY26),"",", "&amp;AZ26)
-&amp;IF(ISBLANK(BE26),"",", "&amp;BF26)</f>
+      <c r="E27" s="1" t="str">
+        <f t="shared" ref="E27:E31" si="103">IF(ISBLANK(J27),"",J27)
+&amp;IF(ISBLANK(O27),"",", "&amp;P27)
+&amp;IF(ISBLANK(U27),"",", "&amp;V27)
+&amp;IF(ISBLANK(AA27),"",", "&amp;AB27)
+&amp;IF(ISBLANK(AG27),"",", "&amp;AH27)
+&amp;IF(ISBLANK(AM27),"",", "&amp;AN27)
+&amp;IF(ISBLANK(AS27),"",", "&amp;AT27)
+&amp;IF(ISBLANK(AY27),"",", "&amp;AZ27)
+&amp;IF(ISBLANK(BE27),"",", "&amp;BF27)</f>
         <v>o, o, o</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <f t="shared" ref="F26:F30" si="90">IF(ISBLANK(L26),"",L26)
-&amp;IF(ISBLANK(R26),"",", "&amp;R26)
-&amp;IF(ISBLANK(X26),"",", "&amp;X26)
-&amp;IF(ISBLANK(AD26),"",", "&amp;AD26)
-&amp;IF(ISBLANK(AJ26),"",", "&amp;AJ26)
-&amp;IF(ISBLANK(AP26),"",", "&amp;AP26)
-&amp;IF(ISBLANK(AV26),"",", "&amp;AV26)
-&amp;IF(ISBLANK(BB26),"",", "&amp;BB26)
-&amp;IF(ISBLANK(BH26),"",", "&amp;BH26)</f>
+      <c r="F27" s="1" t="str">
+        <f t="shared" ref="F27:F31" si="104">IF(ISBLANK(L27),"",L27)
+&amp;IF(ISBLANK(R27),"",", "&amp;R27)
+&amp;IF(ISBLANK(X27),"",", "&amp;X27)
+&amp;IF(ISBLANK(AD27),"",", "&amp;AD27)
+&amp;IF(ISBLANK(AJ27),"",", "&amp;AJ27)
+&amp;IF(ISBLANK(AP27),"",", "&amp;AP27)
+&amp;IF(ISBLANK(AV27),"",", "&amp;AV27)
+&amp;IF(ISBLANK(BB27),"",", "&amp;BB27)
+&amp;IF(ISBLANK(BH27),"",", "&amp;BH27)</f>
         <v>1, 1, 1</v>
       </c>
-      <c r="G26" s="1" t="str">
-        <f t="shared" ref="G26:G30" si="91">IF(ISBLANK(M26),"",M26)
-&amp;IF(ISBLANK(S26),"",", "&amp;S26)
-&amp;IF(ISBLANK(Y26),"",", "&amp;Y26)
-&amp;IF(ISBLANK(AE26),"",", "&amp;AE26)
-&amp;IF(ISBLANK(AK26),"",", "&amp;AK26)
-&amp;IF(ISBLANK(AQ26),"",", "&amp;AQ26)
-&amp;IF(ISBLANK(AW26),"",", "&amp;AW26)
-&amp;IF(ISBLANK(BC26),"",", "&amp;BC26)
-&amp;IF(ISBLANK(BI26),"",", "&amp;BI26)</f>
+      <c r="G27" s="1" t="str">
+        <f t="shared" ref="G27:G31" si="105">IF(ISBLANK(M27),"",M27)
+&amp;IF(ISBLANK(S27),"",", "&amp;S27)
+&amp;IF(ISBLANK(Y27),"",", "&amp;Y27)
+&amp;IF(ISBLANK(AE27),"",", "&amp;AE27)
+&amp;IF(ISBLANK(AK27),"",", "&amp;AK27)
+&amp;IF(ISBLANK(AQ27),"",", "&amp;AQ27)
+&amp;IF(ISBLANK(AW27),"",", "&amp;AW27)
+&amp;IF(ISBLANK(BC27),"",", "&amp;BC27)
+&amp;IF(ISBLANK(BI27),"",", "&amp;BI27)</f>
         <v>1, 1, 1</v>
       </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" ref="H26:H30" si="92">IF(ISBLANK(N26),"",N26)
-&amp;IF(ISBLANK(T26),"",", "&amp;T26)
-&amp;IF(ISBLANK(Z26),"",", "&amp;Z26)
-&amp;IF(ISBLANK(AF26),"",", "&amp;AF26)
-&amp;IF(ISBLANK(AL26),"",", "&amp;AL26)
-&amp;IF(ISBLANK(AR26),"",", "&amp;AR26)
-&amp;IF(ISBLANK(AX26),"",", "&amp;AX26)
-&amp;IF(ISBLANK(BD26),"",", "&amp;BD26)
-&amp;IF(ISBLANK(BJ26),"",", "&amp;BJ26)</f>
+      <c r="H27" s="1" t="str">
+        <f t="shared" ref="H27:H31" si="106">IF(ISBLANK(N27),"",N27)
+&amp;IF(ISBLANK(T27),"",", "&amp;T27)
+&amp;IF(ISBLANK(Z27),"",", "&amp;Z27)
+&amp;IF(ISBLANK(AF27),"",", "&amp;AF27)
+&amp;IF(ISBLANK(AL27),"",", "&amp;AL27)
+&amp;IF(ISBLANK(AR27),"",", "&amp;AR27)
+&amp;IF(ISBLANK(AX27),"",", "&amp;AX27)
+&amp;IF(ISBLANK(BD27),"",", "&amp;BD27)
+&amp;IF(ISBLANK(BJ27),"",", "&amp;BJ27)</f>
         <v>1, 1, 1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="4" t="str">
-        <f t="shared" ref="K26:K30" si="93">IF(AND(OR(I26="Gacha",I26="Origin"),ISBLANK(J26)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P26" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q26" s="4" t="str">
-        <f t="shared" ref="Q26:Q30" si="94">IF(AND(OR(O26="Gacha",O26="Origin"),ISBLANK(P26)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V26" t="s">
-        <v>111</v>
-      </c>
-      <c r="W26" s="4" t="str">
-        <f t="shared" ref="W26:W30" si="95">IF(AND(OR(U26="Gacha",U26="Origin"),ISBLANK(V26)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="87"/>
-        <v>Gacha, Gacha, Gacha, Gacha</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v>5, 5, 5, 5</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>o, o, o, o</v>
-      </c>
-      <c r="F27" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>1, 1, 1, 1</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>1, 1, 1, 1</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>1, 1, 1, 1</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>13</v>
@@ -10418,7 +10682,7 @@
         <v>111</v>
       </c>
       <c r="K27" s="4" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="K27:K31" si="107">IF(AND(OR(I27="Gacha",I27="Origin"),ISBLANK(J27)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L27">
@@ -10437,7 +10701,7 @@
         <v>111</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="Q27:Q31" si="108">IF(AND(OR(O27="Gacha",O27="Origin"),ISBLANK(P27)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="R27">
@@ -10456,7 +10720,7 @@
         <v>111</v>
       </c>
       <c r="W27" s="4" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" ref="W27:W31" si="109">IF(AND(OR(U27="Gacha",U27="Origin"),ISBLANK(V27)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="X27">
@@ -10466,58 +10730,39 @@
         <v>1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC27" s="4" t="str">
-        <f t="shared" ref="AC27:AC30" si="96">IF(AND(OR(AA27="Gacha",AA27="Origin"),ISBLANK(AB27)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>114</v>
+      <c r="A28" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="87"/>
-        <v>Gacha, Gacha, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="101"/>
+        <v>Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v>5, 5, 5, 5, 5</v>
+        <f t="shared" ca="1" si="102"/>
+        <v>5, 5, 5, 5</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>o, o, o, o, o</v>
+        <f t="shared" si="103"/>
+        <v>o, o, o, o</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>1, 1, 1, 1, 1</v>
+        <f t="shared" si="104"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>1, 1, 1, 1, 1</v>
+        <f t="shared" si="105"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>1, 1, 1, 1, 1</v>
+        <f t="shared" si="106"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>13</v>
@@ -10526,7 +10771,7 @@
         <v>111</v>
       </c>
       <c r="K28" s="4" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="L28">
@@ -10545,7 +10790,7 @@
         <v>111</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="R28">
@@ -10564,7 +10809,7 @@
         <v>111</v>
       </c>
       <c r="W28" s="4" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="X28">
@@ -10583,7 +10828,7 @@
         <v>111</v>
       </c>
       <c r="AC28" s="4" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="AC28:AC31" si="110">IF(AND(OR(AA28="Gacha",AA28="Origin"),ISBLANK(AB28)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AD28">
@@ -10593,58 +10838,39 @@
         <v>1</v>
       </c>
       <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI28" s="4" t="str">
-        <f t="shared" ref="AI28:AI30" si="97">IF(AND(OR(AG28="Gacha",AG28="Origin"),ISBLANK(AH28)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AJ28">
-        <v>1</v>
-      </c>
-      <c r="AK28">
-        <v>1</v>
-      </c>
-      <c r="AL28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>115</v>
+      <c r="A29" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="87"/>
-        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="101"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v>5, 5, 5, 5, 5, 5</v>
+        <f t="shared" ca="1" si="102"/>
+        <v>5, 5, 5, 5, 5</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>o, o, o, o, o, o</v>
+        <f t="shared" si="103"/>
+        <v>o, o, o, o, o</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="104"/>
+        <v>1, 1, 1, 1, 1</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="105"/>
+        <v>1, 1, 1, 1, 1</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="106"/>
+        <v>1, 1, 1, 1, 1</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>13</v>
@@ -10653,7 +10879,7 @@
         <v>111</v>
       </c>
       <c r="K29" s="4" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="L29">
@@ -10672,7 +10898,7 @@
         <v>111</v>
       </c>
       <c r="Q29" s="4" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="R29">
@@ -10691,7 +10917,7 @@
         <v>111</v>
       </c>
       <c r="W29" s="4" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="X29">
@@ -10710,7 +10936,7 @@
         <v>111</v>
       </c>
       <c r="AC29" s="4" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="AD29">
@@ -10729,7 +10955,7 @@
         <v>111</v>
       </c>
       <c r="AI29" s="4" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="AI29:AI31" si="111">IF(AND(OR(AG29="Gacha",AG29="Origin"),ISBLANK(AH29)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AJ29">
@@ -10739,58 +10965,39 @@
         <v>1</v>
       </c>
       <c r="AL29">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO29" s="4" t="str">
-        <f t="shared" ref="AO29:AO30" si="98">IF(AND(OR(AM29="Gacha",AM29="Origin"),ISBLANK(AN29)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29">
-        <v>1</v>
-      </c>
-      <c r="AR29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>116</v>
+      <c r="A30" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="87"/>
-        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="101"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" ca="1" si="88"/>
-        <v>5, 5, 5, 5, 5, 5, 5</v>
+        <f t="shared" ca="1" si="102"/>
+        <v>5, 5, 5, 5, 5, 5</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>o, o, o, o, o, o, o</v>
+        <f t="shared" si="103"/>
+        <v>o, o, o, o, o, o</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>1, 1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="104"/>
+        <v>1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>1, 1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="105"/>
+        <v>1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>1, 1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="106"/>
+        <v>1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>13</v>
@@ -10799,7 +11006,7 @@
         <v>111</v>
       </c>
       <c r="K30" s="4" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="L30">
@@ -10818,7 +11025,7 @@
         <v>111</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="R30">
@@ -10837,7 +11044,7 @@
         <v>111</v>
       </c>
       <c r="W30" s="4" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="X30">
@@ -10856,7 +11063,7 @@
         <v>111</v>
       </c>
       <c r="AC30" s="4" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="AD30">
@@ -10875,7 +11082,7 @@
         <v>111</v>
       </c>
       <c r="AI30" s="4" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="AJ30">
@@ -10894,7 +11101,7 @@
         <v>111</v>
       </c>
       <c r="AO30" s="4" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="AO30:AO31" si="112">IF(AND(OR(AM30="Gacha",AM30="Origin"),ISBLANK(AN30)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AP30">
@@ -10906,23 +11113,169 @@
       <c r="AR30">
         <v>1</v>
       </c>
-      <c r="AS30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="101"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" ca="1" si="102"/>
+        <v>5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="103"/>
+        <v>o, o, o, o, o, o, o</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="104"/>
+        <v>1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v>1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="106"/>
+        <v>1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AT30" t="s">
+      <c r="J31" t="s">
         <v>111</v>
       </c>
-      <c r="AU30" s="4" t="str">
-        <f t="shared" ref="AU30" si="99">IF(AND(OR(AS30="Gacha",AS30="Origin"),ISBLANK(AT30)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
+      <c r="K31" s="4" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q31" s="4" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" t="s">
+        <v>111</v>
+      </c>
+      <c r="W31" s="4" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC31" s="4" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI31" s="4" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO31" s="4" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU31" s="4" t="str">
+        <f t="shared" ref="AU31" si="113">IF(AND(OR(AS31="Gacha",AS31="Origin"),ISBLANK(AT31)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
         <v>1</v>
       </c>
     </row>
@@ -10933,7 +11286,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 I2:I30 BE2:BE21 O2:O30 AY25 AM25 AG25 U25:U30 AA25 AS25 BE25 AA27:AA30 AG28:AG30 AM29:AM30 AS30" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 BE2:BE21 AS31 AY26 AM26 AG26 U26:U31 AA26 AS26 BE26 AA28:AA31 AG29:AG31 AM30:AM31 I2:I23 I24:I31 O2:O23 O24:O31" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCE4C67-EAF5-4AF5-90AF-26BA639A570C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB392D0-3D41-47F7-B27F-4C329EBB56F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -5502,7 +5502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="130">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5940,6 +5940,30 @@
   </si>
   <si>
     <t>연출용 매일 다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoflredlfqks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoflrduddnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭 일반등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭 영웅등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6399,13 +6423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS31"/>
+  <dimension ref="A1:BS33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -6985,27 +7009,27 @@
       </c>
       <c r="AG3" s="3"/>
       <c r="AI3" s="4" t="str">
-        <f t="shared" ref="AI3:AI22" si="16">IF(AND(OR(AG3="Gacha",AG3="Origin"),ISBLANK(AH3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AI3:AI33" si="16">IF(AND(OR(AG3="Gacha",AG3="Origin"),ISBLANK(AH3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AM3" s="3"/>
       <c r="AO3" s="4" t="str">
-        <f t="shared" ref="AO3:AO22" si="17">IF(AND(OR(AM3="Gacha",AM3="Origin"),ISBLANK(AN3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AO3:AO33" si="17">IF(AND(OR(AM3="Gacha",AM3="Origin"),ISBLANK(AN3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AS3" s="3"/>
       <c r="AU3" s="4" t="str">
-        <f t="shared" ref="AU3:AU22" si="18">IF(AND(OR(AS3="Gacha",AS3="Origin"),ISBLANK(AT3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AU3:AU33" si="18">IF(AND(OR(AS3="Gacha",AS3="Origin"),ISBLANK(AT3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AY3" s="3"/>
       <c r="BA3" s="4" t="str">
-        <f t="shared" ref="BA3:BA22" si="19">IF(AND(OR(AY3="Gacha",AY3="Origin"),ISBLANK(AZ3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="BA3:BA33" si="19">IF(AND(OR(AY3="Gacha",AY3="Origin"),ISBLANK(AZ3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BE3" s="3"/>
       <c r="BG3" s="4" t="str">
-        <f t="shared" ref="BG3:BG22" si="20">IF(AND(OR(BE3="Gacha",BE3="Origin"),ISBLANK(BF3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="BG3:BG33" si="20">IF(AND(OR(BE3="Gacha",BE3="Origin"),ISBLANK(BF3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BL3" t="s">
@@ -10150,27 +10174,27 @@
         <v/>
       </c>
       <c r="AC23" s="4" t="str">
-        <f t="shared" ref="AC23" si="67">IF(AND(OR(AA23="Gacha",AA23="Origin"),ISBLANK(AB23)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AC23:AC33" si="67">IF(AND(OR(AA23="Gacha",AA23="Origin"),ISBLANK(AB23)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AI23" s="4" t="str">
-        <f t="shared" ref="AI23" si="68">IF(AND(OR(AG23="Gacha",AG23="Origin"),ISBLANK(AH23)),"서브밸류 필요","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AO23" s="4" t="str">
-        <f t="shared" ref="AO23" si="69">IF(AND(OR(AM23="Gacha",AM23="Origin"),ISBLANK(AN23)),"서브밸류 필요","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AU23" s="4" t="str">
-        <f t="shared" ref="AU23" si="70">IF(AND(OR(AS23="Gacha",AS23="Origin"),ISBLANK(AT23)),"서브밸류 필요","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BA23" s="4" t="str">
-        <f t="shared" ref="BA23" si="71">IF(AND(OR(AY23="Gacha",AY23="Origin"),ISBLANK(AZ23)),"서브밸류 필요","")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG23" s="4" t="str">
-        <f t="shared" ref="BG23" si="72">IF(AND(OR(BE23="Gacha",BE23="Origin"),ISBLANK(BF23)),"서브밸류 필요","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -10182,7 +10206,7 @@
         <v>108</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24:C26" si="73">IF(ISBLANK(I24),"",I24)
+        <f t="shared" ref="C24:C26" si="68">IF(ISBLANK(I24),"",I24)
 &amp;IF(ISBLANK(O24),"",", "&amp;O24)
 &amp;IF(ISBLANK(U24),"",", "&amp;U24)
 &amp;IF(ISBLANK(AA24),"",", "&amp;AA24)
@@ -10194,7 +10218,7 @@
         <v>Diamond, Gold</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" ref="D24:D26" ca="1" si="74">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D24:D26" ca="1" si="69">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -10227,7 +10251,7 @@
         <v>8, 2</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" ref="E24:E26" si="75">IF(ISBLANK(J24),"",J24)
+        <f t="shared" ref="E24:E26" si="70">IF(ISBLANK(J24),"",J24)
 &amp;IF(ISBLANK(O24),"",", "&amp;P24)
 &amp;IF(ISBLANK(U24),"",", "&amp;V24)
 &amp;IF(ISBLANK(AA24),"",", "&amp;AB24)
@@ -10239,7 +10263,7 @@
         <v>1, 1</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" ref="F24:F26" si="76">IF(ISBLANK(L24),"",L24)
+        <f t="shared" ref="F24:F26" si="71">IF(ISBLANK(L24),"",L24)
 &amp;IF(ISBLANK(R24),"",", "&amp;R24)
 &amp;IF(ISBLANK(X24),"",", "&amp;X24)
 &amp;IF(ISBLANK(AD24),"",", "&amp;AD24)
@@ -10251,7 +10275,7 @@
         <v>1, 1</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" ref="G24:G26" si="77">IF(ISBLANK(M24),"",M24)
+        <f t="shared" ref="G24:G26" si="72">IF(ISBLANK(M24),"",M24)
 &amp;IF(ISBLANK(S24),"",", "&amp;S24)
 &amp;IF(ISBLANK(Y24),"",", "&amp;Y24)
 &amp;IF(ISBLANK(AE24),"",", "&amp;AE24)
@@ -10263,7 +10287,7 @@
         <v>9999, 9999</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" ref="H24:H26" si="78">IF(ISBLANK(N24),"",N24)
+        <f t="shared" ref="H24:H26" si="73">IF(ISBLANK(N24),"",N24)
 &amp;IF(ISBLANK(T24),"",", "&amp;T24)
 &amp;IF(ISBLANK(Z24),"",", "&amp;Z24)
 &amp;IF(ISBLANK(AF24),"",", "&amp;AF24)
@@ -10281,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="4" t="str">
-        <f t="shared" ref="K24:K26" si="79">IF(AND(OR(I24="Gacha",I24="Origin"),ISBLANK(J24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K24:K26" si="74">IF(AND(OR(I24="Gacha",I24="Origin"),ISBLANK(J24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L24">
@@ -10313,31 +10337,31 @@
         <v>9999</v>
       </c>
       <c r="W24" s="4" t="str">
-        <f t="shared" ref="W24" si="80">IF(AND(OR(U24="Gacha",U24="Origin"),ISBLANK(V24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="W24" si="75">IF(AND(OR(U24="Gacha",U24="Origin"),ISBLANK(V24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AC24" s="4" t="str">
-        <f t="shared" ref="AC24" si="81">IF(AND(OR(AA24="Gacha",AA24="Origin"),ISBLANK(AB24)),"서브밸류 필요","")</f>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AI24" s="4" t="str">
-        <f t="shared" ref="AI24" si="82">IF(AND(OR(AG24="Gacha",AG24="Origin"),ISBLANK(AH24)),"서브밸류 필요","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AO24" s="4" t="str">
-        <f t="shared" ref="AO24" si="83">IF(AND(OR(AM24="Gacha",AM24="Origin"),ISBLANK(AN24)),"서브밸류 필요","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AU24" s="4" t="str">
-        <f t="shared" ref="AU24" si="84">IF(AND(OR(AS24="Gacha",AS24="Origin"),ISBLANK(AT24)),"서브밸류 필요","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BA24" s="4" t="str">
-        <f t="shared" ref="BA24" si="85">IF(AND(OR(AY24="Gacha",AY24="Origin"),ISBLANK(AZ24)),"서브밸류 필요","")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG24" s="4" t="str">
-        <f t="shared" ref="BG24:BG26" si="86">IF(AND(OR(BE24="Gacha",BE24="Origin"),ISBLANK(BF24)),"서브밸류 필요","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -10349,7 +10373,7 @@
         <v>123</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ref="C25" si="87">IF(ISBLANK(I25),"",I25)
+        <f t="shared" ref="C25" si="76">IF(ISBLANK(I25),"",I25)
 &amp;IF(ISBLANK(O25),"",", "&amp;O25)
 &amp;IF(ISBLANK(U25),"",", "&amp;U25)
 &amp;IF(ISBLANK(AA25),"",", "&amp;AA25)
@@ -10394,7 +10418,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" ref="E25" si="88">IF(ISBLANK(J25),"",J25)
+        <f t="shared" ref="E25" si="77">IF(ISBLANK(J25),"",J25)
 &amp;IF(ISBLANK(O25),"",", "&amp;P25)
 &amp;IF(ISBLANK(U25),"",", "&amp;V25)
 &amp;IF(ISBLANK(AA25),"",", "&amp;AB25)
@@ -10406,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" ref="F25" si="89">IF(ISBLANK(L25),"",L25)
+        <f t="shared" ref="F25" si="78">IF(ISBLANK(L25),"",L25)
 &amp;IF(ISBLANK(R25),"",", "&amp;R25)
 &amp;IF(ISBLANK(X25),"",", "&amp;X25)
 &amp;IF(ISBLANK(AD25),"",", "&amp;AD25)
@@ -10418,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" ref="G25" si="90">IF(ISBLANK(M25),"",M25)
+        <f t="shared" ref="G25" si="79">IF(ISBLANK(M25),"",M25)
 &amp;IF(ISBLANK(S25),"",", "&amp;S25)
 &amp;IF(ISBLANK(Y25),"",", "&amp;Y25)
 &amp;IF(ISBLANK(AE25),"",", "&amp;AE25)
@@ -10430,7 +10454,7 @@
         <v>9999</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" ref="H25" si="91">IF(ISBLANK(N25),"",N25)
+        <f t="shared" ref="H25" si="80">IF(ISBLANK(N25),"",N25)
 &amp;IF(ISBLANK(T25),"",", "&amp;T25)
 &amp;IF(ISBLANK(Z25),"",", "&amp;Z25)
 &amp;IF(ISBLANK(AF25),"",", "&amp;AF25)
@@ -10448,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="4" t="str">
-        <f t="shared" ref="K25" si="92">IF(AND(OR(I25="Gacha",I25="Origin"),ISBLANK(J25)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K25" si="81">IF(AND(OR(I25="Gacha",I25="Origin"),ISBLANK(J25)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L25">
@@ -10462,35 +10486,35 @@
       </c>
       <c r="O25" s="3"/>
       <c r="Q25" s="4" t="str">
-        <f t="shared" ref="Q25" si="93">IF(AND(OR(O25="Gacha",O25="Origin"),ISBLANK(P25)),"서브밸류 필요","")</f>
+        <f t="shared" ref="Q25" si="82">IF(AND(OR(O25="Gacha",O25="Origin"),ISBLANK(P25)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="W25" s="4" t="str">
-        <f t="shared" ref="W25" si="94">IF(AND(OR(U25="Gacha",U25="Origin"),ISBLANK(V25)),"서브밸류 필요","")</f>
+        <f t="shared" ref="W25:W26" si="83">IF(AND(OR(U25="Gacha",U25="Origin"),ISBLANK(V25)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AC25" s="4" t="str">
-        <f t="shared" ref="AC25" si="95">IF(AND(OR(AA25="Gacha",AA25="Origin"),ISBLANK(AB25)),"서브밸류 필요","")</f>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AI25" s="4" t="str">
-        <f t="shared" ref="AI25" si="96">IF(AND(OR(AG25="Gacha",AG25="Origin"),ISBLANK(AH25)),"서브밸류 필요","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AO25" s="4" t="str">
-        <f t="shared" ref="AO25" si="97">IF(AND(OR(AM25="Gacha",AM25="Origin"),ISBLANK(AN25)),"서브밸류 필요","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AU25" s="4" t="str">
-        <f t="shared" ref="AU25" si="98">IF(AND(OR(AS25="Gacha",AS25="Origin"),ISBLANK(AT25)),"서브밸류 필요","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BA25" s="4" t="str">
-        <f t="shared" ref="BA25" si="99">IF(AND(OR(AY25="Gacha",AY25="Origin"),ISBLANK(AZ25)),"서브밸류 필요","")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG25" s="4" t="str">
-        <f t="shared" ref="BG25" si="100">IF(AND(OR(BE25="Gacha",BE25="Origin"),ISBLANK(BF25)),"서브밸류 필요","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -10502,27 +10526,27 @@
         <v>109</v>
       </c>
       <c r="C26" t="str">
+        <f t="shared" si="68"/>
+        <v>Gacha, Gacha</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v>5, 5</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>o, o</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>1, 1</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="72"/>
+        <v>1, 1</v>
+      </c>
+      <c r="H26" s="1" t="str">
         <f t="shared" si="73"/>
-        <v>Gacha, Gacha</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" ca="1" si="74"/>
-        <v>5, 5</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="75"/>
-        <v>o, o</v>
-      </c>
-      <c r="F26" s="1" t="str">
-        <f t="shared" si="76"/>
-        <v>1, 1</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f t="shared" si="77"/>
-        <v>1, 1</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="78"/>
         <v>1, 1</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -10532,7 +10556,7 @@
         <v>111</v>
       </c>
       <c r="K26" s="4" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="L26">
@@ -10564,14 +10588,38 @@
         <v>1</v>
       </c>
       <c r="U26" s="3"/>
+      <c r="W26" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
       <c r="AA26" s="3"/>
+      <c r="AC26" s="4" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
       <c r="AG26" s="3"/>
+      <c r="AI26" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AM26" s="3"/>
+      <c r="AO26" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="AS26" s="3"/>
+      <c r="AU26" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="AY26" s="3"/>
+      <c r="BA26" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="BE26" s="3"/>
       <c r="BG26" s="4" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -10583,7 +10631,7 @@
         <v>117</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:C31" si="101">IF(ISBLANK(I27),"",I27)
+        <f t="shared" ref="C27:C31" si="84">IF(ISBLANK(I27),"",I27)
 &amp;IF(ISBLANK(O27),"",", "&amp;O27)
 &amp;IF(ISBLANK(U27),"",", "&amp;U27)
 &amp;IF(ISBLANK(AA27),"",", "&amp;AA27)
@@ -10595,7 +10643,7 @@
         <v>Gacha, Gacha, Gacha</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" ref="D27:D31" ca="1" si="102">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D27:D31" ca="1" si="85">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -10628,7 +10676,7 @@
         <v>5, 5, 5</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" ref="E27:E31" si="103">IF(ISBLANK(J27),"",J27)
+        <f t="shared" ref="E27:E31" si="86">IF(ISBLANK(J27),"",J27)
 &amp;IF(ISBLANK(O27),"",", "&amp;P27)
 &amp;IF(ISBLANK(U27),"",", "&amp;V27)
 &amp;IF(ISBLANK(AA27),"",", "&amp;AB27)
@@ -10640,7 +10688,7 @@
         <v>o, o, o</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" ref="F27:F31" si="104">IF(ISBLANK(L27),"",L27)
+        <f t="shared" ref="F27:F31" si="87">IF(ISBLANK(L27),"",L27)
 &amp;IF(ISBLANK(R27),"",", "&amp;R27)
 &amp;IF(ISBLANK(X27),"",", "&amp;X27)
 &amp;IF(ISBLANK(AD27),"",", "&amp;AD27)
@@ -10652,7 +10700,7 @@
         <v>1, 1, 1</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" ref="G27:G31" si="105">IF(ISBLANK(M27),"",M27)
+        <f t="shared" ref="G27:G31" si="88">IF(ISBLANK(M27),"",M27)
 &amp;IF(ISBLANK(S27),"",", "&amp;S27)
 &amp;IF(ISBLANK(Y27),"",", "&amp;Y27)
 &amp;IF(ISBLANK(AE27),"",", "&amp;AE27)
@@ -10664,7 +10712,7 @@
         <v>1, 1, 1</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" ref="H27:H31" si="106">IF(ISBLANK(N27),"",N27)
+        <f t="shared" ref="H27:H31" si="89">IF(ISBLANK(N27),"",N27)
 &amp;IF(ISBLANK(T27),"",", "&amp;T27)
 &amp;IF(ISBLANK(Z27),"",", "&amp;Z27)
 &amp;IF(ISBLANK(AF27),"",", "&amp;AF27)
@@ -10682,7 +10730,7 @@
         <v>111</v>
       </c>
       <c r="K27" s="4" t="str">
-        <f t="shared" ref="K27:K31" si="107">IF(AND(OR(I27="Gacha",I27="Origin"),ISBLANK(J27)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K27:K33" si="90">IF(AND(OR(I27="Gacha",I27="Origin"),ISBLANK(J27)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L27">
@@ -10701,7 +10749,7 @@
         <v>111</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <f t="shared" ref="Q27:Q31" si="108">IF(AND(OR(O27="Gacha",O27="Origin"),ISBLANK(P27)),"서브밸류 필요","")</f>
+        <f t="shared" ref="Q27:Q31" si="91">IF(AND(OR(O27="Gacha",O27="Origin"),ISBLANK(P27)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="R27">
@@ -10720,7 +10768,7 @@
         <v>111</v>
       </c>
       <c r="W27" s="4" t="str">
-        <f t="shared" ref="W27:W31" si="109">IF(AND(OR(U27="Gacha",U27="Origin"),ISBLANK(V27)),"서브밸류 필요","")</f>
+        <f t="shared" ref="W27:W33" si="92">IF(AND(OR(U27="Gacha",U27="Origin"),ISBLANK(V27)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="X27">
@@ -10731,6 +10779,30 @@
       </c>
       <c r="Z27">
         <v>1</v>
+      </c>
+      <c r="AC27" s="4" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="AI27" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO27" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AU27" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA27" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG27" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.3">
@@ -10741,27 +10813,27 @@
         <v>118</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="84"/>
         <v>Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="85"/>
         <v>5, 5, 5, 5</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="86"/>
         <v>o, o, o, o</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="87"/>
         <v>1, 1, 1, 1</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="88"/>
         <v>1, 1, 1, 1</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="89"/>
         <v>1, 1, 1, 1</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -10771,7 +10843,7 @@
         <v>111</v>
       </c>
       <c r="K28" s="4" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="L28">
@@ -10790,7 +10862,7 @@
         <v>111</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="R28">
@@ -10809,7 +10881,7 @@
         <v>111</v>
       </c>
       <c r="W28" s="4" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="X28">
@@ -10828,7 +10900,7 @@
         <v>111</v>
       </c>
       <c r="AC28" s="4" t="str">
-        <f t="shared" ref="AC28:AC31" si="110">IF(AND(OR(AA28="Gacha",AA28="Origin"),ISBLANK(AB28)),"서브밸류 필요","")</f>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AD28">
@@ -10839,6 +10911,26 @@
       </c>
       <c r="AF28">
         <v>1</v>
+      </c>
+      <c r="AI28" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AO28" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AU28" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA28" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG28" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.3">
@@ -10849,27 +10941,27 @@
         <v>119</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="84"/>
         <v>Gacha, Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="85"/>
         <v>5, 5, 5, 5, 5</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="86"/>
         <v>o, o, o, o, o</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="87"/>
         <v>1, 1, 1, 1, 1</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="88"/>
         <v>1, 1, 1, 1, 1</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="89"/>
         <v>1, 1, 1, 1, 1</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -10879,7 +10971,7 @@
         <v>111</v>
       </c>
       <c r="K29" s="4" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="L29">
@@ -10898,7 +10990,7 @@
         <v>111</v>
       </c>
       <c r="Q29" s="4" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="R29">
@@ -10917,7 +11009,7 @@
         <v>111</v>
       </c>
       <c r="W29" s="4" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="X29">
@@ -10936,7 +11028,7 @@
         <v>111</v>
       </c>
       <c r="AC29" s="4" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AD29">
@@ -10955,7 +11047,7 @@
         <v>111</v>
       </c>
       <c r="AI29" s="4" t="str">
-        <f t="shared" ref="AI29:AI31" si="111">IF(AND(OR(AG29="Gacha",AG29="Origin"),ISBLANK(AH29)),"서브밸류 필요","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AJ29">
@@ -10966,6 +11058,22 @@
       </c>
       <c r="AL29">
         <v>1</v>
+      </c>
+      <c r="AO29" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AU29" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA29" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG29" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.3">
@@ -10976,27 +11084,27 @@
         <v>120</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="84"/>
         <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="85"/>
         <v>5, 5, 5, 5, 5, 5</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="86"/>
         <v>o, o, o, o, o, o</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="87"/>
         <v>1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="88"/>
         <v>1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="89"/>
         <v>1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -11006,7 +11114,7 @@
         <v>111</v>
       </c>
       <c r="K30" s="4" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="L30">
@@ -11025,7 +11133,7 @@
         <v>111</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="R30">
@@ -11044,7 +11152,7 @@
         <v>111</v>
       </c>
       <c r="W30" s="4" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="X30">
@@ -11063,7 +11171,7 @@
         <v>111</v>
       </c>
       <c r="AC30" s="4" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AD30">
@@ -11082,7 +11190,7 @@
         <v>111</v>
       </c>
       <c r="AI30" s="4" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AJ30">
@@ -11101,7 +11209,7 @@
         <v>111</v>
       </c>
       <c r="AO30" s="4" t="str">
-        <f t="shared" ref="AO30:AO31" si="112">IF(AND(OR(AM30="Gacha",AM30="Origin"),ISBLANK(AN30)),"서브밸류 필요","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AP30">
@@ -11112,6 +11220,18 @@
       </c>
       <c r="AR30">
         <v>1</v>
+      </c>
+      <c r="AU30" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA30" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG30" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.3">
@@ -11122,27 +11242,27 @@
         <v>121</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="84"/>
         <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="85"/>
         <v>5, 5, 5, 5, 5, 5, 5</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="86"/>
         <v>o, o, o, o, o, o, o</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="87"/>
         <v>1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="88"/>
         <v>1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="89"/>
         <v>1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -11152,7 +11272,7 @@
         <v>111</v>
       </c>
       <c r="K31" s="4" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="L31">
@@ -11171,7 +11291,7 @@
         <v>111</v>
       </c>
       <c r="Q31" s="4" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="R31">
@@ -11190,7 +11310,7 @@
         <v>111</v>
       </c>
       <c r="W31" s="4" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="X31">
@@ -11209,7 +11329,7 @@
         <v>111</v>
       </c>
       <c r="AC31" s="4" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AD31">
@@ -11228,7 +11348,7 @@
         <v>111</v>
       </c>
       <c r="AI31" s="4" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AJ31">
@@ -11247,7 +11367,7 @@
         <v>111</v>
       </c>
       <c r="AO31" s="4" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AP31">
@@ -11266,7 +11386,7 @@
         <v>111</v>
       </c>
       <c r="AU31" s="4" t="str">
-        <f t="shared" ref="AU31" si="113">IF(AND(OR(AS31="Gacha",AS31="Origin"),ISBLANK(AT31)),"서브밸류 필요","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AV31">
@@ -11277,6 +11397,265 @@
       </c>
       <c r="AX31">
         <v>1</v>
+      </c>
+      <c r="BA31" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG31" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ref="C32:C33" si="93">IF(ISBLANK(I32),"",I32)
+&amp;IF(ISBLANK(O32),"",", "&amp;O32)
+&amp;IF(ISBLANK(U32),"",", "&amp;U32)
+&amp;IF(ISBLANK(AA32),"",", "&amp;AA32)
+&amp;IF(ISBLANK(AG32),"",", "&amp;AG32)
+&amp;IF(ISBLANK(AM32),"",", "&amp;AM32)
+&amp;IF(ISBLANK(AS32),"",", "&amp;AS32)
+&amp;IF(ISBLANK(AY32),"",", "&amp;AY32)
+&amp;IF(ISBLANK(BE32),"",", "&amp;BE32)</f>
+        <v>Origin</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" ref="D32:D33" ca="1" si="94">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C32,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" ref="E32:E33" si="95">IF(ISBLANK(J32),"",J32)
+&amp;IF(ISBLANK(O32),"",", "&amp;P32)
+&amp;IF(ISBLANK(U32),"",", "&amp;V32)
+&amp;IF(ISBLANK(AA32),"",", "&amp;AB32)
+&amp;IF(ISBLANK(AG32),"",", "&amp;AH32)
+&amp;IF(ISBLANK(AM32),"",", "&amp;AN32)
+&amp;IF(ISBLANK(AS32),"",", "&amp;AT32)
+&amp;IF(ISBLANK(AY32),"",", "&amp;AZ32)
+&amp;IF(ISBLANK(BE32),"",", "&amp;BF32)</f>
+        <v>l</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" ref="F32:F33" si="96">IF(ISBLANK(L32),"",L32)
+&amp;IF(ISBLANK(R32),"",", "&amp;R32)
+&amp;IF(ISBLANK(X32),"",", "&amp;X32)
+&amp;IF(ISBLANK(AD32),"",", "&amp;AD32)
+&amp;IF(ISBLANK(AJ32),"",", "&amp;AJ32)
+&amp;IF(ISBLANK(AP32),"",", "&amp;AP32)
+&amp;IF(ISBLANK(AV32),"",", "&amp;AV32)
+&amp;IF(ISBLANK(BB32),"",", "&amp;BB32)
+&amp;IF(ISBLANK(BH32),"",", "&amp;BH32)</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" ref="G32:G33" si="97">IF(ISBLANK(M32),"",M32)
+&amp;IF(ISBLANK(S32),"",", "&amp;S32)
+&amp;IF(ISBLANK(Y32),"",", "&amp;Y32)
+&amp;IF(ISBLANK(AE32),"",", "&amp;AE32)
+&amp;IF(ISBLANK(AK32),"",", "&amp;AK32)
+&amp;IF(ISBLANK(AQ32),"",", "&amp;AQ32)
+&amp;IF(ISBLANK(AW32),"",", "&amp;AW32)
+&amp;IF(ISBLANK(BC32),"",", "&amp;BC32)
+&amp;IF(ISBLANK(BI32),"",", "&amp;BI32)</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" ref="H32:H33" si="98">IF(ISBLANK(N32),"",N32)
+&amp;IF(ISBLANK(T32),"",", "&amp;T32)
+&amp;IF(ISBLANK(Z32),"",", "&amp;Z32)
+&amp;IF(ISBLANK(AF32),"",", "&amp;AF32)
+&amp;IF(ISBLANK(AL32),"",", "&amp;AL32)
+&amp;IF(ISBLANK(AR32),"",", "&amp;AR32)
+&amp;IF(ISBLANK(AX32),"",", "&amp;AX32)
+&amp;IF(ISBLANK(BD32),"",", "&amp;BD32)
+&amp;IF(ISBLANK(BJ32),"",", "&amp;BJ32)</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" s="4" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3"/>
+      <c r="Q32" s="4" t="str">
+        <f t="shared" ref="Q32:Q33" si="99">IF(AND(OR(O32="Gacha",O32="Origin"),ISBLANK(P32)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="U32" s="3"/>
+      <c r="W32" s="4" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AA32" s="3"/>
+      <c r="AC32" s="4" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="AG32" s="3"/>
+      <c r="AI32" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AM32" s="3"/>
+      <c r="AO32" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AS32" s="3"/>
+      <c r="AU32" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AY32" s="3"/>
+      <c r="BA32" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE32" s="3"/>
+      <c r="BG32" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="93"/>
+        <v>Origin</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="95"/>
+        <v>u</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="Q33" s="4" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="U33" s="3"/>
+      <c r="W33" s="4" t="str">
+        <f t="shared" si="92"/>
+        <v/>
+      </c>
+      <c r="AA33" s="3"/>
+      <c r="AC33" s="4" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="AG33" s="3"/>
+      <c r="AI33" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AM33" s="3"/>
+      <c r="AO33" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AS33" s="3"/>
+      <c r="AU33" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AY33" s="3"/>
+      <c r="BA33" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE33" s="3"/>
+      <c r="BG33" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -11286,7 +11665,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 BE2:BE21 AS31 AY26 AM26 AG26 U26:U31 AA26 AS26 BE26 AA28:AA31 AG29:AG31 AM30:AM31 I2:I23 I24:I31 O2:O23 O24:O31" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 BE2:BE21 U26:U33 AY26 AM26 AG26 AA28:AA33 AA26 AS26 BE26 AG29:AG33 AM30:AM33 I2:I33 O2:O33 AS31:AS33 AY32:AY33 BE32:BE33" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB392D0-3D41-47F7-B27F-4C329EBB56F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E49D06-5856-46EC-B496-395B0BB3E513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
     <sheet name="NotCharTable" sheetId="4" r:id="rId2"/>
-    <sheet name="드랍규칙" sheetId="3" r:id="rId3"/>
+    <sheet name="챕터별골드" sheetId="5" r:id="rId3"/>
+    <sheet name="드랍규칙" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5502,7 +5506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="147">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5965,13 +5969,80 @@
   <si>
     <t>u</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준몹수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수점처리민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수점처리맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얻을 수 없는값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 Jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토예외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chpMxGo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6040,6 +6111,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -6075,7 +6153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6109,6 +6187,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6124,6 +6205,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="에너지"/>
+      <sheetName val="골드획득"/>
+      <sheetName val="골드시뮬"/>
+      <sheetName val="재화비"/>
+      <sheetName val="드랍"/>
+      <sheetName val="드랍시뮬"/>
+      <sheetName val="표준성장표"/>
+      <sheetName val="상점 모델"/>
+      <sheetName val="상자"/>
+      <sheetName val="강화모델"/>
+      <sheetName val="강화시뮬"/>
+      <sheetName val="기하분포"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="G3">
+            <v>6.6666666666666666E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.19999999999999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.39999999999999997</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6423,68 +6565,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS33"/>
+  <dimension ref="A1:BR33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="51.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="51.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="9" collapsed="1"/>
-    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="9" collapsed="1"/>
-    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="9" collapsed="1"/>
-    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="71" max="71" width="9" collapsed="1"/>
+    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6709,7 +6847,7 @@
         <v>len</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70">
       <c r="A2">
         <v>9752476</v>
       </c>
@@ -6883,7 +7021,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -7046,7 +7184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -7206,7 +7344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -7380,7 +7518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -7514,7 +7652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -7648,7 +7786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -7782,7 +7920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70">
       <c r="A9">
         <v>5001</v>
       </c>
@@ -7935,7 +8073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70">
       <c r="A10">
         <v>5002</v>
       </c>
@@ -8156,7 +8294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70">
       <c r="A11">
         <v>5003</v>
       </c>
@@ -8337,7 +8475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70">
       <c r="A12">
         <v>5004</v>
       </c>
@@ -8505,7 +8643,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70">
       <c r="A13">
         <v>6000</v>
       </c>
@@ -8632,7 +8770,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70">
       <c r="A14">
         <v>6001</v>
       </c>
@@ -8778,7 +8916,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70">
       <c r="A15">
         <v>6002</v>
       </c>
@@ -8926,7 +9064,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70">
       <c r="A16">
         <v>6003</v>
       </c>
@@ -9074,7 +9212,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62">
       <c r="A17">
         <v>6004</v>
       </c>
@@ -9222,7 +9360,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62">
       <c r="A18" s="10" t="s">
         <v>83</v>
       </c>
@@ -9353,7 +9491,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62">
       <c r="A19" s="10" t="s">
         <v>84</v>
       </c>
@@ -9582,7 +9720,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62">
       <c r="A20" s="10" t="s">
         <v>86</v>
       </c>
@@ -9761,7 +9899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:62">
       <c r="A21" s="10" t="s">
         <v>89</v>
       </c>
@@ -9932,7 +10070,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:62">
       <c r="A22" s="10" t="s">
         <v>104</v>
       </c>
@@ -10045,7 +10183,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62">
       <c r="A23" s="10" t="s">
         <v>105</v>
       </c>
@@ -10198,7 +10336,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62">
       <c r="A24" s="10" t="s">
         <v>107</v>
       </c>
@@ -10365,7 +10503,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62">
       <c r="A25" s="10" t="s">
         <v>122</v>
       </c>
@@ -10518,7 +10656,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62">
       <c r="A26" s="10" t="s">
         <v>110</v>
       </c>
@@ -10623,7 +10761,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:62">
       <c r="A27" s="10" t="s">
         <v>112</v>
       </c>
@@ -10805,7 +10943,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62">
       <c r="A28" s="10" t="s">
         <v>113</v>
       </c>
@@ -10933,7 +11071,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:62">
       <c r="A29" s="10" t="s">
         <v>114</v>
       </c>
@@ -11076,7 +11214,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:62">
       <c r="A30" s="10" t="s">
         <v>115</v>
       </c>
@@ -11234,7 +11372,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:62">
       <c r="A31" s="10" t="s">
         <v>116</v>
       </c>
@@ -11407,7 +11545,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:62">
       <c r="A32" s="10" t="s">
         <v>124</v>
       </c>
@@ -11567,7 +11705,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:59">
       <c r="A33" s="10" t="s">
         <v>125</v>
       </c>
@@ -11683,12 +11821,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -11696,7 +11834,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11704,7 +11842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -11712,7 +11850,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -11720,7 +11858,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>30</v>
       </c>
@@ -11728,7 +11866,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -11736,7 +11874,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -11744,7 +11882,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>60</v>
       </c>
@@ -11752,7 +11890,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -11768,17 +11906,1745 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11645F6-6980-4A80-AAC4-DE11E683AE5B}">
+  <dimension ref="A1:X34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>210</v>
+      </c>
+      <c r="D2">
+        <v>600</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E29" si="0">B2/D2</f>
+        <v>0.35</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F29" si="1">E2-0.3</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G29" si="2">E2+0.3</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:I29" si="3">ROUND(F2,3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(E2&lt;&gt;AVERAGE(H2:I2),"달라짐","")</f>
+        <v/>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K29" si="4">ROUND(B2*1.5,0)</f>
+        <v>315</v>
+      </c>
+      <c r="L2" t="str">
+        <f>M2</f>
+        <v>"1":315</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M29" si="5">""""&amp;A2&amp;""""&amp;""&amp;":"&amp;K2</f>
+        <v>"1":315</v>
+      </c>
+      <c r="O2" t="str">
+        <f>"{ "&amp;L29&amp;" }"</f>
+        <v>{ "1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071, "26":1103, "27":1134, "28":1166 }</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B29" si="6">B2+21</f>
+        <v>231</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C29" si="7">B3/B$2</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>600</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>8.500000000000002E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J29" si="8">IF(E3&lt;&gt;AVERAGE(H3:I3),"달라짐","")</f>
+        <v/>
+      </c>
+      <c r="K3">
+        <f t="shared" si="4"/>
+        <v>347</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L29" si="9">L2&amp;", "&amp;M3</f>
+        <v>"1":315, "2":347</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="5"/>
+        <v>"2":347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="D4">
+        <v>600</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.72</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.72</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="5"/>
+        <v>"3":378</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="6"/>
+        <v>273</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.755</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>0.155</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.755</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="5"/>
+        <v>"4":410</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" t="s">
+        <v>144</v>
+      </c>
+      <c r="V5" t="s">
+        <v>139</v>
+      </c>
+      <c r="X5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="6"/>
+        <v>294</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="D6">
+        <v>600</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.79</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0.19</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.79</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>441</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="5"/>
+        <v>"5":441</v>
+      </c>
+      <c r="O6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="R6">
+        <f>AVERAGE(O6:P6)</f>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="S6">
+        <v>360</v>
+      </c>
+      <c r="U6">
+        <f>R6*S6</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="V6">
+        <f>ROUND(U6*1.5,0)</f>
+        <v>43</v>
+      </c>
+      <c r="X6" t="str">
+        <f>"""0"""&amp;":"&amp;V6</f>
+        <v>"0":43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000003</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>473</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="5"/>
+        <v>"6":473</v>
+      </c>
+      <c r="O7" t="str">
+        <f>"{ "&amp;X6&amp;", "&amp;L29&amp;" }"</f>
+        <v>{ "0":43, "1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071, "26":1103, "27":1134, "28":1166 }</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="6"/>
+        <v>336</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.26000000000000006</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.86</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>504</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="5"/>
+        <v>"7":504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>B8+21</f>
+        <v>357</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>536</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="5"/>
+        <v>"8":536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="6"/>
+        <v>378</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.33</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.93</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>567</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="5"/>
+        <v>"9":567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="6"/>
+        <v>399</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="D11">
+        <v>600</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.36500000000000005</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.96500000000000008</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>599</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="5"/>
+        <v>"10":599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>630</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="5"/>
+        <v>"11":630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="6"/>
+        <v>441</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="7"/>
+        <v>2.1</v>
+      </c>
+      <c r="D13">
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.435</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0.435</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>662</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="5"/>
+        <v>"12":662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="6"/>
+        <v>462</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D14">
+        <v>600</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1.07</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0.47</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1.07</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>693</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="5"/>
+        <v>"13":693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="6"/>
+        <v>483</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="7"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D15">
+        <v>600</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.50500000000000012</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1.105</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>0.505</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1.105</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>725</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="5"/>
+        <v>"14":725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="6"/>
+        <v>504</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="D16">
+        <v>600</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>756</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="5"/>
+        <v>"15":756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="D17">
+        <v>600</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1.175</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1.175</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>788</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="5"/>
+        <v>"16":788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="6"/>
+        <v>546</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="7"/>
+        <v>2.6</v>
+      </c>
+      <c r="D18">
+        <v>600</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.91</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1.21</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0.61</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1.21</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>819</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="5"/>
+        <v>"17":819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="6"/>
+        <v>567</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="7"/>
+        <v>2.7</v>
+      </c>
+      <c r="D19">
+        <v>600</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1.2449999999999999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>851</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="5"/>
+        <v>"18":851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="6"/>
+        <v>588</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="7"/>
+        <v>2.8</v>
+      </c>
+      <c r="D20">
+        <v>600</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>1.28</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>0.68</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>1.28</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>882</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="5"/>
+        <v>"19":882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="6"/>
+        <v>609</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="7"/>
+        <v>2.9</v>
+      </c>
+      <c r="D21">
+        <v>600</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.71499999999999986</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>914</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="5"/>
+        <v>"20":914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="6"/>
+        <v>630</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>600</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>1.35</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>945</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="5"/>
+        <v>"21":945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="6"/>
+        <v>651</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="7"/>
+        <v>3.1</v>
+      </c>
+      <c r="D23">
+        <v>600</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.085</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.78499999999999992</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1.385</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>1.385</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>977</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="5"/>
+        <v>"22":977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="6"/>
+        <v>672</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="D24">
+        <v>600</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>0.82</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>1.42</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>1008</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="5"/>
+        <v>"23":1008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="6"/>
+        <v>693</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="7"/>
+        <v>3.3</v>
+      </c>
+      <c r="D25">
+        <v>600</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.155</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>1040</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="5"/>
+        <v>"24":1040</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="6"/>
+        <v>714</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="7"/>
+        <v>3.4</v>
+      </c>
+      <c r="D26">
+        <v>600</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.19</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1.49</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>0.89</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>1.49</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>1071</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="5"/>
+        <v>"25":1071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="6"/>
+        <v>735</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="D27">
+        <v>600</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>1.5250000000000001</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>1103</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071, "26":1103</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="5"/>
+        <v>"26":1103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="6"/>
+        <v>756</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="7"/>
+        <v>3.6</v>
+      </c>
+      <c r="D28">
+        <v>600</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>1.56</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1.56</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>1134</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071, "26":1103, "27":1134</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="5"/>
+        <v>"27":1134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>777</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="7"/>
+        <v>3.7</v>
+      </c>
+      <c r="D29">
+        <v>600</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.99499999999999988</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>1.595</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>0.995</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1.595</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>1166</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="9"/>
+        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071, "26":1103, "27":1134, "28":1166</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="5"/>
+        <v>"28":1166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <f>VLOOKUP($A31,$A:$I,COLUMN(),0)</f>
+        <v>336</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP($A31,$A:$I,COLUMN(),0)</f>
+        <v>1.6</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E34" si="10">B31/D31</f>
+        <v>56</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F34" si="11">E31-0.3</f>
+        <v>55.7</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G34" si="12">E31+0.3</f>
+        <v>56.3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:I34" si="13">ROUND(F31,3)</f>
+        <v>55.7</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="13"/>
+        <v>56.3</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" ref="J31:J34" si="14">IF(E31&lt;&gt;AVERAGE(H31:I31),"달라짐","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <f>VLOOKUP($A32,$A:$I,COLUMN(),0)</f>
+        <v>483</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP($A32,$A:$I,COLUMN(),0)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>68.7</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="12"/>
+        <v>69.3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="13"/>
+        <v>68.7</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="13"/>
+        <v>69.3</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <f>VLOOKUP($A33,$A:$I,COLUMN(),0)</f>
+        <v>630</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP($A33,$A:$I,COLUMN(),0)</f>
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="10"/>
+        <v>78.75</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="11"/>
+        <v>78.45</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="12"/>
+        <v>79.05</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="13"/>
+        <v>78.45</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="13"/>
+        <v>79.05</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <f>VLOOKUP($A34,$A:$I,COLUMN(),0)</f>
+        <v>777</v>
+      </c>
+      <c r="C34">
+        <f>VLOOKUP($A34,$A:$I,COLUMN(),0)</f>
+        <v>3.7</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="10"/>
+        <v>86.333333333333329</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="11"/>
+        <v>86.033333333333331</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="12"/>
+        <v>86.633333333333326</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="13"/>
+        <v>86.033000000000001</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="13"/>
+        <v>86.632999999999996</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="14"/>
+        <v>달라짐</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F0AB79-C825-4F18-BA6C-94FFE1CA0F6E}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -11795,7 +13661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11817,7 +13683,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11836,7 +13702,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11844,7 +13710,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11852,7 +13718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E49D06-5856-46EC-B496-395B0BB3E513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73910102-51E4-4FF4-A432-27D9247CE341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="챕터별골드" sheetId="5" r:id="rId3"/>
     <sheet name="드랍규칙" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5506,7 +5503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="156">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6036,6 +6033,42 @@
   </si>
   <si>
     <t>chpMxGo</t>
+  </si>
+  <si>
+    <t>장비 희귀등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 영웅등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 에픽등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dnvuswkdqlu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dnvuswkdqlv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dnvuswkdqlw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6205,67 +6238,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="에너지"/>
-      <sheetName val="골드획득"/>
-      <sheetName val="골드시뮬"/>
-      <sheetName val="재화비"/>
-      <sheetName val="드랍"/>
-      <sheetName val="드랍시뮬"/>
-      <sheetName val="표준성장표"/>
-      <sheetName val="상점 모델"/>
-      <sheetName val="상자"/>
-      <sheetName val="강화모델"/>
-      <sheetName val="강화시뮬"/>
-      <sheetName val="기하분포"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="G3">
-            <v>6.6666666666666666E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.19999999999999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>0.39999999999999997</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.66666666666666663</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6565,61 +6537,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BR33"/>
+  <dimension ref="A1:BS36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="51.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="14" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="51.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="20" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="26" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="38" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="44" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="56" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="10.75" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="10.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="62" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="68" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="20" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="26" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="44" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="50" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="56" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="10.75" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="10.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9" collapsed="1"/>
+    <col min="64" max="64" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="9" collapsed="1"/>
+    <col min="66" max="68" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="9" collapsed="1"/>
+    <col min="70" max="70" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="27" customHeight="1">
@@ -11796,6 +11772,348 @@
         <v/>
       </c>
     </row>
+    <row r="34" spans="1:59">
+      <c r="A34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C36" si="100">IF(ISBLANK(I34),"",I34)
+&amp;IF(ISBLANK(O34),"",", "&amp;O34)
+&amp;IF(ISBLANK(U34),"",", "&amp;U34)
+&amp;IF(ISBLANK(AA34),"",", "&amp;AA34)
+&amp;IF(ISBLANK(AG34),"",", "&amp;AG34)
+&amp;IF(ISBLANK(AM34),"",", "&amp;AM34)
+&amp;IF(ISBLANK(AS34),"",", "&amp;AS34)
+&amp;IF(ISBLANK(AY34),"",", "&amp;AY34)
+&amp;IF(ISBLANK(BE34),"",", "&amp;BE34)</f>
+        <v>Gacha</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" ref="D34:D36" ca="1" si="101">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C34,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" ref="E34:E36" si="102">IF(ISBLANK(J34),"",J34)
+&amp;IF(ISBLANK(O34),"",", "&amp;P34)
+&amp;IF(ISBLANK(U34),"",", "&amp;V34)
+&amp;IF(ISBLANK(AA34),"",", "&amp;AB34)
+&amp;IF(ISBLANK(AG34),"",", "&amp;AH34)
+&amp;IF(ISBLANK(AM34),"",", "&amp;AN34)
+&amp;IF(ISBLANK(AS34),"",", "&amp;AT34)
+&amp;IF(ISBLANK(AY34),"",", "&amp;AZ34)
+&amp;IF(ISBLANK(BE34),"",", "&amp;BF34)</f>
+        <v>n</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" ref="F34:F36" si="103">IF(ISBLANK(L34),"",L34)
+&amp;IF(ISBLANK(R34),"",", "&amp;R34)
+&amp;IF(ISBLANK(X34),"",", "&amp;X34)
+&amp;IF(ISBLANK(AD34),"",", "&amp;AD34)
+&amp;IF(ISBLANK(AJ34),"",", "&amp;AJ34)
+&amp;IF(ISBLANK(AP34),"",", "&amp;AP34)
+&amp;IF(ISBLANK(AV34),"",", "&amp;AV34)
+&amp;IF(ISBLANK(BB34),"",", "&amp;BB34)
+&amp;IF(ISBLANK(BH34),"",", "&amp;BH34)</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" ref="G34:G36" si="104">IF(ISBLANK(M34),"",M34)
+&amp;IF(ISBLANK(S34),"",", "&amp;S34)
+&amp;IF(ISBLANK(Y34),"",", "&amp;Y34)
+&amp;IF(ISBLANK(AE34),"",", "&amp;AE34)
+&amp;IF(ISBLANK(AK34),"",", "&amp;AK34)
+&amp;IF(ISBLANK(AQ34),"",", "&amp;AQ34)
+&amp;IF(ISBLANK(AW34),"",", "&amp;AW34)
+&amp;IF(ISBLANK(BC34),"",", "&amp;BC34)
+&amp;IF(ISBLANK(BI34),"",", "&amp;BI34)</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" ref="H34:H36" si="105">IF(ISBLANK(N34),"",N34)
+&amp;IF(ISBLANK(T34),"",", "&amp;T34)
+&amp;IF(ISBLANK(Z34),"",", "&amp;Z34)
+&amp;IF(ISBLANK(AF34),"",", "&amp;AF34)
+&amp;IF(ISBLANK(AL34),"",", "&amp;AL34)
+&amp;IF(ISBLANK(AR34),"",", "&amp;AR34)
+&amp;IF(ISBLANK(AX34),"",", "&amp;AX34)
+&amp;IF(ISBLANK(BD34),"",", "&amp;BD34)
+&amp;IF(ISBLANK(BJ34),"",", "&amp;BJ34)</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="4" t="str">
+        <f t="shared" ref="K34:K36" si="106">IF(AND(OR(I34="Gacha",I34="Origin"),ISBLANK(J34)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="4" t="str">
+        <f t="shared" ref="Q34:Q36" si="107">IF(AND(OR(O34="Gacha",O34="Origin"),ISBLANK(P34)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="U34" s="3"/>
+      <c r="W34" s="4" t="str">
+        <f t="shared" ref="W34:W36" si="108">IF(AND(OR(U34="Gacha",U34="Origin"),ISBLANK(V34)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AA34" s="3"/>
+      <c r="AC34" s="4" t="str">
+        <f t="shared" ref="AC34:AC36" si="109">IF(AND(OR(AA34="Gacha",AA34="Origin"),ISBLANK(AB34)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AG34" s="3"/>
+      <c r="AI34" s="4" t="str">
+        <f t="shared" ref="AI34:AI36" si="110">IF(AND(OR(AG34="Gacha",AG34="Origin"),ISBLANK(AH34)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AM34" s="3"/>
+      <c r="AO34" s="4" t="str">
+        <f t="shared" ref="AO34:AO36" si="111">IF(AND(OR(AM34="Gacha",AM34="Origin"),ISBLANK(AN34)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AS34" s="3"/>
+      <c r="AU34" s="4" t="str">
+        <f t="shared" ref="AU34:AU36" si="112">IF(AND(OR(AS34="Gacha",AS34="Origin"),ISBLANK(AT34)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AY34" s="3"/>
+      <c r="BA34" s="4" t="str">
+        <f t="shared" ref="BA34:BA36" si="113">IF(AND(OR(AY34="Gacha",AY34="Origin"),ISBLANK(AZ34)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BE34" s="3"/>
+      <c r="BG34" s="4" t="str">
+        <f t="shared" ref="BG34:BG36" si="114">IF(AND(OR(BE34="Gacha",BE34="Origin"),ISBLANK(BF34)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:59">
+      <c r="A35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="100"/>
+        <v>Gacha</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" ca="1" si="101"/>
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="102"/>
+        <v>j</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="4" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3"/>
+      <c r="Q35" s="4" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="U35" s="3"/>
+      <c r="W35" s="4" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="AA35" s="3"/>
+      <c r="AC35" s="4" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="AG35" s="3"/>
+      <c r="AI35" s="4" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="AM35" s="3"/>
+      <c r="AO35" s="4" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="AS35" s="3"/>
+      <c r="AU35" s="4" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="AY35" s="3"/>
+      <c r="BA35" s="4" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="BE35" s="3"/>
+      <c r="BG35" s="4" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:59">
+      <c r="A36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="100"/>
+        <v>Gacha</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" ca="1" si="101"/>
+        <v>5</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="102"/>
+        <v>q</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>152</v>
+      </c>
+      <c r="K36" s="4" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="4" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="U36" s="3"/>
+      <c r="W36" s="4" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="AA36" s="3"/>
+      <c r="AC36" s="4" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="AG36" s="3"/>
+      <c r="AI36" s="4" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="AM36" s="3"/>
+      <c r="AO36" s="4" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="AS36" s="3"/>
+      <c r="AU36" s="4" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="AY36" s="3"/>
+      <c r="BA36" s="4" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="BE36" s="3"/>
+      <c r="BG36" s="4" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BP11">
     <sortCondition descending="1" ref="BP2:BP11"/>
@@ -11803,7 +12121,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 BE2:BE21 U26:U33 AY26 AM26 AG26 AA28:AA33 AA26 AS26 BE26 AG29:AG33 AM30:AM33 I2:I33 O2:O33 AS31:AS33 AY32:AY33 BE32:BE33" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 BE2:BE21 AY26 AM26 AG26 AA26 AS26 BE26 I2:I36 AY32:AY36 AS31:AS36 O2:O36 BE32:BE36 AM30:AM36 AG29:AG36 AA28:AA36 U26:U36" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -13472,38 +13790,38 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <f>VLOOKUP($A31,$A:$I,COLUMN(),0)</f>
+        <f t="shared" ref="B31:C34" si="10">VLOOKUP($A31,$A:$I,COLUMN(),0)</f>
         <v>336</v>
       </c>
       <c r="C31">
-        <f>VLOOKUP($A31,$A:$I,COLUMN(),0)</f>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E34" si="10">B31/D31</f>
+        <f t="shared" ref="E31:E34" si="11">B31/D31</f>
         <v>56</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F34" si="11">E31-0.3</f>
+        <f t="shared" ref="F31:F34" si="12">E31-0.3</f>
         <v>55.7</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:G34" si="12">E31+0.3</f>
+        <f t="shared" ref="G31:G34" si="13">E31+0.3</f>
         <v>56.3</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:I34" si="13">ROUND(F31,3)</f>
+        <f t="shared" ref="H31:I34" si="14">ROUND(F31,3)</f>
         <v>55.7</v>
       </c>
       <c r="I31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>56.3</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" ref="J31:J34" si="14">IF(E31&lt;&gt;AVERAGE(H31:I31),"달라짐","")</f>
+        <f t="shared" ref="J31:J34" si="15">IF(E31&lt;&gt;AVERAGE(H31:I31),"달라짐","")</f>
         <v/>
       </c>
     </row>
@@ -13512,38 +13830,38 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <f>VLOOKUP($A32,$A:$I,COLUMN(),0)</f>
+        <f t="shared" si="10"/>
         <v>483</v>
       </c>
       <c r="C32">
-        <f>VLOOKUP($A32,$A:$I,COLUMN(),0)</f>
+        <f t="shared" si="10"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="F32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>68.7</v>
       </c>
       <c r="G32">
-        <f t="shared" si="12"/>
-        <v>69.3</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="13"/>
-        <v>68.7</v>
-      </c>
-      <c r="I32">
         <f t="shared" si="13"/>
         <v>69.3</v>
       </c>
+      <c r="H32">
+        <f t="shared" si="14"/>
+        <v>68.7</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="14"/>
+        <v>69.3</v>
+      </c>
       <c r="J32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -13552,38 +13870,38 @@
         <v>21</v>
       </c>
       <c r="B33">
-        <f>VLOOKUP($A33,$A:$I,COLUMN(),0)</f>
+        <f t="shared" si="10"/>
         <v>630</v>
       </c>
       <c r="C33">
-        <f>VLOOKUP($A33,$A:$I,COLUMN(),0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>78.75</v>
       </c>
       <c r="F33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>78.45</v>
       </c>
       <c r="G33">
-        <f t="shared" si="12"/>
-        <v>79.05</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="13"/>
-        <v>78.45</v>
-      </c>
-      <c r="I33">
         <f t="shared" si="13"/>
         <v>79.05</v>
       </c>
+      <c r="H33">
+        <f t="shared" si="14"/>
+        <v>78.45</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="14"/>
+        <v>79.05</v>
+      </c>
       <c r="J33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -13592,38 +13910,38 @@
         <v>28</v>
       </c>
       <c r="B34">
-        <f>VLOOKUP($A34,$A:$I,COLUMN(),0)</f>
+        <f t="shared" si="10"/>
         <v>777</v>
       </c>
       <c r="C34">
-        <f>VLOOKUP($A34,$A:$I,COLUMN(),0)</f>
+        <f t="shared" si="10"/>
         <v>3.7</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
       <c r="E34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.333333333333329</v>
       </c>
       <c r="F34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>86.033333333333331</v>
       </c>
       <c r="G34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>86.633333333333326</v>
       </c>
       <c r="H34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>86.033000000000001</v>
       </c>
       <c r="I34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>86.632999999999996</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>달라짐</v>
       </c>
     </row>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73910102-51E4-4FF4-A432-27D9247CE341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BE3EA-7F83-48CF-9D94-3CA3970200EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -6543,7 +6543,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -12227,8 +12227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11645F6-6980-4A80-AAC4-DE11E683AE5B}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12324,8 +12324,8 @@
         <v>"1":315</v>
       </c>
       <c r="O2" t="str">
-        <f>"{ "&amp;L29&amp;" }"</f>
-        <v>{ "1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071, "26":1103, "27":1134, "28":1166 }</v>
+        <f>"{"&amp;L29&amp;"}"</f>
+        <v>{"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977,"23":1008,"24":1040,"25":1071,"26":1103,"27":1134,"28":1166}</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -12372,8 +12372,8 @@
         <v>347</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L29" si="9">L2&amp;", "&amp;M3</f>
-        <v>"1":315, "2":347</v>
+        <f>L2&amp;","&amp;M3</f>
+        <v>"1":315,"2":347</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="5"/>
@@ -12424,8 +12424,8 @@
         <v>378</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378</v>
+        <f t="shared" ref="L4:L29" si="9">L3&amp;","&amp;M4</f>
+        <v>"1":315,"2":347,"3":378</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="5"/>
@@ -12480,7 +12480,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410</v>
+        <v>"1":315,"2":347,"3":378,"4":410</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="5"/>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="5"/>
@@ -12630,15 +12630,15 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="5"/>
         <v>"6":473</v>
       </c>
       <c r="O7" t="str">
-        <f>"{ "&amp;X6&amp;", "&amp;L29&amp;" }"</f>
-        <v>{ "0":43, "1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071, "26":1103, "27":1134, "28":1166 }</v>
+        <f>"{"&amp;X6&amp;","&amp;L29&amp;"}"</f>
+        <v>{"0":43,"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977,"23":1008,"24":1040,"25":1071,"26":1103,"27":1134,"28":1166}</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="5"/>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="5"/>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="5"/>
@@ -12842,7 +12842,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="5"/>
@@ -12894,7 +12894,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="5"/>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="5"/>
@@ -12998,7 +12998,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="5"/>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="5"/>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="5"/>
@@ -13154,7 +13154,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="5"/>
@@ -13206,7 +13206,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="5"/>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="5"/>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="5"/>
@@ -13362,7 +13362,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="5"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="5"/>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="5"/>
@@ -13518,7 +13518,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977,"23":1008</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="5"/>
@@ -13570,7 +13570,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977,"23":1008,"24":1040</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="5"/>
@@ -13622,7 +13622,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977,"23":1008,"24":1040,"25":1071</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="5"/>
@@ -13674,7 +13674,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071, "26":1103</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977,"23":1008,"24":1040,"25":1071,"26":1103</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="5"/>
@@ -13726,7 +13726,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071, "26":1103, "27":1134</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977,"23":1008,"24":1040,"25":1071,"26":1103,"27":1134</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="5"/>
@@ -13778,7 +13778,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" si="9"/>
-        <v>"1":315, "2":347, "3":378, "4":410, "5":441, "6":473, "7":504, "8":536, "9":567, "10":599, "11":630, "12":662, "13":693, "14":725, "15":756, "16":788, "17":819, "18":851, "19":882, "20":914, "21":945, "22":977, "23":1008, "24":1040, "25":1071, "26":1103, "27":1134, "28":1166</v>
+        <v>"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977,"23":1008,"24":1040,"25":1071,"26":1103,"27":1134,"28":1166</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="5"/>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BE3EA-7F83-48CF-9D94-3CA3970200EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB3D0A-655B-407D-9D66-B78A878241F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -6539,7 +6539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:BS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12227,8 +12227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11645F6-6980-4A80-AAC4-DE11E683AE5B}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12324,7 +12324,9 @@
         <v>"1":315</v>
       </c>
       <c r="O2" t="str">
-        <f>"{"&amp;L29&amp;"}"</f>
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(L1,COUNTA(L:L)-1,0),1)=",",SUBSTITUTE(OFFSET(L1,COUNTA(L:L)-1,0),",","",1),OFFSET(L1,COUNTA(L:L)-1,0))
+&amp;"}"</f>
         <v>{"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977,"23":1008,"24":1040,"25":1071,"26":1103,"27":1134,"28":1166}</v>
       </c>
     </row>
@@ -12637,7 +12639,10 @@
         <v>"6":473</v>
       </c>
       <c r="O7" t="str">
-        <f>"{"&amp;X6&amp;","&amp;L29&amp;"}"</f>
+        <f ca="1">"{"&amp;
+X6&amp;","&amp;
+IF(LEFT(OFFSET(L1,COUNTA(L:L)-1,0),1)=",",SUBSTITUTE(OFFSET(L1,COUNTA(L:L)-1,0),",","",1),OFFSET(L1,COUNTA(L:L)-1,0))
+&amp;"}"</f>
         <v>{"0":43,"1":315,"2":347,"3":378,"4":410,"5":441,"6":473,"7":504,"8":536,"9":567,"10":599,"11":630,"12":662,"13":693,"14":725,"15":756,"16":788,"17":819,"18":851,"19":882,"20":914,"21":945,"22":977,"23":1008,"24":1040,"25":1071,"26":1103,"27":1134,"28":1166}</v>
       </c>
     </row>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB3D0A-655B-407D-9D66-B78A878241F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC9D630-0146-4132-9EC5-F30DA7B48814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -4514,7 +4514,231 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{DFA164F3-7942-4EF6-8BDA-C1C136DE5546}">
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{1215E548-2078-4D9C-B05A-5219428297AD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오리진과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정도를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뽑는다
+상자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>까는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>횟수가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>올라간다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{DFA164F3-7942-4EF6-8BDA-C1C136DE5546}">
       <text>
         <r>
           <rPr>
@@ -5503,7 +5727,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="158">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6068,6 +6292,14 @@
   </si>
   <si>
     <t>Dnvuswkdqlw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리진대형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zozoflr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6537,13 +6769,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS36"/>
+  <dimension ref="A1:BS37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -6843,7 +7075,7 @@
         <v>Ultimate</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D21" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D2:D22" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -7072,7 +7304,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K21" si="12">IF(AND(OR(I3="Gacha",I3="Origin"),ISBLANK(J3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K3:K22" si="12">IF(AND(OR(I3="Gacha",I3="Origin"),ISBLANK(J3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L3">
@@ -7088,7 +7320,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q22" si="13">IF(AND(OR(O3="Gacha",O3="Origin"),ISBLANK(P3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="Q3:Q23" si="13">IF(AND(OR(O3="Gacha",O3="Origin"),ISBLANK(P3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="R3">
@@ -7104,7 +7336,7 @@
         <v>12</v>
       </c>
       <c r="W3" s="4" t="str">
-        <f t="shared" ref="W3:W22" si="14">IF(AND(OR(U3="Gacha",U3="Origin"),ISBLANK(V3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="W3:W23" si="14">IF(AND(OR(U3="Gacha",U3="Origin"),ISBLANK(V3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="X3">
@@ -7118,32 +7350,32 @@
       </c>
       <c r="AA3" s="3"/>
       <c r="AC3" s="4" t="str">
-        <f t="shared" ref="AC3:AC22" si="15">IF(AND(OR(AA3="Gacha",AA3="Origin"),ISBLANK(AB3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AC3:AC23" si="15">IF(AND(OR(AA3="Gacha",AA3="Origin"),ISBLANK(AB3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AG3" s="3"/>
       <c r="AI3" s="4" t="str">
-        <f t="shared" ref="AI3:AI33" si="16">IF(AND(OR(AG3="Gacha",AG3="Origin"),ISBLANK(AH3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AI3:AI34" si="16">IF(AND(OR(AG3="Gacha",AG3="Origin"),ISBLANK(AH3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AM3" s="3"/>
       <c r="AO3" s="4" t="str">
-        <f t="shared" ref="AO3:AO33" si="17">IF(AND(OR(AM3="Gacha",AM3="Origin"),ISBLANK(AN3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AO3:AO34" si="17">IF(AND(OR(AM3="Gacha",AM3="Origin"),ISBLANK(AN3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AS3" s="3"/>
       <c r="AU3" s="4" t="str">
-        <f t="shared" ref="AU3:AU33" si="18">IF(AND(OR(AS3="Gacha",AS3="Origin"),ISBLANK(AT3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AU3:AU34" si="18">IF(AND(OR(AS3="Gacha",AS3="Origin"),ISBLANK(AT3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AY3" s="3"/>
       <c r="BA3" s="4" t="str">
-        <f t="shared" ref="BA3:BA33" si="19">IF(AND(OR(AY3="Gacha",AY3="Origin"),ISBLANK(AZ3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="BA3:BA34" si="19">IF(AND(OR(AY3="Gacha",AY3="Origin"),ISBLANK(AZ3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BE3" s="3"/>
       <c r="BG3" s="4" t="str">
-        <f t="shared" ref="BG3:BG33" si="20">IF(AND(OR(BE3="Gacha",BE3="Origin"),ISBLANK(BF3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="BG3:BG34" si="20">IF(AND(OR(BE3="Gacha",BE3="Origin"),ISBLANK(BF3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BL3" t="s">
@@ -9475,7 +9707,7 @@
         <v>85</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:C22" si="51">IF(ISBLANK(I19),"",I19)
+        <f t="shared" ref="C19:C23" si="51">IF(ISBLANK(I19),"",I19)
 &amp;IF(ISBLANK(O19),"",", "&amp;O19)
 &amp;IF(ISBLANK(U19),"",", "&amp;U19)
 &amp;IF(ISBLANK(AA19),"",", "&amp;AA19)
@@ -9491,7 +9723,7 @@
         <v>5, 5, 5, 5, 5, 5, 5, 5</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" ref="E19:E22" si="52">IF(ISBLANK(J19),"",J19)
+        <f t="shared" ref="E19:E23" si="52">IF(ISBLANK(J19),"",J19)
 &amp;IF(ISBLANK(O19),"",", "&amp;P19)
 &amp;IF(ISBLANK(U19),"",", "&amp;V19)
 &amp;IF(ISBLANK(AA19),"",", "&amp;AB19)
@@ -9503,7 +9735,7 @@
         <v>g, g, g, g, g, g, g, g</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" ref="F19:F22" si="53">IF(ISBLANK(L19),"",L19)
+        <f t="shared" ref="F19:F23" si="53">IF(ISBLANK(L19),"",L19)
 &amp;IF(ISBLANK(R19),"",", "&amp;R19)
 &amp;IF(ISBLANK(X19),"",", "&amp;X19)
 &amp;IF(ISBLANK(AD19),"",", "&amp;AD19)
@@ -9515,7 +9747,7 @@
         <v>1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" ref="G19:G22" si="54">IF(ISBLANK(M19),"",M19)
+        <f t="shared" ref="G19:G23" si="54">IF(ISBLANK(M19),"",M19)
 &amp;IF(ISBLANK(S19),"",", "&amp;S19)
 &amp;IF(ISBLANK(Y19),"",", "&amp;Y19)
 &amp;IF(ISBLANK(AE19),"",", "&amp;AE19)
@@ -9527,7 +9759,7 @@
         <v>1, 1, 1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" ref="H19:H22" si="55">IF(ISBLANK(N19),"",N19)
+        <f t="shared" ref="H19:H23" si="55">IF(ISBLANK(N19),"",N19)
 &amp;IF(ISBLANK(T19),"",", "&amp;T19)
 &amp;IF(ISBLANK(Z19),"",", "&amp;Z19)
 &amp;IF(ISBLANK(AF19),"",", "&amp;AF19)
@@ -9717,7 +9949,7 @@
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="53"/>
-        <v>1, 1, 0.66, 1, 1, 1, 1, 1, 0.05</v>
+        <v>1, 1, 0.05, 1, 1, 1, 1, 1, 0.05</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="54"/>
@@ -9767,7 +9999,7 @@
         <v/>
       </c>
       <c r="X20">
-        <v>0.66</v>
+        <v>0.05</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -9877,192 +10109,29 @@
     </row>
     <row r="21" spans="1:62">
       <c r="A21" s="10" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="51"/>
-        <v>PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin, Origin</v>
+        <f t="shared" ref="C21" si="56">IF(ISBLANK(I21),"",I21)
+&amp;IF(ISBLANK(O21),"",", "&amp;O21)
+&amp;IF(ISBLANK(U21),"",", "&amp;U21)
+&amp;IF(ISBLANK(AA21),"",", "&amp;AA21)
+&amp;IF(ISBLANK(AG21),"",", "&amp;AG21)
+&amp;IF(ISBLANK(AM21),"",", "&amp;AM21)
+&amp;IF(ISBLANK(AS21),"",", "&amp;AS21)
+&amp;IF(ISBLANK(AY21),"",", "&amp;AY21)
+&amp;IF(ISBLANK(BE21),"",", "&amp;BE21)</f>
+        <v>Gold, Gold, Diamond, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>10, 10, 10, 10, 10, 10, 9, 9</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v>, , , , , , s, s</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>1, 1, 1, 1, 1, 1, 0.05, 0.05</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" si="54"/>
-        <v>35, 35, 35, 35, 35, 35, 1, 1</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="55"/>
-        <v>45, 45, 45, 45, 45, 45, 1, 1</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>35</v>
-      </c>
-      <c r="N21">
-        <v>45</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q21" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>35</v>
-      </c>
-      <c r="T21">
-        <v>45</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="W21" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>35</v>
-      </c>
-      <c r="Z21">
-        <v>45</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC21" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>35</v>
-      </c>
-      <c r="AF21" s="7">
-        <v>45</v>
-      </c>
-      <c r="AG21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI21" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
-      <c r="AK21">
-        <v>35</v>
-      </c>
-      <c r="AL21">
-        <v>45</v>
-      </c>
-      <c r="AM21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO21" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21">
-        <v>35</v>
-      </c>
-      <c r="AR21">
-        <v>45</v>
-      </c>
-      <c r="AS21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU21" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AV21">
-        <v>0.05</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>1</v>
-      </c>
-      <c r="AY21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA21" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BB21">
-        <v>0.05</v>
-      </c>
-      <c r="BC21">
-        <v>1</v>
-      </c>
-      <c r="BD21">
-        <v>1</v>
-      </c>
-      <c r="BE21" s="3"/>
-      <c r="BG21" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:62">
-      <c r="A22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="51"/>
-        <v>Gold</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f t="shared" ref="D22" ca="1" si="56">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D21" ca="1" si="57">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C22,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -10088,72 +10157,370 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2</v>
+        <v>2, 2, 8, 10, 10, 10, 10, 10, 9</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" ref="E21" si="58">IF(ISBLANK(J21),"",J21)
+&amp;IF(ISBLANK(O21),"",", "&amp;P21)
+&amp;IF(ISBLANK(U21),"",", "&amp;V21)
+&amp;IF(ISBLANK(AA21),"",", "&amp;AB21)
+&amp;IF(ISBLANK(AG21),"",", "&amp;AH21)
+&amp;IF(ISBLANK(AM21),"",", "&amp;AN21)
+&amp;IF(ISBLANK(AS21),"",", "&amp;AT21)
+&amp;IF(ISBLANK(AY21),"",", "&amp;AZ21)
+&amp;IF(ISBLANK(BE21),"",", "&amp;BF21)</f>
+        <v>, , , , , , , , s</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" ref="F21" si="59">IF(ISBLANK(L21),"",L21)
+&amp;IF(ISBLANK(R21),"",", "&amp;R21)
+&amp;IF(ISBLANK(X21),"",", "&amp;X21)
+&amp;IF(ISBLANK(AD21),"",", "&amp;AD21)
+&amp;IF(ISBLANK(AJ21),"",", "&amp;AJ21)
+&amp;IF(ISBLANK(AP21),"",", "&amp;AP21)
+&amp;IF(ISBLANK(AV21),"",", "&amp;AV21)
+&amp;IF(ISBLANK(BB21),"",", "&amp;BB21)
+&amp;IF(ISBLANK(BH21),"",", "&amp;BH21)</f>
+        <v>1, 1, 0.3, 1, 1, 1, 1, 1, 0.05</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" ref="G21" si="60">IF(ISBLANK(M21),"",M21)
+&amp;IF(ISBLANK(S21),"",", "&amp;S21)
+&amp;IF(ISBLANK(Y21),"",", "&amp;Y21)
+&amp;IF(ISBLANK(AE21),"",", "&amp;AE21)
+&amp;IF(ISBLANK(AK21),"",", "&amp;AK21)
+&amp;IF(ISBLANK(AQ21),"",", "&amp;AQ21)
+&amp;IF(ISBLANK(AW21),"",", "&amp;AW21)
+&amp;IF(ISBLANK(BC21),"",", "&amp;BC21)
+&amp;IF(ISBLANK(BI21),"",", "&amp;BI21)</f>
+        <v>2800, 2800, 1, 30, 30, 30, 30, 30, 1</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" ref="H21" si="61">IF(ISBLANK(N21),"",N21)
+&amp;IF(ISBLANK(T21),"",", "&amp;T21)
+&amp;IF(ISBLANK(Z21),"",", "&amp;Z21)
+&amp;IF(ISBLANK(AF21),"",", "&amp;AF21)
+&amp;IF(ISBLANK(AL21),"",", "&amp;AL21)
+&amp;IF(ISBLANK(AR21),"",", "&amp;AR21)
+&amp;IF(ISBLANK(AX21),"",", "&amp;AX21)
+&amp;IF(ISBLANK(BD21),"",", "&amp;BD21)
+&amp;IF(ISBLANK(BJ21),"",", "&amp;BJ21)</f>
+        <v>3200, 3200, 3, 50, 50, 50, 50, 50, 1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f t="shared" ref="K21" si="62">IF(AND(OR(I21="Gacha",I21="Origin"),ISBLANK(J21)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2800</v>
+      </c>
+      <c r="N21" s="5">
+        <v>3200</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <f t="shared" ref="Q21" si="63">IF(AND(OR(O21="Gacha",O21="Origin"),ISBLANK(P21)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>2800</v>
+      </c>
+      <c r="T21">
+        <v>3200</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="W21" s="4" t="str">
+        <f t="shared" ref="W21" si="64">IF(AND(OR(U21="Gacha",U21="Origin"),ISBLANK(V21)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <v>0.3</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC21" s="4" t="str">
+        <f t="shared" ref="AC21" si="65">IF(AND(OR(AA21="Gacha",AA21="Origin"),ISBLANK(AB21)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>30</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>50</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI21" s="4" t="str">
+        <f t="shared" ref="AI21" si="66">IF(AND(OR(AG21="Gacha",AG21="Origin"),ISBLANK(AH21)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>30</v>
+      </c>
+      <c r="AL21">
+        <v>50</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO21" s="4" t="str">
+        <f t="shared" ref="AO21" si="67">IF(AND(OR(AM21="Gacha",AM21="Origin"),ISBLANK(AN21)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>30</v>
+      </c>
+      <c r="AR21">
+        <v>50</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU21" s="4" t="str">
+        <f t="shared" ref="AU21" si="68">IF(AND(OR(AS21="Gacha",AS21="Origin"),ISBLANK(AT21)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>30</v>
+      </c>
+      <c r="AX21">
+        <v>50</v>
+      </c>
+      <c r="AY21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA21" s="4" t="str">
+        <f t="shared" ref="BA21" si="69">IF(AND(OR(AY21="Gacha",AY21="Origin"),ISBLANK(AZ21)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BB21">
+        <v>1</v>
+      </c>
+      <c r="BC21">
+        <v>30</v>
+      </c>
+      <c r="BD21">
+        <v>50</v>
+      </c>
+      <c r="BE21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG21" s="4" t="str">
+        <f t="shared" ref="BG21" si="70">IF(AND(OR(BE21="Gacha",BE21="Origin"),ISBLANK(BF21)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BH21">
+        <v>0.05</v>
+      </c>
+      <c r="BI21">
+        <v>1</v>
+      </c>
+      <c r="BJ21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62">
+      <c r="A22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="51"/>
+        <v>PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin, Origin</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>10, 10, 10, 10, 10, 10, 9, 9</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>, , , , , , s, s</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>1, 1, 1, 1, 1, 1, 0.05, 0.05</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="54"/>
-        <v>9999</v>
+        <v>35, 35, 35, 35, 35, 35, 1, 1</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>9999</v>
+        <v>45, 45, 45, 45, 45, 45, 1, 1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="K22" s="4" t="str">
-        <f t="shared" ref="K22" si="57">IF(AND(OR(I22="Gacha",I22="Origin"),ISBLANK(J22)),"서브밸류 필요","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9999</v>
+        <v>35</v>
       </c>
       <c r="N22">
-        <v>9999</v>
-      </c>
-      <c r="O22" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="Q22" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>35</v>
+      </c>
+      <c r="T22">
+        <v>45</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="W22" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>35</v>
+      </c>
+      <c r="Z22">
+        <v>45</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AC22" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>35</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>45</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AI22" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>35</v>
+      </c>
+      <c r="AL22">
+        <v>45</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AO22" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>35</v>
+      </c>
+      <c r="AR22">
+        <v>45</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>95</v>
+      </c>
       <c r="AU22" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
+      <c r="AV22">
+        <v>0.05</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>95</v>
+      </c>
       <c r="BA22" s="4" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="BB22">
+        <v>0.05</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="3"/>
       <c r="BG22" s="4" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -10161,25 +10528,17 @@
     </row>
     <row r="23" spans="1:62">
       <c r="A23" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ref="C23" si="58">IF(ISBLANK(I23),"",I23)
-&amp;IF(ISBLANK(O23),"",", "&amp;O23)
-&amp;IF(ISBLANK(U23),"",", "&amp;U23)
-&amp;IF(ISBLANK(AA23),"",", "&amp;AA23)
-&amp;IF(ISBLANK(AG23),"",", "&amp;AG23)
-&amp;IF(ISBLANK(AM23),"",", "&amp;AM23)
-&amp;IF(ISBLANK(AS23),"",", "&amp;AS23)
-&amp;IF(ISBLANK(AY23),"",", "&amp;AY23)
-&amp;IF(ISBLANK(BE23),"",", "&amp;BE23)</f>
-        <v>Diamond</v>
+        <f t="shared" si="51"/>
+        <v>Gold</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" ref="D23" ca="1" si="59">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D23" ca="1" si="71">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -10209,64 +10568,32 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" ref="E23" si="60">IF(ISBLANK(J23),"",J23)
-&amp;IF(ISBLANK(O23),"",", "&amp;P23)
-&amp;IF(ISBLANK(U23),"",", "&amp;V23)
-&amp;IF(ISBLANK(AA23),"",", "&amp;AB23)
-&amp;IF(ISBLANK(AG23),"",", "&amp;AH23)
-&amp;IF(ISBLANK(AM23),"",", "&amp;AN23)
-&amp;IF(ISBLANK(AS23),"",", "&amp;AT23)
-&amp;IF(ISBLANK(AY23),"",", "&amp;AZ23)
-&amp;IF(ISBLANK(BE23),"",", "&amp;BF23)</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" ref="F23" si="61">IF(ISBLANK(L23),"",L23)
-&amp;IF(ISBLANK(R23),"",", "&amp;R23)
-&amp;IF(ISBLANK(X23),"",", "&amp;X23)
-&amp;IF(ISBLANK(AD23),"",", "&amp;AD23)
-&amp;IF(ISBLANK(AJ23),"",", "&amp;AJ23)
-&amp;IF(ISBLANK(AP23),"",", "&amp;AP23)
-&amp;IF(ISBLANK(AV23),"",", "&amp;AV23)
-&amp;IF(ISBLANK(BB23),"",", "&amp;BB23)
-&amp;IF(ISBLANK(BH23),"",", "&amp;BH23)</f>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" ref="G23" si="62">IF(ISBLANK(M23),"",M23)
-&amp;IF(ISBLANK(S23),"",", "&amp;S23)
-&amp;IF(ISBLANK(Y23),"",", "&amp;Y23)
-&amp;IF(ISBLANK(AE23),"",", "&amp;AE23)
-&amp;IF(ISBLANK(AK23),"",", "&amp;AK23)
-&amp;IF(ISBLANK(AQ23),"",", "&amp;AQ23)
-&amp;IF(ISBLANK(AW23),"",", "&amp;AW23)
-&amp;IF(ISBLANK(BC23),"",", "&amp;BC23)
-&amp;IF(ISBLANK(BI23),"",", "&amp;BI23)</f>
+        <f t="shared" si="54"/>
         <v>9999</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" ref="H23" si="63">IF(ISBLANK(N23),"",N23)
-&amp;IF(ISBLANK(T23),"",", "&amp;T23)
-&amp;IF(ISBLANK(Z23),"",", "&amp;Z23)
-&amp;IF(ISBLANK(AF23),"",", "&amp;AF23)
-&amp;IF(ISBLANK(AL23),"",", "&amp;AL23)
-&amp;IF(ISBLANK(AR23),"",", "&amp;AR23)
-&amp;IF(ISBLANK(AX23),"",", "&amp;AX23)
-&amp;IF(ISBLANK(BD23),"",", "&amp;BD23)
-&amp;IF(ISBLANK(BJ23),"",", "&amp;BJ23)</f>
+        <f t="shared" si="55"/>
         <v>9999</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" s="4" t="str">
-        <f t="shared" ref="K23" si="64">IF(AND(OR(I23="Gacha",I23="Origin"),ISBLANK(J23)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K23" si="72">IF(AND(OR(I23="Gacha",I23="Origin"),ISBLANK(J23)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L23">
@@ -10280,15 +10607,15 @@
       </c>
       <c r="O23" s="3"/>
       <c r="Q23" s="4" t="str">
-        <f t="shared" ref="Q23:Q26" si="65">IF(AND(OR(O23="Gacha",O23="Origin"),ISBLANK(P23)),"서브밸류 필요","")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W23" s="4" t="str">
-        <f t="shared" ref="W23" si="66">IF(AND(OR(U23="Gacha",U23="Origin"),ISBLANK(V23)),"서브밸류 필요","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC23" s="4" t="str">
-        <f t="shared" ref="AC23:AC33" si="67">IF(AND(OR(AA23="Gacha",AA23="Origin"),ISBLANK(AB23)),"서브밸류 필요","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AI23" s="4" t="str">
@@ -10314,13 +10641,13 @@
     </row>
     <row r="24" spans="1:62">
       <c r="A24" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24:C26" si="68">IF(ISBLANK(I24),"",I24)
+        <f t="shared" ref="C24" si="73">IF(ISBLANK(I24),"",I24)
 &amp;IF(ISBLANK(O24),"",", "&amp;O24)
 &amp;IF(ISBLANK(U24),"",", "&amp;U24)
 &amp;IF(ISBLANK(AA24),"",", "&amp;AA24)
@@ -10329,10 +10656,10 @@
 &amp;IF(ISBLANK(AS24),"",", "&amp;AS24)
 &amp;IF(ISBLANK(AY24),"",", "&amp;AY24)
 &amp;IF(ISBLANK(BE24),"",", "&amp;BE24)</f>
-        <v>Diamond, Gold</v>
+        <v>Diamond</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" ref="D24:D26" ca="1" si="69">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D24" ca="1" si="74">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -10362,10 +10689,10 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>8, 2</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" ref="E24:E26" si="70">IF(ISBLANK(J24),"",J24)
+        <f t="shared" ref="E24" si="75">IF(ISBLANK(J24),"",J24)
 &amp;IF(ISBLANK(O24),"",", "&amp;P24)
 &amp;IF(ISBLANK(U24),"",", "&amp;V24)
 &amp;IF(ISBLANK(AA24),"",", "&amp;AB24)
@@ -10374,10 +10701,10 @@
 &amp;IF(ISBLANK(AS24),"",", "&amp;AT24)
 &amp;IF(ISBLANK(AY24),"",", "&amp;AZ24)
 &amp;IF(ISBLANK(BE24),"",", "&amp;BF24)</f>
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" ref="F24:F26" si="71">IF(ISBLANK(L24),"",L24)
+        <f t="shared" ref="F24" si="76">IF(ISBLANK(L24),"",L24)
 &amp;IF(ISBLANK(R24),"",", "&amp;R24)
 &amp;IF(ISBLANK(X24),"",", "&amp;X24)
 &amp;IF(ISBLANK(AD24),"",", "&amp;AD24)
@@ -10386,10 +10713,10 @@
 &amp;IF(ISBLANK(AV24),"",", "&amp;AV24)
 &amp;IF(ISBLANK(BB24),"",", "&amp;BB24)
 &amp;IF(ISBLANK(BH24),"",", "&amp;BH24)</f>
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" ref="G24:G26" si="72">IF(ISBLANK(M24),"",M24)
+        <f t="shared" ref="G24" si="77">IF(ISBLANK(M24),"",M24)
 &amp;IF(ISBLANK(S24),"",", "&amp;S24)
 &amp;IF(ISBLANK(Y24),"",", "&amp;Y24)
 &amp;IF(ISBLANK(AE24),"",", "&amp;AE24)
@@ -10398,10 +10725,10 @@
 &amp;IF(ISBLANK(AW24),"",", "&amp;AW24)
 &amp;IF(ISBLANK(BC24),"",", "&amp;BC24)
 &amp;IF(ISBLANK(BI24),"",", "&amp;BI24)</f>
-        <v>9999, 9999</v>
+        <v>9999</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" ref="H24:H26" si="73">IF(ISBLANK(N24),"",N24)
+        <f t="shared" ref="H24" si="78">IF(ISBLANK(N24),"",N24)
 &amp;IF(ISBLANK(T24),"",", "&amp;T24)
 &amp;IF(ISBLANK(Z24),"",", "&amp;Z24)
 &amp;IF(ISBLANK(AF24),"",", "&amp;AF24)
@@ -10410,7 +10737,7 @@
 &amp;IF(ISBLANK(AX24),"",", "&amp;AX24)
 &amp;IF(ISBLANK(BD24),"",", "&amp;BD24)
 &amp;IF(ISBLANK(BJ24),"",", "&amp;BJ24)</f>
-        <v>9999, 9999</v>
+        <v>9999</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>90</v>
@@ -10419,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="4" t="str">
-        <f t="shared" ref="K24:K26" si="74">IF(AND(OR(I24="Gacha",I24="Origin"),ISBLANK(J24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K24" si="79">IF(AND(OR(I24="Gacha",I24="Origin"),ISBLANK(J24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L24">
@@ -10431,31 +10758,17 @@
       <c r="N24">
         <v>9999</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
+      <c r="O24" s="3"/>
       <c r="Q24" s="4" t="str">
-        <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>9999</v>
-      </c>
-      <c r="T24">
-        <v>9999</v>
+        <f t="shared" ref="Q24:Q27" si="80">IF(AND(OR(O24="Gacha",O24="Origin"),ISBLANK(P24)),"서브밸류 필요","")</f>
+        <v/>
       </c>
       <c r="W24" s="4" t="str">
-        <f t="shared" ref="W24" si="75">IF(AND(OR(U24="Gacha",U24="Origin"),ISBLANK(V24)),"서브밸류 필요","")</f>
+        <f t="shared" ref="W24" si="81">IF(AND(OR(U24="Gacha",U24="Origin"),ISBLANK(V24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AC24" s="4" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="AC24:AC34" si="82">IF(AND(OR(AA24="Gacha",AA24="Origin"),ISBLANK(AB24)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AI24" s="4" t="str">
@@ -10481,13 +10794,13 @@
     </row>
     <row r="25" spans="1:62">
       <c r="A25" s="10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ref="C25" si="76">IF(ISBLANK(I25),"",I25)
+        <f t="shared" ref="C25:C27" si="83">IF(ISBLANK(I25),"",I25)
 &amp;IF(ISBLANK(O25),"",", "&amp;O25)
 &amp;IF(ISBLANK(U25),"",", "&amp;U25)
 &amp;IF(ISBLANK(AA25),"",", "&amp;AA25)
@@ -10496,10 +10809,10 @@
 &amp;IF(ISBLANK(AS25),"",", "&amp;AS25)
 &amp;IF(ISBLANK(AY25),"",", "&amp;AY25)
 &amp;IF(ISBLANK(BE25),"",", "&amp;BE25)</f>
-        <v>Diamond</v>
+        <v>Diamond, Gold</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D25:D27" ca="1" si="84">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -10529,10 +10842,10 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>8</v>
+        <v>8, 2</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" ref="E25" si="77">IF(ISBLANK(J25),"",J25)
+        <f t="shared" ref="E25:E27" si="85">IF(ISBLANK(J25),"",J25)
 &amp;IF(ISBLANK(O25),"",", "&amp;P25)
 &amp;IF(ISBLANK(U25),"",", "&amp;V25)
 &amp;IF(ISBLANK(AA25),"",", "&amp;AB25)
@@ -10541,10 +10854,10 @@
 &amp;IF(ISBLANK(AS25),"",", "&amp;AT25)
 &amp;IF(ISBLANK(AY25),"",", "&amp;AZ25)
 &amp;IF(ISBLANK(BE25),"",", "&amp;BF25)</f>
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" ref="F25" si="78">IF(ISBLANK(L25),"",L25)
+        <f t="shared" ref="F25:F27" si="86">IF(ISBLANK(L25),"",L25)
 &amp;IF(ISBLANK(R25),"",", "&amp;R25)
 &amp;IF(ISBLANK(X25),"",", "&amp;X25)
 &amp;IF(ISBLANK(AD25),"",", "&amp;AD25)
@@ -10553,10 +10866,10 @@
 &amp;IF(ISBLANK(AV25),"",", "&amp;AV25)
 &amp;IF(ISBLANK(BB25),"",", "&amp;BB25)
 &amp;IF(ISBLANK(BH25),"",", "&amp;BH25)</f>
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" ref="G25" si="79">IF(ISBLANK(M25),"",M25)
+        <f t="shared" ref="G25:G27" si="87">IF(ISBLANK(M25),"",M25)
 &amp;IF(ISBLANK(S25),"",", "&amp;S25)
 &amp;IF(ISBLANK(Y25),"",", "&amp;Y25)
 &amp;IF(ISBLANK(AE25),"",", "&amp;AE25)
@@ -10565,10 +10878,10 @@
 &amp;IF(ISBLANK(AW25),"",", "&amp;AW25)
 &amp;IF(ISBLANK(BC25),"",", "&amp;BC25)
 &amp;IF(ISBLANK(BI25),"",", "&amp;BI25)</f>
-        <v>9999</v>
+        <v>9999, 9999</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" ref="H25" si="80">IF(ISBLANK(N25),"",N25)
+        <f t="shared" ref="H25:H27" si="88">IF(ISBLANK(N25),"",N25)
 &amp;IF(ISBLANK(T25),"",", "&amp;T25)
 &amp;IF(ISBLANK(Z25),"",", "&amp;Z25)
 &amp;IF(ISBLANK(AF25),"",", "&amp;AF25)
@@ -10577,7 +10890,7 @@
 &amp;IF(ISBLANK(AX25),"",", "&amp;AX25)
 &amp;IF(ISBLANK(BD25),"",", "&amp;BD25)
 &amp;IF(ISBLANK(BJ25),"",", "&amp;BJ25)</f>
-        <v>9999</v>
+        <v>9999, 9999</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>90</v>
@@ -10586,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="4" t="str">
-        <f t="shared" ref="K25" si="81">IF(AND(OR(I25="Gacha",I25="Origin"),ISBLANK(J25)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K25:K27" si="89">IF(AND(OR(I25="Gacha",I25="Origin"),ISBLANK(J25)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L25">
@@ -10598,17 +10911,31 @@
       <c r="N25">
         <v>9999</v>
       </c>
-      <c r="O25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
       <c r="Q25" s="4" t="str">
-        <f t="shared" ref="Q25" si="82">IF(AND(OR(O25="Gacha",O25="Origin"),ISBLANK(P25)),"서브밸류 필요","")</f>
-        <v/>
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>9999</v>
+      </c>
+      <c r="T25">
+        <v>9999</v>
       </c>
       <c r="W25" s="4" t="str">
-        <f t="shared" ref="W25:W26" si="83">IF(AND(OR(U25="Gacha",U25="Origin"),ISBLANK(V25)),"서브밸류 필요","")</f>
+        <f t="shared" ref="W25" si="90">IF(AND(OR(U25="Gacha",U25="Origin"),ISBLANK(V25)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AC25" s="4" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AI25" s="4" t="str">
@@ -10634,104 +10961,152 @@
     </row>
     <row r="26" spans="1:62">
       <c r="A26" s="10" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="68"/>
-        <v>Gacha, Gacha</v>
+        <f t="shared" ref="C26" si="91">IF(ISBLANK(I26),"",I26)
+&amp;IF(ISBLANK(O26),"",", "&amp;O26)
+&amp;IF(ISBLANK(U26),"",", "&amp;U26)
+&amp;IF(ISBLANK(AA26),"",", "&amp;AA26)
+&amp;IF(ISBLANK(AG26),"",", "&amp;AG26)
+&amp;IF(ISBLANK(AM26),"",", "&amp;AM26)
+&amp;IF(ISBLANK(AS26),"",", "&amp;AS26)
+&amp;IF(ISBLANK(AY26),"",", "&amp;AY26)
+&amp;IF(ISBLANK(BE26),"",", "&amp;BE26)</f>
+        <v>Diamond</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v>5, 5</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C26,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="70"/>
-        <v>o, o</v>
+        <f t="shared" ref="E26" si="92">IF(ISBLANK(J26),"",J26)
+&amp;IF(ISBLANK(O26),"",", "&amp;P26)
+&amp;IF(ISBLANK(U26),"",", "&amp;V26)
+&amp;IF(ISBLANK(AA26),"",", "&amp;AB26)
+&amp;IF(ISBLANK(AG26),"",", "&amp;AH26)
+&amp;IF(ISBLANK(AM26),"",", "&amp;AN26)
+&amp;IF(ISBLANK(AS26),"",", "&amp;AT26)
+&amp;IF(ISBLANK(AY26),"",", "&amp;AZ26)
+&amp;IF(ISBLANK(BE26),"",", "&amp;BF26)</f>
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="71"/>
-        <v>1, 1</v>
+        <f t="shared" ref="F26" si="93">IF(ISBLANK(L26),"",L26)
+&amp;IF(ISBLANK(R26),"",", "&amp;R26)
+&amp;IF(ISBLANK(X26),"",", "&amp;X26)
+&amp;IF(ISBLANK(AD26),"",", "&amp;AD26)
+&amp;IF(ISBLANK(AJ26),"",", "&amp;AJ26)
+&amp;IF(ISBLANK(AP26),"",", "&amp;AP26)
+&amp;IF(ISBLANK(AV26),"",", "&amp;AV26)
+&amp;IF(ISBLANK(BB26),"",", "&amp;BB26)
+&amp;IF(ISBLANK(BH26),"",", "&amp;BH26)</f>
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="72"/>
-        <v>1, 1</v>
+        <f t="shared" ref="G26" si="94">IF(ISBLANK(M26),"",M26)
+&amp;IF(ISBLANK(S26),"",", "&amp;S26)
+&amp;IF(ISBLANK(Y26),"",", "&amp;Y26)
+&amp;IF(ISBLANK(AE26),"",", "&amp;AE26)
+&amp;IF(ISBLANK(AK26),"",", "&amp;AK26)
+&amp;IF(ISBLANK(AQ26),"",", "&amp;AQ26)
+&amp;IF(ISBLANK(AW26),"",", "&amp;AW26)
+&amp;IF(ISBLANK(BC26),"",", "&amp;BC26)
+&amp;IF(ISBLANK(BI26),"",", "&amp;BI26)</f>
+        <v>9999</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="73"/>
-        <v>1, 1</v>
+        <f t="shared" ref="H26" si="95">IF(ISBLANK(N26),"",N26)
+&amp;IF(ISBLANK(T26),"",", "&amp;T26)
+&amp;IF(ISBLANK(Z26),"",", "&amp;Z26)
+&amp;IF(ISBLANK(AF26),"",", "&amp;AF26)
+&amp;IF(ISBLANK(AL26),"",", "&amp;AL26)
+&amp;IF(ISBLANK(AR26),"",", "&amp;AR26)
+&amp;IF(ISBLANK(AX26),"",", "&amp;AX26)
+&amp;IF(ISBLANK(BD26),"",", "&amp;BD26)
+&amp;IF(ISBLANK(BJ26),"",", "&amp;BJ26)</f>
+        <v>9999</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
       </c>
       <c r="K26" s="4" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="K26" si="96">IF(AND(OR(I26="Gacha",I26="Origin"),ISBLANK(J26)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P26" t="s">
-        <v>111</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="O26" s="3"/>
       <c r="Q26" s="4" t="str">
-        <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26" s="3"/>
+        <f t="shared" ref="Q26" si="97">IF(AND(OR(O26="Gacha",O26="Origin"),ISBLANK(P26)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="W26" s="4" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AA26" s="3"/>
+        <f t="shared" ref="W26:W27" si="98">IF(AND(OR(U26="Gacha",U26="Origin"),ISBLANK(V26)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AC26" s="4" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="AG26" s="3"/>
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
       <c r="AI26" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AM26" s="3"/>
       <c r="AO26" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AS26" s="3"/>
       <c r="AU26" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AY26" s="3"/>
       <c r="BA26" s="4" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BE26" s="3"/>
       <c r="BG26" s="4" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -10739,29 +11114,134 @@
     </row>
     <row r="27" spans="1:62">
       <c r="A27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="83"/>
+        <v>Gacha, Gacha</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" ca="1" si="84"/>
+        <v>5, 5</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="85"/>
+        <v>o, o</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="86"/>
+        <v>1, 1</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="87"/>
+        <v>1, 1</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="88"/>
+        <v>1, 1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27" s="4" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3"/>
+      <c r="W27" s="4" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AA27" s="3"/>
+      <c r="AC27" s="4" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AG27" s="3"/>
+      <c r="AI27" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AM27" s="3"/>
+      <c r="AO27" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AS27" s="3"/>
+      <c r="AU27" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AY27" s="3"/>
+      <c r="BA27" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE27" s="3"/>
+      <c r="BG27" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:62">
+      <c r="A28" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" ref="C27:C31" si="84">IF(ISBLANK(I27),"",I27)
-&amp;IF(ISBLANK(O27),"",", "&amp;O27)
-&amp;IF(ISBLANK(U27),"",", "&amp;U27)
-&amp;IF(ISBLANK(AA27),"",", "&amp;AA27)
-&amp;IF(ISBLANK(AG27),"",", "&amp;AG27)
-&amp;IF(ISBLANK(AM27),"",", "&amp;AM27)
-&amp;IF(ISBLANK(AS27),"",", "&amp;AS27)
-&amp;IF(ISBLANK(AY27),"",", "&amp;AY27)
-&amp;IF(ISBLANK(BE27),"",", "&amp;BE27)</f>
+      <c r="C28" t="str">
+        <f t="shared" ref="C28:C32" si="99">IF(ISBLANK(I28),"",I28)
+&amp;IF(ISBLANK(O28),"",", "&amp;O28)
+&amp;IF(ISBLANK(U28),"",", "&amp;U28)
+&amp;IF(ISBLANK(AA28),"",", "&amp;AA28)
+&amp;IF(ISBLANK(AG28),"",", "&amp;AG28)
+&amp;IF(ISBLANK(AM28),"",", "&amp;AM28)
+&amp;IF(ISBLANK(AS28),"",", "&amp;AS28)
+&amp;IF(ISBLANK(AY28),"",", "&amp;AY28)
+&amp;IF(ISBLANK(BE28),"",", "&amp;BE28)</f>
         <v>Gacha, Gacha, Gacha</v>
       </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" ref="D27:D31" ca="1" si="85">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="D28" s="1" t="str">
+        <f t="shared" ref="D28:D32" ca="1" si="100">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C27,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C28,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -10789,166 +11269,53 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>5, 5, 5</v>
       </c>
-      <c r="E27" s="1" t="str">
-        <f t="shared" ref="E27:E31" si="86">IF(ISBLANK(J27),"",J27)
-&amp;IF(ISBLANK(O27),"",", "&amp;P27)
-&amp;IF(ISBLANK(U27),"",", "&amp;V27)
-&amp;IF(ISBLANK(AA27),"",", "&amp;AB27)
-&amp;IF(ISBLANK(AG27),"",", "&amp;AH27)
-&amp;IF(ISBLANK(AM27),"",", "&amp;AN27)
-&amp;IF(ISBLANK(AS27),"",", "&amp;AT27)
-&amp;IF(ISBLANK(AY27),"",", "&amp;AZ27)
-&amp;IF(ISBLANK(BE27),"",", "&amp;BF27)</f>
+      <c r="E28" s="1" t="str">
+        <f t="shared" ref="E28:E32" si="101">IF(ISBLANK(J28),"",J28)
+&amp;IF(ISBLANK(O28),"",", "&amp;P28)
+&amp;IF(ISBLANK(U28),"",", "&amp;V28)
+&amp;IF(ISBLANK(AA28),"",", "&amp;AB28)
+&amp;IF(ISBLANK(AG28),"",", "&amp;AH28)
+&amp;IF(ISBLANK(AM28),"",", "&amp;AN28)
+&amp;IF(ISBLANK(AS28),"",", "&amp;AT28)
+&amp;IF(ISBLANK(AY28),"",", "&amp;AZ28)
+&amp;IF(ISBLANK(BE28),"",", "&amp;BF28)</f>
         <v>o, o, o</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <f t="shared" ref="F27:F31" si="87">IF(ISBLANK(L27),"",L27)
-&amp;IF(ISBLANK(R27),"",", "&amp;R27)
-&amp;IF(ISBLANK(X27),"",", "&amp;X27)
-&amp;IF(ISBLANK(AD27),"",", "&amp;AD27)
-&amp;IF(ISBLANK(AJ27),"",", "&amp;AJ27)
-&amp;IF(ISBLANK(AP27),"",", "&amp;AP27)
-&amp;IF(ISBLANK(AV27),"",", "&amp;AV27)
-&amp;IF(ISBLANK(BB27),"",", "&amp;BB27)
-&amp;IF(ISBLANK(BH27),"",", "&amp;BH27)</f>
+      <c r="F28" s="1" t="str">
+        <f t="shared" ref="F28:F32" si="102">IF(ISBLANK(L28),"",L28)
+&amp;IF(ISBLANK(R28),"",", "&amp;R28)
+&amp;IF(ISBLANK(X28),"",", "&amp;X28)
+&amp;IF(ISBLANK(AD28),"",", "&amp;AD28)
+&amp;IF(ISBLANK(AJ28),"",", "&amp;AJ28)
+&amp;IF(ISBLANK(AP28),"",", "&amp;AP28)
+&amp;IF(ISBLANK(AV28),"",", "&amp;AV28)
+&amp;IF(ISBLANK(BB28),"",", "&amp;BB28)
+&amp;IF(ISBLANK(BH28),"",", "&amp;BH28)</f>
         <v>1, 1, 1</v>
       </c>
-      <c r="G27" s="1" t="str">
-        <f t="shared" ref="G27:G31" si="88">IF(ISBLANK(M27),"",M27)
-&amp;IF(ISBLANK(S27),"",", "&amp;S27)
-&amp;IF(ISBLANK(Y27),"",", "&amp;Y27)
-&amp;IF(ISBLANK(AE27),"",", "&amp;AE27)
-&amp;IF(ISBLANK(AK27),"",", "&amp;AK27)
-&amp;IF(ISBLANK(AQ27),"",", "&amp;AQ27)
-&amp;IF(ISBLANK(AW27),"",", "&amp;AW27)
-&amp;IF(ISBLANK(BC27),"",", "&amp;BC27)
-&amp;IF(ISBLANK(BI27),"",", "&amp;BI27)</f>
+      <c r="G28" s="1" t="str">
+        <f t="shared" ref="G28:G32" si="103">IF(ISBLANK(M28),"",M28)
+&amp;IF(ISBLANK(S28),"",", "&amp;S28)
+&amp;IF(ISBLANK(Y28),"",", "&amp;Y28)
+&amp;IF(ISBLANK(AE28),"",", "&amp;AE28)
+&amp;IF(ISBLANK(AK28),"",", "&amp;AK28)
+&amp;IF(ISBLANK(AQ28),"",", "&amp;AQ28)
+&amp;IF(ISBLANK(AW28),"",", "&amp;AW28)
+&amp;IF(ISBLANK(BC28),"",", "&amp;BC28)
+&amp;IF(ISBLANK(BI28),"",", "&amp;BI28)</f>
         <v>1, 1, 1</v>
       </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" ref="H27:H31" si="89">IF(ISBLANK(N27),"",N27)
-&amp;IF(ISBLANK(T27),"",", "&amp;T27)
-&amp;IF(ISBLANK(Z27),"",", "&amp;Z27)
-&amp;IF(ISBLANK(AF27),"",", "&amp;AF27)
-&amp;IF(ISBLANK(AL27),"",", "&amp;AL27)
-&amp;IF(ISBLANK(AR27),"",", "&amp;AR27)
-&amp;IF(ISBLANK(AX27),"",", "&amp;AX27)
-&amp;IF(ISBLANK(BD27),"",", "&amp;BD27)
-&amp;IF(ISBLANK(BJ27),"",", "&amp;BJ27)</f>
+      <c r="H28" s="1" t="str">
+        <f t="shared" ref="H28:H32" si="104">IF(ISBLANK(N28),"",N28)
+&amp;IF(ISBLANK(T28),"",", "&amp;T28)
+&amp;IF(ISBLANK(Z28),"",", "&amp;Z28)
+&amp;IF(ISBLANK(AF28),"",", "&amp;AF28)
+&amp;IF(ISBLANK(AL28),"",", "&amp;AL28)
+&amp;IF(ISBLANK(AR28),"",", "&amp;AR28)
+&amp;IF(ISBLANK(AX28),"",", "&amp;AX28)
+&amp;IF(ISBLANK(BD28),"",", "&amp;BD28)
+&amp;IF(ISBLANK(BJ28),"",", "&amp;BJ28)</f>
         <v>1, 1, 1</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="4" t="str">
-        <f t="shared" ref="K27:K33" si="90">IF(AND(OR(I27="Gacha",I27="Origin"),ISBLANK(J27)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q27" s="4" t="str">
-        <f t="shared" ref="Q27:Q31" si="91">IF(AND(OR(O27="Gacha",O27="Origin"),ISBLANK(P27)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V27" t="s">
-        <v>111</v>
-      </c>
-      <c r="W27" s="4" t="str">
-        <f t="shared" ref="W27:W33" si="92">IF(AND(OR(U27="Gacha",U27="Origin"),ISBLANK(V27)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="4" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="AI27" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AO27" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AU27" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BA27" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BG27" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:62">
-      <c r="A28" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="84"/>
-        <v>Gacha, Gacha, Gacha, Gacha</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" ca="1" si="85"/>
-        <v>5, 5, 5, 5</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="86"/>
-        <v>o, o, o, o</v>
-      </c>
-      <c r="F28" s="1" t="str">
-        <f t="shared" si="87"/>
-        <v>1, 1, 1, 1</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <f t="shared" si="88"/>
-        <v>1, 1, 1, 1</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>1, 1, 1, 1</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>13</v>
@@ -10957,7 +11324,7 @@
         <v>111</v>
       </c>
       <c r="K28" s="4" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="K28:K34" si="105">IF(AND(OR(I28="Gacha",I28="Origin"),ISBLANK(J28)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L28">
@@ -10976,7 +11343,7 @@
         <v>111</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="Q28:Q32" si="106">IF(AND(OR(O28="Gacha",O28="Origin"),ISBLANK(P28)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="R28">
@@ -10995,7 +11362,7 @@
         <v>111</v>
       </c>
       <c r="W28" s="4" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="W28:W34" si="107">IF(AND(OR(U28="Gacha",U28="Origin"),ISBLANK(V28)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="X28">
@@ -11007,24 +11374,9 @@
       <c r="Z28">
         <v>1</v>
       </c>
-      <c r="AA28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>111</v>
-      </c>
       <c r="AC28" s="4" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="AI28" s="4" t="str">
         <f t="shared" si="16"/>
@@ -11049,34 +11401,34 @@
     </row>
     <row r="29" spans="1:62">
       <c r="A29" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="84"/>
-        <v>Gacha, Gacha, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="99"/>
+        <v>Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" ca="1" si="85"/>
-        <v>5, 5, 5, 5, 5</v>
+        <f t="shared" ca="1" si="100"/>
+        <v>5, 5, 5, 5</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="86"/>
-        <v>o, o, o, o, o</v>
+        <f t="shared" si="101"/>
+        <v>o, o, o, o</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="87"/>
-        <v>1, 1, 1, 1, 1</v>
+        <f t="shared" si="102"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="88"/>
-        <v>1, 1, 1, 1, 1</v>
+        <f t="shared" si="103"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>1, 1, 1, 1, 1</v>
+        <f t="shared" si="104"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>13</v>
@@ -11085,7 +11437,7 @@
         <v>111</v>
       </c>
       <c r="K29" s="4" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="L29">
@@ -11104,7 +11456,7 @@
         <v>111</v>
       </c>
       <c r="Q29" s="4" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="R29">
@@ -11123,7 +11475,7 @@
         <v>111</v>
       </c>
       <c r="W29" s="4" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="X29">
@@ -11142,7 +11494,7 @@
         <v>111</v>
       </c>
       <c r="AC29" s="4" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD29">
@@ -11153,25 +11505,10 @@
       </c>
       <c r="AF29">
         <v>1</v>
-      </c>
-      <c r="AG29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>111</v>
       </c>
       <c r="AI29" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
-      </c>
-      <c r="AJ29">
-        <v>1</v>
-      </c>
-      <c r="AK29">
-        <v>1</v>
-      </c>
-      <c r="AL29">
-        <v>1</v>
       </c>
       <c r="AO29" s="4" t="str">
         <f t="shared" si="17"/>
@@ -11192,34 +11529,34 @@
     </row>
     <row r="30" spans="1:62">
       <c r="A30" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="84"/>
-        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="99"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" ca="1" si="85"/>
-        <v>5, 5, 5, 5, 5, 5</v>
+        <f t="shared" ca="1" si="100"/>
+        <v>5, 5, 5, 5, 5</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="86"/>
-        <v>o, o, o, o, o, o</v>
+        <f t="shared" si="101"/>
+        <v>o, o, o, o, o</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="87"/>
-        <v>1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="102"/>
+        <v>1, 1, 1, 1, 1</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="88"/>
-        <v>1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="103"/>
+        <v>1, 1, 1, 1, 1</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="104"/>
+        <v>1, 1, 1, 1, 1</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>13</v>
@@ -11228,7 +11565,7 @@
         <v>111</v>
       </c>
       <c r="K30" s="4" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="L30">
@@ -11247,7 +11584,7 @@
         <v>111</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="R30">
@@ -11266,7 +11603,7 @@
         <v>111</v>
       </c>
       <c r="W30" s="4" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="X30">
@@ -11285,7 +11622,7 @@
         <v>111</v>
       </c>
       <c r="AC30" s="4" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD30">
@@ -11316,24 +11653,9 @@
       <c r="AL30">
         <v>1</v>
       </c>
-      <c r="AM30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>111</v>
-      </c>
       <c r="AO30" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30">
-        <v>1</v>
-      </c>
-      <c r="AR30">
-        <v>1</v>
       </c>
       <c r="AU30" s="4" t="str">
         <f t="shared" si="18"/>
@@ -11350,34 +11672,34 @@
     </row>
     <row r="31" spans="1:62">
       <c r="A31" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="84"/>
-        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="99"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" ca="1" si="85"/>
-        <v>5, 5, 5, 5, 5, 5, 5</v>
+        <f t="shared" ca="1" si="100"/>
+        <v>5, 5, 5, 5, 5, 5</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="86"/>
-        <v>o, o, o, o, o, o, o</v>
+        <f t="shared" si="101"/>
+        <v>o, o, o, o, o, o</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="87"/>
-        <v>1, 1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="102"/>
+        <v>1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="88"/>
-        <v>1, 1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="103"/>
+        <v>1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>1, 1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="104"/>
+        <v>1, 1, 1, 1, 1, 1</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>13</v>
@@ -11386,7 +11708,7 @@
         <v>111</v>
       </c>
       <c r="K31" s="4" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="L31">
@@ -11405,7 +11727,7 @@
         <v>111</v>
       </c>
       <c r="Q31" s="4" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="R31">
@@ -11424,7 +11746,7 @@
         <v>111</v>
       </c>
       <c r="W31" s="4" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="X31">
@@ -11443,7 +11765,7 @@
         <v>111</v>
       </c>
       <c r="AC31" s="4" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AD31">
@@ -11493,24 +11815,9 @@
       <c r="AR31">
         <v>1</v>
       </c>
-      <c r="AS31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>111</v>
-      </c>
       <c r="AU31" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
-      </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
       </c>
       <c r="BA31" s="4" t="str">
         <f t="shared" si="19"/>
@@ -11523,29 +11830,202 @@
     </row>
     <row r="32" spans="1:62">
       <c r="A32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="99"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v>5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="101"/>
+        <v>o, o, o, o, o, o, o</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="102"/>
+        <v>1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="103"/>
+        <v>1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="104"/>
+        <v>1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="4" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q32" s="4" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V32" t="s">
+        <v>111</v>
+      </c>
+      <c r="W32" s="4" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC32" s="4" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI32" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO32" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU32" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>1</v>
+      </c>
+      <c r="BA32" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG32" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:59">
+      <c r="A33" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" ref="C32:C33" si="93">IF(ISBLANK(I32),"",I32)
-&amp;IF(ISBLANK(O32),"",", "&amp;O32)
-&amp;IF(ISBLANK(U32),"",", "&amp;U32)
-&amp;IF(ISBLANK(AA32),"",", "&amp;AA32)
-&amp;IF(ISBLANK(AG32),"",", "&amp;AG32)
-&amp;IF(ISBLANK(AM32),"",", "&amp;AM32)
-&amp;IF(ISBLANK(AS32),"",", "&amp;AS32)
-&amp;IF(ISBLANK(AY32),"",", "&amp;AY32)
-&amp;IF(ISBLANK(BE32),"",", "&amp;BE32)</f>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:C34" si="108">IF(ISBLANK(I33),"",I33)
+&amp;IF(ISBLANK(O33),"",", "&amp;O33)
+&amp;IF(ISBLANK(U33),"",", "&amp;U33)
+&amp;IF(ISBLANK(AA33),"",", "&amp;AA33)
+&amp;IF(ISBLANK(AG33),"",", "&amp;AG33)
+&amp;IF(ISBLANK(AM33),"",", "&amp;AM33)
+&amp;IF(ISBLANK(AS33),"",", "&amp;AS33)
+&amp;IF(ISBLANK(AY33),"",", "&amp;AY33)
+&amp;IF(ISBLANK(BE33),"",", "&amp;BE33)</f>
         <v>Origin</v>
       </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" ref="D32:D33" ca="1" si="94">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="D33" s="1" t="str">
+        <f t="shared" ref="D33:D34" ca="1" si="109">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C32,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C33,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -11573,153 +12053,62 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>9</v>
       </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" ref="E32:E33" si="95">IF(ISBLANK(J32),"",J32)
-&amp;IF(ISBLANK(O32),"",", "&amp;P32)
-&amp;IF(ISBLANK(U32),"",", "&amp;V32)
-&amp;IF(ISBLANK(AA32),"",", "&amp;AB32)
-&amp;IF(ISBLANK(AG32),"",", "&amp;AH32)
-&amp;IF(ISBLANK(AM32),"",", "&amp;AN32)
-&amp;IF(ISBLANK(AS32),"",", "&amp;AT32)
-&amp;IF(ISBLANK(AY32),"",", "&amp;AZ32)
-&amp;IF(ISBLANK(BE32),"",", "&amp;BF32)</f>
+      <c r="E33" s="1" t="str">
+        <f t="shared" ref="E33:E34" si="110">IF(ISBLANK(J33),"",J33)
+&amp;IF(ISBLANK(O33),"",", "&amp;P33)
+&amp;IF(ISBLANK(U33),"",", "&amp;V33)
+&amp;IF(ISBLANK(AA33),"",", "&amp;AB33)
+&amp;IF(ISBLANK(AG33),"",", "&amp;AH33)
+&amp;IF(ISBLANK(AM33),"",", "&amp;AN33)
+&amp;IF(ISBLANK(AS33),"",", "&amp;AT33)
+&amp;IF(ISBLANK(AY33),"",", "&amp;AZ33)
+&amp;IF(ISBLANK(BE33),"",", "&amp;BF33)</f>
         <v>l</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <f t="shared" ref="F32:F33" si="96">IF(ISBLANK(L32),"",L32)
-&amp;IF(ISBLANK(R32),"",", "&amp;R32)
-&amp;IF(ISBLANK(X32),"",", "&amp;X32)
-&amp;IF(ISBLANK(AD32),"",", "&amp;AD32)
-&amp;IF(ISBLANK(AJ32),"",", "&amp;AJ32)
-&amp;IF(ISBLANK(AP32),"",", "&amp;AP32)
-&amp;IF(ISBLANK(AV32),"",", "&amp;AV32)
-&amp;IF(ISBLANK(BB32),"",", "&amp;BB32)
-&amp;IF(ISBLANK(BH32),"",", "&amp;BH32)</f>
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="str">
-        <f t="shared" ref="G32:G33" si="97">IF(ISBLANK(M32),"",M32)
-&amp;IF(ISBLANK(S32),"",", "&amp;S32)
-&amp;IF(ISBLANK(Y32),"",", "&amp;Y32)
-&amp;IF(ISBLANK(AE32),"",", "&amp;AE32)
-&amp;IF(ISBLANK(AK32),"",", "&amp;AK32)
-&amp;IF(ISBLANK(AQ32),"",", "&amp;AQ32)
-&amp;IF(ISBLANK(AW32),"",", "&amp;AW32)
-&amp;IF(ISBLANK(BC32),"",", "&amp;BC32)
-&amp;IF(ISBLANK(BI32),"",", "&amp;BI32)</f>
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="str">
-        <f t="shared" ref="H32:H33" si="98">IF(ISBLANK(N32),"",N32)
-&amp;IF(ISBLANK(T32),"",", "&amp;T32)
-&amp;IF(ISBLANK(Z32),"",", "&amp;Z32)
-&amp;IF(ISBLANK(AF32),"",", "&amp;AF32)
-&amp;IF(ISBLANK(AL32),"",", "&amp;AL32)
-&amp;IF(ISBLANK(AR32),"",", "&amp;AR32)
-&amp;IF(ISBLANK(AX32),"",", "&amp;AX32)
-&amp;IF(ISBLANK(BD32),"",", "&amp;BD32)
-&amp;IF(ISBLANK(BJ32),"",", "&amp;BJ32)</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" t="s">
-        <v>128</v>
-      </c>
-      <c r="K32" s="4" t="str">
-        <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3"/>
-      <c r="Q32" s="4" t="str">
-        <f t="shared" ref="Q32:Q33" si="99">IF(AND(OR(O32="Gacha",O32="Origin"),ISBLANK(P32)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="U32" s="3"/>
-      <c r="W32" s="4" t="str">
-        <f t="shared" si="92"/>
-        <v/>
-      </c>
-      <c r="AA32" s="3"/>
-      <c r="AC32" s="4" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="AG32" s="3"/>
-      <c r="AI32" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AM32" s="3"/>
-      <c r="AO32" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AS32" s="3"/>
-      <c r="AU32" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AY32" s="3"/>
-      <c r="BA32" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BE32" s="3"/>
-      <c r="BG32" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:59">
-      <c r="A33" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="93"/>
-        <v>Origin</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" ca="1" si="94"/>
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="95"/>
-        <v>u</v>
-      </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="F33:F34" si="111">IF(ISBLANK(L33),"",L33)
+&amp;IF(ISBLANK(R33),"",", "&amp;R33)
+&amp;IF(ISBLANK(X33),"",", "&amp;X33)
+&amp;IF(ISBLANK(AD33),"",", "&amp;AD33)
+&amp;IF(ISBLANK(AJ33),"",", "&amp;AJ33)
+&amp;IF(ISBLANK(AP33),"",", "&amp;AP33)
+&amp;IF(ISBLANK(AV33),"",", "&amp;AV33)
+&amp;IF(ISBLANK(BB33),"",", "&amp;BB33)
+&amp;IF(ISBLANK(BH33),"",", "&amp;BH33)</f>
         <v>1</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="G33:G34" si="112">IF(ISBLANK(M33),"",M33)
+&amp;IF(ISBLANK(S33),"",", "&amp;S33)
+&amp;IF(ISBLANK(Y33),"",", "&amp;Y33)
+&amp;IF(ISBLANK(AE33),"",", "&amp;AE33)
+&amp;IF(ISBLANK(AK33),"",", "&amp;AK33)
+&amp;IF(ISBLANK(AQ33),"",", "&amp;AQ33)
+&amp;IF(ISBLANK(AW33),"",", "&amp;AW33)
+&amp;IF(ISBLANK(BC33),"",", "&amp;BC33)
+&amp;IF(ISBLANK(BI33),"",", "&amp;BI33)</f>
         <v>1</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="H33:H34" si="113">IF(ISBLANK(N33),"",N33)
+&amp;IF(ISBLANK(T33),"",", "&amp;T33)
+&amp;IF(ISBLANK(Z33),"",", "&amp;Z33)
+&amp;IF(ISBLANK(AF33),"",", "&amp;AF33)
+&amp;IF(ISBLANK(AL33),"",", "&amp;AL33)
+&amp;IF(ISBLANK(AR33),"",", "&amp;AR33)
+&amp;IF(ISBLANK(AX33),"",", "&amp;AX33)
+&amp;IF(ISBLANK(BD33),"",", "&amp;BD33)
+&amp;IF(ISBLANK(BJ33),"",", "&amp;BJ33)</f>
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>77</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K33" s="4" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="L33">
@@ -11733,17 +12122,17 @@
       </c>
       <c r="O33" s="3"/>
       <c r="Q33" s="4" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="Q33:Q34" si="114">IF(AND(OR(O33="Gacha",O33="Origin"),ISBLANK(P33)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="U33" s="3"/>
       <c r="W33" s="4" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="AA33" s="3"/>
       <c r="AC33" s="4" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="AG33" s="3"/>
@@ -11774,29 +12163,120 @@
     </row>
     <row r="34" spans="1:59">
       <c r="A34" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="108"/>
+        <v>Origin</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" ca="1" si="109"/>
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="110"/>
+        <v>u</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" s="4" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="4" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="U34" s="3"/>
+      <c r="W34" s="4" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="AA34" s="3"/>
+      <c r="AC34" s="4" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AG34" s="3"/>
+      <c r="AI34" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AM34" s="3"/>
+      <c r="AO34" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AS34" s="3"/>
+      <c r="AU34" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AY34" s="3"/>
+      <c r="BA34" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE34" s="3"/>
+      <c r="BG34" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:59">
+      <c r="A35" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>147</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:C36" si="100">IF(ISBLANK(I34),"",I34)
-&amp;IF(ISBLANK(O34),"",", "&amp;O34)
-&amp;IF(ISBLANK(U34),"",", "&amp;U34)
-&amp;IF(ISBLANK(AA34),"",", "&amp;AA34)
-&amp;IF(ISBLANK(AG34),"",", "&amp;AG34)
-&amp;IF(ISBLANK(AM34),"",", "&amp;AM34)
-&amp;IF(ISBLANK(AS34),"",", "&amp;AS34)
-&amp;IF(ISBLANK(AY34),"",", "&amp;AY34)
-&amp;IF(ISBLANK(BE34),"",", "&amp;BE34)</f>
+      <c r="C35" t="str">
+        <f t="shared" ref="C35:C37" si="115">IF(ISBLANK(I35),"",I35)
+&amp;IF(ISBLANK(O35),"",", "&amp;O35)
+&amp;IF(ISBLANK(U35),"",", "&amp;U35)
+&amp;IF(ISBLANK(AA35),"",", "&amp;AA35)
+&amp;IF(ISBLANK(AG35),"",", "&amp;AG35)
+&amp;IF(ISBLANK(AM35),"",", "&amp;AM35)
+&amp;IF(ISBLANK(AS35),"",", "&amp;AS35)
+&amp;IF(ISBLANK(AY35),"",", "&amp;AY35)
+&amp;IF(ISBLANK(BE35),"",", "&amp;BE35)</f>
         <v>Gacha</v>
       </c>
-      <c r="D34" s="1" t="str">
-        <f t="shared" ref="D34:D36" ca="1" si="101">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="D35" s="1" t="str">
+        <f t="shared" ref="D35:D37" ca="1" si="116">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C34,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C35,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -11824,153 +12304,62 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v>5</v>
       </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" ref="E34:E36" si="102">IF(ISBLANK(J34),"",J34)
-&amp;IF(ISBLANK(O34),"",", "&amp;P34)
-&amp;IF(ISBLANK(U34),"",", "&amp;V34)
-&amp;IF(ISBLANK(AA34),"",", "&amp;AB34)
-&amp;IF(ISBLANK(AG34),"",", "&amp;AH34)
-&amp;IF(ISBLANK(AM34),"",", "&amp;AN34)
-&amp;IF(ISBLANK(AS34),"",", "&amp;AT34)
-&amp;IF(ISBLANK(AY34),"",", "&amp;AZ34)
-&amp;IF(ISBLANK(BE34),"",", "&amp;BF34)</f>
+      <c r="E35" s="1" t="str">
+        <f t="shared" ref="E35:E37" si="117">IF(ISBLANK(J35),"",J35)
+&amp;IF(ISBLANK(O35),"",", "&amp;P35)
+&amp;IF(ISBLANK(U35),"",", "&amp;V35)
+&amp;IF(ISBLANK(AA35),"",", "&amp;AB35)
+&amp;IF(ISBLANK(AG35),"",", "&amp;AH35)
+&amp;IF(ISBLANK(AM35),"",", "&amp;AN35)
+&amp;IF(ISBLANK(AS35),"",", "&amp;AT35)
+&amp;IF(ISBLANK(AY35),"",", "&amp;AZ35)
+&amp;IF(ISBLANK(BE35),"",", "&amp;BF35)</f>
         <v>n</v>
       </c>
-      <c r="F34" s="1" t="str">
-        <f t="shared" ref="F34:F36" si="103">IF(ISBLANK(L34),"",L34)
-&amp;IF(ISBLANK(R34),"",", "&amp;R34)
-&amp;IF(ISBLANK(X34),"",", "&amp;X34)
-&amp;IF(ISBLANK(AD34),"",", "&amp;AD34)
-&amp;IF(ISBLANK(AJ34),"",", "&amp;AJ34)
-&amp;IF(ISBLANK(AP34),"",", "&amp;AP34)
-&amp;IF(ISBLANK(AV34),"",", "&amp;AV34)
-&amp;IF(ISBLANK(BB34),"",", "&amp;BB34)
-&amp;IF(ISBLANK(BH34),"",", "&amp;BH34)</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="str">
-        <f t="shared" ref="G34:G36" si="104">IF(ISBLANK(M34),"",M34)
-&amp;IF(ISBLANK(S34),"",", "&amp;S34)
-&amp;IF(ISBLANK(Y34),"",", "&amp;Y34)
-&amp;IF(ISBLANK(AE34),"",", "&amp;AE34)
-&amp;IF(ISBLANK(AK34),"",", "&amp;AK34)
-&amp;IF(ISBLANK(AQ34),"",", "&amp;AQ34)
-&amp;IF(ISBLANK(AW34),"",", "&amp;AW34)
-&amp;IF(ISBLANK(BC34),"",", "&amp;BC34)
-&amp;IF(ISBLANK(BI34),"",", "&amp;BI34)</f>
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="str">
-        <f t="shared" ref="H34:H36" si="105">IF(ISBLANK(N34),"",N34)
-&amp;IF(ISBLANK(T34),"",", "&amp;T34)
-&amp;IF(ISBLANK(Z34),"",", "&amp;Z34)
-&amp;IF(ISBLANK(AF34),"",", "&amp;AF34)
-&amp;IF(ISBLANK(AL34),"",", "&amp;AL34)
-&amp;IF(ISBLANK(AR34),"",", "&amp;AR34)
-&amp;IF(ISBLANK(AX34),"",", "&amp;AX34)
-&amp;IF(ISBLANK(BD34),"",", "&amp;BD34)
-&amp;IF(ISBLANK(BJ34),"",", "&amp;BJ34)</f>
-        <v>1</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" t="s">
-        <v>150</v>
-      </c>
-      <c r="K34" s="4" t="str">
-        <f t="shared" ref="K34:K36" si="106">IF(AND(OR(I34="Gacha",I34="Origin"),ISBLANK(J34)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34" s="3"/>
-      <c r="Q34" s="4" t="str">
-        <f t="shared" ref="Q34:Q36" si="107">IF(AND(OR(O34="Gacha",O34="Origin"),ISBLANK(P34)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="U34" s="3"/>
-      <c r="W34" s="4" t="str">
-        <f t="shared" ref="W34:W36" si="108">IF(AND(OR(U34="Gacha",U34="Origin"),ISBLANK(V34)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AA34" s="3"/>
-      <c r="AC34" s="4" t="str">
-        <f t="shared" ref="AC34:AC36" si="109">IF(AND(OR(AA34="Gacha",AA34="Origin"),ISBLANK(AB34)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AG34" s="3"/>
-      <c r="AI34" s="4" t="str">
-        <f t="shared" ref="AI34:AI36" si="110">IF(AND(OR(AG34="Gacha",AG34="Origin"),ISBLANK(AH34)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AM34" s="3"/>
-      <c r="AO34" s="4" t="str">
-        <f t="shared" ref="AO34:AO36" si="111">IF(AND(OR(AM34="Gacha",AM34="Origin"),ISBLANK(AN34)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AS34" s="3"/>
-      <c r="AU34" s="4" t="str">
-        <f t="shared" ref="AU34:AU36" si="112">IF(AND(OR(AS34="Gacha",AS34="Origin"),ISBLANK(AT34)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AY34" s="3"/>
-      <c r="BA34" s="4" t="str">
-        <f t="shared" ref="BA34:BA36" si="113">IF(AND(OR(AY34="Gacha",AY34="Origin"),ISBLANK(AZ34)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="BE34" s="3"/>
-      <c r="BG34" s="4" t="str">
-        <f t="shared" ref="BG34:BG36" si="114">IF(AND(OR(BE34="Gacha",BE34="Origin"),ISBLANK(BF34)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:59">
-      <c r="A35" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="100"/>
-        <v>Gacha</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f t="shared" ca="1" si="101"/>
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="102"/>
-        <v>j</v>
-      </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="F35:F37" si="118">IF(ISBLANK(L35),"",L35)
+&amp;IF(ISBLANK(R35),"",", "&amp;R35)
+&amp;IF(ISBLANK(X35),"",", "&amp;X35)
+&amp;IF(ISBLANK(AD35),"",", "&amp;AD35)
+&amp;IF(ISBLANK(AJ35),"",", "&amp;AJ35)
+&amp;IF(ISBLANK(AP35),"",", "&amp;AP35)
+&amp;IF(ISBLANK(AV35),"",", "&amp;AV35)
+&amp;IF(ISBLANK(BB35),"",", "&amp;BB35)
+&amp;IF(ISBLANK(BH35),"",", "&amp;BH35)</f>
         <v>1</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="G35:G37" si="119">IF(ISBLANK(M35),"",M35)
+&amp;IF(ISBLANK(S35),"",", "&amp;S35)
+&amp;IF(ISBLANK(Y35),"",", "&amp;Y35)
+&amp;IF(ISBLANK(AE35),"",", "&amp;AE35)
+&amp;IF(ISBLANK(AK35),"",", "&amp;AK35)
+&amp;IF(ISBLANK(AQ35),"",", "&amp;AQ35)
+&amp;IF(ISBLANK(AW35),"",", "&amp;AW35)
+&amp;IF(ISBLANK(BC35),"",", "&amp;BC35)
+&amp;IF(ISBLANK(BI35),"",", "&amp;BI35)</f>
         <v>1</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="H35:H37" si="120">IF(ISBLANK(N35),"",N35)
+&amp;IF(ISBLANK(T35),"",", "&amp;T35)
+&amp;IF(ISBLANK(Z35),"",", "&amp;Z35)
+&amp;IF(ISBLANK(AF35),"",", "&amp;AF35)
+&amp;IF(ISBLANK(AL35),"",", "&amp;AL35)
+&amp;IF(ISBLANK(AR35),"",", "&amp;AR35)
+&amp;IF(ISBLANK(AX35),"",", "&amp;AX35)
+&amp;IF(ISBLANK(BD35),"",", "&amp;BD35)
+&amp;IF(ISBLANK(BJ35),"",", "&amp;BJ35)</f>
         <v>1</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K35" s="4" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="K35:K37" si="121">IF(AND(OR(I35="Gacha",I35="Origin"),ISBLANK(J35)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L35">
@@ -11984,84 +12373,84 @@
       </c>
       <c r="O35" s="3"/>
       <c r="Q35" s="4" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="Q35:Q37" si="122">IF(AND(OR(O35="Gacha",O35="Origin"),ISBLANK(P35)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="U35" s="3"/>
       <c r="W35" s="4" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="W35:W37" si="123">IF(AND(OR(U35="Gacha",U35="Origin"),ISBLANK(V35)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AA35" s="3"/>
       <c r="AC35" s="4" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="AC35:AC37" si="124">IF(AND(OR(AA35="Gacha",AA35="Origin"),ISBLANK(AB35)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AG35" s="3"/>
       <c r="AI35" s="4" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" ref="AI35:AI37" si="125">IF(AND(OR(AG35="Gacha",AG35="Origin"),ISBLANK(AH35)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AM35" s="3"/>
       <c r="AO35" s="4" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" ref="AO35:AO37" si="126">IF(AND(OR(AM35="Gacha",AM35="Origin"),ISBLANK(AN35)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AS35" s="3"/>
       <c r="AU35" s="4" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" ref="AU35:AU37" si="127">IF(AND(OR(AS35="Gacha",AS35="Origin"),ISBLANK(AT35)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AY35" s="3"/>
       <c r="BA35" s="4" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" ref="BA35:BA37" si="128">IF(AND(OR(AY35="Gacha",AY35="Origin"),ISBLANK(AZ35)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BE35" s="3"/>
       <c r="BG35" s="4" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" ref="BG35:BG37" si="129">IF(AND(OR(BE35="Gacha",BE35="Origin"),ISBLANK(BF35)),"서브밸류 필요","")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:59">
       <c r="A36" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="115"/>
         <v>Gacha</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="116"/>
         <v>5</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="102"/>
-        <v>q</v>
+        <f t="shared" si="117"/>
+        <v>j</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="118"/>
         <v>1</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>1</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K36" s="4" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="L36">
@@ -12075,42 +12464,133 @@
       </c>
       <c r="O36" s="3"/>
       <c r="Q36" s="4" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="U36" s="3"/>
       <c r="W36" s="4" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="AA36" s="3"/>
       <c r="AC36" s="4" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="AG36" s="3"/>
       <c r="AI36" s="4" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="AM36" s="3"/>
       <c r="AO36" s="4" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="AS36" s="3"/>
       <c r="AU36" s="4" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="AY36" s="3"/>
       <c r="BA36" s="4" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="128"/>
         <v/>
       </c>
       <c r="BE36" s="3"/>
       <c r="BG36" s="4" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:59">
+      <c r="A37" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="115"/>
+        <v>Gacha</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" ca="1" si="116"/>
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="117"/>
+        <v>q</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K37" s="4" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3"/>
+      <c r="Q37" s="4" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="U37" s="3"/>
+      <c r="W37" s="4" t="str">
+        <f t="shared" si="123"/>
+        <v/>
+      </c>
+      <c r="AA37" s="3"/>
+      <c r="AC37" s="4" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="AG37" s="3"/>
+      <c r="AI37" s="4" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="AM37" s="3"/>
+      <c r="AO37" s="4" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="AS37" s="3"/>
+      <c r="AU37" s="4" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="AY37" s="3"/>
+      <c r="BA37" s="4" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="BE37" s="3"/>
+      <c r="BG37" s="4" t="str">
+        <f t="shared" si="129"/>
         <v/>
       </c>
     </row>
@@ -12121,7 +12601,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY18:AY21 AM2:AM21 AG2:AG21 U2:U21 AA2:AA21 AS2:AS21 BE2:BE21 AY26 AM26 AG26 AA26 AS26 BE26 I2:I36 AY32:AY36 AS31:AS36 O2:O36 BE32:BE36 AM30:AM36 AG29:AG36 AA28:AA36 U26:U36" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY27 AM27 AG27 AA27 AS27 BE27 AY33:AY37 AS32:AS37 U27:U37 BE33:BE37 AM31:AM37 AG30:AG37 AA29:AA37 O2:O37 I2:I37 BE2:BE22 AS2:AS22 AA2:AA22 U2:U22 AG2:AG22 AM2:AM22 AY18:AY22" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12227,8 +12707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11645F6-6980-4A80-AAC4-DE11E683AE5B}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13953,6 +14433,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC9D630-0146-4132-9EC5-F30DA7B48814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0EB9FB-7194-4868-902B-FAD8912226B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -6772,10 +6772,10 @@
   <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -9949,11 +9949,11 @@
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="53"/>
-        <v>1, 1, 0.05, 1, 1, 1, 1, 1, 0.05</v>
+        <v>1, 1, 1, 1, 1, 1, 1, 1, 0.05</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="54"/>
-        <v>1400, 1400, 1, 15, 15, 15, 15, 15, 1</v>
+        <v>1400, 1400, 3, 15, 15, 15, 15, 15, 1</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="55"/>
@@ -9999,10 +9999,10 @@
         <v/>
       </c>
       <c r="X20">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z20" s="5">
         <v>3</v>
@@ -10181,7 +10181,7 @@
 &amp;IF(ISBLANK(AV21),"",", "&amp;AV21)
 &amp;IF(ISBLANK(BB21),"",", "&amp;BB21)
 &amp;IF(ISBLANK(BH21),"",", "&amp;BH21)</f>
-        <v>1, 1, 0.3, 1, 1, 1, 1, 1, 0.05</v>
+        <v>1, 1, 1, 1, 1, 1, 1, 1, 0.05</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" ref="G21" si="60">IF(ISBLANK(M21),"",M21)
@@ -10193,7 +10193,7 @@
 &amp;IF(ISBLANK(AW21),"",", "&amp;AW21)
 &amp;IF(ISBLANK(BC21),"",", "&amp;BC21)
 &amp;IF(ISBLANK(BI21),"",", "&amp;BI21)</f>
-        <v>2800, 2800, 1, 30, 30, 30, 30, 30, 1</v>
+        <v>2800, 2800, 3, 30, 30, 30, 30, 30, 1</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" ref="H21" si="61">IF(ISBLANK(N21),"",N21)
@@ -10247,10 +10247,10 @@
         <v/>
       </c>
       <c r="X21">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z21" s="5">
         <v>3</v>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0EB9FB-7194-4868-902B-FAD8912226B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA52880D-163E-4D21-83D3-FD2459EFD8C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -5727,7 +5727,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="167">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6301,6 +6301,41 @@
   <si>
     <t>Zozoflr</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드워장비1상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드워장비2상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드워장비3상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드워장비4상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shemwkdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shemwkdu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shemwkdv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shemwkdw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -6769,13 +6804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS37"/>
+  <dimension ref="A1:BS41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -11343,7 +11378,7 @@
         <v>111</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <f t="shared" ref="Q28:Q32" si="106">IF(AND(OR(O28="Gacha",O28="Origin"),ISBLANK(P28)),"서브밸류 필요","")</f>
+        <f t="shared" ref="Q28:Q41" si="106">IF(AND(OR(O28="Gacha",O28="Origin"),ISBLANK(P28)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="R28">
@@ -12122,7 +12157,7 @@
       </c>
       <c r="O33" s="3"/>
       <c r="Q33" s="4" t="str">
-        <f t="shared" ref="Q33:Q34" si="114">IF(AND(OR(O33="Gacha",O33="Origin"),ISBLANK(P33)),"서브밸류 필요","")</f>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="U33" s="3"/>
@@ -12213,42 +12248,42 @@
       </c>
       <c r="O34" s="3"/>
       <c r="Q34" s="4" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="U34" s="3"/>
       <c r="W34" s="4" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="W34:W41" si="114">IF(AND(OR(U34="Gacha",U34="Origin"),ISBLANK(V34)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AA34" s="3"/>
       <c r="AC34" s="4" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="AC34:AC41" si="115">IF(AND(OR(AA34="Gacha",AA34="Origin"),ISBLANK(AB34)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AG34" s="3"/>
       <c r="AI34" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AI34:AI41" si="116">IF(AND(OR(AG34="Gacha",AG34="Origin"),ISBLANK(AH34)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AM34" s="3"/>
       <c r="AO34" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AO34:AO41" si="117">IF(AND(OR(AM34="Gacha",AM34="Origin"),ISBLANK(AN34)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AS34" s="3"/>
       <c r="AU34" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AU34:AU41" si="118">IF(AND(OR(AS34="Gacha",AS34="Origin"),ISBLANK(AT34)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AY34" s="3"/>
       <c r="BA34" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="BA34:BA41" si="119">IF(AND(OR(AY34="Gacha",AY34="Origin"),ISBLANK(AZ34)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BE34" s="3"/>
       <c r="BG34" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="BG34:BG41" si="120">IF(AND(OR(BE34="Gacha",BE34="Origin"),ISBLANK(BF34)),"서브밸류 필요","")</f>
         <v/>
       </c>
     </row>
@@ -12260,7 +12295,7 @@
         <v>147</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:C37" si="115">IF(ISBLANK(I35),"",I35)
+        <f t="shared" ref="C35:C38" si="121">IF(ISBLANK(I35),"",I35)
 &amp;IF(ISBLANK(O35),"",", "&amp;O35)
 &amp;IF(ISBLANK(U35),"",", "&amp;U35)
 &amp;IF(ISBLANK(AA35),"",", "&amp;AA35)
@@ -12272,7 +12307,7 @@
         <v>Gacha</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" ref="D35:D37" ca="1" si="116">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D35:D38" ca="1" si="122">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -12305,7 +12340,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" ref="E35:E37" si="117">IF(ISBLANK(J35),"",J35)
+        <f t="shared" ref="E35:E38" si="123">IF(ISBLANK(J35),"",J35)
 &amp;IF(ISBLANK(O35),"",", "&amp;P35)
 &amp;IF(ISBLANK(U35),"",", "&amp;V35)
 &amp;IF(ISBLANK(AA35),"",", "&amp;AB35)
@@ -12317,7 +12352,7 @@
         <v>n</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" ref="F35:F37" si="118">IF(ISBLANK(L35),"",L35)
+        <f t="shared" ref="F35:F38" si="124">IF(ISBLANK(L35),"",L35)
 &amp;IF(ISBLANK(R35),"",", "&amp;R35)
 &amp;IF(ISBLANK(X35),"",", "&amp;X35)
 &amp;IF(ISBLANK(AD35),"",", "&amp;AD35)
@@ -12329,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" ref="G35:G37" si="119">IF(ISBLANK(M35),"",M35)
+        <f t="shared" ref="G35:G38" si="125">IF(ISBLANK(M35),"",M35)
 &amp;IF(ISBLANK(S35),"",", "&amp;S35)
 &amp;IF(ISBLANK(Y35),"",", "&amp;Y35)
 &amp;IF(ISBLANK(AE35),"",", "&amp;AE35)
@@ -12341,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" ref="H35:H37" si="120">IF(ISBLANK(N35),"",N35)
+        <f t="shared" ref="H35:H38" si="126">IF(ISBLANK(N35),"",N35)
 &amp;IF(ISBLANK(T35),"",", "&amp;T35)
 &amp;IF(ISBLANK(Z35),"",", "&amp;Z35)
 &amp;IF(ISBLANK(AF35),"",", "&amp;AF35)
@@ -12359,7 +12394,7 @@
         <v>150</v>
       </c>
       <c r="K35" s="4" t="str">
-        <f t="shared" ref="K35:K37" si="121">IF(AND(OR(I35="Gacha",I35="Origin"),ISBLANK(J35)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K35:K38" si="127">IF(AND(OR(I35="Gacha",I35="Origin"),ISBLANK(J35)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L35">
@@ -12373,42 +12408,42 @@
       </c>
       <c r="O35" s="3"/>
       <c r="Q35" s="4" t="str">
-        <f t="shared" ref="Q35:Q37" si="122">IF(AND(OR(O35="Gacha",O35="Origin"),ISBLANK(P35)),"서브밸류 필요","")</f>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="U35" s="3"/>
       <c r="W35" s="4" t="str">
-        <f t="shared" ref="W35:W37" si="123">IF(AND(OR(U35="Gacha",U35="Origin"),ISBLANK(V35)),"서브밸류 필요","")</f>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="AA35" s="3"/>
       <c r="AC35" s="4" t="str">
-        <f t="shared" ref="AC35:AC37" si="124">IF(AND(OR(AA35="Gacha",AA35="Origin"),ISBLANK(AB35)),"서브밸류 필요","")</f>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="AG35" s="3"/>
       <c r="AI35" s="4" t="str">
-        <f t="shared" ref="AI35:AI37" si="125">IF(AND(OR(AG35="Gacha",AG35="Origin"),ISBLANK(AH35)),"서브밸류 필요","")</f>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="AM35" s="3"/>
       <c r="AO35" s="4" t="str">
-        <f t="shared" ref="AO35:AO37" si="126">IF(AND(OR(AM35="Gacha",AM35="Origin"),ISBLANK(AN35)),"서브밸류 필요","")</f>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="AS35" s="3"/>
       <c r="AU35" s="4" t="str">
-        <f t="shared" ref="AU35:AU37" si="127">IF(AND(OR(AS35="Gacha",AS35="Origin"),ISBLANK(AT35)),"서브밸류 필요","")</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
       <c r="AY35" s="3"/>
       <c r="BA35" s="4" t="str">
-        <f t="shared" ref="BA35:BA37" si="128">IF(AND(OR(AY35="Gacha",AY35="Origin"),ISBLANK(AZ35)),"서브밸류 필요","")</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="BE35" s="3"/>
       <c r="BG35" s="4" t="str">
-        <f t="shared" ref="BG35:BG37" si="129">IF(AND(OR(BE35="Gacha",BE35="Origin"),ISBLANK(BF35)),"서브밸류 필요","")</f>
+        <f t="shared" si="120"/>
         <v/>
       </c>
     </row>
@@ -12420,27 +12455,27 @@
         <v>148</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>Gacha</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="122"/>
         <v>5</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>j</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>1</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -12450,7 +12485,7 @@
         <v>151</v>
       </c>
       <c r="K36" s="4" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="L36">
@@ -12464,42 +12499,42 @@
       </c>
       <c r="O36" s="3"/>
       <c r="Q36" s="4" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="U36" s="3"/>
       <c r="W36" s="4" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="AA36" s="3"/>
       <c r="AC36" s="4" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="AG36" s="3"/>
       <c r="AI36" s="4" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="AM36" s="3"/>
       <c r="AO36" s="4" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="AS36" s="3"/>
       <c r="AU36" s="4" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="118"/>
         <v/>
       </c>
       <c r="AY36" s="3"/>
       <c r="BA36" s="4" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="BE36" s="3"/>
       <c r="BG36" s="4" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
     </row>
@@ -12511,27 +12546,27 @@
         <v>149</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>Gacha</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="122"/>
         <v>5</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>q</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>1</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -12541,7 +12576,7 @@
         <v>152</v>
       </c>
       <c r="K37" s="4" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="L37">
@@ -12555,42 +12590,556 @@
       </c>
       <c r="O37" s="3"/>
       <c r="Q37" s="4" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="U37" s="3"/>
       <c r="W37" s="4" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="AA37" s="3"/>
       <c r="AC37" s="4" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="AG37" s="3"/>
       <c r="AI37" s="4" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="AM37" s="3"/>
       <c r="AO37" s="4" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="AS37" s="3"/>
       <c r="AU37" s="4" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="118"/>
         <v/>
       </c>
       <c r="AY37" s="3"/>
       <c r="BA37" s="4" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="BE37" s="3"/>
       <c r="BG37" s="4" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:59">
+      <c r="A38" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="121"/>
+        <v>Gacha</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" ca="1" si="122"/>
+        <v>5</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="123"/>
+        <v>g</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="124"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" s="4" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="W38" s="4" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="AA38" s="3"/>
+      <c r="AC38" s="4" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="AG38" s="3"/>
+      <c r="AI38" s="4" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="AM38" s="3"/>
+      <c r="AO38" s="4" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="AS38" s="3"/>
+      <c r="AU38" s="4" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="AY38" s="3"/>
+      <c r="BA38" s="4" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="BE38" s="3"/>
+      <c r="BG38" s="4" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:59">
+      <c r="A39" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" ref="C39:C41" si="128">IF(ISBLANK(I39),"",I39)
+&amp;IF(ISBLANK(O39),"",", "&amp;O39)
+&amp;IF(ISBLANK(U39),"",", "&amp;U39)
+&amp;IF(ISBLANK(AA39),"",", "&amp;AA39)
+&amp;IF(ISBLANK(AG39),"",", "&amp;AG39)
+&amp;IF(ISBLANK(AM39),"",", "&amp;AM39)
+&amp;IF(ISBLANK(AS39),"",", "&amp;AS39)
+&amp;IF(ISBLANK(AY39),"",", "&amp;AY39)
+&amp;IF(ISBLANK(BE39),"",", "&amp;BE39)</f>
+        <v>Gacha, Gacha</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" ref="D39:D41" ca="1" si="129">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C39,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>5, 5</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" ref="E39:E41" si="130">IF(ISBLANK(J39),"",J39)
+&amp;IF(ISBLANK(O39),"",", "&amp;P39)
+&amp;IF(ISBLANK(U39),"",", "&amp;V39)
+&amp;IF(ISBLANK(AA39),"",", "&amp;AB39)
+&amp;IF(ISBLANK(AG39),"",", "&amp;AH39)
+&amp;IF(ISBLANK(AM39),"",", "&amp;AN39)
+&amp;IF(ISBLANK(AS39),"",", "&amp;AT39)
+&amp;IF(ISBLANK(AY39),"",", "&amp;AZ39)
+&amp;IF(ISBLANK(BE39),"",", "&amp;BF39)</f>
+        <v>g, g</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" ref="F39:F41" si="131">IF(ISBLANK(L39),"",L39)
+&amp;IF(ISBLANK(R39),"",", "&amp;R39)
+&amp;IF(ISBLANK(X39),"",", "&amp;X39)
+&amp;IF(ISBLANK(AD39),"",", "&amp;AD39)
+&amp;IF(ISBLANK(AJ39),"",", "&amp;AJ39)
+&amp;IF(ISBLANK(AP39),"",", "&amp;AP39)
+&amp;IF(ISBLANK(AV39),"",", "&amp;AV39)
+&amp;IF(ISBLANK(BB39),"",", "&amp;BB39)
+&amp;IF(ISBLANK(BH39),"",", "&amp;BH39)</f>
+        <v>1, 1</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" ref="G39:G41" si="132">IF(ISBLANK(M39),"",M39)
+&amp;IF(ISBLANK(S39),"",", "&amp;S39)
+&amp;IF(ISBLANK(Y39),"",", "&amp;Y39)
+&amp;IF(ISBLANK(AE39),"",", "&amp;AE39)
+&amp;IF(ISBLANK(AK39),"",", "&amp;AK39)
+&amp;IF(ISBLANK(AQ39),"",", "&amp;AQ39)
+&amp;IF(ISBLANK(AW39),"",", "&amp;AW39)
+&amp;IF(ISBLANK(BC39),"",", "&amp;BC39)
+&amp;IF(ISBLANK(BI39),"",", "&amp;BI39)</f>
+        <v>1, 1</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" ref="H39:H41" si="133">IF(ISBLANK(N39),"",N39)
+&amp;IF(ISBLANK(T39),"",", "&amp;T39)
+&amp;IF(ISBLANK(Z39),"",", "&amp;Z39)
+&amp;IF(ISBLANK(AF39),"",", "&amp;AF39)
+&amp;IF(ISBLANK(AL39),"",", "&amp;AL39)
+&amp;IF(ISBLANK(AR39),"",", "&amp;AR39)
+&amp;IF(ISBLANK(AX39),"",", "&amp;AX39)
+&amp;IF(ISBLANK(BD39),"",", "&amp;BD39)
+&amp;IF(ISBLANK(BJ39),"",", "&amp;BJ39)</f>
+        <v>1, 1</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" t="s">
+        <v>166</v>
+      </c>
+      <c r="K39" s="4" t="str">
+        <f t="shared" ref="K39" si="134">IF(AND(OR(I39="Gacha",I39="Origin"),ISBLANK(J39)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q39" s="4" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="W39" s="4" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="AA39" s="3"/>
+      <c r="AC39" s="4" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="AG39" s="3"/>
+      <c r="AI39" s="4" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="AM39" s="3"/>
+      <c r="AO39" s="4" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="AS39" s="3"/>
+      <c r="AU39" s="4" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="AY39" s="3"/>
+      <c r="BA39" s="4" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="BE39" s="3"/>
+      <c r="BG39" s="4" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:59">
+      <c r="A40" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="128"/>
+        <v>Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" ca="1" si="129"/>
+        <v>5, 5, 5</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="130"/>
+        <v>g, g, g</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="131"/>
+        <v>1, 1, 1</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="132"/>
+        <v>1, 1, 1</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="133"/>
+        <v>1, 1, 1</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s">
+        <v>166</v>
+      </c>
+      <c r="K40" s="4" t="str">
+        <f t="shared" ref="K40:K41" si="135">IF(AND(OR(I40="Gacha",I40="Origin"),ISBLANK(J40)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q40" s="4" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V40" t="s">
+        <v>166</v>
+      </c>
+      <c r="W40" s="4" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="3"/>
+      <c r="AC40" s="4" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="AG40" s="3"/>
+      <c r="AI40" s="4" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="AM40" s="3"/>
+      <c r="AO40" s="4" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="AS40" s="3"/>
+      <c r="AU40" s="4" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="AY40" s="3"/>
+      <c r="BA40" s="4" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="BE40" s="3"/>
+      <c r="BG40" s="4" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:59">
+      <c r="A41" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="128"/>
+        <v>Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" ca="1" si="129"/>
+        <v>5, 5, 5, 5</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="130"/>
+        <v>g, g, g, g</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="131"/>
+        <v>1, 1, 1, 1</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="132"/>
+        <v>1, 1, 1, 1</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="133"/>
+        <v>1, 1, 1, 1</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" t="s">
+        <v>166</v>
+      </c>
+      <c r="K41" s="4" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q41" s="4" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V41" t="s">
+        <v>166</v>
+      </c>
+      <c r="W41" s="4" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC41" s="4" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="3"/>
+      <c r="AI41" s="4" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="AM41" s="3"/>
+      <c r="AO41" s="4" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="AS41" s="3"/>
+      <c r="AU41" s="4" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="AY41" s="3"/>
+      <c r="BA41" s="4" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="BE41" s="3"/>
+      <c r="BG41" s="4" t="str">
+        <f t="shared" si="120"/>
         <v/>
       </c>
     </row>
@@ -12601,7 +13150,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY27 AM27 AG27 AA27 AS27 BE27 AY33:AY37 AS32:AS37 U27:U37 BE33:BE37 AM31:AM37 AG30:AG37 AA29:AA37 O2:O37 I2:I37 BE2:BE22 AS2:AS22 AA2:AA22 U2:U22 AG2:AG22 AM2:AM22 AY18:AY22" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY12 AY27 AM27 AG27 AA27 AS27 BE27 AS32:AS41 BE33:BE41 U27:U37 AM31:AM41 AG30:AG41 U40:U41 O39:O41 O2:O37 I2:I41 BE2:BE22 AS2:AS22 AA2:AA22 U2:U22 AG2:AG22 AM2:AM22 AY18:AY22 AY33:AY41 AA29:AA41" xr:uid="{CEC48807-FE80-4EBD-B9E9-1E68594402CD}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(ISERROR(NOT(FIND("_",I$1))),I$1,LEFT(I$1,FIND("_",I$1)-1))&amp;"_Verify",$1:$1,0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Drop.xlsx
+++ b/Excel/작업Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA52880D-163E-4D21-83D3-FD2459EFD8C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C62F1-6E52-4F56-A4A8-276BBC96F6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -2439,7 +2439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{CD14A59F-BC4F-48CB-9B1F-63BA8647B405}">
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{CD14A59F-BC4F-48CB-9B1F-63BA8647B405}">
       <text>
         <r>
           <rPr>
@@ -2510,7 +2510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{CDB1BF4D-4480-498B-893A-78E5E6B05868}">
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{CDB1BF4D-4480-498B-893A-78E5E6B05868}">
       <text>
         <r>
           <rPr>
@@ -2695,7 +2695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{E3D386D7-067C-4DC1-9CC9-FE54E26C8C95}">
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{E3D386D7-067C-4DC1-9CC9-FE54E26C8C95}">
       <text>
         <r>
           <rPr>
@@ -2747,7 +2747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{A8846D11-4196-4265-BF5B-76AAED744A76}">
+    <comment ref="N23" authorId="0" shapeId="0" xr:uid="{A8846D11-4196-4265-BF5B-76AAED744A76}">
       <text>
         <r>
           <rPr>
@@ -3372,7 +3372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA20" authorId="0" shapeId="0" xr:uid="{5C699424-C015-4AD4-88CD-BC36AB512BAC}">
+    <comment ref="AA23" authorId="0" shapeId="0" xr:uid="{5C699424-C015-4AD4-88CD-BC36AB512BAC}">
       <text>
         <r>
           <rPr>
@@ -3864,7 +3864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF20" authorId="0" shapeId="0" xr:uid="{254EAB98-7E0F-4D23-89DC-54783BE17077}">
+    <comment ref="AF23" authorId="0" shapeId="0" xr:uid="{254EAB98-7E0F-4D23-89DC-54783BE17077}">
       <text>
         <r>
           <rPr>
@@ -4514,7 +4514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{1215E548-2078-4D9C-B05A-5219428297AD}">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{1215E548-2078-4D9C-B05A-5219428297AD}">
       <text>
         <r>
           <rPr>
@@ -4738,7 +4738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{DFA164F3-7942-4EF6-8BDA-C1C136DE5546}">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{DFA164F3-7942-4EF6-8BDA-C1C136DE5546}">
       <text>
         <r>
           <rPr>
@@ -5727,7 +5727,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="167">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6804,13 +6804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:BS41"/>
+  <dimension ref="A1:BS44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -7110,7 +7110,7 @@
         <v>Ultimate</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D22" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D2:D25" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -7339,7 +7339,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K22" si="12">IF(AND(OR(I3="Gacha",I3="Origin"),ISBLANK(J3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K3:K25" si="12">IF(AND(OR(I3="Gacha",I3="Origin"),ISBLANK(J3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L3">
@@ -7355,7 +7355,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f t="shared" ref="Q3:Q23" si="13">IF(AND(OR(O3="Gacha",O3="Origin"),ISBLANK(P3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="Q3:Q26" si="13">IF(AND(OR(O3="Gacha",O3="Origin"),ISBLANK(P3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="R3">
@@ -7371,7 +7371,7 @@
         <v>12</v>
       </c>
       <c r="W3" s="4" t="str">
-        <f t="shared" ref="W3:W23" si="14">IF(AND(OR(U3="Gacha",U3="Origin"),ISBLANK(V3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="W3:W26" si="14">IF(AND(OR(U3="Gacha",U3="Origin"),ISBLANK(V3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="X3">
@@ -7385,32 +7385,32 @@
       </c>
       <c r="AA3" s="3"/>
       <c r="AC3" s="4" t="str">
-        <f t="shared" ref="AC3:AC23" si="15">IF(AND(OR(AA3="Gacha",AA3="Origin"),ISBLANK(AB3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AC3:AC26" si="15">IF(AND(OR(AA3="Gacha",AA3="Origin"),ISBLANK(AB3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AG3" s="3"/>
       <c r="AI3" s="4" t="str">
-        <f t="shared" ref="AI3:AI34" si="16">IF(AND(OR(AG3="Gacha",AG3="Origin"),ISBLANK(AH3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AI3:AI36" si="16">IF(AND(OR(AG3="Gacha",AG3="Origin"),ISBLANK(AH3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AM3" s="3"/>
       <c r="AO3" s="4" t="str">
-        <f t="shared" ref="AO3:AO34" si="17">IF(AND(OR(AM3="Gacha",AM3="Origin"),ISBLANK(AN3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AO3:AO36" si="17">IF(AND(OR(AM3="Gacha",AM3="Origin"),ISBLANK(AN3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AS3" s="3"/>
       <c r="AU3" s="4" t="str">
-        <f t="shared" ref="AU3:AU34" si="18">IF(AND(OR(AS3="Gacha",AS3="Origin"),ISBLANK(AT3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="AU3:AU36" si="18">IF(AND(OR(AS3="Gacha",AS3="Origin"),ISBLANK(AT3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="AY3" s="3"/>
       <c r="BA3" s="4" t="str">
-        <f t="shared" ref="BA3:BA34" si="19">IF(AND(OR(AY3="Gacha",AY3="Origin"),ISBLANK(AZ3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="BA3:BA36" si="19">IF(AND(OR(AY3="Gacha",AY3="Origin"),ISBLANK(AZ3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BE3" s="3"/>
       <c r="BG3" s="4" t="str">
-        <f t="shared" ref="BG3:BG34" si="20">IF(AND(OR(BE3="Gacha",BE3="Origin"),ISBLANK(BF3)),"서브밸류 필요","")</f>
+        <f t="shared" ref="BG3:BG36" si="20">IF(AND(OR(BE3="Gacha",BE3="Origin"),ISBLANK(BF3)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="BL3" t="s">
@@ -7432,7 +7432,7 @@
         <v>1001</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C9" si="21">IF(ISBLANK(I4),"",I4)
+        <f t="shared" ref="C4:C10" si="21">IF(ISBLANK(I4),"",I4)
 &amp;IF(ISBLANK(O4),"",", "&amp;O4)
 &amp;IF(ISBLANK(U4),"",", "&amp;U4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AA4)
@@ -7448,7 +7448,7 @@
         <v>2, 1, 4</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E9" si="22">IF(ISBLANK(J4),"",J4)
+        <f t="shared" ref="E4:E10" si="22">IF(ISBLANK(J4),"",J4)
 &amp;IF(ISBLANK(O4),"",", "&amp;P4)
 &amp;IF(ISBLANK(U4),"",", "&amp;V4)
 &amp;IF(ISBLANK(AA4),"",", "&amp;AB4)
@@ -7460,7 +7460,7 @@
         <v xml:space="preserve">, , </v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F9" si="23">IF(ISBLANK(L4),"",L4)
+        <f t="shared" ref="F4:F10" si="23">IF(ISBLANK(L4),"",L4)
 &amp;IF(ISBLANK(R4),"",", "&amp;R4)
 &amp;IF(ISBLANK(X4),"",", "&amp;X4)
 &amp;IF(ISBLANK(AD4),"",", "&amp;AD4)
@@ -7472,7 +7472,7 @@
         <v>1, 1, 0.075</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G9" si="24">IF(ISBLANK(M4),"",M4)
+        <f t="shared" ref="G4:G10" si="24">IF(ISBLANK(M4),"",M4)
 &amp;IF(ISBLANK(S4),"",", "&amp;S4)
 &amp;IF(ISBLANK(Y4),"",", "&amp;Y4)
 &amp;IF(ISBLANK(AE4),"",", "&amp;AE4)
@@ -7484,7 +7484,7 @@
         <v>0.05, 5, 1</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H9" si="25">IF(ISBLANK(N4),"",N4)
+        <f t="shared" ref="H4:H10" si="25">IF(ISBLANK(N4),"",N4)
 &amp;IF(ISBLANK(T4),"",", "&amp;T4)
 &amp;IF(ISBLANK(Z4),"",", "&amp;Z4)
 &amp;IF(ISBLANK(AF4),"",", "&amp;AF4)
@@ -7592,7 +7592,7 @@
         <v>1002</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C8" si="26">IF(ISBLANK(I5),"",I5)
+        <f t="shared" ref="C5:C9" si="26">IF(ISBLANK(I5),"",I5)
 &amp;IF(ISBLANK(O5),"",", "&amp;O5)
 &amp;IF(ISBLANK(U5),"",", "&amp;U5)
 &amp;IF(ISBLANK(AA5),"",", "&amp;AA5)
@@ -7608,7 +7608,7 @@
         <v>2, 1, 4, 5</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E8" si="27">IF(ISBLANK(J5),"",J5)
+        <f t="shared" ref="E5:E9" si="27">IF(ISBLANK(J5),"",J5)
 &amp;IF(ISBLANK(O5),"",", "&amp;P5)
 &amp;IF(ISBLANK(U5),"",", "&amp;V5)
 &amp;IF(ISBLANK(AA5),"",", "&amp;AB5)
@@ -7620,7 +7620,7 @@
         <v>, , , e</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" ref="F5:F8" si="28">IF(ISBLANK(L5),"",L5)
+        <f t="shared" ref="F5:F9" si="28">IF(ISBLANK(L5),"",L5)
 &amp;IF(ISBLANK(R5),"",", "&amp;R5)
 &amp;IF(ISBLANK(X5),"",", "&amp;X5)
 &amp;IF(ISBLANK(AD5),"",", "&amp;AD5)
@@ -7632,7 +7632,7 @@
         <v>1, 1, 0.075, 0.001</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5:G8" si="29">IF(ISBLANK(M5),"",M5)
+        <f t="shared" ref="G5:G9" si="29">IF(ISBLANK(M5),"",M5)
 &amp;IF(ISBLANK(S5),"",", "&amp;S5)
 &amp;IF(ISBLANK(Y5),"",", "&amp;Y5)
 &amp;IF(ISBLANK(AE5),"",", "&amp;AE5)
@@ -7644,7 +7644,7 @@
         <v>0.085, 5, 1, 1</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H8" si="30">IF(ISBLANK(N5),"",N5)
+        <f t="shared" ref="H5:H9" si="30">IF(ISBLANK(N5),"",N5)
 &amp;IF(ISBLANK(T5),"",", "&amp;T5)
 &amp;IF(ISBLANK(Z5),"",", "&amp;Z5)
 &amp;IF(ISBLANK(AF5),"",", "&amp;AF5)
@@ -8031,2142 +8031,26 @@
     </row>
     <row r="8" spans="1:70">
       <c r="A8">
-        <v>5000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
+        <v>1005</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="26"/>
-        <v>Gold, Exp, Heart, LevelPack</v>
+        <f t="shared" ref="C8" si="31">IF(ISBLANK(I8),"",I8)
+&amp;IF(ISBLANK(O8),"",", "&amp;O8)
+&amp;IF(ISBLANK(U8),"",", "&amp;U8)
+&amp;IF(ISBLANK(AA8),"",", "&amp;AA8)
+&amp;IF(ISBLANK(AG8),"",", "&amp;AG8)
+&amp;IF(ISBLANK(AM8),"",", "&amp;AM8)
+&amp;IF(ISBLANK(AS8),"",", "&amp;AS8)
+&amp;IF(ISBLANK(AY8),"",", "&amp;AY8)
+&amp;IF(ISBLANK(BE8),"",", "&amp;BE8)</f>
+        <v>Gold, Exp, Heart, Gacha</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">, , , </v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>1, 1, 1, 1</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>0.015, 100, 2, 1</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>0.145, 100, 2, 1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N8">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>100</v>
-      </c>
-      <c r="T8">
-        <v>100</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC8" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="3"/>
-      <c r="AI8" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AM8" s="3"/>
-      <c r="AO8" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AS8" s="3"/>
-      <c r="AU8" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AY8" s="3"/>
-      <c r="BA8" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BE8" s="3"/>
-      <c r="BG8" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BL8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>13</v>
-      </c>
-      <c r="BO8">
-        <v>5</v>
-      </c>
-      <c r="BP8">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:70">
-      <c r="A9">
-        <v>5001</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="21"/>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">, , , , , </v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1, 1, 1, 1, 0.7, 0.1</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>0.05, 100, 2, 1, 1, 1</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>0.65, 100, 2, 1, 1, 1</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="N9">
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>100</v>
-      </c>
-      <c r="T9">
-        <v>100</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
-      <c r="Z9">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC9" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI9" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ9">
-        <v>0.7</v>
-      </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO9" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AP9">
-        <v>0.1</v>
-      </c>
-      <c r="AQ9">
-        <v>1</v>
-      </c>
-      <c r="AR9">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="3"/>
-      <c r="AU9" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AY9" s="3"/>
-      <c r="BA9" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BE9" s="3"/>
-      <c r="BG9" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BL9" t="s">
-        <v>91</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BO9">
-        <v>2</v>
-      </c>
-      <c r="BP9">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:70">
-      <c r="A10">
-        <v>5002</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ref="C10:C12" si="31">IF(ISBLANK(I10),"",I10)
-&amp;IF(ISBLANK(O10),"",", "&amp;O10)
-&amp;IF(ISBLANK(U10),"",", "&amp;U10)
-&amp;IF(ISBLANK(AA10),"",", "&amp;AA10)
-&amp;IF(ISBLANK(AG10),"",", "&amp;AG10)
-&amp;IF(ISBLANK(AM10),"",", "&amp;AM10)
-&amp;IF(ISBLANK(AS10),"",", "&amp;AS10)
-&amp;IF(ISBLANK(AY10),"",", "&amp;AY10)
-&amp;IF(ISBLANK(BE10),"",", "&amp;BE10)</f>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" ref="E10:E12" si="32">IF(ISBLANK(J10),"",J10)
-&amp;IF(ISBLANK(O10),"",", "&amp;P10)
-&amp;IF(ISBLANK(U10),"",", "&amp;V10)
-&amp;IF(ISBLANK(AA10),"",", "&amp;AB10)
-&amp;IF(ISBLANK(AG10),"",", "&amp;AH10)
-&amp;IF(ISBLANK(AM10),"",", "&amp;AN10)
-&amp;IF(ISBLANK(AS10),"",", "&amp;AT10)
-&amp;IF(ISBLANK(AY10),"",", "&amp;AZ10)
-&amp;IF(ISBLANK(BE10),"",", "&amp;BF10)</f>
-        <v>, , , , , , e, e</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10:F12" si="33">IF(ISBLANK(L10),"",L10)
-&amp;IF(ISBLANK(R10),"",", "&amp;R10)
-&amp;IF(ISBLANK(X10),"",", "&amp;X10)
-&amp;IF(ISBLANK(AD10),"",", "&amp;AD10)
-&amp;IF(ISBLANK(AJ10),"",", "&amp;AJ10)
-&amp;IF(ISBLANK(AP10),"",", "&amp;AP10)
-&amp;IF(ISBLANK(AV10),"",", "&amp;AV10)
-&amp;IF(ISBLANK(BB10),"",", "&amp;BB10)
-&amp;IF(ISBLANK(BH10),"",", "&amp;BH10)</f>
-        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G12" si="34">IF(ISBLANK(M10),"",M10)
-&amp;IF(ISBLANK(S10),"",", "&amp;S10)
-&amp;IF(ISBLANK(Y10),"",", "&amp;Y10)
-&amp;IF(ISBLANK(AE10),"",", "&amp;AE10)
-&amp;IF(ISBLANK(AK10),"",", "&amp;AK10)
-&amp;IF(ISBLANK(AQ10),"",", "&amp;AQ10)
-&amp;IF(ISBLANK(AW10),"",", "&amp;AW10)
-&amp;IF(ISBLANK(BC10),"",", "&amp;BC10)
-&amp;IF(ISBLANK(BI10),"",", "&amp;BI10)</f>
-        <v>0.085, 100, 2, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" ref="H10:H12" si="35">IF(ISBLANK(N10),"",N10)
-&amp;IF(ISBLANK(T10),"",", "&amp;T10)
-&amp;IF(ISBLANK(Z10),"",", "&amp;Z10)
-&amp;IF(ISBLANK(AF10),"",", "&amp;AF10)
-&amp;IF(ISBLANK(AL10),"",", "&amp;AL10)
-&amp;IF(ISBLANK(AR10),"",", "&amp;AR10)
-&amp;IF(ISBLANK(AX10),"",", "&amp;AX10)
-&amp;IF(ISBLANK(BD10),"",", "&amp;BD10)
-&amp;IF(ISBLANK(BJ10),"",", "&amp;BJ10)</f>
-        <v>0.685, 100, 2, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>8.500000000000002E-2</v>
-      </c>
-      <c r="N10">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>100</v>
-      </c>
-      <c r="T10">
-        <v>100</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC10" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI10" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ10">
-        <v>0.7</v>
-      </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
-      <c r="AL10">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO10" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AP10">
-        <v>0.1</v>
-      </c>
-      <c r="AQ10">
-        <v>1</v>
-      </c>
-      <c r="AR10">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU10" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AV10">
-        <v>0.25</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA10" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BB10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="BC10">
-        <v>1</v>
-      </c>
-      <c r="BD10">
-        <v>1</v>
-      </c>
-      <c r="BE10" s="3"/>
-      <c r="BG10" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BL10" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BO10">
-        <v>7</v>
-      </c>
-      <c r="BP10">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70">
-      <c r="A11">
-        <v>5003</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="31"/>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>, , , , , , e, e</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>0.12, 100, 2, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>0.72, 100, 2, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.12</v>
-      </c>
-      <c r="N11">
-        <v>0.72</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>100</v>
-      </c>
-      <c r="T11">
-        <v>100</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>2</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC11" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI11" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ11">
-        <v>0.7</v>
-      </c>
-      <c r="AK11">
-        <v>1</v>
-      </c>
-      <c r="AL11">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO11" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AP11">
-        <v>0.1</v>
-      </c>
-      <c r="AQ11">
-        <v>1</v>
-      </c>
-      <c r="AR11">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU11" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AV11">
-        <v>0.25</v>
-      </c>
-      <c r="AW11">
-        <v>1</v>
-      </c>
-      <c r="AX11">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA11" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BB11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="BC11">
-        <v>1</v>
-      </c>
-      <c r="BD11">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="3"/>
-      <c r="BG11" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BL11" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO11">
-        <v>1</v>
-      </c>
-      <c r="BP11">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:70">
-      <c r="A12">
-        <v>5004</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="31"/>
-        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>, , , , , , e, e</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>0.755, 100, 2, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.15500000000000003</v>
-      </c>
-      <c r="N12">
-        <v>0.755</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>100</v>
-      </c>
-      <c r="T12">
-        <v>100</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>2</v>
-      </c>
-      <c r="Z12">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC12" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD12">
-        <v>1</v>
-      </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI12" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ12">
-        <v>0.7</v>
-      </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
-      <c r="AL12">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO12" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AP12">
-        <v>0.1</v>
-      </c>
-      <c r="AQ12">
-        <v>1</v>
-      </c>
-      <c r="AR12">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU12" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AV12">
-        <v>0.25</v>
-      </c>
-      <c r="AW12">
-        <v>1</v>
-      </c>
-      <c r="AX12">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA12" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BB12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="BC12">
-        <v>1</v>
-      </c>
-      <c r="BD12">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="3"/>
-      <c r="BG12" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:70">
-      <c r="A13">
-        <v>6000</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" ref="C13" si="36">IF(ISBLANK(I13),"",I13)
-&amp;IF(ISBLANK(O13),"",", "&amp;O13)
-&amp;IF(ISBLANK(U13),"",", "&amp;U13)
-&amp;IF(ISBLANK(AA13),"",", "&amp;AA13)
-&amp;IF(ISBLANK(AG13),"",", "&amp;AG13)
-&amp;IF(ISBLANK(AM13),"",", "&amp;AM13)
-&amp;IF(ISBLANK(AS13),"",", "&amp;AS13)
-&amp;IF(ISBLANK(AY13),"",", "&amp;AY13)
-&amp;IF(ISBLANK(BE13),"",", "&amp;BE13)</f>
-        <v>Gold</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13" si="37">IF(ISBLANK(J13),"",J13)
-&amp;IF(ISBLANK(O13),"",", "&amp;P13)
-&amp;IF(ISBLANK(U13),"",", "&amp;V13)
-&amp;IF(ISBLANK(AA13),"",", "&amp;AB13)
-&amp;IF(ISBLANK(AG13),"",", "&amp;AH13)
-&amp;IF(ISBLANK(AM13),"",", "&amp;AN13)
-&amp;IF(ISBLANK(AS13),"",", "&amp;AT13)
-&amp;IF(ISBLANK(AY13),"",", "&amp;AZ13)
-&amp;IF(ISBLANK(BE13),"",", "&amp;BF13)</f>
-        <v/>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13" si="38">IF(ISBLANK(L13),"",L13)
-&amp;IF(ISBLANK(R13),"",", "&amp;R13)
-&amp;IF(ISBLANK(X13),"",", "&amp;X13)
-&amp;IF(ISBLANK(AD13),"",", "&amp;AD13)
-&amp;IF(ISBLANK(AJ13),"",", "&amp;AJ13)
-&amp;IF(ISBLANK(AP13),"",", "&amp;AP13)
-&amp;IF(ISBLANK(AV13),"",", "&amp;AV13)
-&amp;IF(ISBLANK(BB13),"",", "&amp;BB13)
-&amp;IF(ISBLANK(BH13),"",", "&amp;BH13)</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13" si="39">IF(ISBLANK(M13),"",M13)
-&amp;IF(ISBLANK(S13),"",", "&amp;S13)
-&amp;IF(ISBLANK(Y13),"",", "&amp;Y13)
-&amp;IF(ISBLANK(AE13),"",", "&amp;AE13)
-&amp;IF(ISBLANK(AK13),"",", "&amp;AK13)
-&amp;IF(ISBLANK(AQ13),"",", "&amp;AQ13)
-&amp;IF(ISBLANK(AW13),"",", "&amp;AW13)
-&amp;IF(ISBLANK(BC13),"",", "&amp;BC13)
-&amp;IF(ISBLANK(BI13),"",", "&amp;BI13)</f>
-        <v>0.015</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13" si="40">IF(ISBLANK(N13),"",N13)
-&amp;IF(ISBLANK(T13),"",", "&amp;T13)
-&amp;IF(ISBLANK(Z13),"",", "&amp;Z13)
-&amp;IF(ISBLANK(AF13),"",", "&amp;AF13)
-&amp;IF(ISBLANK(AL13),"",", "&amp;AL13)
-&amp;IF(ISBLANK(AR13),"",", "&amp;AR13)
-&amp;IF(ISBLANK(AX13),"",", "&amp;AX13)
-&amp;IF(ISBLANK(BD13),"",", "&amp;BD13)
-&amp;IF(ISBLANK(BJ13),"",", "&amp;BJ13)</f>
-        <v>0.145</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N13">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="Q13" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U13" s="3"/>
-      <c r="W13" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AA13" s="3"/>
-      <c r="AC13" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AG13" s="3"/>
-      <c r="AI13" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AM13" s="3"/>
-      <c r="AO13" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AS13" s="3"/>
-      <c r="AU13" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BA13" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BE13" s="3"/>
-      <c r="BG13" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:70">
-      <c r="A14">
-        <v>6001</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" ref="C14:C17" si="41">IF(ISBLANK(I14),"",I14)
-&amp;IF(ISBLANK(O14),"",", "&amp;O14)
-&amp;IF(ISBLANK(U14),"",", "&amp;U14)
-&amp;IF(ISBLANK(AA14),"",", "&amp;AA14)
-&amp;IF(ISBLANK(AG14),"",", "&amp;AG14)
-&amp;IF(ISBLANK(AM14),"",", "&amp;AM14)
-&amp;IF(ISBLANK(AS14),"",", "&amp;AS14)
-&amp;IF(ISBLANK(AY14),"",", "&amp;AY14)
-&amp;IF(ISBLANK(BE14),"",", "&amp;BE14)</f>
-        <v>Gold, Seal, Seal</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" ref="E14:E17" si="42">IF(ISBLANK(J14),"",J14)
-&amp;IF(ISBLANK(O14),"",", "&amp;P14)
-&amp;IF(ISBLANK(U14),"",", "&amp;V14)
-&amp;IF(ISBLANK(AA14),"",", "&amp;AB14)
-&amp;IF(ISBLANK(AG14),"",", "&amp;AH14)
-&amp;IF(ISBLANK(AM14),"",", "&amp;AN14)
-&amp;IF(ISBLANK(AS14),"",", "&amp;AT14)
-&amp;IF(ISBLANK(AY14),"",", "&amp;AZ14)
-&amp;IF(ISBLANK(BE14),"",", "&amp;BF14)</f>
-        <v xml:space="preserve">, , </v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" ref="F14:F17" si="43">IF(ISBLANK(L14),"",L14)
-&amp;IF(ISBLANK(R14),"",", "&amp;R14)
-&amp;IF(ISBLANK(X14),"",", "&amp;X14)
-&amp;IF(ISBLANK(AD14),"",", "&amp;AD14)
-&amp;IF(ISBLANK(AJ14),"",", "&amp;AJ14)
-&amp;IF(ISBLANK(AP14),"",", "&amp;AP14)
-&amp;IF(ISBLANK(AV14),"",", "&amp;AV14)
-&amp;IF(ISBLANK(BB14),"",", "&amp;BB14)
-&amp;IF(ISBLANK(BH14),"",", "&amp;BH14)</f>
-        <v>1, 0.7, 0.1</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" ref="G14:G17" si="44">IF(ISBLANK(M14),"",M14)
-&amp;IF(ISBLANK(S14),"",", "&amp;S14)
-&amp;IF(ISBLANK(Y14),"",", "&amp;Y14)
-&amp;IF(ISBLANK(AE14),"",", "&amp;AE14)
-&amp;IF(ISBLANK(AK14),"",", "&amp;AK14)
-&amp;IF(ISBLANK(AQ14),"",", "&amp;AQ14)
-&amp;IF(ISBLANK(AW14),"",", "&amp;AW14)
-&amp;IF(ISBLANK(BC14),"",", "&amp;BC14)
-&amp;IF(ISBLANK(BI14),"",", "&amp;BI14)</f>
-        <v>0.05, 1, 1</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" ref="H14:H17" si="45">IF(ISBLANK(N14),"",N14)
-&amp;IF(ISBLANK(T14),"",", "&amp;T14)
-&amp;IF(ISBLANK(Z14),"",", "&amp;Z14)
-&amp;IF(ISBLANK(AF14),"",", "&amp;AF14)
-&amp;IF(ISBLANK(AL14),"",", "&amp;AL14)
-&amp;IF(ISBLANK(AR14),"",", "&amp;AR14)
-&amp;IF(ISBLANK(AX14),"",", "&amp;AX14)
-&amp;IF(ISBLANK(BD14),"",", "&amp;BD14)
-&amp;IF(ISBLANK(BJ14),"",", "&amp;BJ14)</f>
-        <v>0.65, 1, 1</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="N14">
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R14">
-        <v>0.7</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W14" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X14">
-        <v>0.1</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="3"/>
-      <c r="AC14" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AG14" s="3"/>
-      <c r="AI14" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AM14" s="3"/>
-      <c r="AO14" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AS14" s="3"/>
-      <c r="AU14" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BA14" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BE14" s="3"/>
-      <c r="BG14" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:70">
-      <c r="A15">
-        <v>6002</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="41"/>
-        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7, 5, 5, 5</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>, , , e, e, e</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="44"/>
-        <v>0.085, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>0.685, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>8.500000000000002E-2</v>
-      </c>
-      <c r="N15">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R15">
-        <v>0.7</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W15" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X15">
-        <v>0.1</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC15" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD15">
-        <v>0.5</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI15" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ15">
-        <v>0.1</v>
-      </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO15" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AP15">
-        <v>0.05</v>
-      </c>
-      <c r="AQ15">
-        <v>1</v>
-      </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="3"/>
-      <c r="AU15" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BA15" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BE15" s="3"/>
-      <c r="BG15" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:70">
-      <c r="A16">
-        <v>6003</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="41"/>
-        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7, 5, 5, 5</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>, , , e, e, e</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f t="shared" si="44"/>
-        <v>0.12, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>0.72, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.12</v>
-      </c>
-      <c r="N16">
-        <v>0.72</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R16">
-        <v>0.7</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W16" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X16">
-        <v>0.1</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC16" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD16">
-        <v>0.5</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI16" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ16">
-        <v>0.1</v>
-      </c>
-      <c r="AK16">
-        <v>1</v>
-      </c>
-      <c r="AL16">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO16" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AP16">
-        <v>0.05</v>
-      </c>
-      <c r="AQ16">
-        <v>1</v>
-      </c>
-      <c r="AR16">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="3"/>
-      <c r="AU16" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BA16" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BE16" s="3"/>
-      <c r="BG16" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:62">
-      <c r="A17">
-        <v>6004</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="41"/>
-        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 7, 7, 5, 5, 5</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>, , , e, e, e</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f t="shared" si="44"/>
-        <v>0.155, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>0.755, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.15500000000000003</v>
-      </c>
-      <c r="N17">
-        <v>0.755</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R17">
-        <v>0.7</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W17" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X17">
-        <v>0.1</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC17" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD17">
-        <v>0.5</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI17" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ17">
-        <v>0.1</v>
-      </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
-      <c r="AL17">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO17" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AP17">
-        <v>0.05</v>
-      </c>
-      <c r="AQ17">
-        <v>1</v>
-      </c>
-      <c r="AR17">
-        <v>1</v>
-      </c>
-      <c r="AS17" s="3"/>
-      <c r="AU17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BA17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BE17" s="3"/>
-      <c r="BG17" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:62">
-      <c r="A18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" ref="C18" si="46">IF(ISBLANK(I18),"",I18)
-&amp;IF(ISBLANK(O18),"",", "&amp;O18)
-&amp;IF(ISBLANK(U18),"",", "&amp;U18)
-&amp;IF(ISBLANK(AA18),"",", "&amp;AA18)
-&amp;IF(ISBLANK(AG18),"",", "&amp;AG18)
-&amp;IF(ISBLANK(AM18),"",", "&amp;AM18)
-&amp;IF(ISBLANK(AS18),"",", "&amp;AS18)
-&amp;IF(ISBLANK(AY18),"",", "&amp;AY18)
-&amp;IF(ISBLANK(BE18),"",", "&amp;BE18)</f>
-        <v>Gacha</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" ref="E18" si="47">IF(ISBLANK(J18),"",J18)
-&amp;IF(ISBLANK(O18),"",", "&amp;P18)
-&amp;IF(ISBLANK(U18),"",", "&amp;V18)
-&amp;IF(ISBLANK(AA18),"",", "&amp;AB18)
-&amp;IF(ISBLANK(AG18),"",", "&amp;AH18)
-&amp;IF(ISBLANK(AM18),"",", "&amp;AN18)
-&amp;IF(ISBLANK(AS18),"",", "&amp;AT18)
-&amp;IF(ISBLANK(AY18),"",", "&amp;AZ18)
-&amp;IF(ISBLANK(BE18),"",", "&amp;BF18)</f>
-        <v>g</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" ref="F18" si="48">IF(ISBLANK(L18),"",L18)
-&amp;IF(ISBLANK(R18),"",", "&amp;R18)
-&amp;IF(ISBLANK(X18),"",", "&amp;X18)
-&amp;IF(ISBLANK(AD18),"",", "&amp;AD18)
-&amp;IF(ISBLANK(AJ18),"",", "&amp;AJ18)
-&amp;IF(ISBLANK(AP18),"",", "&amp;AP18)
-&amp;IF(ISBLANK(AV18),"",", "&amp;AV18)
-&amp;IF(ISBLANK(BB18),"",", "&amp;BB18)
-&amp;IF(ISBLANK(BH18),"",", "&amp;BH18)</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f t="shared" ref="G18" si="49">IF(ISBLANK(M18),"",M18)
-&amp;IF(ISBLANK(S18),"",", "&amp;S18)
-&amp;IF(ISBLANK(Y18),"",", "&amp;Y18)
-&amp;IF(ISBLANK(AE18),"",", "&amp;AE18)
-&amp;IF(ISBLANK(AK18),"",", "&amp;AK18)
-&amp;IF(ISBLANK(AQ18),"",", "&amp;AQ18)
-&amp;IF(ISBLANK(AW18),"",", "&amp;AW18)
-&amp;IF(ISBLANK(BC18),"",", "&amp;BC18)
-&amp;IF(ISBLANK(BI18),"",", "&amp;BI18)</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" ref="H18" si="50">IF(ISBLANK(N18),"",N18)
-&amp;IF(ISBLANK(T18),"",", "&amp;T18)
-&amp;IF(ISBLANK(Z18),"",", "&amp;Z18)
-&amp;IF(ISBLANK(AF18),"",", "&amp;AF18)
-&amp;IF(ISBLANK(AL18),"",", "&amp;AL18)
-&amp;IF(ISBLANK(AR18),"",", "&amp;AR18)
-&amp;IF(ISBLANK(AX18),"",", "&amp;AX18)
-&amp;IF(ISBLANK(BD18),"",", "&amp;BD18)
-&amp;IF(ISBLANK(BJ18),"",", "&amp;BJ18)</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="Q18" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U18" s="3"/>
-      <c r="W18" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AA18" s="3"/>
-      <c r="AC18" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AG18" s="3"/>
-      <c r="AI18" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AM18" s="3"/>
-      <c r="AO18" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AS18" s="3"/>
-      <c r="AU18" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AY18" s="3"/>
-      <c r="BA18" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BE18" s="3"/>
-      <c r="BG18" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:62">
-      <c r="A19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" ref="C19:C23" si="51">IF(ISBLANK(I19),"",I19)
-&amp;IF(ISBLANK(O19),"",", "&amp;O19)
-&amp;IF(ISBLANK(U19),"",", "&amp;U19)
-&amp;IF(ISBLANK(AA19),"",", "&amp;AA19)
-&amp;IF(ISBLANK(AG19),"",", "&amp;AG19)
-&amp;IF(ISBLANK(AM19),"",", "&amp;AM19)
-&amp;IF(ISBLANK(AS19),"",", "&amp;AS19)
-&amp;IF(ISBLANK(AY19),"",", "&amp;AY19)
-&amp;IF(ISBLANK(BE19),"",", "&amp;BE19)</f>
-        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5, 5, 5, 5, 5, 5, 5, 5</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" ref="E19:E23" si="52">IF(ISBLANK(J19),"",J19)
-&amp;IF(ISBLANK(O19),"",", "&amp;P19)
-&amp;IF(ISBLANK(U19),"",", "&amp;V19)
-&amp;IF(ISBLANK(AA19),"",", "&amp;AB19)
-&amp;IF(ISBLANK(AG19),"",", "&amp;AH19)
-&amp;IF(ISBLANK(AM19),"",", "&amp;AN19)
-&amp;IF(ISBLANK(AS19),"",", "&amp;AT19)
-&amp;IF(ISBLANK(AY19),"",", "&amp;AZ19)
-&amp;IF(ISBLANK(BE19),"",", "&amp;BF19)</f>
-        <v>g, g, g, g, g, g, g, g</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" ref="F19:F23" si="53">IF(ISBLANK(L19),"",L19)
-&amp;IF(ISBLANK(R19),"",", "&amp;R19)
-&amp;IF(ISBLANK(X19),"",", "&amp;X19)
-&amp;IF(ISBLANK(AD19),"",", "&amp;AD19)
-&amp;IF(ISBLANK(AJ19),"",", "&amp;AJ19)
-&amp;IF(ISBLANK(AP19),"",", "&amp;AP19)
-&amp;IF(ISBLANK(AV19),"",", "&amp;AV19)
-&amp;IF(ISBLANK(BB19),"",", "&amp;BB19)
-&amp;IF(ISBLANK(BH19),"",", "&amp;BH19)</f>
-        <v>1, 1, 1, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f t="shared" ref="G19:G23" si="54">IF(ISBLANK(M19),"",M19)
-&amp;IF(ISBLANK(S19),"",", "&amp;S19)
-&amp;IF(ISBLANK(Y19),"",", "&amp;Y19)
-&amp;IF(ISBLANK(AE19),"",", "&amp;AE19)
-&amp;IF(ISBLANK(AK19),"",", "&amp;AK19)
-&amp;IF(ISBLANK(AQ19),"",", "&amp;AQ19)
-&amp;IF(ISBLANK(AW19),"",", "&amp;AW19)
-&amp;IF(ISBLANK(BC19),"",", "&amp;BC19)
-&amp;IF(ISBLANK(BI19),"",", "&amp;BI19)</f>
-        <v>1, 1, 1, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" ref="H19:H23" si="55">IF(ISBLANK(N19),"",N19)
-&amp;IF(ISBLANK(T19),"",", "&amp;T19)
-&amp;IF(ISBLANK(Z19),"",", "&amp;Z19)
-&amp;IF(ISBLANK(AF19),"",", "&amp;AF19)
-&amp;IF(ISBLANK(AL19),"",", "&amp;AL19)
-&amp;IF(ISBLANK(AR19),"",", "&amp;AR19)
-&amp;IF(ISBLANK(AX19),"",", "&amp;AX19)
-&amp;IF(ISBLANK(BD19),"",", "&amp;BD19)
-&amp;IF(ISBLANK(BJ19),"",", "&amp;BJ19)</f>
-        <v>1, 1, 1, 1, 1, 1, 1, 1</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q19" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" t="s">
-        <v>82</v>
-      </c>
-      <c r="W19" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC19" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI19" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO19" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AP19">
-        <v>1</v>
-      </c>
-      <c r="AQ19">
-        <v>1</v>
-      </c>
-      <c r="AR19">
-        <v>1</v>
-      </c>
-      <c r="AS19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU19" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>1</v>
-      </c>
-      <c r="AY19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA19" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BB19">
-        <v>1</v>
-      </c>
-      <c r="BC19">
-        <v>1</v>
-      </c>
-      <c r="BD19">
-        <v>1</v>
-      </c>
-      <c r="BE19" s="3"/>
-      <c r="BG19" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:62">
-      <c r="A20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="51"/>
-        <v>Gold, Gold, Diamond, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2, 2, 8, 10, 10, 10, 10, 10, 9</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v>, , , , , , , , s</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>1, 1, 1, 1, 1, 1, 1, 1, 0.05</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f t="shared" si="54"/>
-        <v>1400, 1400, 3, 15, 15, 15, 15, 15, 1</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="55"/>
-        <v>1600, 1600, 3, 25, 25, 25, 25, 25, 1</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1400</v>
-      </c>
-      <c r="N20" s="5">
-        <v>1600</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1400</v>
-      </c>
-      <c r="T20">
-        <v>1600</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="W20" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>3</v>
-      </c>
-      <c r="AA20" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC20" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AE20">
-        <v>15</v>
-      </c>
-      <c r="AF20" s="7">
-        <v>25</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI20" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
-      <c r="AK20">
-        <v>15</v>
-      </c>
-      <c r="AL20">
-        <v>25</v>
-      </c>
-      <c r="AM20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO20" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20">
-        <v>15</v>
-      </c>
-      <c r="AR20">
-        <v>25</v>
-      </c>
-      <c r="AS20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU20" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AV20">
-        <v>1</v>
-      </c>
-      <c r="AW20">
-        <v>15</v>
-      </c>
-      <c r="AX20">
-        <v>25</v>
-      </c>
-      <c r="AY20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA20" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BB20">
-        <v>1</v>
-      </c>
-      <c r="BC20">
-        <v>15</v>
-      </c>
-      <c r="BD20">
-        <v>25</v>
-      </c>
-      <c r="BE20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG20" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BH20">
-        <v>0.05</v>
-      </c>
-      <c r="BI20">
-        <v>1</v>
-      </c>
-      <c r="BJ20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:62">
-      <c r="A21" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" ref="C21" si="56">IF(ISBLANK(I21),"",I21)
-&amp;IF(ISBLANK(O21),"",", "&amp;O21)
-&amp;IF(ISBLANK(U21),"",", "&amp;U21)
-&amp;IF(ISBLANK(AA21),"",", "&amp;AA21)
-&amp;IF(ISBLANK(AG21),"",", "&amp;AG21)
-&amp;IF(ISBLANK(AM21),"",", "&amp;AM21)
-&amp;IF(ISBLANK(AS21),"",", "&amp;AS21)
-&amp;IF(ISBLANK(AY21),"",", "&amp;AY21)
-&amp;IF(ISBLANK(BE21),"",", "&amp;BE21)</f>
-        <v>Gold, Gold, Diamond, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" ref="D21" ca="1" si="57">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D8" ca="1" si="32">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -10192,392 +8076,1028 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>2, 2, 8, 10, 10, 10, 10, 10, 9</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" ref="E21" si="58">IF(ISBLANK(J21),"",J21)
-&amp;IF(ISBLANK(O21),"",", "&amp;P21)
-&amp;IF(ISBLANK(U21),"",", "&amp;V21)
-&amp;IF(ISBLANK(AA21),"",", "&amp;AB21)
-&amp;IF(ISBLANK(AG21),"",", "&amp;AH21)
-&amp;IF(ISBLANK(AM21),"",", "&amp;AN21)
-&amp;IF(ISBLANK(AS21),"",", "&amp;AT21)
-&amp;IF(ISBLANK(AY21),"",", "&amp;AZ21)
-&amp;IF(ISBLANK(BE21),"",", "&amp;BF21)</f>
-        <v>, , , , , , , , s</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f t="shared" ref="F21" si="59">IF(ISBLANK(L21),"",L21)
-&amp;IF(ISBLANK(R21),"",", "&amp;R21)
-&amp;IF(ISBLANK(X21),"",", "&amp;X21)
-&amp;IF(ISBLANK(AD21),"",", "&amp;AD21)
-&amp;IF(ISBLANK(AJ21),"",", "&amp;AJ21)
-&amp;IF(ISBLANK(AP21),"",", "&amp;AP21)
-&amp;IF(ISBLANK(AV21),"",", "&amp;AV21)
-&amp;IF(ISBLANK(BB21),"",", "&amp;BB21)
-&amp;IF(ISBLANK(BH21),"",", "&amp;BH21)</f>
-        <v>1, 1, 1, 1, 1, 1, 1, 1, 0.05</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" ref="G21" si="60">IF(ISBLANK(M21),"",M21)
-&amp;IF(ISBLANK(S21),"",", "&amp;S21)
-&amp;IF(ISBLANK(Y21),"",", "&amp;Y21)
-&amp;IF(ISBLANK(AE21),"",", "&amp;AE21)
-&amp;IF(ISBLANK(AK21),"",", "&amp;AK21)
-&amp;IF(ISBLANK(AQ21),"",", "&amp;AQ21)
-&amp;IF(ISBLANK(AW21),"",", "&amp;AW21)
-&amp;IF(ISBLANK(BC21),"",", "&amp;BC21)
-&amp;IF(ISBLANK(BI21),"",", "&amp;BI21)</f>
-        <v>2800, 2800, 3, 30, 30, 30, 30, 30, 1</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" ref="H21" si="61">IF(ISBLANK(N21),"",N21)
-&amp;IF(ISBLANK(T21),"",", "&amp;T21)
-&amp;IF(ISBLANK(Z21),"",", "&amp;Z21)
-&amp;IF(ISBLANK(AF21),"",", "&amp;AF21)
-&amp;IF(ISBLANK(AL21),"",", "&amp;AL21)
-&amp;IF(ISBLANK(AR21),"",", "&amp;AR21)
-&amp;IF(ISBLANK(AX21),"",", "&amp;AX21)
-&amp;IF(ISBLANK(BD21),"",", "&amp;BD21)
-&amp;IF(ISBLANK(BJ21),"",", "&amp;BJ21)</f>
-        <v>3200, 3200, 3, 50, 50, 50, 50, 50, 1</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="4" t="str">
-        <f t="shared" ref="K21" si="62">IF(AND(OR(I21="Gacha",I21="Origin"),ISBLANK(J21)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2800</v>
-      </c>
-      <c r="N21" s="5">
-        <v>3200</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q21" s="4" t="str">
-        <f t="shared" ref="Q21" si="63">IF(AND(OR(O21="Gacha",O21="Origin"),ISBLANK(P21)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>2800</v>
-      </c>
-      <c r="T21">
-        <v>3200</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="W21" s="4" t="str">
-        <f t="shared" ref="W21" si="64">IF(AND(OR(U21="Gacha",U21="Origin"),ISBLANK(V21)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
+        <v>2, 1, 4, 5</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" ref="E8" si="33">IF(ISBLANK(J8),"",J8)
+&amp;IF(ISBLANK(O8),"",", "&amp;P8)
+&amp;IF(ISBLANK(U8),"",", "&amp;V8)
+&amp;IF(ISBLANK(AA8),"",", "&amp;AB8)
+&amp;IF(ISBLANK(AG8),"",", "&amp;AH8)
+&amp;IF(ISBLANK(AM8),"",", "&amp;AN8)
+&amp;IF(ISBLANK(AS8),"",", "&amp;AT8)
+&amp;IF(ISBLANK(AY8),"",", "&amp;AZ8)
+&amp;IF(ISBLANK(BE8),"",", "&amp;BF8)</f>
+        <v>, , , e</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" ref="F8" si="34">IF(ISBLANK(L8),"",L8)
+&amp;IF(ISBLANK(R8),"",", "&amp;R8)
+&amp;IF(ISBLANK(X8),"",", "&amp;X8)
+&amp;IF(ISBLANK(AD8),"",", "&amp;AD8)
+&amp;IF(ISBLANK(AJ8),"",", "&amp;AJ8)
+&amp;IF(ISBLANK(AP8),"",", "&amp;AP8)
+&amp;IF(ISBLANK(AV8),"",", "&amp;AV8)
+&amp;IF(ISBLANK(BB8),"",", "&amp;BB8)
+&amp;IF(ISBLANK(BH8),"",", "&amp;BH8)</f>
+        <v>1, 1, 0.075, 0.001</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" ref="G8" si="35">IF(ISBLANK(M8),"",M8)
+&amp;IF(ISBLANK(S8),"",", "&amp;S8)
+&amp;IF(ISBLANK(Y8),"",", "&amp;Y8)
+&amp;IF(ISBLANK(AE8),"",", "&amp;AE8)
+&amp;IF(ISBLANK(AK8),"",", "&amp;AK8)
+&amp;IF(ISBLANK(AQ8),"",", "&amp;AQ8)
+&amp;IF(ISBLANK(AW8),"",", "&amp;AW8)
+&amp;IF(ISBLANK(BC8),"",", "&amp;BC8)
+&amp;IF(ISBLANK(BI8),"",", "&amp;BI8)</f>
+        <v>0.155, 5, 1, 1</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" ref="H8" si="36">IF(ISBLANK(N8),"",N8)
+&amp;IF(ISBLANK(T8),"",", "&amp;T8)
+&amp;IF(ISBLANK(Z8),"",", "&amp;Z8)
+&amp;IF(ISBLANK(AF8),"",", "&amp;AF8)
+&amp;IF(ISBLANK(AL8),"",", "&amp;AL8)
+&amp;IF(ISBLANK(AR8),"",", "&amp;AR8)
+&amp;IF(ISBLANK(AX8),"",", "&amp;AX8)
+&amp;IF(ISBLANK(BD8),"",", "&amp;BD8)
+&amp;IF(ISBLANK(BJ8),"",", "&amp;BJ8)</f>
+        <v>0.755, 5, 1, 1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f t="shared" ref="K8" si="37">IF(AND(OR(I8="Gacha",I8="Origin"),ISBLANK(J8)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.755</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f t="shared" ref="Q8" si="38">IF(AND(OR(O8="Gacha",O8="Origin"),ISBLANK(P8)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="4" t="str">
+        <f t="shared" ref="W8" si="39">IF(AND(OR(U8="Gacha",U8="Origin"),ISBLANK(V8)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" s="4" t="str">
+        <f t="shared" ref="AC8" si="40">IF(AND(OR(AA8="Gacha",AA8="Origin"),ISBLANK(AB8)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AD8">
+        <v>1E-3</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3"/>
+      <c r="AI8" s="4" t="str">
+        <f t="shared" ref="AI8" si="41">IF(AND(OR(AG8="Gacha",AG8="Origin"),ISBLANK(AH8)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AM8" s="3"/>
+      <c r="AO8" s="4" t="str">
+        <f t="shared" ref="AO8" si="42">IF(AND(OR(AM8="Gacha",AM8="Origin"),ISBLANK(AN8)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AS8" s="3"/>
+      <c r="AU8" s="4" t="str">
+        <f t="shared" ref="AU8" si="43">IF(AND(OR(AS8="Gacha",AS8="Origin"),ISBLANK(AT8)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AY8" s="3"/>
+      <c r="BA8" s="4" t="str">
+        <f t="shared" ref="BA8" si="44">IF(AND(OR(AY8="Gacha",AY8="Origin"),ISBLANK(AZ8)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BE8" s="3"/>
+      <c r="BG8" s="4" t="str">
+        <f t="shared" ref="BG8" si="45">IF(AND(OR(BE8="Gacha",BE8="Origin"),ISBLANK(BF8)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BL8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BO8">
+        <v>5</v>
+      </c>
+      <c r="BP8">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70">
+      <c r="A9">
+        <v>5000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="26"/>
+        <v>Gold, Exp, Heart, LevelPack</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 1, 4, 3</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">, , , </v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>1, 1, 1, 1</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>0.015, 100, 2, 1</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>0.145, 100, 2, 1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N9">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AI9" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AM9" s="3"/>
+      <c r="AO9" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AS9" s="3"/>
+      <c r="AU9" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AY9" s="3"/>
+      <c r="BA9" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE9" s="3"/>
+      <c r="BG9" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="BL9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO9">
+        <v>2</v>
+      </c>
+      <c r="BP9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70">
+      <c r="A10">
+        <v>5001</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="21"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 1, 4, 3, 7, 7</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">, , , , , </v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>1, 1, 1, 1, 0.7, 0.1</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>0.05, 100, 2, 1, 1, 1</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>0.65, 100, 2, 1, 1, 1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="N10">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI10" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ10">
+        <v>0.7</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO10" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AP10">
+        <v>0.1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="3"/>
+      <c r="AU10" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AY10" s="3"/>
+      <c r="BA10" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE10" s="3"/>
+      <c r="BG10" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="BL10" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO10">
+        <v>7</v>
+      </c>
+      <c r="BP10">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70">
+      <c r="A11">
+        <v>5002</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ref="C11:C13" si="46">IF(ISBLANK(I11),"",I11)
+&amp;IF(ISBLANK(O11),"",", "&amp;O11)
+&amp;IF(ISBLANK(U11),"",", "&amp;U11)
+&amp;IF(ISBLANK(AA11),"",", "&amp;AA11)
+&amp;IF(ISBLANK(AG11),"",", "&amp;AG11)
+&amp;IF(ISBLANK(AM11),"",", "&amp;AM11)
+&amp;IF(ISBLANK(AS11),"",", "&amp;AS11)
+&amp;IF(ISBLANK(AY11),"",", "&amp;AY11)
+&amp;IF(ISBLANK(BE11),"",", "&amp;BE11)</f>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" ref="E11:E13" si="47">IF(ISBLANK(J11),"",J11)
+&amp;IF(ISBLANK(O11),"",", "&amp;P11)
+&amp;IF(ISBLANK(U11),"",", "&amp;V11)
+&amp;IF(ISBLANK(AA11),"",", "&amp;AB11)
+&amp;IF(ISBLANK(AG11),"",", "&amp;AH11)
+&amp;IF(ISBLANK(AM11),"",", "&amp;AN11)
+&amp;IF(ISBLANK(AS11),"",", "&amp;AT11)
+&amp;IF(ISBLANK(AY11),"",", "&amp;AZ11)
+&amp;IF(ISBLANK(BE11),"",", "&amp;BF11)</f>
+        <v>, , , , , , e, e</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" ref="F11:F13" si="48">IF(ISBLANK(L11),"",L11)
+&amp;IF(ISBLANK(R11),"",", "&amp;R11)
+&amp;IF(ISBLANK(X11),"",", "&amp;X11)
+&amp;IF(ISBLANK(AD11),"",", "&amp;AD11)
+&amp;IF(ISBLANK(AJ11),"",", "&amp;AJ11)
+&amp;IF(ISBLANK(AP11),"",", "&amp;AP11)
+&amp;IF(ISBLANK(AV11),"",", "&amp;AV11)
+&amp;IF(ISBLANK(BB11),"",", "&amp;BB11)
+&amp;IF(ISBLANK(BH11),"",", "&amp;BH11)</f>
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" ref="G11:G13" si="49">IF(ISBLANK(M11),"",M11)
+&amp;IF(ISBLANK(S11),"",", "&amp;S11)
+&amp;IF(ISBLANK(Y11),"",", "&amp;Y11)
+&amp;IF(ISBLANK(AE11),"",", "&amp;AE11)
+&amp;IF(ISBLANK(AK11),"",", "&amp;AK11)
+&amp;IF(ISBLANK(AQ11),"",", "&amp;AQ11)
+&amp;IF(ISBLANK(AW11),"",", "&amp;AW11)
+&amp;IF(ISBLANK(BC11),"",", "&amp;BC11)
+&amp;IF(ISBLANK(BI11),"",", "&amp;BI11)</f>
+        <v>0.085, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" ref="H11:H13" si="50">IF(ISBLANK(N11),"",N11)
+&amp;IF(ISBLANK(T11),"",", "&amp;T11)
+&amp;IF(ISBLANK(Z11),"",", "&amp;Z11)
+&amp;IF(ISBLANK(AF11),"",", "&amp;AF11)
+&amp;IF(ISBLANK(AL11),"",", "&amp;AL11)
+&amp;IF(ISBLANK(AR11),"",", "&amp;AR11)
+&amp;IF(ISBLANK(AX11),"",", "&amp;AX11)
+&amp;IF(ISBLANK(BD11),"",", "&amp;BD11)
+&amp;IF(ISBLANK(BJ11),"",", "&amp;BJ11)</f>
+        <v>0.685, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.500000000000002E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC11" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI11" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ11">
+        <v>0.7</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO11" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AP11">
+        <v>0.1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU11" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AV11">
+        <v>0.25</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA11" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BB11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="3"/>
+      <c r="BG11" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="BL11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BP11">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="Z21" s="5">
-        <v>3</v>
-      </c>
-      <c r="AA21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC21" s="4" t="str">
-        <f t="shared" ref="AC21" si="65">IF(AND(OR(AA21="Gacha",AA21="Origin"),ISBLANK(AB21)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>30</v>
-      </c>
-      <c r="AF21" s="7">
-        <v>50</v>
-      </c>
-      <c r="AG21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI21" s="4" t="str">
-        <f t="shared" ref="AI21" si="66">IF(AND(OR(AG21="Gacha",AG21="Origin"),ISBLANK(AH21)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
-      <c r="AK21">
-        <v>30</v>
-      </c>
-      <c r="AL21">
-        <v>50</v>
-      </c>
-      <c r="AM21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO21" s="4" t="str">
-        <f t="shared" ref="AO21" si="67">IF(AND(OR(AM21="Gacha",AM21="Origin"),ISBLANK(AN21)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21">
-        <v>30</v>
-      </c>
-      <c r="AR21">
-        <v>50</v>
-      </c>
-      <c r="AS21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU21" s="4" t="str">
-        <f t="shared" ref="AU21" si="68">IF(AND(OR(AS21="Gacha",AS21="Origin"),ISBLANK(AT21)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>30</v>
-      </c>
-      <c r="AX21">
-        <v>50</v>
-      </c>
-      <c r="AY21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA21" s="4" t="str">
-        <f t="shared" ref="BA21" si="69">IF(AND(OR(AY21="Gacha",AY21="Origin"),ISBLANK(AZ21)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="BB21">
-        <v>1</v>
-      </c>
-      <c r="BC21">
-        <v>30</v>
-      </c>
-      <c r="BD21">
-        <v>50</v>
-      </c>
-      <c r="BE21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG21" s="4" t="str">
-        <f t="shared" ref="BG21" si="70">IF(AND(OR(BE21="Gacha",BE21="Origin"),ISBLANK(BF21)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="BH21">
-        <v>0.05</v>
-      </c>
-      <c r="BI21">
-        <v>1</v>
-      </c>
-      <c r="BJ21">
-        <v>1</v>
-      </c>
     </row>
-    <row r="22" spans="1:62">
-      <c r="A22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="51"/>
-        <v>PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin, Origin</v>
-      </c>
-      <c r="D22" s="1" t="str">
+    <row r="12" spans="1:70">
+      <c r="A12">
+        <v>5003</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="46"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
+      </c>
+      <c r="D12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10, 10, 10, 10, 10, 10, 9, 9</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v>, , , , , , s, s</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>1, 1, 1, 1, 1, 1, 0.05, 0.05</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f t="shared" si="54"/>
-        <v>35, 35, 35, 35, 35, 35, 1, 1</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="55"/>
-        <v>45, 45, 45, 45, 45, 45, 1, 1</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="4" t="str">
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="47"/>
+        <v>, , , , , , e, e</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="48"/>
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="49"/>
+        <v>0.12, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="50"/>
+        <v>0.72, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>35</v>
-      </c>
-      <c r="N22">
-        <v>45</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q22" s="4" t="str">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.12</v>
+      </c>
+      <c r="N12">
+        <v>0.72</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22">
-        <v>35</v>
-      </c>
-      <c r="T22">
-        <v>45</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="W22" s="4" t="str">
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>35</v>
-      </c>
-      <c r="Z22">
-        <v>45</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC22" s="4" t="str">
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC12" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>35</v>
-      </c>
-      <c r="AF22" s="7">
-        <v>45</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI22" s="4" t="str">
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI12" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
-      <c r="AK22">
-        <v>35</v>
-      </c>
-      <c r="AL22">
-        <v>45</v>
-      </c>
-      <c r="AM22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO22" s="4" t="str">
+      <c r="AJ12">
+        <v>0.7</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO12" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AP22">
-        <v>1</v>
-      </c>
-      <c r="AQ22">
-        <v>35</v>
-      </c>
-      <c r="AR22">
-        <v>45</v>
-      </c>
-      <c r="AS22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU22" s="4" t="str">
+      <c r="AP12">
+        <v>0.1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU12" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AV22">
-        <v>0.05</v>
-      </c>
-      <c r="AW22">
-        <v>1</v>
-      </c>
-      <c r="AX22">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA22" s="4" t="str">
+      <c r="AV12">
+        <v>0.25</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA12" s="4" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BB22">
-        <v>0.05</v>
-      </c>
-      <c r="BC22">
-        <v>1</v>
-      </c>
-      <c r="BD22">
-        <v>1</v>
-      </c>
-      <c r="BE22" s="3"/>
-      <c r="BG22" s="4" t="str">
+      <c r="BB12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="3"/>
+      <c r="BG12" s="4" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:62">
-      <c r="A23" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="51"/>
-        <v>Gold</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" ref="D23" ca="1" si="71">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+    <row r="13" spans="1:70">
+      <c r="A13">
+        <v>5004</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="46"/>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="47"/>
+        <v>, , , , , , e, e</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="48"/>
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="49"/>
+        <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="50"/>
+        <v>0.755, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="N13">
+        <v>0.755</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13">
+        <v>100</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC13" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI13" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ13">
+        <v>0.7</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO13" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AP13">
+        <v>0.1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU13" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AV13">
+        <v>0.25</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA13" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BB13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="3"/>
+      <c r="BG13" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:70">
+      <c r="A14">
+        <v>5005</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14" si="51">IF(ISBLANK(I14),"",I14)
+&amp;IF(ISBLANK(O14),"",", "&amp;O14)
+&amp;IF(ISBLANK(U14),"",", "&amp;U14)
+&amp;IF(ISBLANK(AA14),"",", "&amp;AA14)
+&amp;IF(ISBLANK(AG14),"",", "&amp;AG14)
+&amp;IF(ISBLANK(AM14),"",", "&amp;AM14)
+&amp;IF(ISBLANK(AS14),"",", "&amp;AS14)
+&amp;IF(ISBLANK(AY14),"",", "&amp;AY14)
+&amp;IF(ISBLANK(BE14),"",", "&amp;BE14)</f>
+        <v>Gold, Exp, Heart, LevelPack, Seal, Seal, Gacha, Gacha</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ref="D14" ca="1" si="52">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C23,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C14,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -10603,86 +9123,1678 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 1, 4, 3, 7, 7, 5, 5</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" ref="E14" si="53">IF(ISBLANK(J14),"",J14)
+&amp;IF(ISBLANK(O14),"",", "&amp;P14)
+&amp;IF(ISBLANK(U14),"",", "&amp;V14)
+&amp;IF(ISBLANK(AA14),"",", "&amp;AB14)
+&amp;IF(ISBLANK(AG14),"",", "&amp;AH14)
+&amp;IF(ISBLANK(AM14),"",", "&amp;AN14)
+&amp;IF(ISBLANK(AS14),"",", "&amp;AT14)
+&amp;IF(ISBLANK(AY14),"",", "&amp;AZ14)
+&amp;IF(ISBLANK(BE14),"",", "&amp;BF14)</f>
+        <v>, , , , , , e, e</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" ref="F14" si="54">IF(ISBLANK(L14),"",L14)
+&amp;IF(ISBLANK(R14),"",", "&amp;R14)
+&amp;IF(ISBLANK(X14),"",", "&amp;X14)
+&amp;IF(ISBLANK(AD14),"",", "&amp;AD14)
+&amp;IF(ISBLANK(AJ14),"",", "&amp;AJ14)
+&amp;IF(ISBLANK(AP14),"",", "&amp;AP14)
+&amp;IF(ISBLANK(AV14),"",", "&amp;AV14)
+&amp;IF(ISBLANK(BB14),"",", "&amp;BB14)
+&amp;IF(ISBLANK(BH14),"",", "&amp;BH14)</f>
+        <v>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" ref="G14" si="55">IF(ISBLANK(M14),"",M14)
+&amp;IF(ISBLANK(S14),"",", "&amp;S14)
+&amp;IF(ISBLANK(Y14),"",", "&amp;Y14)
+&amp;IF(ISBLANK(AE14),"",", "&amp;AE14)
+&amp;IF(ISBLANK(AK14),"",", "&amp;AK14)
+&amp;IF(ISBLANK(AQ14),"",", "&amp;AQ14)
+&amp;IF(ISBLANK(AW14),"",", "&amp;AW14)
+&amp;IF(ISBLANK(BC14),"",", "&amp;BC14)
+&amp;IF(ISBLANK(BI14),"",", "&amp;BI14)</f>
+        <v>0.155, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" ref="H14" si="56">IF(ISBLANK(N14),"",N14)
+&amp;IF(ISBLANK(T14),"",", "&amp;T14)
+&amp;IF(ISBLANK(Z14),"",", "&amp;Z14)
+&amp;IF(ISBLANK(AF14),"",", "&amp;AF14)
+&amp;IF(ISBLANK(AL14),"",", "&amp;AL14)
+&amp;IF(ISBLANK(AR14),"",", "&amp;AR14)
+&amp;IF(ISBLANK(AX14),"",", "&amp;AX14)
+&amp;IF(ISBLANK(BD14),"",", "&amp;BD14)
+&amp;IF(ISBLANK(BJ14),"",", "&amp;BJ14)</f>
+        <v>0.755, 100, 2, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f t="shared" ref="K14" si="57">IF(AND(OR(I14="Gacha",I14="Origin"),ISBLANK(J14)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="N14">
+        <v>0.755</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f t="shared" ref="Q14" si="58">IF(AND(OR(O14="Gacha",O14="Origin"),ISBLANK(P14)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="4" t="str">
+        <f t="shared" ref="W14" si="59">IF(AND(OR(U14="Gacha",U14="Origin"),ISBLANK(V14)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
         <v>2</v>
       </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC14" s="4" t="str">
+        <f t="shared" ref="AC14" si="60">IF(AND(OR(AA14="Gacha",AA14="Origin"),ISBLANK(AB14)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI14" s="4" t="str">
+        <f t="shared" ref="AI14" si="61">IF(AND(OR(AG14="Gacha",AG14="Origin"),ISBLANK(AH14)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AJ14">
+        <v>0.7</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO14" s="4" t="str">
+        <f t="shared" ref="AO14" si="62">IF(AND(OR(AM14="Gacha",AM14="Origin"),ISBLANK(AN14)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AP14">
+        <v>0.1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU14" s="4" t="str">
+        <f t="shared" ref="AU14" si="63">IF(AND(OR(AS14="Gacha",AS14="Origin"),ISBLANK(AT14)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AV14">
+        <v>0.25</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA14" s="4" t="str">
+        <f t="shared" ref="BA14" si="64">IF(AND(OR(AY14="Gacha",AY14="Origin"),ISBLANK(AZ14)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BB14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC14">
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="3"/>
+      <c r="BG14" s="4" t="str">
+        <f t="shared" ref="BG14" si="65">IF(AND(OR(BE14="Gacha",BE14="Origin"),ISBLANK(BF14)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:70">
+      <c r="A15">
+        <v>6000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ref="C15" si="66">IF(ISBLANK(I15),"",I15)
+&amp;IF(ISBLANK(O15),"",", "&amp;O15)
+&amp;IF(ISBLANK(U15),"",", "&amp;U15)
+&amp;IF(ISBLANK(AA15),"",", "&amp;AA15)
+&amp;IF(ISBLANK(AG15),"",", "&amp;AG15)
+&amp;IF(ISBLANK(AM15),"",", "&amp;AM15)
+&amp;IF(ISBLANK(AS15),"",", "&amp;AS15)
+&amp;IF(ISBLANK(AY15),"",", "&amp;AY15)
+&amp;IF(ISBLANK(BE15),"",", "&amp;BE15)</f>
+        <v>Gold</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" ref="E15" si="67">IF(ISBLANK(J15),"",J15)
+&amp;IF(ISBLANK(O15),"",", "&amp;P15)
+&amp;IF(ISBLANK(U15),"",", "&amp;V15)
+&amp;IF(ISBLANK(AA15),"",", "&amp;AB15)
+&amp;IF(ISBLANK(AG15),"",", "&amp;AH15)
+&amp;IF(ISBLANK(AM15),"",", "&amp;AN15)
+&amp;IF(ISBLANK(AS15),"",", "&amp;AT15)
+&amp;IF(ISBLANK(AY15),"",", "&amp;AZ15)
+&amp;IF(ISBLANK(BE15),"",", "&amp;BF15)</f>
+        <v/>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" ref="F15" si="68">IF(ISBLANK(L15),"",L15)
+&amp;IF(ISBLANK(R15),"",", "&amp;R15)
+&amp;IF(ISBLANK(X15),"",", "&amp;X15)
+&amp;IF(ISBLANK(AD15),"",", "&amp;AD15)
+&amp;IF(ISBLANK(AJ15),"",", "&amp;AJ15)
+&amp;IF(ISBLANK(AP15),"",", "&amp;AP15)
+&amp;IF(ISBLANK(AV15),"",", "&amp;AV15)
+&amp;IF(ISBLANK(BB15),"",", "&amp;BB15)
+&amp;IF(ISBLANK(BH15),"",", "&amp;BH15)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" ref="G15" si="69">IF(ISBLANK(M15),"",M15)
+&amp;IF(ISBLANK(S15),"",", "&amp;S15)
+&amp;IF(ISBLANK(Y15),"",", "&amp;Y15)
+&amp;IF(ISBLANK(AE15),"",", "&amp;AE15)
+&amp;IF(ISBLANK(AK15),"",", "&amp;AK15)
+&amp;IF(ISBLANK(AQ15),"",", "&amp;AQ15)
+&amp;IF(ISBLANK(AW15),"",", "&amp;AW15)
+&amp;IF(ISBLANK(BC15),"",", "&amp;BC15)
+&amp;IF(ISBLANK(BI15),"",", "&amp;BI15)</f>
+        <v>0.015</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" ref="H15" si="70">IF(ISBLANK(N15),"",N15)
+&amp;IF(ISBLANK(T15),"",", "&amp;T15)
+&amp;IF(ISBLANK(Z15),"",", "&amp;Z15)
+&amp;IF(ISBLANK(AF15),"",", "&amp;AF15)
+&amp;IF(ISBLANK(AL15),"",", "&amp;AL15)
+&amp;IF(ISBLANK(AR15),"",", "&amp;AR15)
+&amp;IF(ISBLANK(AX15),"",", "&amp;AX15)
+&amp;IF(ISBLANK(BD15),"",", "&amp;BD15)
+&amp;IF(ISBLANK(BJ15),"",", "&amp;BJ15)</f>
+        <v>0.145</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N15">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="Q15" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="U15" s="3"/>
+      <c r="W15" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA15" s="3"/>
+      <c r="AC15" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG15" s="3"/>
+      <c r="AI15" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AM15" s="3"/>
+      <c r="AO15" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AS15" s="3"/>
+      <c r="AU15" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA15" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE15" s="3"/>
+      <c r="BG15" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:70">
+      <c r="A16">
+        <v>6001</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" ref="C16:C19" si="71">IF(ISBLANK(I16),"",I16)
+&amp;IF(ISBLANK(O16),"",", "&amp;O16)
+&amp;IF(ISBLANK(U16),"",", "&amp;U16)
+&amp;IF(ISBLANK(AA16),"",", "&amp;AA16)
+&amp;IF(ISBLANK(AG16),"",", "&amp;AG16)
+&amp;IF(ISBLANK(AM16),"",", "&amp;AM16)
+&amp;IF(ISBLANK(AS16),"",", "&amp;AS16)
+&amp;IF(ISBLANK(AY16),"",", "&amp;AY16)
+&amp;IF(ISBLANK(BE16),"",", "&amp;BE16)</f>
+        <v>Gold, Seal, Seal</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 7, 7</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" ref="E16:E19" si="72">IF(ISBLANK(J16),"",J16)
+&amp;IF(ISBLANK(O16),"",", "&amp;P16)
+&amp;IF(ISBLANK(U16),"",", "&amp;V16)
+&amp;IF(ISBLANK(AA16),"",", "&amp;AB16)
+&amp;IF(ISBLANK(AG16),"",", "&amp;AH16)
+&amp;IF(ISBLANK(AM16),"",", "&amp;AN16)
+&amp;IF(ISBLANK(AS16),"",", "&amp;AT16)
+&amp;IF(ISBLANK(AY16),"",", "&amp;AZ16)
+&amp;IF(ISBLANK(BE16),"",", "&amp;BF16)</f>
+        <v xml:space="preserve">, , </v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" ref="F16:F19" si="73">IF(ISBLANK(L16),"",L16)
+&amp;IF(ISBLANK(R16),"",", "&amp;R16)
+&amp;IF(ISBLANK(X16),"",", "&amp;X16)
+&amp;IF(ISBLANK(AD16),"",", "&amp;AD16)
+&amp;IF(ISBLANK(AJ16),"",", "&amp;AJ16)
+&amp;IF(ISBLANK(AP16),"",", "&amp;AP16)
+&amp;IF(ISBLANK(AV16),"",", "&amp;AV16)
+&amp;IF(ISBLANK(BB16),"",", "&amp;BB16)
+&amp;IF(ISBLANK(BH16),"",", "&amp;BH16)</f>
+        <v>1, 0.7, 0.1</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" ref="G16:G19" si="74">IF(ISBLANK(M16),"",M16)
+&amp;IF(ISBLANK(S16),"",", "&amp;S16)
+&amp;IF(ISBLANK(Y16),"",", "&amp;Y16)
+&amp;IF(ISBLANK(AE16),"",", "&amp;AE16)
+&amp;IF(ISBLANK(AK16),"",", "&amp;AK16)
+&amp;IF(ISBLANK(AQ16),"",", "&amp;AQ16)
+&amp;IF(ISBLANK(AW16),"",", "&amp;AW16)
+&amp;IF(ISBLANK(BC16),"",", "&amp;BC16)
+&amp;IF(ISBLANK(BI16),"",", "&amp;BI16)</f>
+        <v>0.05, 1, 1</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" ref="H16:H19" si="75">IF(ISBLANK(N16),"",N16)
+&amp;IF(ISBLANK(T16),"",", "&amp;T16)
+&amp;IF(ISBLANK(Z16),"",", "&amp;Z16)
+&amp;IF(ISBLANK(AF16),"",", "&amp;AF16)
+&amp;IF(ISBLANK(AL16),"",", "&amp;AL16)
+&amp;IF(ISBLANK(AR16),"",", "&amp;AR16)
+&amp;IF(ISBLANK(AX16),"",", "&amp;AX16)
+&amp;IF(ISBLANK(BD16),"",", "&amp;BD16)
+&amp;IF(ISBLANK(BJ16),"",", "&amp;BJ16)</f>
+        <v>0.65, 1, 1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="N16">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R16">
+        <v>0.7</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W16" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X16">
+        <v>0.1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="3"/>
+      <c r="AC16" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG16" s="3"/>
+      <c r="AI16" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AM16" s="3"/>
+      <c r="AO16" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AS16" s="3"/>
+      <c r="AU16" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA16" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE16" s="3"/>
+      <c r="BG16" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:62">
+      <c r="A17">
+        <v>6002</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="71"/>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 7, 7, 5, 5, 5</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="72"/>
+        <v>, , , e, e, e</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="73"/>
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="74"/>
+        <v>0.085, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="75"/>
+        <v>0.685, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.500000000000002E-2</v>
+      </c>
+      <c r="N17">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R17">
+        <v>0.7</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W17" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X17">
+        <v>0.1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AD17">
+        <v>0.5</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI17" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ17">
+        <v>0.1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AP17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="3"/>
+      <c r="AU17" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA17" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE17" s="3"/>
+      <c r="BG17" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:62">
+      <c r="A18">
+        <v>6003</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="71"/>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 7, 7, 5, 5, 5</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="72"/>
+        <v>, , , e, e, e</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="73"/>
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="74"/>
+        <v>0.12, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="75"/>
+        <v>0.72, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.12</v>
+      </c>
+      <c r="N18">
+        <v>0.72</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R18">
+        <v>0.7</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W18" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X18">
+        <v>0.1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AD18">
+        <v>0.5</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ18">
+        <v>0.1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AP18">
+        <v>0.05</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="3"/>
+      <c r="AU18" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA18" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE18" s="3"/>
+      <c r="BG18" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:62">
+      <c r="A19">
+        <v>6004</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="71"/>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 7, 7, 5, 5, 5</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="72"/>
+        <v>, , , e, e, e</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="73"/>
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="74"/>
+        <v>0.155, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="75"/>
+        <v>0.755, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="N19">
+        <v>0.755</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R19">
+        <v>0.7</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W19" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X19">
+        <v>0.1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AD19">
+        <v>0.5</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI19" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ19">
+        <v>0.1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO19" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AP19">
+        <v>0.05</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="3"/>
+      <c r="AU19" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA19" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE19" s="3"/>
+      <c r="BG19" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:62">
+      <c r="A20">
+        <v>6005</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ref="C20" si="76">IF(ISBLANK(I20),"",I20)
+&amp;IF(ISBLANK(O20),"",", "&amp;O20)
+&amp;IF(ISBLANK(U20),"",", "&amp;U20)
+&amp;IF(ISBLANK(AA20),"",", "&amp;AA20)
+&amp;IF(ISBLANK(AG20),"",", "&amp;AG20)
+&amp;IF(ISBLANK(AM20),"",", "&amp;AM20)
+&amp;IF(ISBLANK(AS20),"",", "&amp;AS20)
+&amp;IF(ISBLANK(AY20),"",", "&amp;AY20)
+&amp;IF(ISBLANK(BE20),"",", "&amp;BE20)</f>
+        <v>Gold, Seal, Seal, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" ref="D20" ca="1" si="77">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C20,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>2, 7, 7, 5, 5, 5</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" ref="E20" si="78">IF(ISBLANK(J20),"",J20)
+&amp;IF(ISBLANK(O20),"",", "&amp;P20)
+&amp;IF(ISBLANK(U20),"",", "&amp;V20)
+&amp;IF(ISBLANK(AA20),"",", "&amp;AB20)
+&amp;IF(ISBLANK(AG20),"",", "&amp;AH20)
+&amp;IF(ISBLANK(AM20),"",", "&amp;AN20)
+&amp;IF(ISBLANK(AS20),"",", "&amp;AT20)
+&amp;IF(ISBLANK(AY20),"",", "&amp;AZ20)
+&amp;IF(ISBLANK(BE20),"",", "&amp;BF20)</f>
+        <v>, , , e, e, e</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" ref="F20" si="79">IF(ISBLANK(L20),"",L20)
+&amp;IF(ISBLANK(R20),"",", "&amp;R20)
+&amp;IF(ISBLANK(X20),"",", "&amp;X20)
+&amp;IF(ISBLANK(AD20),"",", "&amp;AD20)
+&amp;IF(ISBLANK(AJ20),"",", "&amp;AJ20)
+&amp;IF(ISBLANK(AP20),"",", "&amp;AP20)
+&amp;IF(ISBLANK(AV20),"",", "&amp;AV20)
+&amp;IF(ISBLANK(BB20),"",", "&amp;BB20)
+&amp;IF(ISBLANK(BH20),"",", "&amp;BH20)</f>
+        <v>1, 0.7, 0.1, 0.5, 0.1, 0.05</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" ref="G20" si="80">IF(ISBLANK(M20),"",M20)
+&amp;IF(ISBLANK(S20),"",", "&amp;S20)
+&amp;IF(ISBLANK(Y20),"",", "&amp;Y20)
+&amp;IF(ISBLANK(AE20),"",", "&amp;AE20)
+&amp;IF(ISBLANK(AK20),"",", "&amp;AK20)
+&amp;IF(ISBLANK(AQ20),"",", "&amp;AQ20)
+&amp;IF(ISBLANK(AW20),"",", "&amp;AW20)
+&amp;IF(ISBLANK(BC20),"",", "&amp;BC20)
+&amp;IF(ISBLANK(BI20),"",", "&amp;BI20)</f>
+        <v>0.155, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" ref="H20" si="81">IF(ISBLANK(N20),"",N20)
+&amp;IF(ISBLANK(T20),"",", "&amp;T20)
+&amp;IF(ISBLANK(Z20),"",", "&amp;Z20)
+&amp;IF(ISBLANK(AF20),"",", "&amp;AF20)
+&amp;IF(ISBLANK(AL20),"",", "&amp;AL20)
+&amp;IF(ISBLANK(AR20),"",", "&amp;AR20)
+&amp;IF(ISBLANK(AX20),"",", "&amp;AX20)
+&amp;IF(ISBLANK(BD20),"",", "&amp;BD20)
+&amp;IF(ISBLANK(BJ20),"",", "&amp;BJ20)</f>
+        <v>0.755, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f t="shared" ref="K20" si="82">IF(AND(OR(I20="Gacha",I20="Origin"),ISBLANK(J20)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="N20">
+        <v>0.755</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <f t="shared" ref="Q20" si="83">IF(AND(OR(O20="Gacha",O20="Origin"),ISBLANK(P20)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="R20">
+        <v>0.7</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W20" s="4" t="str">
+        <f t="shared" ref="W20" si="84">IF(AND(OR(U20="Gacha",U20="Origin"),ISBLANK(V20)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <v>0.1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" s="4" t="str">
+        <f t="shared" ref="AC20" si="85">IF(AND(OR(AA20="Gacha",AA20="Origin"),ISBLANK(AB20)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AD20">
+        <v>0.5</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI20" s="4" t="str">
+        <f t="shared" ref="AI20" si="86">IF(AND(OR(AG20="Gacha",AG20="Origin"),ISBLANK(AH20)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AJ20">
+        <v>0.1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" s="4" t="str">
+        <f t="shared" ref="AO20" si="87">IF(AND(OR(AM20="Gacha",AM20="Origin"),ISBLANK(AN20)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AP20">
+        <v>0.05</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="3"/>
+      <c r="AU20" s="4" t="str">
+        <f t="shared" ref="AU20" si="88">IF(AND(OR(AS20="Gacha",AS20="Origin"),ISBLANK(AT20)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BA20" s="4" t="str">
+        <f t="shared" ref="BA20" si="89">IF(AND(OR(AY20="Gacha",AY20="Origin"),ISBLANK(AZ20)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BE20" s="3"/>
+      <c r="BG20" s="4" t="str">
+        <f t="shared" ref="BG20" si="90">IF(AND(OR(BE20="Gacha",BE20="Origin"),ISBLANK(BF20)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:62">
+      <c r="A21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ref="C21" si="91">IF(ISBLANK(I21),"",I21)
+&amp;IF(ISBLANK(O21),"",", "&amp;O21)
+&amp;IF(ISBLANK(U21),"",", "&amp;U21)
+&amp;IF(ISBLANK(AA21),"",", "&amp;AA21)
+&amp;IF(ISBLANK(AG21),"",", "&amp;AG21)
+&amp;IF(ISBLANK(AM21),"",", "&amp;AM21)
+&amp;IF(ISBLANK(AS21),"",", "&amp;AS21)
+&amp;IF(ISBLANK(AY21),"",", "&amp;AY21)
+&amp;IF(ISBLANK(BE21),"",", "&amp;BE21)</f>
+        <v>Gacha</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" ref="E21" si="92">IF(ISBLANK(J21),"",J21)
+&amp;IF(ISBLANK(O21),"",", "&amp;P21)
+&amp;IF(ISBLANK(U21),"",", "&amp;V21)
+&amp;IF(ISBLANK(AA21),"",", "&amp;AB21)
+&amp;IF(ISBLANK(AG21),"",", "&amp;AH21)
+&amp;IF(ISBLANK(AM21),"",", "&amp;AN21)
+&amp;IF(ISBLANK(AS21),"",", "&amp;AT21)
+&amp;IF(ISBLANK(AY21),"",", "&amp;AZ21)
+&amp;IF(ISBLANK(BE21),"",", "&amp;BF21)</f>
+        <v>g</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" ref="F21" si="93">IF(ISBLANK(L21),"",L21)
+&amp;IF(ISBLANK(R21),"",", "&amp;R21)
+&amp;IF(ISBLANK(X21),"",", "&amp;X21)
+&amp;IF(ISBLANK(AD21),"",", "&amp;AD21)
+&amp;IF(ISBLANK(AJ21),"",", "&amp;AJ21)
+&amp;IF(ISBLANK(AP21),"",", "&amp;AP21)
+&amp;IF(ISBLANK(AV21),"",", "&amp;AV21)
+&amp;IF(ISBLANK(BB21),"",", "&amp;BB21)
+&amp;IF(ISBLANK(BH21),"",", "&amp;BH21)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" ref="G21" si="94">IF(ISBLANK(M21),"",M21)
+&amp;IF(ISBLANK(S21),"",", "&amp;S21)
+&amp;IF(ISBLANK(Y21),"",", "&amp;Y21)
+&amp;IF(ISBLANK(AE21),"",", "&amp;AE21)
+&amp;IF(ISBLANK(AK21),"",", "&amp;AK21)
+&amp;IF(ISBLANK(AQ21),"",", "&amp;AQ21)
+&amp;IF(ISBLANK(AW21),"",", "&amp;AW21)
+&amp;IF(ISBLANK(BC21),"",", "&amp;BC21)
+&amp;IF(ISBLANK(BI21),"",", "&amp;BI21)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" ref="H21" si="95">IF(ISBLANK(N21),"",N21)
+&amp;IF(ISBLANK(T21),"",", "&amp;T21)
+&amp;IF(ISBLANK(Z21),"",", "&amp;Z21)
+&amp;IF(ISBLANK(AF21),"",", "&amp;AF21)
+&amp;IF(ISBLANK(AL21),"",", "&amp;AL21)
+&amp;IF(ISBLANK(AR21),"",", "&amp;AR21)
+&amp;IF(ISBLANK(AX21),"",", "&amp;AX21)
+&amp;IF(ISBLANK(BD21),"",", "&amp;BD21)
+&amp;IF(ISBLANK(BJ21),"",", "&amp;BJ21)</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="Q21" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="W21" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA21" s="3"/>
+      <c r="AC21" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG21" s="3"/>
+      <c r="AI21" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AM21" s="3"/>
+      <c r="AO21" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AS21" s="3"/>
+      <c r="AU21" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AY21" s="3"/>
+      <c r="BA21" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE21" s="3"/>
+      <c r="BG21" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:62">
+      <c r="A22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:C26" si="96">IF(ISBLANK(I22),"",I22)
+&amp;IF(ISBLANK(O22),"",", "&amp;O22)
+&amp;IF(ISBLANK(U22),"",", "&amp;U22)
+&amp;IF(ISBLANK(AA22),"",", "&amp;AA22)
+&amp;IF(ISBLANK(AG22),"",", "&amp;AG22)
+&amp;IF(ISBLANK(AM22),"",", "&amp;AM22)
+&amp;IF(ISBLANK(AS22),"",", "&amp;AS22)
+&amp;IF(ISBLANK(AY22),"",", "&amp;AY22)
+&amp;IF(ISBLANK(BE22),"",", "&amp;BE22)</f>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5, 5, 5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" ref="E22:E26" si="97">IF(ISBLANK(J22),"",J22)
+&amp;IF(ISBLANK(O22),"",", "&amp;P22)
+&amp;IF(ISBLANK(U22),"",", "&amp;V22)
+&amp;IF(ISBLANK(AA22),"",", "&amp;AB22)
+&amp;IF(ISBLANK(AG22),"",", "&amp;AH22)
+&amp;IF(ISBLANK(AM22),"",", "&amp;AN22)
+&amp;IF(ISBLANK(AS22),"",", "&amp;AT22)
+&amp;IF(ISBLANK(AY22),"",", "&amp;AZ22)
+&amp;IF(ISBLANK(BE22),"",", "&amp;BF22)</f>
+        <v>g, g, g, g, g, g, g, g</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" ref="F22:F26" si="98">IF(ISBLANK(L22),"",L22)
+&amp;IF(ISBLANK(R22),"",", "&amp;R22)
+&amp;IF(ISBLANK(X22),"",", "&amp;X22)
+&amp;IF(ISBLANK(AD22),"",", "&amp;AD22)
+&amp;IF(ISBLANK(AJ22),"",", "&amp;AJ22)
+&amp;IF(ISBLANK(AP22),"",", "&amp;AP22)
+&amp;IF(ISBLANK(AV22),"",", "&amp;AV22)
+&amp;IF(ISBLANK(BB22),"",", "&amp;BB22)
+&amp;IF(ISBLANK(BH22),"",", "&amp;BH22)</f>
+        <v>1, 1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" ref="G22:G26" si="99">IF(ISBLANK(M22),"",M22)
+&amp;IF(ISBLANK(S22),"",", "&amp;S22)
+&amp;IF(ISBLANK(Y22),"",", "&amp;Y22)
+&amp;IF(ISBLANK(AE22),"",", "&amp;AE22)
+&amp;IF(ISBLANK(AK22),"",", "&amp;AK22)
+&amp;IF(ISBLANK(AQ22),"",", "&amp;AQ22)
+&amp;IF(ISBLANK(AW22),"",", "&amp;AW22)
+&amp;IF(ISBLANK(BC22),"",", "&amp;BC22)
+&amp;IF(ISBLANK(BI22),"",", "&amp;BI22)</f>
+        <v>1, 1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" ref="H22:H26" si="100">IF(ISBLANK(N22),"",N22)
+&amp;IF(ISBLANK(T22),"",", "&amp;T22)
+&amp;IF(ISBLANK(Z22),"",", "&amp;Z22)
+&amp;IF(ISBLANK(AF22),"",", "&amp;AF22)
+&amp;IF(ISBLANK(AL22),"",", "&amp;AL22)
+&amp;IF(ISBLANK(AR22),"",", "&amp;AR22)
+&amp;IF(ISBLANK(AX22),"",", "&amp;AX22)
+&amp;IF(ISBLANK(BD22),"",", "&amp;BD22)
+&amp;IF(ISBLANK(BJ22),"",", "&amp;BJ22)</f>
+        <v>1, 1, 1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" t="s">
+        <v>82</v>
+      </c>
+      <c r="W22" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC22" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI22" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO22" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU22" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA22" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BB22">
+        <v>1</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="3"/>
+      <c r="BG22" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:62">
+      <c r="A23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="96"/>
+        <v>Gold, Gold, Diamond, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2, 2, 8, 10, 10, 10, 10, 10, 9</v>
+      </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v>1</v>
+        <f t="shared" si="97"/>
+        <v>, , , , , , , , s</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>1, 1, 1, 1, 1, 1, 1, 1, 0.05</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="54"/>
-        <v>9999</v>
+        <f t="shared" si="99"/>
+        <v>1400, 1400, 3, 15, 15, 15, 15, 15, 1</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="55"/>
-        <v>9999</v>
+        <f t="shared" si="100"/>
+        <v>1600, 1600, 3, 25, 25, 25, 25, 25, 1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="K23" s="4" t="str">
-        <f t="shared" ref="K23" si="72">IF(AND(OR(I23="Gacha",I23="Origin"),ISBLANK(J23)),"서브밸류 필요","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9999</v>
-      </c>
-      <c r="N23">
-        <v>9999</v>
-      </c>
-      <c r="O23" s="3"/>
+        <v>1400</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1600</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="Q23" s="4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1400</v>
+      </c>
+      <c r="T23">
+        <v>1600</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="W23" s="4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="AC23" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>15</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>25</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AI23" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>15</v>
+      </c>
+      <c r="AL23">
+        <v>25</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AO23" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>15</v>
+      </c>
+      <c r="AR23">
+        <v>25</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AU23" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>15</v>
+      </c>
+      <c r="AX23">
+        <v>25</v>
+      </c>
+      <c r="AY23" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="BA23" s="4" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>15</v>
+      </c>
+      <c r="BD23">
+        <v>25</v>
+      </c>
+      <c r="BE23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>95</v>
+      </c>
       <c r="BG23" s="4" t="str">
         <f t="shared" si="20"/>
         <v/>
+      </c>
+      <c r="BH23">
+        <v>0.05</v>
+      </c>
+      <c r="BI23">
+        <v>1</v>
+      </c>
+      <c r="BJ23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:62">
       <c r="A24" s="10" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24" si="73">IF(ISBLANK(I24),"",I24)
+        <f t="shared" ref="C24" si="101">IF(ISBLANK(I24),"",I24)
 &amp;IF(ISBLANK(O24),"",", "&amp;O24)
 &amp;IF(ISBLANK(U24),"",", "&amp;U24)
 &amp;IF(ISBLANK(AA24),"",", "&amp;AA24)
@@ -10691,10 +10803,10 @@
 &amp;IF(ISBLANK(AS24),"",", "&amp;AS24)
 &amp;IF(ISBLANK(AY24),"",", "&amp;AY24)
 &amp;IF(ISBLANK(BE24),"",", "&amp;BE24)</f>
-        <v>Diamond</v>
+        <v>Gold, Gold, Diamond, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" ref="D24" ca="1" si="74">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D24" ca="1" si="102">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -10724,10 +10836,10 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>8</v>
+        <v>2, 2, 8, 10, 10, 10, 10, 10, 9</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" ref="E24" si="75">IF(ISBLANK(J24),"",J24)
+        <f t="shared" ref="E24" si="103">IF(ISBLANK(J24),"",J24)
 &amp;IF(ISBLANK(O24),"",", "&amp;P24)
 &amp;IF(ISBLANK(U24),"",", "&amp;V24)
 &amp;IF(ISBLANK(AA24),"",", "&amp;AB24)
@@ -10736,10 +10848,10 @@
 &amp;IF(ISBLANK(AS24),"",", "&amp;AT24)
 &amp;IF(ISBLANK(AY24),"",", "&amp;AZ24)
 &amp;IF(ISBLANK(BE24),"",", "&amp;BF24)</f>
-        <v>1</v>
+        <v>, , , , , , , , s</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" ref="F24" si="76">IF(ISBLANK(L24),"",L24)
+        <f t="shared" ref="F24" si="104">IF(ISBLANK(L24),"",L24)
 &amp;IF(ISBLANK(R24),"",", "&amp;R24)
 &amp;IF(ISBLANK(X24),"",", "&amp;X24)
 &amp;IF(ISBLANK(AD24),"",", "&amp;AD24)
@@ -10748,10 +10860,10 @@
 &amp;IF(ISBLANK(AV24),"",", "&amp;AV24)
 &amp;IF(ISBLANK(BB24),"",", "&amp;BB24)
 &amp;IF(ISBLANK(BH24),"",", "&amp;BH24)</f>
-        <v>1</v>
+        <v>1, 1, 1, 1, 1, 1, 1, 1, 0.05</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" ref="G24" si="77">IF(ISBLANK(M24),"",M24)
+        <f t="shared" ref="G24" si="105">IF(ISBLANK(M24),"",M24)
 &amp;IF(ISBLANK(S24),"",", "&amp;S24)
 &amp;IF(ISBLANK(Y24),"",", "&amp;Y24)
 &amp;IF(ISBLANK(AE24),"",", "&amp;AE24)
@@ -10760,10 +10872,10 @@
 &amp;IF(ISBLANK(AW24),"",", "&amp;AW24)
 &amp;IF(ISBLANK(BC24),"",", "&amp;BC24)
 &amp;IF(ISBLANK(BI24),"",", "&amp;BI24)</f>
-        <v>9999</v>
+        <v>2800, 2800, 3, 30, 30, 30, 30, 30, 1</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" ref="H24" si="78">IF(ISBLANK(N24),"",N24)
+        <f t="shared" ref="H24" si="106">IF(ISBLANK(N24),"",N24)
 &amp;IF(ISBLANK(T24),"",", "&amp;T24)
 &amp;IF(ISBLANK(Z24),"",", "&amp;Z24)
 &amp;IF(ISBLANK(AF24),"",", "&amp;AF24)
@@ -10772,223 +10884,322 @@
 &amp;IF(ISBLANK(AX24),"",", "&amp;AX24)
 &amp;IF(ISBLANK(BD24),"",", "&amp;BD24)
 &amp;IF(ISBLANK(BJ24),"",", "&amp;BJ24)</f>
-        <v>9999</v>
+        <v>3200, 3200, 3, 50, 50, 50, 50, 50, 1</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f t="shared" ref="K24" si="107">IF(AND(OR(I24="Gacha",I24="Origin"),ISBLANK(J24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2800</v>
+      </c>
+      <c r="N24" s="5">
+        <v>3200</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q24" s="4" t="str">
+        <f t="shared" ref="Q24" si="108">IF(AND(OR(O24="Gacha",O24="Origin"),ISBLANK(P24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>2800</v>
+      </c>
+      <c r="T24">
+        <v>3200</v>
+      </c>
+      <c r="U24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4" t="str">
-        <f t="shared" ref="K24" si="79">IF(AND(OR(I24="Gacha",I24="Origin"),ISBLANK(J24)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>9999</v>
-      </c>
-      <c r="N24">
-        <v>9999</v>
-      </c>
-      <c r="O24" s="3"/>
-      <c r="Q24" s="4" t="str">
-        <f t="shared" ref="Q24:Q27" si="80">IF(AND(OR(O24="Gacha",O24="Origin"),ISBLANK(P24)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
       <c r="W24" s="4" t="str">
-        <f t="shared" ref="W24" si="81">IF(AND(OR(U24="Gacha",U24="Origin"),ISBLANK(V24)),"서브밸류 필요","")</f>
-        <v/>
+        <f t="shared" ref="W24" si="109">IF(AND(OR(U24="Gacha",U24="Origin"),ISBLANK(V24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="AC24" s="4" t="str">
-        <f t="shared" ref="AC24:AC34" si="82">IF(AND(OR(AA24="Gacha",AA24="Origin"),ISBLANK(AB24)),"서브밸류 필요","")</f>
-        <v/>
+        <f t="shared" ref="AC24" si="110">IF(AND(OR(AA24="Gacha",AA24="Origin"),ISBLANK(AB24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>30</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>50</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="AI24" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" ref="AI24" si="111">IF(AND(OR(AG24="Gacha",AG24="Origin"),ISBLANK(AH24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>30</v>
+      </c>
+      <c r="AL24">
+        <v>50</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="AO24" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+        <f t="shared" ref="AO24" si="112">IF(AND(OR(AM24="Gacha",AM24="Origin"),ISBLANK(AN24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>30</v>
+      </c>
+      <c r="AR24">
+        <v>50</v>
+      </c>
+      <c r="AS24" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="AU24" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" ref="AU24" si="113">IF(AND(OR(AS24="Gacha",AS24="Origin"),ISBLANK(AT24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>30</v>
+      </c>
+      <c r="AX24">
+        <v>50</v>
+      </c>
+      <c r="AY24" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="BA24" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" ref="BA24" si="114">IF(AND(OR(AY24="Gacha",AY24="Origin"),ISBLANK(AZ24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <v>30</v>
+      </c>
+      <c r="BD24">
+        <v>50</v>
+      </c>
+      <c r="BE24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>95</v>
       </c>
       <c r="BG24" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" ref="BG24" si="115">IF(AND(OR(BE24="Gacha",BE24="Origin"),ISBLANK(BF24)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
+      <c r="BH24">
+        <v>0.05</v>
+      </c>
+      <c r="BI24">
+        <v>1</v>
+      </c>
+      <c r="BJ24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:62">
       <c r="A25" s="10" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ref="C25:C27" si="83">IF(ISBLANK(I25),"",I25)
-&amp;IF(ISBLANK(O25),"",", "&amp;O25)
-&amp;IF(ISBLANK(U25),"",", "&amp;U25)
-&amp;IF(ISBLANK(AA25),"",", "&amp;AA25)
-&amp;IF(ISBLANK(AG25),"",", "&amp;AG25)
-&amp;IF(ISBLANK(AM25),"",", "&amp;AM25)
-&amp;IF(ISBLANK(AS25),"",", "&amp;AS25)
-&amp;IF(ISBLANK(AY25),"",", "&amp;AY25)
-&amp;IF(ISBLANK(BE25),"",", "&amp;BE25)</f>
-        <v>Diamond, Gold</v>
+        <f t="shared" si="96"/>
+        <v>PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, PowerPoint, Origin, Origin</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" ref="D25:D27" ca="1" si="84">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C25,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>8, 2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10, 10, 10, 10, 10, 10, 9, 9</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" ref="E25:E27" si="85">IF(ISBLANK(J25),"",J25)
-&amp;IF(ISBLANK(O25),"",", "&amp;P25)
-&amp;IF(ISBLANK(U25),"",", "&amp;V25)
-&amp;IF(ISBLANK(AA25),"",", "&amp;AB25)
-&amp;IF(ISBLANK(AG25),"",", "&amp;AH25)
-&amp;IF(ISBLANK(AM25),"",", "&amp;AN25)
-&amp;IF(ISBLANK(AS25),"",", "&amp;AT25)
-&amp;IF(ISBLANK(AY25),"",", "&amp;AZ25)
-&amp;IF(ISBLANK(BE25),"",", "&amp;BF25)</f>
-        <v>1, 1</v>
+        <f t="shared" si="97"/>
+        <v>, , , , , , s, s</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" ref="F25:F27" si="86">IF(ISBLANK(L25),"",L25)
-&amp;IF(ISBLANK(R25),"",", "&amp;R25)
-&amp;IF(ISBLANK(X25),"",", "&amp;X25)
-&amp;IF(ISBLANK(AD25),"",", "&amp;AD25)
-&amp;IF(ISBLANK(AJ25),"",", "&amp;AJ25)
-&amp;IF(ISBLANK(AP25),"",", "&amp;AP25)
-&amp;IF(ISBLANK(AV25),"",", "&amp;AV25)
-&amp;IF(ISBLANK(BB25),"",", "&amp;BB25)
-&amp;IF(ISBLANK(BH25),"",", "&amp;BH25)</f>
-        <v>1, 1</v>
+        <f t="shared" si="98"/>
+        <v>1, 1, 1, 1, 1, 1, 0.05, 0.05</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" ref="G25:G27" si="87">IF(ISBLANK(M25),"",M25)
-&amp;IF(ISBLANK(S25),"",", "&amp;S25)
-&amp;IF(ISBLANK(Y25),"",", "&amp;Y25)
-&amp;IF(ISBLANK(AE25),"",", "&amp;AE25)
-&amp;IF(ISBLANK(AK25),"",", "&amp;AK25)
-&amp;IF(ISBLANK(AQ25),"",", "&amp;AQ25)
-&amp;IF(ISBLANK(AW25),"",", "&amp;AW25)
-&amp;IF(ISBLANK(BC25),"",", "&amp;BC25)
-&amp;IF(ISBLANK(BI25),"",", "&amp;BI25)</f>
-        <v>9999, 9999</v>
+        <f t="shared" si="99"/>
+        <v>35, 35, 35, 35, 35, 35, 1, 1</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" ref="H25:H27" si="88">IF(ISBLANK(N25),"",N25)
-&amp;IF(ISBLANK(T25),"",", "&amp;T25)
-&amp;IF(ISBLANK(Z25),"",", "&amp;Z25)
-&amp;IF(ISBLANK(AF25),"",", "&amp;AF25)
-&amp;IF(ISBLANK(AL25),"",", "&amp;AL25)
-&amp;IF(ISBLANK(AR25),"",", "&amp;AR25)
-&amp;IF(ISBLANK(AX25),"",", "&amp;AX25)
-&amp;IF(ISBLANK(BD25),"",", "&amp;BD25)
-&amp;IF(ISBLANK(BJ25),"",", "&amp;BJ25)</f>
-        <v>9999, 9999</v>
+        <f t="shared" si="100"/>
+        <v>45, 45, 45, 45, 45, 45, 1, 1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="K25" s="4" t="str">
-        <f t="shared" ref="K25:K27" si="89">IF(AND(OR(I25="Gacha",I25="Origin"),ISBLANK(J25)),"서브밸류 필요","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9999</v>
+        <v>35</v>
       </c>
       <c r="N25">
-        <v>9999</v>
+        <v>45</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="4" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="S25">
-        <v>9999</v>
+        <v>35</v>
       </c>
       <c r="T25">
-        <v>9999</v>
+        <v>45</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="W25" s="4" t="str">
-        <f t="shared" ref="W25" si="90">IF(AND(OR(U25="Gacha",U25="Origin"),ISBLANK(V25)),"서브밸류 필요","")</f>
-        <v/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>35</v>
+      </c>
+      <c r="Z25">
+        <v>45</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="AC25" s="4" t="str">
-        <f t="shared" si="82"/>
-        <v/>
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>35</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>45</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="AI25" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>35</v>
+      </c>
+      <c r="AL25">
+        <v>45</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AO25" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>35</v>
+      </c>
+      <c r="AR25">
+        <v>45</v>
+      </c>
+      <c r="AS25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>95</v>
+      </c>
       <c r="AU25" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
+      <c r="AV25">
+        <v>0.05</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>95</v>
+      </c>
       <c r="BA25" s="4" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="BB25">
+        <v>0.05</v>
+      </c>
+      <c r="BC25">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="3"/>
       <c r="BG25" s="4" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -10996,25 +11207,17 @@
     </row>
     <row r="26" spans="1:62">
       <c r="A26" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" ref="C26" si="91">IF(ISBLANK(I26),"",I26)
-&amp;IF(ISBLANK(O26),"",", "&amp;O26)
-&amp;IF(ISBLANK(U26),"",", "&amp;U26)
-&amp;IF(ISBLANK(AA26),"",", "&amp;AA26)
-&amp;IF(ISBLANK(AG26),"",", "&amp;AG26)
-&amp;IF(ISBLANK(AM26),"",", "&amp;AM26)
-&amp;IF(ISBLANK(AS26),"",", "&amp;AS26)
-&amp;IF(ISBLANK(AY26),"",", "&amp;AY26)
-&amp;IF(ISBLANK(BE26),"",", "&amp;BE26)</f>
-        <v>Diamond</v>
+        <f t="shared" si="96"/>
+        <v>Gold</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D26" ca="1" si="116">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -11044,64 +11247,32 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" ref="E26" si="92">IF(ISBLANK(J26),"",J26)
-&amp;IF(ISBLANK(O26),"",", "&amp;P26)
-&amp;IF(ISBLANK(U26),"",", "&amp;V26)
-&amp;IF(ISBLANK(AA26),"",", "&amp;AB26)
-&amp;IF(ISBLANK(AG26),"",", "&amp;AH26)
-&amp;IF(ISBLANK(AM26),"",", "&amp;AN26)
-&amp;IF(ISBLANK(AS26),"",", "&amp;AT26)
-&amp;IF(ISBLANK(AY26),"",", "&amp;AZ26)
-&amp;IF(ISBLANK(BE26),"",", "&amp;BF26)</f>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" ref="F26" si="93">IF(ISBLANK(L26),"",L26)
-&amp;IF(ISBLANK(R26),"",", "&amp;R26)
-&amp;IF(ISBLANK(X26),"",", "&amp;X26)
-&amp;IF(ISBLANK(AD26),"",", "&amp;AD26)
-&amp;IF(ISBLANK(AJ26),"",", "&amp;AJ26)
-&amp;IF(ISBLANK(AP26),"",", "&amp;AP26)
-&amp;IF(ISBLANK(AV26),"",", "&amp;AV26)
-&amp;IF(ISBLANK(BB26),"",", "&amp;BB26)
-&amp;IF(ISBLANK(BH26),"",", "&amp;BH26)</f>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" ref="G26" si="94">IF(ISBLANK(M26),"",M26)
-&amp;IF(ISBLANK(S26),"",", "&amp;S26)
-&amp;IF(ISBLANK(Y26),"",", "&amp;Y26)
-&amp;IF(ISBLANK(AE26),"",", "&amp;AE26)
-&amp;IF(ISBLANK(AK26),"",", "&amp;AK26)
-&amp;IF(ISBLANK(AQ26),"",", "&amp;AQ26)
-&amp;IF(ISBLANK(AW26),"",", "&amp;AW26)
-&amp;IF(ISBLANK(BC26),"",", "&amp;BC26)
-&amp;IF(ISBLANK(BI26),"",", "&amp;BI26)</f>
+        <f t="shared" si="99"/>
         <v>9999</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" ref="H26" si="95">IF(ISBLANK(N26),"",N26)
-&amp;IF(ISBLANK(T26),"",", "&amp;T26)
-&amp;IF(ISBLANK(Z26),"",", "&amp;Z26)
-&amp;IF(ISBLANK(AF26),"",", "&amp;AF26)
-&amp;IF(ISBLANK(AL26),"",", "&amp;AL26)
-&amp;IF(ISBLANK(AR26),"",", "&amp;AR26)
-&amp;IF(ISBLANK(AX26),"",", "&amp;AX26)
-&amp;IF(ISBLANK(BD26),"",", "&amp;BD26)
-&amp;IF(ISBLANK(BJ26),"",", "&amp;BJ26)</f>
+        <f t="shared" si="100"/>
         <v>9999</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" s="4" t="str">
-        <f t="shared" ref="K26" si="96">IF(AND(OR(I26="Gacha",I26="Origin"),ISBLANK(J26)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K26" si="117">IF(AND(OR(I26="Gacha",I26="Origin"),ISBLANK(J26)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L26">
@@ -11115,15 +11286,15 @@
       </c>
       <c r="O26" s="3"/>
       <c r="Q26" s="4" t="str">
-        <f t="shared" ref="Q26" si="97">IF(AND(OR(O26="Gacha",O26="Origin"),ISBLANK(P26)),"서브밸류 필요","")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="W26" s="4" t="str">
-        <f t="shared" ref="W26:W27" si="98">IF(AND(OR(U26="Gacha",U26="Origin"),ISBLANK(V26)),"서브밸류 필요","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC26" s="4" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AI26" s="4" t="str">
@@ -11149,104 +11320,152 @@
     </row>
     <row r="27" spans="1:62">
       <c r="A27" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="83"/>
-        <v>Gacha, Gacha</v>
+        <f t="shared" ref="C27" si="118">IF(ISBLANK(I27),"",I27)
+&amp;IF(ISBLANK(O27),"",", "&amp;O27)
+&amp;IF(ISBLANK(U27),"",", "&amp;U27)
+&amp;IF(ISBLANK(AA27),"",", "&amp;AA27)
+&amp;IF(ISBLANK(AG27),"",", "&amp;AG27)
+&amp;IF(ISBLANK(AM27),"",", "&amp;AM27)
+&amp;IF(ISBLANK(AS27),"",", "&amp;AS27)
+&amp;IF(ISBLANK(AY27),"",", "&amp;AY27)
+&amp;IF(ISBLANK(BE27),"",", "&amp;BE27)</f>
+        <v>Diamond</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" ca="1" si="84"/>
-        <v>5, 5</v>
+        <f t="shared" ref="D27" ca="1" si="119">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C27,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="85"/>
-        <v>o, o</v>
+        <f t="shared" ref="E27" si="120">IF(ISBLANK(J27),"",J27)
+&amp;IF(ISBLANK(O27),"",", "&amp;P27)
+&amp;IF(ISBLANK(U27),"",", "&amp;V27)
+&amp;IF(ISBLANK(AA27),"",", "&amp;AB27)
+&amp;IF(ISBLANK(AG27),"",", "&amp;AH27)
+&amp;IF(ISBLANK(AM27),"",", "&amp;AN27)
+&amp;IF(ISBLANK(AS27),"",", "&amp;AT27)
+&amp;IF(ISBLANK(AY27),"",", "&amp;AZ27)
+&amp;IF(ISBLANK(BE27),"",", "&amp;BF27)</f>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="86"/>
-        <v>1, 1</v>
+        <f t="shared" ref="F27" si="121">IF(ISBLANK(L27),"",L27)
+&amp;IF(ISBLANK(R27),"",", "&amp;R27)
+&amp;IF(ISBLANK(X27),"",", "&amp;X27)
+&amp;IF(ISBLANK(AD27),"",", "&amp;AD27)
+&amp;IF(ISBLANK(AJ27),"",", "&amp;AJ27)
+&amp;IF(ISBLANK(AP27),"",", "&amp;AP27)
+&amp;IF(ISBLANK(AV27),"",", "&amp;AV27)
+&amp;IF(ISBLANK(BB27),"",", "&amp;BB27)
+&amp;IF(ISBLANK(BH27),"",", "&amp;BH27)</f>
+        <v>1</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="87"/>
-        <v>1, 1</v>
+        <f t="shared" ref="G27" si="122">IF(ISBLANK(M27),"",M27)
+&amp;IF(ISBLANK(S27),"",", "&amp;S27)
+&amp;IF(ISBLANK(Y27),"",", "&amp;Y27)
+&amp;IF(ISBLANK(AE27),"",", "&amp;AE27)
+&amp;IF(ISBLANK(AK27),"",", "&amp;AK27)
+&amp;IF(ISBLANK(AQ27),"",", "&amp;AQ27)
+&amp;IF(ISBLANK(AW27),"",", "&amp;AW27)
+&amp;IF(ISBLANK(BC27),"",", "&amp;BC27)
+&amp;IF(ISBLANK(BI27),"",", "&amp;BI27)</f>
+        <v>9999</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" si="88"/>
-        <v>1, 1</v>
+        <f t="shared" ref="H27" si="123">IF(ISBLANK(N27),"",N27)
+&amp;IF(ISBLANK(T27),"",", "&amp;T27)
+&amp;IF(ISBLANK(Z27),"",", "&amp;Z27)
+&amp;IF(ISBLANK(AF27),"",", "&amp;AF27)
+&amp;IF(ISBLANK(AL27),"",", "&amp;AL27)
+&amp;IF(ISBLANK(AR27),"",", "&amp;AR27)
+&amp;IF(ISBLANK(AX27),"",", "&amp;AX27)
+&amp;IF(ISBLANK(BD27),"",", "&amp;BD27)
+&amp;IF(ISBLANK(BJ27),"",", "&amp;BJ27)</f>
+        <v>9999</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
       <c r="K27" s="4" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="K27" si="124">IF(AND(OR(I27="Gacha",I27="Origin"),ISBLANK(J27)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" t="s">
-        <v>111</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="O27" s="3"/>
       <c r="Q27" s="4" t="str">
-        <f t="shared" si="80"/>
-        <v/>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27" s="3"/>
+        <f t="shared" ref="Q27:Q30" si="125">IF(AND(OR(O27="Gacha",O27="Origin"),ISBLANK(P27)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="W27" s="4" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-      <c r="AA27" s="3"/>
+        <f t="shared" ref="W27" si="126">IF(AND(OR(U27="Gacha",U27="Origin"),ISBLANK(V27)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AC27" s="4" t="str">
-        <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="AG27" s="3"/>
+        <f t="shared" ref="AC27:AC36" si="127">IF(AND(OR(AA27="Gacha",AA27="Origin"),ISBLANK(AB27)),"서브밸류 필요","")</f>
+        <v/>
+      </c>
       <c r="AI27" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AM27" s="3"/>
       <c r="AO27" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AS27" s="3"/>
       <c r="AU27" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AY27" s="3"/>
       <c r="BA27" s="4" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BE27" s="3"/>
       <c r="BG27" s="4" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -11254,13 +11473,13 @@
     </row>
     <row r="28" spans="1:62">
       <c r="A28" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ref="C28:C32" si="99">IF(ISBLANK(I28),"",I28)
+        <f t="shared" ref="C28:C30" si="128">IF(ISBLANK(I28),"",I28)
 &amp;IF(ISBLANK(O28),"",", "&amp;O28)
 &amp;IF(ISBLANK(U28),"",", "&amp;U28)
 &amp;IF(ISBLANK(AA28),"",", "&amp;AA28)
@@ -11269,10 +11488,10 @@
 &amp;IF(ISBLANK(AS28),"",", "&amp;AS28)
 &amp;IF(ISBLANK(AY28),"",", "&amp;AY28)
 &amp;IF(ISBLANK(BE28),"",", "&amp;BE28)</f>
-        <v>Gacha, Gacha, Gacha</v>
+        <v>Diamond, Gold</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" ref="D28:D32" ca="1" si="100">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D28:D30" ca="1" si="129">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -11302,10 +11521,10 @@
 OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
-        <v>5, 5, 5</v>
+        <v>8, 2</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" ref="E28:E32" si="101">IF(ISBLANK(J28),"",J28)
+        <f t="shared" ref="E28:E30" si="130">IF(ISBLANK(J28),"",J28)
 &amp;IF(ISBLANK(O28),"",", "&amp;P28)
 &amp;IF(ISBLANK(U28),"",", "&amp;V28)
 &amp;IF(ISBLANK(AA28),"",", "&amp;AB28)
@@ -11314,10 +11533,10 @@
 &amp;IF(ISBLANK(AS28),"",", "&amp;AT28)
 &amp;IF(ISBLANK(AY28),"",", "&amp;AZ28)
 &amp;IF(ISBLANK(BE28),"",", "&amp;BF28)</f>
-        <v>o, o, o</v>
+        <v>1, 1</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" ref="F28:F32" si="102">IF(ISBLANK(L28),"",L28)
+        <f t="shared" ref="F28:F30" si="131">IF(ISBLANK(L28),"",L28)
 &amp;IF(ISBLANK(R28),"",", "&amp;R28)
 &amp;IF(ISBLANK(X28),"",", "&amp;X28)
 &amp;IF(ISBLANK(AD28),"",", "&amp;AD28)
@@ -11326,10 +11545,10 @@
 &amp;IF(ISBLANK(AV28),"",", "&amp;AV28)
 &amp;IF(ISBLANK(BB28),"",", "&amp;BB28)
 &amp;IF(ISBLANK(BH28),"",", "&amp;BH28)</f>
-        <v>1, 1, 1</v>
+        <v>1, 1</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" ref="G28:G32" si="103">IF(ISBLANK(M28),"",M28)
+        <f t="shared" ref="G28:G30" si="132">IF(ISBLANK(M28),"",M28)
 &amp;IF(ISBLANK(S28),"",", "&amp;S28)
 &amp;IF(ISBLANK(Y28),"",", "&amp;Y28)
 &amp;IF(ISBLANK(AE28),"",", "&amp;AE28)
@@ -11338,10 +11557,10 @@
 &amp;IF(ISBLANK(AW28),"",", "&amp;AW28)
 &amp;IF(ISBLANK(BC28),"",", "&amp;BC28)
 &amp;IF(ISBLANK(BI28),"",", "&amp;BI28)</f>
-        <v>1, 1, 1</v>
+        <v>9999, 9999</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" ref="H28:H32" si="104">IF(ISBLANK(N28),"",N28)
+        <f t="shared" ref="H28:H30" si="133">IF(ISBLANK(N28),"",N28)
 &amp;IF(ISBLANK(T28),"",", "&amp;T28)
 &amp;IF(ISBLANK(Z28),"",", "&amp;Z28)
 &amp;IF(ISBLANK(AF28),"",", "&amp;AF28)
@@ -11350,67 +11569,52 @@
 &amp;IF(ISBLANK(AX28),"",", "&amp;AX28)
 &amp;IF(ISBLANK(BD28),"",", "&amp;BD28)
 &amp;IF(ISBLANK(BJ28),"",", "&amp;BJ28)</f>
-        <v>1, 1, 1</v>
+        <v>9999, 9999</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
       <c r="K28" s="4" t="str">
-        <f t="shared" ref="K28:K34" si="105">IF(AND(OR(I28="Gacha",I28="Origin"),ISBLANK(J28)),"서브밸류 필요","")</f>
+        <f t="shared" ref="K28:K30" si="134">IF(AND(OR(I28="Gacha",I28="Origin"),ISBLANK(J28)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P28" t="s">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <f t="shared" ref="Q28:Q41" si="106">IF(AND(OR(O28="Gacha",O28="Origin"),ISBLANK(P28)),"서브밸류 필요","")</f>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V28" t="s">
-        <v>111</v>
+        <v>9999</v>
       </c>
       <c r="W28" s="4" t="str">
-        <f t="shared" ref="W28:W34" si="107">IF(AND(OR(U28="Gacha",U28="Origin"),ISBLANK(V28)),"서브밸류 필요","")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
+        <f t="shared" ref="W28" si="135">IF(AND(OR(U28="Gacha",U28="Origin"),ISBLANK(V28)),"서브밸류 필요","")</f>
+        <v/>
       </c>
       <c r="AC28" s="4" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="AI28" s="4" t="str">
@@ -11436,110 +11640,135 @@
     </row>
     <row r="29" spans="1:62">
       <c r="A29" s="10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="99"/>
-        <v>Gacha, Gacha, Gacha, Gacha</v>
+        <f t="shared" ref="C29" si="136">IF(ISBLANK(I29),"",I29)
+&amp;IF(ISBLANK(O29),"",", "&amp;O29)
+&amp;IF(ISBLANK(U29),"",", "&amp;U29)
+&amp;IF(ISBLANK(AA29),"",", "&amp;AA29)
+&amp;IF(ISBLANK(AG29),"",", "&amp;AG29)
+&amp;IF(ISBLANK(AM29),"",", "&amp;AM29)
+&amp;IF(ISBLANK(AS29),"",", "&amp;AS29)
+&amp;IF(ISBLANK(AY29),"",", "&amp;AY29)
+&amp;IF(ISBLANK(BE29),"",", "&amp;BE29)</f>
+        <v>Diamond</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" ca="1" si="100"/>
-        <v>5, 5, 5, 5</v>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C29,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="101"/>
-        <v>o, o, o, o</v>
+        <f t="shared" ref="E29" si="137">IF(ISBLANK(J29),"",J29)
+&amp;IF(ISBLANK(O29),"",", "&amp;P29)
+&amp;IF(ISBLANK(U29),"",", "&amp;V29)
+&amp;IF(ISBLANK(AA29),"",", "&amp;AB29)
+&amp;IF(ISBLANK(AG29),"",", "&amp;AH29)
+&amp;IF(ISBLANK(AM29),"",", "&amp;AN29)
+&amp;IF(ISBLANK(AS29),"",", "&amp;AT29)
+&amp;IF(ISBLANK(AY29),"",", "&amp;AZ29)
+&amp;IF(ISBLANK(BE29),"",", "&amp;BF29)</f>
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="102"/>
-        <v>1, 1, 1, 1</v>
+        <f t="shared" ref="F29" si="138">IF(ISBLANK(L29),"",L29)
+&amp;IF(ISBLANK(R29),"",", "&amp;R29)
+&amp;IF(ISBLANK(X29),"",", "&amp;X29)
+&amp;IF(ISBLANK(AD29),"",", "&amp;AD29)
+&amp;IF(ISBLANK(AJ29),"",", "&amp;AJ29)
+&amp;IF(ISBLANK(AP29),"",", "&amp;AP29)
+&amp;IF(ISBLANK(AV29),"",", "&amp;AV29)
+&amp;IF(ISBLANK(BB29),"",", "&amp;BB29)
+&amp;IF(ISBLANK(BH29),"",", "&amp;BH29)</f>
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="103"/>
-        <v>1, 1, 1, 1</v>
+        <f t="shared" ref="G29" si="139">IF(ISBLANK(M29),"",M29)
+&amp;IF(ISBLANK(S29),"",", "&amp;S29)
+&amp;IF(ISBLANK(Y29),"",", "&amp;Y29)
+&amp;IF(ISBLANK(AE29),"",", "&amp;AE29)
+&amp;IF(ISBLANK(AK29),"",", "&amp;AK29)
+&amp;IF(ISBLANK(AQ29),"",", "&amp;AQ29)
+&amp;IF(ISBLANK(AW29),"",", "&amp;AW29)
+&amp;IF(ISBLANK(BC29),"",", "&amp;BC29)
+&amp;IF(ISBLANK(BI29),"",", "&amp;BI29)</f>
+        <v>9999</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="104"/>
-        <v>1, 1, 1, 1</v>
+        <f t="shared" ref="H29" si="140">IF(ISBLANK(N29),"",N29)
+&amp;IF(ISBLANK(T29),"",", "&amp;T29)
+&amp;IF(ISBLANK(Z29),"",", "&amp;Z29)
+&amp;IF(ISBLANK(AF29),"",", "&amp;AF29)
+&amp;IF(ISBLANK(AL29),"",", "&amp;AL29)
+&amp;IF(ISBLANK(AR29),"",", "&amp;AR29)
+&amp;IF(ISBLANK(AX29),"",", "&amp;AX29)
+&amp;IF(ISBLANK(BD29),"",", "&amp;BD29)
+&amp;IF(ISBLANK(BJ29),"",", "&amp;BJ29)</f>
+        <v>9999</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="K29" s="4" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="K29" si="141">IF(AND(OR(I29="Gacha",I29="Origin"),ISBLANK(J29)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" t="s">
-        <v>111</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="O29" s="3"/>
       <c r="Q29" s="4" t="str">
-        <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V29" t="s">
-        <v>111</v>
+        <f t="shared" ref="Q29" si="142">IF(AND(OR(O29="Gacha",O29="Origin"),ISBLANK(P29)),"서브밸류 필요","")</f>
+        <v/>
       </c>
       <c r="W29" s="4" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>111</v>
+        <f t="shared" ref="W29:W30" si="143">IF(AND(OR(U29="Gacha",U29="Origin"),ISBLANK(V29)),"서브밸류 필요","")</f>
+        <v/>
       </c>
       <c r="AC29" s="4" t="str">
-        <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v/>
       </c>
       <c r="AI29" s="4" t="str">
         <f t="shared" si="16"/>
@@ -11564,34 +11793,34 @@
     </row>
     <row r="30" spans="1:62">
       <c r="A30" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="99"/>
-        <v>Gacha, Gacha, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="128"/>
+        <v>Gacha, Gacha</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" ca="1" si="100"/>
-        <v>5, 5, 5, 5, 5</v>
+        <f t="shared" ca="1" si="129"/>
+        <v>5, 5</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="101"/>
-        <v>o, o, o, o, o</v>
+        <f t="shared" si="130"/>
+        <v>o, o</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="102"/>
-        <v>1, 1, 1, 1, 1</v>
+        <f t="shared" si="131"/>
+        <v>1, 1</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="103"/>
-        <v>1, 1, 1, 1, 1</v>
+        <f t="shared" si="132"/>
+        <v>1, 1</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="104"/>
-        <v>1, 1, 1, 1, 1</v>
+        <f t="shared" si="133"/>
+        <v>1, 1</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>13</v>
@@ -11600,7 +11829,7 @@
         <v>111</v>
       </c>
       <c r="K30" s="4" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="134"/>
         <v/>
       </c>
       <c r="L30">
@@ -11619,7 +11848,7 @@
         <v>111</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="R30">
@@ -11631,75 +11860,37 @@
       <c r="T30">
         <v>1</v>
       </c>
-      <c r="U30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V30" t="s">
-        <v>111</v>
-      </c>
+      <c r="U30" s="3"/>
       <c r="W30" s="4" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>111</v>
-      </c>
+        <f t="shared" si="143"/>
+        <v/>
+      </c>
+      <c r="AA30" s="3"/>
       <c r="AC30" s="4" t="str">
-        <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>111</v>
-      </c>
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="AG30" s="3"/>
       <c r="AI30" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AJ30">
-        <v>1</v>
-      </c>
-      <c r="AK30">
-        <v>1</v>
-      </c>
-      <c r="AL30">
-        <v>1</v>
-      </c>
+      <c r="AM30" s="3"/>
       <c r="AO30" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
+      <c r="AS30" s="3"/>
       <c r="AU30" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
+      <c r="AY30" s="3"/>
       <c r="BA30" s="4" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="BE30" s="3"/>
       <c r="BG30" s="4" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -11707,34 +11898,103 @@
     </row>
     <row r="31" spans="1:62">
       <c r="A31" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="99"/>
-        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+        <f t="shared" ref="C31:C35" si="144">IF(ISBLANK(I31),"",I31)
+&amp;IF(ISBLANK(O31),"",", "&amp;O31)
+&amp;IF(ISBLANK(U31),"",", "&amp;U31)
+&amp;IF(ISBLANK(AA31),"",", "&amp;AA31)
+&amp;IF(ISBLANK(AG31),"",", "&amp;AG31)
+&amp;IF(ISBLANK(AM31),"",", "&amp;AM31)
+&amp;IF(ISBLANK(AS31),"",", "&amp;AS31)
+&amp;IF(ISBLANK(AY31),"",", "&amp;AY31)
+&amp;IF(ISBLANK(BE31),"",", "&amp;BE31)</f>
+        <v>Gacha, Gacha, Gacha</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" ca="1" si="100"/>
-        <v>5, 5, 5, 5, 5, 5</v>
+        <f t="shared" ref="D31:D35" ca="1" si="145">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C31,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v>5, 5, 5</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="101"/>
-        <v>o, o, o, o, o, o</v>
+        <f t="shared" ref="E31:E35" si="146">IF(ISBLANK(J31),"",J31)
+&amp;IF(ISBLANK(O31),"",", "&amp;P31)
+&amp;IF(ISBLANK(U31),"",", "&amp;V31)
+&amp;IF(ISBLANK(AA31),"",", "&amp;AB31)
+&amp;IF(ISBLANK(AG31),"",", "&amp;AH31)
+&amp;IF(ISBLANK(AM31),"",", "&amp;AN31)
+&amp;IF(ISBLANK(AS31),"",", "&amp;AT31)
+&amp;IF(ISBLANK(AY31),"",", "&amp;AZ31)
+&amp;IF(ISBLANK(BE31),"",", "&amp;BF31)</f>
+        <v>o, o, o</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="102"/>
-        <v>1, 1, 1, 1, 1, 1</v>
+        <f t="shared" ref="F31:F35" si="147">IF(ISBLANK(L31),"",L31)
+&amp;IF(ISBLANK(R31),"",", "&amp;R31)
+&amp;IF(ISBLANK(X31),"",", "&amp;X31)
+&amp;IF(ISBLANK(AD31),"",", "&amp;AD31)
+&amp;IF(ISBLANK(AJ31),"",", "&amp;AJ31)
+&amp;IF(ISBLANK(AP31),"",", "&amp;AP31)
+&amp;IF(ISBLANK(AV31),"",", "&amp;AV31)
+&amp;IF(ISBLANK(BB31),"",", "&amp;BB31)
+&amp;IF(ISBLANK(BH31),"",", "&amp;BH31)</f>
+        <v>1, 1, 1</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="103"/>
-        <v>1, 1, 1, 1, 1, 1</v>
+        <f t="shared" ref="G31:G35" si="148">IF(ISBLANK(M31),"",M31)
+&amp;IF(ISBLANK(S31),"",", "&amp;S31)
+&amp;IF(ISBLANK(Y31),"",", "&amp;Y31)
+&amp;IF(ISBLANK(AE31),"",", "&amp;AE31)
+&amp;IF(ISBLANK(AK31),"",", "&amp;AK31)
+&amp;IF(ISBLANK(AQ31),"",", "&amp;AQ31)
+&amp;IF(ISBLANK(AW31),"",", "&amp;AW31)
+&amp;IF(ISBLANK(BC31),"",", "&amp;BC31)
+&amp;IF(ISBLANK(BI31),"",", "&amp;BI31)</f>
+        <v>1, 1, 1</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f t="shared" si="104"/>
-        <v>1, 1, 1, 1, 1, 1</v>
+        <f t="shared" ref="H31:H35" si="149">IF(ISBLANK(N31),"",N31)
+&amp;IF(ISBLANK(T31),"",", "&amp;T31)
+&amp;IF(ISBLANK(Z31),"",", "&amp;Z31)
+&amp;IF(ISBLANK(AF31),"",", "&amp;AF31)
+&amp;IF(ISBLANK(AL31),"",", "&amp;AL31)
+&amp;IF(ISBLANK(AR31),"",", "&amp;AR31)
+&amp;IF(ISBLANK(AX31),"",", "&amp;AX31)
+&amp;IF(ISBLANK(BD31),"",", "&amp;BD31)
+&amp;IF(ISBLANK(BJ31),"",", "&amp;BJ31)</f>
+        <v>1, 1, 1</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>13</v>
@@ -11743,7 +12003,7 @@
         <v>111</v>
       </c>
       <c r="K31" s="4" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="K31:K37" si="150">IF(AND(OR(I31="Gacha",I31="Origin"),ISBLANK(J31)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="L31">
@@ -11762,7 +12022,7 @@
         <v>111</v>
       </c>
       <c r="Q31" s="4" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="Q31:Q44" si="151">IF(AND(OR(O31="Gacha",O31="Origin"),ISBLANK(P31)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="R31">
@@ -11781,7 +12041,7 @@
         <v>111</v>
       </c>
       <c r="W31" s="4" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="W31:W36" si="152">IF(AND(OR(U31="Gacha",U31="Origin"),ISBLANK(V31)),"서브밸류 필요","")</f>
         <v/>
       </c>
       <c r="X31">
@@ -11793,62 +12053,17 @@
       <c r="Z31">
         <v>1</v>
       </c>
-      <c r="AA31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>111</v>
-      </c>
       <c r="AC31" s="4" t="str">
-        <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>111</v>
+        <f t="shared" si="127"/>
+        <v/>
       </c>
       <c r="AI31" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AJ31">
-        <v>1</v>
-      </c>
-      <c r="AK31">
-        <v>1</v>
-      </c>
-      <c r="AL31">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>111</v>
-      </c>
       <c r="AO31" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31">
-        <v>1</v>
-      </c>
-      <c r="AR31">
-        <v>1</v>
       </c>
       <c r="AU31" s="4" t="str">
         <f t="shared" si="18"/>
@@ -11865,34 +12080,34 @@
     </row>
     <row r="32" spans="1:62">
       <c r="A32" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="99"/>
-        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+        <f t="shared" si="144"/>
+        <v>Gacha, Gacha, Gacha, Gacha</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" ca="1" si="100"/>
-        <v>5, 5, 5, 5, 5, 5, 5</v>
+        <f t="shared" ca="1" si="145"/>
+        <v>5, 5, 5, 5</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="101"/>
-        <v>o, o, o, o, o, o, o</v>
+        <f t="shared" si="146"/>
+        <v>o, o, o, o</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="102"/>
-        <v>1, 1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="147"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f t="shared" si="103"/>
-        <v>1, 1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="148"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f t="shared" si="104"/>
-        <v>1, 1, 1, 1, 1, 1, 1</v>
+        <f t="shared" si="149"/>
+        <v>1, 1, 1, 1</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>13</v>
@@ -11901,7 +12116,7 @@
         <v>111</v>
       </c>
       <c r="K32" s="4" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="L32">
@@ -11920,7 +12135,7 @@
         <v>111</v>
       </c>
       <c r="Q32" s="4" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="151"/>
         <v/>
       </c>
       <c r="R32">
@@ -11939,7 +12154,7 @@
         <v>111</v>
       </c>
       <c r="W32" s="4" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="X32">
@@ -11958,7 +12173,7 @@
         <v>111</v>
       </c>
       <c r="AC32" s="4" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="AD32">
@@ -11969,63 +12184,18 @@
       </c>
       <c r="AF32">
         <v>1</v>
-      </c>
-      <c r="AG32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>111</v>
       </c>
       <c r="AI32" s="4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AJ32">
-        <v>1</v>
-      </c>
-      <c r="AK32">
-        <v>1</v>
-      </c>
-      <c r="AL32">
-        <v>1</v>
-      </c>
-      <c r="AM32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>111</v>
-      </c>
       <c r="AO32" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32">
-        <v>1</v>
-      </c>
-      <c r="AR32">
-        <v>1</v>
-      </c>
-      <c r="AS32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>111</v>
-      </c>
       <c r="AU32" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
-      </c>
-      <c r="AV32">
-        <v>1</v>
-      </c>
-      <c r="AW32">
-        <v>1</v>
-      </c>
-      <c r="AX32">
-        <v>1</v>
       </c>
       <c r="BA32" s="4" t="str">
         <f t="shared" si="19"/>
@@ -12038,29 +12208,503 @@
     </row>
     <row r="33" spans="1:59">
       <c r="A33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="144"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" ca="1" si="145"/>
+        <v>5, 5, 5, 5, 5</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="146"/>
+        <v>o, o, o, o, o</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="147"/>
+        <v>1, 1, 1, 1, 1</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="148"/>
+        <v>1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="149"/>
+        <v>1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <f t="shared" si="150"/>
+        <v/>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q33" s="4" t="str">
+        <f t="shared" si="151"/>
+        <v/>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V33" t="s">
+        <v>111</v>
+      </c>
+      <c r="W33" s="4" t="str">
+        <f t="shared" si="152"/>
+        <v/>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC33" s="4" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI33" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AU33" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA33" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG33" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:59">
+      <c r="A34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="144"/>
+        <v>Gacha, Gacha, Gacha, Gacha, Gacha, Gacha</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" ca="1" si="145"/>
+        <v>5, 5, 5, 5, 5, 5</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="146"/>
+        <v>o, o, o, o, o, o</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="147"/>
+        <v>1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="148"/>
+        <v>1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="149"/>
+        <v>1, 1, 1, 1, 1, 1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="4" t="str">
+        <f t="shared" si="150"/>
+        <v/>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q34" s="4" t="str">
+        <f t="shared" si="151"/>
+        <v/>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" t="s">
+        <v>111</v>
+      </c>
+      <c r="W34" s="4" t="str">
+        <f t="shared" si="152"/>
+        <v/>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC34" s="4" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI34" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO34" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BA34" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG34" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:59">
+      <c r="A35" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="144"/>
+        <v>Gacha, Gacha, 